--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31F9084E-78F7-489E-AD07-C1B4F8D99F9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AAB0401-627E-4E5F-AB36-ABEDAAF37BF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5681" uniqueCount="2294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5686" uniqueCount="2296">
   <si>
     <t>Phase</t>
   </si>
@@ -7092,6 +7092,12 @@
   </si>
   <si>
     <t>2024 Week35</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Christy Chuang-Stein; PhD (1998). Laboratory Data in Clinical Trials: A Statistician's Perspective. , 19(2), 167–177. doi:10.1016/s0197-2456(97)00123-2 </t>
+  </si>
+  <si>
+    <t>Laboratory Data</t>
   </si>
 </sst>
 </file>
@@ -8433,18 +8439,9 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8456,7 +8453,16 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -10976,12 +10982,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="162" t="s">
+      <c r="A1" s="159" t="s">
         <v>1595</v>
       </c>
-      <c r="B1" s="163"/>
-      <c r="C1" s="163"/>
-      <c r="D1" s="163"/>
+      <c r="B1" s="160"/>
+      <c r="C1" s="160"/>
+      <c r="D1" s="160"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -10990,35 +10996,35 @@
       <c r="A3" s="67" t="s">
         <v>1589</v>
       </c>
-      <c r="B3" s="164">
+      <c r="B3" s="161">
         <v>45520</v>
       </c>
-      <c r="C3" s="164"/>
-      <c r="D3" s="164"/>
+      <c r="C3" s="161"/>
+      <c r="D3" s="161"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="161" t="s">
+      <c r="A5" s="162" t="s">
         <v>1591</v>
       </c>
-      <c r="B5" s="161"/>
-      <c r="C5" s="161"/>
-      <c r="D5" s="161"/>
+      <c r="B5" s="162"/>
+      <c r="C5" s="162"/>
+      <c r="D5" s="162"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="165"/>
-      <c r="B6" s="165"/>
-      <c r="C6" s="165"/>
-      <c r="D6" s="165"/>
+      <c r="A6" s="163"/>
+      <c r="B6" s="163"/>
+      <c r="C6" s="163"/>
+      <c r="D6" s="163"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1592</v>
       </c>
-      <c r="B7" s="159" t="s">
+      <c r="B7" s="157" t="s">
         <v>1593</v>
       </c>
-      <c r="C7" s="159"/>
-      <c r="D7" s="159"/>
+      <c r="C7" s="157"/>
+      <c r="D7" s="157"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -11086,12 +11092,12 @@
       <c r="A13" s="76" t="s">
         <v>1596</v>
       </c>
-      <c r="B13" s="159">
+      <c r="B13" s="157">
         <f>COUNTA(Study!A$2:A$999)</f>
         <v>77</v>
       </c>
-      <c r="C13" s="159"/>
-      <c r="D13" s="159"/>
+      <c r="C13" s="157"/>
+      <c r="D13" s="157"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -11103,12 +11109,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="159">
+      <c r="B14" s="157">
         <f>COUNTIF(Study!D$1:D$999,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="159"/>
-      <c r="D14" s="159"/>
+      <c r="C14" s="157"/>
+      <c r="D14" s="157"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -11118,9 +11124,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="160"/>
-      <c r="C15" s="160"/>
-      <c r="D15" s="160"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -11132,11 +11138,11 @@
       <c r="A16" s="76" t="s">
         <v>1594</v>
       </c>
-      <c r="B16" s="159" t="s">
+      <c r="B16" s="157" t="s">
         <v>1593</v>
       </c>
-      <c r="C16" s="159"/>
-      <c r="D16" s="159"/>
+      <c r="C16" s="157"/>
+      <c r="D16" s="157"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -11298,12 +11304,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="161" t="s">
+      <c r="A27" s="162" t="s">
         <v>1601</v>
       </c>
-      <c r="B27" s="161"/>
-      <c r="C27" s="161"/>
-      <c r="D27" s="161"/>
+      <c r="B27" s="162"/>
+      <c r="C27" s="162"/>
+      <c r="D27" s="162"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -11316,11 +11322,11 @@
       <c r="A29" s="76" t="s">
         <v>1602</v>
       </c>
-      <c r="B29" s="159" t="s">
+      <c r="B29" s="157" t="s">
         <v>1593</v>
       </c>
-      <c r="C29" s="159"/>
-      <c r="D29" s="159"/>
+      <c r="C29" s="157"/>
+      <c r="D29" s="157"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -11360,29 +11366,21 @@
       <c r="L32" s="70"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="157" t="s">
+      <c r="A34" s="164" t="s">
         <v>1603</v>
       </c>
-      <c r="B34" s="157"/>
-      <c r="C34" s="157"/>
-      <c r="D34" s="157"/>
+      <c r="B34" s="164"/>
+      <c r="C34" s="164"/>
+      <c r="D34" s="164"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="157"/>
-      <c r="B35" s="157"/>
-      <c r="C35" s="157"/>
-      <c r="D35" s="157"/>
+      <c r="A35" s="164"/>
+      <c r="B35" s="164"/>
+      <c r="C35" s="164"/>
+      <c r="D35" s="164"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -11399,6 +11397,14 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -11414,7 +11420,7 @@
   <dimension ref="A1:L78"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
@@ -14104,11 +14110,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
-  <dimension ref="A1:E109"/>
+  <dimension ref="A1:E110"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C29" sqref="C29"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14531,73 +14537,75 @@
         <v>337</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>1615</v>
+        <v>2293</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>335</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>338</v>
-      </c>
-      <c r="E26" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2295</v>
+      </c>
+      <c r="E26" s="4" t="s">
+        <v>2294</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>1613</v>
+        <v>1615</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="D27" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E27" s="4"/>
+      <c r="D27" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>339</v>
+      </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B28" s="8" t="s">
+        <v>1613</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B29" s="8" t="s">
         <v>1614</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>2286</v>
-      </c>
-      <c r="D28" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="9" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B29" s="8" t="s">
-        <v>2293</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>2286</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>2287</v>
-      </c>
-      <c r="E29" s="3"/>
+        <v>378</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>379</v>
+      </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="8" t="s">
-        <v>166</v>
+      <c r="A30" s="9" t="s">
+        <v>1588</v>
       </c>
       <c r="B30" s="8" t="s">
         <v>2293</v>
@@ -14606,60 +14614,60 @@
         <v>2286</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2292</v>
+        <v>2287</v>
       </c>
       <c r="E30" s="3"/>
     </row>
-    <row r="31" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>1616</v>
+        <v>2293</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>341</v>
+        <v>2286</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="E31" s="4" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2292</v>
+      </c>
+      <c r="E31" s="3"/>
+    </row>
+    <row r="32" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>1612</v>
+        <v>1616</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>341</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>344</v>
-      </c>
-      <c r="E32" s="5" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B33" s="9"/>
+        <v>342</v>
+      </c>
+      <c r="E32" s="4" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="8" t="s">
+        <v>1612</v>
+      </c>
       <c r="C33" s="3" t="s">
         <v>341</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E33" s="4" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+        <v>344</v>
+      </c>
+      <c r="E33" s="5" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>1588</v>
       </c>
@@ -14667,27 +14675,27 @@
       <c r="C34" s="3" t="s">
         <v>341</v>
       </c>
-      <c r="D34" s="6" t="s">
+      <c r="D34" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B35" s="9"/>
+      <c r="C35" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="D35" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E35" s="3" t="s">
         <v>349</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="8" t="s">
-        <v>1611</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>1587</v>
-      </c>
-      <c r="D35" s="3" t="s">
-        <v>353</v>
-      </c>
-      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
@@ -14700,13 +14708,11 @@
         <v>1587</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>353</v>
+      </c>
+      <c r="E36" s="4"/>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>166</v>
       </c>
@@ -14716,11 +14722,11 @@
       <c r="C37" s="3" t="s">
         <v>1587</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>356</v>
-      </c>
-      <c r="E37" s="4" t="s">
-        <v>357</v>
+      <c r="D37" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E37" s="5" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -14728,82 +14734,82 @@
         <v>166</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>1609</v>
+        <v>1611</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="D38" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>1587</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>356</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>1610</v>
+        <v>1609</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>371</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>1607</v>
+        <v>1610</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>371</v>
       </c>
       <c r="D40" s="3" t="s">
+        <v>374</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B41" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="D41" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>377</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="9" t="s">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>1588</v>
       </c>
-      <c r="B41" s="9"/>
-      <c r="C41" s="3" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="3" t="s">
         <v>380</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="D42" s="3" t="s">
         <v>381</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E42" s="3" t="s">
         <v>382</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>1626</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>383</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>384</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -14811,24 +14817,34 @@
         <v>166</v>
       </c>
       <c r="B43" s="8" t="s">
+        <v>1626</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>383</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>384</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>1625</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="8" t="s">
         <v>1606</v>
       </c>
-      <c r="C43" s="3" t="s">
+      <c r="C44" s="3" t="s">
         <v>1604</v>
       </c>
-      <c r="D43" s="3" t="s">
+      <c r="D44" s="3" t="s">
         <v>1623</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E44" s="3" t="s">
         <v>1624</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="3"/>
-      <c r="B44" s="3"/>
-      <c r="C44" s="3"/>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="3"/>
@@ -14846,13 +14862,13 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="3"/>
+      <c r="B47" s="3"/>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
       <c r="E47" s="3"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
@@ -15284,13 +15300,20 @@
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
     </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+      <c r="E110" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:E1" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
   <hyperlinks>
-    <hyperlink ref="E26" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
-    <hyperlink ref="E36" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
-    <hyperlink ref="E32" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
-    <hyperlink ref="E41" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
+    <hyperlink ref="E27" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
+    <hyperlink ref="E37" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
+    <hyperlink ref="E33" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
+    <hyperlink ref="E42" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
     <hyperlink ref="E10" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -26982,7 +27005,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:J327"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D266" sqref="D266"/>
     </sheetView>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F344CCE-49EC-41BD-8757-146532B10796}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B09943E-3BC2-4307-827C-D1AD33165F59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="450" windowWidth="23190" windowHeight="14700" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'100 Reading Plan'!$A$1:$E$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Oper!$A$1:$K$327</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Oper!$A$1:$K$333</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$78</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -139,7 +139,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5692" uniqueCount="2299">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5722" uniqueCount="2303">
   <si>
     <t>Phase</t>
   </si>
@@ -5290,13 +5290,7 @@
     <t>ROMÉO ET JULIETTE</t>
   </si>
   <si>
-    <t>2024.12.01</t>
-  </si>
-  <si>
     <t>Other</t>
-  </si>
-  <si>
-    <t>Der Zwerg</t>
   </si>
   <si>
     <t>Oper Frankfurt</t>
@@ -7108,6 +7102,24 @@
   <si>
     <t>Sullivan Pepe, M., &amp; Anderson, G. L. (1994). A cautionary note on inference for marginal regression models with longitudinal data and general correlated response data. Communications in statistics-simulation and computation, 23(4), 939-951.
 Smith, T., &amp; Smith, B. (2006). PROC GENMOD with GEE to analyze correlated outcomes data using SAS. San Diego (CA): Department of Defense Center for Deployment Health Research, Naval Health Research Center. [Link](https://www.lexjansen.com/wuss/2006/tutorials/TUT-Smith.pdf)</t>
+  </si>
+  <si>
+    <t>2024.12.29</t>
+  </si>
+  <si>
+    <t>2024.12.31</t>
+  </si>
+  <si>
+    <t>Göttingen</t>
+  </si>
+  <si>
+    <t>Minus 16</t>
+  </si>
+  <si>
+    <t>2024.11.22</t>
+  </si>
+  <si>
+    <t>2024.12.21</t>
   </si>
 </sst>
 </file>
@@ -7348,7 +7360,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="25">
+  <fills count="26">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -7487,6 +7499,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -7990,7 +8008,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="192">
+  <cellXfs count="193">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8472,9 +8490,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8486,16 +8513,7 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8560,6 +8578,9 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="25" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9098,12 +9119,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="164" t="s">
+      <c r="A1" s="167" t="s">
         <v>1595</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
+      <c r="B1" s="168"/>
+      <c r="C1" s="168"/>
+      <c r="D1" s="168"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9112,35 +9133,35 @@
       <c r="A3" s="67" t="s">
         <v>1589</v>
       </c>
-      <c r="B3" s="166">
+      <c r="B3" s="169">
         <v>45520</v>
       </c>
-      <c r="C3" s="166"/>
-      <c r="D3" s="166"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="167" t="s">
+      <c r="A5" s="166" t="s">
         <v>1591</v>
       </c>
-      <c r="B5" s="167"/>
-      <c r="C5" s="167"/>
-      <c r="D5" s="167"/>
+      <c r="B5" s="166"/>
+      <c r="C5" s="166"/>
+      <c r="D5" s="166"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="168"/>
-      <c r="B6" s="168"/>
-      <c r="C6" s="168"/>
-      <c r="D6" s="168"/>
+      <c r="A6" s="170"/>
+      <c r="B6" s="170"/>
+      <c r="C6" s="170"/>
+      <c r="D6" s="170"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1592</v>
       </c>
-      <c r="B7" s="162" t="s">
+      <c r="B7" s="164" t="s">
         <v>1593</v>
       </c>
-      <c r="C7" s="162"/>
-      <c r="D7" s="162"/>
+      <c r="C7" s="164"/>
+      <c r="D7" s="164"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -9208,12 +9229,12 @@
       <c r="A13" s="76" t="s">
         <v>1596</v>
       </c>
-      <c r="B13" s="162">
+      <c r="B13" s="164">
         <f>COUNTA(Study!A$2:A$999)</f>
         <v>77</v>
       </c>
-      <c r="C13" s="162"/>
-      <c r="D13" s="162"/>
+      <c r="C13" s="164"/>
+      <c r="D13" s="164"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9225,12 +9246,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="162">
+      <c r="B14" s="164">
         <f>COUNTIF(Study!D$1:D$999,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="162"/>
-      <c r="D14" s="162"/>
+      <c r="C14" s="164"/>
+      <c r="D14" s="164"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9240,9 +9261,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9254,11 +9275,11 @@
       <c r="A16" s="76" t="s">
         <v>1594</v>
       </c>
-      <c r="B16" s="162" t="s">
+      <c r="B16" s="164" t="s">
         <v>1593</v>
       </c>
-      <c r="C16" s="162"/>
-      <c r="D16" s="162"/>
+      <c r="C16" s="164"/>
+      <c r="D16" s="164"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9420,12 +9441,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="167" t="s">
+      <c r="A27" s="166" t="s">
         <v>1601</v>
       </c>
-      <c r="B27" s="167"/>
-      <c r="C27" s="167"/>
-      <c r="D27" s="167"/>
+      <c r="B27" s="166"/>
+      <c r="C27" s="166"/>
+      <c r="D27" s="166"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9438,11 +9459,11 @@
       <c r="A29" s="76" t="s">
         <v>1602</v>
       </c>
-      <c r="B29" s="162" t="s">
+      <c r="B29" s="164" t="s">
         <v>1593</v>
       </c>
-      <c r="C29" s="162"/>
-      <c r="D29" s="162"/>
+      <c r="C29" s="164"/>
+      <c r="D29" s="164"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9482,21 +9503,29 @@
       <c r="L32" s="70"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="169" t="s">
+      <c r="A34" s="162" t="s">
         <v>1603</v>
       </c>
-      <c r="B34" s="169"/>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="B34" s="162"/>
+      <c r="C34" s="162"/>
+      <c r="D34" s="162"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="169"/>
-      <c r="B35" s="169"/>
-      <c r="C35" s="169"/>
-      <c r="D35" s="169"/>
+      <c r="A35" s="162"/>
+      <c r="B35" s="162"/>
+      <c r="C35" s="162"/>
+      <c r="D35" s="162"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9513,14 +9542,6 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -9586,10 +9607,10 @@
         <v>23</v>
       </c>
       <c r="J1" s="107" t="s">
-        <v>2288</v>
+        <v>2286</v>
       </c>
       <c r="K1" s="107" t="s">
-        <v>2289</v>
+        <v>2287</v>
       </c>
       <c r="L1" s="107" t="s">
         <v>1</v>
@@ -10310,7 +10331,7 @@
         <v>183</v>
       </c>
       <c r="J22" s="89" t="s">
-        <v>2287</v>
+        <v>2285</v>
       </c>
       <c r="K22" s="89" t="s">
         <v>131</v>
@@ -11490,7 +11511,7 @@
         <v>160</v>
       </c>
       <c r="J57" s="95" t="s">
-        <v>2286</v>
+        <v>2284</v>
       </c>
       <c r="K57" s="95" t="s">
         <v>161</v>
@@ -12228,7 +12249,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
   <dimension ref="A1:E111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
@@ -12658,16 +12679,16 @@
         <v>166</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="C26" s="3" t="s">
         <v>335</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>2293</v>
+        <v>2291</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2292</v>
+        <v>2290</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -12710,7 +12731,7 @@
         <v>1614</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>378</v>
@@ -12724,13 +12745,13 @@
         <v>444</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>2285</v>
+        <v>2283</v>
       </c>
       <c r="E30" s="3"/>
     </row>
@@ -12739,13 +12760,13 @@
         <v>166</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>2291</v>
+        <v>2289</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>2284</v>
+        <v>2282</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>2290</v>
+        <v>2288</v>
       </c>
       <c r="E31" s="3"/>
     </row>
@@ -12918,16 +12939,16 @@
         <v>166</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>2296</v>
+        <v>2294</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>371</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>2297</v>
+        <v>2295</v>
       </c>
       <c r="E42" s="3" t="s">
-        <v>2298</v>
+        <v>2296</v>
       </c>
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
@@ -25136,9 +25157,9 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:J327"/>
+  <dimension ref="A1:J333"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F274" sqref="F274"/>
     </sheetView>
@@ -25180,7 +25201,7 @@
         <v>1641</v>
       </c>
       <c r="H1" s="112" t="s">
-        <v>2283</v>
+        <v>2281</v>
       </c>
       <c r="I1" s="112" t="s">
         <v>1642</v>
@@ -25191,19 +25212,19 @@
     </row>
     <row r="2" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="113" t="s">
+        <v>1785</v>
+      </c>
+      <c r="B2" s="120" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C2" s="113" t="s">
         <v>1787</v>
-      </c>
-      <c r="B2" s="120" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C2" s="113" t="s">
-        <v>1789</v>
       </c>
       <c r="D2" s="132" t="s">
         <v>1653</v>
       </c>
       <c r="E2" s="113" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F2" s="113"/>
       <c r="G2" s="113"/>
@@ -25213,19 +25234,19 @@
     </row>
     <row r="3" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="113" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B3" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C3" s="113" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="D3" s="132" t="s">
         <v>1653</v>
       </c>
       <c r="E3" s="113" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F3" s="113"/>
       <c r="G3" s="113"/>
@@ -25235,19 +25256,19 @@
     </row>
     <row r="4" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="113" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B4" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C4" s="113" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="D4" s="132" t="s">
         <v>1653</v>
       </c>
       <c r="E4" s="113" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="F4" s="113"/>
       <c r="G4" s="113"/>
@@ -25257,22 +25278,22 @@
     </row>
     <row r="5" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="113" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B5" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C5" s="113" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="D5" s="113" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E5" s="113" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F5" s="113" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="G5" s="113" t="s">
         <v>909</v>
@@ -25283,19 +25304,19 @@
     </row>
     <row r="6" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="113" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B6" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C6" s="113" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="D6" s="113" t="s">
         <v>1686</v>
       </c>
       <c r="E6" s="113" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F6" s="113"/>
       <c r="G6" s="113"/>
@@ -25305,19 +25326,19 @@
     </row>
     <row r="7" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="113" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B7" s="120" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C7" s="113" t="s">
+        <v>1799</v>
+      </c>
+      <c r="D7" s="113" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E7" s="113" t="s">
         <v>1800</v>
-      </c>
-      <c r="B7" s="120" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C7" s="113" t="s">
-        <v>1801</v>
-      </c>
-      <c r="D7" s="113" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E7" s="113" t="s">
-        <v>1802</v>
       </c>
       <c r="F7" s="113"/>
       <c r="G7" s="113"/>
@@ -25327,19 +25348,19 @@
     </row>
     <row r="8" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="113" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B8" s="113" t="s">
+        <v>1801</v>
+      </c>
+      <c r="C8" s="113" t="s">
+        <v>1802</v>
+      </c>
+      <c r="D8" s="113" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E8" s="114" t="s">
         <v>1803</v>
-      </c>
-      <c r="C8" s="113" t="s">
-        <v>1804</v>
-      </c>
-      <c r="D8" s="113" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E8" s="114" t="s">
-        <v>1805</v>
       </c>
       <c r="F8" s="114"/>
       <c r="G8" s="114"/>
@@ -25349,19 +25370,19 @@
     </row>
     <row r="9" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="113" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B9" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C9" s="113" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
       <c r="D9" s="113" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E9" s="113" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="F9" s="113"/>
       <c r="G9" s="113"/>
@@ -25371,19 +25392,19 @@
     </row>
     <row r="10" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="113" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B10" s="140" t="s">
         <v>1680</v>
       </c>
       <c r="C10" s="113" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
       <c r="D10" s="113" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E10" s="113" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F10" s="113"/>
       <c r="G10" s="113"/>
@@ -25393,19 +25414,19 @@
     </row>
     <row r="11" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="113" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B11" s="140" t="s">
         <v>1680</v>
       </c>
       <c r="C11" s="113" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="D11" s="113" t="s">
         <v>1682</v>
       </c>
       <c r="E11" s="113" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F11" s="113"/>
       <c r="G11" s="113"/>
@@ -25415,19 +25436,19 @@
     </row>
     <row r="12" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="113" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B12" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C12" s="113" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="D12" s="113" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E12" s="113" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F12" s="113"/>
       <c r="G12" s="113"/>
@@ -25437,22 +25458,22 @@
     </row>
     <row r="13" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="113" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B13" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C13" s="113" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="D13" s="113" t="s">
         <v>1647</v>
       </c>
       <c r="E13" s="113" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F13" s="114" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="G13" s="114" t="s">
         <v>909</v>
@@ -25463,13 +25484,13 @@
     </row>
     <row r="14" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="113" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B14" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C14" s="113" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="D14" s="113" t="s">
         <v>1647</v>
@@ -25485,19 +25506,19 @@
     </row>
     <row r="15" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="113" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
       <c r="B15" s="113" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="C15" s="113" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D15" s="113" t="s">
         <v>1682</v>
       </c>
       <c r="E15" s="113" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F15" s="113"/>
       <c r="G15" s="113"/>
@@ -25507,19 +25528,19 @@
     </row>
     <row r="16" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="113" t="s">
+        <v>1817</v>
+      </c>
+      <c r="B16" s="120" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C16" s="113" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D16" s="113" t="s">
         <v>1819</v>
       </c>
-      <c r="B16" s="120" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C16" s="113" t="s">
+      <c r="E16" s="113" t="s">
         <v>1820</v>
-      </c>
-      <c r="D16" s="113" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E16" s="113" t="s">
-        <v>1822</v>
       </c>
       <c r="F16" s="113"/>
       <c r="G16" s="113"/>
@@ -25529,25 +25550,25 @@
     </row>
     <row r="17" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B17" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C17" s="113" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
       <c r="D17" s="113" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E17" s="113" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="F17" s="113" t="s">
         <v>909</v>
       </c>
       <c r="G17" s="153" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="H17" s="137"/>
       <c r="I17" s="113"/>
@@ -25555,19 +25576,19 @@
     </row>
     <row r="18" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B18" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C18" s="113" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
       <c r="D18" s="113" t="s">
         <v>1664</v>
       </c>
       <c r="E18" s="113" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
       <c r="F18" s="113"/>
       <c r="G18" s="113"/>
@@ -25577,25 +25598,25 @@
     </row>
     <row r="19" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B19" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C19" s="113" t="s">
+        <v>1826</v>
+      </c>
+      <c r="D19" s="113" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E19" s="113" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F19" s="113" t="s">
+        <v>1827</v>
+      </c>
+      <c r="G19" s="113" t="s">
         <v>1828</v>
-      </c>
-      <c r="D19" s="113" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E19" s="113" t="s">
-        <v>1813</v>
-      </c>
-      <c r="F19" s="113" t="s">
-        <v>1829</v>
-      </c>
-      <c r="G19" s="113" t="s">
-        <v>1830</v>
       </c>
       <c r="H19" s="137"/>
       <c r="I19" s="113"/>
@@ -25603,13 +25624,13 @@
     </row>
     <row r="20" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B20" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C20" s="113" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
       <c r="D20" s="113" t="s">
         <v>1682</v>
@@ -25625,19 +25646,19 @@
     </row>
     <row r="21" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B21" s="140" t="s">
         <v>1680</v>
       </c>
       <c r="C21" s="113" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
       <c r="D21" s="132" t="s">
         <v>1653</v>
       </c>
       <c r="E21" s="113" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
       <c r="F21" s="113"/>
       <c r="G21" s="113"/>
@@ -25647,19 +25668,19 @@
     </row>
     <row r="22" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B22" s="140" t="s">
         <v>1680</v>
       </c>
       <c r="C22" s="113" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
       <c r="D22" s="113" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E22" s="113" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F22" s="113"/>
       <c r="G22" s="113"/>
@@ -25669,19 +25690,19 @@
     </row>
     <row r="23" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B23" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C23" s="113" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
       <c r="D23" s="113" t="s">
         <v>1664</v>
       </c>
       <c r="E23" s="113" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F23" s="113"/>
       <c r="G23" s="113"/>
@@ -25691,19 +25712,19 @@
     </row>
     <row r="24" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B24" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C24" s="113" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="D24" s="113" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E24" s="113" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="F24" s="113"/>
       <c r="G24" s="113"/>
@@ -25713,19 +25734,19 @@
     </row>
     <row r="25" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B25" s="113" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
       <c r="C25" s="113" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="D25" s="113" t="s">
         <v>1664</v>
       </c>
       <c r="E25" s="113" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="F25" s="113"/>
       <c r="G25" s="113"/>
@@ -25735,19 +25756,19 @@
     </row>
     <row r="26" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B26" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C26" s="113" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="D26" s="132" t="s">
         <v>1653</v>
       </c>
       <c r="E26" s="113" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="F26" s="113"/>
       <c r="G26" s="113"/>
@@ -25757,19 +25778,19 @@
     </row>
     <row r="27" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B27" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C27" s="113" t="s">
+        <v>1841</v>
+      </c>
+      <c r="D27" s="113" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E27" s="113" t="s">
         <v>1843</v>
-      </c>
-      <c r="D27" s="113" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E27" s="113" t="s">
-        <v>1845</v>
       </c>
       <c r="F27" s="113"/>
       <c r="G27" s="113"/>
@@ -25779,19 +25800,19 @@
     </row>
     <row r="28" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B28" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C28" s="113" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="D28" s="113" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E28" s="113" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="F28" s="113"/>
       <c r="G28" s="113"/>
@@ -25801,19 +25822,19 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B29" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C29" s="113" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="D29" s="113" t="s">
         <v>1664</v>
       </c>
       <c r="E29" s="113" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="F29" s="113"/>
       <c r="G29" s="113"/>
@@ -25823,19 +25844,19 @@
     </row>
     <row r="30" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B30" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C30" s="114" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="D30" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E30" s="114" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="F30" s="114"/>
       <c r="G30" s="114"/>
@@ -25847,19 +25868,19 @@
     </row>
     <row r="31" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B31" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C31" s="114" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="D31" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E31" s="114" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="F31" s="114"/>
       <c r="G31" s="114"/>
@@ -25869,19 +25890,19 @@
     </row>
     <row r="32" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B32" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C32" s="114" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="D32" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E32" s="114" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="F32" s="114"/>
       <c r="G32" s="114"/>
@@ -25893,19 +25914,19 @@
     </row>
     <row r="33" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B33" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C33" s="114" t="s">
-        <v>1854</v>
+        <v>1852</v>
       </c>
       <c r="D33" s="114" t="s">
         <v>1678</v>
       </c>
       <c r="E33" s="114" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F33" s="114"/>
       <c r="G33" s="114"/>
@@ -25915,19 +25936,19 @@
     </row>
     <row r="34" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B34" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C34" s="114" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="D34" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E34" s="114" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F34" s="114"/>
       <c r="G34" s="114"/>
@@ -25937,19 +25958,19 @@
     </row>
     <row r="35" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B35" s="142" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C35" s="114" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="D35" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E35" s="114" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="F35" s="114"/>
       <c r="G35" s="114"/>
@@ -25959,19 +25980,19 @@
     </row>
     <row r="36" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B36" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C36" s="114" t="s">
-        <v>1858</v>
+        <v>1856</v>
       </c>
       <c r="D36" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E36" s="114" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="F36" s="114"/>
       <c r="G36" s="114"/>
@@ -25981,19 +26002,19 @@
     </row>
     <row r="37" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B37" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C37" s="114" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="D37" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E37" s="114" t="s">
-        <v>1859</v>
+        <v>1857</v>
       </c>
       <c r="F37" s="114"/>
       <c r="G37" s="114"/>
@@ -26003,25 +26024,25 @@
     </row>
     <row r="38" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B38" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C38" s="114" t="s">
+        <v>1858</v>
+      </c>
+      <c r="D38" s="114" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E38" s="114" t="s">
+        <v>1859</v>
+      </c>
+      <c r="F38" s="114" t="s">
         <v>1860</v>
       </c>
-      <c r="D38" s="114" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E38" s="114" t="s">
+      <c r="G38" s="114" t="s">
         <v>1861</v>
-      </c>
-      <c r="F38" s="114" t="s">
-        <v>1862</v>
-      </c>
-      <c r="G38" s="114" t="s">
-        <v>1863</v>
       </c>
       <c r="H38" s="115"/>
       <c r="I38" s="115"/>
@@ -26029,19 +26050,19 @@
     </row>
     <row r="39" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B39" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C39" s="114" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="D39" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E39" s="114" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="F39" s="114"/>
       <c r="G39" s="114"/>
@@ -26051,25 +26072,25 @@
     </row>
     <row r="40" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B40" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C40" s="114" t="s">
+        <v>1864</v>
+      </c>
+      <c r="D40" s="114" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E40" s="114" t="s">
+        <v>1701</v>
+      </c>
+      <c r="F40" s="114" t="s">
+        <v>1865</v>
+      </c>
+      <c r="G40" s="114" t="s">
         <v>1866</v>
-      </c>
-      <c r="D40" s="114" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E40" s="114" t="s">
-        <v>1703</v>
-      </c>
-      <c r="F40" s="114" t="s">
-        <v>1867</v>
-      </c>
-      <c r="G40" s="114" t="s">
-        <v>1868</v>
       </c>
       <c r="H40" s="115"/>
       <c r="I40" s="115"/>
@@ -26077,19 +26098,19 @@
     </row>
     <row r="41" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B41" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C41" s="114" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="D41" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E41" s="114" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="F41" s="114"/>
       <c r="G41" s="114"/>
@@ -26101,19 +26122,19 @@
     </row>
     <row r="42" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B42" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C42" s="114" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="D42" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E42" s="114" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="F42" s="114"/>
       <c r="G42" s="114"/>
@@ -26125,19 +26146,19 @@
     </row>
     <row r="43" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B43" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C43" s="114" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="D43" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E43" s="114" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="F43" s="114"/>
       <c r="G43" s="114"/>
@@ -26147,13 +26168,13 @@
     </row>
     <row r="44" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B44" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C44" s="114" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="D44" s="114" t="s">
         <v>1682</v>
@@ -26169,13 +26190,13 @@
     </row>
     <row r="45" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B45" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C45" s="114" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="D45" s="114" t="s">
         <v>1660</v>
@@ -26184,10 +26205,10 @@
         <v>1661</v>
       </c>
       <c r="F45" s="114" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="G45" s="114" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="H45" s="115"/>
       <c r="I45" s="115"/>
@@ -26195,19 +26216,19 @@
     </row>
     <row r="46" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A46" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B46" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C46" s="114" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="D46" s="114" t="s">
         <v>1686</v>
       </c>
       <c r="E46" s="114" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="F46" s="114"/>
       <c r="G46" s="114"/>
@@ -26217,19 +26238,19 @@
     </row>
     <row r="47" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B47" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C47" s="114" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="D47" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E47" s="114" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="F47" s="114"/>
       <c r="G47" s="114"/>
@@ -26239,19 +26260,19 @@
     </row>
     <row r="48" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B48" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C48" s="114" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="D48" s="114" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E48" s="114" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="F48" s="114"/>
       <c r="G48" s="114"/>
@@ -26261,19 +26282,19 @@
     </row>
     <row r="49" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B49" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C49" s="114" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="D49" s="114" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E49" s="114" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="F49" s="114"/>
       <c r="G49" s="114"/>
@@ -26283,19 +26304,19 @@
     </row>
     <row r="50" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B50" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C50" s="114" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="D50" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E50" s="114" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="F50" s="114"/>
       <c r="G50" s="114"/>
@@ -26305,25 +26326,25 @@
     </row>
     <row r="51" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B51" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C51" s="114" t="s">
+        <v>1886</v>
+      </c>
+      <c r="D51" s="114" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E51" s="114" t="s">
+        <v>1811</v>
+      </c>
+      <c r="F51" s="114" t="s">
+        <v>1887</v>
+      </c>
+      <c r="G51" s="114" t="s">
         <v>1888</v>
-      </c>
-      <c r="D51" s="114" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E51" s="114" t="s">
-        <v>1813</v>
-      </c>
-      <c r="F51" s="114" t="s">
-        <v>1889</v>
-      </c>
-      <c r="G51" s="114" t="s">
-        <v>1890</v>
       </c>
       <c r="H51" s="115"/>
       <c r="I51" s="115"/>
@@ -26331,19 +26352,19 @@
     </row>
     <row r="52" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B52" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C52" s="114" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="D52" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E52" s="114" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="F52" s="114"/>
       <c r="G52" s="114"/>
@@ -26353,25 +26374,25 @@
     </row>
     <row r="53" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B53" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C53" s="114" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="D53" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E53" s="114" t="s">
+        <v>1891</v>
+      </c>
+      <c r="F53" s="114" t="s">
+        <v>1892</v>
+      </c>
+      <c r="G53" s="114" t="s">
         <v>1893</v>
-      </c>
-      <c r="F53" s="114" t="s">
-        <v>1894</v>
-      </c>
-      <c r="G53" s="114" t="s">
-        <v>1895</v>
       </c>
       <c r="H53" s="115"/>
       <c r="I53" s="115"/>
@@ -26379,19 +26400,19 @@
     </row>
     <row r="54" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B54" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C54" s="114" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="D54" s="114" t="s">
         <v>1686</v>
       </c>
       <c r="E54" s="114" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="F54" s="114"/>
       <c r="G54" s="114"/>
@@ -26401,19 +26422,19 @@
     </row>
     <row r="55" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B55" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C55" s="114" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="D55" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E55" s="114" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="F55" s="114"/>
       <c r="G55" s="114"/>
@@ -26423,19 +26444,19 @@
     </row>
     <row r="56" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B56" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C56" s="114" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="D56" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E56" s="114" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
       <c r="F56" s="114"/>
       <c r="G56" s="114"/>
@@ -26445,49 +26466,49 @@
     </row>
     <row r="57" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B57" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C57" s="114" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="D57" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E57" s="114" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
       <c r="F57" s="114"/>
       <c r="G57" s="114"/>
       <c r="H57" s="115"/>
       <c r="I57" s="115" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="J57" s="114"/>
     </row>
     <row r="58" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B58" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C58" s="114" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="D58" s="114" t="s">
         <v>1682</v>
       </c>
       <c r="E58" s="114" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F58" s="114" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="G58" s="114" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="H58" s="115"/>
       <c r="I58" s="115"/>
@@ -26495,19 +26516,19 @@
     </row>
     <row r="59" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B59" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C59" s="114" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="D59" s="114" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E59" s="114" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F59" s="114"/>
       <c r="G59" s="114"/>
@@ -26517,19 +26538,19 @@
     </row>
     <row r="60" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B60" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C60" s="114" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="D60" s="114" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E60" s="114" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F60" s="114"/>
       <c r="G60" s="114"/>
@@ -26539,19 +26560,19 @@
     </row>
     <row r="61" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B61" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C61" s="114" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D61" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E61" s="114" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="F61" s="114"/>
       <c r="G61" s="114"/>
@@ -26561,25 +26582,25 @@
     </row>
     <row r="62" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B62" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C62" s="114" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="D62" s="114" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E62" s="114" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F62" s="113" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="G62" s="114" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="H62" s="115"/>
       <c r="I62" s="115"/>
@@ -26587,19 +26608,19 @@
     </row>
     <row r="63" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B63" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C63" s="114" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="D63" s="114" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E63" s="114" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="F63" s="114"/>
       <c r="G63" s="114"/>
@@ -26609,19 +26630,19 @@
     </row>
     <row r="64" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B64" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C64" s="114" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="D64" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E64" s="114" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F64" s="114"/>
       <c r="G64" s="114"/>
@@ -26631,19 +26652,19 @@
     </row>
     <row r="65" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B65" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C65" s="114" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="D65" s="114" t="s">
         <v>1647</v>
       </c>
       <c r="E65" s="114" t="s">
-        <v>1767</v>
+        <v>1765</v>
       </c>
       <c r="F65" s="114"/>
       <c r="G65" s="114"/>
@@ -26653,19 +26674,19 @@
     </row>
     <row r="66" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B66" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C66" s="114" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="D66" s="114" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E66" s="114" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="F66" s="114"/>
       <c r="G66" s="114"/>
@@ -26677,19 +26698,19 @@
     </row>
     <row r="67" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B67" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C67" s="114" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="D67" s="114" t="s">
         <v>1660</v>
       </c>
       <c r="E67" s="114" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="F67" s="114"/>
       <c r="G67" s="114"/>
@@ -26699,25 +26720,25 @@
     </row>
     <row r="68" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B68" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C68" s="114" t="s">
+        <v>1917</v>
+      </c>
+      <c r="D68" s="114" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E68" s="114" t="s">
+        <v>1803</v>
+      </c>
+      <c r="F68" s="114" t="s">
+        <v>1918</v>
+      </c>
+      <c r="G68" s="114" t="s">
         <v>1919</v>
-      </c>
-      <c r="D68" s="114" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E68" s="114" t="s">
-        <v>1805</v>
-      </c>
-      <c r="F68" s="114" t="s">
-        <v>1920</v>
-      </c>
-      <c r="G68" s="114" t="s">
-        <v>1921</v>
       </c>
       <c r="H68" s="115"/>
       <c r="I68" s="115"/>
@@ -26725,19 +26746,19 @@
     </row>
     <row r="69" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B69" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C69" s="114" t="s">
-        <v>1922</v>
+        <v>1920</v>
       </c>
       <c r="D69" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E69" s="114" t="s">
-        <v>1923</v>
+        <v>1921</v>
       </c>
       <c r="F69" s="114"/>
       <c r="G69" s="114"/>
@@ -26747,19 +26768,19 @@
     </row>
     <row r="70" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B70" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C70" s="114" t="s">
-        <v>1924</v>
+        <v>1922</v>
       </c>
       <c r="D70" s="114" t="s">
         <v>1682</v>
       </c>
       <c r="E70" s="114" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F70" s="114"/>
       <c r="G70" s="114"/>
@@ -26771,13 +26792,13 @@
     </row>
     <row r="71" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B71" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C71" s="114" t="s">
-        <v>1925</v>
+        <v>1923</v>
       </c>
       <c r="D71" s="114" t="s">
         <v>1669</v>
@@ -26793,19 +26814,19 @@
     </row>
     <row r="72" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B72" s="140" t="s">
         <v>1680</v>
       </c>
       <c r="C72" s="114" t="s">
-        <v>1926</v>
+        <v>1924</v>
       </c>
       <c r="D72" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E72" s="114" t="s">
-        <v>1927</v>
+        <v>1925</v>
       </c>
       <c r="F72" s="114"/>
       <c r="G72" s="114"/>
@@ -26815,19 +26836,19 @@
     </row>
     <row r="73" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A73" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B73" s="140" t="s">
         <v>1680</v>
       </c>
       <c r="C73" s="114" t="s">
-        <v>1928</v>
+        <v>1926</v>
       </c>
       <c r="D73" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E73" s="114" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="F73" s="114"/>
       <c r="G73" s="114"/>
@@ -26837,19 +26858,19 @@
     </row>
     <row r="74" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B74" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C74" s="114" t="s">
-        <v>1929</v>
+        <v>1927</v>
       </c>
       <c r="D74" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E74" s="114" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F74" s="114"/>
       <c r="G74" s="114"/>
@@ -26859,19 +26880,19 @@
     </row>
     <row r="75" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B75" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C75" s="114" t="s">
-        <v>1931</v>
+        <v>1929</v>
       </c>
       <c r="D75" s="114" t="s">
         <v>1686</v>
       </c>
       <c r="E75" s="114" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="F75" s="114"/>
       <c r="G75" s="114"/>
@@ -26881,19 +26902,19 @@
     </row>
     <row r="76" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A76" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B76" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C76" s="114" t="s">
-        <v>1932</v>
+        <v>1930</v>
       </c>
       <c r="D76" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E76" s="114" t="s">
-        <v>1933</v>
+        <v>1931</v>
       </c>
       <c r="F76" s="114"/>
       <c r="G76" s="114"/>
@@ -26905,19 +26926,19 @@
     </row>
     <row r="77" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B77" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C77" s="114" t="s">
-        <v>1934</v>
+        <v>1932</v>
       </c>
       <c r="D77" s="114" t="s">
         <v>1682</v>
       </c>
       <c r="E77" s="114" t="s">
-        <v>1935</v>
+        <v>1933</v>
       </c>
       <c r="F77" s="114"/>
       <c r="G77" s="114"/>
@@ -26927,19 +26948,19 @@
     </row>
     <row r="78" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A78" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B78" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C78" s="114" t="s">
-        <v>1936</v>
+        <v>1934</v>
       </c>
       <c r="D78" s="114" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E78" s="114" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F78" s="114"/>
       <c r="G78" s="114"/>
@@ -26949,19 +26970,19 @@
     </row>
     <row r="79" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A79" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B79" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C79" s="114" t="s">
-        <v>1937</v>
+        <v>1935</v>
       </c>
       <c r="D79" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E79" s="114" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="F79" s="114"/>
       <c r="G79" s="114"/>
@@ -26971,19 +26992,19 @@
     </row>
     <row r="80" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A80" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B80" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C80" s="114" t="s">
-        <v>1939</v>
+        <v>1937</v>
       </c>
       <c r="D80" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E80" s="116" t="s">
-        <v>1940</v>
+        <v>1938</v>
       </c>
       <c r="F80" s="116"/>
       <c r="G80" s="116"/>
@@ -26993,25 +27014,25 @@
     </row>
     <row r="81" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A81" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B81" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C81" s="114" t="s">
+        <v>1939</v>
+      </c>
+      <c r="D81" s="114" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E81" s="114" t="s">
+        <v>1940</v>
+      </c>
+      <c r="F81" s="114" t="s">
         <v>1941</v>
       </c>
-      <c r="D81" s="114" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E81" s="114" t="s">
+      <c r="G81" s="114" t="s">
         <v>1942</v>
-      </c>
-      <c r="F81" s="114" t="s">
-        <v>1943</v>
-      </c>
-      <c r="G81" s="114" t="s">
-        <v>1944</v>
       </c>
       <c r="H81" s="115"/>
       <c r="I81" s="115" t="s">
@@ -27021,19 +27042,19 @@
     </row>
     <row r="82" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A82" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B82" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C82" s="114" t="s">
-        <v>1945</v>
+        <v>1943</v>
       </c>
       <c r="D82" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E82" s="114" t="s">
-        <v>1946</v>
+        <v>1944</v>
       </c>
       <c r="F82" s="114"/>
       <c r="G82" s="114"/>
@@ -27043,19 +27064,19 @@
     </row>
     <row r="83" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A83" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B83" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C83" s="114" t="s">
-        <v>1947</v>
+        <v>1945</v>
       </c>
       <c r="D83" s="114" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E83" s="114" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F83" s="114"/>
       <c r="G83" s="114"/>
@@ -27065,19 +27086,19 @@
     </row>
     <row r="84" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A84" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B84" s="142" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C84" s="114" t="s">
-        <v>1948</v>
+        <v>1946</v>
       </c>
       <c r="D84" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E84" s="114" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="F84" s="114"/>
       <c r="G84" s="114"/>
@@ -27087,19 +27108,19 @@
     </row>
     <row r="85" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A85" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B85" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C85" s="114" t="s">
-        <v>1949</v>
+        <v>1947</v>
       </c>
       <c r="D85" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E85" s="114" t="s">
-        <v>1950</v>
+        <v>1948</v>
       </c>
       <c r="F85" s="114"/>
       <c r="G85" s="114"/>
@@ -27109,19 +27130,19 @@
     </row>
     <row r="86" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A86" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B86" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C86" s="114" t="s">
-        <v>1951</v>
+        <v>1949</v>
       </c>
       <c r="D86" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E86" s="114" t="s">
-        <v>1952</v>
+        <v>1950</v>
       </c>
       <c r="F86" s="114"/>
       <c r="G86" s="114"/>
@@ -27131,19 +27152,19 @@
     </row>
     <row r="87" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A87" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B87" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C87" s="114" t="s">
-        <v>1953</v>
+        <v>1951</v>
       </c>
       <c r="D87" s="114" t="s">
         <v>1647</v>
       </c>
       <c r="E87" s="114" t="s">
-        <v>1954</v>
+        <v>1952</v>
       </c>
       <c r="F87" s="114"/>
       <c r="G87" s="114"/>
@@ -27155,19 +27176,19 @@
     </row>
     <row r="88" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A88" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B88" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C88" s="114" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="D88" s="114" t="s">
         <v>1686</v>
       </c>
       <c r="E88" s="114" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F88" s="114"/>
       <c r="G88" s="114"/>
@@ -27177,25 +27198,25 @@
     </row>
     <row r="89" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B89" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C89" s="114" t="s">
-        <v>1955</v>
+        <v>1953</v>
       </c>
       <c r="D89" s="114" t="s">
         <v>1647</v>
       </c>
       <c r="E89" s="114" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="F89" s="114" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="G89" s="114" t="s">
-        <v>1956</v>
+        <v>1954</v>
       </c>
       <c r="H89" s="115"/>
       <c r="I89" s="115"/>
@@ -27203,25 +27224,25 @@
     </row>
     <row r="90" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A90" s="113" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="B90" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C90" s="114" t="s">
+        <v>1955</v>
+      </c>
+      <c r="D90" s="114" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E90" s="114" t="s">
+        <v>1956</v>
+      </c>
+      <c r="F90" s="114" t="s">
         <v>1957</v>
       </c>
-      <c r="D90" s="114" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E90" s="114" t="s">
+      <c r="G90" s="114" t="s">
         <v>1958</v>
-      </c>
-      <c r="F90" s="114" t="s">
-        <v>1959</v>
-      </c>
-      <c r="G90" s="114" t="s">
-        <v>1960</v>
       </c>
       <c r="H90" s="115"/>
       <c r="I90" s="115" t="s">
@@ -27231,13 +27252,13 @@
     </row>
     <row r="91" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B91" s="142" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C91" s="114" t="s">
-        <v>1962</v>
+        <v>1960</v>
       </c>
       <c r="D91" s="133" t="s">
         <v>1653</v>
@@ -27253,13 +27274,13 @@
     </row>
     <row r="92" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="113" t="s">
+        <v>1959</v>
+      </c>
+      <c r="B92" s="120" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C92" s="114" t="s">
         <v>1961</v>
-      </c>
-      <c r="B92" s="120" t="s">
-        <v>1788</v>
-      </c>
-      <c r="C92" s="114" t="s">
-        <v>1963</v>
       </c>
       <c r="D92" s="114" t="s">
         <v>1647</v>
@@ -27275,19 +27296,19 @@
     </row>
     <row r="93" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A93" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B93" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C93" s="114" t="s">
-        <v>1964</v>
+        <v>1962</v>
       </c>
       <c r="D93" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E93" s="114" t="s">
-        <v>1965</v>
+        <v>1963</v>
       </c>
       <c r="F93" s="114"/>
       <c r="G93" s="114"/>
@@ -27297,13 +27318,13 @@
     </row>
     <row r="94" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A94" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B94" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C94" s="114" t="s">
-        <v>1966</v>
+        <v>1964</v>
       </c>
       <c r="D94" s="114" t="s">
         <v>1664</v>
@@ -27319,25 +27340,25 @@
     </row>
     <row r="95" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A95" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B95" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C95" s="114" t="s">
-        <v>1967</v>
+        <v>1965</v>
       </c>
       <c r="D95" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E95" s="117" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="F95" s="117" t="s">
-        <v>1959</v>
+        <v>1957</v>
       </c>
       <c r="G95" s="117" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="H95" s="115"/>
       <c r="I95" s="115" t="s">
@@ -27347,19 +27368,19 @@
     </row>
     <row r="96" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A96" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B96" s="114" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="C96" s="114" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="D96" s="114" t="s">
         <v>1682</v>
       </c>
       <c r="E96" s="114" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="F96" s="114"/>
       <c r="G96" s="114"/>
@@ -27371,19 +27392,19 @@
     </row>
     <row r="97" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A97" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B97" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C97" s="114" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="D97" s="126" t="s">
         <v>1691</v>
       </c>
       <c r="E97" s="114" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="F97" s="114"/>
       <c r="G97" s="114"/>
@@ -27395,19 +27416,19 @@
     </row>
     <row r="98" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A98" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B98" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C98" s="114" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="D98" s="114" t="s">
         <v>1686</v>
       </c>
       <c r="E98" s="114" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F98" s="114"/>
       <c r="G98" s="114"/>
@@ -27419,19 +27440,19 @@
     </row>
     <row r="99" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A99" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B99" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C99" s="114" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="D99" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E99" s="114" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="F99" s="114"/>
       <c r="G99" s="114"/>
@@ -27441,19 +27462,19 @@
     </row>
     <row r="100" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A100" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B100" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C100" s="114" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="D100" s="114" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E100" s="114" t="s">
-        <v>1730</v>
+        <v>1728</v>
       </c>
       <c r="F100" s="114"/>
       <c r="G100" s="114"/>
@@ -27463,19 +27484,19 @@
     </row>
     <row r="101" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A101" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B101" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C101" s="114" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="D101" s="114" t="s">
         <v>1686</v>
       </c>
       <c r="E101" s="114" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="F101" s="114"/>
       <c r="G101" s="114"/>
@@ -27485,19 +27506,19 @@
     </row>
     <row r="102" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A102" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B102" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C102" s="114" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="D102" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E102" s="114" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="F102" s="114"/>
       <c r="G102" s="114"/>
@@ -27509,19 +27530,19 @@
     </row>
     <row r="103" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A103" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B103" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C103" s="114" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="D103" s="114" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E103" s="114" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="F103" s="114"/>
       <c r="G103" s="114"/>
@@ -27531,19 +27552,19 @@
     </row>
     <row r="104" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A104" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B104" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C104" s="114" t="s">
-        <v>1982</v>
+        <v>1980</v>
       </c>
       <c r="D104" s="116" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="E104" s="114" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="F104" s="114"/>
       <c r="G104" s="114"/>
@@ -27553,19 +27574,19 @@
     </row>
     <row r="105" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A105" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B105" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C105" s="114" t="s">
-        <v>1984</v>
+        <v>1982</v>
       </c>
       <c r="D105" s="114" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E105" s="114" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
       <c r="F105" s="114"/>
       <c r="G105" s="114"/>
@@ -27575,19 +27596,19 @@
     </row>
     <row r="106" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A106" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B106" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C106" s="114" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="D106" s="114" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E106" s="114" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="F106" s="114"/>
       <c r="G106" s="114"/>
@@ -27597,19 +27618,19 @@
     </row>
     <row r="107" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A107" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B107" s="142" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C107" s="114" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="D107" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E107" s="114" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="F107" s="114"/>
       <c r="G107" s="114"/>
@@ -27621,25 +27642,25 @@
     </row>
     <row r="108" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A108" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B108" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C108" s="114" t="s">
+        <v>1987</v>
+      </c>
+      <c r="D108" s="114" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E108" s="114" t="s">
+        <v>1988</v>
+      </c>
+      <c r="F108" s="114" t="s">
         <v>1989</v>
       </c>
-      <c r="D108" s="114" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E108" s="114" t="s">
+      <c r="G108" s="114" t="s">
         <v>1990</v>
-      </c>
-      <c r="F108" s="114" t="s">
-        <v>1991</v>
-      </c>
-      <c r="G108" s="114" t="s">
-        <v>1992</v>
       </c>
       <c r="H108" s="115"/>
       <c r="I108" s="115" t="s">
@@ -27649,19 +27670,19 @@
     </row>
     <row r="109" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A109" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B109" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C109" s="114" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="D109" s="114" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="E109" s="114" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="F109" s="114"/>
       <c r="G109" s="114"/>
@@ -27671,19 +27692,19 @@
     </row>
     <row r="110" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A110" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B110" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C110" s="114" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="D110" s="114" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="E110" s="114" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F110" s="114"/>
       <c r="G110" s="114"/>
@@ -27693,25 +27714,25 @@
     </row>
     <row r="111" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A111" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B111" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C111" s="114" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="D111" s="114" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E111" s="114" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F111" s="114" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="G111" s="117" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="H111" s="115"/>
       <c r="I111" s="115" t="s">
@@ -27721,19 +27742,19 @@
     </row>
     <row r="112" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B112" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C112" s="114" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="D112" s="114" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E112" s="114" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F112" s="114"/>
       <c r="G112" s="117"/>
@@ -27743,19 +27764,19 @@
     </row>
     <row r="113" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B113" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C113" s="114" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="D113" s="114" t="s">
         <v>1678</v>
       </c>
       <c r="E113" s="114" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F113" s="114"/>
       <c r="G113" s="117"/>
@@ -27765,19 +27786,19 @@
     </row>
     <row r="114" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B114" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C114" s="114" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="D114" s="114" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E114" s="114" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F114" s="114"/>
       <c r="G114" s="117"/>
@@ -27787,25 +27808,25 @@
     </row>
     <row r="115" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A115" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B115" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C115" s="114" t="s">
+        <v>2000</v>
+      </c>
+      <c r="D115" s="114" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E115" s="114" t="s">
+        <v>2001</v>
+      </c>
+      <c r="F115" s="117" t="s">
         <v>2002</v>
       </c>
-      <c r="D115" s="114" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E115" s="114" t="s">
+      <c r="G115" s="117" t="s">
         <v>2003</v>
-      </c>
-      <c r="F115" s="117" t="s">
-        <v>2004</v>
-      </c>
-      <c r="G115" s="117" t="s">
-        <v>2005</v>
       </c>
       <c r="H115" s="115"/>
       <c r="I115" s="115"/>
@@ -27813,19 +27834,19 @@
     </row>
     <row r="116" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A116" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B116" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C116" s="114" t="s">
+        <v>2004</v>
+      </c>
+      <c r="D116" s="114" t="s">
+        <v>2005</v>
+      </c>
+      <c r="E116" s="114" t="s">
         <v>2006</v>
-      </c>
-      <c r="D116" s="114" t="s">
-        <v>2007</v>
-      </c>
-      <c r="E116" s="114" t="s">
-        <v>2008</v>
       </c>
       <c r="F116" s="114"/>
       <c r="G116" s="114"/>
@@ -27835,19 +27856,19 @@
     </row>
     <row r="117" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A117" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B117" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C117" s="114" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="D117" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E117" s="114" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="F117" s="114"/>
       <c r="G117" s="114"/>
@@ -27857,19 +27878,19 @@
     </row>
     <row r="118" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A118" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B118" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C118" s="114" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="D118" s="114" t="s">
         <v>1660</v>
       </c>
       <c r="E118" s="114" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="F118" s="114"/>
       <c r="G118" s="114"/>
@@ -27879,19 +27900,19 @@
     </row>
     <row r="119" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A119" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B119" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C119" s="114" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="D119" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E119" s="113" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F119" s="114"/>
       <c r="G119" s="114"/>
@@ -27901,19 +27922,19 @@
     </row>
     <row r="120" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A120" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B120" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C120" s="114" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="D120" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E120" s="114" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="F120" s="114"/>
       <c r="G120" s="114"/>
@@ -27923,19 +27944,19 @@
     </row>
     <row r="121" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A121" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B121" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C121" s="114" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="D121" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E121" s="114" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="F121" s="114"/>
       <c r="G121" s="114"/>
@@ -27945,19 +27966,19 @@
     </row>
     <row r="122" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A122" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B122" s="142" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C122" s="114" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="D122" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E122" s="114" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="F122" s="114"/>
       <c r="G122" s="114"/>
@@ -27967,22 +27988,22 @@
     </row>
     <row r="123" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A123" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B123" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C123" s="114" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="D123" s="114" t="s">
         <v>1678</v>
       </c>
       <c r="E123" s="114" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="F123" s="114" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="G123" s="114" t="s">
         <v>909</v>
@@ -27993,19 +28014,19 @@
     </row>
     <row r="124" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A124" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B124" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C124" s="114" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="D124" s="114" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E124" s="114" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="F124" s="114"/>
       <c r="G124" s="114"/>
@@ -28015,19 +28036,19 @@
     </row>
     <row r="125" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A125" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B125" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C125" s="114" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="D125" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E125" s="114" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="F125" s="114"/>
       <c r="G125" s="114"/>
@@ -28037,19 +28058,19 @@
     </row>
     <row r="126" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A126" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B126" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C126" s="114" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="D126" s="114" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E126" s="114" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="F126" s="114"/>
       <c r="G126" s="114"/>
@@ -28059,19 +28080,19 @@
     </row>
     <row r="127" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A127" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B127" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C127" s="114" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="D127" s="114" t="s">
         <v>1678</v>
       </c>
       <c r="E127" s="114" t="s">
-        <v>1721</v>
+        <v>1719</v>
       </c>
       <c r="F127" s="114"/>
       <c r="G127" s="114"/>
@@ -28081,25 +28102,25 @@
     </row>
     <row r="128" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A128" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B128" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C128" s="114" t="s">
+        <v>2025</v>
+      </c>
+      <c r="D128" s="114" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E128" s="114" t="s">
+        <v>2026</v>
+      </c>
+      <c r="F128" s="114" t="s">
         <v>2027</v>
       </c>
-      <c r="D128" s="114" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E128" s="114" t="s">
+      <c r="G128" s="114" t="s">
         <v>2028</v>
-      </c>
-      <c r="F128" s="114" t="s">
-        <v>2029</v>
-      </c>
-      <c r="G128" s="114" t="s">
-        <v>2030</v>
       </c>
       <c r="H128" s="115"/>
       <c r="I128" s="115"/>
@@ -28107,19 +28128,19 @@
     </row>
     <row r="129" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A129" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B129" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C129" s="114" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="D129" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E129" s="114" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="F129" s="114"/>
       <c r="G129" s="114"/>
@@ -28129,19 +28150,19 @@
     </row>
     <row r="130" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A130" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B130" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C130" s="114" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="D130" s="116" t="s">
         <v>1678</v>
       </c>
       <c r="E130" s="114" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="F130" s="114"/>
       <c r="G130" s="114"/>
@@ -28151,19 +28172,19 @@
     </row>
     <row r="131" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A131" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B131" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C131" s="114" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="D131" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E131" s="114" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="F131" s="114"/>
       <c r="G131" s="114"/>
@@ -28173,25 +28194,25 @@
     </row>
     <row r="132" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B132" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C132" s="114" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="D132" s="114" t="s">
         <v>1686</v>
       </c>
       <c r="E132" s="114" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="F132" s="114" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="G132" s="114" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="H132" s="115"/>
       <c r="I132" s="115"/>
@@ -28199,19 +28220,19 @@
     </row>
     <row r="133" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B133" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C133" s="114" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="D133" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E133" s="114" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="F133" s="114"/>
       <c r="G133" s="114"/>
@@ -28221,19 +28242,19 @@
     </row>
     <row r="134" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B134" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C134" s="114" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="D134" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E134" s="114" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="F134" s="114"/>
       <c r="G134" s="114"/>
@@ -28243,19 +28264,19 @@
     </row>
     <row r="135" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A135" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B135" s="142" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C135" s="114" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="D135" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E135" s="114" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="F135" s="114"/>
       <c r="G135" s="114"/>
@@ -28265,19 +28286,19 @@
     </row>
     <row r="136" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A136" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B136" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C136" s="114" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="D136" s="114" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E136" s="114" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="F136" s="114"/>
       <c r="G136" s="114"/>
@@ -28287,19 +28308,19 @@
     </row>
     <row r="137" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A137" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B137" s="142" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C137" s="114" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="D137" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E137" s="114" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="F137" s="114"/>
       <c r="G137" s="114"/>
@@ -28309,19 +28330,19 @@
     </row>
     <row r="138" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A138" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B138" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C138" s="114" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="D138" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E138" s="114" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="F138" s="114"/>
       <c r="G138" s="114"/>
@@ -28331,19 +28352,19 @@
     </row>
     <row r="139" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A139" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B139" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C139" s="114" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="D139" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E139" s="114" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="F139" s="114"/>
       <c r="G139" s="114"/>
@@ -28353,19 +28374,19 @@
     </row>
     <row r="140" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A140" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B140" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C140" s="114" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="D140" s="114" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E140" s="114" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="F140" s="114"/>
       <c r="G140" s="114"/>
@@ -28375,41 +28396,41 @@
     </row>
     <row r="141" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A141" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B141" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C141" s="114" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="D141" s="114" t="s">
         <v>1678</v>
       </c>
       <c r="E141" s="114" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F141" s="114" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="G141" s="114" t="s">
-        <v>1960</v>
+        <v>1958</v>
       </c>
       <c r="H141" s="115"/>
       <c r="I141" s="115" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="J141" s="114"/>
     </row>
     <row r="142" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A142" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B142" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C142" s="114" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="D142" s="114" t="s">
         <v>1660</v>
@@ -28425,19 +28446,19 @@
     </row>
     <row r="143" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A143" s="187" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B143" s="189" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C143" s="187" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="D143" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E143" s="114" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="F143" s="116"/>
       <c r="G143" s="116"/>
@@ -28451,7 +28472,7 @@
       <c r="C144" s="188"/>
       <c r="D144" s="114"/>
       <c r="E144" s="114" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="F144" s="114"/>
       <c r="G144" s="114"/>
@@ -28461,19 +28482,19 @@
     </row>
     <row r="145" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B145" s="142" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C145" s="114" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="D145" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E145" s="114" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="F145" s="114"/>
       <c r="G145" s="114"/>
@@ -28483,19 +28504,19 @@
     </row>
     <row r="146" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A146" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B146" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C146" s="114" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="D146" s="114" t="s">
         <v>1686</v>
       </c>
       <c r="E146" s="114" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="F146" s="114" t="s">
         <v>533</v>
@@ -28505,25 +28526,25 @@
       </c>
       <c r="H146" s="115"/>
       <c r="I146" s="115" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="J146" s="114"/>
     </row>
     <row r="147" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A147" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B147" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C147" s="114" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="D147" s="114" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E147" s="114" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="F147" s="114"/>
       <c r="G147" s="114"/>
@@ -28533,19 +28554,19 @@
     </row>
     <row r="148" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B148" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C148" s="114" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="D148" s="114" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E148" s="114" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F148" s="114"/>
       <c r="G148" s="114"/>
@@ -28555,19 +28576,19 @@
     </row>
     <row r="149" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A149" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B149" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C149" s="114" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="D149" s="114" t="s">
         <v>1686</v>
       </c>
       <c r="E149" s="114" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
       <c r="F149" s="114"/>
       <c r="G149" s="114"/>
@@ -28577,19 +28598,19 @@
     </row>
     <row r="150" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A150" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B150" s="119" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C150" s="114" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="D150" s="114" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E150" s="114" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="F150" s="114"/>
       <c r="G150" s="114"/>
@@ -28599,19 +28620,19 @@
     </row>
     <row r="151" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A151" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B151" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C151" s="114" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="D151" s="114" t="s">
         <v>1682</v>
       </c>
       <c r="E151" s="114" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="F151" s="114"/>
       <c r="G151" s="114"/>
@@ -28621,19 +28642,19 @@
     </row>
     <row r="152" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A152" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B152" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C152" s="114" t="s">
+        <v>2065</v>
+      </c>
+      <c r="D152" s="114" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E152" s="114" t="s">
         <v>2067</v>
-      </c>
-      <c r="D152" s="114" t="s">
-        <v>1844</v>
-      </c>
-      <c r="E152" s="114" t="s">
-        <v>2069</v>
       </c>
       <c r="F152" s="114" t="s">
         <v>533</v>
@@ -28647,19 +28668,19 @@
     </row>
     <row r="153" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A153" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B153" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C153" s="114" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="D153" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E153" s="114" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="F153" s="114"/>
       <c r="G153" s="114"/>
@@ -28669,19 +28690,19 @@
     </row>
     <row r="154" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A154" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B154" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C154" s="114" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="D154" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E154" s="114" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="F154" s="114"/>
       <c r="G154" s="114"/>
@@ -28693,19 +28714,19 @@
     </row>
     <row r="155" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A155" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B155" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C155" s="114" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="D155" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E155" s="114" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="F155" s="114"/>
       <c r="G155" s="114"/>
@@ -28715,19 +28736,19 @@
     </row>
     <row r="156" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B156" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C156" s="114" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="D156" s="114" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
       <c r="E156" s="114" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
       <c r="F156" s="114"/>
       <c r="G156" s="114"/>
@@ -28737,19 +28758,19 @@
     </row>
     <row r="157" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A157" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B157" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C157" s="114" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="D157" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E157" s="114" t="s">
-        <v>1938</v>
+        <v>1936</v>
       </c>
       <c r="F157" s="114"/>
       <c r="G157" s="114"/>
@@ -28759,19 +28780,19 @@
     </row>
     <row r="158" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B158" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C158" s="114" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="D158" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E158" s="114" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="F158" s="114"/>
       <c r="G158" s="114"/>
@@ -28781,19 +28802,19 @@
     </row>
     <row r="159" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A159" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B159" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C159" s="114" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="D159" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E159" s="114" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="F159" s="114" t="s">
         <v>909</v>
@@ -28809,43 +28830,43 @@
     </row>
     <row r="160" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A160" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B160" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C160" s="114" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="D160" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E160" s="114" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="F160" s="114"/>
       <c r="G160" s="114"/>
       <c r="H160" s="115"/>
       <c r="I160" s="115" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="J160" s="114"/>
     </row>
     <row r="161" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A161" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B161" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C161" s="114" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="D161" s="133" t="s">
         <v>1653</v>
       </c>
       <c r="E161" s="114" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F161" s="114"/>
       <c r="G161" s="114"/>
@@ -28855,19 +28876,19 @@
     </row>
     <row r="162" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A162" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B162" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C162" s="114" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="D162" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E162" s="114" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F162" s="114" t="s">
         <v>909</v>
@@ -28881,19 +28902,19 @@
     </row>
     <row r="163" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A163" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B163" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C163" s="114" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="D163" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E163" s="114" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="F163" s="114"/>
       <c r="G163" s="114"/>
@@ -28903,19 +28924,19 @@
     </row>
     <row r="164" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A164" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B164" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C164" s="114" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="D164" s="114" t="s">
         <v>1686</v>
       </c>
       <c r="E164" s="114" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="F164" s="114"/>
       <c r="G164" s="114"/>
@@ -28925,13 +28946,13 @@
     </row>
     <row r="165" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A165" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B165" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C165" s="114" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="D165" s="114" t="s">
         <v>1664</v>
@@ -28947,19 +28968,19 @@
     </row>
     <row r="166" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B166" s="121" t="s">
         <v>1645</v>
       </c>
       <c r="C166" s="114" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="D166" s="114" t="s">
         <v>1664</v>
       </c>
       <c r="E166" s="114" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="F166" s="114"/>
       <c r="G166" s="114"/>
@@ -28969,19 +28990,19 @@
     </row>
     <row r="167" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A167" s="113" t="s">
-        <v>1961</v>
+        <v>1959</v>
       </c>
       <c r="B167" s="118" t="s">
         <v>1651</v>
       </c>
       <c r="C167" s="114" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="D167" s="114" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E167" s="114" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="F167" s="114" t="s">
         <v>909</v>
@@ -28995,19 +29016,19 @@
     </row>
     <row r="168" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B168" s="143" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C168" s="126" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="D168" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E168" s="125" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F168" s="125"/>
       <c r="G168" s="125"/>
@@ -29017,23 +29038,23 @@
     </row>
     <row r="169" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A169" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B169" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C169" s="126" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="D169" s="126" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E169" s="125" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F169" s="125"/>
       <c r="G169" s="125" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
       <c r="H169" s="115"/>
       <c r="I169" s="115"/>
@@ -29041,23 +29062,23 @@
     </row>
     <row r="170" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A170" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B170" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C170" s="126" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="D170" s="126" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E170" s="125" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F170" s="125"/>
       <c r="G170" s="125" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="H170" s="115"/>
       <c r="I170" s="115"/>
@@ -29065,23 +29086,23 @@
     </row>
     <row r="171" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A171" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B171" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C171" s="126" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="D171" s="126" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E171" s="125" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="F171" s="125"/>
       <c r="G171" s="125" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="H171" s="115"/>
       <c r="I171" s="115"/>
@@ -29089,19 +29110,19 @@
     </row>
     <row r="172" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A172" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B172" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C172" s="126" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D172" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E172" s="125" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="F172" s="125"/>
       <c r="G172" s="125" t="s">
@@ -29113,23 +29134,23 @@
     </row>
     <row r="173" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A173" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B173" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C173" s="126" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="D173" s="126" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E173" s="125" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="F173" s="125"/>
       <c r="G173" s="125" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="H173" s="115"/>
       <c r="I173" s="115"/>
@@ -29137,19 +29158,19 @@
     </row>
     <row r="174" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A174" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B174" s="127" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C174" s="126" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="D174" s="126" t="s">
         <v>1682</v>
       </c>
       <c r="E174" s="125" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F174" s="125"/>
       <c r="G174" s="125"/>
@@ -29159,19 +29180,19 @@
     </row>
     <row r="175" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A175" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B175" s="127" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C175" s="126" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="D175" s="126" t="s">
         <v>1664</v>
       </c>
       <c r="E175" s="125" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F175" s="125"/>
       <c r="G175" s="125"/>
@@ -29181,19 +29202,19 @@
     </row>
     <row r="176" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A176" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B176" s="127" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C176" s="126" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="D176" s="126" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E176" s="125" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F176" s="125"/>
       <c r="G176" s="125"/>
@@ -29203,23 +29224,23 @@
     </row>
     <row r="177" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A177" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B177" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C177" s="126" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="D177" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E177" s="125" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F177" s="125"/>
       <c r="G177" s="125" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="H177" s="115"/>
       <c r="I177" s="115" t="s">
@@ -29229,13 +29250,13 @@
     </row>
     <row r="178" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A178" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B178" s="128" t="s">
         <v>1651</v>
       </c>
       <c r="C178" s="126" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="D178" s="126" t="s">
         <v>1669</v>
@@ -29244,10 +29265,10 @@
         <v>1670</v>
       </c>
       <c r="F178" s="125" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="G178" s="125" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="H178" s="115"/>
       <c r="I178" s="115"/>
@@ -29255,25 +29276,25 @@
     </row>
     <row r="179" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A179" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B179" s="128" t="s">
         <v>1651</v>
       </c>
       <c r="C179" s="126" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="D179" s="126" t="s">
         <v>1664</v>
       </c>
       <c r="E179" s="125" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="F179" s="125" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="G179" s="125" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="H179" s="115"/>
       <c r="I179" s="115"/>
@@ -29281,23 +29302,23 @@
     </row>
     <row r="180" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A180" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B180" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C180" s="126" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="D180" s="126" t="s">
         <v>1664</v>
       </c>
       <c r="E180" s="125" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="F180" s="125"/>
       <c r="G180" s="125" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="H180" s="115"/>
       <c r="I180" s="115" t="s">
@@ -29307,23 +29328,23 @@
     </row>
     <row r="181" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A181" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B181" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C181" s="126" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="D181" s="126" t="s">
         <v>1686</v>
       </c>
       <c r="E181" s="125" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
       <c r="F181" s="125"/>
       <c r="G181" s="125" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="H181" s="115"/>
       <c r="I181" s="115"/>
@@ -29331,25 +29352,25 @@
     </row>
     <row r="182" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B182" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C182" s="126" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="D182" s="126" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E182" s="125" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F182" s="125" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="G182" s="125" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="H182" s="115"/>
       <c r="I182" s="115"/>
@@ -29357,23 +29378,23 @@
     </row>
     <row r="183" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A183" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B183" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C183" s="126" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D183" s="126" t="s">
         <v>1678</v>
       </c>
       <c r="E183" s="125" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="F183" s="125"/>
       <c r="G183" s="125" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="H183" s="115"/>
       <c r="I183" s="115"/>
@@ -29381,23 +29402,23 @@
     </row>
     <row r="184" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B184" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C184" s="126" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D184" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E184" s="125" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="F184" s="125"/>
       <c r="G184" s="125" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="H184" s="115"/>
       <c r="I184" s="115"/>
@@ -29405,23 +29426,23 @@
     </row>
     <row r="185" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A185" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B185" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C185" s="126" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D185" s="126" t="s">
         <v>1664</v>
       </c>
       <c r="E185" s="125" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
       <c r="F185" s="125"/>
       <c r="G185" s="125" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="H185" s="115"/>
       <c r="I185" s="115"/>
@@ -29429,13 +29450,13 @@
     </row>
     <row r="186" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A186" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B186" s="141" t="s">
         <v>1673</v>
       </c>
       <c r="C186" s="126" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="D186" s="126" t="s">
         <v>1675</v>
@@ -29451,39 +29472,39 @@
     </row>
     <row r="187" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A187" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B187" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C187" s="126" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="D187" s="126" t="s">
         <v>1664</v>
       </c>
       <c r="E187" s="125" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="F187" s="125"/>
       <c r="G187" s="125" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="H187" s="115"/>
       <c r="I187" s="115" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="J187" s="114"/>
     </row>
     <row r="188" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A188" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B188" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C188" s="126" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="D188" s="126" t="s">
         <v>1669</v>
@@ -29493,7 +29514,7 @@
       </c>
       <c r="F188" s="125"/>
       <c r="G188" s="125" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="H188" s="115"/>
       <c r="I188" s="115"/>
@@ -29501,25 +29522,25 @@
     </row>
     <row r="189" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A189" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B189" s="128" t="s">
         <v>1651</v>
       </c>
       <c r="C189" s="125" t="s">
+        <v>2133</v>
+      </c>
+      <c r="D189" s="126" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E189" s="125" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F189" s="125" t="s">
         <v>2135</v>
       </c>
-      <c r="D189" s="126" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E189" s="125" t="s">
-        <v>2136</v>
-      </c>
-      <c r="F189" s="125" t="s">
-        <v>2137</v>
-      </c>
       <c r="G189" s="125" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="H189" s="115"/>
       <c r="I189" s="115"/>
@@ -29527,23 +29548,23 @@
     </row>
     <row r="190" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A190" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B190" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C190" s="126" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D190" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E190" s="125" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F190" s="125"/>
       <c r="G190" s="125" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="H190" s="115"/>
       <c r="I190" s="115"/>
@@ -29551,51 +29572,51 @@
     </row>
     <row r="191" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A191" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B191" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C191" s="126" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="D191" s="126" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E191" s="125" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F191" s="125"/>
       <c r="G191" s="125" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="H191" s="115"/>
       <c r="I191" s="115" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="J191" s="114"/>
     </row>
     <row r="192" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B192" s="128" t="s">
         <v>1651</v>
       </c>
       <c r="C192" s="125" t="s">
+        <v>2141</v>
+      </c>
+      <c r="D192" s="125" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E192" s="125" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F192" s="125" t="s">
         <v>2143</v>
       </c>
-      <c r="D192" s="125" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E192" s="125" t="s">
+      <c r="G192" s="125" t="s">
         <v>2144</v>
-      </c>
-      <c r="F192" s="125" t="s">
-        <v>2145</v>
-      </c>
-      <c r="G192" s="125" t="s">
-        <v>2146</v>
       </c>
       <c r="H192" s="115"/>
       <c r="I192" s="115"/>
@@ -29603,19 +29624,19 @@
     </row>
     <row r="193" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B193" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C193" s="125" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="D193" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E193" s="125" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="F193" s="125"/>
       <c r="G193" s="125"/>
@@ -29625,13 +29646,13 @@
     </row>
     <row r="194" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A194" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B194" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C194" s="125" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D194" s="126" t="s">
         <v>1682</v>
@@ -29647,19 +29668,19 @@
     </row>
     <row r="195" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B195" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C195" s="125" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D195" s="125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E195" s="117" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="F195" s="117"/>
       <c r="G195" s="117"/>
@@ -29669,19 +29690,19 @@
     </row>
     <row r="196" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A196" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B196" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C196" s="125" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="D196" s="125" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E196" s="117" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="F196" s="117"/>
       <c r="G196" s="117"/>
@@ -29691,19 +29712,19 @@
     </row>
     <row r="197" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A197" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B197" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C197" s="125" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D197" s="125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E197" s="117" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="F197" s="117"/>
       <c r="G197" s="117"/>
@@ -29713,19 +29734,19 @@
     </row>
     <row r="198" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A198" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B198" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C198" s="125" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="D198" s="125" t="s">
         <v>1682</v>
       </c>
       <c r="E198" s="117" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="F198" s="117"/>
       <c r="G198" s="117"/>
@@ -29737,19 +29758,19 @@
     </row>
     <row r="199" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A199" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B199" s="125" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C199" s="125" t="s">
+        <v>2156</v>
+      </c>
+      <c r="D199" s="125" t="s">
+        <v>1819</v>
+      </c>
+      <c r="E199" s="117" t="s">
         <v>2157</v>
-      </c>
-      <c r="C199" s="125" t="s">
-        <v>2158</v>
-      </c>
-      <c r="D199" s="125" t="s">
-        <v>1821</v>
-      </c>
-      <c r="E199" s="117" t="s">
-        <v>2159</v>
       </c>
       <c r="F199" s="117"/>
       <c r="G199" s="117"/>
@@ -29759,19 +29780,19 @@
     </row>
     <row r="200" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A200" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B200" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C200" s="125" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D200" s="135" t="s">
         <v>1653</v>
       </c>
       <c r="E200" s="117" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="F200" s="117"/>
       <c r="G200" s="117"/>
@@ -29783,25 +29804,25 @@
     </row>
     <row r="201" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A201" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B201" s="128" t="s">
         <v>1651</v>
       </c>
       <c r="C201" s="125" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D201" s="125" t="s">
+        <v>1706</v>
+      </c>
+      <c r="E201" s="117" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F201" s="114" t="s">
         <v>2161</v>
       </c>
-      <c r="D201" s="125" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E201" s="117" t="s">
-        <v>2162</v>
-      </c>
-      <c r="F201" s="114" t="s">
-        <v>2163</v>
-      </c>
       <c r="G201" s="114" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="H201" s="115"/>
       <c r="I201" s="115"/>
@@ -29809,19 +29830,19 @@
     </row>
     <row r="202" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A202" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B202" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C202" s="125" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D202" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E202" s="117" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="F202" s="117"/>
       <c r="G202" s="117"/>
@@ -29831,19 +29852,19 @@
     </row>
     <row r="203" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A203" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B203" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C203" s="125" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="D203" s="125" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="E203" s="117" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="F203" s="117"/>
       <c r="G203" s="117"/>
@@ -29853,25 +29874,25 @@
     </row>
     <row r="204" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A204" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B204" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C204" s="125" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="D204" s="125" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E204" s="117" t="s">
-        <v>1741</v>
+        <v>1739</v>
       </c>
       <c r="F204" s="113" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="G204" s="117" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
       <c r="H204" s="115"/>
       <c r="I204" s="115"/>
@@ -29879,19 +29900,19 @@
     </row>
     <row r="205" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A205" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B205" s="143" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C205" s="125" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D205" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E205" s="117" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="F205" s="117"/>
       <c r="G205" s="117"/>
@@ -29901,19 +29922,19 @@
     </row>
     <row r="206" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B206" s="141" t="s">
         <v>1673</v>
       </c>
       <c r="C206" s="125" t="s">
+        <v>2166</v>
+      </c>
+      <c r="D206" s="125" t="s">
+        <v>1773</v>
+      </c>
+      <c r="E206" s="117" t="s">
         <v>2168</v>
-      </c>
-      <c r="D206" s="125" t="s">
-        <v>1775</v>
-      </c>
-      <c r="E206" s="117" t="s">
-        <v>2170</v>
       </c>
       <c r="F206" s="117"/>
       <c r="G206" s="117"/>
@@ -29923,19 +29944,19 @@
     </row>
     <row r="207" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B207" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C207" s="125" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D207" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E207" s="117" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F207" s="117"/>
       <c r="G207" s="117"/>
@@ -29945,19 +29966,19 @@
     </row>
     <row r="208" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B208" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C208" s="125" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="D208" s="125" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E208" s="117" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="F208" s="117"/>
       <c r="G208" s="117"/>
@@ -29967,19 +29988,19 @@
     </row>
     <row r="209" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B209" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C209" s="126" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="D209" s="126" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E209" s="117" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="F209" s="117"/>
       <c r="G209" s="117"/>
@@ -29989,19 +30010,19 @@
     </row>
     <row r="210" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B210" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C210" s="126" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="D210" s="126" t="s">
         <v>1682</v>
       </c>
       <c r="E210" s="117" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="F210" s="117"/>
       <c r="G210" s="117"/>
@@ -30011,19 +30032,19 @@
     </row>
     <row r="211" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B211" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C211" s="126" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="D211" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E211" s="117" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F211" s="117"/>
       <c r="G211" s="117"/>
@@ -30033,22 +30054,22 @@
     </row>
     <row r="212" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A212" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B212" s="128" t="s">
         <v>1651</v>
       </c>
       <c r="C212" s="126" t="s">
+        <v>2176</v>
+      </c>
+      <c r="D212" s="125" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E212" s="117" t="s">
+        <v>2177</v>
+      </c>
+      <c r="F212" s="125" t="s">
         <v>2178</v>
-      </c>
-      <c r="D212" s="125" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E212" s="117" t="s">
-        <v>2179</v>
-      </c>
-      <c r="F212" s="125" t="s">
-        <v>2180</v>
       </c>
       <c r="G212" s="114" t="s">
         <v>909</v>
@@ -30059,19 +30080,19 @@
     </row>
     <row r="213" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A213" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B213" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C213" s="126" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D213" s="125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E213" s="117" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="F213" s="117"/>
       <c r="G213" s="117"/>
@@ -30081,19 +30102,19 @@
     </row>
     <row r="214" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A214" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B214" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C214" s="126" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="D214" s="125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E214" s="117" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="F214" s="117"/>
       <c r="G214" s="117"/>
@@ -30103,19 +30124,19 @@
     </row>
     <row r="215" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A215" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B215" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C215" s="126" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="D215" s="125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E215" s="117" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="F215" s="117"/>
       <c r="G215" s="117"/>
@@ -30125,19 +30146,19 @@
     </row>
     <row r="216" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A216" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B216" s="141" t="s">
         <v>1673</v>
       </c>
       <c r="C216" s="126" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="D216" s="126" t="s">
         <v>1675</v>
       </c>
       <c r="E216" s="117" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="F216" s="117"/>
       <c r="G216" s="117"/>
@@ -30147,19 +30168,19 @@
     </row>
     <row r="217" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A217" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B217" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C217" s="126" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="D217" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E217" s="117" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F217" s="117"/>
       <c r="G217" s="117"/>
@@ -30169,19 +30190,19 @@
     </row>
     <row r="218" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A218" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B218" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C218" s="126" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="D218" s="126" t="s">
         <v>1660</v>
       </c>
       <c r="E218" s="117" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="F218" s="117"/>
       <c r="G218" s="117"/>
@@ -30191,25 +30212,25 @@
     </row>
     <row r="219" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A219" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B219" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C219" s="126" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="D219" s="126" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E219" s="117" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F219" s="117" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="G219" s="117" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="H219" s="145"/>
       <c r="I219" s="115"/>
@@ -30217,19 +30238,19 @@
     </row>
     <row r="220" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A220" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B220" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C220" s="126" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="D220" s="126" t="s">
         <v>1664</v>
       </c>
       <c r="E220" s="117" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="F220" s="117"/>
       <c r="G220" s="117"/>
@@ -30239,19 +30260,19 @@
     </row>
     <row r="221" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A221" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B221" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C221" s="126" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="D221" s="125" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="E221" s="117" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
       <c r="F221" s="117"/>
       <c r="G221" s="117"/>
@@ -30261,19 +30282,19 @@
     </row>
     <row r="222" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A222" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B222" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C222" s="126" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="D222" s="126" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E222" s="117" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="F222" s="117"/>
       <c r="G222" s="117"/>
@@ -30283,19 +30304,19 @@
     </row>
     <row r="223" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A223" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B223" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C223" s="126" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="D223" s="125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E223" s="117" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F223" s="117"/>
       <c r="G223" s="117"/>
@@ -30305,19 +30326,19 @@
     </row>
     <row r="224" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A224" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B224" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C224" s="126" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="D224" s="126" t="s">
         <v>1664</v>
       </c>
       <c r="E224" s="117" t="s">
-        <v>1765</v>
+        <v>1763</v>
       </c>
       <c r="F224" s="117"/>
       <c r="G224" s="117"/>
@@ -30327,19 +30348,19 @@
     </row>
     <row r="225" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A225" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B225" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C225" s="126" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D225" s="126" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E225" s="117" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="F225" s="117"/>
       <c r="G225" s="117"/>
@@ -30349,22 +30370,22 @@
     </row>
     <row r="226" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A226" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B226" s="128" t="s">
         <v>1651</v>
       </c>
       <c r="C226" s="126" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="D226" s="126" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E226" s="117" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F226" s="114" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="G226" s="114" t="s">
         <v>909</v>
@@ -30375,19 +30396,19 @@
     </row>
     <row r="227" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A227" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B227" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C227" s="126" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="D227" s="125" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E227" s="117" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F227" s="117"/>
       <c r="G227" s="117"/>
@@ -30397,19 +30418,19 @@
     </row>
     <row r="228" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A228" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B228" s="125" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="C228" s="126" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="D228" s="125" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E228" s="117" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="F228" s="117"/>
       <c r="G228" s="117"/>
@@ -30421,19 +30442,19 @@
     </row>
     <row r="229" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A229" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B229" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C229" s="126" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="D229" s="126" t="s">
-        <v>1775</v>
+        <v>1773</v>
       </c>
       <c r="E229" s="117" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="F229" s="117"/>
       <c r="G229" s="117"/>
@@ -30443,19 +30464,19 @@
     </row>
     <row r="230" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A230" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B230" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C230" s="126" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="D230" s="126" t="s">
         <v>1682</v>
       </c>
       <c r="E230" s="117" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F230" s="117"/>
       <c r="G230" s="117"/>
@@ -30465,25 +30486,25 @@
     </row>
     <row r="231" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A231" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B231" s="128" t="s">
         <v>1651</v>
       </c>
       <c r="C231" s="126" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="D231" s="126" t="s">
         <v>1686</v>
       </c>
       <c r="E231" s="117" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="F231" s="117" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="G231" s="117" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="H231" s="115"/>
       <c r="I231" s="115"/>
@@ -30491,19 +30512,19 @@
     </row>
     <row r="232" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A232" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B232" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C232" s="126" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="D232" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E232" s="117" t="s">
-        <v>1930</v>
+        <v>1928</v>
       </c>
       <c r="F232" s="117"/>
       <c r="G232" s="117"/>
@@ -30513,19 +30534,19 @@
     </row>
     <row r="233" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A233" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B233" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C233" s="126" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="D233" s="126" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E233" s="117" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="F233" s="117"/>
       <c r="G233" s="117"/>
@@ -30535,19 +30556,19 @@
     </row>
     <row r="234" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A234" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B234" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C234" s="126" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="D234" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E234" s="117" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="F234" s="117"/>
       <c r="G234" s="117"/>
@@ -30557,19 +30578,19 @@
     </row>
     <row r="235" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A235" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B235" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C235" s="126" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="D235" s="126" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E235" s="117" t="s">
-        <v>2212</v>
+        <v>2210</v>
       </c>
       <c r="F235" s="117"/>
       <c r="G235" s="117"/>
@@ -30579,19 +30600,19 @@
     </row>
     <row r="236" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A236" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B236" s="143" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="C236" s="126" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="D236" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E236" s="117" t="s">
-        <v>2214</v>
+        <v>2212</v>
       </c>
       <c r="F236" s="117"/>
       <c r="G236" s="117"/>
@@ -30601,19 +30622,19 @@
     </row>
     <row r="237" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A237" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B237" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C237" s="126" t="s">
-        <v>2213</v>
+        <v>2211</v>
       </c>
       <c r="D237" s="126" t="s">
         <v>1678</v>
       </c>
       <c r="E237" s="117" t="s">
-        <v>2215</v>
+        <v>2213</v>
       </c>
       <c r="F237" s="117"/>
       <c r="G237" s="117"/>
@@ -30623,19 +30644,19 @@
     </row>
     <row r="238" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A238" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B238" s="125" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="C238" s="126" t="s">
-        <v>2216</v>
+        <v>2214</v>
       </c>
       <c r="D238" s="125" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E238" s="117" t="s">
-        <v>2217</v>
+        <v>2215</v>
       </c>
       <c r="F238" s="117"/>
       <c r="G238" s="117"/>
@@ -30645,19 +30666,19 @@
     </row>
     <row r="239" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A239" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B239" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C239" s="126" t="s">
-        <v>2218</v>
+        <v>2216</v>
       </c>
       <c r="D239" s="126" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E239" s="117" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F239" s="117"/>
       <c r="G239" s="117"/>
@@ -30667,19 +30688,19 @@
     </row>
     <row r="240" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A240" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B240" s="125" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="C240" s="126" t="s">
-        <v>2219</v>
+        <v>2217</v>
       </c>
       <c r="D240" s="125" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E240" s="117" t="s">
-        <v>1718</v>
+        <v>1716</v>
       </c>
       <c r="F240" s="117"/>
       <c r="G240" s="117"/>
@@ -30689,19 +30710,19 @@
     </row>
     <row r="241" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A241" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B241" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C241" s="126" t="s">
+        <v>2217</v>
+      </c>
+      <c r="D241" s="126" t="s">
+        <v>2218</v>
+      </c>
+      <c r="E241" s="117" t="s">
         <v>2219</v>
-      </c>
-      <c r="D241" s="126" t="s">
-        <v>2220</v>
-      </c>
-      <c r="E241" s="117" t="s">
-        <v>2221</v>
       </c>
       <c r="F241" s="117"/>
       <c r="G241" s="117"/>
@@ -30711,19 +30732,19 @@
     </row>
     <row r="242" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A242" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B242" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C242" s="126" t="s">
-        <v>2222</v>
+        <v>2220</v>
       </c>
       <c r="D242" s="126" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E242" s="117" t="s">
-        <v>1727</v>
+        <v>1725</v>
       </c>
       <c r="F242" s="117"/>
       <c r="G242" s="117"/>
@@ -30733,19 +30754,19 @@
     </row>
     <row r="243" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A243" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B243" s="127" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C243" s="126" t="s">
-        <v>2223</v>
+        <v>2221</v>
       </c>
       <c r="D243" s="126" t="s">
         <v>1660</v>
       </c>
       <c r="E243" s="117" t="s">
-        <v>2224</v>
+        <v>2222</v>
       </c>
       <c r="F243" s="117"/>
       <c r="G243" s="117"/>
@@ -30755,19 +30776,19 @@
     </row>
     <row r="244" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A244" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B244" s="127" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C244" s="126" t="s">
-        <v>2225</v>
+        <v>2223</v>
       </c>
       <c r="D244" s="126" t="s">
         <v>1686</v>
       </c>
       <c r="E244" s="117" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="F244" s="117"/>
       <c r="G244" s="117"/>
@@ -30777,19 +30798,19 @@
     </row>
     <row r="245" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A245" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B245" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C245" s="126" t="s">
-        <v>2226</v>
+        <v>2224</v>
       </c>
       <c r="D245" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E245" s="117" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="F245" s="117"/>
       <c r="G245" s="117"/>
@@ -30799,19 +30820,19 @@
     </row>
     <row r="246" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A246" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B246" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C246" s="126" t="s">
-        <v>2227</v>
+        <v>2225</v>
       </c>
       <c r="D246" s="126" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E246" s="117" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="F246" s="117"/>
       <c r="G246" s="117"/>
@@ -30821,19 +30842,19 @@
     </row>
     <row r="247" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A247" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B247" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C247" s="126" t="s">
-        <v>2228</v>
+        <v>2226</v>
       </c>
       <c r="D247" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E247" s="117" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="F247" s="117"/>
       <c r="G247" s="117"/>
@@ -30843,19 +30864,19 @@
     </row>
     <row r="248" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A248" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B248" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C248" s="126" t="s">
-        <v>2229</v>
+        <v>2227</v>
       </c>
       <c r="D248" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E248" s="117" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="F248" s="117"/>
       <c r="G248" s="117"/>
@@ -30865,19 +30886,19 @@
     </row>
     <row r="249" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A249" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B249" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C249" s="126" t="s">
-        <v>2230</v>
+        <v>2228</v>
       </c>
       <c r="D249" s="126" t="s">
         <v>1682</v>
       </c>
       <c r="E249" s="117" t="s">
-        <v>2231</v>
+        <v>2229</v>
       </c>
       <c r="F249" s="117"/>
       <c r="G249" s="117"/>
@@ -30887,19 +30908,19 @@
     </row>
     <row r="250" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A250" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B250" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C250" s="126" t="s">
-        <v>2232</v>
+        <v>2230</v>
       </c>
       <c r="D250" s="126" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E250" s="117" t="s">
-        <v>2233</v>
+        <v>2231</v>
       </c>
       <c r="F250" s="117"/>
       <c r="G250" s="117"/>
@@ -30909,19 +30930,19 @@
     </row>
     <row r="251" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A251" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B251" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C251" s="126" t="s">
-        <v>2234</v>
+        <v>2232</v>
       </c>
       <c r="D251" s="126" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="E251" s="117" t="s">
-        <v>2235</v>
+        <v>2233</v>
       </c>
       <c r="F251" s="117"/>
       <c r="G251" s="117"/>
@@ -30931,25 +30952,25 @@
     </row>
     <row r="252" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A252" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B252" s="128" t="s">
+        <v>2234</v>
+      </c>
+      <c r="C252" s="126" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D252" s="126" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E252" s="117" t="s">
         <v>2236</v>
       </c>
-      <c r="C252" s="126" t="s">
+      <c r="F252" s="117" t="s">
+        <v>2002</v>
+      </c>
+      <c r="G252" s="117" t="s">
         <v>2237</v>
-      </c>
-      <c r="D252" s="126" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E252" s="117" t="s">
-        <v>2238</v>
-      </c>
-      <c r="F252" s="117" t="s">
-        <v>2004</v>
-      </c>
-      <c r="G252" s="117" t="s">
-        <v>2239</v>
       </c>
       <c r="H252" s="115"/>
       <c r="I252" s="115"/>
@@ -30957,19 +30978,19 @@
     </row>
     <row r="253" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A253" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B253" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C253" s="126" t="s">
-        <v>2240</v>
+        <v>2238</v>
       </c>
       <c r="D253" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E253" s="117" t="s">
-        <v>2241</v>
+        <v>2239</v>
       </c>
       <c r="F253" s="117"/>
       <c r="G253" s="117"/>
@@ -30979,19 +31000,19 @@
     </row>
     <row r="254" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A254" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B254" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C254" s="126" t="s">
-        <v>2242</v>
+        <v>2240</v>
       </c>
       <c r="D254" s="134" t="s">
         <v>1653</v>
       </c>
       <c r="E254" s="117" t="s">
-        <v>2243</v>
+        <v>2241</v>
       </c>
       <c r="F254" s="117" t="s">
         <v>533</v>
@@ -31000,32 +31021,32 @@
         <v>533</v>
       </c>
       <c r="H254" s="125" t="s">
-        <v>2244</v>
+        <v>2242</v>
       </c>
       <c r="I254" s="115"/>
       <c r="J254" s="125"/>
     </row>
     <row r="255" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A255" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B255" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C255" s="126" t="s">
+        <v>2243</v>
+      </c>
+      <c r="D255" s="126" t="s">
+        <v>1693</v>
+      </c>
+      <c r="E255" s="117" t="s">
+        <v>2244</v>
+      </c>
+      <c r="F255" s="154" t="s">
         <v>2245</v>
       </c>
-      <c r="D255" s="126" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E255" s="117" t="s">
+      <c r="G255" s="117" t="s">
         <v>2246</v>
-      </c>
-      <c r="F255" s="154" t="s">
-        <v>2247</v>
-      </c>
-      <c r="G255" s="117" t="s">
-        <v>2248</v>
       </c>
       <c r="H255" s="148"/>
       <c r="I255" s="115"/>
@@ -31033,25 +31054,25 @@
     </row>
     <row r="256" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A256" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B256" s="128" t="s">
         <v>1651</v>
       </c>
       <c r="C256" s="126" t="s">
-        <v>2245</v>
+        <v>2243</v>
       </c>
       <c r="D256" s="126" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E256" s="117" t="s">
+        <v>2247</v>
+      </c>
+      <c r="F256" s="117" t="s">
+        <v>2248</v>
+      </c>
+      <c r="G256" s="117" t="s">
         <v>2249</v>
-      </c>
-      <c r="F256" s="117" t="s">
-        <v>2250</v>
-      </c>
-      <c r="G256" s="117" t="s">
-        <v>2251</v>
       </c>
       <c r="H256" s="148"/>
       <c r="I256" s="115"/>
@@ -31059,25 +31080,25 @@
     </row>
     <row r="257" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A257" s="124" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="B257" s="129" t="s">
         <v>1645</v>
       </c>
       <c r="C257" s="126" t="s">
-        <v>2252</v>
+        <v>2250</v>
       </c>
       <c r="D257" s="126" t="s">
         <v>1686</v>
       </c>
       <c r="E257" s="117" t="s">
+        <v>2251</v>
+      </c>
+      <c r="F257" s="117" t="s">
+        <v>2252</v>
+      </c>
+      <c r="G257" s="117" t="s">
         <v>2253</v>
-      </c>
-      <c r="F257" s="117" t="s">
-        <v>2254</v>
-      </c>
-      <c r="G257" s="117" t="s">
-        <v>2255</v>
       </c>
       <c r="H257" s="148"/>
       <c r="I257" s="115"/>
@@ -31116,10 +31137,10 @@
         <v>1644</v>
       </c>
       <c r="B259" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C259" s="126" t="s">
-        <v>2256</v>
+        <v>2254</v>
       </c>
       <c r="D259" s="117" t="s">
         <v>1647</v>
@@ -31132,7 +31153,7 @@
       <c r="H259" s="115"/>
       <c r="I259" s="117"/>
       <c r="J259" s="131" t="s">
-        <v>2257</v>
+        <v>2255</v>
       </c>
     </row>
     <row r="260" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31140,23 +31161,23 @@
         <v>1644</v>
       </c>
       <c r="B260" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C260" s="126" t="s">
-        <v>2258</v>
+        <v>2256</v>
       </c>
       <c r="D260" s="117" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E260" s="117" t="s">
-        <v>2259</v>
+        <v>2257</v>
       </c>
       <c r="F260" s="117"/>
       <c r="G260" s="117"/>
       <c r="H260" s="115"/>
       <c r="I260" s="117"/>
       <c r="J260" s="131" t="s">
-        <v>2260</v>
+        <v>2258</v>
       </c>
     </row>
     <row r="261" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31164,23 +31185,23 @@
         <v>1644</v>
       </c>
       <c r="B261" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C261" s="126" t="s">
-        <v>2261</v>
+        <v>2259</v>
       </c>
       <c r="D261" s="136" t="s">
         <v>1653</v>
       </c>
       <c r="E261" s="117" t="s">
-        <v>2262</v>
+        <v>2260</v>
       </c>
       <c r="F261" s="117"/>
       <c r="G261" s="117"/>
       <c r="H261" s="115"/>
       <c r="I261" s="117"/>
       <c r="J261" s="131" t="s">
-        <v>2263</v>
+        <v>2261</v>
       </c>
     </row>
     <row r="262" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31240,16 +31261,16 @@
         <v>1644</v>
       </c>
       <c r="B264" s="157" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C264" s="158" t="s">
-        <v>2264</v>
+        <v>2262</v>
       </c>
       <c r="D264" s="159" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E264" s="159" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="F264" s="117"/>
       <c r="G264" s="117"/>
@@ -31262,16 +31283,16 @@
         <v>1644</v>
       </c>
       <c r="B265" s="127" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C265" s="126" t="s">
-        <v>2294</v>
+        <v>2292</v>
       </c>
       <c r="D265" s="126" t="s">
         <v>1664</v>
       </c>
       <c r="E265" s="117" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="F265" s="117"/>
       <c r="G265" s="117"/>
@@ -31280,7 +31301,7 @@
       </c>
       <c r="I265" s="117"/>
       <c r="J265" s="131" t="s">
-        <v>2295</v>
+        <v>2293</v>
       </c>
     </row>
     <row r="266" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -31316,19 +31337,19 @@
         <v>1644</v>
       </c>
       <c r="B267" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C267" s="126" t="s">
-        <v>2265</v>
+        <v>2263</v>
       </c>
       <c r="D267" s="117" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="E267" s="117" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="F267" s="117" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
       <c r="G267" s="117"/>
       <c r="H267" s="115"/>
@@ -31442,16 +31463,16 @@
         <v>1644</v>
       </c>
       <c r="B272" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C272" s="126" t="s">
-        <v>2266</v>
+        <v>2264</v>
       </c>
       <c r="D272" s="117" t="s">
-        <v>1726</v>
+        <v>1724</v>
       </c>
       <c r="E272" s="117" t="s">
-        <v>1762</v>
+        <v>1760</v>
       </c>
       <c r="F272" s="117"/>
       <c r="G272" s="117"/>
@@ -31464,16 +31485,16 @@
         <v>1644</v>
       </c>
       <c r="B273" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C273" s="126" t="s">
-        <v>2267</v>
+        <v>2265</v>
       </c>
       <c r="D273" s="136" t="s">
         <v>1653</v>
       </c>
       <c r="E273" s="117" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F273" s="117"/>
       <c r="G273" s="117"/>
@@ -31486,16 +31507,16 @@
         <v>1644</v>
       </c>
       <c r="B274" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C274" s="126" t="s">
-        <v>2268</v>
+        <v>2266</v>
       </c>
       <c r="D274" s="136" t="s">
         <v>1653</v>
       </c>
       <c r="E274" s="117" t="s">
-        <v>2269</v>
+        <v>2267</v>
       </c>
       <c r="F274" s="117"/>
       <c r="G274" s="117"/>
@@ -31558,14 +31579,14 @@
       <c r="B277" s="118" t="s">
         <v>1651</v>
       </c>
-      <c r="C277" s="117" t="s">
-        <v>1688</v>
-      </c>
-      <c r="D277" s="134" t="s">
-        <v>1653</v>
+      <c r="C277" s="192" t="s">
+        <v>2301</v>
+      </c>
+      <c r="D277" s="126" t="s">
+        <v>1691</v>
       </c>
       <c r="E277" s="117" t="s">
-        <v>1689</v>
+        <v>1692</v>
       </c>
       <c r="F277" s="117"/>
       <c r="G277" s="117"/>
@@ -31579,17 +31600,17 @@
       <c r="A278" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B278" s="118" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C278" s="117" t="s">
-        <v>1690</v>
+      <c r="B278" s="121" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C278" s="192" t="s">
+        <v>1688</v>
       </c>
       <c r="D278" s="126" t="s">
-        <v>1691</v>
+        <v>1664</v>
       </c>
       <c r="E278" s="117" t="s">
-        <v>1692</v>
+        <v>1696</v>
       </c>
       <c r="F278" s="117"/>
       <c r="G278" s="117"/>
@@ -31600,49 +31621,49 @@
       <c r="J278" s="114"/>
     </row>
     <row r="279" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A279" s="149" t="s">
+      <c r="A279" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B279" s="152" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C279" s="150" t="s">
-        <v>1693</v>
-      </c>
-      <c r="D279" s="150" t="s">
-        <v>1694</v>
-      </c>
-      <c r="E279" s="150" t="s">
-        <v>1695</v>
-      </c>
-      <c r="F279" s="150"/>
-      <c r="G279" s="150"/>
-      <c r="H279" s="151">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I279" s="150"/>
-      <c r="J279" s="125"/>
+      <c r="B279" s="118" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C279" s="192" t="s">
+        <v>1688</v>
+      </c>
+      <c r="D279" s="134" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E279" s="117" t="s">
+        <v>1689</v>
+      </c>
+      <c r="F279" s="117"/>
+      <c r="G279" s="117"/>
+      <c r="H279" s="148">
+        <v>0.8125</v>
+      </c>
+      <c r="I279" s="117"/>
+      <c r="J279" s="114"/>
     </row>
     <row r="280" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B280" s="127" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C280" s="161" t="s">
-        <v>1697</v>
-      </c>
-      <c r="D280" s="126" t="s">
-        <v>1664</v>
+      <c r="B280" s="121" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C280" s="192" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D280" s="134" t="s">
+        <v>1653</v>
       </c>
       <c r="E280" s="117" t="s">
-        <v>1698</v>
+        <v>2300</v>
       </c>
       <c r="F280" s="117"/>
       <c r="G280" s="117"/>
       <c r="H280" s="148">
-        <v>0.79166666666666663</v>
+        <v>0.625</v>
       </c>
       <c r="I280" s="117"/>
       <c r="J280" s="114"/>
@@ -31651,240 +31672,240 @@
       <c r="A281" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B281" s="127" t="s">
-        <v>1696</v>
-      </c>
-      <c r="C281" s="161" t="s">
-        <v>1699</v>
+      <c r="B281" s="118" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C281" s="192" t="s">
+        <v>1690</v>
       </c>
       <c r="D281" s="126" t="s">
-        <v>1664</v>
+        <v>1691</v>
       </c>
       <c r="E281" s="117" t="s">
-        <v>1700</v>
+        <v>1692</v>
       </c>
       <c r="F281" s="117"/>
       <c r="G281" s="117"/>
       <c r="H281" s="148">
-        <v>0.64583333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="I281" s="117"/>
       <c r="J281" s="114"/>
     </row>
     <row r="282" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A282" s="149" t="s">
+      <c r="A282" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B282" s="152" t="s">
+      <c r="B282" s="127" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C282" s="161" t="s">
+        <v>1695</v>
+      </c>
+      <c r="D282" s="126" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E282" s="117" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F282" s="117"/>
+      <c r="G282" s="117"/>
+      <c r="H282" s="148">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I282" s="117"/>
+      <c r="J282" s="114"/>
+    </row>
+    <row r="283" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A283" s="113" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B283" s="127" t="s">
+        <v>1694</v>
+      </c>
+      <c r="C283" s="161" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D283" s="126" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E283" s="117" t="s">
+        <v>1698</v>
+      </c>
+      <c r="F283" s="117"/>
+      <c r="G283" s="117"/>
+      <c r="H283" s="148">
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="I283" s="117"/>
+      <c r="J283" s="114"/>
+    </row>
+    <row r="284" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A284" s="149" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B284" s="152" t="s">
         <v>1645</v>
       </c>
-      <c r="C282" s="150" t="s">
+      <c r="C284" s="150" t="s">
+        <v>1697</v>
+      </c>
+      <c r="D284" s="150" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E284" s="150" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F284" s="150"/>
+      <c r="G284" s="150"/>
+      <c r="H284" s="151">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I284" s="150"/>
+      <c r="J284" s="125"/>
+    </row>
+    <row r="285" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A285" s="149" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B285" s="152" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C285" s="150" t="s">
         <v>1699</v>
       </c>
-      <c r="D282" s="150" t="s">
-        <v>1664</v>
-      </c>
-      <c r="E282" s="150" t="s">
-        <v>1698</v>
-      </c>
-      <c r="F282" s="150"/>
-      <c r="G282" s="150"/>
-      <c r="H282" s="151">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I282" s="150"/>
-      <c r="J282" s="125"/>
-    </row>
-    <row r="283" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A283" s="149" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B283" s="152" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C283" s="150" t="s">
+      <c r="D285" s="150" t="s">
+        <v>1700</v>
+      </c>
+      <c r="E285" s="150" t="s">
         <v>1701</v>
       </c>
-      <c r="D283" s="150" t="s">
+      <c r="F285" s="150"/>
+      <c r="G285" s="150"/>
+      <c r="H285" s="151">
+        <v>0.75</v>
+      </c>
+      <c r="I285" s="150" t="s">
         <v>1702</v>
       </c>
-      <c r="E283" s="150" t="s">
-        <v>1703</v>
-      </c>
-      <c r="F283" s="150"/>
-      <c r="G283" s="150"/>
-      <c r="H283" s="151">
-        <v>0.75</v>
-      </c>
-      <c r="I283" s="150" t="s">
-        <v>1704</v>
-      </c>
-      <c r="J283" s="125"/>
-    </row>
-    <row r="284" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A284" s="113" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B284" s="118" t="s">
-        <v>1651</v>
-      </c>
-      <c r="C284" s="117" t="s">
-        <v>1705</v>
-      </c>
-      <c r="D284" s="126" t="s">
-        <v>1686</v>
-      </c>
-      <c r="E284" s="117" t="s">
-        <v>1706</v>
-      </c>
-      <c r="F284" s="117"/>
-      <c r="G284" s="117"/>
-      <c r="H284" s="148">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I284" s="117"/>
-      <c r="J284" s="114"/>
-    </row>
-    <row r="285" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A285" s="113" t="s">
-        <v>1644</v>
-      </c>
-      <c r="B285" s="121" t="s">
-        <v>1645</v>
-      </c>
-      <c r="C285" s="117" t="s">
-        <v>1707</v>
-      </c>
-      <c r="D285" s="114" t="s">
-        <v>1708</v>
-      </c>
-      <c r="E285" s="117" t="s">
-        <v>1709</v>
-      </c>
-      <c r="F285" s="117"/>
-      <c r="G285" s="117"/>
-      <c r="H285" s="148">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I285" s="117"/>
       <c r="J285" s="125"/>
     </row>
     <row r="286" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B286" s="121" t="s">
-        <v>1645</v>
+      <c r="B286" s="118" t="s">
+        <v>1651</v>
       </c>
       <c r="C286" s="117" t="s">
-        <v>1710</v>
-      </c>
-      <c r="D286" s="117" t="s">
-        <v>1660</v>
+        <v>2302</v>
+      </c>
+      <c r="D286" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E286" s="117" t="s">
-        <v>1711</v>
-      </c>
-      <c r="F286" s="117"/>
-      <c r="G286" s="117"/>
+        <v>1648</v>
+      </c>
+      <c r="F286" s="150"/>
+      <c r="G286" s="150"/>
       <c r="H286" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="I286" s="117"/>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I286" s="150"/>
       <c r="J286" s="125"/>
     </row>
     <row r="287" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B287" s="120" t="s">
-        <v>1788</v>
+      <c r="B287" s="121" t="s">
+        <v>1645</v>
       </c>
       <c r="C287" s="117" t="s">
-        <v>2270</v>
-      </c>
-      <c r="D287" s="117" t="s">
-        <v>1844</v>
+        <v>1703</v>
+      </c>
+      <c r="D287" s="114" t="s">
+        <v>1706</v>
       </c>
       <c r="E287" s="117" t="s">
-        <v>2271</v>
-      </c>
-      <c r="F287" s="117"/>
-      <c r="G287" s="117"/>
-      <c r="H287" s="115"/>
-      <c r="I287" s="117"/>
-      <c r="J287" s="114"/>
+        <v>1707</v>
+      </c>
+      <c r="F287" s="150"/>
+      <c r="G287" s="150"/>
+      <c r="H287" s="148">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I287" s="150"/>
+      <c r="J287" s="125"/>
     </row>
     <row r="288" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B288" s="141" t="s">
-        <v>1673</v>
+      <c r="B288" s="118" t="s">
+        <v>1651</v>
       </c>
       <c r="C288" s="117" t="s">
-        <v>1712</v>
-      </c>
-      <c r="D288" s="117" t="s">
-        <v>1675</v>
+        <v>1703</v>
+      </c>
+      <c r="D288" s="126" t="s">
+        <v>1686</v>
       </c>
       <c r="E288" s="117" t="s">
-        <v>1713</v>
+        <v>1704</v>
       </c>
       <c r="F288" s="117"/>
       <c r="G288" s="117"/>
       <c r="H288" s="148">
-        <v>0.8125</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="I288" s="117"/>
-      <c r="J288" s="117" t="s">
-        <v>1714</v>
-      </c>
+      <c r="J288" s="114"/>
     </row>
     <row r="289" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B289" s="118" t="s">
-        <v>1651</v>
+      <c r="B289" s="121" t="s">
+        <v>1645</v>
       </c>
       <c r="C289" s="117" t="s">
-        <v>1715</v>
-      </c>
-      <c r="D289" s="126" t="s">
-        <v>1647</v>
+        <v>1705</v>
+      </c>
+      <c r="D289" s="114" t="s">
+        <v>1706</v>
       </c>
       <c r="E289" s="117" t="s">
-        <v>1648</v>
+        <v>1707</v>
       </c>
       <c r="F289" s="117"/>
       <c r="G289" s="117"/>
       <c r="H289" s="148">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="I289" s="117"/>
-      <c r="J289" s="114"/>
+      <c r="J289" s="125"/>
     </row>
     <row r="290" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B290" s="121" t="s">
-        <v>1645</v>
+      <c r="B290" s="127" t="s">
+        <v>1694</v>
       </c>
       <c r="C290" s="117" t="s">
-        <v>1716</v>
-      </c>
-      <c r="D290" s="117" t="s">
+        <v>2297</v>
+      </c>
+      <c r="D290" s="126" t="s">
         <v>1664</v>
       </c>
       <c r="E290" s="117" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="F290" s="117"/>
       <c r="G290" s="117"/>
       <c r="H290" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="I290" s="117"/>
       <c r="J290" s="125"/>
@@ -31893,101 +31914,97 @@
       <c r="A291" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B291" s="118" t="s">
-        <v>1651</v>
+      <c r="B291" s="127" t="s">
+        <v>2299</v>
       </c>
       <c r="C291" s="117" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D291" s="126" t="s">
+        <v>2298</v>
+      </c>
+      <c r="D291" s="117" t="s">
+        <v>1842</v>
+      </c>
+      <c r="E291" s="117" t="s">
         <v>1678</v>
-      </c>
-      <c r="E291" s="117" t="s">
-        <v>1718</v>
       </c>
       <c r="F291" s="117"/>
       <c r="G291" s="117"/>
       <c r="H291" s="148">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I291" s="117" t="s">
-        <v>1719</v>
-      </c>
-      <c r="J291" s="114"/>
+        <v>0.8125</v>
+      </c>
+      <c r="I291" s="117"/>
+      <c r="J291" s="125"/>
     </row>
     <row r="292" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B292" s="118" t="s">
-        <v>1651</v>
+      <c r="B292" s="121" t="s">
+        <v>1645</v>
       </c>
       <c r="C292" s="117" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D292" s="126" t="s">
-        <v>1678</v>
+        <v>1708</v>
+      </c>
+      <c r="D292" s="117" t="s">
+        <v>1660</v>
       </c>
       <c r="E292" s="117" t="s">
-        <v>1721</v>
+        <v>1709</v>
       </c>
       <c r="F292" s="117"/>
       <c r="G292" s="117"/>
       <c r="H292" s="148">
         <v>0.75</v>
       </c>
-      <c r="I292" s="117" t="s">
-        <v>1722</v>
-      </c>
-      <c r="J292" s="114"/>
+      <c r="I292" s="117"/>
+      <c r="J292" s="125"/>
     </row>
     <row r="293" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B293" s="121" t="s">
-        <v>1645</v>
+      <c r="B293" s="120" t="s">
+        <v>1786</v>
       </c>
       <c r="C293" s="117" t="s">
-        <v>1723</v>
+        <v>2268</v>
       </c>
       <c r="D293" s="117" t="s">
-        <v>1678</v>
+        <v>1842</v>
       </c>
       <c r="E293" s="117" t="s">
-        <v>1679</v>
+        <v>2269</v>
       </c>
       <c r="F293" s="117"/>
       <c r="G293" s="117"/>
-      <c r="H293" s="148">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="H293" s="115"/>
       <c r="I293" s="117"/>
-      <c r="J293" s="125"/>
+      <c r="J293" s="114"/>
     </row>
     <row r="294" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B294" s="118" t="s">
-        <v>1651</v>
+      <c r="B294" s="141" t="s">
+        <v>1673</v>
       </c>
       <c r="C294" s="117" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D294" s="126" t="s">
-        <v>1694</v>
+        <v>1710</v>
+      </c>
+      <c r="D294" s="117" t="s">
+        <v>1675</v>
       </c>
       <c r="E294" s="117" t="s">
-        <v>1724</v>
+        <v>1711</v>
       </c>
       <c r="F294" s="117"/>
       <c r="G294" s="117"/>
       <c r="H294" s="148">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="I294" s="117"/>
-      <c r="J294" s="114"/>
+      <c r="J294" s="117" t="s">
+        <v>1712</v>
+      </c>
     </row>
     <row r="295" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="113" t="s">
@@ -31997,119 +32014,121 @@
         <v>1651</v>
       </c>
       <c r="C295" s="117" t="s">
-        <v>1725</v>
+        <v>1713</v>
       </c>
       <c r="D295" s="126" t="s">
-        <v>1726</v>
+        <v>1647</v>
       </c>
       <c r="E295" s="117" t="s">
-        <v>1727</v>
+        <v>1648</v>
       </c>
       <c r="F295" s="117"/>
       <c r="G295" s="117"/>
       <c r="H295" s="148">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="I295" s="117" t="s">
-        <v>1728</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="I295" s="117"/>
       <c r="J295" s="114"/>
     </row>
     <row r="296" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B296" s="141" t="s">
-        <v>1673</v>
+      <c r="B296" s="121" t="s">
+        <v>1645</v>
       </c>
       <c r="C296" s="117" t="s">
-        <v>1729</v>
+        <v>1714</v>
       </c>
       <c r="D296" s="117" t="s">
-        <v>1726</v>
-      </c>
-      <c r="E296" s="114" t="s">
-        <v>1730</v>
-      </c>
-      <c r="F296" s="114"/>
-      <c r="G296" s="114"/>
+        <v>1664</v>
+      </c>
+      <c r="E296" s="117" t="s">
+        <v>1696</v>
+      </c>
+      <c r="F296" s="117"/>
+      <c r="G296" s="117"/>
       <c r="H296" s="148">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="I296" s="117"/>
-      <c r="J296" s="147" t="s">
-        <v>1731</v>
-      </c>
+      <c r="J296" s="125"/>
     </row>
     <row r="297" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B297" s="121" t="s">
-        <v>1645</v>
+      <c r="B297" s="118" t="s">
+        <v>1651</v>
       </c>
       <c r="C297" s="117" t="s">
-        <v>1732</v>
-      </c>
-      <c r="D297" s="117" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D297" s="126" t="s">
         <v>1678</v>
       </c>
       <c r="E297" s="117" t="s">
-        <v>1721</v>
+        <v>1716</v>
       </c>
       <c r="F297" s="117"/>
       <c r="G297" s="117"/>
       <c r="H297" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="I297" s="117"/>
-      <c r="J297" s="125"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="I297" s="117" t="s">
+        <v>1717</v>
+      </c>
+      <c r="J297" s="114"/>
     </row>
     <row r="298" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B298" s="120" t="s">
-        <v>1788</v>
+      <c r="B298" s="118" t="s">
+        <v>1651</v>
       </c>
       <c r="C298" s="117" t="s">
-        <v>2272</v>
-      </c>
-      <c r="D298" s="117" t="s">
-        <v>1844</v>
+        <v>1718</v>
+      </c>
+      <c r="D298" s="126" t="s">
+        <v>1678</v>
       </c>
       <c r="E298" s="117" t="s">
-        <v>2273</v>
+        <v>1719</v>
       </c>
       <c r="F298" s="117"/>
       <c r="G298" s="117"/>
-      <c r="H298" s="115"/>
-      <c r="I298" s="117"/>
-      <c r="J298" s="117"/>
+      <c r="H298" s="148">
+        <v>0.75</v>
+      </c>
+      <c r="I298" s="117" t="s">
+        <v>1720</v>
+      </c>
+      <c r="J298" s="114"/>
     </row>
     <row r="299" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B299" s="118" t="s">
-        <v>1651</v>
+      <c r="B299" s="121" t="s">
+        <v>1645</v>
       </c>
       <c r="C299" s="117" t="s">
-        <v>1733</v>
-      </c>
-      <c r="D299" s="114" t="s">
-        <v>1708</v>
+        <v>1721</v>
+      </c>
+      <c r="D299" s="117" t="s">
+        <v>1678</v>
       </c>
       <c r="E299" s="117" t="s">
-        <v>1734</v>
+        <v>1679</v>
       </c>
       <c r="F299" s="117"/>
       <c r="G299" s="117"/>
       <c r="H299" s="148">
-        <v>0.8125</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="I299" s="117"/>
-      <c r="J299" s="114"/>
+      <c r="J299" s="125"/>
     </row>
     <row r="300" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="113" t="s">
@@ -32119,13 +32138,13 @@
         <v>1651</v>
       </c>
       <c r="C300" s="117" t="s">
-        <v>1735</v>
+        <v>1721</v>
       </c>
       <c r="D300" s="126" t="s">
-        <v>1664</v>
+        <v>1693</v>
       </c>
       <c r="E300" s="117" t="s">
-        <v>1736</v>
+        <v>1722</v>
       </c>
       <c r="F300" s="117"/>
       <c r="G300" s="117"/>
@@ -32139,17 +32158,17 @@
       <c r="A301" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B301" s="140" t="s">
-        <v>1680</v>
+      <c r="B301" s="118" t="s">
+        <v>1651</v>
       </c>
       <c r="C301" s="117" t="s">
-        <v>1737</v>
+        <v>1723</v>
       </c>
       <c r="D301" s="126" t="s">
-        <v>1660</v>
+        <v>1724</v>
       </c>
       <c r="E301" s="117" t="s">
-        <v>1738</v>
+        <v>1725</v>
       </c>
       <c r="F301" s="117"/>
       <c r="G301" s="117"/>
@@ -32157,55 +32176,51 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="I301" s="117" t="s">
-        <v>1684</v>
-      </c>
-      <c r="J301" s="131" t="s">
-        <v>1739</v>
-      </c>
+        <v>1726</v>
+      </c>
+      <c r="J301" s="114"/>
     </row>
     <row r="302" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B302" s="140" t="s">
-        <v>1680</v>
+      <c r="B302" s="141" t="s">
+        <v>1673</v>
       </c>
       <c r="C302" s="117" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D302" s="126" t="s">
-        <v>1702</v>
-      </c>
-      <c r="E302" s="117" t="s">
-        <v>1741</v>
-      </c>
-      <c r="F302" s="117"/>
-      <c r="G302" s="117"/>
+        <v>1727</v>
+      </c>
+      <c r="D302" s="117" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E302" s="114" t="s">
+        <v>1728</v>
+      </c>
+      <c r="F302" s="114"/>
+      <c r="G302" s="114"/>
       <c r="H302" s="148">
-        <v>0.8125</v>
-      </c>
-      <c r="I302" s="117" t="s">
-        <v>1684</v>
-      </c>
-      <c r="J302" s="131" t="s">
-        <v>1742</v>
+        <v>0.75</v>
+      </c>
+      <c r="I302" s="117"/>
+      <c r="J302" s="147" t="s">
+        <v>1729</v>
       </c>
     </row>
     <row r="303" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B303" s="141" t="s">
-        <v>1673</v>
+      <c r="B303" s="121" t="s">
+        <v>1645</v>
       </c>
       <c r="C303" s="117" t="s">
-        <v>1743</v>
+        <v>1730</v>
       </c>
       <c r="D303" s="117" t="s">
-        <v>1675</v>
+        <v>1678</v>
       </c>
       <c r="E303" s="117" t="s">
-        <v>1744</v>
+        <v>1719</v>
       </c>
       <c r="F303" s="117"/>
       <c r="G303" s="117"/>
@@ -32213,35 +32228,29 @@
         <v>0.75</v>
       </c>
       <c r="I303" s="117"/>
-      <c r="J303" s="147" t="s">
-        <v>1745</v>
-      </c>
+      <c r="J303" s="125"/>
     </row>
     <row r="304" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B304" s="118" t="s">
-        <v>1651</v>
+      <c r="B304" s="120" t="s">
+        <v>1786</v>
       </c>
       <c r="C304" s="117" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D304" s="126" t="s">
-        <v>1686</v>
+        <v>2270</v>
+      </c>
+      <c r="D304" s="117" t="s">
+        <v>1842</v>
       </c>
       <c r="E304" s="117" t="s">
-        <v>1747</v>
+        <v>2271</v>
       </c>
       <c r="F304" s="117"/>
       <c r="G304" s="117"/>
-      <c r="H304" s="148">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="I304" s="117" t="s">
-        <v>1748</v>
-      </c>
-      <c r="J304" s="114"/>
+      <c r="H304" s="115"/>
+      <c r="I304" s="117"/>
+      <c r="J304" s="117"/>
     </row>
     <row r="305" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="113" t="s">
@@ -32251,18 +32260,18 @@
         <v>1651</v>
       </c>
       <c r="C305" s="117" t="s">
-        <v>1749</v>
-      </c>
-      <c r="D305" s="126" t="s">
-        <v>1694</v>
+        <v>1731</v>
+      </c>
+      <c r="D305" s="114" t="s">
+        <v>1706</v>
       </c>
       <c r="E305" s="117" t="s">
-        <v>1750</v>
+        <v>1732</v>
       </c>
       <c r="F305" s="117"/>
       <c r="G305" s="117"/>
       <c r="H305" s="148">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="I305" s="117"/>
       <c r="J305" s="114"/>
@@ -32271,127 +32280,133 @@
       <c r="A306" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B306" s="127" t="s">
-        <v>1696</v>
+      <c r="B306" s="118" t="s">
+        <v>1651</v>
       </c>
       <c r="C306" s="117" t="s">
-        <v>1751</v>
+        <v>1733</v>
       </c>
       <c r="D306" s="126" t="s">
-        <v>1694</v>
+        <v>1664</v>
       </c>
       <c r="E306" s="117" t="s">
-        <v>1752</v>
+        <v>1734</v>
       </c>
       <c r="F306" s="117"/>
       <c r="G306" s="117"/>
-      <c r="H306" s="148"/>
+      <c r="H306" s="148">
+        <v>0.75</v>
+      </c>
       <c r="I306" s="117"/>
-      <c r="J306" s="131" t="s">
-        <v>1753</v>
-      </c>
+      <c r="J306" s="114"/>
     </row>
     <row r="307" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B307" s="127" t="s">
-        <v>1696</v>
+      <c r="B307" s="140" t="s">
+        <v>1680</v>
       </c>
       <c r="C307" s="117" t="s">
-        <v>1754</v>
+        <v>1735</v>
       </c>
       <c r="D307" s="126" t="s">
-        <v>1694</v>
+        <v>1660</v>
       </c>
       <c r="E307" s="117" t="s">
-        <v>1750</v>
+        <v>1736</v>
       </c>
       <c r="F307" s="117"/>
       <c r="G307" s="117"/>
       <c r="H307" s="148">
-        <v>0.64583333333333337</v>
-      </c>
-      <c r="I307" s="117"/>
-      <c r="J307" s="114" t="s">
-        <v>1755</v>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I307" s="117" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J307" s="131" t="s">
+        <v>1737</v>
       </c>
     </row>
     <row r="308" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B308" s="121" t="s">
-        <v>1645</v>
+      <c r="B308" s="140" t="s">
+        <v>1680</v>
       </c>
       <c r="C308" s="117" t="s">
-        <v>1756</v>
-      </c>
-      <c r="D308" s="117" t="s">
-        <v>1664</v>
+        <v>1738</v>
+      </c>
+      <c r="D308" s="126" t="s">
+        <v>1700</v>
       </c>
       <c r="E308" s="117" t="s">
-        <v>1757</v>
+        <v>1739</v>
       </c>
       <c r="F308" s="117"/>
       <c r="G308" s="117"/>
       <c r="H308" s="148">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="I308" s="117"/>
-      <c r="J308" s="125"/>
+        <v>0.8125</v>
+      </c>
+      <c r="I308" s="117" t="s">
+        <v>1684</v>
+      </c>
+      <c r="J308" s="131" t="s">
+        <v>1740</v>
+      </c>
     </row>
     <row r="309" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B309" s="118" t="s">
-        <v>1651</v>
+      <c r="B309" s="141" t="s">
+        <v>1673</v>
       </c>
       <c r="C309" s="117" t="s">
-        <v>1758</v>
-      </c>
-      <c r="D309" s="126" t="s">
-        <v>1686</v>
+        <v>1741</v>
+      </c>
+      <c r="D309" s="117" t="s">
+        <v>1675</v>
       </c>
       <c r="E309" s="117" t="s">
-        <v>1759</v>
+        <v>1742</v>
       </c>
       <c r="F309" s="117"/>
       <c r="G309" s="117"/>
       <c r="H309" s="148">
         <v>0.75</v>
       </c>
-      <c r="I309" s="117" t="s">
-        <v>1760</v>
-      </c>
-      <c r="J309" s="114"/>
+      <c r="I309" s="117"/>
+      <c r="J309" s="147" t="s">
+        <v>1743</v>
+      </c>
     </row>
     <row r="310" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B310" s="141" t="s">
-        <v>1673</v>
+      <c r="B310" s="118" t="s">
+        <v>1651</v>
       </c>
       <c r="C310" s="117" t="s">
-        <v>1761</v>
-      </c>
-      <c r="D310" s="117" t="s">
-        <v>1726</v>
+        <v>1744</v>
+      </c>
+      <c r="D310" s="126" t="s">
+        <v>1686</v>
       </c>
       <c r="E310" s="117" t="s">
-        <v>1762</v>
+        <v>1745</v>
       </c>
       <c r="F310" s="117"/>
       <c r="G310" s="117"/>
       <c r="H310" s="148">
         <v>0.66666666666666663</v>
       </c>
-      <c r="I310" s="117"/>
-      <c r="J310" s="117" t="s">
-        <v>1763</v>
-      </c>
+      <c r="I310" s="117" t="s">
+        <v>1746</v>
+      </c>
+      <c r="J310" s="114"/>
     </row>
     <row r="311" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="113" t="s">
@@ -32401,89 +32416,87 @@
         <v>1651</v>
       </c>
       <c r="C311" s="117" t="s">
-        <v>1764</v>
+        <v>1747</v>
       </c>
       <c r="D311" s="126" t="s">
-        <v>1664</v>
+        <v>1693</v>
       </c>
       <c r="E311" s="117" t="s">
-        <v>1765</v>
+        <v>1748</v>
       </c>
       <c r="F311" s="117"/>
       <c r="G311" s="117"/>
       <c r="H311" s="148">
         <v>0.75</v>
       </c>
-      <c r="I311" s="117" t="s">
-        <v>1766</v>
-      </c>
+      <c r="I311" s="117"/>
       <c r="J311" s="114"/>
     </row>
     <row r="312" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B312" s="121" t="s">
-        <v>1645</v>
+      <c r="B312" s="127" t="s">
+        <v>1694</v>
       </c>
       <c r="C312" s="117" t="s">
-        <v>1764</v>
-      </c>
-      <c r="D312" s="117" t="s">
-        <v>1664</v>
+        <v>1749</v>
+      </c>
+      <c r="D312" s="126" t="s">
+        <v>1693</v>
       </c>
       <c r="E312" s="117" t="s">
-        <v>1767</v>
+        <v>1750</v>
       </c>
       <c r="F312" s="117"/>
       <c r="G312" s="117"/>
-      <c r="H312" s="148">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="H312" s="148"/>
       <c r="I312" s="117"/>
-      <c r="J312" s="125"/>
+      <c r="J312" s="131" t="s">
+        <v>1751</v>
+      </c>
     </row>
     <row r="313" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="113" t="s">
         <v>1644</v>
       </c>
       <c r="B313" s="127" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="C313" s="117" t="s">
-        <v>1768</v>
+        <v>1752</v>
       </c>
       <c r="D313" s="126" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="E313" s="117" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
       <c r="F313" s="117"/>
       <c r="G313" s="117"/>
       <c r="H313" s="148">
-        <v>0.79166666666666663</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="I313" s="117"/>
       <c r="J313" s="114" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
     </row>
     <row r="314" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B314" s="127" t="s">
-        <v>1696</v>
+      <c r="B314" s="121" t="s">
+        <v>1645</v>
       </c>
       <c r="C314" s="117" t="s">
-        <v>1769</v>
+        <v>1754</v>
       </c>
       <c r="D314" s="117" t="s">
-        <v>1686</v>
+        <v>1664</v>
       </c>
       <c r="E314" s="117" t="s">
-        <v>1747</v>
+        <v>1755</v>
       </c>
       <c r="F314" s="117"/>
       <c r="G314" s="117"/>
@@ -32491,211 +32504,223 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="I314" s="117"/>
-      <c r="J314" s="131" t="s">
-        <v>1770</v>
-      </c>
+      <c r="J314" s="125"/>
     </row>
     <row r="315" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B315" s="121" t="s">
-        <v>1645</v>
+      <c r="B315" s="118" t="s">
+        <v>1651</v>
       </c>
       <c r="C315" s="117" t="s">
-        <v>1771</v>
-      </c>
-      <c r="D315" s="117" t="s">
-        <v>1772</v>
+        <v>1756</v>
+      </c>
+      <c r="D315" s="126" t="s">
+        <v>1686</v>
       </c>
       <c r="E315" s="117" t="s">
-        <v>1773</v>
+        <v>1757</v>
       </c>
       <c r="F315" s="117"/>
       <c r="G315" s="117"/>
       <c r="H315" s="148">
         <v>0.75</v>
       </c>
-      <c r="I315" s="117"/>
-      <c r="J315" s="125"/>
+      <c r="I315" s="117" t="s">
+        <v>1758</v>
+      </c>
+      <c r="J315" s="114"/>
     </row>
     <row r="316" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B316" s="120" t="s">
-        <v>1788</v>
+      <c r="B316" s="141" t="s">
+        <v>1673</v>
       </c>
       <c r="C316" s="117" t="s">
-        <v>2274</v>
-      </c>
-      <c r="D316" s="136" t="s">
-        <v>1653</v>
+        <v>1759</v>
+      </c>
+      <c r="D316" s="117" t="s">
+        <v>1724</v>
       </c>
       <c r="E316" s="117" t="s">
-        <v>1938</v>
+        <v>1760</v>
       </c>
       <c r="F316" s="117"/>
       <c r="G316" s="117"/>
-      <c r="H316" s="115"/>
+      <c r="H316" s="148">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="I316" s="117"/>
-      <c r="J316" s="117"/>
+      <c r="J316" s="117" t="s">
+        <v>1761</v>
+      </c>
     </row>
     <row r="317" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B317" s="120" t="s">
-        <v>1788</v>
+      <c r="B317" s="118" t="s">
+        <v>1651</v>
       </c>
       <c r="C317" s="117" t="s">
-        <v>2275</v>
-      </c>
-      <c r="D317" s="136" t="s">
-        <v>1653</v>
+        <v>1762</v>
+      </c>
+      <c r="D317" s="126" t="s">
+        <v>1664</v>
       </c>
       <c r="E317" s="117" t="s">
-        <v>1938</v>
+        <v>1763</v>
       </c>
       <c r="F317" s="117"/>
       <c r="G317" s="117"/>
-      <c r="H317" s="115"/>
-      <c r="I317" s="117"/>
-      <c r="J317" s="117"/>
+      <c r="H317" s="148">
+        <v>0.75</v>
+      </c>
+      <c r="I317" s="117" t="s">
+        <v>1764</v>
+      </c>
+      <c r="J317" s="114"/>
     </row>
     <row r="318" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B318" s="120" t="s">
-        <v>1788</v>
+      <c r="B318" s="121" t="s">
+        <v>1645</v>
       </c>
       <c r="C318" s="117" t="s">
-        <v>2276</v>
-      </c>
-      <c r="D318" s="136" t="s">
-        <v>1653</v>
+        <v>1762</v>
+      </c>
+      <c r="D318" s="117" t="s">
+        <v>1664</v>
       </c>
       <c r="E318" s="117" t="s">
-        <v>2083</v>
+        <v>1765</v>
       </c>
       <c r="F318" s="117"/>
       <c r="G318" s="117"/>
-      <c r="H318" s="115"/>
+      <c r="H318" s="148">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="I318" s="117"/>
-      <c r="J318" s="117"/>
+      <c r="J318" s="125"/>
     </row>
     <row r="319" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B319" s="121" t="s">
-        <v>1645</v>
+      <c r="B319" s="127" t="s">
+        <v>1694</v>
       </c>
       <c r="C319" s="117" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D319" s="117" t="s">
-        <v>1775</v>
+        <v>1766</v>
+      </c>
+      <c r="D319" s="126" t="s">
+        <v>1693</v>
       </c>
       <c r="E319" s="117" t="s">
-        <v>1776</v>
+        <v>1748</v>
       </c>
       <c r="F319" s="117"/>
       <c r="G319" s="117"/>
       <c r="H319" s="148">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="I319" s="117"/>
-      <c r="J319" s="125"/>
+      <c r="J319" s="114" t="s">
+        <v>1753</v>
+      </c>
     </row>
     <row r="320" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B320" s="118" t="s">
-        <v>1651</v>
+      <c r="B320" s="127" t="s">
+        <v>1694</v>
       </c>
       <c r="C320" s="117" t="s">
-        <v>1777</v>
-      </c>
-      <c r="D320" s="126" t="s">
-        <v>1694</v>
+        <v>1767</v>
+      </c>
+      <c r="D320" s="117" t="s">
+        <v>1686</v>
       </c>
       <c r="E320" s="117" t="s">
-        <v>1778</v>
+        <v>1745</v>
       </c>
       <c r="F320" s="117"/>
       <c r="G320" s="117"/>
       <c r="H320" s="148">
-        <v>0.8125</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="I320" s="117"/>
-      <c r="J320" s="114"/>
+      <c r="J320" s="131" t="s">
+        <v>1768</v>
+      </c>
     </row>
     <row r="321" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B321" s="141" t="s">
-        <v>1673</v>
+      <c r="B321" s="121" t="s">
+        <v>1645</v>
       </c>
       <c r="C321" s="117" t="s">
-        <v>1779</v>
+        <v>1769</v>
       </c>
       <c r="D321" s="117" t="s">
-        <v>1675</v>
+        <v>1770</v>
       </c>
       <c r="E321" s="117" t="s">
-        <v>1780</v>
+        <v>1771</v>
       </c>
       <c r="F321" s="117"/>
       <c r="G321" s="117"/>
       <c r="H321" s="148">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="I321" s="117"/>
-      <c r="J321" s="147" t="s">
-        <v>1781</v>
-      </c>
+      <c r="J321" s="125"/>
     </row>
     <row r="322" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="113" t="s">
         <v>1644</v>
       </c>
       <c r="B322" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C322" s="117" t="s">
-        <v>2277</v>
-      </c>
-      <c r="D322" s="126" t="s">
-        <v>1726</v>
+        <v>2272</v>
+      </c>
+      <c r="D322" s="136" t="s">
+        <v>1653</v>
       </c>
       <c r="E322" s="117" t="s">
-        <v>1807</v>
+        <v>1936</v>
       </c>
       <c r="F322" s="117"/>
       <c r="G322" s="117"/>
-      <c r="H322" s="146"/>
+      <c r="H322" s="115"/>
       <c r="I322" s="117"/>
-      <c r="J322" s="138"/>
+      <c r="J322" s="117"/>
     </row>
     <row r="323" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="113" t="s">
         <v>1644</v>
       </c>
       <c r="B323" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C323" s="117" t="s">
-        <v>2278</v>
+        <v>2273</v>
       </c>
       <c r="D323" s="136" t="s">
         <v>1653</v>
       </c>
       <c r="E323" s="117" t="s">
-        <v>2279</v>
+        <v>1936</v>
       </c>
       <c r="F323" s="117"/>
       <c r="G323" s="117"/>
@@ -32708,16 +32733,16 @@
         <v>1644</v>
       </c>
       <c r="B324" s="120" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="C324" s="117" t="s">
-        <v>2280</v>
+        <v>2274</v>
       </c>
       <c r="D324" s="136" t="s">
         <v>1653</v>
       </c>
       <c r="E324" s="117" t="s">
-        <v>2113</v>
+        <v>2081</v>
       </c>
       <c r="F324" s="117"/>
       <c r="G324" s="117"/>
@@ -32729,23 +32754,25 @@
       <c r="A325" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B325" s="120" t="s">
-        <v>1788</v>
+      <c r="B325" s="121" t="s">
+        <v>1645</v>
       </c>
       <c r="C325" s="117" t="s">
-        <v>2281</v>
-      </c>
-      <c r="D325" s="136" t="s">
-        <v>1653</v>
+        <v>1772</v>
+      </c>
+      <c r="D325" s="117" t="s">
+        <v>1773</v>
       </c>
       <c r="E325" s="117" t="s">
-        <v>2282</v>
+        <v>1774</v>
       </c>
       <c r="F325" s="117"/>
       <c r="G325" s="117"/>
-      <c r="H325" s="115"/>
+      <c r="H325" s="148">
+        <v>0.75</v>
+      </c>
       <c r="I325" s="117"/>
-      <c r="J325" s="117"/>
+      <c r="J325" s="125"/>
     </row>
     <row r="326" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="113" t="s">
@@ -32755,18 +32782,18 @@
         <v>1651</v>
       </c>
       <c r="C326" s="117" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
       <c r="D326" s="126" t="s">
-        <v>1678</v>
+        <v>1693</v>
       </c>
       <c r="E326" s="117" t="s">
-        <v>1783</v>
+        <v>1776</v>
       </c>
       <c r="F326" s="117"/>
       <c r="G326" s="117"/>
       <c r="H326" s="148">
-        <v>0.79166666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="I326" s="117"/>
       <c r="J326" s="114"/>
@@ -32775,28 +32802,166 @@
       <c r="A327" s="113" t="s">
         <v>1644</v>
       </c>
-      <c r="B327" s="121" t="s">
-        <v>1645</v>
+      <c r="B327" s="141" t="s">
+        <v>1673</v>
       </c>
       <c r="C327" s="117" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
       <c r="D327" s="117" t="s">
-        <v>1785</v>
+        <v>1675</v>
       </c>
       <c r="E327" s="117" t="s">
-        <v>1786</v>
+        <v>1778</v>
       </c>
       <c r="F327" s="117"/>
       <c r="G327" s="117"/>
       <c r="H327" s="148">
+        <v>0.8125</v>
+      </c>
+      <c r="I327" s="117"/>
+      <c r="J327" s="147" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="328" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A328" s="113" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B328" s="120" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C328" s="117" t="s">
+        <v>2275</v>
+      </c>
+      <c r="D328" s="126" t="s">
+        <v>1724</v>
+      </c>
+      <c r="E328" s="117" t="s">
+        <v>1805</v>
+      </c>
+      <c r="F328" s="117"/>
+      <c r="G328" s="117"/>
+      <c r="H328" s="146"/>
+      <c r="I328" s="117"/>
+      <c r="J328" s="138"/>
+    </row>
+    <row r="329" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A329" s="113" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B329" s="120" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C329" s="117" t="s">
+        <v>2276</v>
+      </c>
+      <c r="D329" s="136" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E329" s="117" t="s">
+        <v>2277</v>
+      </c>
+      <c r="F329" s="117"/>
+      <c r="G329" s="117"/>
+      <c r="H329" s="115"/>
+      <c r="I329" s="117"/>
+      <c r="J329" s="117"/>
+    </row>
+    <row r="330" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A330" s="113" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B330" s="120" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C330" s="117" t="s">
+        <v>2278</v>
+      </c>
+      <c r="D330" s="136" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E330" s="117" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F330" s="117"/>
+      <c r="G330" s="117"/>
+      <c r="H330" s="115"/>
+      <c r="I330" s="117"/>
+      <c r="J330" s="117"/>
+    </row>
+    <row r="331" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="113" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B331" s="120" t="s">
+        <v>1786</v>
+      </c>
+      <c r="C331" s="117" t="s">
+        <v>2279</v>
+      </c>
+      <c r="D331" s="136" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E331" s="117" t="s">
+        <v>2280</v>
+      </c>
+      <c r="F331" s="117"/>
+      <c r="G331" s="117"/>
+      <c r="H331" s="115"/>
+      <c r="I331" s="117"/>
+      <c r="J331" s="117"/>
+    </row>
+    <row r="332" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A332" s="113" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B332" s="118" t="s">
+        <v>1651</v>
+      </c>
+      <c r="C332" s="117" t="s">
+        <v>1780</v>
+      </c>
+      <c r="D332" s="126" t="s">
+        <v>1678</v>
+      </c>
+      <c r="E332" s="117" t="s">
+        <v>1781</v>
+      </c>
+      <c r="F332" s="117"/>
+      <c r="G332" s="117"/>
+      <c r="H332" s="148">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="I332" s="117"/>
+      <c r="J332" s="114"/>
+    </row>
+    <row r="333" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="113" t="s">
+        <v>1644</v>
+      </c>
+      <c r="B333" s="121" t="s">
+        <v>1645</v>
+      </c>
+      <c r="C333" s="117" t="s">
+        <v>1782</v>
+      </c>
+      <c r="D333" s="117" t="s">
+        <v>1783</v>
+      </c>
+      <c r="E333" s="117" t="s">
+        <v>1784</v>
+      </c>
+      <c r="F333" s="117"/>
+      <c r="G333" s="117"/>
+      <c r="H333" s="148">
         <v>0.75</v>
       </c>
-      <c r="I327" s="117"/>
-      <c r="J327" s="125"/>
+      <c r="I333" s="117"/>
+      <c r="J333" s="125"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K327" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
+  <autoFilter ref="A1:K333" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024-2025"/>
@@ -32814,16 +32979,16 @@
     <hyperlink ref="J260" r:id="rId1" xr:uid="{927ED9C8-1312-4BA3-92E3-909EDC8633AE}"/>
     <hyperlink ref="J261" r:id="rId2" xr:uid="{A98CB03F-E64B-461C-AA62-765F7FB3DDC2}"/>
     <hyperlink ref="J272" r:id="rId3" display="https://www.staatsoper-hamburg.de/de/spielplan/stueck.php?AuffNr=221440" xr:uid="{ED1E9297-3292-4B3E-BA05-CADD38C0F7DB}"/>
-    <hyperlink ref="J321" r:id="rId4" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
+    <hyperlink ref="J327" r:id="rId4" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
     <hyperlink ref="J271" r:id="rId5" xr:uid="{B65373E1-DC68-490E-9ED3-F7F5B0A08D59}"/>
-    <hyperlink ref="J303" r:id="rId6" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
-    <hyperlink ref="J296" r:id="rId7" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
-    <hyperlink ref="J301" r:id="rId8" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
-    <hyperlink ref="J302" r:id="rId9" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
+    <hyperlink ref="J309" r:id="rId6" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
+    <hyperlink ref="J302" r:id="rId7" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
+    <hyperlink ref="J307" r:id="rId8" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
+    <hyperlink ref="J308" r:id="rId9" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
     <hyperlink ref="J259" r:id="rId10" xr:uid="{25E3D93D-EE73-4815-9F77-7AABCDDA6FC5}"/>
-    <hyperlink ref="J306" r:id="rId11" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
-    <hyperlink ref="J314" r:id="rId12" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
-    <hyperlink ref="J288" r:id="rId13" xr:uid="{7EC3C37B-D71A-4225-9383-16411E7B1004}"/>
+    <hyperlink ref="J312" r:id="rId11" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
+    <hyperlink ref="J320" r:id="rId12" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
+    <hyperlink ref="J294" r:id="rId13" xr:uid="{7EC3C37B-D71A-4225-9383-16411E7B1004}"/>
     <hyperlink ref="J265" r:id="rId14" xr:uid="{469612D2-EE94-44A7-9863-1210F6D57D6A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F279E74-55A4-4BE2-88A0-F76804F3010F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F1FCB-F063-408C-9956-93AAA631F295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3585" yWindow="1080" windowWidth="22440" windowHeight="12660" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Oper!$A$1:$J$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$78</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$79</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5554" uniqueCount="2017">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5564" uniqueCount="2022">
   <si>
     <t>Phase</t>
   </si>
@@ -6263,6 +6263,21 @@
   </si>
   <si>
     <t>EFSPI 8th RegStat Workshop Note</t>
+  </si>
+  <si>
+    <t>Oncology-Head and Neck Cancer-PIII-AZU41932-419302</t>
+  </si>
+  <si>
+    <t>AZU41932-419302</t>
+  </si>
+  <si>
+    <t>[Head and Neck Cancer](https://clinicaltrials.gov/study/NCT02369874)</t>
+  </si>
+  <si>
+    <t>NCT02369874</t>
+  </si>
+  <si>
+    <t>NCT02125461</t>
   </si>
 </sst>
 </file>
@@ -7634,19 +7649,22 @@
     <xf numFmtId="164" fontId="27" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="164" fontId="27" fillId="25" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="26" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7658,7 +7676,16 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7718,29 +7745,17 @@
     <xf numFmtId="0" fontId="27" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="25" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="27" fillId="26" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8421,12 +8436,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="170" t="s">
         <v>1594</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -8435,79 +8450,79 @@
       <c r="A3" s="67" t="s">
         <v>1588</v>
       </c>
-      <c r="B3" s="171">
+      <c r="B3" s="172">
         <v>45520</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="168" t="s">
+      <c r="A5" s="173" t="s">
         <v>1590</v>
       </c>
-      <c r="B5" s="168"/>
-      <c r="C5" s="168"/>
-      <c r="D5" s="168"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="172"/>
-      <c r="B6" s="172"/>
-      <c r="C6" s="172"/>
-      <c r="D6" s="172"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1591</v>
       </c>
-      <c r="B7" s="166" t="s">
+      <c r="B7" s="168" t="s">
         <v>1592</v>
       </c>
-      <c r="C7" s="166"/>
-      <c r="D7" s="166"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <v>2021</v>
       </c>
-      <c r="B8" s="165">
-        <f>COUNTIF(Study!B$1:B$999,"2021")</f>
+      <c r="B8" s="169">
+        <f>COUNTIF(Study!B$1:B$1000,"2021")</f>
         <v>39</v>
       </c>
-      <c r="C8" s="165"/>
-      <c r="D8" s="165"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
         <v>2022</v>
       </c>
-      <c r="B9" s="165">
-        <f>COUNTIF(Study!B$1:B$999,"2022")</f>
+      <c r="B9" s="169">
+        <f>COUNTIF(Study!B$1:B$1000,"2022")</f>
         <v>3</v>
       </c>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="79">
         <v>2023</v>
       </c>
-      <c r="B10" s="165">
-        <f>COUNTIF(Study!B$1:B$999,"2023")</f>
+      <c r="B10" s="169">
+        <f>COUNTIF(Study!B$1:B$1000,"2023")</f>
         <v>16</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="79">
         <v>2024</v>
       </c>
-      <c r="B11" s="165">
-        <f>COUNTIF(Study!B$1:B$999,"2024")</f>
-        <v>19</v>
-      </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
+      <c r="B11" s="169">
+        <f>COUNTIF(Study!B$1:B$1000,"2024")</f>
+        <v>20</v>
+      </c>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
       <c r="G11" s="69"/>
       <c r="H11" s="69"/>
       <c r="I11" s="70"/>
@@ -8531,12 +8546,12 @@
       <c r="A13" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="B13" s="166">
-        <f>COUNTA(Study!A$2:A$999)</f>
-        <v>77</v>
-      </c>
-      <c r="C13" s="166"/>
-      <c r="D13" s="166"/>
+      <c r="B13" s="168">
+        <f>COUNTA(Study!A$2:A$1000)</f>
+        <v>78</v>
+      </c>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -8548,12 +8563,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="166">
-        <f>COUNTIF(Study!D$1:D$999,"Y")</f>
+      <c r="B14" s="168">
+        <f>COUNTIF(Study!D$1:D$1000,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="166"/>
-      <c r="D14" s="166"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -8563,9 +8578,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="167"/>
-      <c r="C15" s="167"/>
-      <c r="D15" s="167"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -8577,11 +8592,11 @@
       <c r="A16" s="76" t="s">
         <v>1593</v>
       </c>
-      <c r="B16" s="166" t="s">
+      <c r="B16" s="168" t="s">
         <v>1592</v>
       </c>
-      <c r="C16" s="166"/>
-      <c r="D16" s="166"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -8593,12 +8608,12 @@
       <c r="A17" s="78" t="s">
         <v>196</v>
       </c>
-      <c r="B17" s="165">
-        <f>COUNTIF(Study!C$1:C$999,"GCP")</f>
+      <c r="B17" s="169">
+        <f>COUNTIF(Study!C$1:C$1000,"GCP")</f>
         <v>39</v>
       </c>
-      <c r="C17" s="165"/>
-      <c r="D17" s="165"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
       <c r="G17" s="69"/>
       <c r="H17" s="69"/>
       <c r="I17" s="70"/>
@@ -8610,12 +8625,12 @@
       <c r="A18" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="165">
-        <f>COUNTIF(Study!C$1:C$999,"GBG")</f>
+      <c r="B18" s="169">
+        <f>COUNTIF(Study!C$1:C$1000,"GBG")</f>
         <v>3</v>
       </c>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
       <c r="G18" s="69"/>
       <c r="H18" s="69"/>
       <c r="I18" s="70"/>
@@ -8627,12 +8642,12 @@
       <c r="A19" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="165">
-        <f>COUNTIF(Study!C$1:C$999,"ICON")</f>
-        <v>24</v>
-      </c>
-      <c r="C19" s="165"/>
-      <c r="D19" s="165"/>
+      <c r="B19" s="169">
+        <f>COUNTIF(Study!C$1:C$1000,"ICON")</f>
+        <v>25</v>
+      </c>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
       <c r="G19" s="69"/>
       <c r="H19" s="69"/>
       <c r="I19" s="70"/>
@@ -8644,12 +8659,12 @@
       <c r="A20" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="165">
-        <f>COUNTIF(Study!C$1:C$999,"Upwork")</f>
+      <c r="B20" s="169">
+        <f>COUNTIF(Study!C$1:C$1000,"Upwork")</f>
         <v>8</v>
       </c>
-      <c r="C20" s="165"/>
-      <c r="D20" s="165"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
       <c r="G20" s="69"/>
       <c r="H20" s="69"/>
       <c r="I20" s="70"/>
@@ -8661,12 +8676,12 @@
       <c r="A21" s="79" t="s">
         <v>209</v>
       </c>
-      <c r="B21" s="165">
-        <f>COUNTIF(Study!C$1:C$999,"Learning")</f>
+      <c r="B21" s="169">
+        <f>COUNTIF(Study!C$1:C$1000,"Learning")</f>
         <v>3</v>
       </c>
-      <c r="C21" s="165"/>
-      <c r="D21" s="165"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
       <c r="G21" s="69"/>
       <c r="H21" s="69"/>
       <c r="I21" s="70"/>
@@ -8706,15 +8721,15 @@
         <v>1595</v>
       </c>
       <c r="B24" s="80">
-        <f>COUNTA(Study!A$2:A$1000)</f>
-        <v>77</v>
+        <f>COUNTA(Study!A$2:A$1001)</f>
+        <v>78</v>
       </c>
       <c r="C24" s="73">
         <v>100</v>
       </c>
       <c r="D24" s="153">
         <f>B24-C24</f>
-        <v>-23</v>
+        <v>-22</v>
       </c>
       <c r="L24" s="70"/>
     </row>
@@ -8723,7 +8738,7 @@
         <v>165</v>
       </c>
       <c r="B25" s="80">
-        <f>COUNTIF(Study!D$1:D$1000,"Y")</f>
+        <f>COUNTIF(Study!D$1:D$1001,"Y")</f>
         <v>35</v>
       </c>
       <c r="C25" s="73">
@@ -8743,12 +8758,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="168" t="s">
+      <c r="A27" s="173" t="s">
         <v>1600</v>
       </c>
-      <c r="B27" s="168"/>
-      <c r="C27" s="168"/>
-      <c r="D27" s="168"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -8761,73 +8776,65 @@
       <c r="A29" s="76" t="s">
         <v>1601</v>
       </c>
-      <c r="B29" s="166" t="s">
+      <c r="B29" s="168" t="s">
         <v>1592</v>
       </c>
-      <c r="C29" s="166"/>
-      <c r="D29" s="166"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="78">
         <v>2021</v>
       </c>
-      <c r="B30" s="165">
-        <f>COUNTIF(Study!B$1:B$999,"2021")</f>
+      <c r="B30" s="169">
+        <f>COUNTIF(Study!B$1:B$1000,"2021")</f>
         <v>39</v>
       </c>
-      <c r="C30" s="165"/>
-      <c r="D30" s="165"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
       <c r="L30" s="70"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="79">
         <v>2022</v>
       </c>
-      <c r="B31" s="165">
-        <f>COUNTIF(Study!B$1:B$999,"2022")</f>
+      <c r="B31" s="169">
+        <f>COUNTIF(Study!B$1:B$1000,"2022")</f>
         <v>3</v>
       </c>
-      <c r="C31" s="165"/>
-      <c r="D31" s="165"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
       <c r="L31" s="70"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="79">
         <v>2023</v>
       </c>
-      <c r="B32" s="165">
-        <f>COUNTIF(Study!B$1:B$999,"2023")</f>
+      <c r="B32" s="169">
+        <f>COUNTIF(Study!B$1:B$1000,"2023")</f>
         <v>16</v>
       </c>
-      <c r="C32" s="165"/>
-      <c r="D32" s="165"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
       <c r="L32" s="70"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="164" t="s">
+      <c r="A34" s="175" t="s">
         <v>1602</v>
       </c>
-      <c r="B34" s="164"/>
-      <c r="C34" s="164"/>
-      <c r="D34" s="164"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="164"/>
-      <c r="B35" s="164"/>
-      <c r="C35" s="164"/>
-      <c r="D35" s="164"/>
+      <c r="A35" s="175"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -8844,6 +8851,14 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -8856,11 +8871,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
-  <dimension ref="A1:L78"/>
+  <dimension ref="A1:L79"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E29" sqref="E29"/>
+      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10883,46 +10898,48 @@
         <v>278</v>
       </c>
       <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
+      <c r="K59" s="95" t="s">
+        <v>2021</v>
+      </c>
       <c r="L59" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="B60" s="97">
-        <v>2021</v>
-      </c>
-      <c r="C60" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="D60" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="E60" s="97" t="s">
-        <v>290</v>
-      </c>
-      <c r="F60" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="G60" s="98" t="s">
-        <v>410</v>
-      </c>
-      <c r="H60" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="I60" s="98" t="s">
-        <v>194</v>
-      </c>
-      <c r="J60" s="97"/>
-      <c r="K60" s="97"/>
-      <c r="L60" s="97" t="s">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B60" s="95">
+        <v>2024</v>
+      </c>
+      <c r="C60" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D60" s="95"/>
+      <c r="E60" s="95" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F60" s="95" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G60" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="H60" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I60" s="96" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95" t="s">
+        <v>2020</v>
+      </c>
+      <c r="L60" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="97" t="s">
         <v>40</v>
       </c>
@@ -10936,10 +10953,10 @@
         <v>166</v>
       </c>
       <c r="E61" s="97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F61" s="97" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="G61" s="98" t="s">
         <v>410</v>
@@ -10947,16 +10964,16 @@
       <c r="H61" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="I61" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="J61" s="108"/>
+      <c r="I61" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="J61" s="97"/>
       <c r="K61" s="97"/>
       <c r="L61" s="97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A62" s="97" t="s">
         <v>40</v>
       </c>
@@ -10966,31 +10983,31 @@
       <c r="C62" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D62" s="97"/>
+      <c r="D62" s="97" t="s">
+        <v>166</v>
+      </c>
       <c r="E62" s="97" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F62" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G62" s="98" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H62" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="I62" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="J62" s="97"/>
-      <c r="K62" s="97" t="s">
-        <v>115</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I62" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="J62" s="108"/>
+      <c r="K62" s="97"/>
       <c r="L62" s="97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="63" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="97" t="s">
         <v>40</v>
       </c>
@@ -11000,30 +11017,28 @@
       <c r="C63" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="97" t="s">
-        <v>166</v>
-      </c>
+      <c r="D63" s="97"/>
       <c r="E63" s="97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F63" s="97" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="G63" s="98" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H63" s="97" t="s">
         <v>24</v>
       </c>
       <c r="I63" s="98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J63" s="97"/>
       <c r="K63" s="97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L63" s="97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -11040,10 +11055,10 @@
         <v>166</v>
       </c>
       <c r="E64" s="97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F64" s="97" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G64" s="98" t="s">
         <v>410</v>
@@ -11052,11 +11067,11 @@
         <v>24</v>
       </c>
       <c r="I64" s="98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J64" s="97"/>
       <c r="K64" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L64" s="97" t="s">
         <v>10</v>
@@ -11076,10 +11091,10 @@
         <v>166</v>
       </c>
       <c r="E65" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G65" s="98" t="s">
         <v>410</v>
@@ -11088,11 +11103,11 @@
         <v>24</v>
       </c>
       <c r="I65" s="98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J65" s="97"/>
       <c r="K65" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L65" s="97" t="s">
         <v>10</v>
@@ -11112,10 +11127,10 @@
         <v>166</v>
       </c>
       <c r="E66" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F66" s="97" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G66" s="98" t="s">
         <v>410</v>
@@ -11124,11 +11139,11 @@
         <v>24</v>
       </c>
       <c r="I66" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J66" s="97"/>
       <c r="K66" s="97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L66" s="97" t="s">
         <v>10</v>
@@ -11148,10 +11163,10 @@
         <v>166</v>
       </c>
       <c r="E67" s="97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F67" s="97" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G67" s="98" t="s">
         <v>410</v>
@@ -11160,11 +11175,11 @@
         <v>24</v>
       </c>
       <c r="I67" s="98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J67" s="97"/>
       <c r="K67" s="97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L67" s="97" t="s">
         <v>10</v>
@@ -11184,10 +11199,10 @@
         <v>166</v>
       </c>
       <c r="E68" s="97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F68" s="97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G68" s="98" t="s">
         <v>410</v>
@@ -11196,11 +11211,11 @@
         <v>24</v>
       </c>
       <c r="I68" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J68" s="97"/>
       <c r="K68" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L68" s="97" t="s">
         <v>10</v>
@@ -11220,10 +11235,10 @@
         <v>166</v>
       </c>
       <c r="E69" s="97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F69" s="97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G69" s="98" t="s">
         <v>410</v>
@@ -11232,11 +11247,11 @@
         <v>24</v>
       </c>
       <c r="I69" s="98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J69" s="97"/>
       <c r="K69" s="97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L69" s="97" t="s">
         <v>10</v>
@@ -11252,12 +11267,14 @@
       <c r="C70" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D70" s="97"/>
+      <c r="D70" s="97" t="s">
+        <v>166</v>
+      </c>
       <c r="E70" s="97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F70" s="97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G70" s="98" t="s">
         <v>410</v>
@@ -11266,11 +11283,11 @@
         <v>24</v>
       </c>
       <c r="I70" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J70" s="97"/>
       <c r="K70" s="97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L70" s="97" t="s">
         <v>10</v>
@@ -11286,14 +11303,12 @@
       <c r="C71" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="97" t="s">
-        <v>166</v>
-      </c>
+      <c r="D71" s="97"/>
       <c r="E71" s="97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="G71" s="98" t="s">
         <v>410</v>
@@ -11302,10 +11317,12 @@
         <v>24</v>
       </c>
       <c r="I71" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J71" s="97"/>
-      <c r="K71" s="97"/>
+      <c r="K71" s="97" t="s">
+        <v>123</v>
+      </c>
       <c r="L71" s="97" t="s">
         <v>10</v>
       </c>
@@ -11324,10 +11341,10 @@
         <v>166</v>
       </c>
       <c r="E72" s="97" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F72" s="97" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="G72" s="98" t="s">
         <v>410</v>
@@ -11336,7 +11353,7 @@
         <v>24</v>
       </c>
       <c r="I72" s="98" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="J72" s="97"/>
       <c r="K72" s="97"/>
@@ -11358,19 +11375,19 @@
         <v>166</v>
       </c>
       <c r="E73" s="97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F73" s="97" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="G73" s="98" t="s">
         <v>410</v>
       </c>
       <c r="H73" s="97" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I73" s="98" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="J73" s="97"/>
       <c r="K73" s="97"/>
@@ -11379,36 +11396,36 @@
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A74" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="B74" s="100">
-        <v>2024</v>
-      </c>
-      <c r="C74" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="D74" s="100" t="s">
+      <c r="A74" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B74" s="97">
+        <v>2021</v>
+      </c>
+      <c r="C74" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="D74" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="E74" s="100" t="s">
-        <v>306</v>
-      </c>
-      <c r="F74" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="G74" s="101" t="s">
-        <v>1632</v>
-      </c>
-      <c r="H74" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="I74" s="101" t="s">
-        <v>318</v>
-      </c>
-      <c r="J74" s="100"/>
-      <c r="K74" s="100"/>
-      <c r="L74" s="100" t="s">
+      <c r="E74" s="97" t="s">
+        <v>292</v>
+      </c>
+      <c r="F74" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="G74" s="98" t="s">
+        <v>410</v>
+      </c>
+      <c r="H74" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I74" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="J74" s="97"/>
+      <c r="K74" s="97"/>
+      <c r="L74" s="97" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11422,12 +11439,14 @@
       <c r="C75" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="D75" s="100"/>
+      <c r="D75" s="100" t="s">
+        <v>166</v>
+      </c>
       <c r="E75" s="100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F75" s="100" t="s">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="G75" s="101" t="s">
         <v>1632</v>
@@ -11436,7 +11455,7 @@
         <v>26</v>
       </c>
       <c r="I75" s="101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J75" s="100"/>
       <c r="K75" s="100"/>
@@ -11445,103 +11464,135 @@
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A76" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="B76" s="102">
-        <v>2021</v>
-      </c>
-      <c r="C76" s="102" t="s">
-        <v>196</v>
-      </c>
-      <c r="D76" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="E76" s="102" t="s">
-        <v>314</v>
-      </c>
-      <c r="F76" s="102" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G76" s="103" t="s">
-        <v>442</v>
-      </c>
-      <c r="H76" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I76" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="J76" s="102"/>
-      <c r="K76" s="102"/>
-      <c r="L76" s="102" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="77" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A76" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B76" s="100">
+        <v>2024</v>
+      </c>
+      <c r="C76" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D76" s="100"/>
+      <c r="E76" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="F76" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="G76" s="101" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H76" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="I76" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="J76" s="100"/>
+      <c r="K76" s="100"/>
+      <c r="L76" s="100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A77" s="102" t="s">
         <v>78</v>
       </c>
       <c r="B77" s="102">
+        <v>2021</v>
+      </c>
+      <c r="C77" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="D77" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="E77" s="102" t="s">
+        <v>314</v>
+      </c>
+      <c r="F77" s="102" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G77" s="103" t="s">
+        <v>442</v>
+      </c>
+      <c r="H77" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I77" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="J77" s="102"/>
+      <c r="K77" s="102"/>
+      <c r="L77" s="102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A78" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B78" s="102">
         <v>2023</v>
       </c>
-      <c r="C77" s="102" t="s">
+      <c r="C78" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="D77" s="102"/>
-      <c r="E77" s="102" t="s">
+      <c r="D78" s="102"/>
+      <c r="E78" s="102" t="s">
         <v>311</v>
       </c>
-      <c r="F77" s="102" t="s">
+      <c r="F78" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="G77" s="103" t="s">
+      <c r="G78" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="H77" s="102" t="s">
+      <c r="H78" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="I77" s="103" t="s">
+      <c r="I78" s="103" t="s">
         <v>408</v>
       </c>
-      <c r="J77" s="102"/>
-      <c r="K77" s="102" t="s">
+      <c r="J78" s="102"/>
+      <c r="K78" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="L77" s="102" t="s">
+      <c r="L78" s="102" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="104" t="s">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="B78" s="104">
+      <c r="B79" s="104">
         <v>2024</v>
       </c>
-      <c r="C78" s="104" t="s">
+      <c r="C79" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="D78" s="104"/>
-      <c r="E78" s="104" t="s">
+      <c r="D79" s="104"/>
+      <c r="E79" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="F78" s="104"/>
-      <c r="G78" s="106"/>
-      <c r="H78" s="104" t="s">
+      <c r="F79" s="104"/>
+      <c r="G79" s="106"/>
+      <c r="H79" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="I78" s="106" t="s">
+      <c r="I79" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="J78" s="104"/>
-      <c r="K78" s="104"/>
-      <c r="L78" s="104" t="s">
+      <c r="J79" s="104"/>
+      <c r="K79" s="104"/>
+      <c r="L79" s="104" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L78" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
+  <autoFilter ref="A1:L79" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11552,8 +11603,8 @@
   <dimension ref="A1:E114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D14" sqref="D14"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12875,7 +12926,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="176" t="s">
+      <c r="A2" s="180" t="s">
         <v>1389</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -12904,7 +12955,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="177"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="44" t="s">
         <v>1392</v>
       </c>
@@ -12931,7 +12982,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="178"/>
+      <c r="A4" s="182"/>
       <c r="B4" s="45" t="s">
         <v>1394</v>
       </c>
@@ -12958,7 +13009,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="178"/>
+      <c r="A5" s="182"/>
       <c r="B5" s="45" t="s">
         <v>1396</v>
       </c>
@@ -12985,7 +13036,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="178"/>
+      <c r="A6" s="182"/>
       <c r="B6" s="45" t="s">
         <v>1398</v>
       </c>
@@ -13012,7 +13063,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="178"/>
+      <c r="A7" s="182"/>
       <c r="B7" s="45" t="s">
         <v>1400</v>
       </c>
@@ -13021,7 +13072,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="179"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="46" t="s">
         <v>1402</v>
       </c>
@@ -13030,7 +13081,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="180" t="s">
+      <c r="A9" s="184" t="s">
         <v>1404</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -13041,7 +13092,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="180"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="47" t="s">
         <v>1407</v>
       </c>
@@ -13050,7 +13101,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="180"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="47" t="s">
         <v>1409</v>
       </c>
@@ -13059,7 +13110,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="181"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="44" t="s">
         <v>1411</v>
       </c>
@@ -13068,7 +13119,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="181"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="44" t="s">
         <v>1413</v>
       </c>
@@ -13077,7 +13128,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="181"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="44" t="s">
         <v>1415</v>
       </c>
@@ -13086,7 +13137,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="181"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="44" t="s">
         <v>1417</v>
       </c>
@@ -13095,7 +13146,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="181"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="44" t="s">
         <v>1419</v>
       </c>
@@ -13104,7 +13155,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="181"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="44" t="s">
         <v>1421</v>
       </c>
@@ -13113,7 +13164,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="181"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="44" t="s">
         <v>1423</v>
       </c>
@@ -13122,7 +13173,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="182"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="48" t="s">
         <v>1425</v>
       </c>
@@ -13131,7 +13182,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="182"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="48" t="s">
         <v>1427</v>
       </c>
@@ -13140,7 +13191,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="182"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="48" t="s">
         <v>1429</v>
       </c>
@@ -13149,7 +13200,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="183"/>
+      <c r="A22" s="187"/>
       <c r="B22" s="49" t="s">
         <v>1431</v>
       </c>
@@ -13158,7 +13209,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="184" t="s">
+      <c r="A23" s="188" t="s">
         <v>1433</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -13169,7 +13220,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="181"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="47" t="s">
         <v>1436</v>
       </c>
@@ -13178,7 +13229,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="181"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="44" t="s">
         <v>1437</v>
       </c>
@@ -13187,7 +13238,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="181"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="44" t="s">
         <v>1438</v>
       </c>
@@ -13196,7 +13247,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="181"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="44" t="s">
         <v>1439</v>
       </c>
@@ -13205,7 +13256,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="181"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="44" t="s">
         <v>1440</v>
       </c>
@@ -13214,7 +13265,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="181"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="51" t="s">
         <v>1441</v>
       </c>
@@ -13223,7 +13274,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="181"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="44" t="s">
         <v>1442</v>
       </c>
@@ -13232,7 +13283,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="181"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="44" t="s">
         <v>1443</v>
       </c>
@@ -13241,7 +13292,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="181"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="44" t="s">
         <v>1444</v>
       </c>
@@ -13250,7 +13301,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="181"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="44" t="s">
         <v>1445</v>
       </c>
@@ -13259,7 +13310,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="181"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="44" t="s">
         <v>1446</v>
       </c>
@@ -13268,7 +13319,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="181"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="44" t="s">
         <v>1447</v>
       </c>
@@ -13277,7 +13328,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="181"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="44" t="s">
         <v>1448</v>
       </c>
@@ -13286,7 +13337,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="181"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="44" t="s">
         <v>1449</v>
       </c>
@@ -13295,7 +13346,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="181"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="44" t="s">
         <v>1450</v>
       </c>
@@ -13304,7 +13355,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="181"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="44" t="s">
         <v>1451</v>
       </c>
@@ -13313,7 +13364,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="181"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="44" t="s">
         <v>1452</v>
       </c>
@@ -13322,7 +13373,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="181"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="44" t="s">
         <v>1453</v>
       </c>
@@ -13331,7 +13382,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="181"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="44" t="s">
         <v>1454</v>
       </c>
@@ -13340,7 +13391,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="181"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="44" t="s">
         <v>1456</v>
       </c>
@@ -13349,7 +13400,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="181"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="44" t="s">
         <v>1457</v>
       </c>
@@ -13358,7 +13409,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="181"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="44" t="s">
         <v>1459</v>
       </c>
@@ -13367,7 +13418,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="181"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="44" t="s">
         <v>1461</v>
       </c>
@@ -13376,7 +13427,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="183"/>
+      <c r="A47" s="187"/>
       <c r="B47" s="49" t="s">
         <v>1463</v>
       </c>
@@ -13385,7 +13436,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="185" t="s">
+      <c r="A48" s="189" t="s">
         <v>1465</v>
       </c>
       <c r="B48" s="47" t="s">
@@ -13396,7 +13447,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="173"/>
+      <c r="A49" s="177"/>
       <c r="B49" s="47" t="s">
         <v>1468</v>
       </c>
@@ -13405,7 +13456,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="173"/>
+      <c r="A50" s="177"/>
       <c r="B50" s="47" t="s">
         <v>1469</v>
       </c>
@@ -13414,7 +13465,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="173"/>
+      <c r="A51" s="177"/>
       <c r="B51" s="44" t="s">
         <v>1470</v>
       </c>
@@ -13423,7 +13474,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="173"/>
+      <c r="A52" s="177"/>
       <c r="B52" s="44" t="s">
         <v>1471</v>
       </c>
@@ -13432,7 +13483,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="173"/>
+      <c r="A53" s="177"/>
       <c r="B53" s="44" t="s">
         <v>1472</v>
       </c>
@@ -13441,7 +13492,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="173"/>
+      <c r="A54" s="177"/>
       <c r="B54" s="44" t="s">
         <v>1473</v>
       </c>
@@ -13450,7 +13501,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="173"/>
+      <c r="A55" s="177"/>
       <c r="B55" s="44" t="s">
         <v>1474</v>
       </c>
@@ -13459,7 +13510,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="173"/>
+      <c r="A56" s="177"/>
       <c r="B56" s="48" t="s">
         <v>1475</v>
       </c>
@@ -13468,7 +13519,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="173"/>
+      <c r="A57" s="177"/>
       <c r="B57" s="48" t="s">
         <v>1476</v>
       </c>
@@ -13477,7 +13528,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="173"/>
+      <c r="A58" s="177"/>
       <c r="B58" s="48" t="s">
         <v>1477</v>
       </c>
@@ -13486,7 +13537,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="173"/>
+      <c r="A59" s="177"/>
       <c r="B59" s="48" t="s">
         <v>1479</v>
       </c>
@@ -13495,7 +13546,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="173"/>
+      <c r="A60" s="177"/>
       <c r="B60" s="48" t="s">
         <v>1480</v>
       </c>
@@ -13504,7 +13555,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="173"/>
+      <c r="A61" s="177"/>
       <c r="B61" s="48" t="s">
         <v>1481</v>
       </c>
@@ -13513,7 +13564,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="173"/>
+      <c r="A62" s="177"/>
       <c r="B62" s="48" t="s">
         <v>1482</v>
       </c>
@@ -13522,7 +13573,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="185" t="s">
+      <c r="A63" s="189" t="s">
         <v>1484</v>
       </c>
       <c r="B63" s="52" t="s">
@@ -13533,7 +13584,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="173"/>
+      <c r="A64" s="177"/>
       <c r="B64" s="48" t="s">
         <v>1487</v>
       </c>
@@ -13542,7 +13593,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="173"/>
+      <c r="A65" s="177"/>
       <c r="B65" s="48" t="s">
         <v>1488</v>
       </c>
@@ -13551,7 +13602,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="173"/>
+      <c r="A66" s="177"/>
       <c r="B66" s="48" t="s">
         <v>1490</v>
       </c>
@@ -13560,7 +13611,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="173"/>
+      <c r="A67" s="177"/>
       <c r="B67" s="48" t="s">
         <v>1491</v>
       </c>
@@ -13569,7 +13620,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="173"/>
+      <c r="A68" s="177"/>
       <c r="B68" s="48" t="s">
         <v>1492</v>
       </c>
@@ -13578,7 +13629,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="173"/>
+      <c r="A69" s="177"/>
       <c r="B69" s="48" t="s">
         <v>1493</v>
       </c>
@@ -13587,7 +13638,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="173"/>
+      <c r="A70" s="177"/>
       <c r="B70" s="48" t="s">
         <v>1494</v>
       </c>
@@ -13596,7 +13647,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="173"/>
+      <c r="A71" s="177"/>
       <c r="B71" s="48" t="s">
         <v>1495</v>
       </c>
@@ -13605,7 +13656,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="173"/>
+      <c r="A72" s="177"/>
       <c r="B72" s="53" t="s">
         <v>1496</v>
       </c>
@@ -13614,7 +13665,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="173"/>
+      <c r="A73" s="177"/>
       <c r="B73" s="48" t="s">
         <v>1498</v>
       </c>
@@ -13623,7 +13674,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="173"/>
+      <c r="A74" s="177"/>
       <c r="B74" s="48" t="s">
         <v>1499</v>
       </c>
@@ -13632,7 +13683,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="173"/>
+      <c r="A75" s="177"/>
       <c r="B75" s="48" t="s">
         <v>1500</v>
       </c>
@@ -13641,7 +13692,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="173"/>
+      <c r="A76" s="177"/>
       <c r="B76" s="48" t="s">
         <v>1501</v>
       </c>
@@ -13650,7 +13701,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="173"/>
+      <c r="A77" s="177"/>
       <c r="B77" s="48" t="s">
         <v>1503</v>
       </c>
@@ -13659,7 +13710,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="173"/>
+      <c r="A78" s="177"/>
       <c r="B78" s="48" t="s">
         <v>1505</v>
       </c>
@@ -13668,7 +13719,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="173"/>
+      <c r="A79" s="177"/>
       <c r="B79" s="48" t="s">
         <v>1506</v>
       </c>
@@ -13677,7 +13728,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="173"/>
+      <c r="A80" s="177"/>
       <c r="B80" s="48" t="s">
         <v>1508</v>
       </c>
@@ -13686,7 +13737,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="186" t="s">
+      <c r="A81" s="190" t="s">
         <v>1510</v>
       </c>
       <c r="B81" s="54" t="s">
@@ -13697,7 +13748,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="187"/>
+      <c r="A82" s="191"/>
       <c r="B82" s="55" t="s">
         <v>1513</v>
       </c>
@@ -13706,7 +13757,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="187"/>
+      <c r="A83" s="191"/>
       <c r="B83" s="55" t="s">
         <v>1515</v>
       </c>
@@ -13715,7 +13766,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="187"/>
+      <c r="A84" s="191"/>
       <c r="B84" s="55" t="s">
         <v>1517</v>
       </c>
@@ -13724,7 +13775,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="187"/>
+      <c r="A85" s="191"/>
       <c r="B85" s="55" t="s">
         <v>1519</v>
       </c>
@@ -13733,7 +13784,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="187"/>
+      <c r="A86" s="191"/>
       <c r="B86" s="55" t="s">
         <v>1521</v>
       </c>
@@ -13742,7 +13793,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A87" s="187"/>
+      <c r="A87" s="191"/>
       <c r="B87" s="55" t="s">
         <v>1523</v>
       </c>
@@ -13751,7 +13802,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="187"/>
+      <c r="A88" s="191"/>
       <c r="B88" s="55" t="s">
         <v>1525</v>
       </c>
@@ -13760,7 +13811,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="187"/>
+      <c r="A89" s="191"/>
       <c r="B89" s="55" t="s">
         <v>1527</v>
       </c>
@@ -13769,7 +13820,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="187"/>
+      <c r="A90" s="191"/>
       <c r="B90" s="55" t="s">
         <v>1529</v>
       </c>
@@ -13778,7 +13829,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="187"/>
+      <c r="A91" s="191"/>
       <c r="B91" s="55" t="s">
         <v>1531</v>
       </c>
@@ -13787,7 +13838,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="187"/>
+      <c r="A92" s="191"/>
       <c r="B92" s="55" t="s">
         <v>1533</v>
       </c>
@@ -13796,7 +13847,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="188"/>
+      <c r="A93" s="192"/>
       <c r="B93" s="56" t="s">
         <v>1535</v>
       </c>
@@ -13805,7 +13856,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="173" t="s">
+      <c r="A94" s="177" t="s">
         <v>1537</v>
       </c>
       <c r="B94" s="44" t="s">
@@ -13816,7 +13867,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="173"/>
+      <c r="A95" s="177"/>
       <c r="B95" s="44" t="s">
         <v>1540</v>
       </c>
@@ -13825,7 +13876,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="173"/>
+      <c r="A96" s="177"/>
       <c r="B96" s="44" t="s">
         <v>1542</v>
       </c>
@@ -13834,7 +13885,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="173"/>
+      <c r="A97" s="177"/>
       <c r="B97" s="44" t="s">
         <v>1544</v>
       </c>
@@ -13843,7 +13894,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="173"/>
+      <c r="A98" s="177"/>
       <c r="B98" s="48" t="s">
         <v>1546</v>
       </c>
@@ -13852,7 +13903,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="174"/>
+      <c r="A99" s="178"/>
       <c r="B99" s="57" t="s">
         <v>1548</v>
       </c>
@@ -13861,7 +13912,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="174"/>
+      <c r="A100" s="178"/>
       <c r="B100" s="57" t="s">
         <v>1550</v>
       </c>
@@ -13870,7 +13921,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="175"/>
+      <c r="A101" s="179"/>
       <c r="B101" s="59" t="s">
         <v>1552</v>
       </c>
@@ -24521,7 +24572,7 @@
   <cols>
     <col min="1" max="1" width="13" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" customWidth="1"/>
-    <col min="3" max="3" width="15.28515625" style="199" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="167" customWidth="1"/>
     <col min="4" max="4" width="12.5703125" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
     <col min="6" max="6" width="20.85546875" customWidth="1"/>
@@ -24570,7 +24621,7 @@
       <c r="B2" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C2" s="194">
+      <c r="C2" s="164">
         <v>43476</v>
       </c>
       <c r="D2" s="132" t="s">
@@ -24592,7 +24643,7 @@
       <c r="B3" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C3" s="194">
+      <c r="C3" s="164">
         <v>43603</v>
       </c>
       <c r="D3" s="132" t="s">
@@ -24614,7 +24665,7 @@
       <c r="B4" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C4" s="194">
+      <c r="C4" s="164">
         <v>43819</v>
       </c>
       <c r="D4" s="132" t="s">
@@ -24636,7 +24687,7 @@
       <c r="B5" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C5" s="194">
+      <c r="C5" s="164">
         <v>43880</v>
       </c>
       <c r="D5" s="113" t="s">
@@ -24662,7 +24713,7 @@
       <c r="B6" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C6" s="194">
+      <c r="C6" s="164">
         <v>43891</v>
       </c>
       <c r="D6" s="113" t="s">
@@ -24684,7 +24735,7 @@
       <c r="B7" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C7" s="194">
+      <c r="C7" s="164">
         <v>44086</v>
       </c>
       <c r="D7" s="113" t="s">
@@ -24706,7 +24757,7 @@
       <c r="B8" s="113" t="s">
         <v>1732</v>
       </c>
-      <c r="C8" s="194">
+      <c r="C8" s="164">
         <v>44094</v>
       </c>
       <c r="D8" s="113" t="s">
@@ -24728,7 +24779,7 @@
       <c r="B9" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C9" s="194">
+      <c r="C9" s="164">
         <v>44101</v>
       </c>
       <c r="D9" s="113" t="s">
@@ -24750,7 +24801,7 @@
       <c r="B10" s="140" t="s">
         <v>1670</v>
       </c>
-      <c r="C10" s="194">
+      <c r="C10" s="164">
         <v>44107</v>
       </c>
       <c r="D10" s="113" t="s">
@@ -24772,7 +24823,7 @@
       <c r="B11" s="140" t="s">
         <v>1670</v>
       </c>
-      <c r="C11" s="194">
+      <c r="C11" s="164">
         <v>44108</v>
       </c>
       <c r="D11" s="113" t="s">
@@ -24794,7 +24845,7 @@
       <c r="B12" s="121" t="s">
         <v>1644</v>
       </c>
-      <c r="C12" s="194">
+      <c r="C12" s="164">
         <v>44127</v>
       </c>
       <c r="D12" s="113" t="s">
@@ -24816,7 +24867,7 @@
       <c r="B13" s="118" t="s">
         <v>1649</v>
       </c>
-      <c r="C13" s="194">
+      <c r="C13" s="164">
         <v>44128</v>
       </c>
       <c r="D13" s="113" t="s">
@@ -24842,7 +24893,7 @@
       <c r="B14" s="121" t="s">
         <v>1644</v>
       </c>
-      <c r="C14" s="194">
+      <c r="C14" s="164">
         <v>44129</v>
       </c>
       <c r="D14" s="113" t="s">
@@ -24864,7 +24915,7 @@
       <c r="B15" s="113" t="s">
         <v>1732</v>
       </c>
-      <c r="C15" s="194">
+      <c r="C15" s="164">
         <v>44353</v>
       </c>
       <c r="D15" s="113" t="s">
@@ -24886,7 +24937,7 @@
       <c r="B16" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C16" s="194">
+      <c r="C16" s="164">
         <v>44446</v>
       </c>
       <c r="D16" s="113" t="s">
@@ -24908,7 +24959,7 @@
       <c r="B17" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C17" s="194">
+      <c r="C17" s="164">
         <v>44451</v>
       </c>
       <c r="D17" s="113" t="s">
@@ -24934,7 +24985,7 @@
       <c r="B18" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C18" s="194">
+      <c r="C18" s="164">
         <v>44472</v>
       </c>
       <c r="D18" s="113" t="s">
@@ -24956,7 +25007,7 @@
       <c r="B19" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C19" s="194">
+      <c r="C19" s="164">
         <v>44477</v>
       </c>
       <c r="D19" s="113" t="s">
@@ -24982,7 +25033,7 @@
       <c r="B20" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C20" s="194">
+      <c r="C20" s="164">
         <v>44488</v>
       </c>
       <c r="D20" s="113" t="s">
@@ -25004,7 +25055,7 @@
       <c r="B21" s="140" t="s">
         <v>1670</v>
       </c>
-      <c r="C21" s="194">
+      <c r="C21" s="164">
         <v>44491</v>
       </c>
       <c r="D21" s="132" t="s">
@@ -25026,7 +25077,7 @@
       <c r="B22" s="140" t="s">
         <v>1670</v>
       </c>
-      <c r="C22" s="194">
+      <c r="C22" s="164">
         <v>44492</v>
       </c>
       <c r="D22" s="113" t="s">
@@ -25048,7 +25099,7 @@
       <c r="B23" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C23" s="194">
+      <c r="C23" s="164">
         <v>44499</v>
       </c>
       <c r="D23" s="113" t="s">
@@ -25070,7 +25121,7 @@
       <c r="B24" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C24" s="194">
+      <c r="C24" s="164">
         <v>44502</v>
       </c>
       <c r="D24" s="113" t="s">
@@ -25092,7 +25143,7 @@
       <c r="B25" s="113" t="s">
         <v>1732</v>
       </c>
-      <c r="C25" s="194">
+      <c r="C25" s="164">
         <v>44503</v>
       </c>
       <c r="D25" s="113" t="s">
@@ -25114,7 +25165,7 @@
       <c r="B26" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C26" s="194">
+      <c r="C26" s="164">
         <v>44510</v>
       </c>
       <c r="D26" s="132" t="s">
@@ -25136,7 +25187,7 @@
       <c r="B27" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C27" s="194">
+      <c r="C27" s="164">
         <v>44512</v>
       </c>
       <c r="D27" s="113" t="s">
@@ -25158,7 +25209,7 @@
       <c r="B28" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C28" s="194">
+      <c r="C28" s="164">
         <v>44519</v>
       </c>
       <c r="D28" s="113" t="s">
@@ -25180,7 +25231,7 @@
       <c r="B29" s="120" t="s">
         <v>1723</v>
       </c>
-      <c r="C29" s="194">
+      <c r="C29" s="164">
         <v>44521</v>
       </c>
       <c r="D29" s="113" t="s">
@@ -27798,13 +27849,13 @@
       <c r="J142" s="114"/>
     </row>
     <row r="143" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="189" t="s">
+      <c r="A143" s="193" t="s">
         <v>1809</v>
       </c>
-      <c r="B143" s="191" t="s">
+      <c r="B143" s="195" t="s">
         <v>1680</v>
       </c>
-      <c r="C143" s="195">
+      <c r="C143" s="196">
         <v>45050</v>
       </c>
       <c r="D143" s="114" t="s">
@@ -27816,13 +27867,13 @@
       <c r="F143" s="116"/>
       <c r="G143" s="116"/>
       <c r="H143" s="144"/>
-      <c r="I143" s="192"/>
-      <c r="J143" s="189"/>
+      <c r="I143" s="198"/>
+      <c r="J143" s="193"/>
     </row>
     <row r="144" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="190"/>
-      <c r="B144" s="190"/>
-      <c r="C144" s="196"/>
+      <c r="A144" s="194"/>
+      <c r="B144" s="194"/>
+      <c r="C144" s="197"/>
       <c r="D144" s="114"/>
       <c r="E144" s="114" t="s">
         <v>1852</v>
@@ -27830,8 +27881,8 @@
       <c r="F144" s="114"/>
       <c r="G144" s="114"/>
       <c r="H144" s="115"/>
-      <c r="I144" s="193"/>
-      <c r="J144" s="190"/>
+      <c r="I144" s="199"/>
+      <c r="J144" s="194"/>
     </row>
     <row r="145" spans="1:10" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="113" t="s">
@@ -30902,7 +30953,7 @@
       <c r="B276" s="118" t="s">
         <v>1649</v>
       </c>
-      <c r="C276" s="197">
+      <c r="C276" s="165">
         <v>45618</v>
       </c>
       <c r="D276" s="126" t="s">
@@ -30926,7 +30977,7 @@
       <c r="B277" s="121" t="s">
         <v>1644</v>
       </c>
-      <c r="C277" s="197">
+      <c r="C277" s="165">
         <v>45619</v>
       </c>
       <c r="D277" s="126" t="s">
@@ -30950,7 +31001,7 @@
       <c r="B278" s="156" t="s">
         <v>1649</v>
       </c>
-      <c r="C278" s="198">
+      <c r="C278" s="166">
         <v>45619</v>
       </c>
       <c r="D278" s="155" t="s">
@@ -30974,7 +31025,7 @@
       <c r="B279" s="121" t="s">
         <v>1644</v>
       </c>
-      <c r="C279" s="197">
+      <c r="C279" s="165">
         <v>45620</v>
       </c>
       <c r="D279" s="134" t="s">
@@ -30998,7 +31049,7 @@
       <c r="B280" s="118" t="s">
         <v>1649</v>
       </c>
-      <c r="C280" s="197">
+      <c r="C280" s="165">
         <v>45620</v>
       </c>
       <c r="D280" s="126" t="s">

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{759F1FCB-F063-408C-9956-93AAA631F295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A032C3A7-B55F-4745-B16B-5935B4ABFA70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="75" yWindow="1080" windowWidth="22440" windowHeight="12660" activeTab="1" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$32</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Oper!$A$1:$J$331</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$79</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$80</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5564" uniqueCount="2022">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5574" uniqueCount="2029">
   <si>
     <t>Phase</t>
   </si>
@@ -6278,6 +6278,27 @@
   </si>
   <si>
     <t>NCT02125461</t>
+  </si>
+  <si>
+    <t>Endocrinology-Diabetes-PIII-AZUM2138-MB2138</t>
+  </si>
+  <si>
+    <t>AZUM2138-MB2138</t>
+  </si>
+  <si>
+    <t>[Diabetes](https://clinicaltrials.gov/study/NCT02725593)</t>
+  </si>
+  <si>
+    <t>NCT02725593</t>
+  </si>
+  <si>
+    <t>2015-005041-31</t>
+  </si>
+  <si>
+    <t>2024 Week38</t>
+  </si>
+  <si>
+    <t>30 Sites</t>
   </si>
 </sst>
 </file>
@@ -7662,9 +7683,18 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7676,16 +7706,7 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8436,12 +8457,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="173" t="s">
         <v>1594</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -8450,42 +8471,42 @@
       <c r="A3" s="67" t="s">
         <v>1588</v>
       </c>
-      <c r="B3" s="172">
+      <c r="B3" s="175">
         <v>45520</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="172" t="s">
         <v>1590</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1591</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="170" t="s">
         <v>1592</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <v>2021</v>
       </c>
       <c r="B8" s="169">
-        <f>COUNTIF(Study!B$1:B$1000,"2021")</f>
+        <f>COUNTIF(Study!B$1:B$1001,"2021")</f>
         <v>39</v>
       </c>
       <c r="C8" s="169"/>
@@ -8496,7 +8517,7 @@
         <v>2022</v>
       </c>
       <c r="B9" s="169">
-        <f>COUNTIF(Study!B$1:B$1000,"2022")</f>
+        <f>COUNTIF(Study!B$1:B$1001,"2022")</f>
         <v>3</v>
       </c>
       <c r="C9" s="169"/>
@@ -8507,7 +8528,7 @@
         <v>2023</v>
       </c>
       <c r="B10" s="169">
-        <f>COUNTIF(Study!B$1:B$1000,"2023")</f>
+        <f>COUNTIF(Study!B$1:B$1001,"2023")</f>
         <v>16</v>
       </c>
       <c r="C10" s="169"/>
@@ -8518,8 +8539,8 @@
         <v>2024</v>
       </c>
       <c r="B11" s="169">
-        <f>COUNTIF(Study!B$1:B$1000,"2024")</f>
-        <v>20</v>
+        <f>COUNTIF(Study!B$1:B$1001,"2024")</f>
+        <v>21</v>
       </c>
       <c r="C11" s="169"/>
       <c r="D11" s="169"/>
@@ -8546,12 +8567,12 @@
       <c r="A13" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="B13" s="168">
-        <f>COUNTA(Study!A$2:A$1000)</f>
-        <v>78</v>
-      </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
+      <c r="B13" s="170">
+        <f>COUNTA(Study!A$2:A$1001)</f>
+        <v>79</v>
+      </c>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -8563,12 +8584,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="168">
-        <f>COUNTIF(Study!D$1:D$1000,"Y")</f>
+      <c r="B14" s="170">
+        <f>COUNTIF(Study!D$1:D$1001,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -8578,9 +8599,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -8592,11 +8613,11 @@
       <c r="A16" s="76" t="s">
         <v>1593</v>
       </c>
-      <c r="B16" s="168" t="s">
+      <c r="B16" s="170" t="s">
         <v>1592</v>
       </c>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -8609,7 +8630,7 @@
         <v>196</v>
       </c>
       <c r="B17" s="169">
-        <f>COUNTIF(Study!C$1:C$1000,"GCP")</f>
+        <f>COUNTIF(Study!C$1:C$1001,"GCP")</f>
         <v>39</v>
       </c>
       <c r="C17" s="169"/>
@@ -8626,7 +8647,7 @@
         <v>92</v>
       </c>
       <c r="B18" s="169">
-        <f>COUNTIF(Study!C$1:C$1000,"GBG")</f>
+        <f>COUNTIF(Study!C$1:C$1001,"GBG")</f>
         <v>3</v>
       </c>
       <c r="C18" s="169"/>
@@ -8643,8 +8664,8 @@
         <v>73</v>
       </c>
       <c r="B19" s="169">
-        <f>COUNTIF(Study!C$1:C$1000,"ICON")</f>
-        <v>25</v>
+        <f>COUNTIF(Study!C$1:C$1001,"ICON")</f>
+        <v>26</v>
       </c>
       <c r="C19" s="169"/>
       <c r="D19" s="169"/>
@@ -8660,7 +8681,7 @@
         <v>82</v>
       </c>
       <c r="B20" s="169">
-        <f>COUNTIF(Study!C$1:C$1000,"Upwork")</f>
+        <f>COUNTIF(Study!C$1:C$1001,"Upwork")</f>
         <v>8</v>
       </c>
       <c r="C20" s="169"/>
@@ -8677,7 +8698,7 @@
         <v>209</v>
       </c>
       <c r="B21" s="169">
-        <f>COUNTIF(Study!C$1:C$1000,"Learning")</f>
+        <f>COUNTIF(Study!C$1:C$1001,"Learning")</f>
         <v>3</v>
       </c>
       <c r="C21" s="169"/>
@@ -8721,15 +8742,15 @@
         <v>1595</v>
       </c>
       <c r="B24" s="80">
-        <f>COUNTA(Study!A$2:A$1001)</f>
-        <v>78</v>
+        <f>COUNTA(Study!A$2:A$1002)</f>
+        <v>79</v>
       </c>
       <c r="C24" s="73">
         <v>100</v>
       </c>
       <c r="D24" s="153">
         <f>B24-C24</f>
-        <v>-22</v>
+        <v>-21</v>
       </c>
       <c r="L24" s="70"/>
     </row>
@@ -8738,7 +8759,7 @@
         <v>165</v>
       </c>
       <c r="B25" s="80">
-        <f>COUNTIF(Study!D$1:D$1001,"Y")</f>
+        <f>COUNTIF(Study!D$1:D$1002,"Y")</f>
         <v>35</v>
       </c>
       <c r="C25" s="73">
@@ -8758,12 +8779,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="173" t="s">
+      <c r="A27" s="172" t="s">
         <v>1600</v>
       </c>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -8776,11 +8797,11 @@
       <c r="A29" s="76" t="s">
         <v>1601</v>
       </c>
-      <c r="B29" s="168" t="s">
+      <c r="B29" s="170" t="s">
         <v>1592</v>
       </c>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -8788,7 +8809,7 @@
         <v>2021</v>
       </c>
       <c r="B30" s="169">
-        <f>COUNTIF(Study!B$1:B$1000,"2021")</f>
+        <f>COUNTIF(Study!B$1:B$1001,"2021")</f>
         <v>39</v>
       </c>
       <c r="C30" s="169"/>
@@ -8800,7 +8821,7 @@
         <v>2022</v>
       </c>
       <c r="B31" s="169">
-        <f>COUNTIF(Study!B$1:B$1000,"2022")</f>
+        <f>COUNTIF(Study!B$1:B$1001,"2022")</f>
         <v>3</v>
       </c>
       <c r="C31" s="169"/>
@@ -8812,7 +8833,7 @@
         <v>2023</v>
       </c>
       <c r="B32" s="169">
-        <f>COUNTIF(Study!B$1:B$1000,"2023")</f>
+        <f>COUNTIF(Study!B$1:B$1001,"2023")</f>
         <v>16</v>
       </c>
       <c r="C32" s="169"/>
@@ -8820,21 +8841,29 @@
       <c r="L32" s="70"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="175" t="s">
+      <c r="A34" s="168" t="s">
         <v>1602</v>
       </c>
-      <c r="B34" s="175"/>
-      <c r="C34" s="175"/>
-      <c r="D34" s="175"/>
+      <c r="B34" s="168"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="175"/>
-      <c r="B35" s="175"/>
-      <c r="C35" s="175"/>
-      <c r="D35" s="175"/>
+      <c r="A35" s="168"/>
+      <c r="B35" s="168"/>
+      <c r="C35" s="168"/>
+      <c r="D35" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -8851,14 +8880,6 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -8871,11 +8892,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
-  <dimension ref="A1:L79"/>
+  <dimension ref="A1:L80"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A36" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E59" sqref="E59"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9328,13 +9349,13 @@
       <c r="F13" s="85" t="s">
         <v>189</v>
       </c>
-      <c r="G13" s="86" t="s">
+      <c r="G13" s="85" t="s">
         <v>419</v>
       </c>
       <c r="H13" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I13" s="86" t="s">
+      <c r="I13" s="85" t="s">
         <v>191</v>
       </c>
       <c r="J13" s="85"/>
@@ -9346,144 +9367,146 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A14" s="82" t="s">
+      <c r="A14" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B14" s="82">
+      <c r="B14" s="85">
         <v>2021</v>
       </c>
-      <c r="C14" s="82" t="s">
+      <c r="C14" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="D14" s="82" t="s">
+      <c r="D14" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="82" t="s">
+      <c r="E14" s="85" t="s">
         <v>384</v>
       </c>
-      <c r="F14" s="82" t="s">
+      <c r="F14" s="85" t="s">
         <v>420</v>
       </c>
-      <c r="G14" s="83" t="s">
+      <c r="G14" s="85" t="s">
         <v>421</v>
       </c>
-      <c r="H14" s="82" t="s">
+      <c r="H14" s="85" t="s">
         <v>9</v>
       </c>
-      <c r="I14" s="83" t="s">
+      <c r="I14" s="85" t="s">
         <v>406</v>
       </c>
-      <c r="J14" s="82"/>
-      <c r="K14" s="82"/>
-      <c r="L14" s="82" t="s">
+      <c r="J14" s="85"/>
+      <c r="K14" s="85"/>
+      <c r="L14" s="85" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A15" s="82" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B15" s="82">
+      <c r="B15" s="85">
         <v>2023</v>
       </c>
-      <c r="C15" s="82" t="s">
+      <c r="C15" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D15" s="82" t="s">
+      <c r="D15" s="85" t="s">
         <v>166</v>
       </c>
-      <c r="E15" s="82" t="s">
+      <c r="E15" s="85" t="s">
         <v>385</v>
       </c>
-      <c r="F15" s="82" t="s">
+      <c r="F15" s="85" t="s">
         <v>386</v>
       </c>
-      <c r="G15" s="83" t="s">
+      <c r="G15" s="85" t="s">
         <v>422</v>
       </c>
-      <c r="H15" s="82" t="s">
+      <c r="H15" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="83" t="s">
+      <c r="I15" s="85" t="s">
         <v>179</v>
       </c>
-      <c r="J15" s="82"/>
-      <c r="K15" s="82" t="s">
+      <c r="J15" s="85"/>
+      <c r="K15" s="85" t="s">
         <v>129</v>
       </c>
-      <c r="L15" s="82" t="s">
+      <c r="L15" s="85" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16" s="82" t="s">
+      <c r="A16" s="85" t="s">
         <v>55</v>
       </c>
-      <c r="B16" s="82">
+      <c r="B16" s="85">
         <v>2024</v>
       </c>
-      <c r="C16" s="82" t="s">
+      <c r="C16" s="85" t="s">
         <v>73</v>
       </c>
-      <c r="D16" s="82"/>
-      <c r="E16" s="82" t="s">
+      <c r="D16" s="85"/>
+      <c r="E16" s="85" t="s">
         <v>387</v>
       </c>
-      <c r="F16" s="82" t="s">
+      <c r="F16" s="85" t="s">
         <v>172</v>
       </c>
-      <c r="G16" s="83" t="s">
+      <c r="G16" s="85" t="s">
         <v>245</v>
       </c>
-      <c r="H16" s="82" t="s">
+      <c r="H16" s="85" t="s">
         <v>11</v>
       </c>
-      <c r="I16" s="83" t="s">
+      <c r="I16" s="85" t="s">
         <v>170</v>
       </c>
-      <c r="J16" s="82"/>
-      <c r="K16" s="82" t="s">
+      <c r="J16" s="85"/>
+      <c r="K16" s="85" t="s">
         <v>171</v>
       </c>
-      <c r="L16" s="82" t="s">
+      <c r="L16" s="85" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A17" s="87" t="s">
-        <v>156</v>
-      </c>
-      <c r="B17" s="87">
-        <v>2021</v>
-      </c>
-      <c r="C17" s="87" t="s">
-        <v>196</v>
-      </c>
-      <c r="D17" s="87"/>
-      <c r="E17" s="87" t="s">
-        <v>197</v>
-      </c>
-      <c r="F17" s="87" t="s">
-        <v>86</v>
-      </c>
-      <c r="G17" s="88" t="s">
-        <v>423</v>
-      </c>
-      <c r="H17" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="I17" s="88" t="s">
-        <v>180</v>
-      </c>
-      <c r="J17" s="87"/>
-      <c r="K17" s="87" t="s">
-        <v>107</v>
-      </c>
-      <c r="L17" s="87" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A17" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="B17" s="85">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D17" s="85"/>
+      <c r="E17" s="85" t="s">
+        <v>2022</v>
+      </c>
+      <c r="F17" s="85" t="s">
+        <v>2023</v>
+      </c>
+      <c r="G17" s="85" t="s">
+        <v>245</v>
+      </c>
+      <c r="H17" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I17" s="85" t="s">
+        <v>2024</v>
+      </c>
+      <c r="J17" s="85" t="s">
+        <v>2026</v>
+      </c>
+      <c r="K17" s="85" t="s">
+        <v>2025</v>
+      </c>
+      <c r="L17" s="85" t="s">
+        <v>2028</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A18" s="87" t="s">
         <v>156</v>
       </c>
@@ -9493,67 +9516,67 @@
       <c r="C18" s="87" t="s">
         <v>196</v>
       </c>
-      <c r="D18" s="87" t="s">
-        <v>166</v>
-      </c>
+      <c r="D18" s="87"/>
       <c r="E18" s="87" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="F18" s="87" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="G18" s="88" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="H18" s="87" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I18" s="88" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="J18" s="87"/>
       <c r="K18" s="87" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L18" s="87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A19" s="87" t="s">
         <v>156</v>
       </c>
       <c r="B19" s="87">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C19" s="87" t="s">
-        <v>73</v>
-      </c>
-      <c r="D19" s="87"/>
+        <v>196</v>
+      </c>
+      <c r="D19" s="87" t="s">
+        <v>166</v>
+      </c>
       <c r="E19" s="87" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="F19" s="87" t="s">
-        <v>200</v>
+        <v>90</v>
       </c>
       <c r="G19" s="88" t="s">
-        <v>158</v>
+        <v>424</v>
       </c>
       <c r="H19" s="87" t="s">
         <v>9</v>
       </c>
       <c r="I19" s="88" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="J19" s="87"/>
       <c r="K19" s="87" t="s">
-        <v>157</v>
+        <v>110</v>
       </c>
       <c r="L19" s="87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A20" s="87" t="s">
         <v>156</v>
       </c>
@@ -9565,162 +9588,164 @@
       </c>
       <c r="D20" s="87"/>
       <c r="E20" s="87" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F20" s="87" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G20" s="88" t="s">
-        <v>193</v>
+        <v>158</v>
       </c>
       <c r="H20" s="87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I20" s="88" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="J20" s="87"/>
-      <c r="K20" s="87"/>
+      <c r="K20" s="87" t="s">
+        <v>157</v>
+      </c>
       <c r="L20" s="87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A21" s="87" t="s">
         <v>156</v>
       </c>
       <c r="B21" s="87">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C21" s="87" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="D21" s="87"/>
       <c r="E21" s="87" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F21" s="87" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G21" s="88" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H21" s="87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I21" s="88" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="J21" s="87"/>
-      <c r="K21" s="87" t="s">
-        <v>208</v>
-      </c>
+      <c r="K21" s="87"/>
       <c r="L21" s="87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A22" s="89" t="s">
-        <v>56</v>
-      </c>
-      <c r="B22" s="89">
-        <v>2023</v>
-      </c>
-      <c r="C22" s="89" t="s">
-        <v>73</v>
-      </c>
-      <c r="D22" s="89" t="s">
-        <v>166</v>
-      </c>
-      <c r="E22" s="89" t="s">
-        <v>210</v>
-      </c>
-      <c r="F22" s="89" t="s">
-        <v>211</v>
-      </c>
-      <c r="G22" s="90" t="s">
-        <v>74</v>
-      </c>
-      <c r="H22" s="89" t="s">
-        <v>57</v>
-      </c>
-      <c r="I22" s="90" t="s">
-        <v>183</v>
-      </c>
-      <c r="J22" s="89" t="s">
-        <v>1955</v>
-      </c>
-      <c r="K22" s="89" t="s">
-        <v>131</v>
-      </c>
-      <c r="L22" s="89" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="87" t="s">
+        <v>156</v>
+      </c>
+      <c r="B22" s="87">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="87" t="s">
+        <v>209</v>
+      </c>
+      <c r="D22" s="87"/>
+      <c r="E22" s="87" t="s">
+        <v>203</v>
+      </c>
+      <c r="F22" s="87" t="s">
+        <v>204</v>
+      </c>
+      <c r="G22" s="88" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" s="87" t="s">
+        <v>9</v>
+      </c>
+      <c r="I22" s="88" t="s">
+        <v>207</v>
+      </c>
+      <c r="J22" s="87"/>
+      <c r="K22" s="87" t="s">
+        <v>208</v>
+      </c>
+      <c r="L22" s="87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A23" s="89" t="s">
         <v>56</v>
       </c>
       <c r="B23" s="89">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C23" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="D23" s="89"/>
+      <c r="D23" s="89" t="s">
+        <v>166</v>
+      </c>
       <c r="E23" s="89" t="s">
+        <v>210</v>
+      </c>
+      <c r="F23" s="89" t="s">
+        <v>211</v>
+      </c>
+      <c r="G23" s="90" t="s">
+        <v>74</v>
+      </c>
+      <c r="H23" s="89" t="s">
+        <v>57</v>
+      </c>
+      <c r="I23" s="90" t="s">
+        <v>183</v>
+      </c>
+      <c r="J23" s="89" t="s">
+        <v>1955</v>
+      </c>
+      <c r="K23" s="89" t="s">
+        <v>131</v>
+      </c>
+      <c r="L23" s="89" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A24" s="89" t="s">
+        <v>56</v>
+      </c>
+      <c r="B24" s="89">
+        <v>2024</v>
+      </c>
+      <c r="C24" s="89" t="s">
+        <v>73</v>
+      </c>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89" t="s">
         <v>212</v>
       </c>
-      <c r="F23" s="89" t="s">
+      <c r="F24" s="89" t="s">
         <v>213</v>
       </c>
-      <c r="G23" s="90" t="s">
+      <c r="G24" s="90" t="s">
         <v>214</v>
       </c>
-      <c r="H23" s="89" t="s">
+      <c r="H24" s="89" t="s">
         <v>77</v>
       </c>
-      <c r="I23" s="90" t="s">
+      <c r="I24" s="90" t="s">
         <v>219</v>
       </c>
-      <c r="J23" s="89"/>
-      <c r="K23" s="89" t="s">
+      <c r="J24" s="89"/>
+      <c r="K24" s="89" t="s">
         <v>218</v>
       </c>
-      <c r="L23" s="89" t="s">
+      <c r="L24" s="89" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A24" s="91" t="s">
-        <v>49</v>
-      </c>
-      <c r="B24" s="91">
-        <v>2024</v>
-      </c>
-      <c r="C24" s="91" t="s">
-        <v>82</v>
-      </c>
-      <c r="D24" s="91"/>
-      <c r="E24" s="91" t="s">
-        <v>220</v>
-      </c>
-      <c r="F24" s="91" t="s">
-        <v>222</v>
-      </c>
-      <c r="G24" s="92" t="s">
-        <v>425</v>
-      </c>
-      <c r="H24" s="91" t="s">
-        <v>3</v>
-      </c>
-      <c r="I24" s="92" t="s">
-        <v>221</v>
-      </c>
-      <c r="J24" s="91"/>
-      <c r="K24" s="91"/>
-      <c r="L24" s="91" t="s">
-        <v>1599</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -9728,36 +9753,34 @@
         <v>49</v>
       </c>
       <c r="B25" s="91">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C25" s="91" t="s">
-        <v>196</v>
-      </c>
-      <c r="D25" s="91" t="s">
-        <v>166</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="D25" s="91"/>
       <c r="E25" s="91" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F25" s="91" t="s">
-        <v>101</v>
+        <v>222</v>
       </c>
       <c r="G25" s="92" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="H25" s="91" t="s">
         <v>3</v>
       </c>
       <c r="I25" s="92" t="s">
-        <v>51</v>
+        <v>221</v>
       </c>
       <c r="J25" s="91"/>
       <c r="K25" s="91"/>
       <c r="L25" s="91" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="s">
         <v>49</v>
       </c>
@@ -9767,28 +9790,28 @@
       <c r="C26" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="D26" s="91"/>
+      <c r="D26" s="91" t="s">
+        <v>166</v>
+      </c>
       <c r="E26" s="91" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="F26" s="91" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="G26" s="92" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="H26" s="91" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I26" s="92" t="s">
-        <v>41</v>
-      </c>
-      <c r="J26" s="91" t="s">
-        <v>427</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="J26" s="91"/>
       <c r="K26" s="91"/>
       <c r="L26" s="91" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -9801,30 +9824,28 @@
       <c r="C27" s="91" t="s">
         <v>196</v>
       </c>
-      <c r="D27" s="91" t="s">
-        <v>166</v>
-      </c>
+      <c r="D27" s="91"/>
       <c r="E27" s="91" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="F27" s="91" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="G27" s="92" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H27" s="91" t="s">
         <v>9</v>
       </c>
       <c r="I27" s="92" t="s">
-        <v>184</v>
+        <v>41</v>
       </c>
       <c r="J27" s="91" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="K27" s="91"/>
       <c r="L27" s="91" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -9832,38 +9853,38 @@
         <v>49</v>
       </c>
       <c r="B28" s="91">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="C28" s="91" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="D28" s="91" t="s">
         <v>166</v>
       </c>
       <c r="E28" s="91" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="F28" s="91" t="s">
-        <v>229</v>
+        <v>71</v>
       </c>
       <c r="G28" s="92" t="s">
-        <v>230</v>
+        <v>430</v>
       </c>
       <c r="H28" s="91" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I28" s="92" t="s">
-        <v>185</v>
-      </c>
-      <c r="J28" s="91"/>
-      <c r="K28" s="91" t="s">
-        <v>128</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="J28" s="91" t="s">
+        <v>428</v>
+      </c>
+      <c r="K28" s="91"/>
       <c r="L28" s="91" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="s">
         <v>49</v>
       </c>
@@ -9877,23 +9898,27 @@
         <v>166</v>
       </c>
       <c r="E29" s="91" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F29" s="91" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G29" s="92" t="s">
         <v>230</v>
       </c>
       <c r="H29" s="91" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="I29" s="92" t="s">
-        <v>235</v>
+        <v>185</v>
       </c>
       <c r="J29" s="91"/>
-      <c r="K29" s="91"/>
-      <c r="L29" s="91"/>
+      <c r="K29" s="91" t="s">
+        <v>128</v>
+      </c>
+      <c r="L29" s="91" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" s="91" t="s">
@@ -9909,10 +9934,10 @@
         <v>166</v>
       </c>
       <c r="E30" s="91" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="F30" s="91" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="G30" s="92" t="s">
         <v>230</v>
@@ -9921,20 +9946,18 @@
         <v>53</v>
       </c>
       <c r="I30" s="92" t="s">
-        <v>52</v>
+        <v>235</v>
       </c>
       <c r="J30" s="91"/>
       <c r="K30" s="91"/>
-      <c r="L30" s="91" t="s">
-        <v>10</v>
-      </c>
+      <c r="L30" s="91"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" s="91" t="s">
         <v>49</v>
       </c>
       <c r="B31" s="91">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C31" s="91" t="s">
         <v>73</v>
@@ -9943,19 +9966,19 @@
         <v>166</v>
       </c>
       <c r="E31" s="91" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="F31" s="91" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="G31" s="92" t="s">
-        <v>70</v>
+        <v>230</v>
       </c>
       <c r="H31" s="91" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I31" s="92" t="s">
-        <v>164</v>
+        <v>52</v>
       </c>
       <c r="J31" s="91"/>
       <c r="K31" s="91"/>
@@ -9964,32 +9987,36 @@
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A32" s="85" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="85">
-        <v>2021</v>
-      </c>
-      <c r="C32" s="85" t="s">
-        <v>196</v>
-      </c>
-      <c r="D32" s="85"/>
-      <c r="E32" s="85"/>
-      <c r="F32" s="85" t="s">
-        <v>142</v>
-      </c>
-      <c r="G32" s="86" t="s">
-        <v>431</v>
-      </c>
-      <c r="H32" s="85" t="s">
-        <v>47</v>
-      </c>
-      <c r="I32" s="86" t="s">
-        <v>45</v>
-      </c>
-      <c r="J32" s="85"/>
-      <c r="K32" s="85"/>
-      <c r="L32" s="85" t="s">
+      <c r="A32" s="91" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="91">
+        <v>2024</v>
+      </c>
+      <c r="C32" s="91" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="91" t="s">
+        <v>166</v>
+      </c>
+      <c r="E32" s="91" t="s">
+        <v>226</v>
+      </c>
+      <c r="F32" s="91" t="s">
+        <v>227</v>
+      </c>
+      <c r="G32" s="92" t="s">
+        <v>70</v>
+      </c>
+      <c r="H32" s="91" t="s">
+        <v>11</v>
+      </c>
+      <c r="I32" s="92" t="s">
+        <v>164</v>
+      </c>
+      <c r="J32" s="91"/>
+      <c r="K32" s="91"/>
+      <c r="L32" s="91" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10006,26 +10033,24 @@
       <c r="D33" s="85"/>
       <c r="E33" s="85"/>
       <c r="F33" s="85" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G33" s="86" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="H33" s="85" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="I33" s="86" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="J33" s="85"/>
-      <c r="K33" s="85" t="s">
-        <v>124</v>
-      </c>
+      <c r="K33" s="85"/>
       <c r="L33" s="85" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="34" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" s="85" t="s">
         <v>48</v>
       </c>
@@ -10038,26 +10063,26 @@
       <c r="D34" s="85"/>
       <c r="E34" s="85"/>
       <c r="F34" s="85" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="G34" s="86" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="H34" s="85" t="s">
         <v>9</v>
       </c>
       <c r="I34" s="86" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J34" s="85"/>
       <c r="K34" s="85" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A35" s="85" t="s">
         <v>48</v>
       </c>
@@ -10067,26 +10092,26 @@
       <c r="C35" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="D35" s="85" t="s">
-        <v>166</v>
-      </c>
+      <c r="D35" s="85"/>
       <c r="E35" s="85"/>
       <c r="F35" s="85" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G35" s="86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="H35" s="85" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="I35" s="86" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J35" s="85"/>
-      <c r="K35" s="85"/>
+      <c r="K35" s="85" t="s">
+        <v>125</v>
+      </c>
       <c r="L35" s="85" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -10099,26 +10124,26 @@
       <c r="C36" s="85" t="s">
         <v>196</v>
       </c>
-      <c r="D36" s="85"/>
+      <c r="D36" s="85" t="s">
+        <v>166</v>
+      </c>
       <c r="E36" s="85"/>
       <c r="F36" s="85" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G36" s="86" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="H36" s="85" t="s">
         <v>24</v>
       </c>
       <c r="I36" s="86" t="s">
-        <v>152</v>
+        <v>44</v>
       </c>
       <c r="J36" s="85"/>
-      <c r="K36" s="85" t="s">
-        <v>153</v>
-      </c>
+      <c r="K36" s="85"/>
       <c r="L36" s="85" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -10126,30 +10151,28 @@
         <v>48</v>
       </c>
       <c r="B37" s="85">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C37" s="85" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="D37" s="85"/>
-      <c r="E37" s="85" t="s">
-        <v>236</v>
-      </c>
+      <c r="E37" s="85"/>
       <c r="F37" s="85" t="s">
-        <v>237</v>
+        <v>143</v>
       </c>
       <c r="G37" s="86" t="s">
-        <v>238</v>
+        <v>435</v>
       </c>
       <c r="H37" s="85" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="I37" s="86" t="s">
-        <v>409</v>
+        <v>152</v>
       </c>
       <c r="J37" s="85"/>
       <c r="K37" s="85" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="L37" s="85" t="s">
         <v>10</v>
@@ -10163,69 +10186,67 @@
         <v>2024</v>
       </c>
       <c r="C38" s="85" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="D38" s="85"/>
       <c r="E38" s="85" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F38" s="85" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G38" s="86" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="H38" s="85" t="s">
         <v>11</v>
       </c>
       <c r="I38" s="86" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="J38" s="85"/>
       <c r="K38" s="85" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="L38" s="85" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A39" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="B39" s="93">
-        <v>2021</v>
-      </c>
-      <c r="C39" s="93" t="s">
-        <v>196</v>
-      </c>
-      <c r="D39" s="93" t="s">
-        <v>166</v>
-      </c>
-      <c r="E39" s="93" t="s">
-        <v>244</v>
-      </c>
-      <c r="F39" s="93" t="s">
-        <v>246</v>
-      </c>
-      <c r="G39" s="94" t="s">
-        <v>245</v>
-      </c>
-      <c r="H39" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="I39" s="94" t="s">
-        <v>247</v>
-      </c>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93" t="s">
-        <v>138</v>
-      </c>
-      <c r="L39" s="93" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A39" s="85" t="s">
+        <v>48</v>
+      </c>
+      <c r="B39" s="85">
+        <v>2024</v>
+      </c>
+      <c r="C39" s="85" t="s">
+        <v>73</v>
+      </c>
+      <c r="D39" s="85"/>
+      <c r="E39" s="85" t="s">
+        <v>239</v>
+      </c>
+      <c r="F39" s="85" t="s">
+        <v>240</v>
+      </c>
+      <c r="G39" s="86" t="s">
+        <v>241</v>
+      </c>
+      <c r="H39" s="85" t="s">
+        <v>11</v>
+      </c>
+      <c r="I39" s="86" t="s">
+        <v>407</v>
+      </c>
+      <c r="J39" s="85"/>
+      <c r="K39" s="85" t="s">
+        <v>242</v>
+      </c>
+      <c r="L39" s="85" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" s="93" t="s">
         <v>58</v>
       </c>
@@ -10239,53 +10260,55 @@
         <v>166</v>
       </c>
       <c r="E40" s="93" t="s">
-        <v>437</v>
+        <v>244</v>
       </c>
       <c r="F40" s="93" t="s">
-        <v>79</v>
+        <v>246</v>
       </c>
       <c r="G40" s="94" t="s">
-        <v>436</v>
+        <v>245</v>
       </c>
       <c r="H40" s="93" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="I40" s="94" t="s">
-        <v>80</v>
+        <v>247</v>
       </c>
       <c r="J40" s="93"/>
-      <c r="K40" s="93"/>
+      <c r="K40" s="93" t="s">
+        <v>138</v>
+      </c>
       <c r="L40" s="93" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A41" s="93" t="s">
         <v>58</v>
       </c>
       <c r="B41" s="93">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C41" s="93" t="s">
-        <v>73</v>
+        <v>196</v>
       </c>
       <c r="D41" s="93" t="s">
         <v>166</v>
       </c>
       <c r="E41" s="93" t="s">
-        <v>248</v>
+        <v>437</v>
       </c>
       <c r="F41" s="93" t="s">
-        <v>269</v>
+        <v>79</v>
       </c>
       <c r="G41" s="94" t="s">
-        <v>76</v>
+        <v>436</v>
       </c>
       <c r="H41" s="93" t="s">
-        <v>77</v>
+        <v>24</v>
       </c>
       <c r="I41" s="94" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="J41" s="93"/>
       <c r="K41" s="93"/>
@@ -10293,41 +10316,41 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" s="93" t="s">
         <v>58</v>
       </c>
       <c r="B42" s="93">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C42" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D42" s="93"/>
+      <c r="D42" s="93" t="s">
+        <v>166</v>
+      </c>
       <c r="E42" s="93" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F42" s="93" t="s">
-        <v>250</v>
+        <v>269</v>
       </c>
       <c r="G42" s="94" t="s">
-        <v>251</v>
+        <v>76</v>
       </c>
       <c r="H42" s="93" t="s">
-        <v>11</v>
+        <v>77</v>
       </c>
       <c r="I42" s="94" t="s">
-        <v>59</v>
+        <v>75</v>
       </c>
       <c r="J42" s="93"/>
-      <c r="K42" s="93" t="s">
-        <v>132</v>
-      </c>
+      <c r="K42" s="93"/>
       <c r="L42" s="93" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="93" t="s">
         <v>58</v>
       </c>
@@ -10339,26 +10362,26 @@
       </c>
       <c r="D43" s="93"/>
       <c r="E43" s="93" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="F43" s="93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="G43" s="94" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="H43" s="93" t="s">
         <v>11</v>
       </c>
       <c r="I43" s="94" t="s">
-        <v>259</v>
+        <v>59</v>
       </c>
       <c r="J43" s="93"/>
       <c r="K43" s="93" t="s">
-        <v>260</v>
+        <v>132</v>
       </c>
       <c r="L43" s="93" t="s">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -10366,30 +10389,30 @@
         <v>58</v>
       </c>
       <c r="B44" s="93">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C44" s="93" t="s">
         <v>73</v>
       </c>
       <c r="D44" s="93"/>
       <c r="E44" s="93" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F44" s="93" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G44" s="94" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="H44" s="93" t="s">
         <v>11</v>
       </c>
       <c r="I44" s="94" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="J44" s="93"/>
       <c r="K44" s="93" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="L44" s="93" t="s">
         <v>10</v>
@@ -10400,33 +10423,33 @@
         <v>58</v>
       </c>
       <c r="B45" s="93">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C45" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="93" t="s">
-        <v>166</v>
-      </c>
+      <c r="D45" s="93"/>
       <c r="E45" s="93" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F45" s="93" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="G45" s="94" t="s">
-        <v>61</v>
+        <v>267</v>
       </c>
       <c r="H45" s="93" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I45" s="94" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="J45" s="93"/>
-      <c r="K45" s="93"/>
+      <c r="K45" s="93" t="s">
+        <v>262</v>
+      </c>
       <c r="L45" s="93" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -10434,67 +10457,67 @@
         <v>58</v>
       </c>
       <c r="B46" s="93">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C46" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D46" s="93"/>
+      <c r="D46" s="93" t="s">
+        <v>166</v>
+      </c>
       <c r="E46" s="93" t="s">
+        <v>257</v>
+      </c>
+      <c r="F46" s="93" t="s">
+        <v>268</v>
+      </c>
+      <c r="G46" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="H46" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="J46" s="93"/>
+      <c r="K46" s="93"/>
+      <c r="L46" s="93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A47" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B47" s="93">
+        <v>2024</v>
+      </c>
+      <c r="C47" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93" t="s">
         <v>258</v>
       </c>
-      <c r="F46" s="93" t="s">
+      <c r="F47" s="93" t="s">
         <v>265</v>
       </c>
-      <c r="G46" s="94" t="s">
+      <c r="G47" s="94" t="s">
         <v>266</v>
       </c>
-      <c r="H46" s="93" t="s">
+      <c r="H47" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="I46" s="94" t="s">
+      <c r="I47" s="94" t="s">
         <v>263</v>
       </c>
-      <c r="J46" s="93"/>
-      <c r="K46" s="93" t="s">
+      <c r="J47" s="93"/>
+      <c r="K47" s="93" t="s">
         <v>264</v>
       </c>
-      <c r="L46" s="93" t="s">
+      <c r="L47" s="93" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A47" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B47" s="95">
-        <v>2023</v>
-      </c>
-      <c r="C47" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="D47" s="95"/>
-      <c r="E47" s="95" t="s">
-        <v>270</v>
-      </c>
-      <c r="F47" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="G47" s="96" t="s">
-        <v>271</v>
-      </c>
-      <c r="H47" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="I47" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="J47" s="95"/>
-      <c r="K47" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="L47" s="95" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -10502,36 +10525,36 @@
         <v>2</v>
       </c>
       <c r="B48" s="95">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C48" s="95" t="s">
-        <v>196</v>
+        <v>82</v>
       </c>
       <c r="D48" s="95"/>
       <c r="E48" s="95" t="s">
-        <v>287</v>
+        <v>270</v>
       </c>
       <c r="F48" s="95" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G48" s="96" t="s">
-        <v>85</v>
+        <v>271</v>
       </c>
       <c r="H48" s="95" t="s">
         <v>3</v>
       </c>
       <c r="I48" s="96" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="J48" s="95"/>
       <c r="K48" s="95" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L48" s="95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="49" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A49" s="95" t="s">
         <v>2</v>
       </c>
@@ -10543,26 +10566,26 @@
       </c>
       <c r="D49" s="95"/>
       <c r="E49" s="95" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F49" s="95" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G49" s="96" t="s">
-        <v>438</v>
+        <v>85</v>
       </c>
       <c r="H49" s="95" t="s">
         <v>3</v>
       </c>
       <c r="I49" s="96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J49" s="95"/>
       <c r="K49" s="95" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L49" s="95" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -10577,29 +10600,29 @@
       </c>
       <c r="D50" s="95"/>
       <c r="E50" s="95" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="F50" s="95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G50" s="96" t="s">
-        <v>423</v>
+        <v>438</v>
       </c>
       <c r="H50" s="95" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I50" s="96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J50" s="95"/>
       <c r="K50" s="95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L50" s="95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A51" s="95" t="s">
         <v>2</v>
       </c>
@@ -10611,24 +10634,26 @@
       </c>
       <c r="D51" s="95"/>
       <c r="E51" s="95" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="F51" s="95" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="G51" s="96" t="s">
-        <v>439</v>
+        <v>423</v>
       </c>
       <c r="H51" s="95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I51" s="96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J51" s="95"/>
-      <c r="K51" s="95"/>
+      <c r="K51" s="95" t="s">
+        <v>108</v>
+      </c>
       <c r="L51" s="95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -10641,14 +10666,12 @@
       <c r="C52" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="D52" s="95" t="s">
-        <v>166</v>
-      </c>
+      <c r="D52" s="95"/>
       <c r="E52" s="95" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="F52" s="95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G52" s="96" t="s">
         <v>439</v>
@@ -10657,7 +10680,7 @@
         <v>11</v>
       </c>
       <c r="I52" s="96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J52" s="95"/>
       <c r="K52" s="95"/>
@@ -10665,7 +10688,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A53" s="95" t="s">
         <v>2</v>
       </c>
@@ -10675,61 +10698,59 @@
       <c r="C53" s="95" t="s">
         <v>196</v>
       </c>
-      <c r="D53" s="95"/>
+      <c r="D53" s="95" t="s">
+        <v>166</v>
+      </c>
       <c r="E53" s="95" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="F53" s="95" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="G53" s="96" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="H53" s="95" t="s">
         <v>11</v>
       </c>
       <c r="I53" s="96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J53" s="95"/>
-      <c r="K53" s="95" t="s">
-        <v>111</v>
-      </c>
+      <c r="K53" s="95"/>
       <c r="L53" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="95" t="s">
         <v>2</v>
       </c>
       <c r="B54" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C54" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="D54" s="95" t="s">
-        <v>166</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D54" s="95"/>
       <c r="E54" s="95" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="F54" s="95" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G54" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="H54" s="95" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I54" s="96" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="J54" s="95"/>
       <c r="K54" s="95" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="L54" s="95" t="s">
         <v>10</v>
@@ -10745,25 +10766,27 @@
       <c r="C55" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="D55" s="95"/>
+      <c r="D55" s="95" t="s">
+        <v>166</v>
+      </c>
       <c r="E55" s="95" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="F55" s="95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G55" s="96" t="s">
         <v>441</v>
       </c>
       <c r="H55" s="95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I55" s="96" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="J55" s="95"/>
       <c r="K55" s="95" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L55" s="95" t="s">
         <v>10</v>
@@ -10781,63 +10804,59 @@
       </c>
       <c r="D56" s="95"/>
       <c r="E56" s="95" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="F56" s="95" t="s">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="G56" s="96" t="s">
         <v>441</v>
       </c>
-      <c r="H56" s="95"/>
+      <c r="H56" s="95" t="s">
+        <v>11</v>
+      </c>
       <c r="I56" s="96" t="s">
-        <v>282</v>
+        <v>20</v>
       </c>
       <c r="J56" s="95"/>
-      <c r="K56" s="95"/>
+      <c r="K56" s="95" t="s">
+        <v>112</v>
+      </c>
       <c r="L56" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A57" s="95" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C57" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="D57" s="95" t="s">
-        <v>166</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D57" s="95"/>
       <c r="E57" s="95" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="F57" s="95" t="s">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="G57" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="H57" s="95" t="s">
-        <v>9</v>
-      </c>
+        <v>441</v>
+      </c>
+      <c r="H57" s="95"/>
       <c r="I57" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="J57" s="95" t="s">
-        <v>1954</v>
-      </c>
-      <c r="K57" s="95" t="s">
-        <v>161</v>
-      </c>
+        <v>282</v>
+      </c>
+      <c r="J57" s="95"/>
+      <c r="K57" s="95"/>
       <c r="L57" s="95" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A58" s="95" t="s">
         <v>2</v>
       </c>
@@ -10847,28 +10866,32 @@
       <c r="C58" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="D58" s="95"/>
+      <c r="D58" s="95" t="s">
+        <v>166</v>
+      </c>
       <c r="E58" s="95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F58" s="95" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G58" s="96" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H58" s="95" t="s">
         <v>9</v>
       </c>
       <c r="I58" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="J58" s="95"/>
+        <v>160</v>
+      </c>
+      <c r="J58" s="95" t="s">
+        <v>1954</v>
+      </c>
       <c r="K58" s="95" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="L58" s="95" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -10876,33 +10899,33 @@
         <v>2</v>
       </c>
       <c r="B59" s="95">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C59" s="95" t="s">
-        <v>209</v>
+        <v>73</v>
       </c>
       <c r="D59" s="95"/>
       <c r="E59" s="95" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="F59" s="95" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G59" s="96" t="s">
-        <v>245</v>
+        <v>95</v>
       </c>
       <c r="H59" s="95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I59" s="96" t="s">
-        <v>278</v>
+        <v>21</v>
       </c>
       <c r="J59" s="95"/>
       <c r="K59" s="95" t="s">
-        <v>2021</v>
+        <v>113</v>
       </c>
       <c r="L59" s="95" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -10913,14 +10936,14 @@
         <v>2024</v>
       </c>
       <c r="C60" s="95" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="D60" s="95"/>
       <c r="E60" s="95" t="s">
-        <v>2017</v>
+        <v>276</v>
       </c>
       <c r="F60" s="95" t="s">
-        <v>2018</v>
+        <v>277</v>
       </c>
       <c r="G60" s="96" t="s">
         <v>245</v>
@@ -10929,51 +10952,51 @@
         <v>11</v>
       </c>
       <c r="I60" s="96" t="s">
-        <v>2019</v>
+        <v>278</v>
       </c>
       <c r="J60" s="95"/>
       <c r="K60" s="95" t="s">
-        <v>2020</v>
+        <v>2021</v>
       </c>
       <c r="L60" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A61" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="B61" s="97">
-        <v>2021</v>
-      </c>
-      <c r="C61" s="97" t="s">
-        <v>196</v>
-      </c>
-      <c r="D61" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="E61" s="97" t="s">
-        <v>290</v>
-      </c>
-      <c r="F61" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="G61" s="98" t="s">
-        <v>410</v>
-      </c>
-      <c r="H61" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="I61" s="98" t="s">
-        <v>194</v>
-      </c>
-      <c r="J61" s="97"/>
-      <c r="K61" s="97"/>
-      <c r="L61" s="97" t="s">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B61" s="95">
+        <v>2024</v>
+      </c>
+      <c r="C61" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D61" s="95"/>
+      <c r="E61" s="95" t="s">
+        <v>2017</v>
+      </c>
+      <c r="F61" s="95" t="s">
+        <v>2018</v>
+      </c>
+      <c r="G61" s="96" t="s">
+        <v>245</v>
+      </c>
+      <c r="H61" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I61" s="96" t="s">
+        <v>2019</v>
+      </c>
+      <c r="J61" s="95"/>
+      <c r="K61" s="95" t="s">
+        <v>2020</v>
+      </c>
+      <c r="L61" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="97" t="s">
         <v>40</v>
       </c>
@@ -10987,10 +11010,10 @@
         <v>166</v>
       </c>
       <c r="E62" s="97" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="F62" s="97" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="G62" s="98" t="s">
         <v>410</v>
@@ -10998,16 +11021,16 @@
       <c r="H62" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="I62" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="J62" s="108"/>
+      <c r="I62" s="98" t="s">
+        <v>194</v>
+      </c>
+      <c r="J62" s="97"/>
       <c r="K62" s="97"/>
       <c r="L62" s="97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A63" s="97" t="s">
         <v>40</v>
       </c>
@@ -11017,31 +11040,31 @@
       <c r="C63" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D63" s="97"/>
+      <c r="D63" s="97" t="s">
+        <v>166</v>
+      </c>
       <c r="E63" s="97" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
       <c r="F63" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G63" s="98" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="H63" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="I63" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="J63" s="97"/>
-      <c r="K63" s="97" t="s">
-        <v>115</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I63" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="J63" s="108"/>
+      <c r="K63" s="97"/>
       <c r="L63" s="97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="97" t="s">
         <v>40</v>
       </c>
@@ -11051,30 +11074,28 @@
       <c r="C64" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D64" s="97" t="s">
-        <v>166</v>
-      </c>
+      <c r="D64" s="97"/>
       <c r="E64" s="97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F64" s="97" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="G64" s="98" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H64" s="97" t="s">
         <v>24</v>
       </c>
       <c r="I64" s="98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J64" s="97"/>
       <c r="K64" s="97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L64" s="97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -11091,10 +11112,10 @@
         <v>166</v>
       </c>
       <c r="E65" s="97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G65" s="98" t="s">
         <v>410</v>
@@ -11103,11 +11124,11 @@
         <v>24</v>
       </c>
       <c r="I65" s="98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J65" s="97"/>
       <c r="K65" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L65" s="97" t="s">
         <v>10</v>
@@ -11127,10 +11148,10 @@
         <v>166</v>
       </c>
       <c r="E66" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F66" s="97" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G66" s="98" t="s">
         <v>410</v>
@@ -11139,11 +11160,11 @@
         <v>24</v>
       </c>
       <c r="I66" s="98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J66" s="97"/>
       <c r="K66" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L66" s="97" t="s">
         <v>10</v>
@@ -11163,10 +11184,10 @@
         <v>166</v>
       </c>
       <c r="E67" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F67" s="97" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G67" s="98" t="s">
         <v>410</v>
@@ -11175,11 +11196,11 @@
         <v>24</v>
       </c>
       <c r="I67" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J67" s="97"/>
       <c r="K67" s="97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L67" s="97" t="s">
         <v>10</v>
@@ -11199,10 +11220,10 @@
         <v>166</v>
       </c>
       <c r="E68" s="97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F68" s="97" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G68" s="98" t="s">
         <v>410</v>
@@ -11211,11 +11232,11 @@
         <v>24</v>
       </c>
       <c r="I68" s="98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J68" s="97"/>
       <c r="K68" s="97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L68" s="97" t="s">
         <v>10</v>
@@ -11235,10 +11256,10 @@
         <v>166</v>
       </c>
       <c r="E69" s="97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F69" s="97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G69" s="98" t="s">
         <v>410</v>
@@ -11247,11 +11268,11 @@
         <v>24</v>
       </c>
       <c r="I69" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J69" s="97"/>
       <c r="K69" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L69" s="97" t="s">
         <v>10</v>
@@ -11271,10 +11292,10 @@
         <v>166</v>
       </c>
       <c r="E70" s="97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F70" s="97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G70" s="98" t="s">
         <v>410</v>
@@ -11283,11 +11304,11 @@
         <v>24</v>
       </c>
       <c r="I70" s="98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J70" s="97"/>
       <c r="K70" s="97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L70" s="97" t="s">
         <v>10</v>
@@ -11303,12 +11324,14 @@
       <c r="C71" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D71" s="97"/>
+      <c r="D71" s="97" t="s">
+        <v>166</v>
+      </c>
       <c r="E71" s="97" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G71" s="98" t="s">
         <v>410</v>
@@ -11317,11 +11340,11 @@
         <v>24</v>
       </c>
       <c r="I71" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J71" s="97"/>
       <c r="K71" s="97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L71" s="97" t="s">
         <v>10</v>
@@ -11337,14 +11360,12 @@
       <c r="C72" s="97" t="s">
         <v>196</v>
       </c>
-      <c r="D72" s="97" t="s">
-        <v>166</v>
-      </c>
+      <c r="D72" s="97"/>
       <c r="E72" s="97" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F72" s="97" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="G72" s="98" t="s">
         <v>410</v>
@@ -11353,10 +11374,12 @@
         <v>24</v>
       </c>
       <c r="I72" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J72" s="97"/>
-      <c r="K72" s="97"/>
+      <c r="K72" s="97" t="s">
+        <v>123</v>
+      </c>
       <c r="L72" s="97" t="s">
         <v>10</v>
       </c>
@@ -11375,10 +11398,10 @@
         <v>166</v>
       </c>
       <c r="E73" s="97" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="F73" s="97" t="s">
-        <v>294</v>
+        <v>97</v>
       </c>
       <c r="G73" s="98" t="s">
         <v>410</v>
@@ -11387,7 +11410,7 @@
         <v>24</v>
       </c>
       <c r="I73" s="98" t="s">
-        <v>295</v>
+        <v>37</v>
       </c>
       <c r="J73" s="97"/>
       <c r="K73" s="97"/>
@@ -11409,19 +11432,19 @@
         <v>166</v>
       </c>
       <c r="E74" s="97" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="F74" s="97" t="s">
-        <v>99</v>
+        <v>294</v>
       </c>
       <c r="G74" s="98" t="s">
         <v>410</v>
       </c>
       <c r="H74" s="97" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I74" s="98" t="s">
-        <v>39</v>
+        <v>295</v>
       </c>
       <c r="J74" s="97"/>
       <c r="K74" s="97"/>
@@ -11430,36 +11453,36 @@
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A75" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="B75" s="100">
-        <v>2024</v>
-      </c>
-      <c r="C75" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="D75" s="100" t="s">
+      <c r="A75" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B75" s="97">
+        <v>2021</v>
+      </c>
+      <c r="C75" s="97" t="s">
+        <v>196</v>
+      </c>
+      <c r="D75" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="E75" s="100" t="s">
-        <v>306</v>
-      </c>
-      <c r="F75" s="100" t="s">
-        <v>167</v>
-      </c>
-      <c r="G75" s="101" t="s">
-        <v>1632</v>
-      </c>
-      <c r="H75" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="I75" s="101" t="s">
-        <v>318</v>
-      </c>
-      <c r="J75" s="100"/>
-      <c r="K75" s="100"/>
-      <c r="L75" s="100" t="s">
+      <c r="E75" s="97" t="s">
+        <v>292</v>
+      </c>
+      <c r="F75" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="G75" s="98" t="s">
+        <v>410</v>
+      </c>
+      <c r="H75" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I75" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="J75" s="97"/>
+      <c r="K75" s="97"/>
+      <c r="L75" s="97" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11473,12 +11496,14 @@
       <c r="C76" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="D76" s="100"/>
+      <c r="D76" s="100" t="s">
+        <v>166</v>
+      </c>
       <c r="E76" s="100" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="F76" s="100" t="s">
-        <v>308</v>
+        <v>167</v>
       </c>
       <c r="G76" s="101" t="s">
         <v>1632</v>
@@ -11487,7 +11512,7 @@
         <v>26</v>
       </c>
       <c r="I76" s="101" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="J76" s="100"/>
       <c r="K76" s="100"/>
@@ -11496,103 +11521,135 @@
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A77" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="B77" s="102">
-        <v>2021</v>
-      </c>
-      <c r="C77" s="102" t="s">
-        <v>196</v>
-      </c>
-      <c r="D77" s="102" t="s">
-        <v>166</v>
-      </c>
-      <c r="E77" s="102" t="s">
-        <v>314</v>
-      </c>
-      <c r="F77" s="102" t="s">
-        <v>1633</v>
-      </c>
-      <c r="G77" s="103" t="s">
-        <v>442</v>
-      </c>
-      <c r="H77" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I77" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="J77" s="102"/>
-      <c r="K77" s="102"/>
-      <c r="L77" s="102" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="78" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A77" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B77" s="100">
+        <v>2024</v>
+      </c>
+      <c r="C77" s="100" t="s">
+        <v>82</v>
+      </c>
+      <c r="D77" s="100"/>
+      <c r="E77" s="100" t="s">
+        <v>307</v>
+      </c>
+      <c r="F77" s="100" t="s">
+        <v>308</v>
+      </c>
+      <c r="G77" s="101" t="s">
+        <v>1632</v>
+      </c>
+      <c r="H77" s="100" t="s">
+        <v>26</v>
+      </c>
+      <c r="I77" s="101" t="s">
+        <v>317</v>
+      </c>
+      <c r="J77" s="100"/>
+      <c r="K77" s="100"/>
+      <c r="L77" s="100" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A78" s="102" t="s">
         <v>78</v>
       </c>
       <c r="B78" s="102">
+        <v>2021</v>
+      </c>
+      <c r="C78" s="102" t="s">
+        <v>196</v>
+      </c>
+      <c r="D78" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="E78" s="102" t="s">
+        <v>314</v>
+      </c>
+      <c r="F78" s="102" t="s">
+        <v>1633</v>
+      </c>
+      <c r="G78" s="103" t="s">
+        <v>442</v>
+      </c>
+      <c r="H78" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I78" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="J78" s="102"/>
+      <c r="K78" s="102"/>
+      <c r="L78" s="102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A79" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B79" s="102">
         <v>2023</v>
       </c>
-      <c r="C78" s="102" t="s">
+      <c r="C79" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="D78" s="102"/>
-      <c r="E78" s="102" t="s">
+      <c r="D79" s="102"/>
+      <c r="E79" s="102" t="s">
         <v>311</v>
       </c>
-      <c r="F78" s="102" t="s">
+      <c r="F79" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="G78" s="103" t="s">
+      <c r="G79" s="103" t="s">
         <v>313</v>
       </c>
-      <c r="H78" s="102" t="s">
+      <c r="H79" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="I78" s="103" t="s">
+      <c r="I79" s="103" t="s">
         <v>408</v>
       </c>
-      <c r="J78" s="102"/>
-      <c r="K78" s="102" t="s">
+      <c r="J79" s="102"/>
+      <c r="K79" s="102" t="s">
         <v>315</v>
       </c>
-      <c r="L78" s="102" t="s">
+      <c r="L79" s="102" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A79" s="104" t="s">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A80" s="104" t="s">
         <v>309</v>
       </c>
-      <c r="B79" s="104">
+      <c r="B80" s="104">
         <v>2024</v>
       </c>
-      <c r="C79" s="104" t="s">
+      <c r="C80" s="104" t="s">
         <v>82</v>
       </c>
-      <c r="D79" s="104"/>
-      <c r="E79" s="104" t="s">
+      <c r="D80" s="104"/>
+      <c r="E80" s="104" t="s">
         <v>310</v>
       </c>
-      <c r="F79" s="104"/>
-      <c r="G79" s="106"/>
-      <c r="H79" s="104" t="s">
+      <c r="F80" s="104"/>
+      <c r="G80" s="106"/>
+      <c r="H80" s="104" t="s">
         <v>26</v>
       </c>
-      <c r="I79" s="106" t="s">
+      <c r="I80" s="106" t="s">
         <v>316</v>
       </c>
-      <c r="J79" s="104"/>
-      <c r="K79" s="104"/>
-      <c r="L79" s="104" t="s">
+      <c r="J80" s="104"/>
+      <c r="K80" s="104"/>
+      <c r="L80" s="104" t="s">
         <v>10</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L79" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
+  <autoFilter ref="A1:L80" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11602,9 +11659,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
   <dimension ref="A1:E114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
+      <selection pane="bottomLeft" activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11638,7 +11695,7 @@
         <v>166</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>1627</v>
+        <v>2027</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>350</v>
@@ -11655,7 +11712,7 @@
         <v>166</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>1627</v>
+        <v>2027</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>350</v>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B332575C-5CEE-4734-828C-C3F1825C2549}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F7BD87B-9A7D-40B6-AEAD-00CB911156B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="5940" yWindow="2610" windowWidth="18870" windowHeight="12330" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5603" uniqueCount="2035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5604" uniqueCount="2035">
   <si>
     <t>Phase</t>
   </si>
@@ -7701,18 +7701,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7724,7 +7715,16 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8475,12 +8475,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="170" t="s">
         <v>1591</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -8489,35 +8489,35 @@
       <c r="A3" s="67" t="s">
         <v>1585</v>
       </c>
-      <c r="B3" s="175">
+      <c r="B3" s="172">
         <v>45520</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="173" t="s">
         <v>1587</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="168" t="s">
         <v>1589</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -8585,12 +8585,12 @@
       <c r="A13" s="76" t="s">
         <v>1592</v>
       </c>
-      <c r="B13" s="170">
+      <c r="B13" s="168">
         <f>COUNTA(Study!A$2:A$1001)</f>
         <v>79</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -8602,12 +8602,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="170">
+      <c r="B14" s="168">
         <f>COUNTIF(Study!D$1:D$1001,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -8617,9 +8617,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -8631,11 +8631,11 @@
       <c r="A16" s="76" t="s">
         <v>1590</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="168" t="s">
         <v>1589</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -8797,12 +8797,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="172" t="s">
+      <c r="A27" s="173" t="s">
         <v>1597</v>
       </c>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -8815,11 +8815,11 @@
       <c r="A29" s="76" t="s">
         <v>1598</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="168" t="s">
         <v>1589</v>
       </c>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -8859,29 +8859,21 @@
       <c r="L32" s="70"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="168" t="s">
+      <c r="A34" s="175" t="s">
         <v>1599</v>
       </c>
-      <c r="B34" s="168"/>
-      <c r="C34" s="168"/>
-      <c r="D34" s="168"/>
+      <c r="B34" s="175"/>
+      <c r="C34" s="175"/>
+      <c r="D34" s="175"/>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="168"/>
-      <c r="B35" s="168"/>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
+      <c r="A35" s="175"/>
+      <c r="B35" s="175"/>
+      <c r="C35" s="175"/>
+      <c r="D35" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A34:D35"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -8898,6 +8890,14 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -11678,8 +11678,8 @@
   <dimension ref="A1:E120"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D7" sqref="D7"/>
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C24" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11777,8 +11777,8 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="9" t="s">
-        <v>1584</v>
+      <c r="A6" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B6" s="8" t="s">
         <v>2032</v>
@@ -12113,10 +12113,12 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="9" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B26" s="9"/>
+      <c r="A26" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B26" s="8" t="s">
+        <v>2032</v>
+      </c>
       <c r="C26" s="3" t="s">
         <v>327</v>
       </c>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F6AC332-AD1C-476E-96F9-B02FBCF9616D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F63A1D0C-319C-40E5-8CF8-2605E95A3B30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5611" uniqueCount="2039">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5618" uniqueCount="2044">
   <si>
     <t>Phase</t>
   </si>
@@ -6329,6 +6329,21 @@
   </si>
   <si>
     <t>Sample Size Calculation</t>
+  </si>
+  <si>
+    <t>Orthopedics</t>
+  </si>
+  <si>
+    <t>Tendinopathy CTS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Decentralized clinical trials (DCTs) </t>
+  </si>
+  <si>
+    <t>Khan Sciences, Inc.</t>
+  </si>
+  <si>
+    <t>Tendinopathy &amp; CTS</t>
   </si>
 </sst>
 </file>
@@ -8564,7 +8579,7 @@
       </c>
       <c r="B11" s="169">
         <f>COUNTIF(Study!B$1:B$1001,"2024")</f>
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" s="169"/>
       <c r="D11" s="169"/>
@@ -8593,7 +8608,7 @@
       </c>
       <c r="B13" s="168">
         <f>COUNTA(Study!A$2:A$1001)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C13" s="168"/>
       <c r="D13" s="168"/>
@@ -8706,7 +8721,7 @@
       </c>
       <c r="B20" s="169">
         <f>COUNTIF(Study!C$1:C$1001,"Upwork")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" s="169"/>
       <c r="D20" s="169"/>
@@ -8767,14 +8782,14 @@
       </c>
       <c r="B24" s="80">
         <f>COUNTA(Study!A$2:A$1002)</f>
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C24" s="73">
         <v>100</v>
       </c>
       <c r="D24" s="153">
         <f>B24-C24</f>
-        <v>-21</v>
+        <v>-20</v>
       </c>
       <c r="L24" s="70"/>
     </row>
@@ -8955,11 +8970,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
-  <dimension ref="A1:L80"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="A1:L81"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A64" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E87" sqref="E87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9017,7 +9033,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:12" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="82" t="s">
         <v>63</v>
       </c>
@@ -9053,7 +9069,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="82" t="s">
         <v>63</v>
       </c>
@@ -9087,7 +9103,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="82" t="s">
         <v>63</v>
       </c>
@@ -9121,7 +9137,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="82" t="s">
         <v>63</v>
       </c>
@@ -9155,7 +9171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="82" t="s">
         <v>63</v>
       </c>
@@ -9189,7 +9205,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="82" t="s">
         <v>63</v>
       </c>
@@ -9223,7 +9239,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="82" t="s">
         <v>63</v>
       </c>
@@ -9257,7 +9273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="82" t="s">
         <v>63</v>
       </c>
@@ -9293,7 +9309,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="82" t="s">
         <v>63</v>
       </c>
@@ -9429,7 +9445,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="85" t="s">
         <v>55</v>
       </c>
@@ -9463,7 +9479,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="85" t="s">
         <v>55</v>
       </c>
@@ -9499,7 +9515,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="85" t="s">
         <v>55</v>
       </c>
@@ -9533,7 +9549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="85" t="s">
         <v>55</v>
       </c>
@@ -9569,7 +9585,7 @@
         <v>2016</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="87" t="s">
         <v>156</v>
       </c>
@@ -9603,7 +9619,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="87" t="s">
         <v>156</v>
       </c>
@@ -9639,7 +9655,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="87" t="s">
         <v>156</v>
       </c>
@@ -9673,7 +9689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="87" t="s">
         <v>156</v>
       </c>
@@ -9705,7 +9721,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="87" t="s">
         <v>156</v>
       </c>
@@ -9739,7 +9755,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="89" t="s">
         <v>56</v>
       </c>
@@ -9777,7 +9793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="89" t="s">
         <v>56</v>
       </c>
@@ -9843,7 +9859,7 @@
         <v>1596</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="91" t="s">
         <v>49</v>
       </c>
@@ -9877,7 +9893,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="91" t="s">
         <v>49</v>
       </c>
@@ -9911,7 +9927,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="91" t="s">
         <v>49</v>
       </c>
@@ -9947,7 +9963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="91" t="s">
         <v>49</v>
       </c>
@@ -9983,7 +9999,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="91" t="s">
         <v>49</v>
       </c>
@@ -10015,7 +10031,7 @@
       <c r="K30" s="91"/>
       <c r="L30" s="91"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="91" t="s">
         <v>49</v>
       </c>
@@ -10049,7 +10065,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="91" t="s">
         <v>49</v>
       </c>
@@ -10083,7 +10099,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="85" t="s">
         <v>48</v>
       </c>
@@ -10113,7 +10129,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="85" t="s">
         <v>48</v>
       </c>
@@ -10145,7 +10161,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="35" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="85" t="s">
         <v>48</v>
       </c>
@@ -10177,7 +10193,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="85" t="s">
         <v>48</v>
       </c>
@@ -10209,7 +10225,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="85" t="s">
         <v>48</v>
       </c>
@@ -10241,7 +10257,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="85" t="s">
         <v>48</v>
       </c>
@@ -10275,7 +10291,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="85" t="s">
         <v>48</v>
       </c>
@@ -10309,7 +10325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="93" t="s">
         <v>58</v>
       </c>
@@ -10345,7 +10361,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="41" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="93" t="s">
         <v>58</v>
       </c>
@@ -10379,7 +10395,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="93" t="s">
         <v>58</v>
       </c>
@@ -10413,7 +10429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="93" t="s">
         <v>58</v>
       </c>
@@ -10447,7 +10463,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="93" t="s">
         <v>58</v>
       </c>
@@ -10481,7 +10497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="93" t="s">
         <v>58</v>
       </c>
@@ -10515,7 +10531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="93" t="s">
         <v>58</v>
       </c>
@@ -10549,7 +10565,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>58</v>
       </c>
@@ -10617,7 +10633,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="95" t="s">
         <v>2</v>
       </c>
@@ -10651,7 +10667,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="95" t="s">
         <v>2</v>
       </c>
@@ -10685,7 +10701,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="51" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="95" t="s">
         <v>2</v>
       </c>
@@ -10719,7 +10735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="95" t="s">
         <v>2</v>
       </c>
@@ -10751,7 +10767,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="95" t="s">
         <v>2</v>
       </c>
@@ -10785,7 +10801,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="95" t="s">
         <v>2</v>
       </c>
@@ -10819,7 +10835,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="95" t="s">
         <v>2</v>
       </c>
@@ -10855,7 +10871,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="95" t="s">
         <v>2</v>
       </c>
@@ -10889,7 +10905,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="95" t="s">
         <v>2</v>
       </c>
@@ -10919,7 +10935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="58" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="95" t="s">
         <v>2</v>
       </c>
@@ -10957,7 +10973,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="95" t="s">
         <v>2</v>
       </c>
@@ -10991,7 +11007,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="95" t="s">
         <v>2</v>
       </c>
@@ -11025,7 +11041,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="95" t="s">
         <v>2</v>
       </c>
@@ -11059,7 +11075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:12" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="97" t="s">
         <v>40</v>
       </c>
@@ -11093,7 +11109,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="97" t="s">
         <v>40</v>
       </c>
@@ -11127,7 +11143,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="97" t="s">
         <v>40</v>
       </c>
@@ -11161,7 +11177,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="97" t="s">
         <v>40</v>
       </c>
@@ -11197,7 +11213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="97" t="s">
         <v>40</v>
       </c>
@@ -11233,7 +11249,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="97" t="s">
         <v>40</v>
       </c>
@@ -11269,7 +11285,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="97" t="s">
         <v>40</v>
       </c>
@@ -11305,7 +11321,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="97" t="s">
         <v>40</v>
       </c>
@@ -11341,7 +11357,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="97" t="s">
         <v>40</v>
       </c>
@@ -11377,7 +11393,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="97" t="s">
         <v>40</v>
       </c>
@@ -11413,7 +11429,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="97" t="s">
         <v>40</v>
       </c>
@@ -11447,7 +11463,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="97" t="s">
         <v>40</v>
       </c>
@@ -11481,7 +11497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="97" t="s">
         <v>40</v>
       </c>
@@ -11515,7 +11531,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="97" t="s">
         <v>40</v>
       </c>
@@ -11615,7 +11631,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="102" t="s">
         <v>78</v>
       </c>
@@ -11649,7 +11665,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="102" t="s">
         <v>78</v>
       </c>
@@ -11711,8 +11727,44 @@
         <v>10</v>
       </c>
     </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="104" t="s">
+        <v>2039</v>
+      </c>
+      <c r="B81" s="104">
+        <v>2024</v>
+      </c>
+      <c r="C81" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D81" s="104"/>
+      <c r="E81" s="104" t="s">
+        <v>2040</v>
+      </c>
+      <c r="F81" s="104"/>
+      <c r="G81" s="104" t="s">
+        <v>2042</v>
+      </c>
+      <c r="H81" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="I81" s="104" t="s">
+        <v>2043</v>
+      </c>
+      <c r="J81" s="104"/>
+      <c r="K81" s="104"/>
+      <c r="L81" s="104" t="s">
+        <v>2041</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L80" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
+  <autoFilter ref="A1:L80" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="Upwork"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -11722,7 +11774,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
   <dimension ref="A1:E123"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="C34" sqref="C34"/>
     </sheetView>
@@ -24835,8 +24887,8 @@
   <dimension ref="A1:J326"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E262" sqref="E262"/>
+      <pane ySplit="1" topLeftCell="A260" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F274" sqref="F274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30985,7 +31037,7 @@
         <v>1716</v>
       </c>
       <c r="C266" s="155">
-        <v>45582</v>
+        <v>45583</v>
       </c>
       <c r="D266" s="136" t="s">
         <v>1646</v>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51252304-12C8-47BB-A063-199D6F6C7C39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60B4403F-8DAD-4277-8C4C-E97D0598A568}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="1680" yWindow="30" windowWidth="26340" windowHeight="13980" activeTab="5" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'100 Reading Plan'!$A$1:$E$57</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Oper!$A$1:$K$330</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">Oper!$A$1:$K$331</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5687" uniqueCount="2074">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5691" uniqueCount="2074">
   <si>
     <t>Phase</t>
   </si>
@@ -7800,19 +7800,13 @@
     <xf numFmtId="14" fontId="2" fillId="7" borderId="36" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7824,7 +7818,16 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7895,9 +7898,6 @@
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8093,13 +8093,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>280</xdr:row>
+          <xdr:row>281</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>280</xdr:row>
+          <xdr:row>281</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8160,13 +8160,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>281</xdr:row>
+          <xdr:row>282</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>281</xdr:row>
+          <xdr:row>282</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8223,14 +8223,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>282</xdr:row>
+          <xdr:row>283</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="0"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>283</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9256" name="Check Box 40" hidden="1">
@@ -8239,7 +8244,7 @@
                   <a14:compatExt spid="_x0000_s9256"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F511A54A-B986-4F78-BE66-DC81D61E1CE0}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8279,20 +8284,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>286</xdr:row>
+          <xdr:row>287</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="209550" cy="0"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>209550</xdr:colOff>
+          <xdr:row>287</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9257" name="Check Box 41" hidden="1">
@@ -8301,7 +8311,7 @@
                   <a14:compatExt spid="_x0000_s9257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA0A260-0CC2-480C-B777-5EF0D0EEB3D9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8341,7 +8351,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -8710,12 +8720,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="170" t="s">
         <v>1588</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -8724,79 +8734,79 @@
       <c r="A3" s="67" t="s">
         <v>1582</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="172">
         <v>45520</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="173" t="s">
         <v>1584</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1585</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="168" t="s">
         <v>1586</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <v>2021</v>
       </c>
-      <c r="B8" s="168">
+      <c r="B8" s="169">
         <f>COUNTIF(Study!B$1:B$1003,"2021")</f>
         <v>39</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="169"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
         <v>2022</v>
       </c>
-      <c r="B9" s="168">
+      <c r="B9" s="169">
         <f>COUNTIF(Study!B$1:B$1003,"2022")</f>
         <v>3</v>
       </c>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
+      <c r="C9" s="169"/>
+      <c r="D9" s="169"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="79">
         <v>2023</v>
       </c>
-      <c r="B10" s="168">
+      <c r="B10" s="169">
         <f>COUNTIF(Study!B$1:B$1003,"2023")</f>
         <v>16</v>
       </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
+      <c r="C10" s="169"/>
+      <c r="D10" s="169"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="79">
         <v>2024</v>
       </c>
-      <c r="B11" s="168">
+      <c r="B11" s="169">
         <f>COUNTIF(Study!B$1:B$1003,"2024")</f>
         <v>24</v>
       </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
+      <c r="C11" s="169"/>
+      <c r="D11" s="169"/>
       <c r="G11" s="69"/>
       <c r="H11" s="69"/>
       <c r="I11" s="70"/>
@@ -8820,12 +8830,12 @@
       <c r="A13" s="76" t="s">
         <v>1589</v>
       </c>
-      <c r="B13" s="169">
+      <c r="B13" s="168">
         <f>COUNTA(Study!A$2:A$1003)</f>
         <v>82</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -8837,12 +8847,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="169">
+      <c r="B14" s="168">
         <f>COUNTIF(Study!D$1:D$1003,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -8852,9 +8862,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -8866,11 +8876,11 @@
       <c r="A16" s="76" t="s">
         <v>1587</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="168" t="s">
         <v>1586</v>
       </c>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -8882,12 +8892,12 @@
       <c r="A17" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B17" s="168">
+      <c r="B17" s="169">
         <f>COUNTIF(Study!C$1:C$1003,"GCP")</f>
         <v>39</v>
       </c>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="169"/>
       <c r="G17" s="69"/>
       <c r="H17" s="69"/>
       <c r="I17" s="70"/>
@@ -8899,12 +8909,12 @@
       <c r="A18" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="168">
+      <c r="B18" s="169">
         <f>COUNTIF(Study!C$1:C$1003,"GBG")</f>
         <v>3</v>
       </c>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
+      <c r="C18" s="169"/>
+      <c r="D18" s="169"/>
       <c r="G18" s="69"/>
       <c r="H18" s="69"/>
       <c r="I18" s="70"/>
@@ -8916,12 +8926,12 @@
       <c r="A19" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="168">
+      <c r="B19" s="169">
         <f>COUNTIF(Study!C$1:C$1003,"ICON")</f>
         <v>28</v>
       </c>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
+      <c r="C19" s="169"/>
+      <c r="D19" s="169"/>
       <c r="G19" s="69"/>
       <c r="H19" s="69"/>
       <c r="I19" s="70"/>
@@ -8933,12 +8943,12 @@
       <c r="A20" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="168">
+      <c r="B20" s="169">
         <f>COUNTIF(Study!C$1:C$1003,"Upwork")</f>
         <v>9</v>
       </c>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
+      <c r="C20" s="169"/>
+      <c r="D20" s="169"/>
       <c r="G20" s="69"/>
       <c r="H20" s="69"/>
       <c r="I20" s="70"/>
@@ -8950,12 +8960,12 @@
       <c r="A21" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="168">
+      <c r="B21" s="169">
         <f>COUNTIF(Study!C$1:C$1003,"Learning")</f>
         <v>3</v>
       </c>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
+      <c r="C21" s="169"/>
+      <c r="D21" s="169"/>
       <c r="G21" s="69"/>
       <c r="H21" s="69"/>
       <c r="I21" s="70"/>
@@ -9032,12 +9042,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="171" t="s">
+      <c r="A27" s="173" t="s">
         <v>1594</v>
       </c>
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9050,47 +9060,47 @@
       <c r="A29" s="76" t="s">
         <v>1595</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="168" t="s">
         <v>1586</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
         <v>2029</v>
       </c>
-      <c r="B30" s="168">
+      <c r="B30" s="169">
         <f>COUNTIF('100 Reading Plan'!A$2:A$1003, "*Y*")</f>
         <v>45</v>
       </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
+      <c r="C30" s="169"/>
+      <c r="D30" s="169"/>
       <c r="L30" s="70"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
         <v>1561</v>
       </c>
-      <c r="B31" s="168">
+      <c r="B31" s="169">
         <f>COUNTIF('100 Reading Plan'!A$2:A$1003, "N")</f>
         <v>10</v>
       </c>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
+      <c r="C31" s="169"/>
+      <c r="D31" s="169"/>
       <c r="L31" s="70"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
         <v>437</v>
       </c>
-      <c r="B32" s="168">
+      <c r="B32" s="169">
         <f>COUNTIF('100 Reading Plan'!A$2:A$1003, "*Ongoing*")</f>
         <v>1</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
+      <c r="C32" s="169"/>
+      <c r="D32" s="169"/>
       <c r="L32" s="70"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -9104,23 +9114,23 @@
       <c r="A34" s="76" t="s">
         <v>2028</v>
       </c>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="168" t="s">
         <v>1586</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="168"/>
+      <c r="D34" s="168"/>
       <c r="L34" s="70"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="79">
         <v>2024</v>
       </c>
-      <c r="B35" s="168">
+      <c r="B35" s="169">
         <f>COUNTIF('100 Reading Plan'!B$2:B$1003, "*2024*")</f>
         <v>46</v>
       </c>
-      <c r="C35" s="168"/>
-      <c r="D35" s="168"/>
+      <c r="C35" s="169"/>
+      <c r="D35" s="169"/>
       <c r="L35" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
@@ -9131,31 +9141,21 @@
       <c r="L36" s="70"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="167" t="s">
+      <c r="A38" s="175" t="s">
         <v>1596</v>
       </c>
-      <c r="B38" s="167"/>
-      <c r="C38" s="167"/>
-      <c r="D38" s="167"/>
+      <c r="B38" s="175"/>
+      <c r="C38" s="175"/>
+      <c r="D38" s="175"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="167"/>
-      <c r="B39" s="167"/>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
+      <c r="A39" s="175"/>
+      <c r="B39" s="175"/>
+      <c r="C39" s="175"/>
+      <c r="D39" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9172,6 +9172,16 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -13532,7 +13542,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="179" t="s">
+      <c r="A2" s="180" t="s">
         <v>1383</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -13561,7 +13571,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="180"/>
+      <c r="A3" s="181"/>
       <c r="B3" s="44" t="s">
         <v>1386</v>
       </c>
@@ -13588,7 +13598,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="181"/>
+      <c r="A4" s="182"/>
       <c r="B4" s="45" t="s">
         <v>1388</v>
       </c>
@@ -13615,7 +13625,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="181"/>
+      <c r="A5" s="182"/>
       <c r="B5" s="45" t="s">
         <v>1390</v>
       </c>
@@ -13642,7 +13652,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="181"/>
+      <c r="A6" s="182"/>
       <c r="B6" s="45" t="s">
         <v>1392</v>
       </c>
@@ -13669,7 +13679,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="181"/>
+      <c r="A7" s="182"/>
       <c r="B7" s="45" t="s">
         <v>1394</v>
       </c>
@@ -13678,7 +13688,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="182"/>
+      <c r="A8" s="183"/>
       <c r="B8" s="46" t="s">
         <v>1396</v>
       </c>
@@ -13687,7 +13697,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="183" t="s">
+      <c r="A9" s="184" t="s">
         <v>1398</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -13698,7 +13708,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="183"/>
+      <c r="A10" s="184"/>
       <c r="B10" s="47" t="s">
         <v>1401</v>
       </c>
@@ -13707,7 +13717,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="183"/>
+      <c r="A11" s="184"/>
       <c r="B11" s="47" t="s">
         <v>1403</v>
       </c>
@@ -13716,7 +13726,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="184"/>
+      <c r="A12" s="185"/>
       <c r="B12" s="44" t="s">
         <v>1405</v>
       </c>
@@ -13725,7 +13735,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="184"/>
+      <c r="A13" s="185"/>
       <c r="B13" s="44" t="s">
         <v>1407</v>
       </c>
@@ -13734,7 +13744,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="184"/>
+      <c r="A14" s="185"/>
       <c r="B14" s="44" t="s">
         <v>1409</v>
       </c>
@@ -13743,7 +13753,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="184"/>
+      <c r="A15" s="185"/>
       <c r="B15" s="44" t="s">
         <v>1411</v>
       </c>
@@ -13752,7 +13762,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="184"/>
+      <c r="A16" s="185"/>
       <c r="B16" s="44" t="s">
         <v>1413</v>
       </c>
@@ -13761,7 +13771,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="184"/>
+      <c r="A17" s="185"/>
       <c r="B17" s="44" t="s">
         <v>1415</v>
       </c>
@@ -13770,7 +13780,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="184"/>
+      <c r="A18" s="185"/>
       <c r="B18" s="44" t="s">
         <v>1417</v>
       </c>
@@ -13779,7 +13789,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="185"/>
+      <c r="A19" s="186"/>
       <c r="B19" s="48" t="s">
         <v>1419</v>
       </c>
@@ -13788,7 +13798,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="185"/>
+      <c r="A20" s="186"/>
       <c r="B20" s="48" t="s">
         <v>1421</v>
       </c>
@@ -13797,7 +13807,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="185"/>
+      <c r="A21" s="186"/>
       <c r="B21" s="48" t="s">
         <v>1423</v>
       </c>
@@ -13806,7 +13816,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="186"/>
+      <c r="A22" s="187"/>
       <c r="B22" s="49" t="s">
         <v>1425</v>
       </c>
@@ -13815,7 +13825,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="187" t="s">
+      <c r="A23" s="188" t="s">
         <v>1427</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -13826,7 +13836,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="184"/>
+      <c r="A24" s="185"/>
       <c r="B24" s="47" t="s">
         <v>1430</v>
       </c>
@@ -13835,7 +13845,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="184"/>
+      <c r="A25" s="185"/>
       <c r="B25" s="44" t="s">
         <v>1431</v>
       </c>
@@ -13844,7 +13854,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="184"/>
+      <c r="A26" s="185"/>
       <c r="B26" s="44" t="s">
         <v>1432</v>
       </c>
@@ -13853,7 +13863,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="184"/>
+      <c r="A27" s="185"/>
       <c r="B27" s="44" t="s">
         <v>1433</v>
       </c>
@@ -13862,7 +13872,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="184"/>
+      <c r="A28" s="185"/>
       <c r="B28" s="44" t="s">
         <v>1434</v>
       </c>
@@ -13871,7 +13881,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="184"/>
+      <c r="A29" s="185"/>
       <c r="B29" s="51" t="s">
         <v>1435</v>
       </c>
@@ -13880,7 +13890,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="184"/>
+      <c r="A30" s="185"/>
       <c r="B30" s="44" t="s">
         <v>1436</v>
       </c>
@@ -13889,7 +13899,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="184"/>
+      <c r="A31" s="185"/>
       <c r="B31" s="44" t="s">
         <v>1437</v>
       </c>
@@ -13898,7 +13908,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="184"/>
+      <c r="A32" s="185"/>
       <c r="B32" s="44" t="s">
         <v>1438</v>
       </c>
@@ -13907,7 +13917,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="184"/>
+      <c r="A33" s="185"/>
       <c r="B33" s="44" t="s">
         <v>1439</v>
       </c>
@@ -13916,7 +13926,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="184"/>
+      <c r="A34" s="185"/>
       <c r="B34" s="44" t="s">
         <v>1440</v>
       </c>
@@ -13925,7 +13935,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="184"/>
+      <c r="A35" s="185"/>
       <c r="B35" s="44" t="s">
         <v>1441</v>
       </c>
@@ -13934,7 +13944,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="184"/>
+      <c r="A36" s="185"/>
       <c r="B36" s="44" t="s">
         <v>1442</v>
       </c>
@@ -13943,7 +13953,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="184"/>
+      <c r="A37" s="185"/>
       <c r="B37" s="44" t="s">
         <v>1443</v>
       </c>
@@ -13952,7 +13962,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="184"/>
+      <c r="A38" s="185"/>
       <c r="B38" s="44" t="s">
         <v>1444</v>
       </c>
@@ -13961,7 +13971,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="184"/>
+      <c r="A39" s="185"/>
       <c r="B39" s="44" t="s">
         <v>1445</v>
       </c>
@@ -13970,7 +13980,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="184"/>
+      <c r="A40" s="185"/>
       <c r="B40" s="44" t="s">
         <v>1446</v>
       </c>
@@ -13979,7 +13989,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="184"/>
+      <c r="A41" s="185"/>
       <c r="B41" s="44" t="s">
         <v>1447</v>
       </c>
@@ -13988,7 +13998,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="184"/>
+      <c r="A42" s="185"/>
       <c r="B42" s="44" t="s">
         <v>1448</v>
       </c>
@@ -13997,7 +14007,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="184"/>
+      <c r="A43" s="185"/>
       <c r="B43" s="44" t="s">
         <v>1450</v>
       </c>
@@ -14006,7 +14016,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="184"/>
+      <c r="A44" s="185"/>
       <c r="B44" s="44" t="s">
         <v>1451</v>
       </c>
@@ -14015,7 +14025,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="184"/>
+      <c r="A45" s="185"/>
       <c r="B45" s="44" t="s">
         <v>1453</v>
       </c>
@@ -14024,7 +14034,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="184"/>
+      <c r="A46" s="185"/>
       <c r="B46" s="44" t="s">
         <v>1455</v>
       </c>
@@ -14033,7 +14043,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="186"/>
+      <c r="A47" s="187"/>
       <c r="B47" s="49" t="s">
         <v>1457</v>
       </c>
@@ -14042,7 +14052,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="188" t="s">
+      <c r="A48" s="189" t="s">
         <v>1459</v>
       </c>
       <c r="B48" s="47" t="s">
@@ -14053,7 +14063,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="176"/>
+      <c r="A49" s="177"/>
       <c r="B49" s="47" t="s">
         <v>1462</v>
       </c>
@@ -14062,7 +14072,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="176"/>
+      <c r="A50" s="177"/>
       <c r="B50" s="47" t="s">
         <v>1463</v>
       </c>
@@ -14071,7 +14081,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="176"/>
+      <c r="A51" s="177"/>
       <c r="B51" s="44" t="s">
         <v>1464</v>
       </c>
@@ -14080,7 +14090,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="176"/>
+      <c r="A52" s="177"/>
       <c r="B52" s="44" t="s">
         <v>1465</v>
       </c>
@@ -14089,7 +14099,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="176"/>
+      <c r="A53" s="177"/>
       <c r="B53" s="44" t="s">
         <v>1466</v>
       </c>
@@ -14098,7 +14108,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="176"/>
+      <c r="A54" s="177"/>
       <c r="B54" s="44" t="s">
         <v>1467</v>
       </c>
@@ -14107,7 +14117,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="176"/>
+      <c r="A55" s="177"/>
       <c r="B55" s="44" t="s">
         <v>1468</v>
       </c>
@@ -14116,7 +14126,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="176"/>
+      <c r="A56" s="177"/>
       <c r="B56" s="48" t="s">
         <v>1469</v>
       </c>
@@ -14125,7 +14135,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="176"/>
+      <c r="A57" s="177"/>
       <c r="B57" s="48" t="s">
         <v>1470</v>
       </c>
@@ -14134,7 +14144,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="176"/>
+      <c r="A58" s="177"/>
       <c r="B58" s="48" t="s">
         <v>1471</v>
       </c>
@@ -14143,7 +14153,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="176"/>
+      <c r="A59" s="177"/>
       <c r="B59" s="48" t="s">
         <v>1473</v>
       </c>
@@ -14152,7 +14162,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="176"/>
+      <c r="A60" s="177"/>
       <c r="B60" s="48" t="s">
         <v>1474</v>
       </c>
@@ -14161,7 +14171,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="176"/>
+      <c r="A61" s="177"/>
       <c r="B61" s="48" t="s">
         <v>1475</v>
       </c>
@@ -14170,7 +14180,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="176"/>
+      <c r="A62" s="177"/>
       <c r="B62" s="48" t="s">
         <v>1476</v>
       </c>
@@ -14179,7 +14189,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="188" t="s">
+      <c r="A63" s="189" t="s">
         <v>1478</v>
       </c>
       <c r="B63" s="52" t="s">
@@ -14190,7 +14200,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="176"/>
+      <c r="A64" s="177"/>
       <c r="B64" s="48" t="s">
         <v>1481</v>
       </c>
@@ -14199,7 +14209,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="176"/>
+      <c r="A65" s="177"/>
       <c r="B65" s="48" t="s">
         <v>1482</v>
       </c>
@@ -14208,7 +14218,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="176"/>
+      <c r="A66" s="177"/>
       <c r="B66" s="48" t="s">
         <v>1484</v>
       </c>
@@ -14217,7 +14227,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="176"/>
+      <c r="A67" s="177"/>
       <c r="B67" s="48" t="s">
         <v>1485</v>
       </c>
@@ -14226,7 +14236,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="176"/>
+      <c r="A68" s="177"/>
       <c r="B68" s="48" t="s">
         <v>1486</v>
       </c>
@@ -14235,7 +14245,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="176"/>
+      <c r="A69" s="177"/>
       <c r="B69" s="48" t="s">
         <v>1487</v>
       </c>
@@ -14244,7 +14254,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="176"/>
+      <c r="A70" s="177"/>
       <c r="B70" s="48" t="s">
         <v>1488</v>
       </c>
@@ -14253,7 +14263,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="176"/>
+      <c r="A71" s="177"/>
       <c r="B71" s="48" t="s">
         <v>1489</v>
       </c>
@@ -14262,7 +14272,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="176"/>
+      <c r="A72" s="177"/>
       <c r="B72" s="53" t="s">
         <v>1490</v>
       </c>
@@ -14271,7 +14281,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="176"/>
+      <c r="A73" s="177"/>
       <c r="B73" s="48" t="s">
         <v>1492</v>
       </c>
@@ -14280,7 +14290,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="176"/>
+      <c r="A74" s="177"/>
       <c r="B74" s="48" t="s">
         <v>1493</v>
       </c>
@@ -14289,7 +14299,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="176"/>
+      <c r="A75" s="177"/>
       <c r="B75" s="48" t="s">
         <v>1494</v>
       </c>
@@ -14298,7 +14308,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="176"/>
+      <c r="A76" s="177"/>
       <c r="B76" s="48" t="s">
         <v>1495</v>
       </c>
@@ -14307,7 +14317,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="176"/>
+      <c r="A77" s="177"/>
       <c r="B77" s="48" t="s">
         <v>1497</v>
       </c>
@@ -14316,7 +14326,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="176"/>
+      <c r="A78" s="177"/>
       <c r="B78" s="48" t="s">
         <v>1499</v>
       </c>
@@ -14325,7 +14335,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="176"/>
+      <c r="A79" s="177"/>
       <c r="B79" s="48" t="s">
         <v>1500</v>
       </c>
@@ -14334,7 +14344,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="176"/>
+      <c r="A80" s="177"/>
       <c r="B80" s="48" t="s">
         <v>1502</v>
       </c>
@@ -14343,7 +14353,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="189" t="s">
+      <c r="A81" s="190" t="s">
         <v>1504</v>
       </c>
       <c r="B81" s="54" t="s">
@@ -14354,7 +14364,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="190"/>
+      <c r="A82" s="191"/>
       <c r="B82" s="55" t="s">
         <v>1507</v>
       </c>
@@ -14363,7 +14373,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="190"/>
+      <c r="A83" s="191"/>
       <c r="B83" s="55" t="s">
         <v>1509</v>
       </c>
@@ -14372,7 +14382,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="190"/>
+      <c r="A84" s="191"/>
       <c r="B84" s="55" t="s">
         <v>1511</v>
       </c>
@@ -14381,7 +14391,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A85" s="190"/>
+      <c r="A85" s="191"/>
       <c r="B85" s="55" t="s">
         <v>1513</v>
       </c>
@@ -14390,7 +14400,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="190"/>
+      <c r="A86" s="191"/>
       <c r="B86" s="55" t="s">
         <v>1515</v>
       </c>
@@ -14399,7 +14409,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A87" s="190"/>
+      <c r="A87" s="191"/>
       <c r="B87" s="55" t="s">
         <v>1517</v>
       </c>
@@ -14408,7 +14418,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="190"/>
+      <c r="A88" s="191"/>
       <c r="B88" s="55" t="s">
         <v>1519</v>
       </c>
@@ -14417,7 +14427,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="190"/>
+      <c r="A89" s="191"/>
       <c r="B89" s="55" t="s">
         <v>1521</v>
       </c>
@@ -14426,7 +14436,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="190"/>
+      <c r="A90" s="191"/>
       <c r="B90" s="55" t="s">
         <v>1523</v>
       </c>
@@ -14435,7 +14445,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="190"/>
+      <c r="A91" s="191"/>
       <c r="B91" s="55" t="s">
         <v>1525</v>
       </c>
@@ -14444,7 +14454,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="190"/>
+      <c r="A92" s="191"/>
       <c r="B92" s="55" t="s">
         <v>1527</v>
       </c>
@@ -14453,7 +14463,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="191"/>
+      <c r="A93" s="192"/>
       <c r="B93" s="56" t="s">
         <v>1529</v>
       </c>
@@ -14462,7 +14472,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="176" t="s">
+      <c r="A94" s="177" t="s">
         <v>1531</v>
       </c>
       <c r="B94" s="44" t="s">
@@ -14473,7 +14483,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="176"/>
+      <c r="A95" s="177"/>
       <c r="B95" s="44" t="s">
         <v>1534</v>
       </c>
@@ -14482,7 +14492,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="176"/>
+      <c r="A96" s="177"/>
       <c r="B96" s="44" t="s">
         <v>1536</v>
       </c>
@@ -14491,7 +14501,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="176"/>
+      <c r="A97" s="177"/>
       <c r="B97" s="44" t="s">
         <v>1538</v>
       </c>
@@ -14500,7 +14510,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="176"/>
+      <c r="A98" s="177"/>
       <c r="B98" s="48" t="s">
         <v>1540</v>
       </c>
@@ -14509,7 +14519,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="177"/>
+      <c r="A99" s="178"/>
       <c r="B99" s="57" t="s">
         <v>1542</v>
       </c>
@@ -14518,7 +14528,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="177"/>
+      <c r="A100" s="178"/>
       <c r="B100" s="57" t="s">
         <v>1544</v>
       </c>
@@ -14527,7 +14537,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="178"/>
+      <c r="A101" s="179"/>
       <c r="B101" s="59" t="s">
         <v>1546</v>
       </c>
@@ -25167,11 +25177,11 @@
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K330"/>
+  <dimension ref="A1:K331"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A290" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G310" sqref="G310"/>
+      <pane ySplit="1" topLeftCell="A258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -25181,8 +25191,8 @@
     <col min="3" max="3" width="15.28515625" style="162" customWidth="1"/>
     <col min="4" max="4" width="18.7109375" customWidth="1"/>
     <col min="5" max="5" width="30.140625" customWidth="1"/>
-    <col min="6" max="6" width="20.85546875" style="199" customWidth="1"/>
-    <col min="7" max="8" width="22.42578125" style="199" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" style="167" customWidth="1"/>
+    <col min="7" max="8" width="22.42578125" style="167" customWidth="1"/>
     <col min="9" max="9" width="18.5703125" customWidth="1"/>
     <col min="10" max="10" width="19.7109375" customWidth="1"/>
     <col min="11" max="11" width="42.140625" customWidth="1"/>
@@ -28599,13 +28609,13 @@
       <c r="K142" s="114"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="192" t="s">
+      <c r="A143" s="193" t="s">
         <v>1798</v>
       </c>
-      <c r="B143" s="194" t="s">
+      <c r="B143" s="195" t="s">
         <v>1670</v>
       </c>
-      <c r="C143" s="195">
+      <c r="C143" s="196">
         <v>45050</v>
       </c>
       <c r="D143" s="114" t="s">
@@ -28618,13 +28628,13 @@
       <c r="G143" s="116"/>
       <c r="H143" s="116"/>
       <c r="I143" s="144"/>
-      <c r="J143" s="197"/>
-      <c r="K143" s="192"/>
+      <c r="J143" s="198"/>
+      <c r="K143" s="193"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="193"/>
-      <c r="B144" s="193"/>
-      <c r="C144" s="196"/>
+      <c r="A144" s="194"/>
+      <c r="B144" s="194"/>
+      <c r="C144" s="197"/>
       <c r="D144" s="114"/>
       <c r="E144" s="114" t="s">
         <v>1841</v>
@@ -28633,8 +28643,8 @@
       <c r="G144" s="114"/>
       <c r="H144" s="114"/>
       <c r="I144" s="115"/>
-      <c r="J144" s="198"/>
-      <c r="K144" s="193"/>
+      <c r="J144" s="199"/>
+      <c r="K144" s="194"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="113" t="s">
@@ -31807,20 +31817,16 @@
         <v>1712</v>
       </c>
       <c r="C274" s="154">
-        <v>45613</v>
-      </c>
-      <c r="D274" s="126" t="s">
-        <v>1669</v>
+        <v>45612</v>
+      </c>
+      <c r="D274" s="136" t="s">
+        <v>1643</v>
       </c>
       <c r="E274" s="117" t="s">
-        <v>2055</v>
-      </c>
-      <c r="F274" s="125" t="s">
-        <v>1903</v>
-      </c>
-      <c r="G274" s="125" t="s">
-        <v>2057</v>
-      </c>
+        <v>1878</v>
+      </c>
+      <c r="F274" s="125"/>
+      <c r="G274" s="125"/>
       <c r="H274" s="125"/>
       <c r="I274" s="115"/>
       <c r="J274" s="117"/>
@@ -31830,24 +31836,26 @@
       <c r="A275" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B275" s="121" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C275" s="161">
-        <v>45619</v>
+      <c r="B275" s="120" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C275" s="154">
+        <v>45613</v>
       </c>
       <c r="D275" s="126" t="s">
-        <v>1651</v>
+        <v>1669</v>
       </c>
       <c r="E275" s="117" t="s">
-        <v>1671</v>
-      </c>
-      <c r="F275" s="126"/>
-      <c r="G275" s="126"/>
-      <c r="H275" s="126"/>
-      <c r="I275" s="148">
-        <v>0.75</v>
-      </c>
+        <v>2055</v>
+      </c>
+      <c r="F275" s="125" t="s">
+        <v>1903</v>
+      </c>
+      <c r="G275" s="125" t="s">
+        <v>2057</v>
+      </c>
+      <c r="H275" s="125"/>
+      <c r="I275" s="115"/>
       <c r="J275" s="117"/>
       <c r="K275" s="114"/>
     </row>
@@ -31859,19 +31867,19 @@
         <v>1637</v>
       </c>
       <c r="C276" s="161">
-        <v>45620</v>
-      </c>
-      <c r="D276" s="134" t="s">
-        <v>1643</v>
+        <v>45619</v>
+      </c>
+      <c r="D276" s="126" t="s">
+        <v>1651</v>
       </c>
       <c r="E276" s="117" t="s">
-        <v>1954</v>
+        <v>1671</v>
       </c>
       <c r="F276" s="126"/>
       <c r="G276" s="126"/>
       <c r="H276" s="126"/>
       <c r="I276" s="148">
-        <v>0.625</v>
+        <v>0.75</v>
       </c>
       <c r="J276" s="117"/>
       <c r="K276" s="114"/>
@@ -31880,23 +31888,23 @@
       <c r="A277" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B277" s="118" t="s">
-        <v>1642</v>
+      <c r="B277" s="121" t="s">
+        <v>1637</v>
       </c>
       <c r="C277" s="161">
         <v>45620</v>
       </c>
-      <c r="D277" s="126" t="s">
-        <v>1667</v>
+      <c r="D277" s="134" t="s">
+        <v>1643</v>
       </c>
       <c r="E277" s="117" t="s">
-        <v>1668</v>
+        <v>1954</v>
       </c>
       <c r="F277" s="126"/>
       <c r="G277" s="126"/>
       <c r="H277" s="126"/>
       <c r="I277" s="148">
-        <v>0.75</v>
+        <v>0.625</v>
       </c>
       <c r="J277" s="117"/>
       <c r="K277" s="114"/>
@@ -31905,26 +31913,24 @@
       <c r="A278" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B278" s="120" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C278" s="154">
-        <v>45624</v>
+      <c r="B278" s="118" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C278" s="161">
+        <v>45620</v>
       </c>
       <c r="D278" s="126" t="s">
-        <v>1651</v>
+        <v>1667</v>
       </c>
       <c r="E278" s="117" t="s">
-        <v>1770</v>
-      </c>
-      <c r="F278" s="126" t="s">
-        <v>2063</v>
-      </c>
-      <c r="G278" s="126" t="s">
-        <v>2064</v>
-      </c>
+        <v>1668</v>
+      </c>
+      <c r="F278" s="126"/>
+      <c r="G278" s="126"/>
       <c r="H278" s="126"/>
-      <c r="I278" s="148"/>
+      <c r="I278" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J278" s="117"/>
       <c r="K278" s="114"/>
     </row>
@@ -31936,19 +31942,19 @@
         <v>1712</v>
       </c>
       <c r="C279" s="154">
-        <v>45627</v>
+        <v>45624</v>
       </c>
       <c r="D279" s="126" t="s">
-        <v>1673</v>
+        <v>1651</v>
       </c>
       <c r="E279" s="117" t="s">
-        <v>1674</v>
+        <v>1770</v>
       </c>
       <c r="F279" s="126" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="G279" s="126" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="H279" s="126"/>
       <c r="I279" s="148"/>
@@ -31959,24 +31965,26 @@
       <c r="A280" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B280" s="127" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C280" s="159">
-        <v>45634</v>
+      <c r="B280" s="120" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C280" s="154">
+        <v>45627</v>
       </c>
       <c r="D280" s="126" t="s">
-        <v>1651</v>
+        <v>1673</v>
       </c>
       <c r="E280" s="117" t="s">
-        <v>1672</v>
-      </c>
-      <c r="F280" s="126"/>
-      <c r="G280" s="126"/>
+        <v>1674</v>
+      </c>
+      <c r="F280" s="126" t="s">
+        <v>2065</v>
+      </c>
+      <c r="G280" s="126" t="s">
+        <v>2066</v>
+      </c>
       <c r="H280" s="126"/>
-      <c r="I280" s="148">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="I280" s="148"/>
       <c r="J280" s="117"/>
       <c r="K280" s="114"/>
     </row>
@@ -31984,22 +31992,24 @@
       <c r="A281" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B281" s="120" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C281" s="154">
-        <v>45636</v>
-      </c>
-      <c r="D281" s="134" t="s">
-        <v>1643</v>
+      <c r="B281" s="127" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C281" s="159">
+        <v>45634</v>
+      </c>
+      <c r="D281" s="126" t="s">
+        <v>1651</v>
       </c>
       <c r="E281" s="117" t="s">
-        <v>2067</v>
+        <v>1672</v>
       </c>
       <c r="F281" s="126"/>
       <c r="G281" s="126"/>
       <c r="H281" s="126"/>
-      <c r="I281" s="148"/>
+      <c r="I281" s="148">
+        <v>0.64583333333333337</v>
+      </c>
       <c r="J281" s="117"/>
       <c r="K281" s="114"/>
     </row>
@@ -32011,20 +32021,16 @@
         <v>1712</v>
       </c>
       <c r="C282" s="154">
-        <v>45640</v>
-      </c>
-      <c r="D282" s="126" t="s">
-        <v>1673</v>
+        <v>45636</v>
+      </c>
+      <c r="D282" s="134" t="s">
+        <v>1643</v>
       </c>
       <c r="E282" s="117" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F282" s="126" t="s">
-        <v>2065</v>
-      </c>
-      <c r="G282" s="126" t="s">
-        <v>2066</v>
-      </c>
+        <v>2067</v>
+      </c>
+      <c r="F282" s="126"/>
+      <c r="G282" s="126"/>
       <c r="H282" s="126"/>
       <c r="I282" s="148"/>
       <c r="J282" s="117"/>
@@ -32038,19 +32044,19 @@
         <v>1712</v>
       </c>
       <c r="C283" s="154">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="D283" s="126" t="s">
-        <v>1669</v>
+        <v>1673</v>
       </c>
       <c r="E283" s="117" t="s">
-        <v>1884</v>
+        <v>1674</v>
       </c>
       <c r="F283" s="126" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="G283" s="126" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="H283" s="126"/>
       <c r="I283" s="148"/>
@@ -32061,24 +32067,26 @@
       <c r="A284" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B284" s="118" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C284" s="159">
-        <v>45648</v>
+      <c r="B284" s="120" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C284" s="154">
+        <v>45641</v>
       </c>
       <c r="D284" s="126" t="s">
-        <v>1666</v>
+        <v>1669</v>
       </c>
       <c r="E284" s="117" t="s">
-        <v>1675</v>
-      </c>
-      <c r="F284" s="126"/>
-      <c r="G284" s="126"/>
+        <v>1884</v>
+      </c>
+      <c r="F284" s="126" t="s">
+        <v>2068</v>
+      </c>
+      <c r="G284" s="126" t="s">
+        <v>2069</v>
+      </c>
       <c r="H284" s="126"/>
-      <c r="I284" s="148">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="I284" s="148"/>
       <c r="J284" s="117"/>
       <c r="K284" s="114"/>
     </row>
@@ -32086,47 +32094,49 @@
       <c r="A285" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B285" s="121" t="s">
-        <v>1637</v>
+      <c r="B285" s="118" t="s">
+        <v>1642</v>
       </c>
       <c r="C285" s="159">
-        <v>45649</v>
-      </c>
-      <c r="D285" s="114" t="s">
-        <v>1676</v>
+        <v>45648</v>
+      </c>
+      <c r="D285" s="126" t="s">
+        <v>1666</v>
       </c>
       <c r="E285" s="117" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="F285" s="126"/>
       <c r="G285" s="126"/>
       <c r="H285" s="126"/>
       <c r="I285" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J285" s="117"/>
-      <c r="K285" s="125"/>
+      <c r="K285" s="114"/>
     </row>
     <row r="286" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B286" s="141" t="s">
-        <v>1657</v>
+      <c r="B286" s="121" t="s">
+        <v>1637</v>
       </c>
       <c r="C286" s="159">
         <v>45649</v>
       </c>
-      <c r="D286" s="117" t="s">
-        <v>1658</v>
+      <c r="D286" s="114" t="s">
+        <v>1676</v>
       </c>
       <c r="E286" s="117" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F286" s="126"/>
       <c r="G286" s="126"/>
       <c r="H286" s="126"/>
-      <c r="I286" s="148"/>
+      <c r="I286" s="148">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="J286" s="117"/>
       <c r="K286" s="125"/>
     </row>
@@ -32134,17 +32144,17 @@
       <c r="A287" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B287" s="120" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C287" s="154">
-        <v>45653</v>
-      </c>
-      <c r="D287" s="134" t="s">
-        <v>1643</v>
+      <c r="B287" s="141" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C287" s="159">
+        <v>45649</v>
+      </c>
+      <c r="D287" s="117" t="s">
+        <v>1658</v>
       </c>
       <c r="E287" s="117" t="s">
-        <v>2070</v>
+        <v>1678</v>
       </c>
       <c r="F287" s="126"/>
       <c r="G287" s="126"/>
@@ -32157,24 +32167,22 @@
       <c r="A288" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B288" s="127" t="s">
-        <v>1670</v>
+      <c r="B288" s="120" t="s">
+        <v>1712</v>
       </c>
       <c r="C288" s="154">
-        <v>45655</v>
-      </c>
-      <c r="D288" s="126" t="s">
-        <v>1651</v>
+        <v>45653</v>
+      </c>
+      <c r="D288" s="134" t="s">
+        <v>1643</v>
       </c>
       <c r="E288" s="117" t="s">
-        <v>1671</v>
+        <v>2070</v>
       </c>
       <c r="F288" s="126"/>
       <c r="G288" s="126"/>
       <c r="H288" s="126"/>
-      <c r="I288" s="148">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="I288" s="148"/>
       <c r="J288" s="117"/>
       <c r="K288" s="125"/>
     </row>
@@ -32183,22 +32191,22 @@
         <v>1636</v>
       </c>
       <c r="B289" s="127" t="s">
-        <v>1953</v>
+        <v>1670</v>
       </c>
       <c r="C289" s="154">
-        <v>45657</v>
-      </c>
-      <c r="D289" s="117" t="s">
-        <v>1742</v>
+        <v>45655</v>
+      </c>
+      <c r="D289" s="126" t="s">
+        <v>1651</v>
       </c>
       <c r="E289" s="117" t="s">
-        <v>1660</v>
+        <v>1671</v>
       </c>
       <c r="F289" s="126"/>
       <c r="G289" s="126"/>
       <c r="H289" s="126"/>
       <c r="I289" s="148">
-        <v>0.8125</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J289" s="117"/>
       <c r="K289" s="125"/>
@@ -32207,26 +32215,24 @@
       <c r="A290" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B290" s="120" t="s">
-        <v>1712</v>
+      <c r="B290" s="127" t="s">
+        <v>1953</v>
       </c>
       <c r="C290" s="154">
-        <v>45661</v>
+        <v>45657</v>
       </c>
       <c r="D290" s="117" t="s">
-        <v>1683</v>
+        <v>1742</v>
       </c>
       <c r="E290" s="117" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F290" s="126" t="s">
-        <v>2071</v>
-      </c>
-      <c r="G290" s="126" t="s">
-        <v>1875</v>
-      </c>
+        <v>1660</v>
+      </c>
+      <c r="F290" s="126"/>
+      <c r="G290" s="126"/>
       <c r="H290" s="126"/>
-      <c r="I290" s="148"/>
+      <c r="I290" s="148">
+        <v>0.8125</v>
+      </c>
       <c r="J290" s="117"/>
       <c r="K290" s="125"/>
     </row>
@@ -32238,19 +32244,19 @@
         <v>1712</v>
       </c>
       <c r="C291" s="154">
-        <v>45669</v>
+        <v>45661</v>
       </c>
       <c r="D291" s="117" t="s">
-        <v>1666</v>
+        <v>1683</v>
       </c>
       <c r="E291" s="117" t="s">
-        <v>1697</v>
+        <v>1686</v>
       </c>
       <c r="F291" s="126" t="s">
-        <v>2072</v>
+        <v>2071</v>
       </c>
       <c r="G291" s="126" t="s">
-        <v>1860</v>
+        <v>1875</v>
       </c>
       <c r="H291" s="126"/>
       <c r="I291" s="148"/>
@@ -32265,46 +32271,46 @@
         <v>1712</v>
       </c>
       <c r="C292" s="154">
-        <v>45675</v>
+        <v>45669</v>
       </c>
       <c r="D292" s="117" t="s">
-        <v>1742</v>
+        <v>1666</v>
       </c>
       <c r="E292" s="117" t="s">
-        <v>1935</v>
-      </c>
-      <c r="F292" s="126"/>
-      <c r="G292" s="126"/>
+        <v>1697</v>
+      </c>
+      <c r="F292" s="126" t="s">
+        <v>2072</v>
+      </c>
+      <c r="G292" s="126" t="s">
+        <v>1860</v>
+      </c>
       <c r="H292" s="126"/>
-      <c r="I292" s="115"/>
+      <c r="I292" s="148"/>
       <c r="J292" s="117"/>
-      <c r="K292" s="114"/>
+      <c r="K292" s="125"/>
     </row>
     <row r="293" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B293" s="118" t="s">
-        <v>1642</v>
-      </c>
-      <c r="C293" s="159">
-        <v>45682</v>
-      </c>
-      <c r="D293" s="126" t="s">
-        <v>1660</v>
+      <c r="B293" s="120" t="s">
+        <v>1712</v>
+      </c>
+      <c r="C293" s="154">
+        <v>45675</v>
+      </c>
+      <c r="D293" s="117" t="s">
+        <v>1742</v>
       </c>
       <c r="E293" s="117" t="s">
-        <v>1679</v>
+        <v>1935</v>
       </c>
       <c r="F293" s="126"/>
       <c r="G293" s="126"/>
       <c r="H293" s="126"/>
-      <c r="I293" s="148">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J293" s="117" t="s">
-        <v>1988</v>
-      </c>
+      <c r="I293" s="115"/>
+      <c r="J293" s="117"/>
       <c r="K293" s="114"/>
     </row>
     <row r="294" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -32315,22 +32321,22 @@
         <v>1642</v>
       </c>
       <c r="C294" s="159">
-        <v>45683</v>
+        <v>45682</v>
       </c>
       <c r="D294" s="126" t="s">
         <v>1660</v>
       </c>
       <c r="E294" s="117" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="F294" s="126"/>
       <c r="G294" s="126"/>
       <c r="H294" s="126"/>
       <c r="I294" s="148">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J294" s="117" t="s">
-        <v>1681</v>
+        <v>1988</v>
       </c>
       <c r="K294" s="114"/>
     </row>
@@ -32338,78 +32344,80 @@
       <c r="A295" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B295" s="120" t="s">
-        <v>1712</v>
-      </c>
-      <c r="C295" s="154">
-        <v>45686</v>
+      <c r="B295" s="118" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C295" s="159">
+        <v>45683</v>
       </c>
       <c r="D295" s="126" t="s">
         <v>1660</v>
       </c>
       <c r="E295" s="117" t="s">
-        <v>2073</v>
-      </c>
-      <c r="F295" s="125" t="s">
-        <v>1833</v>
-      </c>
-      <c r="G295" s="126" t="s">
-        <v>1860</v>
-      </c>
+        <v>1680</v>
+      </c>
+      <c r="F295" s="126"/>
+      <c r="G295" s="126"/>
       <c r="H295" s="126"/>
-      <c r="I295" s="148"/>
-      <c r="J295" s="117"/>
+      <c r="I295" s="148">
+        <v>0.75</v>
+      </c>
+      <c r="J295" s="117" t="s">
+        <v>1681</v>
+      </c>
       <c r="K295" s="114"/>
     </row>
     <row r="296" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B296" s="121" t="s">
-        <v>1637</v>
+      <c r="B296" s="120" t="s">
+        <v>1712</v>
       </c>
       <c r="C296" s="154">
-        <v>45690</v>
-      </c>
-      <c r="D296" s="117" t="s">
+        <v>45686</v>
+      </c>
+      <c r="D296" s="126" t="s">
         <v>1660</v>
       </c>
       <c r="E296" s="117" t="s">
-        <v>1661</v>
-      </c>
-      <c r="F296" s="126"/>
-      <c r="G296" s="126"/>
+        <v>2073</v>
+      </c>
+      <c r="F296" s="125" t="s">
+        <v>1833</v>
+      </c>
+      <c r="G296" s="126" t="s">
+        <v>1860</v>
+      </c>
       <c r="H296" s="126"/>
-      <c r="I296" s="148">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="I296" s="148"/>
       <c r="J296" s="117"/>
-      <c r="K296" s="125"/>
+      <c r="K296" s="114"/>
     </row>
     <row r="297" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B297" s="118" t="s">
-        <v>1642</v>
+      <c r="B297" s="121" t="s">
+        <v>1637</v>
       </c>
       <c r="C297" s="154">
         <v>45690</v>
       </c>
-      <c r="D297" s="126" t="s">
-        <v>1669</v>
+      <c r="D297" s="117" t="s">
+        <v>1660</v>
       </c>
       <c r="E297" s="117" t="s">
-        <v>1682</v>
+        <v>1661</v>
       </c>
       <c r="F297" s="126"/>
       <c r="G297" s="126"/>
       <c r="H297" s="126"/>
       <c r="I297" s="148">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J297" s="117"/>
-      <c r="K297" s="114"/>
+      <c r="K297" s="125"/>
     </row>
     <row r="298" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="113" t="s">
@@ -32419,124 +32427,124 @@
         <v>1642</v>
       </c>
       <c r="C298" s="154">
-        <v>45709</v>
+        <v>45690</v>
       </c>
       <c r="D298" s="126" t="s">
-        <v>1683</v>
+        <v>1669</v>
       </c>
       <c r="E298" s="117" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="F298" s="126"/>
       <c r="G298" s="126"/>
       <c r="H298" s="126"/>
       <c r="I298" s="148">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J298" s="117" t="s">
-        <v>1685</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="J298" s="117"/>
       <c r="K298" s="114"/>
     </row>
     <row r="299" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B299" s="141" t="s">
-        <v>1657</v>
+      <c r="B299" s="118" t="s">
+        <v>1642</v>
       </c>
       <c r="C299" s="154">
-        <v>45711</v>
-      </c>
-      <c r="D299" s="117" t="s">
+        <v>45709</v>
+      </c>
+      <c r="D299" s="126" t="s">
         <v>1683</v>
       </c>
-      <c r="E299" s="114" t="s">
-        <v>1686</v>
-      </c>
-      <c r="F299" s="125"/>
-      <c r="G299" s="125"/>
-      <c r="H299" s="125"/>
+      <c r="E299" s="117" t="s">
+        <v>1684</v>
+      </c>
+      <c r="F299" s="126"/>
+      <c r="G299" s="126"/>
+      <c r="H299" s="126"/>
       <c r="I299" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J299" s="117"/>
-      <c r="K299" s="147" t="s">
-        <v>1989</v>
-      </c>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J299" s="117" t="s">
+        <v>1685</v>
+      </c>
+      <c r="K299" s="114"/>
     </row>
     <row r="300" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B300" s="121" t="s">
-        <v>1637</v>
+      <c r="B300" s="141" t="s">
+        <v>1657</v>
       </c>
       <c r="C300" s="154">
-        <v>45738</v>
+        <v>45711</v>
       </c>
       <c r="D300" s="117" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E300" s="117" t="s">
-        <v>1680</v>
-      </c>
-      <c r="F300" s="126"/>
-      <c r="G300" s="126"/>
-      <c r="H300" s="126"/>
+        <v>1683</v>
+      </c>
+      <c r="E300" s="114" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F300" s="125"/>
+      <c r="G300" s="125"/>
+      <c r="H300" s="125"/>
       <c r="I300" s="148">
         <v>0.75</v>
       </c>
       <c r="J300" s="117"/>
-      <c r="K300" s="125"/>
+      <c r="K300" s="147" t="s">
+        <v>1989</v>
+      </c>
     </row>
     <row r="301" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B301" s="120" t="s">
-        <v>1712</v>
+      <c r="B301" s="121" t="s">
+        <v>1637</v>
       </c>
       <c r="C301" s="154">
-        <v>45739</v>
+        <v>45738</v>
       </c>
       <c r="D301" s="117" t="s">
-        <v>1742</v>
+        <v>1660</v>
       </c>
       <c r="E301" s="117" t="s">
-        <v>1936</v>
+        <v>1680</v>
       </c>
       <c r="F301" s="126"/>
       <c r="G301" s="126"/>
       <c r="H301" s="126"/>
-      <c r="I301" s="115"/>
+      <c r="I301" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J301" s="117"/>
-      <c r="K301" s="117"/>
+      <c r="K301" s="125"/>
     </row>
     <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B302" s="118" t="s">
-        <v>1642</v>
+      <c r="B302" s="120" t="s">
+        <v>1712</v>
       </c>
       <c r="C302" s="154">
-        <v>45745</v>
-      </c>
-      <c r="D302" s="114" t="s">
-        <v>1676</v>
+        <v>45739</v>
+      </c>
+      <c r="D302" s="117" t="s">
+        <v>1742</v>
       </c>
       <c r="E302" s="117" t="s">
-        <v>1687</v>
+        <v>1936</v>
       </c>
       <c r="F302" s="126"/>
       <c r="G302" s="126"/>
       <c r="H302" s="126"/>
-      <c r="I302" s="148">
-        <v>0.8125</v>
-      </c>
+      <c r="I302" s="115"/>
       <c r="J302" s="117"/>
-      <c r="K302" s="114"/>
+      <c r="K302" s="117"/>
     </row>
     <row r="303" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="113" t="s">
@@ -32546,19 +32554,19 @@
         <v>1642</v>
       </c>
       <c r="C303" s="154">
-        <v>45746</v>
-      </c>
-      <c r="D303" s="126" t="s">
-        <v>1651</v>
+        <v>45745</v>
+      </c>
+      <c r="D303" s="114" t="s">
+        <v>1676</v>
       </c>
       <c r="E303" s="117" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="F303" s="126"/>
       <c r="G303" s="126"/>
       <c r="H303" s="126"/>
       <c r="I303" s="148">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="J303" s="117"/>
       <c r="K303" s="114"/>
@@ -32567,30 +32575,26 @@
       <c r="A304" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B304" s="140" t="s">
-        <v>1662</v>
+      <c r="B304" s="118" t="s">
+        <v>1642</v>
       </c>
       <c r="C304" s="154">
-        <v>45751</v>
+        <v>45746</v>
       </c>
       <c r="D304" s="126" t="s">
-        <v>1649</v>
+        <v>1651</v>
       </c>
       <c r="E304" s="117" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="F304" s="126"/>
       <c r="G304" s="126"/>
       <c r="H304" s="126"/>
       <c r="I304" s="148">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J304" s="117" t="s">
-        <v>1665</v>
-      </c>
-      <c r="K304" s="131" t="s">
-        <v>1990</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="J304" s="117"/>
+      <c r="K304" s="114"/>
     </row>
     <row r="305" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="113" t="s">
@@ -32600,80 +32604,82 @@
         <v>1662</v>
       </c>
       <c r="C305" s="154">
-        <v>45752</v>
+        <v>45751</v>
       </c>
       <c r="D305" s="126" t="s">
-        <v>1673</v>
+        <v>1649</v>
       </c>
       <c r="E305" s="117" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="F305" s="126"/>
       <c r="G305" s="126"/>
       <c r="H305" s="126"/>
       <c r="I305" s="148">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J305" s="117" t="s">
         <v>1665</v>
       </c>
       <c r="K305" s="131" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="306" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B306" s="141" t="s">
-        <v>1657</v>
+      <c r="B306" s="140" t="s">
+        <v>1662</v>
       </c>
       <c r="C306" s="154">
-        <v>45753</v>
-      </c>
-      <c r="D306" s="117" t="s">
-        <v>1658</v>
+        <v>45752</v>
+      </c>
+      <c r="D306" s="126" t="s">
+        <v>1673</v>
       </c>
       <c r="E306" s="117" t="s">
-        <v>1691</v>
+        <v>1690</v>
       </c>
       <c r="F306" s="126"/>
       <c r="G306" s="126"/>
       <c r="H306" s="126"/>
       <c r="I306" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J306" s="117"/>
-      <c r="K306" s="147" t="s">
-        <v>1992</v>
+        <v>0.8125</v>
+      </c>
+      <c r="J306" s="117" t="s">
+        <v>1665</v>
+      </c>
+      <c r="K306" s="131" t="s">
+        <v>1991</v>
       </c>
     </row>
     <row r="307" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B307" s="118" t="s">
-        <v>1642</v>
+      <c r="B307" s="141" t="s">
+        <v>1657</v>
       </c>
       <c r="C307" s="154">
-        <v>45767</v>
-      </c>
-      <c r="D307" s="126" t="s">
-        <v>1666</v>
+        <v>45753</v>
+      </c>
+      <c r="D307" s="117" t="s">
+        <v>1658</v>
       </c>
       <c r="E307" s="117" t="s">
-        <v>1692</v>
+        <v>1691</v>
       </c>
       <c r="F307" s="126"/>
       <c r="G307" s="126"/>
       <c r="H307" s="126"/>
       <c r="I307" s="148">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J307" s="117" t="s">
-        <v>1693</v>
-      </c>
-      <c r="K307" s="114"/>
+        <v>0.75</v>
+      </c>
+      <c r="J307" s="117"/>
+      <c r="K307" s="147" t="s">
+        <v>1992</v>
+      </c>
     </row>
     <row r="308" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="113" t="s">
@@ -32683,47 +32689,49 @@
         <v>1642</v>
       </c>
       <c r="C308" s="154">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="D308" s="126" t="s">
-        <v>1669</v>
+        <v>1666</v>
       </c>
       <c r="E308" s="117" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="F308" s="126"/>
       <c r="G308" s="126"/>
       <c r="H308" s="126"/>
       <c r="I308" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J308" s="117"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J308" s="117" t="s">
+        <v>1693</v>
+      </c>
       <c r="K308" s="114"/>
     </row>
     <row r="309" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B309" s="127" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C309" s="159">
-        <v>45773</v>
+      <c r="B309" s="118" t="s">
+        <v>1642</v>
+      </c>
+      <c r="C309" s="154">
+        <v>45768</v>
       </c>
       <c r="D309" s="126" t="s">
         <v>1669</v>
       </c>
       <c r="E309" s="117" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F309" s="126"/>
       <c r="G309" s="126"/>
       <c r="H309" s="126"/>
-      <c r="I309" s="148"/>
+      <c r="I309" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J309" s="117"/>
-      <c r="K309" s="131" t="s">
-        <v>1993</v>
-      </c>
+      <c r="K309" s="114"/>
     </row>
     <row r="310" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="113" t="s">
@@ -32733,182 +32741,180 @@
         <v>1670</v>
       </c>
       <c r="C310" s="159">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="D310" s="126" t="s">
         <v>1669</v>
       </c>
       <c r="E310" s="117" t="s">
-        <v>1694</v>
+        <v>1695</v>
       </c>
       <c r="F310" s="126"/>
       <c r="G310" s="126"/>
       <c r="H310" s="126"/>
-      <c r="I310" s="148">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="I310" s="148"/>
       <c r="J310" s="117"/>
-      <c r="K310" s="114" t="s">
-        <v>1994</v>
+      <c r="K310" s="131" t="s">
+        <v>1993</v>
       </c>
     </row>
     <row r="311" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B311" s="121" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C311" s="154">
-        <v>45785</v>
-      </c>
-      <c r="D311" s="117" t="s">
-        <v>1651</v>
+      <c r="B311" s="127" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C311" s="159">
+        <v>45774</v>
+      </c>
+      <c r="D311" s="126" t="s">
+        <v>1669</v>
       </c>
       <c r="E311" s="117" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="F311" s="126"/>
       <c r="G311" s="126"/>
       <c r="H311" s="126"/>
       <c r="I311" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J311" s="117"/>
-      <c r="K311" s="125"/>
+      <c r="K311" s="114" t="s">
+        <v>1994</v>
+      </c>
     </row>
     <row r="312" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B312" s="118" t="s">
-        <v>1642</v>
+      <c r="B312" s="121" t="s">
+        <v>1637</v>
       </c>
       <c r="C312" s="154">
-        <v>45781</v>
-      </c>
-      <c r="D312" s="126" t="s">
-        <v>1666</v>
+        <v>45785</v>
+      </c>
+      <c r="D312" s="117" t="s">
+        <v>1651</v>
       </c>
       <c r="E312" s="117" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F312" s="126"/>
       <c r="G312" s="126"/>
       <c r="H312" s="126"/>
       <c r="I312" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J312" s="117" t="s">
-        <v>1698</v>
-      </c>
-      <c r="K312" s="114"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J312" s="117"/>
+      <c r="K312" s="125"/>
     </row>
     <row r="313" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B313" s="141" t="s">
-        <v>1657</v>
+      <c r="B313" s="118" t="s">
+        <v>1642</v>
       </c>
       <c r="C313" s="154">
-        <v>45788</v>
-      </c>
-      <c r="D313" s="117" t="s">
-        <v>1683</v>
+        <v>45781</v>
+      </c>
+      <c r="D313" s="126" t="s">
+        <v>1666</v>
       </c>
       <c r="E313" s="117" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="F313" s="126"/>
       <c r="G313" s="126"/>
       <c r="H313" s="126"/>
       <c r="I313" s="148">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J313" s="117"/>
-      <c r="K313" s="117" t="s">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+      <c r="J313" s="117" t="s">
+        <v>1698</v>
+      </c>
+      <c r="K313" s="114"/>
+    </row>
+    <row r="314" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B314" s="118" t="s">
-        <v>1642</v>
+      <c r="B314" s="141" t="s">
+        <v>1657</v>
       </c>
       <c r="C314" s="154">
-        <v>45795</v>
-      </c>
-      <c r="D314" s="126" t="s">
-        <v>1651</v>
+        <v>45788</v>
+      </c>
+      <c r="D314" s="117" t="s">
+        <v>1683</v>
       </c>
       <c r="E314" s="117" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="F314" s="126"/>
       <c r="G314" s="126"/>
       <c r="H314" s="126"/>
       <c r="I314" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J314" s="150" t="s">
-        <v>1996</v>
-      </c>
-      <c r="K314" s="114"/>
-    </row>
-    <row r="315" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J314" s="117"/>
+      <c r="K314" s="117" t="s">
+        <v>1995</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B315" s="121" t="s">
-        <v>1637</v>
+      <c r="B315" s="118" t="s">
+        <v>1642</v>
       </c>
       <c r="C315" s="154">
         <v>45795</v>
       </c>
-      <c r="D315" s="117" t="s">
+      <c r="D315" s="126" t="s">
         <v>1651</v>
       </c>
       <c r="E315" s="117" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F315" s="126"/>
       <c r="G315" s="126"/>
       <c r="H315" s="126"/>
       <c r="I315" s="148">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J315" s="117"/>
-      <c r="K315" s="125"/>
+        <v>0.75</v>
+      </c>
+      <c r="J315" s="150" t="s">
+        <v>1996</v>
+      </c>
+      <c r="K315" s="114"/>
     </row>
     <row r="316" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B316" s="127" t="s">
-        <v>1670</v>
-      </c>
-      <c r="C316" s="159">
-        <v>45800</v>
-      </c>
-      <c r="D316" s="126" t="s">
-        <v>1669</v>
+      <c r="B316" s="121" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C316" s="154">
+        <v>45795</v>
+      </c>
+      <c r="D316" s="117" t="s">
+        <v>1651</v>
       </c>
       <c r="E316" s="117" t="s">
-        <v>1694</v>
+        <v>1701</v>
       </c>
       <c r="F316" s="126"/>
       <c r="G316" s="126"/>
       <c r="H316" s="126"/>
       <c r="I316" s="148">
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J316" s="117"/>
-      <c r="K316" s="114" t="s">
-        <v>1994</v>
-      </c>
+      <c r="K316" s="125"/>
     </row>
     <row r="317" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="113" t="s">
@@ -32918,72 +32924,76 @@
         <v>1670</v>
       </c>
       <c r="C317" s="159">
-        <v>45801</v>
-      </c>
-      <c r="D317" s="117" t="s">
-        <v>1666</v>
+        <v>45800</v>
+      </c>
+      <c r="D317" s="126" t="s">
+        <v>1669</v>
       </c>
       <c r="E317" s="117" t="s">
-        <v>1692</v>
+        <v>1694</v>
       </c>
       <c r="F317" s="126"/>
       <c r="G317" s="126"/>
       <c r="H317" s="126"/>
       <c r="I317" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J317" s="117"/>
-      <c r="K317" s="131" t="s">
-        <v>1997</v>
+      <c r="K317" s="114" t="s">
+        <v>1994</v>
       </c>
     </row>
     <row r="318" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B318" s="121" t="s">
-        <v>1637</v>
-      </c>
-      <c r="C318" s="154">
-        <v>45807</v>
+      <c r="B318" s="127" t="s">
+        <v>1670</v>
+      </c>
+      <c r="C318" s="159">
+        <v>45801</v>
       </c>
       <c r="D318" s="117" t="s">
-        <v>1702</v>
+        <v>1666</v>
       </c>
       <c r="E318" s="117" t="s">
-        <v>1703</v>
+        <v>1692</v>
       </c>
       <c r="F318" s="126"/>
       <c r="G318" s="126"/>
       <c r="H318" s="126"/>
       <c r="I318" s="148">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J318" s="117"/>
-      <c r="K318" s="125"/>
+      <c r="K318" s="131" t="s">
+        <v>1997</v>
+      </c>
     </row>
     <row r="319" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B319" s="120" t="s">
-        <v>1712</v>
+      <c r="B319" s="121" t="s">
+        <v>1637</v>
       </c>
       <c r="C319" s="154">
-        <v>45811</v>
-      </c>
-      <c r="D319" s="136" t="s">
-        <v>1643</v>
+        <v>45807</v>
+      </c>
+      <c r="D319" s="117" t="s">
+        <v>1702</v>
       </c>
       <c r="E319" s="117" t="s">
-        <v>1785</v>
+        <v>1703</v>
       </c>
       <c r="F319" s="126"/>
       <c r="G319" s="126"/>
       <c r="H319" s="126"/>
-      <c r="I319" s="115"/>
+      <c r="I319" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J319" s="117"/>
-      <c r="K319" s="117"/>
+      <c r="K319" s="125"/>
     </row>
     <row r="320" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="113" t="s">
@@ -32993,7 +33003,7 @@
         <v>1712</v>
       </c>
       <c r="C320" s="154">
-        <v>45814</v>
+        <v>45811</v>
       </c>
       <c r="D320" s="136" t="s">
         <v>1643</v>
@@ -33016,13 +33026,13 @@
         <v>1712</v>
       </c>
       <c r="C321" s="154">
-        <v>45816</v>
+        <v>45814</v>
       </c>
       <c r="D321" s="136" t="s">
         <v>1643</v>
       </c>
       <c r="E321" s="117" t="s">
-        <v>1852</v>
+        <v>1785</v>
       </c>
       <c r="F321" s="126"/>
       <c r="G321" s="126"/>
@@ -33035,67 +33045,65 @@
       <c r="A322" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B322" s="121" t="s">
-        <v>1637</v>
+      <c r="B322" s="120" t="s">
+        <v>1712</v>
       </c>
       <c r="C322" s="154">
-        <v>45829</v>
-      </c>
-      <c r="D322" s="117" t="s">
-        <v>1704</v>
+        <v>45816</v>
+      </c>
+      <c r="D322" s="136" t="s">
+        <v>1643</v>
       </c>
       <c r="E322" s="117" t="s">
-        <v>1705</v>
+        <v>1852</v>
       </c>
       <c r="F322" s="126"/>
       <c r="G322" s="126"/>
       <c r="H322" s="126"/>
-      <c r="I322" s="148">
-        <v>0.75</v>
-      </c>
+      <c r="I322" s="115"/>
       <c r="J322" s="117"/>
-      <c r="K322" s="125"/>
+      <c r="K322" s="117"/>
     </row>
     <row r="323" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B323" s="118" t="s">
-        <v>1642</v>
+      <c r="B323" s="121" t="s">
+        <v>1637</v>
       </c>
       <c r="C323" s="154">
-        <v>45830</v>
-      </c>
-      <c r="D323" s="126" t="s">
-        <v>1669</v>
+        <v>45829</v>
+      </c>
+      <c r="D323" s="117" t="s">
+        <v>1704</v>
       </c>
       <c r="E323" s="117" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="F323" s="126"/>
       <c r="G323" s="126"/>
       <c r="H323" s="126"/>
       <c r="I323" s="148">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="J323" s="117"/>
-      <c r="K323" s="114"/>
+      <c r="K323" s="125"/>
     </row>
     <row r="324" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B324" s="141" t="s">
-        <v>1657</v>
+      <c r="B324" s="118" t="s">
+        <v>1642</v>
       </c>
       <c r="C324" s="154">
-        <v>45833</v>
-      </c>
-      <c r="D324" s="117" t="s">
-        <v>1658</v>
+        <v>45830</v>
+      </c>
+      <c r="D324" s="126" t="s">
+        <v>1669</v>
       </c>
       <c r="E324" s="117" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="F324" s="126"/>
       <c r="G324" s="126"/>
@@ -33104,32 +33112,34 @@
         <v>0.8125</v>
       </c>
       <c r="J324" s="117"/>
-      <c r="K324" s="147" t="s">
-        <v>1998</v>
-      </c>
+      <c r="K324" s="114"/>
     </row>
     <row r="325" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B325" s="120" t="s">
-        <v>1712</v>
+      <c r="B325" s="141" t="s">
+        <v>1657</v>
       </c>
       <c r="C325" s="154">
-        <v>45840</v>
-      </c>
-      <c r="D325" s="126" t="s">
-        <v>1683</v>
+        <v>45833</v>
+      </c>
+      <c r="D325" s="117" t="s">
+        <v>1658</v>
       </c>
       <c r="E325" s="117" t="s">
-        <v>1723</v>
+        <v>1707</v>
       </c>
       <c r="F325" s="126"/>
       <c r="G325" s="126"/>
       <c r="H325" s="126"/>
-      <c r="I325" s="146"/>
+      <c r="I325" s="148">
+        <v>0.8125</v>
+      </c>
       <c r="J325" s="117"/>
-      <c r="K325" s="138"/>
+      <c r="K325" s="147" t="s">
+        <v>1998</v>
+      </c>
     </row>
     <row r="326" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="113" t="s">
@@ -33139,20 +33149,20 @@
         <v>1712</v>
       </c>
       <c r="C326" s="154">
-        <v>45844</v>
-      </c>
-      <c r="D326" s="136" t="s">
-        <v>1643</v>
+        <v>45840</v>
+      </c>
+      <c r="D326" s="126" t="s">
+        <v>1683</v>
       </c>
       <c r="E326" s="117" t="s">
-        <v>1937</v>
+        <v>1723</v>
       </c>
       <c r="F326" s="126"/>
       <c r="G326" s="126"/>
       <c r="H326" s="126"/>
-      <c r="I326" s="115"/>
+      <c r="I326" s="146"/>
       <c r="J326" s="117"/>
-      <c r="K326" s="117"/>
+      <c r="K326" s="138"/>
     </row>
     <row r="327" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="113" t="s">
@@ -33162,13 +33172,13 @@
         <v>1712</v>
       </c>
       <c r="C327" s="154">
-        <v>45853</v>
+        <v>45844</v>
       </c>
       <c r="D327" s="136" t="s">
         <v>1643</v>
       </c>
       <c r="E327" s="117" t="s">
-        <v>1865</v>
+        <v>1937</v>
       </c>
       <c r="F327" s="126"/>
       <c r="G327" s="126"/>
@@ -33185,13 +33195,13 @@
         <v>1712</v>
       </c>
       <c r="C328" s="154">
-        <v>45858</v>
+        <v>45853</v>
       </c>
       <c r="D328" s="136" t="s">
         <v>1643</v>
       </c>
       <c r="E328" s="117" t="s">
-        <v>1938</v>
+        <v>1865</v>
       </c>
       <c r="F328" s="126"/>
       <c r="G328" s="126"/>
@@ -33204,54 +33214,77 @@
       <c r="A329" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B329" s="118" t="s">
-        <v>1642</v>
+      <c r="B329" s="120" t="s">
+        <v>1712</v>
       </c>
       <c r="C329" s="154">
-        <v>45862</v>
-      </c>
-      <c r="D329" s="126" t="s">
-        <v>1660</v>
+        <v>45858</v>
+      </c>
+      <c r="D329" s="136" t="s">
+        <v>1643</v>
       </c>
       <c r="E329" s="117" t="s">
-        <v>1708</v>
+        <v>1938</v>
       </c>
       <c r="F329" s="126"/>
       <c r="G329" s="126"/>
       <c r="H329" s="126"/>
-      <c r="I329" s="148">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="I329" s="115"/>
       <c r="J329" s="117"/>
-      <c r="K329" s="114"/>
+      <c r="K329" s="117"/>
     </row>
     <row r="330" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="113" t="s">
         <v>1636</v>
       </c>
-      <c r="B330" s="121" t="s">
-        <v>1637</v>
+      <c r="B330" s="118" t="s">
+        <v>1642</v>
       </c>
       <c r="C330" s="154">
-        <v>45863</v>
-      </c>
-      <c r="D330" s="117" t="s">
-        <v>1709</v>
+        <v>45862</v>
+      </c>
+      <c r="D330" s="126" t="s">
+        <v>1660</v>
       </c>
       <c r="E330" s="117" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
       <c r="F330" s="126"/>
       <c r="G330" s="126"/>
       <c r="H330" s="126"/>
       <c r="I330" s="148">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J330" s="117"/>
+      <c r="K330" s="114"/>
+    </row>
+    <row r="331" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A331" s="113" t="s">
+        <v>1636</v>
+      </c>
+      <c r="B331" s="121" t="s">
+        <v>1637</v>
+      </c>
+      <c r="C331" s="154">
+        <v>45863</v>
+      </c>
+      <c r="D331" s="117" t="s">
+        <v>1709</v>
+      </c>
+      <c r="E331" s="117" t="s">
+        <v>1710</v>
+      </c>
+      <c r="F331" s="126"/>
+      <c r="G331" s="126"/>
+      <c r="H331" s="126"/>
+      <c r="I331" s="148">
         <v>0.75</v>
       </c>
-      <c r="J330" s="117"/>
-      <c r="K330" s="125"/>
+      <c r="J331" s="117"/>
+      <c r="K331" s="125"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K330" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
+  <autoFilter ref="A1:K331" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
     <filterColumn colId="0">
       <filters blank="1">
         <filter val="2024-2025"/>
@@ -33267,14 +33300,14 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K270" r:id="rId1" display="https://www.staatsoper-hamburg.de/de/spielplan/stueck.php?AuffNr=221440" xr:uid="{ED1E9297-3292-4B3E-BA05-CADD38C0F7DB}"/>
-    <hyperlink ref="K324" r:id="rId2" display="https://www.komische-oper-berlin.de/en/what/a-z/my-friend-bunbury/" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
+    <hyperlink ref="K325" r:id="rId2" display="https://www.komische-oper-berlin.de/en/what/a-z/my-friend-bunbury/" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
     <hyperlink ref="K269" r:id="rId3" display="https://www.komische-oper-berlin.de/en/what/a-z/chicago/" xr:uid="{B65373E1-DC68-490E-9ED3-F7F5B0A08D59}"/>
-    <hyperlink ref="K306" r:id="rId4" display="https://www.komische-oper-berlin.de/en/what/a-z/la-cage-aux-folles/" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
-    <hyperlink ref="K299" r:id="rId5" display="https://www.komische-oper-berlin.de/en/what/a-z/the-magic-flute/" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
-    <hyperlink ref="K304" r:id="rId6" display="https://www.staatsoper.de/stuecke/la-cenerentola/2025-04-04-1900-14886" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
-    <hyperlink ref="K305" r:id="rId7" display="https://www.staatsoper.de/stuecke/madama-butterfly/2025-04-05-1930-14888" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
-    <hyperlink ref="K309" r:id="rId8" display="https://oper-frankfurt.de/de/spielplan/linvisible/?id_datum=4100" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
-    <hyperlink ref="K317" r:id="rId9" display="https://oper-frankfurt.de/de/spielplan/parsifal/?id_datum=4119" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
+    <hyperlink ref="K307" r:id="rId4" display="https://www.komische-oper-berlin.de/en/what/a-z/la-cage-aux-folles/" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
+    <hyperlink ref="K300" r:id="rId5" display="https://www.komische-oper-berlin.de/en/what/a-z/the-magic-flute/" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
+    <hyperlink ref="K305" r:id="rId6" display="https://www.staatsoper.de/stuecke/la-cenerentola/2025-04-04-1900-14886" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
+    <hyperlink ref="K306" r:id="rId7" display="https://www.staatsoper.de/stuecke/madama-butterfly/2025-04-05-1930-14888" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
+    <hyperlink ref="K310" r:id="rId8" display="https://oper-frankfurt.de/de/spielplan/linvisible/?id_datum=4100" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
+    <hyperlink ref="K318" r:id="rId9" display="https://oper-frankfurt.de/de/spielplan/parsifal/?id_datum=4119" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -33335,28 +33368,6 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>280</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>280</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9243" r:id="rId16" name="Check Box 27">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>281</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
@@ -33373,7 +33384,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9256" r:id="rId17" name="Check Box 40">
+            <control shapeId="9243" r:id="rId16" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -33395,19 +33406,41 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
+            <control shapeId="9256" r:id="rId17" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>283</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>209550</xdr:colOff>
+                    <xdr:row>283</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
             <control shapeId="9257" r:id="rId18" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>286</xdr:row>
+                    <xdr:row>287</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>209550</xdr:colOff>
-                    <xdr:row>286</xdr:row>
+                    <xdr:row>287</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAC466C7-6439-4011-95B4-81FDBDEFD6BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C401E492-DC22-4F0F-941E-334BB7350AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5822" uniqueCount="2105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="2106">
   <si>
     <t>Phase</t>
   </si>
@@ -6527,6 +6527,9 @@
   </si>
   <si>
     <t>Wonderful Wednesdays May 2024 -  Flow Chart</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays April 2024 - Power and sample size calculations</t>
   </si>
 </sst>
 </file>
@@ -7906,18 +7909,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7929,8 +7923,38 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7979,27 +8003,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="38" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="33" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8078,7 +8081,7 @@
                   <a14:compatExt spid="_x0000_s9229"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000D240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000D240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8145,7 +8148,7 @@
                   <a14:compatExt spid="_x0000_s9230"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00000E240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00000E240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8212,7 +8215,7 @@
                   <a14:compatExt spid="_x0000_s9242"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001A240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001A240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8279,7 +8282,7 @@
                   <a14:compatExt spid="_x0000_s9243"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-00001B240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-00001B240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8346,7 +8349,7 @@
                   <a14:compatExt spid="_x0000_s9256"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000028240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000028240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8413,7 +8416,7 @@
                   <a14:compatExt spid="_x0000_s9257"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0500-000029240000}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000029240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8822,12 +8825,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="174" t="s">
+      <c r="A1" s="171" t="s">
         <v>1586</v>
       </c>
-      <c r="B1" s="175"/>
-      <c r="C1" s="175"/>
-      <c r="D1" s="175"/>
+      <c r="B1" s="172"/>
+      <c r="C1" s="172"/>
+      <c r="D1" s="172"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -8836,35 +8839,35 @@
       <c r="A3" s="67" t="s">
         <v>1580</v>
       </c>
-      <c r="B3" s="176">
+      <c r="B3" s="173">
         <v>45520</v>
       </c>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="174" t="s">
         <v>1582</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
+      <c r="B5" s="174"/>
+      <c r="C5" s="174"/>
+      <c r="D5" s="174"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="177"/>
-      <c r="B6" s="177"/>
-      <c r="C6" s="177"/>
-      <c r="D6" s="177"/>
+      <c r="A6" s="175"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1583</v>
       </c>
-      <c r="B7" s="171" t="s">
+      <c r="B7" s="169" t="s">
         <v>1584</v>
       </c>
-      <c r="C7" s="171"/>
-      <c r="D7" s="171"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -8932,12 +8935,12 @@
       <c r="A13" s="76" t="s">
         <v>1587</v>
       </c>
-      <c r="B13" s="171">
+      <c r="B13" s="169">
         <f>COUNTA(Study!A$2:A$1003)</f>
         <v>82</v>
       </c>
-      <c r="C13" s="171"/>
-      <c r="D13" s="171"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -8949,12 +8952,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="171">
+      <c r="B14" s="169">
         <f>COUNTIF(Study!D$1:D$1003,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="171"/>
-      <c r="D14" s="171"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -8964,9 +8967,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="172"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
+      <c r="B15" s="177"/>
+      <c r="C15" s="177"/>
+      <c r="D15" s="177"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -8978,11 +8981,11 @@
       <c r="A16" s="76" t="s">
         <v>1585</v>
       </c>
-      <c r="B16" s="171" t="s">
+      <c r="B16" s="169" t="s">
         <v>1584</v>
       </c>
-      <c r="C16" s="171"/>
-      <c r="D16" s="171"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9144,12 +9147,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="173" t="s">
+      <c r="A27" s="174" t="s">
         <v>1592</v>
       </c>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
+      <c r="B27" s="174"/>
+      <c r="C27" s="174"/>
+      <c r="D27" s="174"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9162,11 +9165,11 @@
       <c r="A29" s="76" t="s">
         <v>1593</v>
       </c>
-      <c r="B29" s="171" t="s">
+      <c r="B29" s="169" t="s">
         <v>1584</v>
       </c>
-      <c r="C29" s="171"/>
-      <c r="D29" s="171"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9216,11 +9219,11 @@
       <c r="A34" s="76" t="s">
         <v>2021</v>
       </c>
-      <c r="B34" s="171" t="s">
+      <c r="B34" s="169" t="s">
         <v>1584</v>
       </c>
-      <c r="C34" s="171"/>
-      <c r="D34" s="171"/>
+      <c r="C34" s="169"/>
+      <c r="D34" s="169"/>
       <c r="L34" s="70"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -9243,31 +9246,21 @@
       <c r="L36" s="70"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="169" t="s">
+      <c r="A38" s="176" t="s">
         <v>1594</v>
       </c>
-      <c r="B38" s="169"/>
-      <c r="C38" s="169"/>
-      <c r="D38" s="169"/>
+      <c r="B38" s="176"/>
+      <c r="C38" s="176"/>
+      <c r="D38" s="176"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="169"/>
-      <c r="B39" s="169"/>
-      <c r="C39" s="169"/>
-      <c r="D39" s="169"/>
+      <c r="A39" s="176"/>
+      <c r="B39" s="176"/>
+      <c r="C39" s="176"/>
+      <c r="D39" s="176"/>
     </row>
   </sheetData>
   <mergeCells count="26">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9284,6 +9277,16 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -12171,7 +12174,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12910,9 +12913,6 @@
       <c r="C44" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D44" s="4" t="s">
-        <v>2104</v>
-      </c>
       <c r="E44" s="4" t="s">
         <v>2075</v>
       </c>
@@ -13062,7 +13062,9 @@
       <c r="C54" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D54" s="4"/>
+      <c r="D54" s="4" t="s">
+        <v>2105</v>
+      </c>
       <c r="E54" s="4" t="s">
         <v>2075</v>
       </c>
@@ -13077,7 +13079,9 @@
       <c r="C55" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="D55" s="4"/>
+      <c r="D55" s="4" t="s">
+        <v>2104</v>
+      </c>
       <c r="E55" s="4" t="s">
         <v>2075</v>
       </c>
@@ -17334,13 +17338,13 @@
       <c r="K142" s="114"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="194" t="s">
+      <c r="A143" s="178" t="s">
         <v>1794</v>
       </c>
-      <c r="B143" s="196" t="s">
+      <c r="B143" s="180" t="s">
         <v>1666</v>
       </c>
-      <c r="C143" s="197">
+      <c r="C143" s="181">
         <v>45050</v>
       </c>
       <c r="D143" s="114" t="s">
@@ -17353,13 +17357,13 @@
       <c r="G143" s="116"/>
       <c r="H143" s="116"/>
       <c r="I143" s="144"/>
-      <c r="J143" s="199"/>
-      <c r="K143" s="194"/>
+      <c r="J143" s="183"/>
+      <c r="K143" s="178"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="195"/>
-      <c r="B144" s="195"/>
-      <c r="C144" s="198"/>
+      <c r="A144" s="179"/>
+      <c r="B144" s="179"/>
+      <c r="C144" s="182"/>
       <c r="D144" s="114"/>
       <c r="E144" s="114" t="s">
         <v>1837</v>
@@ -17368,8 +17372,8 @@
       <c r="G144" s="114"/>
       <c r="H144" s="114"/>
       <c r="I144" s="115"/>
-      <c r="J144" s="200"/>
-      <c r="K144" s="195"/>
+      <c r="J144" s="184"/>
+      <c r="K144" s="179"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="113" t="s">
@@ -22328,7 +22332,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="181" t="s">
+      <c r="A2" s="188" t="s">
         <v>1383</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -22357,7 +22361,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="182"/>
+      <c r="A3" s="189"/>
       <c r="B3" s="44" t="s">
         <v>1386</v>
       </c>
@@ -22384,7 +22388,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="183"/>
+      <c r="A4" s="190"/>
       <c r="B4" s="45" t="s">
         <v>1388</v>
       </c>
@@ -22411,7 +22415,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="183"/>
+      <c r="A5" s="190"/>
       <c r="B5" s="45" t="s">
         <v>1390</v>
       </c>
@@ -22438,7 +22442,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="183"/>
+      <c r="A6" s="190"/>
       <c r="B6" s="45" t="s">
         <v>1392</v>
       </c>
@@ -22465,7 +22469,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="183"/>
+      <c r="A7" s="190"/>
       <c r="B7" s="45" t="s">
         <v>1394</v>
       </c>
@@ -22474,7 +22478,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="184"/>
+      <c r="A8" s="191"/>
       <c r="B8" s="46" t="s">
         <v>1396</v>
       </c>
@@ -22483,7 +22487,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="185" t="s">
+      <c r="A9" s="192" t="s">
         <v>1398</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -22494,7 +22498,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="185"/>
+      <c r="A10" s="192"/>
       <c r="B10" s="47" t="s">
         <v>1401</v>
       </c>
@@ -22503,7 +22507,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="185"/>
+      <c r="A11" s="192"/>
       <c r="B11" s="47" t="s">
         <v>1403</v>
       </c>
@@ -22512,7 +22516,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="186"/>
+      <c r="A12" s="193"/>
       <c r="B12" s="44" t="s">
         <v>1405</v>
       </c>
@@ -22521,7 +22525,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="186"/>
+      <c r="A13" s="193"/>
       <c r="B13" s="44" t="s">
         <v>1407</v>
       </c>
@@ -22530,7 +22534,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="186"/>
+      <c r="A14" s="193"/>
       <c r="B14" s="44" t="s">
         <v>1409</v>
       </c>
@@ -22539,7 +22543,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="186"/>
+      <c r="A15" s="193"/>
       <c r="B15" s="44" t="s">
         <v>1411</v>
       </c>
@@ -22548,7 +22552,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="186"/>
+      <c r="A16" s="193"/>
       <c r="B16" s="44" t="s">
         <v>1413</v>
       </c>
@@ -22557,7 +22561,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="186"/>
+      <c r="A17" s="193"/>
       <c r="B17" s="44" t="s">
         <v>1415</v>
       </c>
@@ -22566,7 +22570,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="186"/>
+      <c r="A18" s="193"/>
       <c r="B18" s="44" t="s">
         <v>1417</v>
       </c>
@@ -22575,7 +22579,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="187"/>
+      <c r="A19" s="194"/>
       <c r="B19" s="48" t="s">
         <v>1419</v>
       </c>
@@ -22584,7 +22588,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="187"/>
+      <c r="A20" s="194"/>
       <c r="B20" s="48" t="s">
         <v>1421</v>
       </c>
@@ -22593,7 +22597,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="187"/>
+      <c r="A21" s="194"/>
       <c r="B21" s="48" t="s">
         <v>1423</v>
       </c>
@@ -22602,7 +22606,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="188"/>
+      <c r="A22" s="195"/>
       <c r="B22" s="49" t="s">
         <v>1425</v>
       </c>
@@ -22611,7 +22615,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="189" t="s">
+      <c r="A23" s="196" t="s">
         <v>1427</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -22622,7 +22626,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="186"/>
+      <c r="A24" s="193"/>
       <c r="B24" s="47" t="s">
         <v>1430</v>
       </c>
@@ -22631,7 +22635,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="186"/>
+      <c r="A25" s="193"/>
       <c r="B25" s="44" t="s">
         <v>1431</v>
       </c>
@@ -22640,7 +22644,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="186"/>
+      <c r="A26" s="193"/>
       <c r="B26" s="44" t="s">
         <v>1432</v>
       </c>
@@ -22649,7 +22653,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="186"/>
+      <c r="A27" s="193"/>
       <c r="B27" s="44" t="s">
         <v>1433</v>
       </c>
@@ -22658,7 +22662,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="186"/>
+      <c r="A28" s="193"/>
       <c r="B28" s="44" t="s">
         <v>1434</v>
       </c>
@@ -22667,7 +22671,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="186"/>
+      <c r="A29" s="193"/>
       <c r="B29" s="51" t="s">
         <v>1435</v>
       </c>
@@ -22676,7 +22680,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="186"/>
+      <c r="A30" s="193"/>
       <c r="B30" s="44" t="s">
         <v>1436</v>
       </c>
@@ -22685,7 +22689,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="186"/>
+      <c r="A31" s="193"/>
       <c r="B31" s="44" t="s">
         <v>1437</v>
       </c>
@@ -22694,7 +22698,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="186"/>
+      <c r="A32" s="193"/>
       <c r="B32" s="44" t="s">
         <v>1438</v>
       </c>
@@ -22703,7 +22707,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="186"/>
+      <c r="A33" s="193"/>
       <c r="B33" s="44" t="s">
         <v>1439</v>
       </c>
@@ -22712,7 +22716,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="186"/>
+      <c r="A34" s="193"/>
       <c r="B34" s="44" t="s">
         <v>1440</v>
       </c>
@@ -22721,7 +22725,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="186"/>
+      <c r="A35" s="193"/>
       <c r="B35" s="44" t="s">
         <v>1441</v>
       </c>
@@ -22730,7 +22734,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="186"/>
+      <c r="A36" s="193"/>
       <c r="B36" s="44" t="s">
         <v>1442</v>
       </c>
@@ -22739,7 +22743,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="186"/>
+      <c r="A37" s="193"/>
       <c r="B37" s="44" t="s">
         <v>1443</v>
       </c>
@@ -22748,7 +22752,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="186"/>
+      <c r="A38" s="193"/>
       <c r="B38" s="44" t="s">
         <v>1444</v>
       </c>
@@ -22757,7 +22761,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="186"/>
+      <c r="A39" s="193"/>
       <c r="B39" s="44" t="s">
         <v>1445</v>
       </c>
@@ -22766,7 +22770,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="186"/>
+      <c r="A40" s="193"/>
       <c r="B40" s="44" t="s">
         <v>1446</v>
       </c>
@@ -22775,7 +22779,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="186"/>
+      <c r="A41" s="193"/>
       <c r="B41" s="44" t="s">
         <v>1447</v>
       </c>
@@ -22784,7 +22788,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="186"/>
+      <c r="A42" s="193"/>
       <c r="B42" s="44" t="s">
         <v>1448</v>
       </c>
@@ -22793,7 +22797,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="186"/>
+      <c r="A43" s="193"/>
       <c r="B43" s="44" t="s">
         <v>1450</v>
       </c>
@@ -22802,7 +22806,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="186"/>
+      <c r="A44" s="193"/>
       <c r="B44" s="44" t="s">
         <v>1451</v>
       </c>
@@ -22811,7 +22815,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="186"/>
+      <c r="A45" s="193"/>
       <c r="B45" s="44" t="s">
         <v>1453</v>
       </c>
@@ -22820,7 +22824,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="186"/>
+      <c r="A46" s="193"/>
       <c r="B46" s="44" t="s">
         <v>1455</v>
       </c>
@@ -22829,7 +22833,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="188"/>
+      <c r="A47" s="195"/>
       <c r="B47" s="49" t="s">
         <v>1457</v>
       </c>
@@ -22838,7 +22842,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="190" t="s">
+      <c r="A48" s="197" t="s">
         <v>1459</v>
       </c>
       <c r="B48" s="47" t="s">
@@ -22849,7 +22853,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="178"/>
+      <c r="A49" s="185"/>
       <c r="B49" s="47" t="s">
         <v>1462</v>
       </c>
@@ -22858,7 +22862,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="178"/>
+      <c r="A50" s="185"/>
       <c r="B50" s="47" t="s">
         <v>1463</v>
       </c>
@@ -22867,7 +22871,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="178"/>
+      <c r="A51" s="185"/>
       <c r="B51" s="44" t="s">
         <v>1464</v>
       </c>
@@ -22876,7 +22880,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="178"/>
+      <c r="A52" s="185"/>
       <c r="B52" s="44" t="s">
         <v>1465</v>
       </c>
@@ -22885,7 +22889,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="178"/>
+      <c r="A53" s="185"/>
       <c r="B53" s="44" t="s">
         <v>1466</v>
       </c>
@@ -22894,7 +22898,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="178"/>
+      <c r="A54" s="185"/>
       <c r="B54" s="44" t="s">
         <v>1467</v>
       </c>
@@ -22903,7 +22907,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="178"/>
+      <c r="A55" s="185"/>
       <c r="B55" s="44" t="s">
         <v>1468</v>
       </c>
@@ -22912,7 +22916,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="178"/>
+      <c r="A56" s="185"/>
       <c r="B56" s="48" t="s">
         <v>1469</v>
       </c>
@@ -22921,7 +22925,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="178"/>
+      <c r="A57" s="185"/>
       <c r="B57" s="48" t="s">
         <v>1470</v>
       </c>
@@ -22930,7 +22934,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="178"/>
+      <c r="A58" s="185"/>
       <c r="B58" s="48" t="s">
         <v>1471</v>
       </c>
@@ -22939,7 +22943,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="178"/>
+      <c r="A59" s="185"/>
       <c r="B59" s="48" t="s">
         <v>1473</v>
       </c>
@@ -22948,7 +22952,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="178"/>
+      <c r="A60" s="185"/>
       <c r="B60" s="48" t="s">
         <v>1474</v>
       </c>
@@ -22957,7 +22961,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="178"/>
+      <c r="A61" s="185"/>
       <c r="B61" s="48" t="s">
         <v>1475</v>
       </c>
@@ -22966,7 +22970,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="178"/>
+      <c r="A62" s="185"/>
       <c r="B62" s="48" t="s">
         <v>1476</v>
       </c>
@@ -22975,7 +22979,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="190" t="s">
+      <c r="A63" s="197" t="s">
         <v>1478</v>
       </c>
       <c r="B63" s="52" t="s">
@@ -22986,7 +22990,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="178"/>
+      <c r="A64" s="185"/>
       <c r="B64" s="48" t="s">
         <v>1481</v>
       </c>
@@ -22995,7 +22999,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="178"/>
+      <c r="A65" s="185"/>
       <c r="B65" s="48" t="s">
         <v>1482</v>
       </c>
@@ -23004,7 +23008,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="178"/>
+      <c r="A66" s="185"/>
       <c r="B66" s="48" t="s">
         <v>1484</v>
       </c>
@@ -23013,7 +23017,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="178"/>
+      <c r="A67" s="185"/>
       <c r="B67" s="48" t="s">
         <v>1485</v>
       </c>
@@ -23022,7 +23026,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="178"/>
+      <c r="A68" s="185"/>
       <c r="B68" s="48" t="s">
         <v>1486</v>
       </c>
@@ -23031,7 +23035,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="178"/>
+      <c r="A69" s="185"/>
       <c r="B69" s="48" t="s">
         <v>1487</v>
       </c>
@@ -23040,7 +23044,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="178"/>
+      <c r="A70" s="185"/>
       <c r="B70" s="48" t="s">
         <v>1488</v>
       </c>
@@ -23049,7 +23053,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="178"/>
+      <c r="A71" s="185"/>
       <c r="B71" s="48" t="s">
         <v>1489</v>
       </c>
@@ -23058,7 +23062,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="178"/>
+      <c r="A72" s="185"/>
       <c r="B72" s="53" t="s">
         <v>1490</v>
       </c>
@@ -23067,7 +23071,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="178"/>
+      <c r="A73" s="185"/>
       <c r="B73" s="48" t="s">
         <v>1492</v>
       </c>
@@ -23076,7 +23080,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="178"/>
+      <c r="A74" s="185"/>
       <c r="B74" s="48" t="s">
         <v>1493</v>
       </c>
@@ -23085,7 +23089,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="178"/>
+      <c r="A75" s="185"/>
       <c r="B75" s="48" t="s">
         <v>1494</v>
       </c>
@@ -23094,7 +23098,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="178"/>
+      <c r="A76" s="185"/>
       <c r="B76" s="48" t="s">
         <v>1495</v>
       </c>
@@ -23103,7 +23107,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="178"/>
+      <c r="A77" s="185"/>
       <c r="B77" s="48" t="s">
         <v>1497</v>
       </c>
@@ -23112,7 +23116,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="178"/>
+      <c r="A78" s="185"/>
       <c r="B78" s="48" t="s">
         <v>1499</v>
       </c>
@@ -23121,7 +23125,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="178"/>
+      <c r="A79" s="185"/>
       <c r="B79" s="48" t="s">
         <v>1500</v>
       </c>
@@ -23130,7 +23134,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="178"/>
+      <c r="A80" s="185"/>
       <c r="B80" s="48" t="s">
         <v>1502</v>
       </c>
@@ -23139,7 +23143,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="191" t="s">
+      <c r="A81" s="198" t="s">
         <v>1504</v>
       </c>
       <c r="B81" s="54" t="s">
@@ -23150,7 +23154,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="192"/>
+      <c r="A82" s="199"/>
       <c r="B82" s="55" t="s">
         <v>1507</v>
       </c>
@@ -23159,7 +23163,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="192"/>
+      <c r="A83" s="199"/>
       <c r="B83" s="55" t="s">
         <v>1509</v>
       </c>
@@ -23168,7 +23172,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="192"/>
+      <c r="A84" s="199"/>
       <c r="B84" s="55" t="s">
         <v>1511</v>
       </c>
@@ -23177,7 +23181,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="192"/>
+      <c r="A85" s="199"/>
       <c r="B85" s="55" t="s">
         <v>1513</v>
       </c>
@@ -23186,7 +23190,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="192"/>
+      <c r="A86" s="199"/>
       <c r="B86" s="55" t="s">
         <v>1515</v>
       </c>
@@ -23195,7 +23199,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A87" s="192"/>
+      <c r="A87" s="199"/>
       <c r="B87" s="55" t="s">
         <v>1517</v>
       </c>
@@ -23204,7 +23208,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="192"/>
+      <c r="A88" s="199"/>
       <c r="B88" s="55" t="s">
         <v>1519</v>
       </c>
@@ -23213,7 +23217,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="192"/>
+      <c r="A89" s="199"/>
       <c r="B89" s="55" t="s">
         <v>1521</v>
       </c>
@@ -23222,7 +23226,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="192"/>
+      <c r="A90" s="199"/>
       <c r="B90" s="55" t="s">
         <v>1523</v>
       </c>
@@ -23231,7 +23235,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="192"/>
+      <c r="A91" s="199"/>
       <c r="B91" s="55" t="s">
         <v>1525</v>
       </c>
@@ -23240,7 +23244,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="192"/>
+      <c r="A92" s="199"/>
       <c r="B92" s="55" t="s">
         <v>1527</v>
       </c>
@@ -23249,7 +23253,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="193"/>
+      <c r="A93" s="200"/>
       <c r="B93" s="56" t="s">
         <v>1529</v>
       </c>
@@ -23258,7 +23262,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="178" t="s">
+      <c r="A94" s="185" t="s">
         <v>1531</v>
       </c>
       <c r="B94" s="44" t="s">
@@ -23269,7 +23273,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="178"/>
+      <c r="A95" s="185"/>
       <c r="B95" s="44" t="s">
         <v>1534</v>
       </c>
@@ -23278,7 +23282,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="178"/>
+      <c r="A96" s="185"/>
       <c r="B96" s="44" t="s">
         <v>1536</v>
       </c>
@@ -23287,7 +23291,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="178"/>
+      <c r="A97" s="185"/>
       <c r="B97" s="44" t="s">
         <v>1538</v>
       </c>
@@ -23296,7 +23300,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="178"/>
+      <c r="A98" s="185"/>
       <c r="B98" s="48" t="s">
         <v>1540</v>
       </c>
@@ -23305,7 +23309,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="179"/>
+      <c r="A99" s="186"/>
       <c r="B99" s="57" t="s">
         <v>1542</v>
       </c>
@@ -23314,7 +23318,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="179"/>
+      <c r="A100" s="186"/>
       <c r="B100" s="57" t="s">
         <v>1544</v>
       </c>
@@ -23323,7 +23327,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="180"/>
+      <c r="A101" s="187"/>
       <c r="B101" s="59" t="s">
         <v>1546</v>
       </c>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C401E492-DC22-4F0F-941E-334BB7350AF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F22C129-4792-43C7-B517-7E3EA96DC41E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Chill 2023-2025" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'100 Reading Plan'!$A$1:$E$75</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'100 Reading Plan'!$A$1:$F$117</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Oper!$A$1:$K$332</definedName>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5823" uniqueCount="2106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5949" uniqueCount="2160">
   <si>
     <t>Phase</t>
   </si>
@@ -6526,10 +6526,172 @@
     <t>Günter Krämer</t>
   </si>
   <si>
-    <t>Wonderful Wednesdays May 2024 -  Flow Chart</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays April 2024 - Power and sample size calculations</t>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #64</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #63</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #62</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #61</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #60</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #59</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #58</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #57</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #56</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #55</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #54</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #53</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #52</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #51</t>
+  </si>
+  <si>
+    <t>ST&amp;P</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #50</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #49</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #48</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #47</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #46</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #45</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #44</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #43</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #42</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #41</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #40</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.03</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.02</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.01</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.12</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.11</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.10</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.09</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.08</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.07</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.06</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.05</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.04</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.03</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.02</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2023.01</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.12</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.11</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.10</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.09</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.08</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.07</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.06</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.05</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.04</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.03</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.02</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.01</t>
+  </si>
+  <si>
+    <t>Week</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.05 -  Flow Chart</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.04 - Power and sample size calculations</t>
   </si>
 </sst>
 </file>
@@ -7408,7 +7570,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="201">
+  <cellXfs count="202">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7909,9 +8071,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7923,16 +8094,7 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8003,6 +8165,9 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8806,7 +8971,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8825,12 +8990,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="171" t="s">
+      <c r="A1" s="174" t="s">
         <v>1586</v>
       </c>
-      <c r="B1" s="172"/>
-      <c r="C1" s="172"/>
-      <c r="D1" s="172"/>
+      <c r="B1" s="175"/>
+      <c r="C1" s="175"/>
+      <c r="D1" s="175"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -8839,35 +9004,35 @@
       <c r="A3" s="67" t="s">
         <v>1580</v>
       </c>
-      <c r="B3" s="173">
+      <c r="B3" s="176">
         <v>45520</v>
       </c>
-      <c r="C3" s="173"/>
-      <c r="D3" s="173"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="174" t="s">
+      <c r="A5" s="173" t="s">
         <v>1582</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="174"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
+      <c r="A6" s="177"/>
+      <c r="B6" s="177"/>
+      <c r="C6" s="177"/>
+      <c r="D6" s="177"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1583</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="171" t="s">
         <v>1584</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="171"/>
+      <c r="D7" s="171"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -8935,12 +9100,12 @@
       <c r="A13" s="76" t="s">
         <v>1587</v>
       </c>
-      <c r="B13" s="169">
+      <c r="B13" s="171">
         <f>COUNTA(Study!A$2:A$1003)</f>
         <v>82</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
+      <c r="C13" s="171"/>
+      <c r="D13" s="171"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -8952,12 +9117,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="169">
+      <c r="B14" s="171">
         <f>COUNTIF(Study!D$1:D$1003,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
+      <c r="C14" s="171"/>
+      <c r="D14" s="171"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -8967,9 +9132,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="177"/>
-      <c r="C15" s="177"/>
-      <c r="D15" s="177"/>
+      <c r="B15" s="172"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -8981,11 +9146,11 @@
       <c r="A16" s="76" t="s">
         <v>1585</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="171" t="s">
         <v>1584</v>
       </c>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
+      <c r="C16" s="171"/>
+      <c r="D16" s="171"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9147,12 +9312,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="174" t="s">
+      <c r="A27" s="173" t="s">
         <v>1592</v>
       </c>
-      <c r="B27" s="174"/>
-      <c r="C27" s="174"/>
-      <c r="D27" s="174"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9165,11 +9330,11 @@
       <c r="A29" s="76" t="s">
         <v>1593</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="171" t="s">
         <v>1584</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
+      <c r="C29" s="171"/>
+      <c r="D29" s="171"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9177,8 +9342,8 @@
         <v>2022</v>
       </c>
       <c r="B30" s="170">
-        <f>COUNTIF('100 Reading Plan'!A$2:A$1021, "*Y*")</f>
-        <v>63</v>
+        <f>COUNTIF('100 Reading Plan'!A$2:A$1063, "*Y*")</f>
+        <v>53</v>
       </c>
       <c r="C30" s="170"/>
       <c r="D30" s="170"/>
@@ -9189,8 +9354,8 @@
         <v>1561</v>
       </c>
       <c r="B31" s="170">
-        <f>COUNTIF('100 Reading Plan'!A$2:A$1021, "N")</f>
-        <v>10</v>
+        <f>COUNTIF('100 Reading Plan'!A$2:A$1063, "N")</f>
+        <v>62</v>
       </c>
       <c r="C31" s="170"/>
       <c r="D31" s="170"/>
@@ -9201,7 +9366,7 @@
         <v>437</v>
       </c>
       <c r="B32" s="170">
-        <f>COUNTIF('100 Reading Plan'!A$2:A$1021, "*Ongoing*")</f>
+        <f>COUNTIF('100 Reading Plan'!A$2:A$1063, "*Ongoing*")</f>
         <v>1</v>
       </c>
       <c r="C32" s="170"/>
@@ -9219,11 +9384,11 @@
       <c r="A34" s="76" t="s">
         <v>2021</v>
       </c>
-      <c r="B34" s="169" t="s">
+      <c r="B34" s="171" t="s">
         <v>1584</v>
       </c>
-      <c r="C34" s="169"/>
-      <c r="D34" s="169"/>
+      <c r="C34" s="171"/>
+      <c r="D34" s="171"/>
       <c r="L34" s="70"/>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.25">
@@ -9231,8 +9396,8 @@
         <v>2024</v>
       </c>
       <c r="B35" s="170">
-        <f>COUNTIF('100 Reading Plan'!B$2:B$1021, "*2024*")</f>
-        <v>64</v>
+        <f>COUNTIF('100 Reading Plan'!C$2:C$1063, "*2024*")</f>
+        <v>54</v>
       </c>
       <c r="C35" s="170"/>
       <c r="D35" s="170"/>
@@ -9246,21 +9411,31 @@
       <c r="L36" s="70"/>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A38" s="176" t="s">
+      <c r="A38" s="169" t="s">
         <v>1594</v>
       </c>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="B38" s="169"/>
+      <c r="C38" s="169"/>
+      <c r="D38" s="169"/>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A39" s="176"/>
-      <c r="B39" s="176"/>
-      <c r="C39" s="176"/>
-      <c r="D39" s="176"/>
+      <c r="A39" s="169"/>
+      <c r="B39" s="169"/>
+      <c r="C39" s="169"/>
+      <c r="D39" s="169"/>
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A38:D39"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9277,16 +9452,6 @@
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B34:D34"/>
     <mergeCell ref="B30:D30"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -12170,1718 +12335,2529 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
-  <dimension ref="A1:E141"/>
+  <dimension ref="A1:F183"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D42" sqref="D42"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A59" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C76" sqref="C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12.28515625" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-    <col min="3" max="3" width="29" customWidth="1"/>
-    <col min="4" max="4" width="71.7109375" customWidth="1"/>
-    <col min="5" max="5" width="85.42578125" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="29" customWidth="1"/>
+    <col min="5" max="5" width="71.7109375" customWidth="1"/>
+    <col min="6" max="6" width="85.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>1593</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>1596</v>
-      </c>
-      <c r="C1" s="2" t="s">
+        <v>1583</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>2157</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="B2" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C2" s="8" t="s">
         <v>2005</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="3" t="s">
         <v>1995</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B3" s="8" t="s">
+      <c r="B3" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C3" s="8" t="s">
         <v>2007</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C4" s="8" t="s">
         <v>2007</v>
       </c>
-      <c r="C4" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B5" s="8" t="s">
+      <c r="B5" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C5" s="8" t="s">
         <v>2007</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="D5" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="D5" s="3" t="s">
+      <c r="E5" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="F5" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B6" s="8" t="s">
+      <c r="B6" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C6" s="8" t="s">
         <v>2010</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="D6" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="E6" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="F6" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C7" s="8" t="s">
         <v>2010</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="D7" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="E7" s="3" t="s">
         <v>2008</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="F7" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B8" s="8" t="s">
+      <c r="B8" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C8" s="8" t="s">
         <v>1619</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="D8" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="E8" s="3" t="s">
         <v>1618</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="F8" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B9" s="8" t="s">
+      <c r="B9" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>1619</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="D9" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D9" s="3" t="s">
+      <c r="E9" s="3" t="s">
         <v>1618</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="F9" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B10" s="8" t="s">
+      <c r="B10" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C10" s="8" t="s">
         <v>1619</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="D10" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D10" s="3" t="s">
+      <c r="E10" s="3" t="s">
         <v>1618</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="F10" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C11" s="8" t="s">
         <v>1609</v>
       </c>
-      <c r="C11" s="3" t="s">
+      <c r="D11" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B12" s="8" t="s">
+      <c r="B12" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C12" s="8" t="s">
         <v>1609</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="E12" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="F12" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B13" s="8" t="s">
+      <c r="B13" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C13" s="8" t="s">
         <v>1609</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="3" t="s">
         <v>344</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="E13" s="3" t="s">
         <v>345</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B14" s="8" t="s">
+      <c r="B14" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>2091</v>
       </c>
-      <c r="C14" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>2090</v>
       </c>
-      <c r="D14" s="3" t="s">
+      <c r="E14" s="3" t="s">
         <v>2089</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="F14" s="3" t="s">
         <v>2080</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C15" s="8" t="s">
         <v>2091</v>
       </c>
-      <c r="C15" s="3" t="s">
+      <c r="D15" s="3" t="s">
         <v>2094</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="E15" s="3" t="s">
         <v>2093</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>2080</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C16" s="8" t="s">
         <v>2091</v>
       </c>
-      <c r="C16" s="3" t="s">
+      <c r="D16" s="3" t="s">
         <v>2090</v>
       </c>
-      <c r="D16" s="3" t="s">
+      <c r="E16" s="3" t="s">
         <v>2092</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="F16" s="3" t="s">
         <v>2080</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B17" s="8" t="s">
+      <c r="B17" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C17" s="8" t="s">
         <v>2067</v>
       </c>
-      <c r="C17" s="3" t="s">
+      <c r="D17" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D17" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>2069</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="F17" s="3" t="s">
         <v>2068</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B18" s="8" t="s">
+      <c r="B18" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C18" s="8" t="s">
         <v>1599</v>
       </c>
-      <c r="C18" s="3" t="s">
+      <c r="D18" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="D18" s="3" t="s">
+      <c r="E18" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="F18" s="3" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C19" s="8" t="s">
         <v>1613</v>
       </c>
-      <c r="C19" s="3" t="s">
+      <c r="D19" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="D19" s="3" t="s">
+      <c r="E19" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="F19" s="3" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="20" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B20" s="8" t="s">
+      <c r="B20" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C20" s="8" t="s">
         <v>1612</v>
       </c>
-      <c r="C20" s="3" t="s">
+      <c r="D20" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="D20" s="3" t="s">
+      <c r="E20" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="F20" s="3" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B21" s="8" t="s">
+      <c r="B21" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="8" t="s">
         <v>1611</v>
       </c>
-      <c r="C21" s="3" t="s">
+      <c r="D21" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="E21" s="4" t="s">
         <v>323</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="F21" s="3" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>1597</v>
       </c>
-      <c r="C22" s="3" t="s">
+      <c r="D22" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="E22" s="4" t="s">
         <v>1610</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="F22" s="3" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C23" s="8" t="s">
         <v>2010</v>
       </c>
-      <c r="C23" s="3" t="s">
+      <c r="D23" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="E23" s="4" t="s">
         <v>2023</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C24" s="8" t="s">
         <v>2077</v>
       </c>
-      <c r="C24" s="3" t="s">
+      <c r="D24" s="3" t="s">
         <v>2024</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="E24" s="4" t="s">
         <v>2076</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="F24" s="3" t="s">
         <v>2009</v>
       </c>
     </row>
-    <row r="25" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B25" s="8" t="s">
+      <c r="B25" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C25" s="8" t="s">
         <v>1620</v>
       </c>
-      <c r="C25" s="3" t="s">
+      <c r="D25" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="E25" s="4" t="s">
         <v>1624</v>
       </c>
-      <c r="E25" s="5" t="s">
+      <c r="F25" s="5" t="s">
         <v>1625</v>
       </c>
     </row>
-    <row r="26" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B26" s="8" t="s">
+      <c r="B26" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C26" s="8" t="s">
         <v>1598</v>
       </c>
-      <c r="C26" s="3" t="s">
+      <c r="D26" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="E26" s="4" t="s">
         <v>325</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="F26" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B27" s="8" t="s">
+      <c r="B27" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>1598</v>
       </c>
-      <c r="C27" s="3" t="s">
+      <c r="D27" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="E27" s="4" t="s">
         <v>327</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="F27" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="B28" s="9"/>
-      <c r="C28" s="3" t="s">
+      <c r="B28" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C28" s="9"/>
+      <c r="D28" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="E28" s="4" t="s">
         <v>328</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="F28" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="29" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A29" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="B29" s="9"/>
-      <c r="C29" s="3" t="s">
+      <c r="B29" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C29" s="9"/>
+      <c r="D29" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="E29" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="F29" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B30" s="8" t="s">
+      <c r="B30" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C30" s="8" t="s">
         <v>1597</v>
       </c>
-      <c r="C30" s="3" t="s">
+      <c r="D30" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="E30" s="4" t="s">
         <v>1577</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="F30" s="4" t="s">
         <v>2074</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B31" s="8" t="s">
+      <c r="B31" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C31" s="8" t="s">
         <v>1620</v>
       </c>
-      <c r="C31" s="3" t="s">
+      <c r="D31" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="E31" s="4" t="s">
         <v>2072</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="F31" s="4" t="s">
         <v>2074</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="B32" s="8" t="s">
+      <c r="B32" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C32" s="8" t="s">
         <v>1621</v>
       </c>
-      <c r="C32" s="3" t="s">
+      <c r="D32" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="E32" s="4" t="s">
         <v>2073</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="F32" s="4" t="s">
         <v>2074</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B33" s="8" t="s">
+      <c r="B33" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>2010</v>
       </c>
-      <c r="C33" s="3" t="s">
+      <c r="D33" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="E33" s="4" t="s">
         <v>2078</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="F33" s="4" t="s">
         <v>2074</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="B34" s="9"/>
-      <c r="C34" s="3" t="s">
+      <c r="B34" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C34" s="9"/>
+      <c r="D34" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="E34" s="4" t="s">
         <v>351</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="F34" s="4" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="35" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A35" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="B35" s="9"/>
-      <c r="C35" s="3" t="s">
+      <c r="B35" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C35" s="9"/>
+      <c r="D35" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="E35" s="4" t="s">
         <v>353</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="F35" s="4" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="B36" s="9"/>
-      <c r="C36" s="3" t="s">
+      <c r="B36" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C36" s="9"/>
+      <c r="D36" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D36" s="3" t="s">
+      <c r="E36" s="3" t="s">
         <v>355</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="F36" s="3" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="B37" s="9"/>
-      <c r="C37" s="3" t="s">
+      <c r="B37" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C37" s="9"/>
+      <c r="D37" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="D37" s="3" t="s">
+      <c r="E37" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="F37" s="3" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B38" s="8" t="s">
+      <c r="B38" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C38" s="8" t="s">
         <v>1608</v>
       </c>
-      <c r="C38" s="4" t="s">
+      <c r="D38" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D38" s="3" t="s">
+      <c r="E38" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E38" s="3" t="s">
+      <c r="F38" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>437</v>
       </c>
-      <c r="B39" s="10"/>
-      <c r="C39" s="4" t="s">
+      <c r="B39" s="10">
+        <v>2024</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D39" s="3" t="s">
+      <c r="E39" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="F39" s="3" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B40" s="8" t="s">
+      <c r="B40" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C40" s="8" t="s">
         <v>1608</v>
       </c>
-      <c r="C40" s="4" t="s">
+      <c r="D40" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D40" s="3" t="s">
+      <c r="E40" s="3" t="s">
         <v>362</v>
       </c>
-      <c r="E40" s="3" t="s">
+      <c r="F40" s="3" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B41" s="8" t="s">
+      <c r="B41" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C41" s="8" t="s">
         <v>2070</v>
       </c>
-      <c r="C41" s="4" t="s">
+      <c r="D41" s="4" t="s">
         <v>359</v>
       </c>
-      <c r="D41" s="3" t="s">
+      <c r="E41" s="3" t="s">
         <v>2071</v>
       </c>
-      <c r="E41" s="4" t="s">
+      <c r="F41" s="4" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="8" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D42" s="3" t="s">
-        <v>2079</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>2080</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B43" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>330</v>
-      </c>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F42" s="4"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
       <c r="D43" s="4" t="s">
-        <v>331</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" s="8" t="s">
-        <v>1597</v>
-      </c>
-      <c r="C44" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="8" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C45" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D45" s="4"/>
-      <c r="E45" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="8" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D46" s="4"/>
-      <c r="E46" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B47" s="8" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D47" s="4"/>
-      <c r="E47" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" s="8" t="s">
-        <v>1619</v>
-      </c>
-      <c r="C48" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D48" s="4"/>
-      <c r="E48" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A49" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B49" s="8" t="s">
-        <v>2005</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D49" s="4"/>
-      <c r="E49" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="8" t="s">
-        <v>2007</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D50" s="4"/>
-      <c r="E50" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="8" t="s">
-        <v>2010</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D51" s="4"/>
-      <c r="E51" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" s="8" t="s">
-        <v>2077</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D52" s="4"/>
-      <c r="E52" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="8" t="s">
-        <v>2070</v>
-      </c>
-      <c r="C53" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D53" s="4"/>
-      <c r="E53" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B54" s="8" t="s">
-        <v>2067</v>
-      </c>
-      <c r="C54" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>2118</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>2105</v>
+      </c>
+      <c r="F43" s="4"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>2106</v>
+      </c>
+      <c r="F44" s="4"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>2107</v>
+      </c>
+      <c r="F45" s="4"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>2108</v>
+      </c>
+      <c r="F46" s="4"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>2109</v>
+      </c>
+      <c r="F47" s="4"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>2110</v>
+      </c>
+      <c r="F48" s="4"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>2111</v>
+      </c>
+      <c r="F49" s="4"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>2112</v>
+      </c>
+      <c r="F50" s="4"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>2113</v>
+      </c>
+      <c r="F51" s="4"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>2114</v>
+      </c>
+      <c r="F52" s="4"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>2115</v>
+      </c>
+      <c r="F53" s="4"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
       <c r="D54" s="4" t="s">
-        <v>2105</v>
-      </c>
-      <c r="E54" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A55" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B55" s="8" t="s">
-        <v>2091</v>
-      </c>
-      <c r="C55" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>2118</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>2116</v>
+      </c>
+      <c r="F54" s="4"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>2104</v>
-      </c>
-      <c r="E55" s="4" t="s">
-        <v>2075</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A56" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B56" s="8" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C56" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>2118</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>2117</v>
+      </c>
+      <c r="F55" s="4"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
       <c r="D56" s="4" t="s">
-        <v>1945</v>
-      </c>
-      <c r="E56" s="4" t="s">
-        <v>1944</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" ht="90" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B57" s="8" t="s">
-        <v>1606</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>330</v>
-      </c>
+        <v>2118</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>2119</v>
+      </c>
+      <c r="F56" s="4"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
       <c r="D57" s="4" t="s">
-        <v>333</v>
-      </c>
-      <c r="E57" s="5" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B58" s="8" t="s">
-        <v>1604</v>
-      </c>
-      <c r="C58" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="D58" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="E58" s="4"/>
-    </row>
-    <row r="59" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A59" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B59" s="8" t="s">
-        <v>1605</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D59" s="3" t="s">
-        <v>371</v>
+        <v>2118</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>2120</v>
+      </c>
+      <c r="F57" s="4"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>2121</v>
+      </c>
+      <c r="F58" s="4"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="4" t="s">
+        <v>2118</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A60" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B60" s="8" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D60" s="3" t="s">
-        <v>1937</v>
-      </c>
-      <c r="E60" s="3"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B61" s="8" t="s">
-        <v>1943</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>1936</v>
-      </c>
-      <c r="D61" s="3" t="s">
-        <v>1942</v>
-      </c>
-      <c r="E61" s="3"/>
-    </row>
-    <row r="62" spans="1:5" ht="30" x14ac:dyDescent="0.25">
-      <c r="A62" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B62" s="8" t="s">
-        <v>1607</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D62" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A63" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B63" s="8" t="s">
-        <v>1603</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D63" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="E63" s="5" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>2122</v>
+      </c>
+      <c r="F59" s="4"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>2123</v>
+      </c>
+      <c r="F60" s="4"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>2124</v>
+      </c>
+      <c r="F61" s="4"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>2125</v>
+      </c>
+      <c r="F62" s="4"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>2126</v>
+      </c>
+      <c r="F63" s="4"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>1579</v>
       </c>
       <c r="B64" s="9"/>
-      <c r="C64" s="3" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D64" s="3" t="s">
-        <v>340</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="C64" s="9"/>
+      <c r="D64" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>2127</v>
+      </c>
+      <c r="F64" s="4"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="9" t="s">
         <v>1579</v>
       </c>
       <c r="B65" s="9"/>
-      <c r="C65" s="3" t="s">
-        <v>2011</v>
-      </c>
-      <c r="D65" s="6" t="s">
-        <v>342</v>
+      <c r="C65" s="9"/>
+      <c r="D65" s="4" t="s">
+        <v>2118</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B66" s="8" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C66" s="3" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D66" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="E66" s="4"/>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+        <v>2128</v>
+      </c>
+      <c r="F65" s="4"/>
+    </row>
+    <row r="66" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="4" t="s">
+        <v>2118</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>2129</v>
+      </c>
+      <c r="F66" s="4"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B67" s="8" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C67" s="3" t="s">
-        <v>1578</v>
+      <c r="B67" s="8"/>
+      <c r="C67" s="8" t="s">
+        <v>2067</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="E67" s="5" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>2079</v>
+      </c>
+      <c r="F67" s="4" t="s">
+        <v>2080</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B68" s="8" t="s">
-        <v>1602</v>
-      </c>
-      <c r="C68" s="3" t="s">
-        <v>1578</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>349</v>
+      <c r="B68" s="8"/>
+      <c r="C68" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D68" s="3" t="s">
+        <v>330</v>
       </c>
       <c r="E68" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B69" s="8" t="s">
-        <v>1600</v>
-      </c>
-      <c r="C69" s="3" t="s">
-        <v>364</v>
+      <c r="B69" s="8"/>
+      <c r="C69" s="8" t="s">
+        <v>2091</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="E69" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="E69" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B70" s="8" t="s">
-        <v>1601</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>364</v>
+      <c r="B70" s="8"/>
+      <c r="C70" s="8" t="s">
+        <v>2091</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="E70" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B71" s="8" t="s">
-        <v>1598</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>364</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
       <c r="D71" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E71" s="3" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" ht="105" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" s="8" t="s">
-        <v>1946</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>364</v>
-      </c>
+        <v>330</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>2130</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
       <c r="D72" s="3" t="s">
-        <v>1947</v>
-      </c>
-      <c r="E72" s="3" t="s">
-        <v>1948</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+        <v>330</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>2131</v>
+      </c>
+      <c r="F72" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A73" s="9" t="s">
         <v>1579</v>
       </c>
       <c r="B73" s="9"/>
-      <c r="C73" s="3" t="s">
+      <c r="C73" s="9"/>
+      <c r="D73" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>2132</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>2133</v>
+      </c>
+      <c r="F74" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>2134</v>
+      </c>
+      <c r="F75" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>2135</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>2136</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>2137</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>2138</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="3"/>
+      <c r="E80" s="4" t="s">
+        <v>2139</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="3"/>
+      <c r="E81" s="4" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="3"/>
+      <c r="E82" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="3"/>
+      <c r="E83" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="3"/>
+      <c r="E84" s="4" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="3"/>
+      <c r="E85" s="4" t="s">
+        <v>2144</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="3"/>
+      <c r="E86" s="4" t="s">
+        <v>2145</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="3"/>
+      <c r="E87" s="4" t="s">
+        <v>2146</v>
+      </c>
+      <c r="F87" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="3"/>
+      <c r="E88" s="4" t="s">
+        <v>2147</v>
+      </c>
+      <c r="F88" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="3"/>
+      <c r="E89" s="4" t="s">
+        <v>2148</v>
+      </c>
+      <c r="F89" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="3"/>
+      <c r="E90" s="4" t="s">
+        <v>2149</v>
+      </c>
+      <c r="F90" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="3"/>
+      <c r="E91" s="4" t="s">
+        <v>2150</v>
+      </c>
+      <c r="F91" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="3"/>
+      <c r="E92" s="4" t="s">
+        <v>2151</v>
+      </c>
+      <c r="F92" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="3"/>
+      <c r="E93" s="4" t="s">
+        <v>2152</v>
+      </c>
+      <c r="F93" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="3"/>
+      <c r="E94" s="4" t="s">
+        <v>2153</v>
+      </c>
+      <c r="F94" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="3"/>
+      <c r="E95" s="4" t="s">
+        <v>2154</v>
+      </c>
+      <c r="F95" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="3"/>
+      <c r="E96" s="4" t="s">
+        <v>2155</v>
+      </c>
+      <c r="F96" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="3"/>
+      <c r="E97" s="4" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F97" s="4" t="s">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A98" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="8"/>
+      <c r="C98" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>1945</v>
+      </c>
+      <c r="F98" s="4" t="s">
+        <v>1944</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A99" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" s="8"/>
+      <c r="C99" s="8" t="s">
+        <v>1606</v>
+      </c>
+      <c r="D99" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>333</v>
+      </c>
+      <c r="F99" s="5" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="8"/>
+      <c r="C100" s="8" t="s">
+        <v>1604</v>
+      </c>
+      <c r="D100" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="E100" s="3" t="s">
+        <v>335</v>
+      </c>
+      <c r="F100" s="4"/>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8" t="s">
+        <v>1605</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>371</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B102" s="8"/>
+      <c r="C102" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D102" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E102" s="3" t="s">
+        <v>1937</v>
+      </c>
+      <c r="F102" s="3"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B103" s="8"/>
+      <c r="C103" s="8" t="s">
+        <v>1943</v>
+      </c>
+      <c r="D103" s="3" t="s">
+        <v>1936</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>1942</v>
+      </c>
+      <c r="F103" s="3"/>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A104" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104" s="8"/>
+      <c r="C104" s="8" t="s">
+        <v>1607</v>
+      </c>
+      <c r="D104" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E104" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B105" s="8"/>
+      <c r="C105" s="8" t="s">
+        <v>1603</v>
+      </c>
+      <c r="D105" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E105" s="3" t="s">
+        <v>338</v>
+      </c>
+      <c r="F105" s="5" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E106" s="3" t="s">
+        <v>340</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="3" t="s">
+        <v>2011</v>
+      </c>
+      <c r="E107" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="F107" s="3" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="8"/>
+      <c r="C108" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D108" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E108" s="3" t="s">
+        <v>346</v>
+      </c>
+      <c r="F108" s="4"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="8"/>
+      <c r="C109" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D109" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>347</v>
+      </c>
+      <c r="F109" s="5" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A110" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="8"/>
+      <c r="C110" s="8" t="s">
+        <v>1602</v>
+      </c>
+      <c r="D110" s="3" t="s">
+        <v>1578</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8" t="s">
+        <v>1600</v>
+      </c>
+      <c r="D111" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F111" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A112" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B112" s="8"/>
+      <c r="C112" s="8" t="s">
+        <v>1601</v>
+      </c>
+      <c r="D112" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B113" s="8"/>
+      <c r="C113" s="8" t="s">
+        <v>1598</v>
+      </c>
+      <c r="D113" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E113" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="F113" s="3" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A114" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B114" s="8"/>
+      <c r="C114" s="8" t="s">
+        <v>1946</v>
+      </c>
+      <c r="D114" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>1947</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>1948</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="D73" s="3" t="s">
+      <c r="E115" s="3" t="s">
         <v>374</v>
       </c>
-      <c r="E73" s="3" t="s">
+      <c r="F115" s="3" t="s">
         <v>375</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B74" s="8" t="s">
+      <c r="B116" s="8"/>
+      <c r="C116" s="8" t="s">
         <v>1617</v>
       </c>
-      <c r="C74" s="3" t="s">
+      <c r="D116" s="3" t="s">
         <v>376</v>
       </c>
-      <c r="D74" s="3" t="s">
+      <c r="E116" s="3" t="s">
         <v>377</v>
       </c>
-      <c r="E74" s="3" t="s">
+      <c r="F116" s="3" t="s">
         <v>1616</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B75" s="8" t="s">
+      <c r="B117" s="8"/>
+      <c r="C117" s="8" t="s">
         <v>1597</v>
       </c>
-      <c r="C75" s="3" t="s">
+      <c r="D117" s="3" t="s">
         <v>1595</v>
       </c>
-      <c r="D75" s="3" t="s">
+      <c r="E117" s="3" t="s">
         <v>1614</v>
       </c>
-      <c r="E75" s="3" t="s">
+      <c r="F117" s="3" t="s">
         <v>1615</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-      <c r="B76" s="3"/>
-      <c r="C76" s="3"/>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
-      <c r="C77" s="3"/>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="3"/>
-      <c r="B78" s="3"/>
-      <c r="C78" s="3"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-      <c r="B80" s="3"/>
-      <c r="C80" s="3"/>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="3"/>
-      <c r="B81" s="3"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-      <c r="C82" s="3"/>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-      <c r="B83" s="3"/>
-      <c r="C83" s="3"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="3"/>
-      <c r="B84" s="3"/>
-      <c r="C84" s="3"/>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
-      <c r="C85" s="3"/>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="3"/>
-      <c r="B86" s="3"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-      <c r="B87" s="3"/>
-      <c r="C87" s="3"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-      <c r="B88" s="3"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-      <c r="C89" s="3"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-      <c r="B90" s="3"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="3"/>
-      <c r="B91" s="3"/>
-      <c r="C91" s="3"/>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="3"/>
-      <c r="B92" s="3"/>
-      <c r="C92" s="3"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
-      <c r="C93" s="3"/>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="3"/>
-      <c r="B94" s="3"/>
-      <c r="C94" s="3"/>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-      <c r="B95" s="3"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-      <c r="C96" s="3"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-      <c r="B97" s="3"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-      <c r="B98" s="3"/>
-      <c r="C98" s="3"/>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="3"/>
-      <c r="B99" s="3"/>
-      <c r="C99" s="3"/>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A100" s="3"/>
-      <c r="B100" s="3"/>
-      <c r="C100" s="3"/>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
-      <c r="C101" s="3"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A102" s="3"/>
-      <c r="B102" s="3"/>
-      <c r="C102" s="3"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-      <c r="B103" s="3"/>
-      <c r="C103" s="3"/>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A104" s="3"/>
-      <c r="B104" s="3"/>
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-      <c r="B105" s="3"/>
-      <c r="C105" s="3"/>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-      <c r="B106" s="3"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="3"/>
-      <c r="B107" s="3"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="3"/>
-      <c r="B108" s="3"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A109" s="3"/>
-      <c r="B109" s="3"/>
-      <c r="C109" s="3"/>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3"/>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A110" s="3"/>
-      <c r="B110" s="3"/>
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A111" s="3"/>
-      <c r="B111" s="3"/>
-      <c r="C111" s="3"/>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="3"/>
-      <c r="B112" s="3"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-    </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A113" s="3"/>
-      <c r="B113" s="3"/>
-      <c r="C113" s="3"/>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3"/>
-    </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A114" s="3"/>
-      <c r="B114" s="3"/>
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-    </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A115" s="3"/>
-      <c r="B115" s="3"/>
-      <c r="C115" s="3"/>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3"/>
-    </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A116" s="3"/>
-      <c r="B116" s="3"/>
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-    </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-      <c r="B117" s="3"/>
-      <c r="C117" s="3"/>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
-    </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
       <c r="B118" s="3"/>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
-    </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="3"/>
       <c r="B119" s="3"/>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
-    </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="3"/>
       <c r="B120" s="3"/>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
-    </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
+      <c r="B121" s="201"/>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
-    </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
       <c r="B122" s="3"/>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
-    </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F122" s="3"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="3"/>
       <c r="B123" s="3"/>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
-    </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F123" s="3"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
       <c r="B124" s="3"/>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
-    </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F124" s="3"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
       <c r="B125" s="3"/>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
-    </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="3"/>
       <c r="B126" s="3"/>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
-    </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="3"/>
       <c r="B127" s="3"/>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
-    </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F127" s="3"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
       <c r="B128" s="3"/>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
-    </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F128" s="3"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="3"/>
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
-    </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F129" s="3"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
       <c r="B130" s="3"/>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
-    </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="3"/>
       <c r="B131" s="3"/>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
-    </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="3"/>
       <c r="B132" s="3"/>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
-    </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F132" s="3"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="3"/>
       <c r="B133" s="3"/>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
-    </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F133" s="3"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="3"/>
       <c r="B134" s="3"/>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F134" s="3"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="3"/>
       <c r="B135" s="3"/>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
-    </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F135" s="3"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="3"/>
       <c r="B136" s="3"/>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
-    </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F136" s="3"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="3"/>
       <c r="B137" s="3"/>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
-    </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="3"/>
       <c r="B138" s="3"/>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
-    </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F138" s="3"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A139" s="3"/>
       <c r="B139" s="3"/>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
-    </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="3"/>
       <c r="B140" s="3"/>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
-    </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="3"/>
       <c r="B141" s="3"/>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="3"/>
+      <c r="F142" s="3"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
+      <c r="F150" s="3"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
+      <c r="F151" s="3"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
+      <c r="F152" s="3"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+      <c r="E157" s="3"/>
+      <c r="F157" s="3"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+      <c r="E158" s="3"/>
+      <c r="F158" s="3"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+      <c r="E159" s="3"/>
+      <c r="F159" s="3"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+      <c r="E160" s="3"/>
+      <c r="F160" s="3"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+      <c r="E161" s="3"/>
+      <c r="F161" s="3"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+      <c r="E162" s="3"/>
+      <c r="F162" s="3"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+      <c r="E163" s="3"/>
+      <c r="F163" s="3"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+      <c r="E164" s="3"/>
+      <c r="F164" s="3"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+      <c r="E165" s="3"/>
+      <c r="F165" s="3"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+      <c r="E166" s="3"/>
+      <c r="F166" s="3"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+      <c r="E168" s="3"/>
+      <c r="F168" s="3"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+      <c r="E169" s="3"/>
+      <c r="F169" s="3"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+      <c r="E170" s="3"/>
+      <c r="F170" s="3"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+      <c r="E171" s="3"/>
+      <c r="F171" s="3"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+      <c r="E172" s="3"/>
+      <c r="F172" s="3"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+      <c r="E173" s="3"/>
+      <c r="F173" s="3"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+      <c r="E174" s="3"/>
+      <c r="F174" s="3"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+      <c r="E175" s="3"/>
+      <c r="F175" s="3"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+      <c r="E176" s="3"/>
+      <c r="F176" s="3"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+      <c r="E177" s="3"/>
+      <c r="F177" s="3"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+      <c r="E178" s="3"/>
+      <c r="F178" s="3"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+      <c r="E179" s="3"/>
+      <c r="F179" s="3"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+      <c r="E180" s="3"/>
+      <c r="F180" s="3"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+      <c r="E181" s="3"/>
+      <c r="F181" s="3"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+      <c r="E182" s="3"/>
+      <c r="F182" s="3"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+      <c r="E183" s="3"/>
+      <c r="F183" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E75" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
+  <autoFilter ref="A1:F117" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
   <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="E57" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
-    <hyperlink ref="E67" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
-    <hyperlink ref="E63" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
-    <hyperlink ref="E73" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
-    <hyperlink ref="E25" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
+    <hyperlink ref="F99" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
+    <hyperlink ref="F109" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
+    <hyperlink ref="F105" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
+    <hyperlink ref="F115" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
+    <hyperlink ref="F25" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -13892,9 +14868,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K332"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A274" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E272" sqref="E272"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A266" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D272" sqref="D272"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D117107-561D-47AF-8AE8-3447C8248339}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72C011F8-142D-450A-B0DA-B1BC0B8ACD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="Chill 2023-2025" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'100 Reading Plan'!$A$1:$F$121</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'100 Reading Plan'!$A$1:$F$120</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Oper!$A$1:$K$332</definedName>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5981" uniqueCount="2172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5979" uniqueCount="2172">
   <si>
     <t>Phase</t>
   </si>
@@ -6565,15 +6565,6 @@
     <t>Newsletter for Statistical Programmers and Biostatisticians #40</t>
   </si>
   <si>
-    <t>Wonderful Wednesdays 2024.03</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays 2024.02</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays 2024.01</t>
-  </si>
-  <si>
     <t>Wonderful Wednesdays 2023.12</t>
   </si>
   <si>
@@ -6728,6 +6719,15 @@
   </si>
   <si>
     <t>R Pharma 2024</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.03, Wonderful Wednesdays 2024.02 AE, Bar</t>
+  </si>
+  <si>
+    <t>2024 Week45</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.01 2023 Best</t>
   </si>
 </sst>
 </file>
@@ -8101,18 +8101,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8124,7 +8115,16 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9017,12 +9017,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="169" t="s">
         <v>1582</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9031,35 +9031,35 @@
       <c r="A3" s="67" t="s">
         <v>1576</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="171">
         <v>45520</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="172" t="s">
         <v>1578</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1579</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="167" t="s">
         <v>1580</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -9127,12 +9127,12 @@
       <c r="A13" s="76" t="s">
         <v>1583</v>
       </c>
-      <c r="B13" s="169">
+      <c r="B13" s="167">
         <f>COUNTA(Study!A$2:A$1003)</f>
         <v>82</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9144,12 +9144,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="169">
+      <c r="B14" s="167">
         <f>COUNTIF(Study!D$1:D$1003,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9159,9 +9159,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9173,11 +9173,11 @@
       <c r="A16" s="76" t="s">
         <v>1581</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="167" t="s">
         <v>1580</v>
       </c>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9339,12 +9339,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="171" t="s">
+      <c r="A27" s="172" t="s">
         <v>1588</v>
       </c>
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9357,11 +9357,11 @@
       <c r="A29" s="76" t="s">
         <v>1589</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="167" t="s">
         <v>1580</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9369,8 +9369,8 @@
         <v>2012</v>
       </c>
       <c r="B30" s="168">
-        <f>COUNTIF('100 Reading Plan'!A$2:A$1067, "*Y*")</f>
-        <v>57</v>
+        <f>COUNTIF('100 Reading Plan'!A$2:A$1066, "*Y*")</f>
+        <v>59</v>
       </c>
       <c r="C30" s="168"/>
       <c r="D30" s="168"/>
@@ -9381,8 +9381,8 @@
         <v>1557</v>
       </c>
       <c r="B31" s="168">
-        <f>COUNTIF('100 Reading Plan'!A$2:A$1067, "N")</f>
-        <v>62</v>
+        <f>COUNTIF('100 Reading Plan'!A$2:A$1066, "N")</f>
+        <v>59</v>
       </c>
       <c r="C31" s="168"/>
       <c r="D31" s="168"/>
@@ -9393,7 +9393,7 @@
         <v>433</v>
       </c>
       <c r="B32" s="168">
-        <f>COUNTIF('100 Reading Plan'!A$2:A$1067, "*Ongoing*")</f>
+        <f>COUNTIF('100 Reading Plan'!A$2:A$1066, "*Ongoing*")</f>
         <v>1</v>
       </c>
       <c r="C32" s="168"/>
@@ -9415,31 +9415,21 @@
       <c r="L34" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="174" t="s">
         <v>1590</v>
       </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="167"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="A37" s="174"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9454,6 +9444,16 @@
     <mergeCell ref="B31:D31"/>
     <mergeCell ref="A27:D27"/>
     <mergeCell ref="B30:D30"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -12337,11 +12337,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
-  <dimension ref="A1:F187"/>
+  <dimension ref="A1:F186"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D39" sqref="D39"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E79" sqref="E79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12362,7 +12362,7 @@
         <v>1579</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>317</v>
@@ -12682,13 +12682,13 @@
         <v>2024</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>2000</v>
@@ -12702,13 +12702,13 @@
         <v>2024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>2000</v>
@@ -12722,13 +12722,13 @@
         <v>2024</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>2000</v>
@@ -12742,13 +12742,13 @@
         <v>2024</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>2000</v>
@@ -12762,13 +12762,13 @@
         <v>2024</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>2000</v>
@@ -12782,13 +12782,13 @@
         <v>2024</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>2000</v>
@@ -12802,13 +12802,13 @@
         <v>2024</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>2000</v>
@@ -12822,13 +12822,13 @@
         <v>2024</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>2000</v>
@@ -12842,13 +12842,13 @@
         <v>2024</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>2000</v>
@@ -12862,13 +12862,13 @@
         <v>2024</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>2000</v>
@@ -12882,13 +12882,13 @@
         <v>2024</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>2013</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>2000</v>
@@ -13638,7 +13638,7 @@
         <v>326</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="F73" s="4" t="s">
         <v>2064</v>
@@ -13656,39 +13656,43 @@
         <v>326</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>2064</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B75" s="9"/>
-      <c r="C75" s="9"/>
+      <c r="A75" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="8"/>
+      <c r="C75" s="8" t="s">
+        <v>2170</v>
+      </c>
       <c r="D75" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2117</v>
+        <v>2169</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>2064</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B76" s="9"/>
-      <c r="C76" s="9"/>
+      <c r="A76" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B76" s="8"/>
+      <c r="C76" s="8" t="s">
+        <v>2170</v>
+      </c>
       <c r="D76" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2118</v>
+        <v>2171</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>2064</v>
@@ -13704,7 +13708,7 @@
         <v>326</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>2064</v>
@@ -13720,7 +13724,7 @@
         <v>326</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>2064</v>
@@ -13736,7 +13740,7 @@
         <v>326</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>2064</v>
@@ -13752,7 +13756,7 @@
         <v>326</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>2064</v>
@@ -13768,7 +13772,7 @@
         <v>326</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>2064</v>
@@ -13784,7 +13788,7 @@
         <v>326</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>2064</v>
@@ -13796,11 +13800,9 @@
       </c>
       <c r="B83" s="9"/>
       <c r="C83" s="9"/>
-      <c r="D83" s="3" t="s">
-        <v>326</v>
-      </c>
+      <c r="D83" s="3"/>
       <c r="E83" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>2064</v>
@@ -13814,7 +13816,7 @@
       <c r="C84" s="9"/>
       <c r="D84" s="3"/>
       <c r="E84" s="4" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>2064</v>
@@ -13828,7 +13830,7 @@
       <c r="C85" s="9"/>
       <c r="D85" s="3"/>
       <c r="E85" s="4" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>2064</v>
@@ -13842,7 +13844,7 @@
       <c r="C86" s="9"/>
       <c r="D86" s="3"/>
       <c r="E86" s="4" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>2064</v>
@@ -13856,7 +13858,7 @@
       <c r="C87" s="9"/>
       <c r="D87" s="3"/>
       <c r="E87" s="4" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>2064</v>
@@ -13870,7 +13872,7 @@
       <c r="C88" s="9"/>
       <c r="D88" s="3"/>
       <c r="E88" s="4" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>2064</v>
@@ -13884,7 +13886,7 @@
       <c r="C89" s="9"/>
       <c r="D89" s="3"/>
       <c r="E89" s="4" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>2064</v>
@@ -13898,7 +13900,7 @@
       <c r="C90" s="9"/>
       <c r="D90" s="3"/>
       <c r="E90" s="4" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>2064</v>
@@ -13912,7 +13914,7 @@
       <c r="C91" s="9"/>
       <c r="D91" s="3"/>
       <c r="E91" s="4" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>2064</v>
@@ -13926,7 +13928,7 @@
       <c r="C92" s="9"/>
       <c r="D92" s="3"/>
       <c r="E92" s="4" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>2064</v>
@@ -13940,7 +13942,7 @@
       <c r="C93" s="9"/>
       <c r="D93" s="3"/>
       <c r="E93" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2064</v>
@@ -13954,7 +13956,7 @@
       <c r="C94" s="9"/>
       <c r="D94" s="3"/>
       <c r="E94" s="4" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>2064</v>
@@ -13968,7 +13970,7 @@
       <c r="C95" s="9"/>
       <c r="D95" s="3"/>
       <c r="E95" s="4" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>2064</v>
@@ -13982,7 +13984,7 @@
       <c r="C96" s="9"/>
       <c r="D96" s="3"/>
       <c r="E96" s="4" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>2064</v>
@@ -13996,7 +13998,7 @@
       <c r="C97" s="9"/>
       <c r="D97" s="3"/>
       <c r="E97" s="4" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>2064</v>
@@ -14010,7 +14012,7 @@
       <c r="C98" s="9"/>
       <c r="D98" s="3"/>
       <c r="E98" s="4" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>2064</v>
@@ -14024,7 +14026,7 @@
       <c r="C99" s="9"/>
       <c r="D99" s="3"/>
       <c r="E99" s="4" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>2064</v>
@@ -14038,95 +14040,97 @@
       <c r="C100" s="9"/>
       <c r="D100" s="3"/>
       <c r="E100" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>2064</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B101" s="9"/>
-      <c r="C101" s="9"/>
-      <c r="D101" s="3"/>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A101" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B101" s="8"/>
+      <c r="C101" s="8" t="s">
+        <v>1934</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>326</v>
+      </c>
       <c r="E101" s="4" t="s">
-        <v>2143</v>
+        <v>1936</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>2064</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1935</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B102" s="8"/>
       <c r="C102" s="8" t="s">
-        <v>1934</v>
+        <v>1601</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>1936</v>
-      </c>
-      <c r="F102" s="4" t="s">
-        <v>1935</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B103" s="8"/>
       <c r="C103" s="8" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E103" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F103" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E103" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B104" s="8"/>
       <c r="C104" s="8" t="s">
-        <v>1599</v>
+        <v>1600</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>326</v>
+        <v>1927</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F104" s="4"/>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B105" s="8"/>
       <c r="C105" s="8" t="s">
-        <v>1600</v>
+        <v>1934</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>1927</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>368</v>
-      </c>
+        <v>1928</v>
+      </c>
+      <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
@@ -14140,60 +14144,60 @@
         <v>1927</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>1928</v>
+        <v>1933</v>
       </c>
       <c r="F106" s="3"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B107" s="8"/>
       <c r="C107" s="8" t="s">
-        <v>1934</v>
+        <v>1602</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1927</v>
+        <v>2002</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>1933</v>
-      </c>
-      <c r="F107" s="3"/>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="F107" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B108" s="8"/>
       <c r="C108" s="8" t="s">
-        <v>1602</v>
+        <v>1598</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>2002</v>
       </c>
       <c r="E108" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F108" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109" s="8"/>
-      <c r="C109" s="8" t="s">
-        <v>1598</v>
-      </c>
+        <v>334</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
       <c r="D109" s="3" t="s">
         <v>2002</v>
       </c>
       <c r="E109" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F109" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14205,28 +14209,28 @@
       <c r="D110" s="3" t="s">
         <v>2002</v>
       </c>
-      <c r="E110" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A111" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B111" s="9"/>
-      <c r="C111" s="9"/>
+      <c r="E110" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B111" s="8"/>
+      <c r="C111" s="8" t="s">
+        <v>1597</v>
+      </c>
       <c r="D111" s="3" t="s">
-        <v>2002</v>
-      </c>
-      <c r="E111" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>339</v>
-      </c>
+        <v>1574</v>
+      </c>
+      <c r="E111" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F111" s="4"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
@@ -14240,11 +14244,13 @@
         <v>1574</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F112" s="4"/>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>166</v>
       </c>
@@ -14255,11 +14261,11 @@
       <c r="D113" s="3" t="s">
         <v>1574</v>
       </c>
-      <c r="E113" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>344</v>
+      <c r="E113" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -14268,104 +14274,104 @@
       </c>
       <c r="B114" s="8"/>
       <c r="C114" s="8" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="D114" s="3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B115" s="8"/>
       <c r="C115" s="8" t="s">
-        <v>1595</v>
+        <v>1596</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B116" s="8"/>
       <c r="C116" s="8" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>166</v>
       </c>
       <c r="B117" s="8"/>
       <c r="C117" s="8" t="s">
-        <v>1594</v>
+        <v>1937</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>365</v>
+        <v>1938</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
+        <v>1939</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F118" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B118" s="8"/>
-      <c r="C118" s="8" t="s">
-        <v>1937</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>1938</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>1939</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B119" s="9"/>
-      <c r="C119" s="9"/>
+      <c r="B119" s="8"/>
+      <c r="C119" s="8" t="s">
+        <v>1608</v>
+      </c>
       <c r="D119" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>371</v>
+        <v>1607</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -14374,35 +14380,25 @@
       </c>
       <c r="B120" s="8"/>
       <c r="C120" s="8" t="s">
-        <v>1608</v>
+        <v>1593</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>372</v>
+        <v>1591</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>373</v>
+        <v>1605</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>1607</v>
+        <v>1606</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B121" s="8"/>
-      <c r="C121" s="8" t="s">
-        <v>1593</v>
-      </c>
-      <c r="D121" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>1605</v>
-      </c>
-      <c r="F121" s="3" t="s">
-        <v>1606</v>
-      </c>
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+      <c r="E121" s="3"/>
+      <c r="F121" s="3"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="3"/>
@@ -14422,15 +14418,15 @@
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
+      <c r="B124" s="166"/>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
-      <c r="B125" s="166"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" s="3"/>
@@ -14923,22 +14919,14 @@
       <c r="E186" s="3"/>
       <c r="F186" s="3"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
-      <c r="B187" s="3"/>
-      <c r="C187" s="3"/>
-      <c r="D187" s="3"/>
-      <c r="E187" s="3"/>
-      <c r="F187" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F121" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
+  <autoFilter ref="A1:F120" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
   <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F103" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
-    <hyperlink ref="F113" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
-    <hyperlink ref="F109" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
-    <hyperlink ref="F119" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
+    <hyperlink ref="F102" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
+    <hyperlink ref="F112" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
+    <hyperlink ref="F108" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
+    <hyperlink ref="F118" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
     <hyperlink ref="F29" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -35027,9 +35015,9 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:H42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C46" sqref="C46"/>
+      <selection pane="bottomLeft" activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -36032,7 +36020,7 @@
         <v>1970</v>
       </c>
       <c r="H39" s="126" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36080,10 +36068,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="126" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="G41" s="126" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="H41" s="126"/>
     </row>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{13CD54F6-60F8-4652-A009-3AE058F17F8C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB683D90-1E45-45B1-8127-FB203978F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6025" uniqueCount="2173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6026" uniqueCount="2173">
   <si>
     <t>Phase</t>
   </si>
@@ -8105,18 +8105,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8128,7 +8119,16 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9021,12 +9021,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="169" t="s">
         <v>1582</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
+      <c r="B1" s="170"/>
+      <c r="C1" s="170"/>
+      <c r="D1" s="170"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9035,35 +9035,35 @@
       <c r="A3" s="67" t="s">
         <v>1576</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="171">
         <v>45520</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
+      <c r="C3" s="171"/>
+      <c r="D3" s="171"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="172" t="s">
         <v>1578</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
+      <c r="A6" s="173"/>
+      <c r="B6" s="173"/>
+      <c r="C6" s="173"/>
+      <c r="D6" s="173"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1579</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="167" t="s">
         <v>1580</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -9131,12 +9131,12 @@
       <c r="A13" s="76" t="s">
         <v>1583</v>
       </c>
-      <c r="B13" s="169">
+      <c r="B13" s="167">
         <f>COUNTA(Study!A$2:A$1003)</f>
         <v>82</v>
       </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
+      <c r="C13" s="167"/>
+      <c r="D13" s="167"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9148,12 +9148,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="169">
+      <c r="B14" s="167">
         <f>COUNTIF(Study!D$1:D$1003,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
+      <c r="C14" s="167"/>
+      <c r="D14" s="167"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9163,9 +9163,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9177,11 +9177,11 @@
       <c r="A16" s="76" t="s">
         <v>1581</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="167" t="s">
         <v>1580</v>
       </c>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
+      <c r="C16" s="167"/>
+      <c r="D16" s="167"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9343,12 +9343,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="171" t="s">
+      <c r="A27" s="172" t="s">
         <v>1588</v>
       </c>
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9361,11 +9361,11 @@
       <c r="A29" s="76" t="s">
         <v>1589</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="167" t="s">
         <v>1580</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
+      <c r="C29" s="167"/>
+      <c r="D29" s="167"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9374,7 +9374,7 @@
       </c>
       <c r="B30" s="168">
         <f>COUNTIF('100 Reading Plan'!A$2:A$1064, "*Y*")</f>
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C30" s="168"/>
       <c r="D30" s="168"/>
@@ -9386,7 +9386,7 @@
       </c>
       <c r="B31" s="168">
         <f>COUNTIF('100 Reading Plan'!A$2:A$1064, "N")</f>
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C31" s="168"/>
       <c r="D31" s="168"/>
@@ -9419,29 +9419,21 @@
       <c r="L34" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="174" t="s">
         <v>1590</v>
       </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="174"/>
+      <c r="C36" s="174"/>
+      <c r="D36" s="174"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="167"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="A37" s="174"/>
+      <c r="B37" s="174"/>
+      <c r="C37" s="174"/>
+      <c r="D37" s="174"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9458,6 +9450,14 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -12345,7 +12345,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H46" sqref="H46"/>
+      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13317,11 +13317,15 @@
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A50" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B50" s="9"/>
-      <c r="C50" s="9"/>
+      <c r="A50" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B50" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>2159</v>
+      </c>
       <c r="D50" s="4" t="s">
         <v>2092</v>
       </c>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB683D90-1E45-45B1-8127-FB203978F6C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7210C-319D-4B8C-9FFD-9F452A13F381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'100 Reading Plan'!$A$1:$F$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Oper!$A$1:$K$332</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Oper!$A$1:$K$334</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$82</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6026" uniqueCount="2173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="2173">
   <si>
     <t>Phase</t>
   </si>
@@ -6102,9 +6102,6 @@
     <t>9th EFSPI Regulatory Statistics Workshop</t>
   </si>
   <si>
-    <t>4-40 h</t>
-  </si>
-  <si>
     <t>https://www-komische-oper-berlin-de/en/what/a-z/the-magic-flute/</t>
   </si>
   <si>
@@ -6400,9 +6397,6 @@
     <t>Andrea Moses</t>
   </si>
   <si>
-    <t>William Forsythe</t>
-  </si>
-  <si>
     <t>R WORKSHOP: Shiny Application Development and Validation with Rhino</t>
   </si>
   <si>
@@ -6732,6 +6726,12 @@
   </si>
   <si>
     <t>https://www.linkedin.com/newsletters/network-update-6872092026620448768/</t>
+  </si>
+  <si>
+    <t>135 min</t>
+  </si>
+  <si>
+    <t>https://deutscheoperberlin.de/de_DE/calendar/ein-sommernachtstraum.17752737</t>
   </si>
 </sst>
 </file>
@@ -7610,7 +7610,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="199">
+  <cellXfs count="204">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -8105,9 +8105,18 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8119,16 +8128,7 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8199,6 +8199,21 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="27" fillId="25" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9021,12 +9036,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="169" t="s">
+      <c r="A1" s="172" t="s">
         <v>1582</v>
       </c>
-      <c r="B1" s="170"/>
-      <c r="C1" s="170"/>
-      <c r="D1" s="170"/>
+      <c r="B1" s="173"/>
+      <c r="C1" s="173"/>
+      <c r="D1" s="173"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9035,35 +9050,35 @@
       <c r="A3" s="67" t="s">
         <v>1576</v>
       </c>
-      <c r="B3" s="171">
+      <c r="B3" s="174">
         <v>45520</v>
       </c>
-      <c r="C3" s="171"/>
-      <c r="D3" s="171"/>
+      <c r="C3" s="174"/>
+      <c r="D3" s="174"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="171" t="s">
         <v>1578</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
+      <c r="B5" s="171"/>
+      <c r="C5" s="171"/>
+      <c r="D5" s="171"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="173"/>
-      <c r="B6" s="173"/>
-      <c r="C6" s="173"/>
-      <c r="D6" s="173"/>
+      <c r="A6" s="175"/>
+      <c r="B6" s="175"/>
+      <c r="C6" s="175"/>
+      <c r="D6" s="175"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1579</v>
       </c>
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="169" t="s">
         <v>1580</v>
       </c>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
+      <c r="C7" s="169"/>
+      <c r="D7" s="169"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -9131,12 +9146,12 @@
       <c r="A13" s="76" t="s">
         <v>1583</v>
       </c>
-      <c r="B13" s="167">
+      <c r="B13" s="169">
         <f>COUNTA(Study!A$2:A$1003)</f>
         <v>82</v>
       </c>
-      <c r="C13" s="167"/>
-      <c r="D13" s="167"/>
+      <c r="C13" s="169"/>
+      <c r="D13" s="169"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9148,12 +9163,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="167">
+      <c r="B14" s="169">
         <f>COUNTIF(Study!D$1:D$1003,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="167"/>
-      <c r="D14" s="167"/>
+      <c r="C14" s="169"/>
+      <c r="D14" s="169"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9163,9 +9178,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="175"/>
-      <c r="C15" s="175"/>
-      <c r="D15" s="175"/>
+      <c r="B15" s="170"/>
+      <c r="C15" s="170"/>
+      <c r="D15" s="170"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9177,11 +9192,11 @@
       <c r="A16" s="76" t="s">
         <v>1581</v>
       </c>
-      <c r="B16" s="167" t="s">
+      <c r="B16" s="169" t="s">
         <v>1580</v>
       </c>
-      <c r="C16" s="167"/>
-      <c r="D16" s="167"/>
+      <c r="C16" s="169"/>
+      <c r="D16" s="169"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9343,12 +9358,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="172" t="s">
+      <c r="A27" s="171" t="s">
         <v>1588</v>
       </c>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
+      <c r="B27" s="171"/>
+      <c r="C27" s="171"/>
+      <c r="D27" s="171"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9361,16 +9376,16 @@
       <c r="A29" s="76" t="s">
         <v>1589</v>
       </c>
-      <c r="B29" s="167" t="s">
+      <c r="B29" s="169" t="s">
         <v>1580</v>
       </c>
-      <c r="C29" s="167"/>
-      <c r="D29" s="167"/>
+      <c r="C29" s="169"/>
+      <c r="D29" s="169"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
-        <v>2000</v>
+        <v>1999</v>
       </c>
       <c r="B30" s="168">
         <f>COUNTIF('100 Reading Plan'!A$2:A$1064, "*Y*")</f>
@@ -9419,21 +9434,29 @@
       <c r="L34" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="174" t="s">
+      <c r="A36" s="167" t="s">
         <v>1590</v>
       </c>
-      <c r="B36" s="174"/>
-      <c r="C36" s="174"/>
-      <c r="D36" s="174"/>
+      <c r="B36" s="167"/>
+      <c r="C36" s="167"/>
+      <c r="D36" s="167"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="174"/>
-      <c r="B37" s="174"/>
-      <c r="C37" s="174"/>
-      <c r="D37" s="174"/>
+      <c r="A37" s="167"/>
+      <c r="B37" s="167"/>
+      <c r="C37" s="167"/>
+      <c r="D37" s="167"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9450,14 +9473,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -9472,9 +9487,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
   <dimension ref="A1:L83"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E45" sqref="E45"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10038,7 +10053,7 @@
         <v>11</v>
       </c>
       <c r="I16" s="85" t="s">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="J16" s="85"/>
       <c r="K16" s="85" t="s">
@@ -10060,10 +10075,10 @@
       </c>
       <c r="D17" s="85"/>
       <c r="E17" s="85" t="s">
+        <v>1979</v>
+      </c>
+      <c r="F17" s="85" t="s">
         <v>1980</v>
-      </c>
-      <c r="F17" s="85" t="s">
-        <v>1981</v>
       </c>
       <c r="G17" s="85" t="s">
         <v>243</v>
@@ -10072,16 +10087,16 @@
         <v>11</v>
       </c>
       <c r="I17" s="85" t="s">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="J17" s="85" t="s">
-        <v>1983</v>
+        <v>1982</v>
       </c>
       <c r="K17" s="85" t="s">
-        <v>1982</v>
+        <v>1981</v>
       </c>
       <c r="L17" s="85" t="s">
-        <v>1985</v>
+        <v>1984</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -10096,10 +10111,10 @@
       </c>
       <c r="D18" s="85"/>
       <c r="E18" s="85" t="s">
+        <v>2010</v>
+      </c>
+      <c r="F18" s="85" t="s">
         <v>2011</v>
-      </c>
-      <c r="F18" s="85" t="s">
-        <v>2012</v>
       </c>
       <c r="G18" s="85" t="s">
         <v>572</v>
@@ -10108,16 +10123,16 @@
         <v>11</v>
       </c>
       <c r="I18" s="85" t="s">
+        <v>2014</v>
+      </c>
+      <c r="J18" s="85" t="s">
+        <v>2016</v>
+      </c>
+      <c r="K18" s="85" t="s">
         <v>2015</v>
       </c>
-      <c r="J18" s="85" t="s">
+      <c r="L18" s="85" t="s">
         <v>2017</v>
-      </c>
-      <c r="K18" s="85" t="s">
-        <v>2016</v>
-      </c>
-      <c r="L18" s="85" t="s">
-        <v>2018</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -10872,28 +10887,28 @@
       </c>
       <c r="D41" s="85"/>
       <c r="E41" s="85" t="s">
-        <v>2019</v>
+        <v>2018</v>
       </c>
       <c r="F41" s="85" t="s">
         <v>605</v>
       </c>
       <c r="G41" s="86" t="s">
-        <v>2020</v>
+        <v>2019</v>
       </c>
       <c r="H41" s="85" t="s">
         <v>9</v>
       </c>
       <c r="I41" s="86" t="s">
+        <v>2020</v>
+      </c>
+      <c r="J41" s="85" t="s">
+        <v>2022</v>
+      </c>
+      <c r="K41" s="85" t="s">
         <v>2021</v>
       </c>
-      <c r="J41" s="85" t="s">
+      <c r="L41" s="85" t="s">
         <v>2023</v>
-      </c>
-      <c r="K41" s="85" t="s">
-        <v>2022</v>
-      </c>
-      <c r="L41" s="85" t="s">
-        <v>2024</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -11606,7 +11621,7 @@
       </c>
       <c r="J62" s="95"/>
       <c r="K62" s="95" t="s">
-        <v>1979</v>
+        <v>1978</v>
       </c>
       <c r="L62" s="95" t="s">
         <v>10</v>
@@ -11624,10 +11639,10 @@
       </c>
       <c r="D63" s="95"/>
       <c r="E63" s="95" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F63" s="95" t="s">
         <v>1975</v>
-      </c>
-      <c r="F63" s="95" t="s">
-        <v>1976</v>
       </c>
       <c r="G63" s="96" t="s">
         <v>243</v>
@@ -11636,11 +11651,11 @@
         <v>11</v>
       </c>
       <c r="I63" s="96" t="s">
-        <v>1977</v>
+        <v>1976</v>
       </c>
       <c r="J63" s="95"/>
       <c r="K63" s="95" t="s">
-        <v>1978</v>
+        <v>1977</v>
       </c>
       <c r="L63" s="95" t="s">
         <v>10</v>
@@ -12221,7 +12236,7 @@
         <v>304</v>
       </c>
       <c r="F80" s="100" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G80" s="101" t="s">
         <v>1604</v>
@@ -12253,7 +12268,7 @@
         <v>305</v>
       </c>
       <c r="F81" s="100" t="s">
-        <v>2010</v>
+        <v>2009</v>
       </c>
       <c r="G81" s="101" t="s">
         <v>1604</v>
@@ -12285,7 +12300,7 @@
         <v>307</v>
       </c>
       <c r="F82" s="104" t="s">
-        <v>2008</v>
+        <v>2007</v>
       </c>
       <c r="G82" s="106"/>
       <c r="H82" s="104" t="s">
@@ -12302,7 +12317,7 @@
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="104" t="s">
-        <v>2002</v>
+        <v>2001</v>
       </c>
       <c r="B83" s="104">
         <v>2024</v>
@@ -12312,24 +12327,24 @@
       </c>
       <c r="D83" s="104"/>
       <c r="E83" s="104" t="s">
-        <v>2003</v>
+        <v>2002</v>
       </c>
       <c r="F83" s="104" t="s">
-        <v>2007</v>
+        <v>2006</v>
       </c>
       <c r="G83" s="104" t="s">
-        <v>2005</v>
+        <v>2004</v>
       </c>
       <c r="H83" s="104" t="s">
         <v>9</v>
       </c>
       <c r="I83" s="104" t="s">
-        <v>2006</v>
+        <v>2005</v>
       </c>
       <c r="J83" s="104"/>
       <c r="K83" s="104"/>
       <c r="L83" s="104" t="s">
-        <v>2004</v>
+        <v>2003</v>
       </c>
     </row>
   </sheetData>
@@ -12343,7 +12358,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
   <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
     </sheetView>
@@ -12366,7 +12381,7 @@
         <v>1579</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>317</v>
@@ -12386,13 +12401,13 @@
         <v>2024</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>1984</v>
+        <v>1983</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>340</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1974</v>
+        <v>1973</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>340</v>
@@ -12406,13 +12421,13 @@
         <v>2024</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>340</v>
@@ -12426,13 +12441,13 @@
         <v>2024</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>340</v>
@@ -12446,13 +12461,13 @@
         <v>2024</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>1986</v>
+        <v>1985</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>340</v>
@@ -12466,13 +12481,13 @@
         <v>2024</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>340</v>
@@ -12486,13 +12501,13 @@
         <v>2024</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1987</v>
+        <v>1986</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>340</v>
@@ -12626,16 +12641,16 @@
         <v>2024</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12646,16 +12661,16 @@
         <v>2024</v>
       </c>
       <c r="C15" s="8" t="s">
+        <v>2063</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>2066</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>2065</v>
       </c>
-      <c r="D15" s="3" t="s">
-        <v>2068</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>2067</v>
-      </c>
       <c r="F15" s="3" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -12666,16 +12681,16 @@
         <v>2024</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="D16" s="3" t="s">
+        <v>2062</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>2064</v>
       </c>
-      <c r="E16" s="3" t="s">
-        <v>2066</v>
-      </c>
       <c r="F16" s="3" t="s">
-        <v>2054</v>
+        <v>2053</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -12686,16 +12701,16 @@
         <v>2024</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -12706,16 +12721,16 @@
         <v>2024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12726,16 +12741,16 @@
         <v>2024</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -12746,16 +12761,16 @@
         <v>2024</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -12766,16 +12781,16 @@
         <v>2024</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -12786,16 +12801,16 @@
         <v>2024</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -12806,16 +12821,16 @@
         <v>2024</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -12826,16 +12841,16 @@
         <v>2024</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -12846,16 +12861,16 @@
         <v>2024</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -12866,16 +12881,16 @@
         <v>2024</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="D26" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="F26" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -12886,16 +12901,16 @@
         <v>2024</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>2001</v>
+        <v>2000</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>1988</v>
+        <v>1987</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -12906,16 +12921,16 @@
         <v>2024</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>2044</v>
+        <v>2043</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>2046</v>
+        <v>2045</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>2045</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13031,7 +13046,7 @@
         <v>1573</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -13048,10 +13063,10 @@
         <v>320</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>2048</v>
+        <v>2047</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -13068,10 +13083,10 @@
         <v>320</v>
       </c>
       <c r="E36" s="4" t="s">
+        <v>2048</v>
+      </c>
+      <c r="F36" s="4" t="s">
         <v>2049</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>2050</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -13082,16 +13097,16 @@
         <v>2024</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1989</v>
+        <v>1988</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2052</v>
+        <v>2051</v>
       </c>
       <c r="F37" s="4" t="s">
-        <v>2050</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -13212,7 +13227,7 @@
         <v>2024</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>355</v>
@@ -13232,13 +13247,13 @@
         <v>2024</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>2047</v>
+        <v>2046</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>322</v>
@@ -13250,10 +13265,10 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -13264,16 +13279,16 @@
         <v>2024</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -13284,16 +13299,16 @@
         <v>2024</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D48" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E48" s="3" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -13304,16 +13319,16 @@
         <v>2024</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -13324,16 +13339,16 @@
         <v>2024</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13343,13 +13358,13 @@
       <c r="B51" s="9"/>
       <c r="C51" s="9"/>
       <c r="D51" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -13359,13 +13374,13 @@
       <c r="B52" s="9"/>
       <c r="C52" s="9"/>
       <c r="D52" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -13375,13 +13390,13 @@
       <c r="B53" s="9"/>
       <c r="C53" s="9"/>
       <c r="D53" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13391,13 +13406,13 @@
       <c r="B54" s="9"/>
       <c r="C54" s="9"/>
       <c r="D54" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -13407,13 +13422,13 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -13423,13 +13438,13 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13439,13 +13454,13 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -13455,13 +13470,13 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13471,13 +13486,13 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13487,13 +13502,13 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13503,13 +13518,13 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13519,13 +13534,13 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="4" t="s">
+        <v>2090</v>
+      </c>
+      <c r="E62" s="3" t="s">
         <v>2092</v>
       </c>
-      <c r="E62" s="3" t="s">
-        <v>2094</v>
-      </c>
       <c r="F62" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -13535,13 +13550,13 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -13551,13 +13566,13 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13567,13 +13582,13 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13583,13 +13598,13 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13599,13 +13614,13 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -13615,13 +13630,13 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13631,13 +13646,13 @@
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -13647,13 +13662,13 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13663,13 +13678,13 @@
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="4" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -13680,16 +13695,16 @@
         <v>2024</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E72" s="3" t="s">
+        <v>2052</v>
+      </c>
+      <c r="F72" s="4" t="s">
         <v>2053</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>2054</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -13700,7 +13715,7 @@
         <v>2024</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>326</v>
@@ -13720,16 +13735,16 @@
         <v>2024</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -13740,16 +13755,16 @@
         <v>2024</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -13760,16 +13775,16 @@
         <v>2024</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -13780,16 +13795,16 @@
         <v>2024</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -13800,16 +13815,16 @@
         <v>2024</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -13820,16 +13835,16 @@
         <v>2024</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="F79" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -13840,16 +13855,16 @@
         <v>2024</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="F80" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -13860,16 +13875,16 @@
         <v>2024</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -13880,16 +13895,16 @@
         <v>2024</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="F82" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -13900,16 +13915,16 @@
         <v>2024</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="F83" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -13920,16 +13935,16 @@
         <v>2024</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -13940,16 +13955,16 @@
         <v>2024</v>
       </c>
       <c r="C85" s="9" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="F85" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -13960,16 +13975,16 @@
         <v>2024</v>
       </c>
       <c r="C86" s="9" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -13980,16 +13995,16 @@
         <v>2024</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14000,16 +14015,16 @@
         <v>2024</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -14024,10 +14039,10 @@
         <v>326</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -14042,10 +14057,10 @@
         <v>326</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -14060,10 +14075,10 @@
         <v>326</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -14078,10 +14093,10 @@
         <v>326</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -14096,10 +14111,10 @@
         <v>326</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -14114,10 +14129,10 @@
         <v>326</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -14132,10 +14147,10 @@
         <v>326</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -14150,10 +14165,10 @@
         <v>326</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -14168,10 +14183,10 @@
         <v>326</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -14186,10 +14201,10 @@
         <v>326</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>2051</v>
+        <v>2050</v>
       </c>
     </row>
     <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -14200,7 +14215,7 @@
         <v>2024</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>326</v>
@@ -14220,7 +14235,7 @@
         <v>2024</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>326</v>
@@ -14240,7 +14255,7 @@
         <v>2024</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>326</v>
@@ -14258,7 +14273,7 @@
         <v>2024</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>1918</v>
@@ -14278,7 +14293,7 @@
         <v>2024</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>1918</v>
@@ -14296,7 +14311,7 @@
         <v>2024</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>1918</v>
@@ -14314,10 +14329,10 @@
         <v>2024</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E105" s="3" t="s">
         <v>332</v>
@@ -14334,10 +14349,10 @@
         <v>2024</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E106" s="3" t="s">
         <v>334</v>
@@ -14353,7 +14368,7 @@
       <c r="B107" s="9"/>
       <c r="C107" s="9"/>
       <c r="D107" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E107" s="3" t="s">
         <v>336</v>
@@ -14369,7 +14384,7 @@
       <c r="B108" s="9"/>
       <c r="C108" s="9"/>
       <c r="D108" s="3" t="s">
-        <v>1990</v>
+        <v>1989</v>
       </c>
       <c r="E108" s="6" t="s">
         <v>338</v>
@@ -14386,7 +14401,7 @@
         <v>2024</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>1574</v>
@@ -14404,7 +14419,7 @@
         <v>2024</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>1574</v>
@@ -14424,7 +14439,7 @@
         <v>2024</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>2168</v>
+        <v>2166</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>1574</v>
@@ -14444,7 +14459,7 @@
         <v>2024</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>360</v>
@@ -14464,7 +14479,7 @@
         <v>2024</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>360</v>
@@ -14484,7 +14499,7 @@
         <v>2024</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>360</v>
@@ -14504,7 +14519,7 @@
         <v>2024</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>360</v>
@@ -14540,7 +14555,7 @@
         <v>2024</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>372</v>
@@ -14560,7 +14575,7 @@
         <v>2024</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>1591</v>
@@ -15116,11 +15131,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K332"/>
+  <dimension ref="A1:K334"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I269" sqref="I269"/>
+      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C294" sqref="C294"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15157,10 +15172,10 @@
         <v>1611</v>
       </c>
       <c r="G1" s="123" t="s">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="H1" s="123" t="s">
-        <v>2031</v>
+        <v>2030</v>
       </c>
       <c r="I1" s="112" t="s">
         <v>1917</v>
@@ -16014,10 +16029,10 @@
         <v>1726</v>
       </c>
       <c r="F37" s="114" t="s">
-        <v>2033</v>
+        <v>2032</v>
       </c>
       <c r="G37" s="114" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="H37" s="114"/>
       <c r="I37" s="115"/>
@@ -16287,10 +16302,10 @@
         <v>1664</v>
       </c>
       <c r="F48" s="114" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="G48" s="114" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="H48" s="114"/>
       <c r="I48" s="115"/>
@@ -17130,10 +17145,10 @@
         <v>1709</v>
       </c>
       <c r="F83" s="114" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="G83" s="114" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="H83" s="114"/>
       <c r="I83" s="115"/>
@@ -17620,7 +17635,7 @@
         <v>1783</v>
       </c>
       <c r="F103" s="114" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="G103" s="114" t="s">
         <v>1904</v>
@@ -18762,7 +18777,7 @@
         <v>1823</v>
       </c>
       <c r="F151" s="117" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="G151" s="114" t="s">
         <v>1753</v>
@@ -19835,10 +19850,10 @@
         <v>1642</v>
       </c>
       <c r="F194" s="117" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="G194" s="117" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="H194" s="117"/>
       <c r="I194" s="115"/>
@@ -19931,10 +19946,10 @@
         <v>1865</v>
       </c>
       <c r="F198" s="117" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="G198" s="117" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="H198" s="117"/>
       <c r="I198" s="115"/>
@@ -21396,11 +21411,11 @@
         <v>1622</v>
       </c>
       <c r="F259" s="126" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="G259" s="151"/>
       <c r="H259" s="126" t="s">
-        <v>1995</v>
+        <v>1994</v>
       </c>
       <c r="I259" s="115"/>
       <c r="J259" s="117"/>
@@ -21454,10 +21469,10 @@
         <v>1744</v>
       </c>
       <c r="F261" s="126" t="s">
-        <v>1992</v>
+        <v>1991</v>
       </c>
       <c r="G261" s="126" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H261" s="126" t="s">
         <v>522</v>
@@ -21483,10 +21498,10 @@
         <v>1617</v>
       </c>
       <c r="F262" s="126" t="s">
+        <v>2028</v>
+      </c>
+      <c r="G262" s="126" t="s">
         <v>2029</v>
-      </c>
-      <c r="G262" s="126" t="s">
-        <v>2030</v>
       </c>
       <c r="H262" s="126" t="s">
         <v>522</v>
@@ -21509,7 +21524,7 @@
         <v>1647</v>
       </c>
       <c r="E263" s="117" t="s">
-        <v>2028</v>
+        <v>2027</v>
       </c>
       <c r="F263" s="126" t="s">
         <v>1847</v>
@@ -21573,10 +21588,10 @@
         <v>522</v>
       </c>
       <c r="G265" s="126" t="s">
-        <v>2057</v>
+        <v>2056</v>
       </c>
       <c r="H265" s="150" t="s">
-        <v>2032</v>
+        <v>2031</v>
       </c>
       <c r="I265" s="115"/>
       <c r="J265" s="114"/>
@@ -21657,10 +21672,10 @@
         <v>1630</v>
       </c>
       <c r="F268" s="126" t="s">
-        <v>2059</v>
+        <v>2058</v>
       </c>
       <c r="G268" s="151" t="s">
-        <v>2058</v>
+        <v>2057</v>
       </c>
       <c r="H268" s="126" t="s">
         <v>522</v>
@@ -21686,10 +21701,10 @@
         <v>1637</v>
       </c>
       <c r="F269" s="126" t="s">
-        <v>1994</v>
+        <v>1993</v>
       </c>
       <c r="G269" s="126" t="s">
-        <v>1993</v>
+        <v>1992</v>
       </c>
       <c r="H269" s="126" t="s">
         <v>522</v>
@@ -21715,7 +21730,7 @@
         <v>1677</v>
       </c>
       <c r="F270" s="125" t="s">
-        <v>2026</v>
+        <v>2025</v>
       </c>
       <c r="G270" s="125" t="s">
         <v>1711</v>
@@ -21750,7 +21765,7 @@
         <v>1857</v>
       </c>
       <c r="H271" s="125" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="I271" s="115"/>
       <c r="J271" s="117"/>
@@ -21779,7 +21794,7 @@
         <v>522</v>
       </c>
       <c r="H272" s="125" t="s">
-        <v>2056</v>
+        <v>2055</v>
       </c>
       <c r="I272" s="115"/>
       <c r="J272" s="117"/>
@@ -21837,7 +21852,7 @@
         <v>1857</v>
       </c>
       <c r="H274" s="125" t="s">
-        <v>2055</v>
+        <v>2054</v>
       </c>
       <c r="I274" s="115"/>
       <c r="J274" s="117"/>
@@ -21857,13 +21872,13 @@
         <v>1647</v>
       </c>
       <c r="E275" s="117" t="s">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="F275" s="125" t="s">
         <v>1881</v>
       </c>
       <c r="G275" s="125" t="s">
-        <v>2027</v>
+        <v>2026</v>
       </c>
       <c r="H275" s="126" t="s">
         <v>522</v>
@@ -21943,10 +21958,10 @@
         <v>1646</v>
       </c>
       <c r="F278" s="126" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="G278" s="126" t="s">
-        <v>1991</v>
+        <v>1990</v>
       </c>
       <c r="H278" s="126"/>
       <c r="I278" s="148">
@@ -21972,10 +21987,10 @@
         <v>1748</v>
       </c>
       <c r="F279" s="126" t="s">
+        <v>2032</v>
+      </c>
+      <c r="G279" s="126" t="s">
         <v>2033</v>
-      </c>
-      <c r="G279" s="126" t="s">
-        <v>2034</v>
       </c>
       <c r="H279" s="126"/>
       <c r="I279" s="148"/>
@@ -21999,10 +22014,10 @@
         <v>1652</v>
       </c>
       <c r="F280" s="126" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G280" s="126" t="s">
         <v>2035</v>
-      </c>
-      <c r="G280" s="126" t="s">
-        <v>2036</v>
       </c>
       <c r="H280" s="126"/>
       <c r="I280" s="148"/>
@@ -22023,7 +22038,7 @@
         <v>1621</v>
       </c>
       <c r="E281" s="117" t="s">
-        <v>2037</v>
+        <v>2036</v>
       </c>
       <c r="F281" s="126"/>
       <c r="G281" s="126"/>
@@ -22049,10 +22064,10 @@
         <v>1652</v>
       </c>
       <c r="F282" s="126" t="s">
+        <v>2034</v>
+      </c>
+      <c r="G282" s="126" t="s">
         <v>2035</v>
-      </c>
-      <c r="G282" s="126" t="s">
-        <v>2036</v>
       </c>
       <c r="H282" s="126"/>
       <c r="I282" s="148"/>
@@ -22076,10 +22091,10 @@
         <v>1862</v>
       </c>
       <c r="F283" s="126" t="s">
+        <v>2037</v>
+      </c>
+      <c r="G283" s="126" t="s">
         <v>2038</v>
-      </c>
-      <c r="G283" s="126" t="s">
-        <v>2039</v>
       </c>
       <c r="H283" s="126"/>
       <c r="I283" s="148"/>
@@ -22103,7 +22118,7 @@
         <v>1653</v>
       </c>
       <c r="F284" s="126" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="G284" s="126" t="s">
         <v>1883</v>
@@ -22177,7 +22192,7 @@
         <v>1621</v>
       </c>
       <c r="E287" s="117" t="s">
-        <v>2040</v>
+        <v>2039</v>
       </c>
       <c r="F287" s="126"/>
       <c r="G287" s="126"/>
@@ -22253,7 +22268,7 @@
         <v>1664</v>
       </c>
       <c r="F290" s="126" t="s">
-        <v>2041</v>
+        <v>2040</v>
       </c>
       <c r="G290" s="126" t="s">
         <v>1853</v>
@@ -22267,26 +22282,24 @@
       <c r="A291" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B291" s="120" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C291" s="154">
-        <v>45669</v>
+      <c r="B291" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C291" s="159">
+        <v>45662</v>
       </c>
       <c r="D291" s="117" t="s">
-        <v>1644</v>
+        <v>1616</v>
       </c>
       <c r="E291" s="117" t="s">
-        <v>1675</v>
-      </c>
-      <c r="F291" s="126" t="s">
-        <v>2042</v>
-      </c>
-      <c r="G291" s="126" t="s">
-        <v>1838</v>
-      </c>
+        <v>1617</v>
+      </c>
+      <c r="F291" s="126"/>
+      <c r="G291" s="126"/>
       <c r="H291" s="126"/>
-      <c r="I291" s="148"/>
+      <c r="I291" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J291" s="117"/>
       <c r="K291" s="125"/>
     </row>
@@ -22298,43 +22311,45 @@
         <v>1690</v>
       </c>
       <c r="C292" s="154">
-        <v>45675</v>
+        <v>45669</v>
       </c>
       <c r="D292" s="117" t="s">
-        <v>1720</v>
+        <v>1644</v>
       </c>
       <c r="E292" s="117" t="s">
-        <v>1913</v>
-      </c>
-      <c r="F292" s="126"/>
-      <c r="G292" s="126"/>
+        <v>1675</v>
+      </c>
+      <c r="F292" s="126" t="s">
+        <v>2041</v>
+      </c>
+      <c r="G292" s="126" t="s">
+        <v>1838</v>
+      </c>
       <c r="H292" s="126"/>
-      <c r="I292" s="115"/>
+      <c r="I292" s="148"/>
       <c r="J292" s="117"/>
-      <c r="K292" s="114"/>
+      <c r="K292" s="125"/>
     </row>
     <row r="293" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B293" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C293" s="159">
-        <v>45681</v>
-      </c>
-      <c r="D293" s="134" t="s">
-        <v>1621</v>
+      <c r="B293" s="120" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C293" s="154">
+        <v>45675</v>
+      </c>
+      <c r="D293" s="117" t="s">
+        <v>1720</v>
       </c>
       <c r="E293" s="117" t="s">
-        <v>2062</v>
+        <v>1913</v>
       </c>
       <c r="F293" s="126"/>
       <c r="G293" s="126"/>
       <c r="H293" s="126"/>
-      <c r="I293" s="148">
-        <v>0.8125</v>
-      </c>
+      <c r="I293" s="115"/>
       <c r="J293" s="117"/>
       <c r="K293" s="114"/>
     </row>
@@ -22342,26 +22357,26 @@
       <c r="A294" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B294" s="118" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C294" s="159">
-        <v>45682</v>
+      <c r="B294" s="141" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C294" s="161">
+        <v>45676</v>
       </c>
       <c r="D294" s="126" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E294" s="117" t="s">
-        <v>1657</v>
+        <v>1651</v>
+      </c>
+      <c r="E294" s="199" t="s">
+        <v>1652</v>
       </c>
       <c r="F294" s="126"/>
       <c r="G294" s="126"/>
       <c r="H294" s="126"/>
       <c r="I294" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J294" s="117" t="s">
-        <v>1963</v>
+        <v>2171</v>
       </c>
       <c r="K294" s="114"/>
     </row>
@@ -22369,74 +22384,76 @@
       <c r="A295" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B295" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C295" s="159">
-        <v>45683</v>
+      <c r="B295" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C295" s="161">
+        <v>45676</v>
       </c>
       <c r="D295" s="126" t="s">
         <v>1638</v>
       </c>
-      <c r="E295" s="117" t="s">
-        <v>1639</v>
+      <c r="E295" s="199" t="s">
+        <v>1657</v>
       </c>
       <c r="F295" s="126"/>
       <c r="G295" s="126"/>
       <c r="H295" s="126"/>
       <c r="I295" s="148">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J295" s="117" t="s">
-        <v>1659</v>
-      </c>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J295" s="117"/>
       <c r="K295" s="114"/>
     </row>
     <row r="296" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B296" s="120" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C296" s="154">
-        <v>45686</v>
-      </c>
-      <c r="D296" s="126" t="s">
+      <c r="B296" s="200" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C296" s="201">
+        <v>45683</v>
+      </c>
+      <c r="D296" s="202" t="s">
         <v>1638</v>
       </c>
-      <c r="E296" s="117" t="s">
-        <v>2043</v>
-      </c>
-      <c r="F296" s="125" t="s">
-        <v>1811</v>
-      </c>
-      <c r="G296" s="126" t="s">
-        <v>1838</v>
-      </c>
+      <c r="E296" s="203" t="s">
+        <v>1639</v>
+      </c>
+      <c r="F296" s="126"/>
+      <c r="G296" s="126"/>
       <c r="H296" s="126"/>
-      <c r="I296" s="148"/>
-      <c r="J296" s="117"/>
+      <c r="I296" s="148">
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J296" s="117" t="s">
+        <v>1659</v>
+      </c>
       <c r="K296" s="114"/>
     </row>
     <row r="297" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B297" s="118" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C297" s="159">
-        <v>45689</v>
+      <c r="B297" s="120" t="s">
+        <v>1690</v>
+      </c>
+      <c r="C297" s="154">
+        <v>45686</v>
       </c>
       <c r="D297" s="126" t="s">
         <v>1638</v>
       </c>
       <c r="E297" s="117" t="s">
-        <v>1657</v>
-      </c>
-      <c r="F297" s="125"/>
-      <c r="G297" s="126"/>
+        <v>2042</v>
+      </c>
+      <c r="F297" s="125" t="s">
+        <v>1811</v>
+      </c>
+      <c r="G297" s="126" t="s">
+        <v>1838</v>
+      </c>
       <c r="H297" s="126"/>
       <c r="I297" s="148"/>
       <c r="J297" s="117"/>
@@ -22496,55 +22513,51 @@
       <c r="A300" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B300" s="118" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C300" s="154">
-        <v>45709</v>
-      </c>
-      <c r="D300" s="126" t="s">
-        <v>1661</v>
-      </c>
-      <c r="E300" s="117" t="s">
-        <v>1662</v>
+      <c r="B300" s="121" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C300" s="161">
+        <v>45696</v>
+      </c>
+      <c r="D300" s="126"/>
+      <c r="E300" s="199" t="s">
+        <v>1639</v>
       </c>
       <c r="F300" s="126"/>
       <c r="G300" s="126"/>
       <c r="H300" s="126"/>
       <c r="I300" s="148">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J300" s="117" t="s">
-        <v>1663</v>
-      </c>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J300" s="117"/>
       <c r="K300" s="114"/>
     </row>
     <row r="301" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B301" s="141" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C301" s="154">
-        <v>45711</v>
-      </c>
-      <c r="D301" s="117" t="s">
+      <c r="B301" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C301" s="161">
+        <v>45696</v>
+      </c>
+      <c r="D301" s="126" t="s">
         <v>1661</v>
       </c>
-      <c r="E301" s="114" t="s">
-        <v>1664</v>
-      </c>
-      <c r="F301" s="125"/>
-      <c r="G301" s="125"/>
-      <c r="H301" s="125"/>
+      <c r="E301" s="199" t="s">
+        <v>1662</v>
+      </c>
+      <c r="F301" s="126"/>
+      <c r="G301" s="126"/>
+      <c r="H301" s="126"/>
       <c r="I301" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J301" s="117"/>
-      <c r="K301" s="147" t="s">
-        <v>1964</v>
-      </c>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J301" s="117" t="s">
+        <v>1663</v>
+      </c>
+      <c r="K301" s="114"/>
     </row>
     <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="113" t="s">
@@ -22553,14 +22566,14 @@
       <c r="B302" s="121" t="s">
         <v>1615</v>
       </c>
-      <c r="C302" s="154">
-        <v>45738</v>
-      </c>
-      <c r="D302" s="117" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E302" s="117" t="s">
-        <v>1658</v>
+      <c r="C302" s="159">
+        <v>45711</v>
+      </c>
+      <c r="D302" s="134" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E302" s="165" t="s">
+        <v>1816</v>
       </c>
       <c r="F302" s="126"/>
       <c r="G302" s="126"/>
@@ -22569,208 +22582,208 @@
         <v>0.75</v>
       </c>
       <c r="J302" s="117"/>
-      <c r="K302" s="125"/>
+      <c r="K302" s="131" t="s">
+        <v>2172</v>
+      </c>
     </row>
     <row r="303" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B303" s="120" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C303" s="154">
-        <v>45739</v>
+      <c r="B303" s="141" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C303" s="159">
+        <v>45711</v>
       </c>
       <c r="D303" s="117" t="s">
-        <v>1720</v>
-      </c>
-      <c r="E303" s="117" t="s">
-        <v>1914</v>
-      </c>
-      <c r="F303" s="126"/>
-      <c r="G303" s="126"/>
-      <c r="H303" s="126"/>
-      <c r="I303" s="115"/>
+        <v>1661</v>
+      </c>
+      <c r="E303" s="165" t="s">
+        <v>1664</v>
+      </c>
+      <c r="F303" s="125"/>
+      <c r="G303" s="125"/>
+      <c r="H303" s="125"/>
+      <c r="I303" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J303" s="117"/>
-      <c r="K303" s="117"/>
+      <c r="K303" s="147" t="s">
+        <v>1963</v>
+      </c>
     </row>
     <row r="304" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B304" s="118" t="s">
-        <v>1620</v>
+      <c r="B304" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C304" s="154">
-        <v>45745</v>
-      </c>
-      <c r="D304" s="114" t="s">
-        <v>1654</v>
+        <v>45738</v>
+      </c>
+      <c r="D304" s="117" t="s">
+        <v>1638</v>
       </c>
       <c r="E304" s="117" t="s">
-        <v>1665</v>
+        <v>1658</v>
       </c>
       <c r="F304" s="126"/>
       <c r="G304" s="126"/>
       <c r="H304" s="126"/>
       <c r="I304" s="148">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="J304" s="117"/>
-      <c r="K304" s="114"/>
+      <c r="K304" s="125"/>
     </row>
     <row r="305" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B305" s="118" t="s">
-        <v>1620</v>
+      <c r="B305" s="120" t="s">
+        <v>1690</v>
       </c>
       <c r="C305" s="154">
-        <v>45746</v>
-      </c>
-      <c r="D305" s="126" t="s">
-        <v>1629</v>
+        <v>45739</v>
+      </c>
+      <c r="D305" s="117" t="s">
+        <v>1720</v>
       </c>
       <c r="E305" s="117" t="s">
-        <v>1666</v>
+        <v>1914</v>
       </c>
       <c r="F305" s="126"/>
       <c r="G305" s="126"/>
       <c r="H305" s="126"/>
-      <c r="I305" s="148">
-        <v>0.75</v>
-      </c>
+      <c r="I305" s="115"/>
       <c r="J305" s="117"/>
-      <c r="K305" s="114"/>
+      <c r="K305" s="117"/>
     </row>
     <row r="306" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B306" s="140" t="s">
-        <v>1640</v>
+      <c r="B306" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C306" s="154">
-        <v>45751</v>
-      </c>
-      <c r="D306" s="126" t="s">
-        <v>1627</v>
+        <v>45745</v>
+      </c>
+      <c r="D306" s="114" t="s">
+        <v>1654</v>
       </c>
       <c r="E306" s="117" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
       <c r="F306" s="126"/>
       <c r="G306" s="126"/>
       <c r="H306" s="126"/>
       <c r="I306" s="148">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J306" s="117" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K306" s="131" t="s">
-        <v>1965</v>
-      </c>
+        <v>0.8125</v>
+      </c>
+      <c r="J306" s="117"/>
+      <c r="K306" s="114"/>
     </row>
     <row r="307" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B307" s="140" t="s">
-        <v>1640</v>
+      <c r="B307" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C307" s="154">
-        <v>45752</v>
+        <v>45746</v>
       </c>
       <c r="D307" s="126" t="s">
-        <v>1651</v>
+        <v>1629</v>
       </c>
       <c r="E307" s="117" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
       <c r="F307" s="126"/>
       <c r="G307" s="126"/>
       <c r="H307" s="126"/>
       <c r="I307" s="148">
-        <v>0.8125</v>
-      </c>
-      <c r="J307" s="117" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K307" s="131" t="s">
-        <v>1966</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="J307" s="117"/>
+      <c r="K307" s="114"/>
     </row>
     <row r="308" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B308" s="141" t="s">
-        <v>1635</v>
+      <c r="B308" s="140" t="s">
+        <v>1640</v>
       </c>
       <c r="C308" s="154">
-        <v>45753</v>
-      </c>
-      <c r="D308" s="117" t="s">
-        <v>1636</v>
+        <v>45751</v>
+      </c>
+      <c r="D308" s="126" t="s">
+        <v>1627</v>
       </c>
       <c r="E308" s="117" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
       <c r="F308" s="126"/>
       <c r="G308" s="126"/>
       <c r="H308" s="126"/>
       <c r="I308" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J308" s="117"/>
-      <c r="K308" s="147" t="s">
-        <v>1967</v>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J308" s="117" t="s">
+        <v>1643</v>
+      </c>
+      <c r="K308" s="131" t="s">
+        <v>1964</v>
       </c>
     </row>
     <row r="309" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B309" s="118" t="s">
-        <v>1620</v>
+      <c r="B309" s="140" t="s">
+        <v>1640</v>
       </c>
       <c r="C309" s="154">
-        <v>45767</v>
+        <v>45752</v>
       </c>
       <c r="D309" s="126" t="s">
-        <v>1644</v>
+        <v>1651</v>
       </c>
       <c r="E309" s="117" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
       <c r="F309" s="126"/>
       <c r="G309" s="126"/>
       <c r="H309" s="126"/>
       <c r="I309" s="148">
-        <v>0.66666666666666663</v>
+        <v>0.8125</v>
       </c>
       <c r="J309" s="117" t="s">
-        <v>1671</v>
-      </c>
-      <c r="K309" s="114"/>
+        <v>1643</v>
+      </c>
+      <c r="K309" s="131" t="s">
+        <v>1965</v>
+      </c>
     </row>
     <row r="310" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B310" s="118" t="s">
-        <v>1620</v>
+      <c r="B310" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C310" s="154">
-        <v>45768</v>
-      </c>
-      <c r="D310" s="126" t="s">
-        <v>1647</v>
+        <v>45753</v>
+      </c>
+      <c r="D310" s="117" t="s">
+        <v>1636</v>
       </c>
       <c r="E310" s="117" t="s">
-        <v>1672</v>
+        <v>1669</v>
       </c>
       <c r="F310" s="126"/>
       <c r="G310" s="126"/>
@@ -22779,42 +22792,46 @@
         <v>0.75</v>
       </c>
       <c r="J310" s="117"/>
-      <c r="K310" s="114"/>
+      <c r="K310" s="147" t="s">
+        <v>1966</v>
+      </c>
     </row>
     <row r="311" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B311" s="127" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C311" s="159">
-        <v>45773</v>
+      <c r="B311" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C311" s="154">
+        <v>45767</v>
       </c>
       <c r="D311" s="126" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E311" s="117" t="s">
-        <v>1673</v>
+        <v>1670</v>
       </c>
       <c r="F311" s="126"/>
       <c r="G311" s="126"/>
       <c r="H311" s="126"/>
-      <c r="I311" s="148"/>
-      <c r="J311" s="117"/>
-      <c r="K311" s="131" t="s">
-        <v>1968</v>
-      </c>
+      <c r="I311" s="148">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J311" s="117" t="s">
+        <v>1671</v>
+      </c>
+      <c r="K311" s="114"/>
     </row>
     <row r="312" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B312" s="127" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C312" s="159">
-        <v>45774</v>
+      <c r="B312" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C312" s="154">
+        <v>45768</v>
       </c>
       <c r="D312" s="126" t="s">
         <v>1647</v>
@@ -22826,93 +22843,89 @@
       <c r="G312" s="126"/>
       <c r="H312" s="126"/>
       <c r="I312" s="148">
-        <v>0.64583333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="J312" s="117"/>
-      <c r="K312" s="114" t="s">
-        <v>1969</v>
-      </c>
+      <c r="K312" s="114"/>
     </row>
     <row r="313" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B313" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C313" s="154">
-        <v>45785</v>
-      </c>
-      <c r="D313" s="117" t="s">
-        <v>1629</v>
+      <c r="B313" s="127" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C313" s="159">
+        <v>45773</v>
+      </c>
+      <c r="D313" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E313" s="117" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F313" s="126"/>
       <c r="G313" s="126"/>
       <c r="H313" s="126"/>
-      <c r="I313" s="148">
-        <v>0.70833333333333337</v>
-      </c>
+      <c r="I313" s="148"/>
       <c r="J313" s="117"/>
-      <c r="K313" s="125"/>
+      <c r="K313" s="131" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="314" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B314" s="118" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C314" s="154">
-        <v>45781</v>
+      <c r="B314" s="127" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C314" s="159">
+        <v>45774</v>
       </c>
       <c r="D314" s="126" t="s">
-        <v>1644</v>
+        <v>1647</v>
       </c>
       <c r="E314" s="117" t="s">
-        <v>1675</v>
+        <v>1672</v>
       </c>
       <c r="F314" s="126"/>
       <c r="G314" s="126"/>
       <c r="H314" s="126"/>
       <c r="I314" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J314" s="117" t="s">
-        <v>1676</v>
-      </c>
-      <c r="K314" s="114"/>
+        <v>0.64583333333333337</v>
+      </c>
+      <c r="J314" s="117"/>
+      <c r="K314" s="114" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="315" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B315" s="141" t="s">
-        <v>1635</v>
+      <c r="B315" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C315" s="154">
-        <v>45788</v>
+        <v>45785</v>
       </c>
       <c r="D315" s="117" t="s">
-        <v>1661</v>
+        <v>1629</v>
       </c>
       <c r="E315" s="117" t="s">
-        <v>1677</v>
+        <v>1674</v>
       </c>
       <c r="F315" s="126"/>
       <c r="G315" s="126"/>
       <c r="H315" s="126"/>
       <c r="I315" s="148">
-        <v>0.66666666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J315" s="117"/>
-      <c r="K315" s="117" t="s">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K315" s="125"/>
+    </row>
+    <row r="316" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="113" t="s">
         <v>1614</v>
       </c>
@@ -22920,13 +22933,13 @@
         <v>1620</v>
       </c>
       <c r="C316" s="154">
-        <v>45795</v>
+        <v>45781</v>
       </c>
       <c r="D316" s="126" t="s">
-        <v>1629</v>
+        <v>1644</v>
       </c>
       <c r="E316" s="117" t="s">
-        <v>1678</v>
+        <v>1675</v>
       </c>
       <c r="F316" s="126"/>
       <c r="G316" s="126"/>
@@ -22934,8 +22947,8 @@
       <c r="I316" s="148">
         <v>0.75</v>
       </c>
-      <c r="J316" s="150" t="s">
-        <v>1971</v>
+      <c r="J316" s="117" t="s">
+        <v>1676</v>
       </c>
       <c r="K316" s="114"/>
     </row>
@@ -22943,69 +22956,71 @@
       <c r="A317" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B317" s="121" t="s">
-        <v>1615</v>
+      <c r="B317" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C317" s="154">
-        <v>45795</v>
+        <v>45788</v>
       </c>
       <c r="D317" s="117" t="s">
-        <v>1629</v>
+        <v>1661</v>
       </c>
       <c r="E317" s="117" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="F317" s="126"/>
       <c r="G317" s="126"/>
       <c r="H317" s="126"/>
       <c r="I317" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J317" s="117"/>
-      <c r="K317" s="125"/>
-    </row>
-    <row r="318" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K317" s="117" t="s">
+        <v>1969</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B318" s="127" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C318" s="159">
-        <v>45800</v>
+      <c r="B318" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C318" s="154">
+        <v>45795</v>
       </c>
       <c r="D318" s="126" t="s">
-        <v>1647</v>
+        <v>1629</v>
       </c>
       <c r="E318" s="117" t="s">
-        <v>1672</v>
+        <v>1678</v>
       </c>
       <c r="F318" s="126"/>
       <c r="G318" s="126"/>
       <c r="H318" s="126"/>
       <c r="I318" s="148">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J318" s="117"/>
-      <c r="K318" s="114" t="s">
-        <v>1969</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="J318" s="150" t="s">
+        <v>1970</v>
+      </c>
+      <c r="K318" s="114"/>
     </row>
     <row r="319" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B319" s="127" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C319" s="159">
-        <v>45801</v>
+      <c r="B319" s="121" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C319" s="154">
+        <v>45795</v>
       </c>
       <c r="D319" s="117" t="s">
-        <v>1644</v>
+        <v>1629</v>
       </c>
       <c r="E319" s="117" t="s">
-        <v>1670</v>
+        <v>1679</v>
       </c>
       <c r="F319" s="126"/>
       <c r="G319" s="126"/>
@@ -23014,80 +23029,86 @@
         <v>0.70833333333333337</v>
       </c>
       <c r="J319" s="117"/>
-      <c r="K319" s="131" t="s">
-        <v>1972</v>
-      </c>
+      <c r="K319" s="125"/>
     </row>
     <row r="320" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B320" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C320" s="154">
-        <v>45807</v>
-      </c>
-      <c r="D320" s="117" t="s">
-        <v>1680</v>
+      <c r="B320" s="127" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C320" s="159">
+        <v>45800</v>
+      </c>
+      <c r="D320" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E320" s="117" t="s">
-        <v>1681</v>
+        <v>1672</v>
       </c>
       <c r="F320" s="126"/>
       <c r="G320" s="126"/>
       <c r="H320" s="126"/>
       <c r="I320" s="148">
-        <v>0.75</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J320" s="117"/>
-      <c r="K320" s="125"/>
+      <c r="K320" s="114" t="s">
+        <v>1968</v>
+      </c>
     </row>
     <row r="321" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B321" s="120" t="s">
-        <v>1690</v>
-      </c>
-      <c r="C321" s="154">
-        <v>45811</v>
-      </c>
-      <c r="D321" s="136" t="s">
-        <v>1621</v>
+      <c r="B321" s="127" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C321" s="159">
+        <v>45801</v>
+      </c>
+      <c r="D321" s="117" t="s">
+        <v>1644</v>
       </c>
       <c r="E321" s="117" t="s">
-        <v>1763</v>
+        <v>1670</v>
       </c>
       <c r="F321" s="126"/>
       <c r="G321" s="126"/>
       <c r="H321" s="126"/>
-      <c r="I321" s="115"/>
+      <c r="I321" s="148">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="J321" s="117"/>
-      <c r="K321" s="117"/>
+      <c r="K321" s="131" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="322" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B322" s="120" t="s">
-        <v>1690</v>
+      <c r="B322" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C322" s="154">
-        <v>45814</v>
-      </c>
-      <c r="D322" s="136" t="s">
-        <v>1621</v>
+        <v>45807</v>
+      </c>
+      <c r="D322" s="117" t="s">
+        <v>1680</v>
       </c>
       <c r="E322" s="117" t="s">
-        <v>1763</v>
+        <v>1681</v>
       </c>
       <c r="F322" s="126"/>
       <c r="G322" s="126"/>
       <c r="H322" s="126"/>
-      <c r="I322" s="115"/>
+      <c r="I322" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J322" s="117"/>
-      <c r="K322" s="117"/>
+      <c r="K322" s="125"/>
     </row>
     <row r="323" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="113" t="s">
@@ -23097,13 +23118,13 @@
         <v>1690</v>
       </c>
       <c r="C323" s="154">
-        <v>45816</v>
+        <v>45811</v>
       </c>
       <c r="D323" s="136" t="s">
         <v>1621</v>
       </c>
       <c r="E323" s="117" t="s">
-        <v>1830</v>
+        <v>1763</v>
       </c>
       <c r="F323" s="126"/>
       <c r="G323" s="126"/>
@@ -23116,124 +23137,124 @@
       <c r="A324" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B324" s="121" t="s">
-        <v>1615</v>
+      <c r="B324" s="120" t="s">
+        <v>1690</v>
       </c>
       <c r="C324" s="154">
-        <v>45829</v>
-      </c>
-      <c r="D324" s="117" t="s">
-        <v>1682</v>
+        <v>45814</v>
+      </c>
+      <c r="D324" s="136" t="s">
+        <v>1621</v>
       </c>
       <c r="E324" s="117" t="s">
-        <v>1683</v>
+        <v>1763</v>
       </c>
       <c r="F324" s="126"/>
       <c r="G324" s="126"/>
       <c r="H324" s="126"/>
-      <c r="I324" s="148">
-        <v>0.75</v>
-      </c>
+      <c r="I324" s="115"/>
       <c r="J324" s="117"/>
-      <c r="K324" s="125"/>
+      <c r="K324" s="117"/>
     </row>
     <row r="325" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A325" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B325" s="118" t="s">
-        <v>1620</v>
+      <c r="B325" s="120" t="s">
+        <v>1690</v>
       </c>
       <c r="C325" s="154">
-        <v>45830</v>
-      </c>
-      <c r="D325" s="126" t="s">
-        <v>1647</v>
+        <v>45816</v>
+      </c>
+      <c r="D325" s="136" t="s">
+        <v>1621</v>
       </c>
       <c r="E325" s="117" t="s">
-        <v>1684</v>
+        <v>1830</v>
       </c>
       <c r="F325" s="126"/>
       <c r="G325" s="126"/>
       <c r="H325" s="126"/>
-      <c r="I325" s="148">
-        <v>0.8125</v>
-      </c>
+      <c r="I325" s="115"/>
       <c r="J325" s="117"/>
-      <c r="K325" s="114"/>
+      <c r="K325" s="117"/>
     </row>
     <row r="326" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B326" s="141" t="s">
-        <v>1635</v>
+      <c r="B326" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C326" s="154">
-        <v>45833</v>
+        <v>45829</v>
       </c>
       <c r="D326" s="117" t="s">
-        <v>1636</v>
+        <v>1682</v>
       </c>
       <c r="E326" s="117" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="F326" s="126"/>
       <c r="G326" s="126"/>
       <c r="H326" s="126"/>
       <c r="I326" s="148">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="J326" s="117"/>
-      <c r="K326" s="147" t="s">
-        <v>1973</v>
-      </c>
+      <c r="K326" s="125"/>
     </row>
     <row r="327" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B327" s="120" t="s">
-        <v>1690</v>
+      <c r="B327" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C327" s="154">
-        <v>45840</v>
+        <v>45830</v>
       </c>
       <c r="D327" s="126" t="s">
-        <v>1661</v>
+        <v>1647</v>
       </c>
       <c r="E327" s="117" t="s">
-        <v>1701</v>
+        <v>1684</v>
       </c>
       <c r="F327" s="126"/>
       <c r="G327" s="126"/>
       <c r="H327" s="126"/>
-      <c r="I327" s="146"/>
+      <c r="I327" s="148">
+        <v>0.8125</v>
+      </c>
       <c r="J327" s="117"/>
-      <c r="K327" s="138"/>
+      <c r="K327" s="114"/>
     </row>
     <row r="328" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B328" s="120" t="s">
-        <v>1690</v>
+      <c r="B328" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C328" s="154">
-        <v>45844</v>
-      </c>
-      <c r="D328" s="136" t="s">
-        <v>1621</v>
+        <v>45833</v>
+      </c>
+      <c r="D328" s="117" t="s">
+        <v>1636</v>
       </c>
       <c r="E328" s="117" t="s">
-        <v>1915</v>
+        <v>1685</v>
       </c>
       <c r="F328" s="126"/>
       <c r="G328" s="126"/>
       <c r="H328" s="126"/>
-      <c r="I328" s="115"/>
+      <c r="I328" s="148">
+        <v>0.8125</v>
+      </c>
       <c r="J328" s="117"/>
-      <c r="K328" s="117"/>
+      <c r="K328" s="147" t="s">
+        <v>1972</v>
+      </c>
     </row>
     <row r="329" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="113" t="s">
@@ -23243,20 +23264,20 @@
         <v>1690</v>
       </c>
       <c r="C329" s="154">
-        <v>45853</v>
-      </c>
-      <c r="D329" s="136" t="s">
-        <v>1621</v>
+        <v>45840</v>
+      </c>
+      <c r="D329" s="126" t="s">
+        <v>1661</v>
       </c>
       <c r="E329" s="117" t="s">
-        <v>1843</v>
+        <v>1701</v>
       </c>
       <c r="F329" s="126"/>
       <c r="G329" s="126"/>
       <c r="H329" s="126"/>
-      <c r="I329" s="115"/>
+      <c r="I329" s="146"/>
       <c r="J329" s="117"/>
-      <c r="K329" s="117"/>
+      <c r="K329" s="138"/>
     </row>
     <row r="330" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="113" t="s">
@@ -23266,13 +23287,13 @@
         <v>1690</v>
       </c>
       <c r="C330" s="154">
-        <v>45858</v>
+        <v>45844</v>
       </c>
       <c r="D330" s="136" t="s">
         <v>1621</v>
       </c>
       <c r="E330" s="117" t="s">
-        <v>1916</v>
+        <v>1915</v>
       </c>
       <c r="F330" s="126"/>
       <c r="G330" s="126"/>
@@ -23285,54 +23306,100 @@
       <c r="A331" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B331" s="118" t="s">
-        <v>1620</v>
+      <c r="B331" s="120" t="s">
+        <v>1690</v>
       </c>
       <c r="C331" s="154">
-        <v>45862</v>
-      </c>
-      <c r="D331" s="126" t="s">
-        <v>1638</v>
+        <v>45853</v>
+      </c>
+      <c r="D331" s="136" t="s">
+        <v>1621</v>
       </c>
       <c r="E331" s="117" t="s">
-        <v>1686</v>
+        <v>1843</v>
       </c>
       <c r="F331" s="126"/>
       <c r="G331" s="126"/>
       <c r="H331" s="126"/>
-      <c r="I331" s="148">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="I331" s="115"/>
       <c r="J331" s="117"/>
-      <c r="K331" s="114"/>
+      <c r="K331" s="117"/>
     </row>
     <row r="332" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A332" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B332" s="121" t="s">
-        <v>1615</v>
+      <c r="B332" s="120" t="s">
+        <v>1690</v>
       </c>
       <c r="C332" s="154">
-        <v>45863</v>
-      </c>
-      <c r="D332" s="117" t="s">
-        <v>1687</v>
+        <v>45858</v>
+      </c>
+      <c r="D332" s="136" t="s">
+        <v>1621</v>
       </c>
       <c r="E332" s="117" t="s">
-        <v>1688</v>
+        <v>1916</v>
       </c>
       <c r="F332" s="126"/>
       <c r="G332" s="126"/>
       <c r="H332" s="126"/>
-      <c r="I332" s="148">
+      <c r="I332" s="115"/>
+      <c r="J332" s="117"/>
+      <c r="K332" s="117"/>
+    </row>
+    <row r="333" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A333" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B333" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C333" s="154">
+        <v>45862</v>
+      </c>
+      <c r="D333" s="126" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E333" s="117" t="s">
+        <v>1686</v>
+      </c>
+      <c r="F333" s="126"/>
+      <c r="G333" s="126"/>
+      <c r="H333" s="126"/>
+      <c r="I333" s="148">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J333" s="117"/>
+      <c r="K333" s="114"/>
+    </row>
+    <row r="334" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B334" s="121" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C334" s="154">
+        <v>45863</v>
+      </c>
+      <c r="D334" s="117" t="s">
+        <v>1687</v>
+      </c>
+      <c r="E334" s="117" t="s">
+        <v>1688</v>
+      </c>
+      <c r="F334" s="126"/>
+      <c r="G334" s="126"/>
+      <c r="H334" s="126"/>
+      <c r="I334" s="148">
         <v>0.75</v>
       </c>
-      <c r="J332" s="117"/>
-      <c r="K332" s="125"/>
+      <c r="J334" s="117"/>
+      <c r="K334" s="125"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K332" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
+  <autoFilter ref="A1:K334" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024-2025"/>
@@ -23348,24 +23415,25 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K270" r:id="rId1" display="https://www.staatsoper-hamburg.de/de/spielplan/stueck.php?AuffNr=221440" xr:uid="{ED1E9297-3292-4B3E-BA05-CADD38C0F7DB}"/>
-    <hyperlink ref="K326" r:id="rId2" display="https://www.komische-oper-berlin.de/en/what/a-z/my-friend-bunbury/" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
-    <hyperlink ref="K308" r:id="rId3" display="https://www.komische-oper-berlin.de/en/what/a-z/la-cage-aux-folles/" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
-    <hyperlink ref="K301" r:id="rId4" display="https://www.komische-oper-berlin.de/en/what/a-z/the-magic-flute/" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
-    <hyperlink ref="K306" r:id="rId5" display="https://www.staatsoper.de/stuecke/la-cenerentola/2025-04-04-1900-14886" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
-    <hyperlink ref="K307" r:id="rId6" display="https://www.staatsoper.de/stuecke/madama-butterfly/2025-04-05-1930-14888" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
-    <hyperlink ref="K311" r:id="rId7" display="https://oper-frankfurt.de/de/spielplan/linvisible/?id_datum=4100" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
-    <hyperlink ref="K319" r:id="rId8" display="https://oper-frankfurt.de/de/spielplan/parsifal/?id_datum=4119" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
+    <hyperlink ref="K328" r:id="rId2" display="https://www.komische-oper-berlin.de/en/what/a-z/my-friend-bunbury/" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
+    <hyperlink ref="K310" r:id="rId3" display="https://www.komische-oper-berlin.de/en/what/a-z/la-cage-aux-folles/" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
+    <hyperlink ref="K303" r:id="rId4" display="https://www.komische-oper-berlin.de/en/what/a-z/the-magic-flute/" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
+    <hyperlink ref="K308" r:id="rId5" display="https://www.staatsoper.de/stuecke/la-cenerentola/2025-04-04-1900-14886" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
+    <hyperlink ref="K309" r:id="rId6" display="https://www.staatsoper.de/stuecke/madama-butterfly/2025-04-05-1930-14888" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
+    <hyperlink ref="K313" r:id="rId7" display="https://oper-frankfurt.de/de/spielplan/linvisible/?id_datum=4100" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
+    <hyperlink ref="K321" r:id="rId8" display="https://oper-frankfurt.de/de/spielplan/parsifal/?id_datum=4119" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
+    <hyperlink ref="K302" r:id="rId9" xr:uid="{A306D56F-3AD7-4C7D-AF9F-080C76FBE9C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId9"/>
-  <drawing r:id="rId10"/>
-  <legacyDrawing r:id="rId11"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
+  <drawing r:id="rId11"/>
+  <legacyDrawing r:id="rId12"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x14">
       <controls>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9230" r:id="rId12" name="Check Box 14">
+            <control shapeId="9230" r:id="rId13" name="Check Box 14">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -23387,7 +23455,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9229" r:id="rId13" name="Check Box 13">
+            <control shapeId="9229" r:id="rId14" name="Check Box 13">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -23409,7 +23477,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9242" r:id="rId14" name="Check Box 26">
+            <control shapeId="9242" r:id="rId15" name="Check Box 26">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -23431,7 +23499,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9243" r:id="rId15" name="Check Box 27">
+            <control shapeId="9243" r:id="rId16" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -23453,7 +23521,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9256" r:id="rId16" name="Check Box 40">
+            <control shapeId="9256" r:id="rId17" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -23475,7 +23543,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9257" r:id="rId17" name="Check Box 41">
+            <control shapeId="9257" r:id="rId18" name="Check Box 41">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -36059,10 +36127,10 @@
         <v>1958</v>
       </c>
       <c r="G34" s="126" t="s">
+        <v>1996</v>
+      </c>
+      <c r="H34" s="126" t="s">
         <v>1997</v>
-      </c>
-      <c r="H34" s="126" t="s">
-        <v>1998</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36191,7 +36259,7 @@
         <v>1959</v>
       </c>
       <c r="H39" s="126" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36218,7 +36286,7 @@
         <v>1941</v>
       </c>
       <c r="H40" s="126" t="s">
-        <v>1999</v>
+        <v>1998</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36239,10 +36307,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="126" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="G41" s="126" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="H41" s="126"/>
     </row>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B7210C-319D-4B8C-9FFD-9F452A13F381}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A85473C-A221-4EB7-A167-3B949E11B49B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="4305" yWindow="2100" windowWidth="23790" windowHeight="12540" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
     <sheet name="Study" sheetId="1" r:id="rId2"/>
-    <sheet name="100 Reading Plan" sheetId="2" r:id="rId3"/>
-    <sheet name="Oper" sheetId="3" r:id="rId4"/>
-    <sheet name="BST Skill" sheetId="5" r:id="rId5"/>
+    <sheet name="Reading Plan" sheetId="2" r:id="rId3"/>
+    <sheet name="Oper Plan" sheetId="3" r:id="rId4"/>
+    <sheet name="BST Skill Plan" sheetId="5" r:id="rId5"/>
     <sheet name="B&amp;P Active Studies" sheetId="4" r:id="rId6"/>
     <sheet name="Chill 2023-2025" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'100 Reading Plan'!$A$1:$F$118</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Oper!$A$1:$K$334</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$82</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$K$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6034" uniqueCount="2173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6048" uniqueCount="2181">
   <si>
     <t>Phase</t>
   </si>
@@ -6520,15 +6520,6 @@
     <t>Newsletter for Statistical Programmers and Biostatisticians #40</t>
   </si>
   <si>
-    <t>Wonderful Wednesdays 2022.10</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays 2022.09</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays 2022.08</t>
-  </si>
-  <si>
     <t>Wonderful Wednesdays 2022.07</t>
   </si>
   <si>
@@ -6732,6 +6723,39 @@
   </si>
   <si>
     <t>https://deutscheoperberlin.de/de_DE/calendar/ein-sommernachtstraum.17752737</t>
+  </si>
+  <si>
+    <t>Neurology-Epilepsy-PIII-UCB-EP0151</t>
+  </si>
+  <si>
+    <t>UCBEP151-EP0151</t>
+  </si>
+  <si>
+    <t>Phase 3b</t>
+  </si>
+  <si>
+    <t>NCT04627285</t>
+  </si>
+  <si>
+    <t>2022-502639-21-00</t>
+  </si>
+  <si>
+    <t>[Epilepsy](https://clinicaltrials.gov/study/NCT04627285)</t>
+  </si>
+  <si>
+    <t>2012-001770-29</t>
+  </si>
+  <si>
+    <t>UCUEP12X-EP0012</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.10 - EORTC QLQ-C30, Dashboard</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.09 - Regression</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.08 - Ranking</t>
   </si>
 </sst>
 </file>
@@ -8104,6 +8128,21 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="27" fillId="25" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -8199,21 +8238,6 @@
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="27" fillId="25" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="10" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="13" fillId="0" borderId="36" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9017,7 +9041,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F26" sqref="F26"/>
+      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9036,12 +9060,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="172" t="s">
+      <c r="A1" s="177" t="s">
         <v>1582</v>
       </c>
-      <c r="B1" s="173"/>
-      <c r="C1" s="173"/>
-      <c r="D1" s="173"/>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9050,79 +9074,79 @@
       <c r="A3" s="67" t="s">
         <v>1576</v>
       </c>
-      <c r="B3" s="174">
+      <c r="B3" s="179">
         <v>45520</v>
       </c>
-      <c r="C3" s="174"/>
-      <c r="D3" s="174"/>
+      <c r="C3" s="179"/>
+      <c r="D3" s="179"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="171" t="s">
+      <c r="A5" s="176" t="s">
         <v>1578</v>
       </c>
-      <c r="B5" s="171"/>
-      <c r="C5" s="171"/>
-      <c r="D5" s="171"/>
+      <c r="B5" s="176"/>
+      <c r="C5" s="176"/>
+      <c r="D5" s="176"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="175"/>
-      <c r="B6" s="175"/>
-      <c r="C6" s="175"/>
-      <c r="D6" s="175"/>
+      <c r="A6" s="180"/>
+      <c r="B6" s="180"/>
+      <c r="C6" s="180"/>
+      <c r="D6" s="180"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1579</v>
       </c>
-      <c r="B7" s="169" t="s">
+      <c r="B7" s="174" t="s">
         <v>1580</v>
       </c>
-      <c r="C7" s="169"/>
-      <c r="D7" s="169"/>
+      <c r="C7" s="174"/>
+      <c r="D7" s="174"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
         <v>2021</v>
       </c>
-      <c r="B8" s="168">
-        <f>COUNTIF(Study!B$1:B$1003,"2021")</f>
+      <c r="B8" s="173">
+        <f>COUNTIF(Study!B$1:B$1004,"2021")</f>
         <v>39</v>
       </c>
-      <c r="C8" s="168"/>
-      <c r="D8" s="168"/>
+      <c r="C8" s="173"/>
+      <c r="D8" s="173"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="79">
         <v>2022</v>
       </c>
-      <c r="B9" s="168">
-        <f>COUNTIF(Study!B$1:B$1003,"2022")</f>
+      <c r="B9" s="173">
+        <f>COUNTIF(Study!B$1:B$1004,"2022")</f>
         <v>3</v>
       </c>
-      <c r="C9" s="168"/>
-      <c r="D9" s="168"/>
+      <c r="C9" s="173"/>
+      <c r="D9" s="173"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="79">
         <v>2023</v>
       </c>
-      <c r="B10" s="168">
-        <f>COUNTIF(Study!B$1:B$1003,"2023")</f>
+      <c r="B10" s="173">
+        <f>COUNTIF(Study!B$1:B$1004,"2023")</f>
         <v>16</v>
       </c>
-      <c r="C10" s="168"/>
-      <c r="D10" s="168"/>
+      <c r="C10" s="173"/>
+      <c r="D10" s="173"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="79">
         <v>2024</v>
       </c>
-      <c r="B11" s="168">
-        <f>COUNTIF(Study!B$1:B$1003,"2024")</f>
-        <v>24</v>
-      </c>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
+      <c r="B11" s="173">
+        <f>COUNTIF(Study!B$1:B$1004,"2024")</f>
+        <v>25</v>
+      </c>
+      <c r="C11" s="173"/>
+      <c r="D11" s="173"/>
       <c r="G11" s="69"/>
       <c r="H11" s="69"/>
       <c r="I11" s="70"/>
@@ -9146,12 +9170,12 @@
       <c r="A13" s="76" t="s">
         <v>1583</v>
       </c>
-      <c r="B13" s="169">
-        <f>COUNTA(Study!A$2:A$1003)</f>
-        <v>82</v>
-      </c>
-      <c r="C13" s="169"/>
-      <c r="D13" s="169"/>
+      <c r="B13" s="174">
+        <f>COUNTA(Study!A$2:A$1004)</f>
+        <v>83</v>
+      </c>
+      <c r="C13" s="174"/>
+      <c r="D13" s="174"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9163,12 +9187,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="169">
-        <f>COUNTIF(Study!D$1:D$1003,"Y")</f>
+      <c r="B14" s="174">
+        <f>COUNTIF(Study!D$1:D$1004,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="169"/>
-      <c r="D14" s="169"/>
+      <c r="C14" s="174"/>
+      <c r="D14" s="174"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9178,9 +9202,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="170"/>
-      <c r="C15" s="170"/>
-      <c r="D15" s="170"/>
+      <c r="B15" s="175"/>
+      <c r="C15" s="175"/>
+      <c r="D15" s="175"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9192,11 +9216,11 @@
       <c r="A16" s="76" t="s">
         <v>1581</v>
       </c>
-      <c r="B16" s="169" t="s">
+      <c r="B16" s="174" t="s">
         <v>1580</v>
       </c>
-      <c r="C16" s="169"/>
-      <c r="D16" s="169"/>
+      <c r="C16" s="174"/>
+      <c r="D16" s="174"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9208,12 +9232,12 @@
       <c r="A17" s="78" t="s">
         <v>194</v>
       </c>
-      <c r="B17" s="168">
-        <f>COUNTIF(Study!C$1:C$1003,"GCP")</f>
+      <c r="B17" s="173">
+        <f>COUNTIF(Study!C$1:C$1004,"GCP")</f>
         <v>39</v>
       </c>
-      <c r="C17" s="168"/>
-      <c r="D17" s="168"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="173"/>
       <c r="G17" s="69"/>
       <c r="H17" s="69"/>
       <c r="I17" s="70"/>
@@ -9225,12 +9249,12 @@
       <c r="A18" s="79" t="s">
         <v>92</v>
       </c>
-      <c r="B18" s="168">
-        <f>COUNTIF(Study!C$1:C$1003,"GBG")</f>
+      <c r="B18" s="173">
+        <f>COUNTIF(Study!C$1:C$1004,"GBG")</f>
         <v>3</v>
       </c>
-      <c r="C18" s="168"/>
-      <c r="D18" s="168"/>
+      <c r="C18" s="173"/>
+      <c r="D18" s="173"/>
       <c r="G18" s="69"/>
       <c r="H18" s="69"/>
       <c r="I18" s="70"/>
@@ -9242,12 +9266,12 @@
       <c r="A19" s="79" t="s">
         <v>73</v>
       </c>
-      <c r="B19" s="168">
-        <f>COUNTIF(Study!C$1:C$1003,"ICON")</f>
-        <v>28</v>
-      </c>
-      <c r="C19" s="168"/>
-      <c r="D19" s="168"/>
+      <c r="B19" s="173">
+        <f>COUNTIF(Study!C$1:C$1004,"ICON")</f>
+        <v>29</v>
+      </c>
+      <c r="C19" s="173"/>
+      <c r="D19" s="173"/>
       <c r="G19" s="69"/>
       <c r="H19" s="69"/>
       <c r="I19" s="70"/>
@@ -9259,12 +9283,12 @@
       <c r="A20" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="168">
-        <f>COUNTIF(Study!C$1:C$1003,"Upwork")</f>
+      <c r="B20" s="173">
+        <f>COUNTIF(Study!C$1:C$1004,"Upwork")</f>
         <v>9</v>
       </c>
-      <c r="C20" s="168"/>
-      <c r="D20" s="168"/>
+      <c r="C20" s="173"/>
+      <c r="D20" s="173"/>
       <c r="G20" s="69"/>
       <c r="H20" s="69"/>
       <c r="I20" s="70"/>
@@ -9276,12 +9300,12 @@
       <c r="A21" s="79" t="s">
         <v>207</v>
       </c>
-      <c r="B21" s="168">
-        <f>COUNTIF(Study!C$1:C$1003,"Learning")</f>
+      <c r="B21" s="173">
+        <f>COUNTIF(Study!C$1:C$1004,"Learning")</f>
         <v>3</v>
       </c>
-      <c r="C21" s="168"/>
-      <c r="D21" s="168"/>
+      <c r="C21" s="173"/>
+      <c r="D21" s="173"/>
       <c r="G21" s="69"/>
       <c r="H21" s="69"/>
       <c r="I21" s="70"/>
@@ -9321,15 +9345,15 @@
         <v>1583</v>
       </c>
       <c r="B24" s="80">
-        <f>COUNTA(Study!A$2:A$1004)</f>
-        <v>82</v>
+        <f>COUNTA(Study!A$2:A$1005)</f>
+        <v>83</v>
       </c>
       <c r="C24" s="73">
         <v>100</v>
       </c>
       <c r="D24" s="152">
         <f>B24-C24</f>
-        <v>-18</v>
+        <v>-17</v>
       </c>
       <c r="L24" s="70"/>
     </row>
@@ -9338,7 +9362,7 @@
         <v>165</v>
       </c>
       <c r="B25" s="80">
-        <f>COUNTIF(Study!D$1:D$1004,"Y")</f>
+        <f>COUNTIF(Study!D$1:D$1005,"Y")</f>
         <v>35</v>
       </c>
       <c r="C25" s="73">
@@ -9358,12 +9382,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="171" t="s">
+      <c r="A27" s="176" t="s">
         <v>1588</v>
       </c>
-      <c r="B27" s="171"/>
-      <c r="C27" s="171"/>
-      <c r="D27" s="171"/>
+      <c r="B27" s="176"/>
+      <c r="C27" s="176"/>
+      <c r="D27" s="176"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9376,47 +9400,47 @@
       <c r="A29" s="76" t="s">
         <v>1589</v>
       </c>
-      <c r="B29" s="169" t="s">
+      <c r="B29" s="174" t="s">
         <v>1580</v>
       </c>
-      <c r="C29" s="169"/>
-      <c r="D29" s="169"/>
+      <c r="C29" s="174"/>
+      <c r="D29" s="174"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="79" t="s">
         <v>1999</v>
       </c>
-      <c r="B30" s="168">
-        <f>COUNTIF('100 Reading Plan'!A$2:A$1064, "*Y*")</f>
-        <v>72</v>
-      </c>
-      <c r="C30" s="168"/>
-      <c r="D30" s="168"/>
+      <c r="B30" s="173">
+        <f>COUNTIF('Reading Plan'!A$2:A$1064, "*Y*")</f>
+        <v>77</v>
+      </c>
+      <c r="C30" s="173"/>
+      <c r="D30" s="173"/>
       <c r="L30" s="70"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="79" t="s">
         <v>1557</v>
       </c>
-      <c r="B31" s="168">
-        <f>COUNTIF('100 Reading Plan'!A$2:A$1064, "N")</f>
-        <v>43</v>
-      </c>
-      <c r="C31" s="168"/>
-      <c r="D31" s="168"/>
+      <c r="B31" s="173">
+        <f>COUNTIF('Reading Plan'!A$2:A$1064, "N")</f>
+        <v>38</v>
+      </c>
+      <c r="C31" s="173"/>
+      <c r="D31" s="173"/>
       <c r="L31" s="70"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="79" t="s">
         <v>433</v>
       </c>
-      <c r="B32" s="168">
-        <f>COUNTIF('100 Reading Plan'!A$2:A$1064, "*Ongoing*")</f>
+      <c r="B32" s="173">
+        <f>COUNTIF('Reading Plan'!A$2:A$1064, "*Ongoing*")</f>
         <v>1</v>
       </c>
-      <c r="C32" s="168"/>
-      <c r="D32" s="168"/>
+      <c r="C32" s="173"/>
+      <c r="D32" s="173"/>
       <c r="L32" s="70"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -9434,18 +9458,18 @@
       <c r="L34" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="167" t="s">
+      <c r="A36" s="172" t="s">
         <v>1590</v>
       </c>
-      <c r="B36" s="167"/>
-      <c r="C36" s="167"/>
-      <c r="D36" s="167"/>
+      <c r="B36" s="172"/>
+      <c r="C36" s="172"/>
+      <c r="D36" s="172"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="167"/>
-      <c r="B37" s="167"/>
-      <c r="C37" s="167"/>
-      <c r="D37" s="167"/>
+      <c r="A37" s="172"/>
+      <c r="B37" s="172"/>
+      <c r="C37" s="172"/>
+      <c r="D37" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -9485,11 +9509,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
-  <dimension ref="A1:L83"/>
+  <dimension ref="A1:L84"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+    <sheetView topLeftCell="E1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I54" sqref="I54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11030,7 +11054,7 @@
         <v>247</v>
       </c>
       <c r="F45" s="93" t="s">
-        <v>248</v>
+        <v>2177</v>
       </c>
       <c r="G45" s="94" t="s">
         <v>249</v>
@@ -11041,7 +11065,9 @@
       <c r="I45" s="94" t="s">
         <v>59</v>
       </c>
-      <c r="J45" s="93"/>
+      <c r="J45" s="93" t="s">
+        <v>2176</v>
+      </c>
       <c r="K45" s="93" t="s">
         <v>132</v>
       </c>
@@ -11049,69 +11075,69 @@
         <v>60</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="93" t="s">
         <v>58</v>
       </c>
       <c r="B46" s="93">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C46" s="93" t="s">
         <v>73</v>
       </c>
       <c r="D46" s="93"/>
       <c r="E46" s="93" t="s">
-        <v>250</v>
+        <v>2170</v>
       </c>
       <c r="F46" s="93" t="s">
-        <v>251</v>
+        <v>2171</v>
       </c>
       <c r="G46" s="94" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="H46" s="93" t="s">
-        <v>11</v>
+        <v>2172</v>
       </c>
       <c r="I46" s="94" t="s">
-        <v>257</v>
-      </c>
-      <c r="J46" s="93"/>
+        <v>2175</v>
+      </c>
+      <c r="J46" s="93" t="s">
+        <v>2174</v>
+      </c>
       <c r="K46" s="93" t="s">
-        <v>258</v>
-      </c>
-      <c r="L46" s="93" t="s">
-        <v>10</v>
-      </c>
+        <v>2173</v>
+      </c>
+      <c r="L46" s="93"/>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" s="93" t="s">
         <v>58</v>
       </c>
       <c r="B47" s="93">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C47" s="93" t="s">
         <v>73</v>
       </c>
       <c r="D47" s="93"/>
       <c r="E47" s="93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F47" s="93" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G47" s="94" t="s">
-        <v>265</v>
+        <v>252</v>
       </c>
       <c r="H47" s="93" t="s">
         <v>11</v>
       </c>
       <c r="I47" s="94" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="J47" s="93"/>
       <c r="K47" s="93" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="L47" s="93" t="s">
         <v>10</v>
@@ -11122,33 +11148,33 @@
         <v>58</v>
       </c>
       <c r="B48" s="93">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C48" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D48" s="93" t="s">
-        <v>166</v>
-      </c>
+      <c r="D48" s="93"/>
       <c r="E48" s="93" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="F48" s="93" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="G48" s="94" t="s">
-        <v>61</v>
+        <v>265</v>
       </c>
       <c r="H48" s="93" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="I48" s="94" t="s">
-        <v>62</v>
+        <v>259</v>
       </c>
       <c r="J48" s="93"/>
-      <c r="K48" s="93"/>
+      <c r="K48" s="93" t="s">
+        <v>260</v>
+      </c>
       <c r="L48" s="93" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -11156,67 +11182,67 @@
         <v>58</v>
       </c>
       <c r="B49" s="93">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C49" s="93" t="s">
         <v>73</v>
       </c>
-      <c r="D49" s="93"/>
+      <c r="D49" s="93" t="s">
+        <v>166</v>
+      </c>
       <c r="E49" s="93" t="s">
+        <v>255</v>
+      </c>
+      <c r="F49" s="93" t="s">
+        <v>266</v>
+      </c>
+      <c r="G49" s="94" t="s">
+        <v>61</v>
+      </c>
+      <c r="H49" s="93" t="s">
+        <v>24</v>
+      </c>
+      <c r="I49" s="94" t="s">
+        <v>62</v>
+      </c>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" s="93">
+        <v>2024</v>
+      </c>
+      <c r="C50" s="93" t="s">
+        <v>73</v>
+      </c>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93" t="s">
         <v>256</v>
       </c>
-      <c r="F49" s="93" t="s">
+      <c r="F50" s="93" t="s">
         <v>263</v>
       </c>
-      <c r="G49" s="94" t="s">
+      <c r="G50" s="94" t="s">
         <v>264</v>
       </c>
-      <c r="H49" s="93" t="s">
+      <c r="H50" s="93" t="s">
         <v>9</v>
       </c>
-      <c r="I49" s="94" t="s">
+      <c r="I50" s="94" t="s">
         <v>261</v>
       </c>
-      <c r="J49" s="93"/>
-      <c r="K49" s="93" t="s">
+      <c r="J50" s="93"/>
+      <c r="K50" s="93" t="s">
         <v>262</v>
       </c>
-      <c r="L49" s="93" t="s">
+      <c r="L50" s="93" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A50" s="95" t="s">
-        <v>2</v>
-      </c>
-      <c r="B50" s="95">
-        <v>2023</v>
-      </c>
-      <c r="C50" s="95" t="s">
-        <v>82</v>
-      </c>
-      <c r="D50" s="95"/>
-      <c r="E50" s="95" t="s">
-        <v>268</v>
-      </c>
-      <c r="F50" s="95" t="s">
-        <v>88</v>
-      </c>
-      <c r="G50" s="96" t="s">
-        <v>269</v>
-      </c>
-      <c r="H50" s="95" t="s">
-        <v>3</v>
-      </c>
-      <c r="I50" s="96" t="s">
-        <v>83</v>
-      </c>
-      <c r="J50" s="95"/>
-      <c r="K50" s="95" t="s">
-        <v>114</v>
-      </c>
-      <c r="L50" s="95" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -11224,36 +11250,36 @@
         <v>2</v>
       </c>
       <c r="B51" s="95">
-        <v>2021</v>
+        <v>2023</v>
       </c>
       <c r="C51" s="95" t="s">
-        <v>194</v>
+        <v>82</v>
       </c>
       <c r="D51" s="95"/>
       <c r="E51" s="95" t="s">
-        <v>285</v>
+        <v>268</v>
       </c>
       <c r="F51" s="95" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G51" s="96" t="s">
-        <v>85</v>
+        <v>269</v>
       </c>
       <c r="H51" s="95" t="s">
         <v>3</v>
       </c>
       <c r="I51" s="96" t="s">
-        <v>14</v>
+        <v>83</v>
       </c>
       <c r="J51" s="95"/>
       <c r="K51" s="95" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="L51" s="95" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="52" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A52" s="95" t="s">
         <v>2</v>
       </c>
@@ -11265,26 +11291,26 @@
       </c>
       <c r="D52" s="95"/>
       <c r="E52" s="95" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F52" s="95" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G52" s="96" t="s">
-        <v>428</v>
+        <v>85</v>
       </c>
       <c r="H52" s="95" t="s">
         <v>3</v>
       </c>
       <c r="I52" s="96" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="J52" s="95"/>
       <c r="K52" s="95" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="L52" s="95" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="53" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -11299,29 +11325,29 @@
       </c>
       <c r="D53" s="95"/>
       <c r="E53" s="95" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="F53" s="95" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="G53" s="96" t="s">
-        <v>413</v>
+        <v>428</v>
       </c>
       <c r="H53" s="95" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="I53" s="96" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="J53" s="95"/>
       <c r="K53" s="95" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="L53" s="95" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="54" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A54" s="95" t="s">
         <v>2</v>
       </c>
@@ -11333,24 +11359,26 @@
       </c>
       <c r="D54" s="95"/>
       <c r="E54" s="95" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F54" s="95" t="s">
-        <v>162</v>
+        <v>89</v>
       </c>
       <c r="G54" s="96" t="s">
-        <v>429</v>
+        <v>413</v>
       </c>
       <c r="H54" s="95" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="I54" s="96" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="J54" s="95"/>
-      <c r="K54" s="95"/>
+      <c r="K54" s="95" t="s">
+        <v>108</v>
+      </c>
       <c r="L54" s="95" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -11363,14 +11391,12 @@
       <c r="C55" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="D55" s="95" t="s">
-        <v>166</v>
-      </c>
+      <c r="D55" s="95"/>
       <c r="E55" s="95" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="F55" s="95" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G55" s="96" t="s">
         <v>429</v>
@@ -11379,7 +11405,7 @@
         <v>11</v>
       </c>
       <c r="I55" s="96" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="J55" s="95"/>
       <c r="K55" s="95"/>
@@ -11387,7 +11413,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="56" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A56" s="95" t="s">
         <v>2</v>
       </c>
@@ -11397,61 +11423,59 @@
       <c r="C56" s="95" t="s">
         <v>194</v>
       </c>
-      <c r="D56" s="95"/>
+      <c r="D56" s="95" t="s">
+        <v>166</v>
+      </c>
       <c r="E56" s="95" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="F56" s="95" t="s">
-        <v>94</v>
+        <v>163</v>
       </c>
       <c r="G56" s="96" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="H56" s="95" t="s">
         <v>11</v>
       </c>
       <c r="I56" s="96" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="J56" s="95"/>
-      <c r="K56" s="95" t="s">
-        <v>111</v>
-      </c>
+      <c r="K56" s="95"/>
       <c r="L56" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A57" s="95" t="s">
         <v>2</v>
       </c>
       <c r="B57" s="95">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C57" s="95" t="s">
-        <v>92</v>
-      </c>
-      <c r="D57" s="95" t="s">
-        <v>166</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="D57" s="95"/>
       <c r="E57" s="95" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="F57" s="95" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G57" s="96" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="H57" s="95" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="I57" s="96" t="s">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="J57" s="95"/>
       <c r="K57" s="95" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="L57" s="95" t="s">
         <v>10</v>
@@ -11467,25 +11491,27 @@
       <c r="C58" s="95" t="s">
         <v>92</v>
       </c>
-      <c r="D58" s="95"/>
+      <c r="D58" s="95" t="s">
+        <v>166</v>
+      </c>
       <c r="E58" s="95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="F58" s="95" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G58" s="96" t="s">
         <v>431</v>
       </c>
       <c r="H58" s="95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I58" s="96" t="s">
-        <v>20</v>
+        <v>127</v>
       </c>
       <c r="J58" s="95"/>
       <c r="K58" s="95" t="s">
-        <v>112</v>
+        <v>126</v>
       </c>
       <c r="L58" s="95" t="s">
         <v>10</v>
@@ -11503,63 +11529,59 @@
       </c>
       <c r="D59" s="95"/>
       <c r="E59" s="95" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="F59" s="95" t="s">
-        <v>281</v>
+        <v>93</v>
       </c>
       <c r="G59" s="96" t="s">
         <v>431</v>
       </c>
-      <c r="H59" s="95"/>
+      <c r="H59" s="95" t="s">
+        <v>11</v>
+      </c>
       <c r="I59" s="96" t="s">
-        <v>280</v>
+        <v>20</v>
       </c>
       <c r="J59" s="95"/>
-      <c r="K59" s="95"/>
+      <c r="K59" s="95" t="s">
+        <v>112</v>
+      </c>
       <c r="L59" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="60" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A60" s="95" t="s">
         <v>2</v>
       </c>
       <c r="B60" s="95">
-        <v>2023</v>
+        <v>2022</v>
       </c>
       <c r="C60" s="95" t="s">
-        <v>73</v>
-      </c>
-      <c r="D60" s="95" t="s">
-        <v>166</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="D60" s="95"/>
       <c r="E60" s="95" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="F60" s="95" t="s">
-        <v>271</v>
+        <v>281</v>
       </c>
       <c r="G60" s="96" t="s">
-        <v>74</v>
-      </c>
-      <c r="H60" s="95" t="s">
-        <v>9</v>
-      </c>
+        <v>431</v>
+      </c>
+      <c r="H60" s="95"/>
       <c r="I60" s="96" t="s">
-        <v>160</v>
-      </c>
-      <c r="J60" s="95" t="s">
-        <v>1920</v>
-      </c>
-      <c r="K60" s="95" t="s">
-        <v>161</v>
-      </c>
+        <v>280</v>
+      </c>
+      <c r="J60" s="95"/>
+      <c r="K60" s="95"/>
       <c r="L60" s="95" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="61" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="95" t="s">
         <v>2</v>
       </c>
@@ -11569,28 +11591,32 @@
       <c r="C61" s="95" t="s">
         <v>73</v>
       </c>
-      <c r="D61" s="95"/>
+      <c r="D61" s="95" t="s">
+        <v>166</v>
+      </c>
       <c r="E61" s="95" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="F61" s="95" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="G61" s="96" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="H61" s="95" t="s">
         <v>9</v>
       </c>
       <c r="I61" s="96" t="s">
-        <v>21</v>
-      </c>
-      <c r="J61" s="95"/>
+        <v>160</v>
+      </c>
+      <c r="J61" s="95" t="s">
+        <v>1920</v>
+      </c>
       <c r="K61" s="95" t="s">
-        <v>113</v>
+        <v>161</v>
       </c>
       <c r="L61" s="95" t="s">
-        <v>13</v>
+        <v>159</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -11598,33 +11624,33 @@
         <v>2</v>
       </c>
       <c r="B62" s="95">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C62" s="95" t="s">
-        <v>207</v>
+        <v>73</v>
       </c>
       <c r="D62" s="95"/>
       <c r="E62" s="95" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="F62" s="95" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G62" s="96" t="s">
-        <v>243</v>
+        <v>95</v>
       </c>
       <c r="H62" s="95" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="I62" s="96" t="s">
-        <v>276</v>
+        <v>21</v>
       </c>
       <c r="J62" s="95"/>
       <c r="K62" s="95" t="s">
-        <v>1978</v>
+        <v>113</v>
       </c>
       <c r="L62" s="95" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -11635,14 +11661,14 @@
         <v>2024</v>
       </c>
       <c r="C63" s="95" t="s">
-        <v>73</v>
+        <v>207</v>
       </c>
       <c r="D63" s="95"/>
       <c r="E63" s="95" t="s">
-        <v>1974</v>
+        <v>274</v>
       </c>
       <c r="F63" s="95" t="s">
-        <v>1975</v>
+        <v>275</v>
       </c>
       <c r="G63" s="96" t="s">
         <v>243</v>
@@ -11651,51 +11677,51 @@
         <v>11</v>
       </c>
       <c r="I63" s="96" t="s">
-        <v>1976</v>
+        <v>276</v>
       </c>
       <c r="J63" s="95"/>
       <c r="K63" s="95" t="s">
-        <v>1977</v>
+        <v>1978</v>
       </c>
       <c r="L63" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A64" s="97" t="s">
-        <v>40</v>
-      </c>
-      <c r="B64" s="97">
-        <v>2021</v>
-      </c>
-      <c r="C64" s="97" t="s">
-        <v>194</v>
-      </c>
-      <c r="D64" s="97" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="97" t="s">
-        <v>288</v>
-      </c>
-      <c r="F64" s="97" t="s">
-        <v>154</v>
-      </c>
-      <c r="G64" s="98" t="s">
-        <v>400</v>
-      </c>
-      <c r="H64" s="97" t="s">
-        <v>26</v>
-      </c>
-      <c r="I64" s="98" t="s">
-        <v>192</v>
-      </c>
-      <c r="J64" s="97"/>
-      <c r="K64" s="97"/>
-      <c r="L64" s="97" t="s">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="95" t="s">
+        <v>2</v>
+      </c>
+      <c r="B64" s="95">
+        <v>2024</v>
+      </c>
+      <c r="C64" s="95" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="95"/>
+      <c r="E64" s="95" t="s">
+        <v>1974</v>
+      </c>
+      <c r="F64" s="95" t="s">
+        <v>1975</v>
+      </c>
+      <c r="G64" s="96" t="s">
+        <v>243</v>
+      </c>
+      <c r="H64" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="I64" s="96" t="s">
+        <v>1976</v>
+      </c>
+      <c r="J64" s="95"/>
+      <c r="K64" s="95" t="s">
+        <v>1977</v>
+      </c>
+      <c r="L64" s="95" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="97" t="s">
         <v>40</v>
       </c>
@@ -11709,10 +11735,10 @@
         <v>166</v>
       </c>
       <c r="E65" s="97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>98</v>
+        <v>154</v>
       </c>
       <c r="G65" s="98" t="s">
         <v>400</v>
@@ -11720,16 +11746,16 @@
       <c r="H65" s="97" t="s">
         <v>26</v>
       </c>
-      <c r="I65" s="99" t="s">
-        <v>38</v>
-      </c>
-      <c r="J65" s="108"/>
+      <c r="I65" s="98" t="s">
+        <v>192</v>
+      </c>
+      <c r="J65" s="97"/>
       <c r="K65" s="97"/>
       <c r="L65" s="97" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A66" s="97" t="s">
         <v>40</v>
       </c>
@@ -11739,31 +11765,31 @@
       <c r="C66" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="D66" s="97"/>
+      <c r="D66" s="97" t="s">
+        <v>166</v>
+      </c>
       <c r="E66" s="97" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
       <c r="F66" s="97" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G66" s="98" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H66" s="97" t="s">
-        <v>24</v>
-      </c>
-      <c r="I66" s="98" t="s">
-        <v>28</v>
-      </c>
-      <c r="J66" s="97"/>
-      <c r="K66" s="97" t="s">
-        <v>115</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="I66" s="99" t="s">
+        <v>38</v>
+      </c>
+      <c r="J66" s="108"/>
+      <c r="K66" s="97"/>
       <c r="L66" s="97" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="97" t="s">
         <v>40</v>
       </c>
@@ -11773,30 +11799,28 @@
       <c r="C67" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="D67" s="97" t="s">
-        <v>166</v>
-      </c>
+      <c r="D67" s="97"/>
       <c r="E67" s="97" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="F67" s="97" t="s">
-        <v>144</v>
+        <v>96</v>
       </c>
       <c r="G67" s="98" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H67" s="97" t="s">
         <v>24</v>
       </c>
       <c r="I67" s="98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J67" s="97"/>
       <c r="K67" s="97" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="L67" s="97" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -11813,10 +11837,10 @@
         <v>166</v>
       </c>
       <c r="E68" s="97" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="F68" s="97" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="G68" s="98" t="s">
         <v>400</v>
@@ -11825,11 +11849,11 @@
         <v>24</v>
       </c>
       <c r="I68" s="98" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J68" s="97"/>
       <c r="K68" s="97" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="L68" s="97" t="s">
         <v>10</v>
@@ -11849,10 +11873,10 @@
         <v>166</v>
       </c>
       <c r="E69" s="97" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="F69" s="97" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G69" s="98" t="s">
         <v>400</v>
@@ -11861,11 +11885,11 @@
         <v>24</v>
       </c>
       <c r="I69" s="98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="J69" s="97"/>
       <c r="K69" s="97" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="L69" s="97" t="s">
         <v>10</v>
@@ -11885,10 +11909,10 @@
         <v>166</v>
       </c>
       <c r="E70" s="97" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="F70" s="97" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G70" s="98" t="s">
         <v>400</v>
@@ -11897,11 +11921,11 @@
         <v>24</v>
       </c>
       <c r="I70" s="98" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J70" s="97"/>
       <c r="K70" s="97" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="L70" s="97" t="s">
         <v>10</v>
@@ -11921,10 +11945,10 @@
         <v>166</v>
       </c>
       <c r="E71" s="97" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="G71" s="98" t="s">
         <v>400</v>
@@ -11933,11 +11957,11 @@
         <v>24</v>
       </c>
       <c r="I71" s="98" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="J71" s="97"/>
       <c r="K71" s="97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="L71" s="97" t="s">
         <v>10</v>
@@ -11957,10 +11981,10 @@
         <v>166</v>
       </c>
       <c r="E72" s="97" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F72" s="97" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="G72" s="98" t="s">
         <v>400</v>
@@ -11969,11 +11993,11 @@
         <v>24</v>
       </c>
       <c r="I72" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J72" s="97"/>
       <c r="K72" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="L72" s="97" t="s">
         <v>10</v>
@@ -11993,10 +12017,10 @@
         <v>166</v>
       </c>
       <c r="E73" s="97" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F73" s="97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G73" s="98" t="s">
         <v>400</v>
@@ -12005,11 +12029,11 @@
         <v>24</v>
       </c>
       <c r="I73" s="98" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="J73" s="97"/>
       <c r="K73" s="97" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="L73" s="97" t="s">
         <v>10</v>
@@ -12025,12 +12049,14 @@
       <c r="C74" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="D74" s="97"/>
+      <c r="D74" s="97" t="s">
+        <v>166</v>
+      </c>
       <c r="E74" s="97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="F74" s="97" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G74" s="98" t="s">
         <v>400</v>
@@ -12039,11 +12065,11 @@
         <v>24</v>
       </c>
       <c r="I74" s="98" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="J74" s="97"/>
       <c r="K74" s="97" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="L74" s="97" t="s">
         <v>10</v>
@@ -12059,14 +12085,12 @@
       <c r="C75" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="D75" s="97" t="s">
-        <v>166</v>
-      </c>
+      <c r="D75" s="97"/>
       <c r="E75" s="97" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="F75" s="97" t="s">
-        <v>97</v>
+        <v>148</v>
       </c>
       <c r="G75" s="98" t="s">
         <v>400</v>
@@ -12075,10 +12099,12 @@
         <v>24</v>
       </c>
       <c r="I75" s="98" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="J75" s="97"/>
-      <c r="K75" s="97"/>
+      <c r="K75" s="97" t="s">
+        <v>123</v>
+      </c>
       <c r="L75" s="97" t="s">
         <v>10</v>
       </c>
@@ -12097,10 +12123,10 @@
         <v>166</v>
       </c>
       <c r="E76" s="97" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="F76" s="97" t="s">
-        <v>292</v>
+        <v>97</v>
       </c>
       <c r="G76" s="98" t="s">
         <v>400</v>
@@ -12109,7 +12135,7 @@
         <v>24</v>
       </c>
       <c r="I76" s="98" t="s">
-        <v>293</v>
+        <v>37</v>
       </c>
       <c r="J76" s="97"/>
       <c r="K76" s="97"/>
@@ -12131,19 +12157,19 @@
         <v>166</v>
       </c>
       <c r="E77" s="97" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="F77" s="97" t="s">
-        <v>99</v>
+        <v>292</v>
       </c>
       <c r="G77" s="98" t="s">
         <v>400</v>
       </c>
       <c r="H77" s="97" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="I77" s="98" t="s">
-        <v>39</v>
+        <v>293</v>
       </c>
       <c r="J77" s="97"/>
       <c r="K77" s="97"/>
@@ -12152,104 +12178,104 @@
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A78" s="102" t="s">
-        <v>78</v>
-      </c>
-      <c r="B78" s="102">
+      <c r="A78" s="97" t="s">
+        <v>40</v>
+      </c>
+      <c r="B78" s="97">
         <v>2021</v>
       </c>
-      <c r="C78" s="102" t="s">
+      <c r="C78" s="97" t="s">
         <v>194</v>
       </c>
-      <c r="D78" s="102" t="s">
+      <c r="D78" s="97" t="s">
         <v>166</v>
       </c>
-      <c r="E78" s="102" t="s">
-        <v>311</v>
-      </c>
-      <c r="F78" s="102" t="s">
-        <v>1605</v>
-      </c>
-      <c r="G78" s="103" t="s">
-        <v>432</v>
-      </c>
-      <c r="H78" s="102" t="s">
-        <v>24</v>
-      </c>
-      <c r="I78" s="103" t="s">
-        <v>67</v>
-      </c>
-      <c r="J78" s="102"/>
-      <c r="K78" s="102"/>
-      <c r="L78" s="102" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="79" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="E78" s="97" t="s">
+        <v>290</v>
+      </c>
+      <c r="F78" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="G78" s="98" t="s">
+        <v>400</v>
+      </c>
+      <c r="H78" s="97" t="s">
+        <v>27</v>
+      </c>
+      <c r="I78" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="J78" s="97"/>
+      <c r="K78" s="97"/>
+      <c r="L78" s="97" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A79" s="102" t="s">
         <v>78</v>
       </c>
       <c r="B79" s="102">
+        <v>2021</v>
+      </c>
+      <c r="C79" s="102" t="s">
+        <v>194</v>
+      </c>
+      <c r="D79" s="102" t="s">
+        <v>166</v>
+      </c>
+      <c r="E79" s="102" t="s">
+        <v>311</v>
+      </c>
+      <c r="F79" s="102" t="s">
+        <v>1605</v>
+      </c>
+      <c r="G79" s="103" t="s">
+        <v>432</v>
+      </c>
+      <c r="H79" s="102" t="s">
+        <v>24</v>
+      </c>
+      <c r="I79" s="103" t="s">
+        <v>67</v>
+      </c>
+      <c r="J79" s="102"/>
+      <c r="K79" s="102"/>
+      <c r="L79" s="102" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="80" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A80" s="102" t="s">
+        <v>78</v>
+      </c>
+      <c r="B80" s="102">
         <v>2023</v>
       </c>
-      <c r="C79" s="102" t="s">
+      <c r="C80" s="102" t="s">
         <v>73</v>
       </c>
-      <c r="D79" s="102"/>
-      <c r="E79" s="102" t="s">
+      <c r="D80" s="102"/>
+      <c r="E80" s="102" t="s">
         <v>308</v>
       </c>
-      <c r="F79" s="102" t="s">
+      <c r="F80" s="102" t="s">
         <v>309</v>
       </c>
-      <c r="G79" s="103" t="s">
+      <c r="G80" s="103" t="s">
         <v>310</v>
       </c>
-      <c r="H79" s="102" t="s">
+      <c r="H80" s="102" t="s">
         <v>9</v>
       </c>
-      <c r="I79" s="103" t="s">
+      <c r="I80" s="103" t="s">
         <v>398</v>
       </c>
-      <c r="J79" s="102"/>
-      <c r="K79" s="102" t="s">
+      <c r="J80" s="102"/>
+      <c r="K80" s="102" t="s">
         <v>312</v>
       </c>
-      <c r="L79" s="102" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A80" s="100" t="s">
-        <v>81</v>
-      </c>
-      <c r="B80" s="100">
-        <v>2024</v>
-      </c>
-      <c r="C80" s="100" t="s">
-        <v>82</v>
-      </c>
-      <c r="D80" s="100" t="s">
-        <v>166</v>
-      </c>
-      <c r="E80" s="100" t="s">
-        <v>304</v>
-      </c>
-      <c r="F80" s="100" t="s">
-        <v>2008</v>
-      </c>
-      <c r="G80" s="101" t="s">
-        <v>1604</v>
-      </c>
-      <c r="H80" s="100" t="s">
-        <v>26</v>
-      </c>
-      <c r="I80" s="101" t="s">
-        <v>315</v>
-      </c>
-      <c r="J80" s="100"/>
-      <c r="K80" s="100"/>
-      <c r="L80" s="100" t="s">
+      <c r="L80" s="102" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12263,12 +12289,14 @@
       <c r="C81" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="D81" s="100"/>
+      <c r="D81" s="100" t="s">
+        <v>166</v>
+      </c>
       <c r="E81" s="100" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="F81" s="100" t="s">
-        <v>2009</v>
+        <v>2008</v>
       </c>
       <c r="G81" s="101" t="s">
         <v>1604</v>
@@ -12277,7 +12305,7 @@
         <v>26</v>
       </c>
       <c r="I81" s="101" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="J81" s="100"/>
       <c r="K81" s="100"/>
@@ -12286,38 +12314,40 @@
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A82" s="104" t="s">
-        <v>306</v>
-      </c>
-      <c r="B82" s="104">
+      <c r="A82" s="100" t="s">
+        <v>81</v>
+      </c>
+      <c r="B82" s="100">
         <v>2024</v>
       </c>
-      <c r="C82" s="104" t="s">
+      <c r="C82" s="100" t="s">
         <v>82</v>
       </c>
-      <c r="D82" s="104"/>
-      <c r="E82" s="104" t="s">
-        <v>307</v>
-      </c>
-      <c r="F82" s="104" t="s">
-        <v>2007</v>
-      </c>
-      <c r="G82" s="106"/>
-      <c r="H82" s="104" t="s">
+      <c r="D82" s="100"/>
+      <c r="E82" s="100" t="s">
+        <v>305</v>
+      </c>
+      <c r="F82" s="100" t="s">
+        <v>2009</v>
+      </c>
+      <c r="G82" s="101" t="s">
+        <v>1604</v>
+      </c>
+      <c r="H82" s="100" t="s">
         <v>26</v>
       </c>
-      <c r="I82" s="106" t="s">
-        <v>313</v>
-      </c>
-      <c r="J82" s="104"/>
-      <c r="K82" s="104"/>
-      <c r="L82" s="104" t="s">
+      <c r="I82" s="101" t="s">
+        <v>314</v>
+      </c>
+      <c r="J82" s="100"/>
+      <c r="K82" s="100"/>
+      <c r="L82" s="100" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A83" s="104" t="s">
-        <v>2001</v>
+        <v>306</v>
       </c>
       <c r="B83" s="104">
         <v>2024</v>
@@ -12327,28 +12357,58 @@
       </c>
       <c r="D83" s="104"/>
       <c r="E83" s="104" t="s">
-        <v>2002</v>
+        <v>307</v>
       </c>
       <c r="F83" s="104" t="s">
-        <v>2006</v>
-      </c>
-      <c r="G83" s="104" t="s">
-        <v>2004</v>
-      </c>
+        <v>2007</v>
+      </c>
+      <c r="G83" s="106"/>
       <c r="H83" s="104" t="s">
-        <v>9</v>
-      </c>
-      <c r="I83" s="104" t="s">
-        <v>2005</v>
+        <v>26</v>
+      </c>
+      <c r="I83" s="106" t="s">
+        <v>313</v>
       </c>
       <c r="J83" s="104"/>
       <c r="K83" s="104"/>
       <c r="L83" s="104" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="104" t="s">
+        <v>2001</v>
+      </c>
+      <c r="B84" s="104">
+        <v>2024</v>
+      </c>
+      <c r="C84" s="104" t="s">
+        <v>82</v>
+      </c>
+      <c r="D84" s="104"/>
+      <c r="E84" s="104" t="s">
+        <v>2002</v>
+      </c>
+      <c r="F84" s="104" t="s">
+        <v>2006</v>
+      </c>
+      <c r="G84" s="104" t="s">
+        <v>2004</v>
+      </c>
+      <c r="H84" s="104" t="s">
+        <v>9</v>
+      </c>
+      <c r="I84" s="104" t="s">
+        <v>2005</v>
+      </c>
+      <c r="J84" s="104"/>
+      <c r="K84" s="104"/>
+      <c r="L84" s="104" t="s">
         <v>2003</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:L82" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
+  <autoFilter ref="A1:L83" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12358,9 +12418,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
   <dimension ref="A1:F184"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E44" sqref="E44"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12381,7 +12441,7 @@
         <v>1579</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>317</v>
@@ -12701,13 +12761,13 @@
         <v>2024</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>1987</v>
@@ -12721,13 +12781,13 @@
         <v>2024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2116</v>
+        <v>2113</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>1987</v>
@@ -12741,13 +12801,13 @@
         <v>2024</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2129</v>
+        <v>2126</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2117</v>
+        <v>2114</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1987</v>
@@ -12761,13 +12821,13 @@
         <v>2024</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2130</v>
+        <v>2127</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2118</v>
+        <v>2115</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1987</v>
@@ -12781,13 +12841,13 @@
         <v>2024</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2131</v>
+        <v>2128</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2119</v>
+        <v>2116</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1987</v>
@@ -12801,13 +12861,13 @@
         <v>2024</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2126</v>
+        <v>2123</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2120</v>
+        <v>2117</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1987</v>
@@ -12821,13 +12881,13 @@
         <v>2024</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2121</v>
+        <v>2118</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1987</v>
@@ -12841,13 +12901,13 @@
         <v>2024</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E24" s="4" t="s">
-        <v>2122</v>
+        <v>2119</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1987</v>
@@ -12861,13 +12921,13 @@
         <v>2024</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>2123</v>
+        <v>2120</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1987</v>
@@ -12881,13 +12941,13 @@
         <v>2024</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1987</v>
@@ -12901,13 +12961,13 @@
         <v>2024</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>2000</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>2125</v>
+        <v>2122</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1987</v>
@@ -13227,7 +13287,7 @@
         <v>2024</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>2152</v>
+        <v>2149</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>355</v>
@@ -13247,7 +13307,7 @@
         <v>2024</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="D45" s="4" t="s">
         <v>355</v>
@@ -13265,10 +13325,10 @@
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
       <c r="E46" s="9" t="s">
-        <v>2150</v>
+        <v>2147</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>2151</v>
+        <v>2148</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -13279,7 +13339,7 @@
         <v>2024</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>2090</v>
@@ -13288,7 +13348,7 @@
         <v>2076</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -13299,7 +13359,7 @@
         <v>2024</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D48" s="4" t="s">
         <v>2090</v>
@@ -13308,7 +13368,7 @@
         <v>2077</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -13319,7 +13379,7 @@
         <v>2024</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>2090</v>
@@ -13328,7 +13388,7 @@
         <v>2078</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -13339,7 +13399,7 @@
         <v>2024</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>2157</v>
+        <v>2154</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>2090</v>
@@ -13348,15 +13408,19 @@
         <v>2079</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B51" s="9"/>
-      <c r="C51" s="9"/>
+      <c r="A51" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>2154</v>
+      </c>
       <c r="D51" s="4" t="s">
         <v>2090</v>
       </c>
@@ -13364,15 +13428,19 @@
         <v>2080</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B52" s="9"/>
-      <c r="C52" s="9"/>
+      <c r="B52" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C52" s="8" t="s">
+        <v>2154</v>
+      </c>
       <c r="D52" s="4" t="s">
         <v>2090</v>
       </c>
@@ -13380,7 +13448,7 @@
         <v>2081</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -13396,7 +13464,7 @@
         <v>2082</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13412,7 +13480,7 @@
         <v>2083</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -13428,7 +13496,7 @@
         <v>2084</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -13444,7 +13512,7 @@
         <v>2085</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13460,7 +13528,7 @@
         <v>2086</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -13476,7 +13544,7 @@
         <v>2087</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13492,7 +13560,7 @@
         <v>2088</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13508,7 +13576,7 @@
         <v>2089</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13524,7 +13592,7 @@
         <v>2091</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13540,7 +13608,7 @@
         <v>2092</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -13556,7 +13624,7 @@
         <v>2093</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -13572,7 +13640,7 @@
         <v>2094</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13588,7 +13656,7 @@
         <v>2095</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13604,7 +13672,7 @@
         <v>2096</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13620,7 +13688,7 @@
         <v>2097</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -13636,7 +13704,7 @@
         <v>2098</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13652,7 +13720,7 @@
         <v>2099</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -13668,7 +13736,7 @@
         <v>2100</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13684,7 +13752,7 @@
         <v>2101</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -13695,7 +13763,7 @@
         <v>2024</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>2154</v>
+        <v>2151</v>
       </c>
       <c r="D72" s="3" t="s">
         <v>326</v>
@@ -13715,7 +13783,7 @@
         <v>2024</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="D73" s="3" t="s">
         <v>326</v>
@@ -13735,13 +13803,13 @@
         <v>2024</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="F74" s="4" t="s">
         <v>2050</v>
@@ -13755,13 +13823,13 @@
         <v>2024</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>2156</v>
+        <v>2153</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="F75" s="4" t="s">
         <v>2050</v>
@@ -13775,13 +13843,13 @@
         <v>2024</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2140</v>
+        <v>2137</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>2050</v>
@@ -13795,13 +13863,13 @@
         <v>2024</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>2141</v>
+        <v>2138</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>2050</v>
@@ -13815,13 +13883,13 @@
         <v>2024</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2142</v>
+        <v>2139</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>2050</v>
@@ -13835,13 +13903,13 @@
         <v>2024</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>2143</v>
+        <v>2140</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>2050</v>
@@ -13855,13 +13923,13 @@
         <v>2024</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2144</v>
+        <v>2141</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>2050</v>
@@ -13875,13 +13943,13 @@
         <v>2024</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2163</v>
+        <v>2160</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>2050</v>
@@ -13895,13 +13963,13 @@
         <v>2024</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2145</v>
+        <v>2142</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>2050</v>
@@ -13915,13 +13983,13 @@
         <v>2024</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2146</v>
+        <v>2143</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>2050</v>
@@ -13935,53 +14003,53 @@
         <v>2024</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2164</v>
+        <v>2161</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B85" s="9">
+      <c r="A85" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B85" s="8">
         <v>2024</v>
       </c>
-      <c r="C85" s="9" t="s">
-        <v>2157</v>
+      <c r="C85" s="8" t="s">
+        <v>2154</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>2147</v>
+        <v>2144</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B86" s="9">
+      <c r="A86" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="8">
         <v>2024</v>
       </c>
-      <c r="C86" s="9" t="s">
-        <v>2157</v>
+      <c r="C86" s="8" t="s">
+        <v>2154</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>2148</v>
+        <v>2145</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>2050</v>
@@ -13995,13 +14063,13 @@
         <v>2024</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>2165</v>
+        <v>2162</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>2050</v>
@@ -14015,49 +14083,53 @@
         <v>2024</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>2136</v>
+        <v>2133</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2149</v>
+        <v>2146</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B89" s="9">
+      <c r="A89" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="8">
         <v>2024</v>
       </c>
-      <c r="C89" s="9"/>
+      <c r="C89" s="8" t="s">
+        <v>2154</v>
+      </c>
       <c r="D89" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>2102</v>
+        <v>2178</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>2050</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B90" s="9">
+      <c r="A90" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="8">
         <v>2024</v>
       </c>
-      <c r="C90" s="9"/>
+      <c r="C90" s="8" t="s">
+        <v>2154</v>
+      </c>
       <c r="D90" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>2103</v>
+        <v>2179</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>2050</v>
@@ -14075,7 +14147,7 @@
         <v>326</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>2104</v>
+        <v>2180</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>2050</v>
@@ -14093,7 +14165,7 @@
         <v>326</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>2105</v>
+        <v>2102</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>2050</v>
@@ -14111,7 +14183,7 @@
         <v>326</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>2106</v>
+        <v>2103</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2050</v>
@@ -14129,7 +14201,7 @@
         <v>326</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>2107</v>
+        <v>2104</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>2050</v>
@@ -14147,7 +14219,7 @@
         <v>326</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>2050</v>
@@ -14165,7 +14237,7 @@
         <v>326</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>2109</v>
+        <v>2106</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>2050</v>
@@ -14183,7 +14255,7 @@
         <v>326</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>2110</v>
+        <v>2107</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>2050</v>
@@ -14201,7 +14273,7 @@
         <v>326</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>2050</v>
@@ -14215,7 +14287,7 @@
         <v>2024</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>326</v>
@@ -14235,7 +14307,7 @@
         <v>2024</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>2159</v>
+        <v>2156</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>326</v>
@@ -14255,7 +14327,7 @@
         <v>2024</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>2127</v>
+        <v>2124</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>326</v>
@@ -14273,7 +14345,7 @@
         <v>2024</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>2160</v>
+        <v>2157</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>1918</v>
@@ -14293,7 +14365,7 @@
         <v>2024</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>1918</v>
@@ -14311,7 +14383,7 @@
         <v>2024</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>2158</v>
+        <v>2155</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>1918</v>
@@ -14329,7 +14401,7 @@
         <v>2024</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>2161</v>
+        <v>2158</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>1989</v>
@@ -14349,7 +14421,7 @@
         <v>2024</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>1989</v>
@@ -14401,7 +14473,7 @@
         <v>2024</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>1574</v>
@@ -14419,7 +14491,7 @@
         <v>2024</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>1574</v>
@@ -14439,7 +14511,7 @@
         <v>2024</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>1574</v>
@@ -14459,7 +14531,7 @@
         <v>2024</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>360</v>
@@ -14479,7 +14551,7 @@
         <v>2024</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>2128</v>
+        <v>2125</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>360</v>
@@ -14499,7 +14571,7 @@
         <v>2024</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>2155</v>
+        <v>2152</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>360</v>
@@ -14519,7 +14591,7 @@
         <v>2024</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>360</v>
@@ -14555,7 +14627,7 @@
         <v>2024</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>372</v>
@@ -14575,7 +14647,7 @@
         <v>2024</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>1591</v>
@@ -15123,6 +15195,7 @@
     <hyperlink ref="F106" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
     <hyperlink ref="F116" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
     <hyperlink ref="F29" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
+    <hyperlink ref="F51" r:id="rId6" xr:uid="{9876EE8E-FE8E-4400-BE56-1A5A23BEEA28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -18579,13 +18652,13 @@
       <c r="K142" s="114"/>
     </row>
     <row r="143" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="176" t="s">
+      <c r="A143" s="181" t="s">
         <v>1776</v>
       </c>
-      <c r="B143" s="178" t="s">
+      <c r="B143" s="183" t="s">
         <v>1648</v>
       </c>
-      <c r="C143" s="179">
+      <c r="C143" s="184">
         <v>45050</v>
       </c>
       <c r="D143" s="114" t="s">
@@ -18598,13 +18671,13 @@
       <c r="G143" s="116"/>
       <c r="H143" s="116"/>
       <c r="I143" s="144"/>
-      <c r="J143" s="181"/>
-      <c r="K143" s="176"/>
+      <c r="J143" s="186"/>
+      <c r="K143" s="181"/>
     </row>
     <row r="144" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="177"/>
-      <c r="B144" s="177"/>
-      <c r="C144" s="180"/>
+      <c r="A144" s="182"/>
+      <c r="B144" s="182"/>
+      <c r="C144" s="185"/>
       <c r="D144" s="114"/>
       <c r="E144" s="114" t="s">
         <v>1819</v>
@@ -18613,8 +18686,8 @@
       <c r="G144" s="114"/>
       <c r="H144" s="114"/>
       <c r="I144" s="115"/>
-      <c r="J144" s="182"/>
-      <c r="K144" s="177"/>
+      <c r="J144" s="187"/>
+      <c r="K144" s="182"/>
     </row>
     <row r="145" spans="1:11" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="113" t="s">
@@ -22366,7 +22439,7 @@
       <c r="D294" s="126" t="s">
         <v>1651</v>
       </c>
-      <c r="E294" s="199" t="s">
+      <c r="E294" s="167" t="s">
         <v>1652</v>
       </c>
       <c r="F294" s="126"/>
@@ -22376,7 +22449,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J294" s="117" t="s">
-        <v>2171</v>
+        <v>2168</v>
       </c>
       <c r="K294" s="114"/>
     </row>
@@ -22393,7 +22466,7 @@
       <c r="D295" s="126" t="s">
         <v>1638</v>
       </c>
-      <c r="E295" s="199" t="s">
+      <c r="E295" s="167" t="s">
         <v>1657</v>
       </c>
       <c r="F295" s="126"/>
@@ -22409,16 +22482,16 @@
       <c r="A296" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B296" s="200" t="s">
+      <c r="B296" s="168" t="s">
         <v>1615</v>
       </c>
-      <c r="C296" s="201">
+      <c r="C296" s="169">
         <v>45683</v>
       </c>
-      <c r="D296" s="202" t="s">
+      <c r="D296" s="170" t="s">
         <v>1638</v>
       </c>
-      <c r="E296" s="203" t="s">
+      <c r="E296" s="171" t="s">
         <v>1639</v>
       </c>
       <c r="F296" s="126"/>
@@ -22520,7 +22593,7 @@
         <v>45696</v>
       </c>
       <c r="D300" s="126"/>
-      <c r="E300" s="199" t="s">
+      <c r="E300" s="167" t="s">
         <v>1639</v>
       </c>
       <c r="F300" s="126"/>
@@ -22545,7 +22618,7 @@
       <c r="D301" s="126" t="s">
         <v>1661</v>
       </c>
-      <c r="E301" s="199" t="s">
+      <c r="E301" s="167" t="s">
         <v>1662</v>
       </c>
       <c r="F301" s="126"/>
@@ -22583,7 +22656,7 @@
       </c>
       <c r="J302" s="117"/>
       <c r="K302" s="131" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -23575,7 +23648,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -23617,7 +23690,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="186" t="s">
+      <c r="A2" s="191" t="s">
         <v>1379</v>
       </c>
       <c r="B2" s="42" t="s">
@@ -23646,7 +23719,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="187"/>
+      <c r="A3" s="192"/>
       <c r="B3" s="44" t="s">
         <v>1382</v>
       </c>
@@ -23673,7 +23746,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="188"/>
+      <c r="A4" s="193"/>
       <c r="B4" s="45" t="s">
         <v>1384</v>
       </c>
@@ -23700,7 +23773,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="188"/>
+      <c r="A5" s="193"/>
       <c r="B5" s="45" t="s">
         <v>1386</v>
       </c>
@@ -23727,7 +23800,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="188"/>
+      <c r="A6" s="193"/>
       <c r="B6" s="45" t="s">
         <v>1388</v>
       </c>
@@ -23754,7 +23827,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="188"/>
+      <c r="A7" s="193"/>
       <c r="B7" s="45" t="s">
         <v>1390</v>
       </c>
@@ -23763,7 +23836,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="189"/>
+      <c r="A8" s="194"/>
       <c r="B8" s="46" t="s">
         <v>1392</v>
       </c>
@@ -23772,7 +23845,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="190" t="s">
+      <c r="A9" s="195" t="s">
         <v>1394</v>
       </c>
       <c r="B9" s="47" t="s">
@@ -23783,7 +23856,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="190"/>
+      <c r="A10" s="195"/>
       <c r="B10" s="47" t="s">
         <v>1397</v>
       </c>
@@ -23792,7 +23865,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="190"/>
+      <c r="A11" s="195"/>
       <c r="B11" s="47" t="s">
         <v>1399</v>
       </c>
@@ -23801,7 +23874,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="191"/>
+      <c r="A12" s="196"/>
       <c r="B12" s="44" t="s">
         <v>1401</v>
       </c>
@@ -23810,7 +23883,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="191"/>
+      <c r="A13" s="196"/>
       <c r="B13" s="44" t="s">
         <v>1403</v>
       </c>
@@ -23819,7 +23892,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="191"/>
+      <c r="A14" s="196"/>
       <c r="B14" s="44" t="s">
         <v>1405</v>
       </c>
@@ -23828,7 +23901,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="191"/>
+      <c r="A15" s="196"/>
       <c r="B15" s="44" t="s">
         <v>1407</v>
       </c>
@@ -23837,7 +23910,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="191"/>
+      <c r="A16" s="196"/>
       <c r="B16" s="44" t="s">
         <v>1409</v>
       </c>
@@ -23846,7 +23919,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="191"/>
+      <c r="A17" s="196"/>
       <c r="B17" s="44" t="s">
         <v>1411</v>
       </c>
@@ -23855,7 +23928,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="191"/>
+      <c r="A18" s="196"/>
       <c r="B18" s="44" t="s">
         <v>1413</v>
       </c>
@@ -23864,7 +23937,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="192"/>
+      <c r="A19" s="197"/>
       <c r="B19" s="48" t="s">
         <v>1415</v>
       </c>
@@ -23873,7 +23946,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="192"/>
+      <c r="A20" s="197"/>
       <c r="B20" s="48" t="s">
         <v>1417</v>
       </c>
@@ -23882,7 +23955,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="192"/>
+      <c r="A21" s="197"/>
       <c r="B21" s="48" t="s">
         <v>1419</v>
       </c>
@@ -23891,7 +23964,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="193"/>
+      <c r="A22" s="198"/>
       <c r="B22" s="49" t="s">
         <v>1421</v>
       </c>
@@ -23900,7 +23973,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="194" t="s">
+      <c r="A23" s="199" t="s">
         <v>1423</v>
       </c>
       <c r="B23" s="50" t="s">
@@ -23911,7 +23984,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="191"/>
+      <c r="A24" s="196"/>
       <c r="B24" s="47" t="s">
         <v>1426</v>
       </c>
@@ -23920,7 +23993,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="191"/>
+      <c r="A25" s="196"/>
       <c r="B25" s="44" t="s">
         <v>1427</v>
       </c>
@@ -23929,7 +24002,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="191"/>
+      <c r="A26" s="196"/>
       <c r="B26" s="44" t="s">
         <v>1428</v>
       </c>
@@ -23938,7 +24011,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="191"/>
+      <c r="A27" s="196"/>
       <c r="B27" s="44" t="s">
         <v>1429</v>
       </c>
@@ -23947,7 +24020,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="191"/>
+      <c r="A28" s="196"/>
       <c r="B28" s="44" t="s">
         <v>1430</v>
       </c>
@@ -23956,7 +24029,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="191"/>
+      <c r="A29" s="196"/>
       <c r="B29" s="51" t="s">
         <v>1431</v>
       </c>
@@ -23965,7 +24038,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="191"/>
+      <c r="A30" s="196"/>
       <c r="B30" s="44" t="s">
         <v>1432</v>
       </c>
@@ -23974,7 +24047,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="191"/>
+      <c r="A31" s="196"/>
       <c r="B31" s="44" t="s">
         <v>1433</v>
       </c>
@@ -23983,7 +24056,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="191"/>
+      <c r="A32" s="196"/>
       <c r="B32" s="44" t="s">
         <v>1434</v>
       </c>
@@ -23992,7 +24065,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="191"/>
+      <c r="A33" s="196"/>
       <c r="B33" s="44" t="s">
         <v>1435</v>
       </c>
@@ -24001,7 +24074,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="191"/>
+      <c r="A34" s="196"/>
       <c r="B34" s="44" t="s">
         <v>1436</v>
       </c>
@@ -24010,7 +24083,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="191"/>
+      <c r="A35" s="196"/>
       <c r="B35" s="44" t="s">
         <v>1437</v>
       </c>
@@ -24019,7 +24092,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="191"/>
+      <c r="A36" s="196"/>
       <c r="B36" s="44" t="s">
         <v>1438</v>
       </c>
@@ -24028,7 +24101,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="191"/>
+      <c r="A37" s="196"/>
       <c r="B37" s="44" t="s">
         <v>1439</v>
       </c>
@@ -24037,7 +24110,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="191"/>
+      <c r="A38" s="196"/>
       <c r="B38" s="44" t="s">
         <v>1440</v>
       </c>
@@ -24046,7 +24119,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="191"/>
+      <c r="A39" s="196"/>
       <c r="B39" s="44" t="s">
         <v>1441</v>
       </c>
@@ -24055,7 +24128,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="191"/>
+      <c r="A40" s="196"/>
       <c r="B40" s="44" t="s">
         <v>1442</v>
       </c>
@@ -24064,7 +24137,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="191"/>
+      <c r="A41" s="196"/>
       <c r="B41" s="44" t="s">
         <v>1443</v>
       </c>
@@ -24073,7 +24146,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="191"/>
+      <c r="A42" s="196"/>
       <c r="B42" s="44" t="s">
         <v>1444</v>
       </c>
@@ -24082,7 +24155,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="191"/>
+      <c r="A43" s="196"/>
       <c r="B43" s="44" t="s">
         <v>1446</v>
       </c>
@@ -24091,7 +24164,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="191"/>
+      <c r="A44" s="196"/>
       <c r="B44" s="44" t="s">
         <v>1447</v>
       </c>
@@ -24100,7 +24173,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="191"/>
+      <c r="A45" s="196"/>
       <c r="B45" s="44" t="s">
         <v>1449</v>
       </c>
@@ -24109,7 +24182,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="191"/>
+      <c r="A46" s="196"/>
       <c r="B46" s="44" t="s">
         <v>1451</v>
       </c>
@@ -24118,7 +24191,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="193"/>
+      <c r="A47" s="198"/>
       <c r="B47" s="49" t="s">
         <v>1453</v>
       </c>
@@ -24127,7 +24200,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="195" t="s">
+      <c r="A48" s="200" t="s">
         <v>1455</v>
       </c>
       <c r="B48" s="47" t="s">
@@ -24138,7 +24211,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="183"/>
+      <c r="A49" s="188"/>
       <c r="B49" s="47" t="s">
         <v>1458</v>
       </c>
@@ -24147,7 +24220,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="183"/>
+      <c r="A50" s="188"/>
       <c r="B50" s="47" t="s">
         <v>1459</v>
       </c>
@@ -24156,7 +24229,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="183"/>
+      <c r="A51" s="188"/>
       <c r="B51" s="44" t="s">
         <v>1460</v>
       </c>
@@ -24165,7 +24238,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="183"/>
+      <c r="A52" s="188"/>
       <c r="B52" s="44" t="s">
         <v>1461</v>
       </c>
@@ -24174,7 +24247,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="183"/>
+      <c r="A53" s="188"/>
       <c r="B53" s="44" t="s">
         <v>1462</v>
       </c>
@@ -24183,7 +24256,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="183"/>
+      <c r="A54" s="188"/>
       <c r="B54" s="44" t="s">
         <v>1463</v>
       </c>
@@ -24192,7 +24265,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="183"/>
+      <c r="A55" s="188"/>
       <c r="B55" s="44" t="s">
         <v>1464</v>
       </c>
@@ -24201,7 +24274,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="183"/>
+      <c r="A56" s="188"/>
       <c r="B56" s="48" t="s">
         <v>1465</v>
       </c>
@@ -24210,7 +24283,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="183"/>
+      <c r="A57" s="188"/>
       <c r="B57" s="48" t="s">
         <v>1466</v>
       </c>
@@ -24219,7 +24292,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="183"/>
+      <c r="A58" s="188"/>
       <c r="B58" s="48" t="s">
         <v>1467</v>
       </c>
@@ -24228,7 +24301,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="183"/>
+      <c r="A59" s="188"/>
       <c r="B59" s="48" t="s">
         <v>1469</v>
       </c>
@@ -24237,7 +24310,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="183"/>
+      <c r="A60" s="188"/>
       <c r="B60" s="48" t="s">
         <v>1470</v>
       </c>
@@ -24246,7 +24319,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="183"/>
+      <c r="A61" s="188"/>
       <c r="B61" s="48" t="s">
         <v>1471</v>
       </c>
@@ -24255,7 +24328,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="183"/>
+      <c r="A62" s="188"/>
       <c r="B62" s="48" t="s">
         <v>1472</v>
       </c>
@@ -24264,7 +24337,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="195" t="s">
+      <c r="A63" s="200" t="s">
         <v>1474</v>
       </c>
       <c r="B63" s="52" t="s">
@@ -24275,7 +24348,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="183"/>
+      <c r="A64" s="188"/>
       <c r="B64" s="48" t="s">
         <v>1477</v>
       </c>
@@ -24284,7 +24357,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="183"/>
+      <c r="A65" s="188"/>
       <c r="B65" s="48" t="s">
         <v>1478</v>
       </c>
@@ -24293,7 +24366,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="183"/>
+      <c r="A66" s="188"/>
       <c r="B66" s="48" t="s">
         <v>1480</v>
       </c>
@@ -24302,7 +24375,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="183"/>
+      <c r="A67" s="188"/>
       <c r="B67" s="48" t="s">
         <v>1481</v>
       </c>
@@ -24311,7 +24384,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="183"/>
+      <c r="A68" s="188"/>
       <c r="B68" s="48" t="s">
         <v>1482</v>
       </c>
@@ -24320,7 +24393,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="183"/>
+      <c r="A69" s="188"/>
       <c r="B69" s="48" t="s">
         <v>1483</v>
       </c>
@@ -24329,7 +24402,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="183"/>
+      <c r="A70" s="188"/>
       <c r="B70" s="48" t="s">
         <v>1484</v>
       </c>
@@ -24338,7 +24411,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="183"/>
+      <c r="A71" s="188"/>
       <c r="B71" s="48" t="s">
         <v>1485</v>
       </c>
@@ -24347,7 +24420,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="183"/>
+      <c r="A72" s="188"/>
       <c r="B72" s="53" t="s">
         <v>1486</v>
       </c>
@@ -24356,7 +24429,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="183"/>
+      <c r="A73" s="188"/>
       <c r="B73" s="48" t="s">
         <v>1488</v>
       </c>
@@ -24365,7 +24438,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="183"/>
+      <c r="A74" s="188"/>
       <c r="B74" s="48" t="s">
         <v>1489</v>
       </c>
@@ -24374,7 +24447,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="183"/>
+      <c r="A75" s="188"/>
       <c r="B75" s="48" t="s">
         <v>1490</v>
       </c>
@@ -24383,7 +24456,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="183"/>
+      <c r="A76" s="188"/>
       <c r="B76" s="48" t="s">
         <v>1491</v>
       </c>
@@ -24392,7 +24465,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="183"/>
+      <c r="A77" s="188"/>
       <c r="B77" s="48" t="s">
         <v>1493</v>
       </c>
@@ -24401,7 +24474,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="183"/>
+      <c r="A78" s="188"/>
       <c r="B78" s="48" t="s">
         <v>1495</v>
       </c>
@@ -24410,7 +24483,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="183"/>
+      <c r="A79" s="188"/>
       <c r="B79" s="48" t="s">
         <v>1496</v>
       </c>
@@ -24419,7 +24492,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="183"/>
+      <c r="A80" s="188"/>
       <c r="B80" s="48" t="s">
         <v>1498</v>
       </c>
@@ -24428,7 +24501,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="196" t="s">
+      <c r="A81" s="201" t="s">
         <v>1500</v>
       </c>
       <c r="B81" s="54" t="s">
@@ -24439,7 +24512,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="197"/>
+      <c r="A82" s="202"/>
       <c r="B82" s="55" t="s">
         <v>1503</v>
       </c>
@@ -24448,7 +24521,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="197"/>
+      <c r="A83" s="202"/>
       <c r="B83" s="55" t="s">
         <v>1505</v>
       </c>
@@ -24457,7 +24530,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="197"/>
+      <c r="A84" s="202"/>
       <c r="B84" s="55" t="s">
         <v>1507</v>
       </c>
@@ -24466,7 +24539,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="197"/>
+      <c r="A85" s="202"/>
       <c r="B85" s="55" t="s">
         <v>1509</v>
       </c>
@@ -24475,7 +24548,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="197"/>
+      <c r="A86" s="202"/>
       <c r="B86" s="55" t="s">
         <v>1511</v>
       </c>
@@ -24484,7 +24557,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A87" s="197"/>
+      <c r="A87" s="202"/>
       <c r="B87" s="55" t="s">
         <v>1513</v>
       </c>
@@ -24493,7 +24566,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="197"/>
+      <c r="A88" s="202"/>
       <c r="B88" s="55" t="s">
         <v>1515</v>
       </c>
@@ -24502,7 +24575,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="197"/>
+      <c r="A89" s="202"/>
       <c r="B89" s="55" t="s">
         <v>1517</v>
       </c>
@@ -24511,7 +24584,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="197"/>
+      <c r="A90" s="202"/>
       <c r="B90" s="55" t="s">
         <v>1519</v>
       </c>
@@ -24520,7 +24593,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="197"/>
+      <c r="A91" s="202"/>
       <c r="B91" s="55" t="s">
         <v>1521</v>
       </c>
@@ -24529,7 +24602,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="197"/>
+      <c r="A92" s="202"/>
       <c r="B92" s="55" t="s">
         <v>1523</v>
       </c>
@@ -24538,7 +24611,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="198"/>
+      <c r="A93" s="203"/>
       <c r="B93" s="56" t="s">
         <v>1525</v>
       </c>
@@ -24547,7 +24620,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="183" t="s">
+      <c r="A94" s="188" t="s">
         <v>1527</v>
       </c>
       <c r="B94" s="44" t="s">
@@ -24558,7 +24631,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="183"/>
+      <c r="A95" s="188"/>
       <c r="B95" s="44" t="s">
         <v>1530</v>
       </c>
@@ -24567,7 +24640,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="183"/>
+      <c r="A96" s="188"/>
       <c r="B96" s="44" t="s">
         <v>1532</v>
       </c>
@@ -24576,7 +24649,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="183"/>
+      <c r="A97" s="188"/>
       <c r="B97" s="44" t="s">
         <v>1534</v>
       </c>
@@ -24585,7 +24658,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="183"/>
+      <c r="A98" s="188"/>
       <c r="B98" s="48" t="s">
         <v>1536</v>
       </c>
@@ -24594,7 +24667,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="184"/>
+      <c r="A99" s="189"/>
       <c r="B99" s="57" t="s">
         <v>1538</v>
       </c>
@@ -24603,7 +24676,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="184"/>
+      <c r="A100" s="189"/>
       <c r="B100" s="57" t="s">
         <v>1540</v>
       </c>
@@ -24612,7 +24685,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="185"/>
+      <c r="A101" s="190"/>
       <c r="B101" s="59" t="s">
         <v>1542</v>
       </c>
@@ -36259,7 +36332,7 @@
         <v>1959</v>
       </c>
       <c r="H39" s="126" t="s">
-        <v>2139</v>
+        <v>2136</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36307,10 +36380,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="126" t="s">
-        <v>2137</v>
+        <v>2134</v>
       </c>
       <c r="G41" s="126" t="s">
-        <v>2138</v>
+        <v>2135</v>
       </c>
       <c r="H41" s="126"/>
     </row>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22DFA563-7A4F-4C68-B28A-649369533A7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2AECD2-DB69-421C-A734-A48A3A927612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26400" yWindow="855" windowWidth="23790" windowHeight="12540" activeTab="3" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$K$333</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$118</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6043" uniqueCount="2180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6069" uniqueCount="2187">
   <si>
     <t>Phase</t>
   </si>
@@ -6403,15 +6403,6 @@
     <t>2024 Week44</t>
   </si>
   <si>
-    <t>R Knowledge Management using R Shiny Apps to harness the Power of Connected Data</t>
-  </si>
-  <si>
-    <t>WORKSHOP: Unlocking Analysis Results Datasets: A Practical Workshop for Creating and Utilizing ARDs for Clinical Reporting</t>
-  </si>
-  <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t>Jakop Ahlbom</t>
   </si>
   <si>
@@ -6753,6 +6744,36 @@
   </si>
   <si>
     <t>Wonderful Wednesdays 2022.08 - Ranking</t>
+  </si>
+  <si>
+    <t>Automation of reporting statistical results with R (mocktables, summary tables, result narrations)</t>
+  </si>
+  <si>
+    <t>Creating and Utilizing ARDs for Clinical Reporting - gtsummary cards</t>
+  </si>
+  <si>
+    <t>No code data analysis with blockr</t>
+  </si>
+  <si>
+    <t>Shiny-carver Clinical Analysis Report and Visualization</t>
+  </si>
+  <si>
+    <t>Regression</t>
+  </si>
+  <si>
+    <t>Linear Regression Project</t>
+  </si>
+  <si>
+    <t>Week48</t>
+  </si>
+  <si>
+    <t>Linear Regression Note</t>
+  </si>
+  <si>
+    <t>PCA</t>
+  </si>
+  <si>
+    <t>Ridge Regression</t>
   </si>
 </sst>
 </file>
@@ -8129,9 +8150,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8143,16 +8173,7 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9045,12 +9066,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="173" t="s">
         <v>1582</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9059,35 +9080,35 @@
       <c r="A3" s="67" t="s">
         <v>1576</v>
       </c>
-      <c r="B3" s="172">
+      <c r="B3" s="175">
         <v>45520</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="172" t="s">
         <v>1578</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1579</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="170" t="s">
         <v>1580</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -9155,12 +9176,12 @@
       <c r="A13" s="76" t="s">
         <v>1583</v>
       </c>
-      <c r="B13" s="168">
+      <c r="B13" s="170">
         <f>COUNTA(Study!A$2:A$1004)</f>
         <v>83</v>
       </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9172,12 +9193,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="168">
+      <c r="B14" s="170">
         <f>COUNTIF(Study!D$1:D$1004,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9187,9 +9208,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9201,11 +9222,11 @@
       <c r="A16" s="76" t="s">
         <v>1581</v>
       </c>
-      <c r="B16" s="168" t="s">
+      <c r="B16" s="170" t="s">
         <v>1580</v>
       </c>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9367,12 +9388,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="173" t="s">
+      <c r="A27" s="172" t="s">
         <v>1588</v>
       </c>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9385,11 +9406,11 @@
       <c r="A29" s="76" t="s">
         <v>1589</v>
       </c>
-      <c r="B29" s="168" t="s">
+      <c r="B29" s="170" t="s">
         <v>1580</v>
       </c>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9397,8 +9418,8 @@
         <v>1998</v>
       </c>
       <c r="B30" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1064, "*Y*")</f>
-        <v>77</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1070, "*Y*")</f>
+        <v>80</v>
       </c>
       <c r="C30" s="169"/>
       <c r="D30" s="169"/>
@@ -9409,8 +9430,8 @@
         <v>1557</v>
       </c>
       <c r="B31" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1064, "N")</f>
-        <v>38</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1070, "N")</f>
+        <v>41</v>
       </c>
       <c r="C31" s="169"/>
       <c r="D31" s="169"/>
@@ -9421,7 +9442,7 @@
         <v>433</v>
       </c>
       <c r="B32" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1064, "*Ongoing*")</f>
+        <f>COUNTIF('Reading Plan'!A$2:A$1070, "*Ongoing*")</f>
         <v>1</v>
       </c>
       <c r="C32" s="169"/>
@@ -9443,21 +9464,29 @@
       <c r="L34" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="168" t="s">
         <v>1590</v>
       </c>
-      <c r="B36" s="175"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="175"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
+      <c r="A37" s="168"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9474,14 +9503,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -11039,7 +11060,7 @@
         <v>247</v>
       </c>
       <c r="F45" s="93" t="s">
-        <v>2176</v>
+        <v>2173</v>
       </c>
       <c r="G45" s="94" t="s">
         <v>249</v>
@@ -11051,7 +11072,7 @@
         <v>59</v>
       </c>
       <c r="J45" s="93" t="s">
-        <v>2175</v>
+        <v>2172</v>
       </c>
       <c r="K45" s="93" t="s">
         <v>132</v>
@@ -11072,25 +11093,25 @@
       </c>
       <c r="D46" s="93"/>
       <c r="E46" s="93" t="s">
-        <v>2169</v>
+        <v>2166</v>
       </c>
       <c r="F46" s="93" t="s">
-        <v>2170</v>
+        <v>2167</v>
       </c>
       <c r="G46" s="94" t="s">
         <v>249</v>
       </c>
       <c r="H46" s="93" t="s">
+        <v>2168</v>
+      </c>
+      <c r="I46" s="94" t="s">
         <v>2171</v>
       </c>
-      <c r="I46" s="94" t="s">
-        <v>2174</v>
-      </c>
       <c r="J46" s="93" t="s">
-        <v>2173</v>
+        <v>2170</v>
       </c>
       <c r="K46" s="93" t="s">
-        <v>2172</v>
+        <v>2169</v>
       </c>
       <c r="L46" s="93"/>
     </row>
@@ -12401,11 +12422,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
-  <dimension ref="A1:F184"/>
+  <dimension ref="A1:F190"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E62" sqref="E62"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12426,7 +12447,7 @@
         <v>1579</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2108</v>
+        <v>2105</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>317</v>
@@ -12709,10 +12730,10 @@
         <v>2062</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>2065</v>
+        <v>2061</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2064</v>
+        <v>2178</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>2052</v>
@@ -12732,13 +12753,13 @@
         <v>2061</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>2063</v>
+        <v>2179</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>2052</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>166</v>
       </c>
@@ -12746,19 +12767,19 @@
         <v>2024</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>2123</v>
+        <v>2062</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>1999</v>
+        <v>2061</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2111</v>
+        <v>2177</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>1986</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2052</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>166</v>
       </c>
@@ -12766,16 +12787,16 @@
         <v>2024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2124</v>
+        <v>2062</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>1999</v>
+        <v>2061</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2112</v>
+        <v>2180</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>1986</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -12786,13 +12807,13 @@
         <v>2024</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2113</v>
+        <v>2108</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1986</v>
@@ -12806,13 +12827,13 @@
         <v>2024</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2126</v>
+        <v>2121</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2114</v>
+        <v>2109</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1986</v>
@@ -12826,13 +12847,13 @@
         <v>2024</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2127</v>
+        <v>2122</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2115</v>
+        <v>2110</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1986</v>
@@ -12846,13 +12867,13 @@
         <v>2024</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2122</v>
+        <v>2123</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2116</v>
+        <v>2111</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1986</v>
@@ -12866,13 +12887,13 @@
         <v>2024</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2128</v>
+        <v>2124</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2117</v>
+        <v>2112</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1986</v>
@@ -12886,13 +12907,13 @@
         <v>2024</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2129</v>
+        <v>2119</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>1999</v>
       </c>
-      <c r="E24" s="4" t="s">
-        <v>2118</v>
+      <c r="E24" s="3" t="s">
+        <v>2113</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1986</v>
@@ -12906,13 +12927,13 @@
         <v>2024</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>2130</v>
+        <v>2125</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>1999</v>
       </c>
-      <c r="E25" s="4" t="s">
-        <v>2119</v>
+      <c r="E25" s="3" t="s">
+        <v>2114</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1986</v>
@@ -12926,13 +12947,13 @@
         <v>2024</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2131</v>
+        <v>2126</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2120</v>
+        <v>2115</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1986</v>
@@ -12946,13 +12967,13 @@
         <v>2024</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1986</v>
@@ -12966,19 +12987,19 @@
         <v>2024</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>2042</v>
+        <v>2128</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E28" s="3" t="s">
-        <v>2044</v>
+        <v>1999</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>2117</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>2043</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>166</v>
       </c>
@@ -12986,19 +13007,19 @@
         <v>2024</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1602</v>
+        <v>2129</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>320</v>
+        <v>1999</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>1606</v>
-      </c>
-      <c r="F29" s="5" t="s">
-        <v>1607</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2118</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>1986</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>166</v>
       </c>
@@ -13006,19 +13027,19 @@
         <v>2024</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1594</v>
+        <v>2042</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E30" s="3" t="s">
+        <v>2044</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>2043</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>166</v>
       </c>
@@ -13026,109 +13047,109 @@
         <v>2024</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>1594</v>
+        <v>1602</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A32" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B32" s="9">
+        <v>1606</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>1607</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B32" s="8">
         <v>2024</v>
       </c>
-      <c r="C32" s="9"/>
+      <c r="C32" s="8" t="s">
+        <v>1594</v>
+      </c>
       <c r="D32" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E32" s="4" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A33" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B33" s="9">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B33" s="8">
         <v>2024</v>
       </c>
-      <c r="C33" s="9"/>
+      <c r="C33" s="8" t="s">
+        <v>1594</v>
+      </c>
       <c r="D33" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F33" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A34" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B34" s="8">
+      <c r="A34" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B34" s="9">
         <v>2024</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>1593</v>
-      </c>
+      <c r="C34" s="9"/>
       <c r="D34" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>1573</v>
+        <v>324</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>2048</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A35" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B35" s="8">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A35" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B35" s="9">
         <v>2024</v>
       </c>
-      <c r="C35" s="8" t="s">
-        <v>1602</v>
-      </c>
+      <c r="C35" s="9"/>
       <c r="D35" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>2046</v>
+        <v>325</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>2048</v>
+        <v>322</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B36" s="9">
+      <c r="A36" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B36" s="8">
         <v>2024</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>1603</v>
+        <v>1593</v>
       </c>
       <c r="D36" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>2047</v>
+        <v>1573</v>
       </c>
       <c r="F36" s="4" t="s">
         <v>2048</v>
@@ -13142,13 +13163,13 @@
         <v>2024</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1987</v>
+        <v>1602</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>2050</v>
+        <v>2046</v>
       </c>
       <c r="F37" s="4" t="s">
         <v>2048</v>
@@ -13161,33 +13182,37 @@
       <c r="B38" s="9">
         <v>2024</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="8" t="s">
+        <v>1603</v>
+      </c>
       <c r="D38" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>347</v>
+        <v>2047</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B39" s="9">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="8">
         <v>2024</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="8" t="s">
+        <v>1987</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>349</v>
+        <v>2050</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>350</v>
+        <v>2048</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -13201,14 +13226,14 @@
       <c r="D40" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E40" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F40" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E40" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>1575</v>
       </c>
@@ -13219,49 +13244,47 @@
       <c r="D41" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B42" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C42" s="9"/>
+      <c r="D42" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F42" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B43" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F43" s="3" t="s">
         <v>354</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C42" s="8" t="s">
-        <v>1595</v>
-      </c>
-      <c r="D42" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E42" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F42" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="10" t="s">
-        <v>433</v>
-      </c>
-      <c r="B43" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F43" s="3" t="s">
-        <v>357</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -13272,51 +13295,57 @@
         <v>2024</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>2148</v>
+        <v>1595</v>
       </c>
       <c r="D44" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E44" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="45" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="8">
+      <c r="A45" s="10" t="s">
+        <v>433</v>
+      </c>
+      <c r="B45" s="10">
         <v>2024</v>
       </c>
-      <c r="C45" s="8" t="s">
-        <v>2149</v>
-      </c>
+      <c r="C45" s="10"/>
       <c r="D45" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>2045</v>
-      </c>
-      <c r="F45" s="4" t="s">
-        <v>322</v>
+        <v>356</v>
+      </c>
+      <c r="F45" s="3" t="s">
+        <v>357</v>
       </c>
     </row>
     <row r="46" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A46" s="9"/>
-      <c r="B46" s="9"/>
-      <c r="C46" s="9"/>
-      <c r="D46" s="9"/>
-      <c r="E46" s="9" t="s">
-        <v>2146</v>
-      </c>
-      <c r="F46" s="4" t="s">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>2145</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>358</v>
+      </c>
+      <c r="F46" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>166</v>
       </c>
@@ -13324,36 +13353,28 @@
         <v>2024</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>2132</v>
+        <v>2146</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>2089</v>
+        <v>355</v>
       </c>
       <c r="E47" s="3" t="s">
-        <v>2075</v>
-      </c>
-      <c r="F47" s="5" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B48" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>2132</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>2089</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>2076</v>
-      </c>
-      <c r="F48" s="5" t="s">
-        <v>2166</v>
+        <v>2045</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A48" s="9"/>
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>2143</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>2144</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -13364,16 +13385,16 @@
         <v>2024</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>2077</v>
+        <v>2072</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -13384,16 +13405,16 @@
         <v>2024</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>2153</v>
+        <v>2129</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>2078</v>
+        <v>2073</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13404,68 +13425,76 @@
         <v>2024</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>2153</v>
+        <v>2129</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>2079</v>
+        <v>2074</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>1575</v>
+      <c r="A52" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B52" s="8">
         <v>2024</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E52" s="3" t="s">
-        <v>2080</v>
+        <v>2075</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B53" s="9"/>
-      <c r="C53" s="9"/>
+      <c r="A53" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C53" s="8" t="s">
+        <v>2150</v>
+      </c>
       <c r="D53" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>2081</v>
+        <v>2076</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B54" s="9"/>
-      <c r="C54" s="9"/>
+      <c r="B54" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C54" s="8" t="s">
+        <v>2150</v>
+      </c>
       <c r="D54" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>2082</v>
+        <v>2077</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -13475,13 +13504,13 @@
       <c r="B55" s="9"/>
       <c r="C55" s="9"/>
       <c r="D55" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>2083</v>
+        <v>2078</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -13491,13 +13520,13 @@
       <c r="B56" s="9"/>
       <c r="C56" s="9"/>
       <c r="D56" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>2084</v>
+        <v>2079</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13507,13 +13536,13 @@
       <c r="B57" s="9"/>
       <c r="C57" s="9"/>
       <c r="D57" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>2085</v>
+        <v>2080</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -13523,13 +13552,13 @@
       <c r="B58" s="9"/>
       <c r="C58" s="9"/>
       <c r="D58" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>2086</v>
+        <v>2081</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13539,13 +13568,13 @@
       <c r="B59" s="9"/>
       <c r="C59" s="9"/>
       <c r="D59" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>2087</v>
+        <v>2082</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13555,13 +13584,13 @@
       <c r="B60" s="9"/>
       <c r="C60" s="9"/>
       <c r="D60" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>2088</v>
+        <v>2083</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13571,13 +13600,13 @@
       <c r="B61" s="9"/>
       <c r="C61" s="9"/>
       <c r="D61" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>2090</v>
+        <v>2084</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13587,13 +13616,13 @@
       <c r="B62" s="9"/>
       <c r="C62" s="9"/>
       <c r="D62" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>2091</v>
+        <v>2085</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -13603,13 +13632,13 @@
       <c r="B63" s="9"/>
       <c r="C63" s="9"/>
       <c r="D63" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>2092</v>
+        <v>2087</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -13619,13 +13648,13 @@
       <c r="B64" s="9"/>
       <c r="C64" s="9"/>
       <c r="D64" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>2093</v>
+        <v>2088</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13635,13 +13664,13 @@
       <c r="B65" s="9"/>
       <c r="C65" s="9"/>
       <c r="D65" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E65" s="3" t="s">
         <v>2089</v>
       </c>
-      <c r="E65" s="3" t="s">
-        <v>2094</v>
-      </c>
       <c r="F65" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13651,13 +13680,13 @@
       <c r="B66" s="9"/>
       <c r="C66" s="9"/>
       <c r="D66" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>2095</v>
+        <v>2090</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13667,13 +13696,13 @@
       <c r="B67" s="9"/>
       <c r="C67" s="9"/>
       <c r="D67" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>2096</v>
+        <v>2091</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -13683,13 +13712,13 @@
       <c r="B68" s="9"/>
       <c r="C68" s="9"/>
       <c r="D68" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>2097</v>
+        <v>2092</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13699,13 +13728,13 @@
       <c r="B69" s="9"/>
       <c r="C69" s="9"/>
       <c r="D69" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>2098</v>
+        <v>2093</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -13715,69 +13744,61 @@
       <c r="B70" s="9"/>
       <c r="C70" s="9"/>
       <c r="D70" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>2099</v>
+        <v>2094</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>2166</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="9" t="s">
         <v>1575</v>
       </c>
       <c r="B71" s="9"/>
       <c r="C71" s="9"/>
       <c r="D71" s="4" t="s">
-        <v>2089</v>
+        <v>2086</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>2100</v>
+        <v>2095</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>2166</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A72" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B72" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C72" s="8" t="s">
-        <v>2150</v>
-      </c>
-      <c r="D72" s="3" t="s">
-        <v>326</v>
+      <c r="A72" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="4" t="s">
+        <v>2086</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>2051</v>
-      </c>
-      <c r="F72" s="4" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A73" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B73" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>2151</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F73" s="4" t="s">
-        <v>328</v>
+        <v>2096</v>
+      </c>
+      <c r="F72" s="5" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>2097</v>
+      </c>
+      <c r="F73" s="5" t="s">
+        <v>2163</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -13788,16 +13809,16 @@
         <v>2024</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="D74" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E74" s="4" t="s">
-        <v>2109</v>
+      <c r="E74" s="3" t="s">
+        <v>2051</v>
       </c>
       <c r="F74" s="4" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -13808,16 +13829,16 @@
         <v>2024</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>2152</v>
+        <v>2148</v>
       </c>
       <c r="D75" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>2110</v>
+        <v>327</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>2049</v>
+        <v>328</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -13828,13 +13849,13 @@
         <v>2024</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>2132</v>
+        <v>2149</v>
       </c>
       <c r="D76" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>2136</v>
+        <v>2106</v>
       </c>
       <c r="F76" s="4" t="s">
         <v>2049</v>
@@ -13848,13 +13869,13 @@
         <v>2024</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>2132</v>
+        <v>2149</v>
       </c>
       <c r="D77" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>2137</v>
+        <v>2107</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>2049</v>
@@ -13868,13 +13889,13 @@
         <v>2024</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D78" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2138</v>
+        <v>2133</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>2049</v>
@@ -13888,13 +13909,13 @@
         <v>2024</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>2139</v>
+        <v>2134</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>2049</v>
@@ -13908,13 +13929,13 @@
         <v>2024</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D80" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2140</v>
+        <v>2135</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>2049</v>
@@ -13928,13 +13949,13 @@
         <v>2024</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D81" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2159</v>
+        <v>2136</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>2049</v>
@@ -13948,13 +13969,13 @@
         <v>2024</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D82" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2141</v>
+        <v>2137</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>2049</v>
@@ -13968,13 +13989,13 @@
         <v>2024</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D83" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2142</v>
+        <v>2156</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>2049</v>
@@ -13988,13 +14009,13 @@
         <v>2024</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>2132</v>
+        <v>2129</v>
       </c>
       <c r="D84" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2160</v>
+        <v>2138</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>2049</v>
@@ -14008,13 +14029,13 @@
         <v>2024</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>2153</v>
+        <v>2129</v>
       </c>
       <c r="D85" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>2143</v>
+        <v>2139</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>2049</v>
@@ -14028,13 +14049,13 @@
         <v>2024</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>2153</v>
+        <v>2129</v>
       </c>
       <c r="D86" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>2144</v>
+        <v>2157</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>2049</v>
@@ -14048,19 +14069,19 @@
         <v>2024</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>2132</v>
+        <v>2150</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>2161</v>
+        <v>2140</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="88" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>166</v>
       </c>
@@ -14068,13 +14089,13 @@
         <v>2024</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>2132</v>
+        <v>2150</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2145</v>
+        <v>2141</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>2049</v>
@@ -14088,19 +14109,19 @@
         <v>2024</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>2153</v>
+        <v>2129</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>2177</v>
+        <v>2158</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>166</v>
       </c>
@@ -14108,49 +14129,53 @@
         <v>2024</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>2153</v>
+        <v>2129</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>2178</v>
+        <v>2142</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B91" s="9">
+      <c r="A91" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="8">
         <v>2024</v>
       </c>
-      <c r="C91" s="9"/>
+      <c r="C91" s="8" t="s">
+        <v>2150</v>
+      </c>
       <c r="D91" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>2179</v>
+        <v>2174</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B92" s="9">
+      <c r="A92" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="8">
         <v>2024</v>
       </c>
-      <c r="C92" s="9"/>
+      <c r="C92" s="8" t="s">
+        <v>2150</v>
+      </c>
       <c r="D92" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>2101</v>
+        <v>2175</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>2049</v>
@@ -14168,7 +14193,7 @@
         <v>326</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>2102</v>
+        <v>2176</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2049</v>
@@ -14186,7 +14211,7 @@
         <v>326</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>2103</v>
+        <v>2098</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>2049</v>
@@ -14204,7 +14229,7 @@
         <v>326</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>2104</v>
+        <v>2099</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>2049</v>
@@ -14222,7 +14247,7 @@
         <v>326</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>2105</v>
+        <v>2100</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>2049</v>
@@ -14240,7 +14265,7 @@
         <v>326</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>2106</v>
+        <v>2101</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>2049</v>
@@ -14258,53 +14283,49 @@
         <v>326</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2107</v>
+        <v>2102</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="99" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B99" s="8">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B99" s="9">
         <v>2024</v>
       </c>
-      <c r="C99" s="8" t="s">
-        <v>2154</v>
-      </c>
+      <c r="C99" s="9"/>
       <c r="D99" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>1925</v>
+        <v>2103</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" ht="90" x14ac:dyDescent="0.25">
-      <c r="A100" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B100" s="8">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B100" s="9">
         <v>2024</v>
       </c>
-      <c r="C100" s="8" t="s">
-        <v>2155</v>
-      </c>
+      <c r="C100" s="9"/>
       <c r="D100" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F100" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2104</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>166</v>
       </c>
@@ -14312,17 +14333,19 @@
         <v>2024</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>2123</v>
+        <v>2151</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E101" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F101" s="4"/>
-    </row>
-    <row r="102" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E101" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F101" s="4" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>166</v>
       </c>
@@ -14330,16 +14353,16 @@
         <v>2024</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>2156</v>
+        <v>2152</v>
       </c>
       <c r="D102" s="3" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>368</v>
+        <v>326</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -14350,17 +14373,17 @@
         <v>2024</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2154</v>
+        <v>2120</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>1917</v>
+        <v>326</v>
       </c>
       <c r="E103" s="3" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F103" s="3"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="F103" s="4"/>
+    </row>
+    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>166</v>
       </c>
@@ -14368,17 +14391,19 @@
         <v>2024</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>1917</v>
       </c>
       <c r="E104" s="3" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F104" s="3"/>
-    </row>
-    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>166</v>
       </c>
@@ -14386,17 +14411,15 @@
         <v>2024</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>2157</v>
+        <v>2151</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1988</v>
+        <v>1917</v>
       </c>
       <c r="E105" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F105" s="4" t="s">
-        <v>333</v>
-      </c>
+        <v>1918</v>
+      </c>
+      <c r="F105" s="3"/>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
@@ -14406,89 +14429,89 @@
         <v>2024</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>2158</v>
+        <v>2151</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1988</v>
+        <v>1917</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F106" s="5" t="s">
-        <v>335</v>
-      </c>
+        <v>1923</v>
+      </c>
+      <c r="F106" s="3"/>
     </row>
     <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A107" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B107" s="9"/>
-      <c r="C107" s="9"/>
+      <c r="A107" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B107" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C107" s="8" t="s">
+        <v>2154</v>
+      </c>
       <c r="D107" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E107" s="3" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B108" s="9"/>
-      <c r="C108" s="9"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C108" s="8" t="s">
+        <v>2155</v>
+      </c>
       <c r="D108" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="E108" s="6" t="s">
+      <c r="E108" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E109" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F109" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E110" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F108" s="3" t="s">
+      <c r="F110" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B109" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C109" s="8" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D109" s="3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F109" s="4"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B110" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C110" s="8" t="s">
-        <v>2162</v>
-      </c>
-      <c r="D110" s="3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F110" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>166</v>
       </c>
@@ -14496,19 +14519,17 @@
         <v>2024</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>2162</v>
+        <v>2159</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>1574</v>
       </c>
-      <c r="E111" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F111" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="E111" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F111" s="4"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A112" s="8" t="s">
         <v>166</v>
       </c>
@@ -14516,19 +14537,19 @@
         <v>2024</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>2163</v>
+        <v>2159</v>
       </c>
       <c r="D112" s="3" t="s">
-        <v>360</v>
+        <v>1574</v>
       </c>
       <c r="E112" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>166</v>
       </c>
@@ -14536,19 +14557,19 @@
         <v>2024</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>2124</v>
+        <v>2159</v>
       </c>
       <c r="D113" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1574</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="8" t="s">
         <v>166</v>
       </c>
@@ -14556,19 +14577,19 @@
         <v>2024</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>2151</v>
+        <v>2160</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E114" s="3" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="F114" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A115" s="8" t="s">
         <v>166</v>
       </c>
@@ -14576,35 +14597,39 @@
         <v>2024</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>2164</v>
+        <v>2121</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E115" s="3" t="s">
-        <v>1926</v>
+        <v>363</v>
       </c>
       <c r="F115" s="3" t="s">
-        <v>1927</v>
+        <v>364</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B116" s="9"/>
-      <c r="C116" s="9"/>
+      <c r="A116" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B116" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C116" s="8" t="s">
+        <v>2148</v>
+      </c>
       <c r="D116" s="3" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>370</v>
+        <v>365</v>
       </c>
       <c r="F116" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A117" s="8" t="s">
         <v>166</v>
       </c>
@@ -14612,16 +14637,16 @@
         <v>2024</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>2165</v>
+        <v>2161</v>
       </c>
       <c r="D117" s="3" t="s">
-        <v>372</v>
+        <v>360</v>
       </c>
       <c r="E117" s="3" t="s">
-        <v>373</v>
+        <v>1926</v>
       </c>
       <c r="F117" s="3" t="s">
-        <v>1599</v>
+        <v>1927</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -14632,64 +14657,125 @@
         <v>2024</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>2130</v>
+        <v>2150</v>
       </c>
       <c r="D118" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E118" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F118" s="3"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B119" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C119" s="8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D119" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E119" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F119" s="3"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B120" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C120" s="8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D120" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E120" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F120" s="3"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B121" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C121" s="8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D121" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E121" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F121" s="3"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E122" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F122" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B123" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C123" s="8" t="s">
+        <v>2162</v>
+      </c>
+      <c r="D123" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B124" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C124" s="8" t="s">
+        <v>2127</v>
+      </c>
+      <c r="D124" s="3" t="s">
         <v>1591</v>
       </c>
-      <c r="E118" s="3" t="s">
+      <c r="E124" s="3" t="s">
         <v>1597</v>
       </c>
-      <c r="F118" s="3" t="s">
+      <c r="F124" s="3" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-      <c r="B119" s="3"/>
-      <c r="C119" s="3"/>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3"/>
-      <c r="F119" s="3"/>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-      <c r="B120" s="3"/>
-      <c r="C120" s="3"/>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="3"/>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="3"/>
-      <c r="B121" s="3"/>
-      <c r="C121" s="3"/>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3"/>
-      <c r="F121" s="3"/>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-      <c r="B122" s="166"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="3"/>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-      <c r="B123" s="3"/>
-      <c r="C123" s="3"/>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3"/>
-      <c r="F123" s="3"/>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="3"/>
-      <c r="B124" s="3"/>
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="3"/>
@@ -14717,8 +14803,7 @@
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A128" s="3"/>
-      <c r="B128" s="3"/>
-      <c r="C128" s="3"/>
+      <c r="B128" s="166"/>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" s="3"/>
@@ -15171,16 +15256,64 @@
       <c r="E184" s="3"/>
       <c r="F184" s="3"/>
     </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+      <c r="E185" s="3"/>
+      <c r="F185" s="3"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+      <c r="E186" s="3"/>
+      <c r="F186" s="3"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+      <c r="E187" s="3"/>
+      <c r="F187" s="3"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+      <c r="E188" s="3"/>
+      <c r="F188" s="3"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+      <c r="E190" s="3"/>
+      <c r="F190" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F118" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
+  <autoFilter ref="A1:F124" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
   <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F100" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
-    <hyperlink ref="F110" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
-    <hyperlink ref="F106" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
-    <hyperlink ref="F116" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
-    <hyperlink ref="F29" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
-    <hyperlink ref="F51" r:id="rId6" xr:uid="{9876EE8E-FE8E-4400-BE56-1A5A23BEEA28}"/>
+    <hyperlink ref="F102" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
+    <hyperlink ref="F112" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
+    <hyperlink ref="F108" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
+    <hyperlink ref="F122" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
+    <hyperlink ref="F31" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
+    <hyperlink ref="F53" r:id="rId6" xr:uid="{9876EE8E-FE8E-4400-BE56-1A5A23BEEA28}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15191,7 +15324,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K333"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="I289" sqref="I289"/>
     </sheetView>
@@ -16090,7 +16223,7 @@
         <v>2031</v>
       </c>
       <c r="G37" s="114" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="H37" s="114"/>
       <c r="I37" s="115"/>
@@ -16360,10 +16493,10 @@
         <v>1663</v>
       </c>
       <c r="F48" s="114" t="s">
-        <v>2074</v>
+        <v>2071</v>
       </c>
       <c r="G48" s="114" t="s">
-        <v>2071</v>
+        <v>2068</v>
       </c>
       <c r="H48" s="114"/>
       <c r="I48" s="115"/>
@@ -17203,10 +17336,10 @@
         <v>1708</v>
       </c>
       <c r="F83" s="114" t="s">
-        <v>2072</v>
+        <v>2069</v>
       </c>
       <c r="G83" s="114" t="s">
-        <v>2073</v>
+        <v>2070</v>
       </c>
       <c r="H83" s="114"/>
       <c r="I83" s="115"/>
@@ -17693,7 +17826,7 @@
         <v>1782</v>
       </c>
       <c r="F103" s="114" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="G103" s="114" t="s">
         <v>1903</v>
@@ -18835,7 +18968,7 @@
         <v>1822</v>
       </c>
       <c r="F151" s="117" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="G151" s="114" t="s">
         <v>1752</v>
@@ -19908,10 +20041,10 @@
         <v>1642</v>
       </c>
       <c r="F194" s="117" t="s">
-        <v>2070</v>
+        <v>2067</v>
       </c>
       <c r="G194" s="117" t="s">
-        <v>2069</v>
+        <v>2066</v>
       </c>
       <c r="H194" s="117"/>
       <c r="I194" s="115"/>
@@ -20004,10 +20137,10 @@
         <v>1864</v>
       </c>
       <c r="F198" s="117" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="G198" s="117" t="s">
-        <v>2068</v>
+        <v>2065</v>
       </c>
       <c r="H198" s="117"/>
       <c r="I198" s="115"/>
@@ -22434,7 +22567,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J294" s="117" t="s">
-        <v>2167</v>
+        <v>2164</v>
       </c>
       <c r="K294" s="114"/>
     </row>
@@ -22614,7 +22747,7 @@
       </c>
       <c r="J301" s="117"/>
       <c r="K301" s="131" t="s">
-        <v>2168</v>
+        <v>2165</v>
       </c>
     </row>
     <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36290,7 +36423,7 @@
         <v>1958</v>
       </c>
       <c r="H39" s="126" t="s">
-        <v>2135</v>
+        <v>2132</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -36338,10 +36471,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="126" t="s">
-        <v>2133</v>
+        <v>2130</v>
       </c>
       <c r="G41" s="126" t="s">
-        <v>2134</v>
+        <v>2131</v>
       </c>
       <c r="H41" s="126"/>
     </row>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C2AECD2-DB69-421C-A734-A48A3A927612}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE445151-E0CA-492A-8BDE-888D4DD06F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
@@ -24,8 +24,8 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$K$333</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$K$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6069" uniqueCount="2187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6175" uniqueCount="2212">
   <si>
     <t>Phase</t>
   </si>
@@ -6774,6 +6774,81 @@
   </si>
   <si>
     <t>Ridge Regression</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.06</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.07</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.08</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.09</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.10</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.11</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2024.12</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2025.01</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2025.02</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2025.03</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #39</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #38</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #37</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #36</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #35</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #34</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2021.12</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2021.11</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2021.10</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2021.09</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2021.08</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2021.07</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2021.06</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2021.05</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2021.04</t>
   </si>
 </sst>
 </file>
@@ -8150,18 +8225,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8173,7 +8239,16 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8294,6 +8369,10 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
 <formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
@@ -8640,13 +8719,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>286</xdr:row>
+          <xdr:row>287</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>286</xdr:row>
+          <xdr:row>287</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8698,6 +8777,68 @@
         </xdr:sp>
         <xdr:clientData/>
       </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>283</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="219075" cy="0"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="9269" name="Check Box 53" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s9269"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EE56E7-99C3-47EE-8FB1-6BEF8AAD7FE3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -9047,7 +9188,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="A30" sqref="A30:D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9066,12 +9207,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="170" t="s">
         <v>1582</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9080,35 +9221,35 @@
       <c r="A3" s="67" t="s">
         <v>1576</v>
       </c>
-      <c r="B3" s="175">
+      <c r="B3" s="172">
         <v>45520</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="173" t="s">
         <v>1578</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1579</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="168" t="s">
         <v>1580</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -9176,12 +9317,12 @@
       <c r="A13" s="76" t="s">
         <v>1583</v>
       </c>
-      <c r="B13" s="170">
+      <c r="B13" s="168">
         <f>COUNTA(Study!A$2:A$1004)</f>
         <v>83</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9193,12 +9334,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="170">
+      <c r="B14" s="168">
         <f>COUNTIF(Study!D$1:D$1004,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9208,9 +9349,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9222,11 +9363,11 @@
       <c r="A16" s="76" t="s">
         <v>1581</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="168" t="s">
         <v>1580</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9388,12 +9529,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="172" t="s">
+      <c r="A27" s="173" t="s">
         <v>1588</v>
       </c>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9406,11 +9547,11 @@
       <c r="A29" s="76" t="s">
         <v>1589</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="168" t="s">
         <v>1580</v>
       </c>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9418,8 +9559,8 @@
         <v>1998</v>
       </c>
       <c r="B30" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1070, "*Y*")</f>
-        <v>80</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1095, "*Y*")</f>
+        <v>82</v>
       </c>
       <c r="C30" s="169"/>
       <c r="D30" s="169"/>
@@ -9430,8 +9571,8 @@
         <v>1557</v>
       </c>
       <c r="B31" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1070, "N")</f>
-        <v>41</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1095, "N")</f>
+        <v>65</v>
       </c>
       <c r="C31" s="169"/>
       <c r="D31" s="169"/>
@@ -9442,7 +9583,7 @@
         <v>433</v>
       </c>
       <c r="B32" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1070, "*Ongoing*")</f>
+        <f>COUNTIF('Reading Plan'!A$2:A$1095, "*Ongoing*")</f>
         <v>1</v>
       </c>
       <c r="C32" s="169"/>
@@ -9464,29 +9605,21 @@
       <c r="L34" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="175" t="s">
         <v>1590</v>
       </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="168"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
+      <c r="A37" s="175"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9503,6 +9636,14 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -12422,11 +12563,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
-  <dimension ref="A1:F190"/>
+  <dimension ref="A1:F215"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A112" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E118" sqref="E118"/>
+      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -13220,7 +13361,7 @@
         <v>1575</v>
       </c>
       <c r="B40" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C40" s="9"/>
       <c r="D40" s="3" t="s">
@@ -13238,7 +13379,7 @@
         <v>1575</v>
       </c>
       <c r="B41" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C41" s="9"/>
       <c r="D41" s="3" t="s">
@@ -13256,7 +13397,7 @@
         <v>1575</v>
       </c>
       <c r="B42" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C42" s="9"/>
       <c r="D42" s="3" t="s">
@@ -13274,7 +13415,7 @@
         <v>1575</v>
       </c>
       <c r="B43" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C43" s="9"/>
       <c r="D43" s="3" t="s">
@@ -13366,8 +13507,12 @@
       </c>
     </row>
     <row r="48" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="9"/>
-      <c r="B48" s="9"/>
+      <c r="A48" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B48" s="8">
+        <v>2024</v>
+      </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
@@ -13478,8 +13623,8 @@
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A54" s="9" t="s">
-        <v>1575</v>
+      <c r="A54" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B54" s="8">
         <v>2024</v>
@@ -13498,11 +13643,15 @@
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A55" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B55" s="9"/>
-      <c r="C55" s="9"/>
+      <c r="A55" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B55" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C55" s="8" t="s">
+        <v>2150</v>
+      </c>
       <c r="D55" s="4" t="s">
         <v>2086</v>
       </c>
@@ -13517,7 +13666,9 @@
       <c r="A56" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B56" s="9"/>
+      <c r="B56" s="8">
+        <v>2024</v>
+      </c>
       <c r="C56" s="9"/>
       <c r="D56" s="4" t="s">
         <v>2086</v>
@@ -13533,7 +13684,9 @@
       <c r="A57" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B57" s="9"/>
+      <c r="B57" s="8">
+        <v>2024</v>
+      </c>
       <c r="C57" s="9"/>
       <c r="D57" s="4" t="s">
         <v>2086</v>
@@ -13549,7 +13702,9 @@
       <c r="A58" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B58" s="9"/>
+      <c r="B58" s="8">
+        <v>2024</v>
+      </c>
       <c r="C58" s="9"/>
       <c r="D58" s="4" t="s">
         <v>2086</v>
@@ -13565,7 +13720,9 @@
       <c r="A59" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B59" s="9"/>
+      <c r="B59" s="8">
+        <v>2024</v>
+      </c>
       <c r="C59" s="9"/>
       <c r="D59" s="4" t="s">
         <v>2086</v>
@@ -13581,7 +13738,9 @@
       <c r="A60" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B60" s="9"/>
+      <c r="B60" s="8">
+        <v>2024</v>
+      </c>
       <c r="C60" s="9"/>
       <c r="D60" s="4" t="s">
         <v>2086</v>
@@ -13597,7 +13756,9 @@
       <c r="A61" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B61" s="9"/>
+      <c r="B61" s="8">
+        <v>2024</v>
+      </c>
       <c r="C61" s="9"/>
       <c r="D61" s="4" t="s">
         <v>2086</v>
@@ -13613,7 +13774,9 @@
       <c r="A62" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B62" s="9"/>
+      <c r="B62" s="8">
+        <v>2024</v>
+      </c>
       <c r="C62" s="9"/>
       <c r="D62" s="4" t="s">
         <v>2086</v>
@@ -13629,7 +13792,9 @@
       <c r="A63" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B63" s="9"/>
+      <c r="B63" s="8">
+        <v>2024</v>
+      </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4" t="s">
         <v>2086</v>
@@ -13645,7 +13810,9 @@
       <c r="A64" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B64" s="9"/>
+      <c r="B64" s="8">
+        <v>2024</v>
+      </c>
       <c r="C64" s="9"/>
       <c r="D64" s="4" t="s">
         <v>2086</v>
@@ -13661,7 +13828,9 @@
       <c r="A65" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B65" s="9"/>
+      <c r="B65" s="9">
+        <v>2025</v>
+      </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4" t="s">
         <v>2086</v>
@@ -13677,7 +13846,9 @@
       <c r="A66" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B66" s="9"/>
+      <c r="B66" s="9">
+        <v>2025</v>
+      </c>
       <c r="C66" s="9"/>
       <c r="D66" s="4" t="s">
         <v>2086</v>
@@ -13693,7 +13864,9 @@
       <c r="A67" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B67" s="9"/>
+      <c r="B67" s="9">
+        <v>2025</v>
+      </c>
       <c r="C67" s="9"/>
       <c r="D67" s="4" t="s">
         <v>2086</v>
@@ -13709,7 +13882,9 @@
       <c r="A68" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B68" s="9"/>
+      <c r="B68" s="9">
+        <v>2025</v>
+      </c>
       <c r="C68" s="9"/>
       <c r="D68" s="4" t="s">
         <v>2086</v>
@@ -13725,7 +13900,9 @@
       <c r="A69" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B69" s="9"/>
+      <c r="B69" s="9">
+        <v>2025</v>
+      </c>
       <c r="C69" s="9"/>
       <c r="D69" s="4" t="s">
         <v>2086</v>
@@ -13741,7 +13918,9 @@
       <c r="A70" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B70" s="9"/>
+      <c r="B70" s="9">
+        <v>2025</v>
+      </c>
       <c r="C70" s="9"/>
       <c r="D70" s="4" t="s">
         <v>2086</v>
@@ -13757,7 +13936,9 @@
       <c r="A71" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B71" s="9"/>
+      <c r="B71" s="9">
+        <v>2025</v>
+      </c>
       <c r="C71" s="9"/>
       <c r="D71" s="4" t="s">
         <v>2086</v>
@@ -13773,7 +13954,9 @@
       <c r="A72" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B72" s="9"/>
+      <c r="B72" s="9">
+        <v>2025</v>
+      </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4" t="s">
         <v>2086</v>
@@ -13789,7 +13972,9 @@
       <c r="A73" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B73" s="9"/>
+      <c r="B73" s="9">
+        <v>2025</v>
+      </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4" t="s">
         <v>2086</v>
@@ -13801,327 +13986,295 @@
         <v>2163</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A74" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B74" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>2147</v>
-      </c>
-      <c r="D74" s="3" t="s">
-        <v>326</v>
+    <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B74" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C74" s="9"/>
+      <c r="D74" s="4" t="s">
+        <v>2086</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>2051</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>2052</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B75" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>2148</v>
-      </c>
-      <c r="D75" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E75" s="4" t="s">
-        <v>327</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A76" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B76" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>2106</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B77" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>2149</v>
-      </c>
-      <c r="D77" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>2107</v>
-      </c>
-      <c r="F77" s="4" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A78" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B78" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C78" s="8" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D78" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>2133</v>
-      </c>
-      <c r="F78" s="4" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B79" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C79" s="8" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D79" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>2134</v>
-      </c>
-      <c r="F79" s="4" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A80" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B80" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C80" s="8" t="s">
-        <v>2129</v>
-      </c>
+        <v>2197</v>
+      </c>
+      <c r="F74" s="5" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B75" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C75" s="9"/>
+      <c r="D75" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>2198</v>
+      </c>
+      <c r="F75" s="5" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B76" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C76" s="9"/>
+      <c r="D76" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>2199</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B77" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C77" s="9"/>
+      <c r="D77" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>2200</v>
+      </c>
+      <c r="F77" s="5" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B78" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C78" s="9"/>
+      <c r="D78" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>2201</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B79" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C79" s="9"/>
+      <c r="D79" s="4" t="s">
+        <v>2086</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>2202</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>2163</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B80" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C80" s="9"/>
       <c r="D80" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2135</v>
+        <v>2187</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B81" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>2129</v>
-      </c>
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B81" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C81" s="9"/>
       <c r="D81" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2136</v>
+        <v>2188</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A82" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B82" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>2129</v>
-      </c>
+    <row r="82" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B82" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C82" s="9"/>
       <c r="D82" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2137</v>
+        <v>2189</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B83" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>2129</v>
-      </c>
+    <row r="83" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B83" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C83" s="9"/>
       <c r="D83" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2156</v>
+        <v>2190</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B84" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>2129</v>
-      </c>
+    <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B84" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C84" s="9"/>
       <c r="D84" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2138</v>
+        <v>2191</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B85" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>2129</v>
-      </c>
+    <row r="85" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B85" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C85" s="9"/>
       <c r="D85" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>2139</v>
+        <v>2192</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B86" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>2129</v>
-      </c>
+    <row r="86" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B86" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C86" s="9"/>
       <c r="D86" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>2157</v>
+        <v>2193</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B87" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C87" s="8" t="s">
-        <v>2150</v>
-      </c>
+    <row r="87" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B87" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C87" s="9"/>
       <c r="D87" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>2140</v>
+        <v>2194</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B88" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C88" s="8" t="s">
-        <v>2150</v>
-      </c>
+    <row r="88" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B88" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C88" s="9"/>
       <c r="D88" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2141</v>
+        <v>2195</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B89" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C89" s="8" t="s">
-        <v>2129</v>
-      </c>
+    <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B89" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C89" s="9"/>
       <c r="D89" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>2158</v>
+        <v>2196</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>166</v>
       </c>
@@ -14129,16 +14282,16 @@
         <v>2024</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>2129</v>
+        <v>2147</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E90" s="4" t="s">
-        <v>2142</v>
+      <c r="E90" s="3" t="s">
+        <v>2051</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -14149,16 +14302,16 @@
         <v>2024</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>2174</v>
+        <v>327</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>2049</v>
+        <v>328</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -14169,163 +14322,179 @@
         <v>2024</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>2150</v>
+        <v>2149</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>2175</v>
+        <v>2106</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B93" s="9">
+      <c r="A93" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" s="8">
         <v>2024</v>
       </c>
-      <c r="C93" s="9"/>
+      <c r="C93" s="8" t="s">
+        <v>2149</v>
+      </c>
       <c r="D93" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>2176</v>
+        <v>2107</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B94" s="9">
+      <c r="A94" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="8">
         <v>2024</v>
       </c>
-      <c r="C94" s="9"/>
+      <c r="C94" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D94" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>2098</v>
+        <v>2133</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B95" s="9">
+      <c r="A95" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="8">
         <v>2024</v>
       </c>
-      <c r="C95" s="9"/>
+      <c r="C95" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D95" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>2099</v>
+        <v>2134</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B96" s="9">
+      <c r="A96" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="8">
         <v>2024</v>
       </c>
-      <c r="C96" s="9"/>
+      <c r="C96" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D96" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>2100</v>
+        <v>2135</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A97" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B97" s="9">
+      <c r="A97" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B97" s="8">
         <v>2024</v>
       </c>
-      <c r="C97" s="9"/>
+      <c r="C97" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D97" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>2101</v>
+        <v>2136</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A98" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B98" s="9">
+      <c r="A98" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B98" s="8">
         <v>2024</v>
       </c>
-      <c r="C98" s="9"/>
+      <c r="C98" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D98" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2102</v>
+        <v>2137</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A99" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B99" s="9">
+      <c r="A99" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B99" s="8">
         <v>2024</v>
       </c>
-      <c r="C99" s="9"/>
+      <c r="C99" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D99" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>2103</v>
+        <v>2156</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B100" s="9">
+      <c r="A100" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B100" s="8">
         <v>2024</v>
       </c>
-      <c r="C100" s="9"/>
+      <c r="C100" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D100" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>2104</v>
+        <v>2138</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="101" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>166</v>
       </c>
@@ -14333,19 +14502,19 @@
         <v>2024</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>2151</v>
+        <v>2129</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>1925</v>
+        <v>2139</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>166</v>
       </c>
@@ -14353,16 +14522,16 @@
         <v>2024</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>2152</v>
+        <v>2129</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F102" s="5" t="s">
-        <v>330</v>
+        <v>2157</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>2049</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -14373,17 +14542,19 @@
         <v>2024</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2120</v>
+        <v>2150</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E103" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F103" s="4"/>
-    </row>
-    <row r="104" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="E103" s="4" t="s">
+        <v>2140</v>
+      </c>
+      <c r="F103" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>166</v>
       </c>
@@ -14391,16 +14562,16 @@
         <v>2024</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>2153</v>
+        <v>2150</v>
       </c>
       <c r="D104" s="3" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E104" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>368</v>
+        <v>326</v>
+      </c>
+      <c r="E104" s="4" t="s">
+        <v>2141</v>
+      </c>
+      <c r="F104" s="4" t="s">
+        <v>2049</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -14411,17 +14582,19 @@
         <v>2024</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>2151</v>
+        <v>2129</v>
       </c>
       <c r="D105" s="3" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F105" s="3"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F105" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>166</v>
       </c>
@@ -14429,17 +14602,19 @@
         <v>2024</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>2151</v>
+        <v>2129</v>
       </c>
       <c r="D106" s="3" t="s">
-        <v>1917</v>
-      </c>
-      <c r="E106" s="3" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F106" s="3"/>
-    </row>
-    <row r="107" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>2142</v>
+      </c>
+      <c r="F106" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>166</v>
       </c>
@@ -14447,16 +14622,16 @@
         <v>2024</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>2154</v>
+        <v>2150</v>
       </c>
       <c r="D107" s="3" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>332</v>
+        <v>326</v>
+      </c>
+      <c r="E107" s="4" t="s">
+        <v>2174</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>333</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -14467,514 +14642,781 @@
         <v>2024</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E108" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F108" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="E108" s="4" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B109" s="9"/>
+      <c r="B109" s="9">
+        <v>2024</v>
+      </c>
       <c r="C109" s="9"/>
       <c r="D109" s="3" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>336</v>
+        <v>326</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>2176</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B110" s="9"/>
+      <c r="B110" s="9">
+        <v>2024</v>
+      </c>
       <c r="C110" s="9"/>
       <c r="D110" s="3" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E110" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>339</v>
+        <v>326</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>2098</v>
+      </c>
+      <c r="F110" s="4" t="s">
+        <v>2049</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B111" s="8">
+      <c r="A111" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B111" s="9">
         <v>2024</v>
       </c>
-      <c r="C111" s="8" t="s">
-        <v>2159</v>
-      </c>
+      <c r="C111" s="9"/>
       <c r="D111" s="3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F111" s="4"/>
+        <v>326</v>
+      </c>
+      <c r="E111" s="4" t="s">
+        <v>2099</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>2049</v>
+      </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B112" s="8">
+      <c r="A112" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B112" s="9">
         <v>2024</v>
       </c>
-      <c r="C112" s="8" t="s">
-        <v>2159</v>
-      </c>
+      <c r="C112" s="9"/>
       <c r="D112" s="3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E112" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B113" s="8">
+        <v>326</v>
+      </c>
+      <c r="E112" s="4" t="s">
+        <v>2100</v>
+      </c>
+      <c r="F112" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B113" s="9">
         <v>2024</v>
       </c>
-      <c r="C113" s="8" t="s">
-        <v>2159</v>
-      </c>
+      <c r="C113" s="9"/>
       <c r="D113" s="3" t="s">
-        <v>1574</v>
+        <v>326</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>345</v>
+        <v>2101</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B114" s="8">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B114" s="9">
         <v>2024</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>2160</v>
-      </c>
+      <c r="C114" s="9"/>
       <c r="D114" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E114" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" ht="75" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B115" s="8">
+        <v>326</v>
+      </c>
+      <c r="E114" s="4" t="s">
+        <v>2102</v>
+      </c>
+      <c r="F114" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B115" s="9">
         <v>2024</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>2121</v>
-      </c>
+      <c r="C115" s="9"/>
       <c r="D115" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>364</v>
+        <v>326</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>2103</v>
+      </c>
+      <c r="F115" s="4" t="s">
+        <v>2049</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B116" s="8">
+      <c r="A116" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B116" s="9">
         <v>2024</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>2148</v>
-      </c>
+      <c r="C116" s="9"/>
       <c r="D116" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E116" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" ht="105" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B117" s="8">
+        <v>326</v>
+      </c>
+      <c r="E116" s="4" t="s">
+        <v>2104</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B117" s="9">
         <v>2024</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>2161</v>
-      </c>
+      <c r="C117" s="9"/>
       <c r="D117" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>1926</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>1927</v>
+        <v>326</v>
+      </c>
+      <c r="E117" s="4" t="s">
+        <v>2203</v>
+      </c>
+      <c r="F117" s="4" t="s">
+        <v>2049</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B118" s="8">
+      <c r="A118" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B118" s="9">
         <v>2024</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>2150</v>
-      </c>
+      <c r="C118" s="9"/>
       <c r="D118" s="3" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>2182</v>
-      </c>
-      <c r="F118" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>2204</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>2049</v>
+      </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B119" s="8">
+      <c r="B119" s="9">
         <v>2024</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>2183</v>
-      </c>
+      <c r="C119" s="9"/>
       <c r="D119" s="3" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E119" s="3" t="s">
-        <v>2184</v>
-      </c>
-      <c r="F119" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="E119" s="4" t="s">
+        <v>2205</v>
+      </c>
+      <c r="F119" s="4" t="s">
+        <v>2049</v>
+      </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A120" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B120" s="8">
+      <c r="B120" s="9">
         <v>2024</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>2183</v>
-      </c>
+      <c r="C120" s="9"/>
       <c r="D120" s="3" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E120" s="3" t="s">
-        <v>2186</v>
-      </c>
-      <c r="F120" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="E120" s="4" t="s">
+        <v>2206</v>
+      </c>
+      <c r="F120" s="4" t="s">
+        <v>2049</v>
+      </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A121" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B121" s="8">
+      <c r="B121" s="9">
         <v>2024</v>
       </c>
-      <c r="C121" s="8" t="s">
-        <v>2183</v>
-      </c>
+      <c r="C121" s="9"/>
       <c r="D121" s="3" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E121" s="3" t="s">
-        <v>2185</v>
-      </c>
-      <c r="F121" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="E121" s="4" t="s">
+        <v>2207</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>2049</v>
+      </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A122" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B122" s="9"/>
+      <c r="B122" s="9">
+        <v>2024</v>
+      </c>
       <c r="C122" s="9"/>
       <c r="D122" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E122" s="4" t="s">
+        <v>2208</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B123" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C123" s="9"/>
+      <c r="D123" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E123" s="4" t="s">
+        <v>2209</v>
+      </c>
+      <c r="F123" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B124" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C124" s="9"/>
+      <c r="D124" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E124" s="4" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F124" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B125" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C125" s="9"/>
+      <c r="D125" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E125" s="4" t="s">
+        <v>2211</v>
+      </c>
+      <c r="F125" s="4" t="s">
+        <v>2049</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B126" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C126" s="8" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D126" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>1925</v>
+      </c>
+      <c r="F126" s="4" t="s">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+      <c r="A127" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C127" s="8" t="s">
+        <v>2152</v>
+      </c>
+      <c r="D127" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E127" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C128" s="8" t="s">
+        <v>2120</v>
+      </c>
+      <c r="D128" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F128" s="4"/>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A129" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B129" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C129" s="8" t="s">
+        <v>2153</v>
+      </c>
+      <c r="D129" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E129" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C130" s="8" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D130" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>1918</v>
+      </c>
+      <c r="F130" s="3"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C131" s="8" t="s">
+        <v>2151</v>
+      </c>
+      <c r="D131" s="3" t="s">
+        <v>1917</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>1923</v>
+      </c>
+      <c r="F131" s="3"/>
+    </row>
+    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C132" s="8" t="s">
+        <v>2154</v>
+      </c>
+      <c r="D132" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E132" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B133" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C133" s="8" t="s">
+        <v>2155</v>
+      </c>
+      <c r="D133" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F133" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B134" s="9">
+        <v>2024</v>
+      </c>
+      <c r="C134" s="9"/>
+      <c r="D134" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F134" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B135" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C135" s="9"/>
+      <c r="D135" s="3" t="s">
+        <v>1988</v>
+      </c>
+      <c r="E135" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B136" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C136" s="8" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D136" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F136" s="4"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B137" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C137" s="8" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D137" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C138" s="8" t="s">
+        <v>2159</v>
+      </c>
+      <c r="D138" s="3" t="s">
+        <v>1574</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A139" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B139" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>2160</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+      <c r="A140" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B140" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C140" s="8" t="s">
+        <v>2121</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B141" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>2148</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>2161</v>
+      </c>
+      <c r="D142" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>1926</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B143" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C143" s="8" t="s">
+        <v>2150</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>2182</v>
+      </c>
+      <c r="F143" s="3"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B144" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C144" s="8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E144" s="3" t="s">
+        <v>2184</v>
+      </c>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B145" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C145" s="8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E145" s="3" t="s">
+        <v>2186</v>
+      </c>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B146" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C146" s="8" t="s">
+        <v>2183</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>2181</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B147" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C147" s="9"/>
+      <c r="D147" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E122" s="3" t="s">
+      <c r="E147" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F122" s="3" t="s">
+      <c r="F147" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="s">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B123" s="8">
+      <c r="B148" s="8">
         <v>2024</v>
       </c>
-      <c r="C123" s="8" t="s">
+      <c r="C148" s="8" t="s">
         <v>2162</v>
       </c>
-      <c r="D123" s="3" t="s">
+      <c r="D148" s="3" t="s">
         <v>372</v>
       </c>
-      <c r="E123" s="3" t="s">
+      <c r="E148" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="F123" s="3" t="s">
+      <c r="F148" s="3" t="s">
         <v>1599</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="8" t="s">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B124" s="8">
+      <c r="B149" s="8">
         <v>2024</v>
       </c>
-      <c r="C124" s="8" t="s">
+      <c r="C149" s="8" t="s">
         <v>2127</v>
       </c>
-      <c r="D124" s="3" t="s">
+      <c r="D149" s="3" t="s">
         <v>1591</v>
       </c>
-      <c r="E124" s="3" t="s">
+      <c r="E149" s="3" t="s">
         <v>1597</v>
       </c>
-      <c r="F124" s="3" t="s">
+      <c r="F149" s="3" t="s">
         <v>1598</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-      <c r="B125" s="3"/>
-      <c r="C125" s="3"/>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3"/>
-      <c r="F125" s="3"/>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
-      <c r="B126" s="3"/>
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="3"/>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-      <c r="B127" s="3"/>
-      <c r="C127" s="3"/>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3"/>
-      <c r="F127" s="3"/>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-      <c r="B128" s="166"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="3"/>
-    </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-      <c r="B129" s="3"/>
-      <c r="C129" s="3"/>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
-      <c r="F129" s="3"/>
-    </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-      <c r="B130" s="3"/>
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="3"/>
-    </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-      <c r="B131" s="3"/>
-      <c r="C131" s="3"/>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3"/>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A132" s="3"/>
-      <c r="B132" s="3"/>
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="3"/>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="3"/>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
-      <c r="F133" s="3"/>
-    </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A134" s="3"/>
-      <c r="B134" s="3"/>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="3"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A135" s="3"/>
-      <c r="B135" s="3"/>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3"/>
-      <c r="E135" s="3"/>
-      <c r="F135" s="3"/>
-    </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="3"/>
-      <c r="B136" s="3"/>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3"/>
-      <c r="E136" s="3"/>
-      <c r="F136" s="3"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="3"/>
-      <c r="B137" s="3"/>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3"/>
-      <c r="E137" s="3"/>
-      <c r="F137" s="3"/>
-    </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-      <c r="B138" s="3"/>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3"/>
-      <c r="E138" s="3"/>
-      <c r="F138" s="3"/>
-    </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="3"/>
-      <c r="B139" s="3"/>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3"/>
-      <c r="E139" s="3"/>
-      <c r="F139" s="3"/>
-    </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-      <c r="B140" s="3"/>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3"/>
-      <c r="E140" s="3"/>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-      <c r="B141" s="3"/>
-      <c r="C141" s="3"/>
-      <c r="D141" s="3"/>
-      <c r="E141" s="3"/>
-      <c r="F141" s="3"/>
-    </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A142" s="3"/>
-      <c r="B142" s="3"/>
-      <c r="C142" s="3"/>
-      <c r="D142" s="3"/>
-      <c r="E142" s="3"/>
-      <c r="F142" s="3"/>
-    </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="3"/>
-      <c r="B143" s="3"/>
-      <c r="C143" s="3"/>
-      <c r="D143" s="3"/>
-      <c r="E143" s="3"/>
-      <c r="F143" s="3"/>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
-    </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-      <c r="B145" s="3"/>
-      <c r="C145" s="3"/>
-      <c r="D145" s="3"/>
-      <c r="E145" s="3"/>
-      <c r="F145" s="3"/>
-    </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="3"/>
-      <c r="B146" s="3"/>
-      <c r="C146" s="3"/>
-      <c r="D146" s="3"/>
-      <c r="E146" s="3"/>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
-      <c r="D147" s="3"/>
-      <c r="E147" s="3"/>
-      <c r="F147" s="3"/>
-    </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-      <c r="B148" s="3"/>
-      <c r="C148" s="3"/>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="3"/>
-      <c r="B149" s="3"/>
-      <c r="C149" s="3"/>
-      <c r="D149" s="3"/>
-      <c r="E149" s="3"/>
-      <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
@@ -15002,8 +15444,7 @@
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-      <c r="B153" s="3"/>
-      <c r="C153" s="3"/>
+      <c r="B153" s="166"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -15304,16 +15745,216 @@
       <c r="E190" s="3"/>
       <c r="F190" s="3"/>
     </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+      <c r="E191" s="3"/>
+      <c r="F191" s="3"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+      <c r="E192" s="3"/>
+      <c r="F192" s="3"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+      <c r="E193" s="3"/>
+      <c r="F193" s="3"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+      <c r="E194" s="3"/>
+      <c r="F194" s="3"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+      <c r="E195" s="3"/>
+      <c r="F195" s="3"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+      <c r="E196" s="3"/>
+      <c r="F196" s="3"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+      <c r="E197" s="3"/>
+      <c r="F197" s="3"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198" s="3"/>
+      <c r="B198" s="3"/>
+      <c r="C198" s="3"/>
+      <c r="D198" s="3"/>
+      <c r="E198" s="3"/>
+      <c r="F198" s="3"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+      <c r="B199" s="3"/>
+      <c r="C199" s="3"/>
+      <c r="D199" s="3"/>
+      <c r="E199" s="3"/>
+      <c r="F199" s="3"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+      <c r="B200" s="3"/>
+      <c r="C200" s="3"/>
+      <c r="D200" s="3"/>
+      <c r="E200" s="3"/>
+      <c r="F200" s="3"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201" s="3"/>
+      <c r="B201" s="3"/>
+      <c r="C201" s="3"/>
+      <c r="D201" s="3"/>
+      <c r="E201" s="3"/>
+      <c r="F201" s="3"/>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
+      <c r="B202" s="3"/>
+      <c r="C202" s="3"/>
+      <c r="D202" s="3"/>
+      <c r="E202" s="3"/>
+      <c r="F202" s="3"/>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203" s="3"/>
+      <c r="B203" s="3"/>
+      <c r="C203" s="3"/>
+      <c r="D203" s="3"/>
+      <c r="E203" s="3"/>
+      <c r="F203" s="3"/>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
+      <c r="B204" s="3"/>
+      <c r="C204" s="3"/>
+      <c r="D204" s="3"/>
+      <c r="E204" s="3"/>
+      <c r="F204" s="3"/>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205" s="3"/>
+      <c r="B205" s="3"/>
+      <c r="C205" s="3"/>
+      <c r="D205" s="3"/>
+      <c r="E205" s="3"/>
+      <c r="F205" s="3"/>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
+      <c r="B206" s="3"/>
+      <c r="C206" s="3"/>
+      <c r="D206" s="3"/>
+      <c r="E206" s="3"/>
+      <c r="F206" s="3"/>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
+      <c r="B207" s="3"/>
+      <c r="C207" s="3"/>
+      <c r="D207" s="3"/>
+      <c r="E207" s="3"/>
+      <c r="F207" s="3"/>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208" s="3"/>
+      <c r="B208" s="3"/>
+      <c r="C208" s="3"/>
+      <c r="D208" s="3"/>
+      <c r="E208" s="3"/>
+      <c r="F208" s="3"/>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210" s="3"/>
+      <c r="B210" s="3"/>
+      <c r="C210" s="3"/>
+      <c r="D210" s="3"/>
+      <c r="E210" s="3"/>
+      <c r="F210" s="3"/>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+      <c r="B211" s="3"/>
+      <c r="C211" s="3"/>
+      <c r="D211" s="3"/>
+      <c r="E211" s="3"/>
+      <c r="F211" s="3"/>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212" s="3"/>
+      <c r="B212" s="3"/>
+      <c r="C212" s="3"/>
+      <c r="D212" s="3"/>
+      <c r="E212" s="3"/>
+      <c r="F212" s="3"/>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
+      <c r="B213" s="3"/>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
+      <c r="B214" s="3"/>
+      <c r="C214" s="3"/>
+      <c r="D214" s="3"/>
+      <c r="E214" s="3"/>
+      <c r="F214" s="3"/>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215" s="3"/>
+      <c r="B215" s="3"/>
+      <c r="C215" s="3"/>
+      <c r="D215" s="3"/>
+      <c r="E215" s="3"/>
+      <c r="F215" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F124" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
+  <autoFilter ref="A1:F149" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
   <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F102" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
-    <hyperlink ref="F112" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
-    <hyperlink ref="F108" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
-    <hyperlink ref="F122" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
+    <hyperlink ref="F127" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
+    <hyperlink ref="F137" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
+    <hyperlink ref="F133" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
+    <hyperlink ref="F147" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
     <hyperlink ref="F31" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
-    <hyperlink ref="F53" r:id="rId6" xr:uid="{9876EE8E-FE8E-4400-BE56-1A5A23BEEA28}"/>
+    <hyperlink ref="F54" r:id="rId6" xr:uid="{6939D5E8-A309-4950-8CD8-704888943397}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15322,11 +15963,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K333"/>
+  <dimension ref="A1:K334"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A280" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I289" sqref="I289"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E342" sqref="E342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22296,28 +22937,22 @@
       <c r="A284" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B284" s="118" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C284" s="159">
-        <v>45648</v>
-      </c>
-      <c r="D284" s="126" t="s">
-        <v>1644</v>
+      <c r="B284" s="120" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C284" s="154">
+        <v>45647</v>
+      </c>
+      <c r="D284" s="117" t="s">
+        <v>1660</v>
       </c>
       <c r="E284" s="117" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F284" s="126" t="s">
-        <v>2059</v>
-      </c>
-      <c r="G284" s="126" t="s">
-        <v>1882</v>
-      </c>
+        <v>1663</v>
+      </c>
+      <c r="F284" s="126"/>
+      <c r="G284" s="126"/>
       <c r="H284" s="126"/>
-      <c r="I284" s="148">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="I284" s="148"/>
       <c r="J284" s="117"/>
       <c r="K284" s="114"/>
     </row>
@@ -22325,47 +22960,53 @@
       <c r="A285" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B285" s="121" t="s">
-        <v>1615</v>
+      <c r="B285" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C285" s="159">
-        <v>45649</v>
-      </c>
-      <c r="D285" s="114" t="s">
-        <v>1654</v>
+        <v>45648</v>
+      </c>
+      <c r="D285" s="126" t="s">
+        <v>1644</v>
       </c>
       <c r="E285" s="117" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F285" s="126"/>
-      <c r="G285" s="126"/>
+        <v>1653</v>
+      </c>
+      <c r="F285" s="126" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G285" s="126" t="s">
+        <v>1882</v>
+      </c>
       <c r="H285" s="126"/>
       <c r="I285" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J285" s="117"/>
-      <c r="K285" s="125"/>
+      <c r="K285" s="114"/>
     </row>
     <row r="286" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B286" s="141" t="s">
-        <v>1635</v>
+      <c r="B286" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C286" s="159">
         <v>45649</v>
       </c>
-      <c r="D286" s="117" t="s">
-        <v>1636</v>
+      <c r="D286" s="114" t="s">
+        <v>1654</v>
       </c>
       <c r="E286" s="117" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F286" s="126"/>
       <c r="G286" s="126"/>
       <c r="H286" s="126"/>
-      <c r="I286" s="148"/>
+      <c r="I286" s="148">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="J286" s="117"/>
       <c r="K286" s="125"/>
     </row>
@@ -22373,17 +23014,17 @@
       <c r="A287" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B287" s="120" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C287" s="154">
-        <v>45653</v>
-      </c>
-      <c r="D287" s="134" t="s">
-        <v>1621</v>
+      <c r="B287" s="141" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C287" s="159">
+        <v>45649</v>
+      </c>
+      <c r="D287" s="117" t="s">
+        <v>1636</v>
       </c>
       <c r="E287" s="117" t="s">
-        <v>2038</v>
+        <v>1656</v>
       </c>
       <c r="F287" s="126"/>
       <c r="G287" s="126"/>
@@ -22396,24 +23037,22 @@
       <c r="A288" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B288" s="127" t="s">
-        <v>1648</v>
+      <c r="B288" s="120" t="s">
+        <v>1689</v>
       </c>
       <c r="C288" s="154">
-        <v>45655</v>
-      </c>
-      <c r="D288" s="126" t="s">
-        <v>1629</v>
+        <v>45653</v>
+      </c>
+      <c r="D288" s="134" t="s">
+        <v>1621</v>
       </c>
       <c r="E288" s="117" t="s">
-        <v>1649</v>
+        <v>2038</v>
       </c>
       <c r="F288" s="126"/>
       <c r="G288" s="126"/>
       <c r="H288" s="126"/>
-      <c r="I288" s="148">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="I288" s="148"/>
       <c r="J288" s="117"/>
       <c r="K288" s="125"/>
     </row>
@@ -22422,22 +23061,22 @@
         <v>1614</v>
       </c>
       <c r="B289" s="127" t="s">
-        <v>1928</v>
+        <v>1648</v>
       </c>
       <c r="C289" s="154">
-        <v>45657</v>
-      </c>
-      <c r="D289" s="117" t="s">
-        <v>1719</v>
+        <v>45655</v>
+      </c>
+      <c r="D289" s="126" t="s">
+        <v>1629</v>
       </c>
       <c r="E289" s="117" t="s">
-        <v>1638</v>
+        <v>1649</v>
       </c>
       <c r="F289" s="126"/>
       <c r="G289" s="126"/>
       <c r="H289" s="126"/>
       <c r="I289" s="148">
-        <v>0.8125</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J289" s="117"/>
       <c r="K289" s="125"/>
@@ -22446,26 +23085,24 @@
       <c r="A290" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B290" s="120" t="s">
-        <v>1689</v>
+      <c r="B290" s="127" t="s">
+        <v>1928</v>
       </c>
       <c r="C290" s="154">
-        <v>45661</v>
+        <v>45657</v>
       </c>
       <c r="D290" s="117" t="s">
-        <v>1660</v>
+        <v>1719</v>
       </c>
       <c r="E290" s="117" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F290" s="126" t="s">
-        <v>2039</v>
-      </c>
-      <c r="G290" s="126" t="s">
-        <v>1852</v>
-      </c>
+        <v>1638</v>
+      </c>
+      <c r="F290" s="126"/>
+      <c r="G290" s="126"/>
       <c r="H290" s="126"/>
-      <c r="I290" s="148"/>
+      <c r="I290" s="148">
+        <v>0.8125</v>
+      </c>
       <c r="J290" s="117"/>
       <c r="K290" s="125"/>
     </row>
@@ -22473,24 +23110,26 @@
       <c r="A291" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B291" s="118" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C291" s="159">
-        <v>45662</v>
+      <c r="B291" s="120" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C291" s="154">
+        <v>45661</v>
       </c>
       <c r="D291" s="117" t="s">
-        <v>1616</v>
+        <v>1660</v>
       </c>
       <c r="E291" s="117" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F291" s="126"/>
-      <c r="G291" s="126"/>
+        <v>1663</v>
+      </c>
+      <c r="F291" s="126" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G291" s="126" t="s">
+        <v>1852</v>
+      </c>
       <c r="H291" s="126"/>
-      <c r="I291" s="148">
-        <v>0.75</v>
-      </c>
+      <c r="I291" s="148"/>
       <c r="J291" s="117"/>
       <c r="K291" s="125"/>
     </row>
@@ -22498,26 +23137,24 @@
       <c r="A292" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B292" s="120" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C292" s="154">
-        <v>45669</v>
+      <c r="B292" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C292" s="159">
+        <v>45662</v>
       </c>
       <c r="D292" s="117" t="s">
-        <v>1644</v>
+        <v>1616</v>
       </c>
       <c r="E292" s="117" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F292" s="126" t="s">
-        <v>2040</v>
-      </c>
-      <c r="G292" s="126" t="s">
-        <v>1837</v>
-      </c>
+        <v>1617</v>
+      </c>
+      <c r="F292" s="126"/>
+      <c r="G292" s="126"/>
       <c r="H292" s="126"/>
-      <c r="I292" s="148"/>
+      <c r="I292" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J292" s="117"/>
       <c r="K292" s="125"/>
     </row>
@@ -22529,63 +23166,63 @@
         <v>1689</v>
       </c>
       <c r="C293" s="154">
-        <v>45675</v>
+        <v>45669</v>
       </c>
       <c r="D293" s="117" t="s">
-        <v>1719</v>
+        <v>1644</v>
       </c>
       <c r="E293" s="117" t="s">
-        <v>1912</v>
-      </c>
-      <c r="F293" s="126"/>
-      <c r="G293" s="126"/>
+        <v>1674</v>
+      </c>
+      <c r="F293" s="126" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G293" s="126" t="s">
+        <v>1837</v>
+      </c>
       <c r="H293" s="126"/>
-      <c r="I293" s="115"/>
+      <c r="I293" s="148"/>
       <c r="J293" s="117"/>
-      <c r="K293" s="114"/>
+      <c r="K293" s="125"/>
     </row>
     <row r="294" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B294" s="141" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C294" s="161">
-        <v>45676</v>
-      </c>
-      <c r="D294" s="126" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E294" s="167" t="s">
-        <v>1652</v>
+      <c r="B294" s="120" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C294" s="154">
+        <v>45675</v>
+      </c>
+      <c r="D294" s="117" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E294" s="117" t="s">
+        <v>1912</v>
       </c>
       <c r="F294" s="126"/>
       <c r="G294" s="126"/>
       <c r="H294" s="126"/>
-      <c r="I294" s="148">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J294" s="117" t="s">
-        <v>2164</v>
-      </c>
+      <c r="I294" s="115"/>
+      <c r="J294" s="117"/>
       <c r="K294" s="114"/>
     </row>
     <row r="295" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B295" s="118" t="s">
-        <v>1620</v>
+      <c r="B295" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C295" s="161">
         <v>45676</v>
       </c>
       <c r="D295" s="126" t="s">
-        <v>1638</v>
+        <v>1651</v>
       </c>
       <c r="E295" s="167" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="F295" s="126"/>
       <c r="G295" s="126"/>
@@ -22593,33 +23230,33 @@
       <c r="I295" s="148">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J295" s="117"/>
+      <c r="J295" s="117" t="s">
+        <v>2164</v>
+      </c>
       <c r="K295" s="114"/>
     </row>
     <row r="296" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B296" s="120" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C296" s="154">
-        <v>45686</v>
+      <c r="B296" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C296" s="161">
+        <v>45676</v>
       </c>
       <c r="D296" s="126" t="s">
         <v>1638</v>
       </c>
-      <c r="E296" s="117" t="s">
-        <v>2041</v>
-      </c>
-      <c r="F296" s="125" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G296" s="126" t="s">
-        <v>1837</v>
-      </c>
+      <c r="E296" s="167" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F296" s="126"/>
+      <c r="G296" s="126"/>
       <c r="H296" s="126"/>
-      <c r="I296" s="148"/>
+      <c r="I296" s="148">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="J296" s="117"/>
       <c r="K296" s="114"/>
     </row>
@@ -22627,33 +23264,35 @@
       <c r="A297" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B297" s="141" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C297" s="159">
-        <v>45690</v>
+      <c r="B297" s="120" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C297" s="154">
+        <v>45686</v>
       </c>
       <c r="D297" s="126" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E297" s="165" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F297" s="126"/>
-      <c r="G297" s="126"/>
+        <v>1638</v>
+      </c>
+      <c r="E297" s="117" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F297" s="125" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G297" s="126" t="s">
+        <v>1837</v>
+      </c>
       <c r="H297" s="126"/>
-      <c r="I297" s="148">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="I297" s="148"/>
       <c r="J297" s="117"/>
-      <c r="K297" s="125"/>
+      <c r="K297" s="114"/>
     </row>
     <row r="298" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A298" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B298" s="118" t="s">
-        <v>1620</v>
+      <c r="B298" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C298" s="159">
         <v>45690</v>
@@ -22662,36 +23301,38 @@
         <v>1647</v>
       </c>
       <c r="E298" s="165" t="s">
-        <v>1659</v>
+        <v>1861</v>
       </c>
       <c r="F298" s="126"/>
       <c r="G298" s="126"/>
       <c r="H298" s="126"/>
       <c r="I298" s="148">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J298" s="117"/>
-      <c r="K298" s="114"/>
+      <c r="K298" s="125"/>
     </row>
     <row r="299" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B299" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C299" s="161">
-        <v>45696</v>
-      </c>
-      <c r="D299" s="126"/>
-      <c r="E299" s="167" t="s">
-        <v>1639</v>
+      <c r="B299" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C299" s="159">
+        <v>45690</v>
+      </c>
+      <c r="D299" s="126" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E299" s="165" t="s">
+        <v>1659</v>
       </c>
       <c r="F299" s="126"/>
       <c r="G299" s="126"/>
       <c r="H299" s="126"/>
       <c r="I299" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="J299" s="117"/>
       <c r="K299" s="114"/>
@@ -22700,155 +23341,153 @@
       <c r="A300" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B300" s="118" t="s">
-        <v>1620</v>
+      <c r="B300" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C300" s="161">
         <v>45696</v>
       </c>
-      <c r="D300" s="126" t="s">
-        <v>1660</v>
-      </c>
+      <c r="D300" s="126"/>
       <c r="E300" s="167" t="s">
-        <v>1661</v>
+        <v>1639</v>
       </c>
       <c r="F300" s="126"/>
       <c r="G300" s="126"/>
       <c r="H300" s="126"/>
       <c r="I300" s="148">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J300" s="117" t="s">
-        <v>1662</v>
-      </c>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J300" s="117"/>
       <c r="K300" s="114"/>
     </row>
     <row r="301" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A301" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B301" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C301" s="159">
-        <v>45711</v>
-      </c>
-      <c r="D301" s="134" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E301" s="165" t="s">
-        <v>1815</v>
+      <c r="B301" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C301" s="161">
+        <v>45696</v>
+      </c>
+      <c r="D301" s="126" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E301" s="167" t="s">
+        <v>1661</v>
       </c>
       <c r="F301" s="126"/>
       <c r="G301" s="126"/>
       <c r="H301" s="126"/>
       <c r="I301" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J301" s="117"/>
-      <c r="K301" s="131" t="s">
-        <v>2165</v>
-      </c>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J301" s="117" t="s">
+        <v>1662</v>
+      </c>
+      <c r="K301" s="114"/>
     </row>
     <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B302" s="141" t="s">
-        <v>1635</v>
+      <c r="B302" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C302" s="159">
         <v>45711</v>
       </c>
-      <c r="D302" s="117" t="s">
-        <v>1660</v>
+      <c r="D302" s="134" t="s">
+        <v>1621</v>
       </c>
       <c r="E302" s="165" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F302" s="125"/>
-      <c r="G302" s="125"/>
-      <c r="H302" s="125"/>
+        <v>1815</v>
+      </c>
+      <c r="F302" s="126"/>
+      <c r="G302" s="126"/>
+      <c r="H302" s="126"/>
       <c r="I302" s="148">
         <v>0.75</v>
       </c>
       <c r="J302" s="117"/>
-      <c r="K302" s="147" t="s">
-        <v>1962</v>
+      <c r="K302" s="131" t="s">
+        <v>2165</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B303" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C303" s="154">
-        <v>45738</v>
+      <c r="B303" s="141" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C303" s="159">
+        <v>45711</v>
       </c>
       <c r="D303" s="117" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E303" s="117" t="s">
-        <v>1658</v>
-      </c>
-      <c r="F303" s="126"/>
-      <c r="G303" s="126"/>
-      <c r="H303" s="126"/>
+        <v>1660</v>
+      </c>
+      <c r="E303" s="165" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F303" s="125"/>
+      <c r="G303" s="125"/>
+      <c r="H303" s="125"/>
       <c r="I303" s="148">
         <v>0.75</v>
       </c>
       <c r="J303" s="117"/>
-      <c r="K303" s="125"/>
+      <c r="K303" s="147" t="s">
+        <v>1962</v>
+      </c>
     </row>
     <row r="304" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B304" s="120" t="s">
-        <v>1689</v>
+      <c r="B304" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C304" s="154">
-        <v>45739</v>
+        <v>45738</v>
       </c>
       <c r="D304" s="117" t="s">
-        <v>1719</v>
+        <v>1638</v>
       </c>
       <c r="E304" s="117" t="s">
-        <v>1913</v>
+        <v>1658</v>
       </c>
       <c r="F304" s="126"/>
       <c r="G304" s="126"/>
       <c r="H304" s="126"/>
-      <c r="I304" s="115"/>
+      <c r="I304" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J304" s="117"/>
-      <c r="K304" s="117"/>
+      <c r="K304" s="125"/>
     </row>
     <row r="305" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B305" s="118" t="s">
-        <v>1620</v>
+      <c r="B305" s="120" t="s">
+        <v>1689</v>
       </c>
       <c r="C305" s="154">
-        <v>45745</v>
-      </c>
-      <c r="D305" s="114" t="s">
-        <v>1654</v>
+        <v>45739</v>
+      </c>
+      <c r="D305" s="117" t="s">
+        <v>1719</v>
       </c>
       <c r="E305" s="117" t="s">
-        <v>1664</v>
+        <v>1913</v>
       </c>
       <c r="F305" s="126"/>
       <c r="G305" s="126"/>
       <c r="H305" s="126"/>
-      <c r="I305" s="148">
-        <v>0.8125</v>
-      </c>
+      <c r="I305" s="115"/>
       <c r="J305" s="117"/>
-      <c r="K305" s="114"/>
+      <c r="K305" s="117"/>
     </row>
     <row r="306" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="113" t="s">
@@ -22858,19 +23497,19 @@
         <v>1620</v>
       </c>
       <c r="C306" s="154">
-        <v>45746</v>
-      </c>
-      <c r="D306" s="126" t="s">
-        <v>1629</v>
+        <v>45745</v>
+      </c>
+      <c r="D306" s="114" t="s">
+        <v>1654</v>
       </c>
       <c r="E306" s="117" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="F306" s="126"/>
       <c r="G306" s="126"/>
       <c r="H306" s="126"/>
       <c r="I306" s="148">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="J306" s="117"/>
       <c r="K306" s="114"/>
@@ -22879,30 +23518,26 @@
       <c r="A307" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B307" s="140" t="s">
-        <v>1640</v>
+      <c r="B307" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C307" s="154">
-        <v>45751</v>
+        <v>45746</v>
       </c>
       <c r="D307" s="126" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="E307" s="117" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="F307" s="126"/>
       <c r="G307" s="126"/>
       <c r="H307" s="126"/>
       <c r="I307" s="148">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J307" s="117" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K307" s="131" t="s">
-        <v>1963</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="J307" s="117"/>
+      <c r="K307" s="114"/>
     </row>
     <row r="308" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A308" s="113" t="s">
@@ -22912,80 +23547,82 @@
         <v>1640</v>
       </c>
       <c r="C308" s="154">
-        <v>45752</v>
+        <v>45751</v>
       </c>
       <c r="D308" s="126" t="s">
-        <v>1651</v>
+        <v>1627</v>
       </c>
       <c r="E308" s="117" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="F308" s="126"/>
       <c r="G308" s="126"/>
       <c r="H308" s="126"/>
       <c r="I308" s="148">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J308" s="117" t="s">
         <v>1643</v>
       </c>
       <c r="K308" s="131" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="309" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B309" s="141" t="s">
-        <v>1635</v>
+      <c r="B309" s="140" t="s">
+        <v>1640</v>
       </c>
       <c r="C309" s="154">
-        <v>45753</v>
-      </c>
-      <c r="D309" s="117" t="s">
-        <v>1636</v>
+        <v>45752</v>
+      </c>
+      <c r="D309" s="126" t="s">
+        <v>1651</v>
       </c>
       <c r="E309" s="117" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F309" s="126"/>
       <c r="G309" s="126"/>
       <c r="H309" s="126"/>
       <c r="I309" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J309" s="117"/>
-      <c r="K309" s="147" t="s">
-        <v>1965</v>
+        <v>0.8125</v>
+      </c>
+      <c r="J309" s="117" t="s">
+        <v>1643</v>
+      </c>
+      <c r="K309" s="131" t="s">
+        <v>1964</v>
       </c>
     </row>
     <row r="310" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B310" s="118" t="s">
-        <v>1620</v>
+      <c r="B310" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C310" s="154">
-        <v>45767</v>
-      </c>
-      <c r="D310" s="126" t="s">
-        <v>1644</v>
+        <v>45753</v>
+      </c>
+      <c r="D310" s="117" t="s">
+        <v>1636</v>
       </c>
       <c r="E310" s="117" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F310" s="126"/>
       <c r="G310" s="126"/>
       <c r="H310" s="126"/>
       <c r="I310" s="148">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J310" s="117" t="s">
-        <v>1670</v>
-      </c>
-      <c r="K310" s="114"/>
+        <v>0.75</v>
+      </c>
+      <c r="J310" s="117"/>
+      <c r="K310" s="147" t="s">
+        <v>1965</v>
+      </c>
     </row>
     <row r="311" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="113" t="s">
@@ -22995,47 +23632,49 @@
         <v>1620</v>
       </c>
       <c r="C311" s="154">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="D311" s="126" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E311" s="117" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F311" s="126"/>
       <c r="G311" s="126"/>
       <c r="H311" s="126"/>
       <c r="I311" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J311" s="117"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J311" s="117" t="s">
+        <v>1670</v>
+      </c>
       <c r="K311" s="114"/>
     </row>
     <row r="312" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B312" s="127" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C312" s="159">
-        <v>45773</v>
+      <c r="B312" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C312" s="154">
+        <v>45768</v>
       </c>
       <c r="D312" s="126" t="s">
         <v>1647</v>
       </c>
       <c r="E312" s="117" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F312" s="126"/>
       <c r="G312" s="126"/>
       <c r="H312" s="126"/>
-      <c r="I312" s="148"/>
+      <c r="I312" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J312" s="117"/>
-      <c r="K312" s="131" t="s">
-        <v>1966</v>
-      </c>
+      <c r="K312" s="114"/>
     </row>
     <row r="313" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="113" t="s">
@@ -23045,182 +23684,180 @@
         <v>1648</v>
       </c>
       <c r="C313" s="159">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="D313" s="126" t="s">
         <v>1647</v>
       </c>
       <c r="E313" s="117" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="F313" s="126"/>
       <c r="G313" s="126"/>
       <c r="H313" s="126"/>
-      <c r="I313" s="148">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="I313" s="148"/>
       <c r="J313" s="117"/>
-      <c r="K313" s="114" t="s">
-        <v>1967</v>
+      <c r="K313" s="131" t="s">
+        <v>1966</v>
       </c>
     </row>
     <row r="314" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B314" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C314" s="154">
-        <v>45785</v>
-      </c>
-      <c r="D314" s="117" t="s">
-        <v>1629</v>
+      <c r="B314" s="127" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C314" s="159">
+        <v>45774</v>
+      </c>
+      <c r="D314" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E314" s="117" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F314" s="126"/>
       <c r="G314" s="126"/>
       <c r="H314" s="126"/>
       <c r="I314" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J314" s="117"/>
-      <c r="K314" s="125"/>
+      <c r="K314" s="114" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="315" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B315" s="118" t="s">
-        <v>1620</v>
+      <c r="B315" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C315" s="154">
-        <v>45781</v>
-      </c>
-      <c r="D315" s="126" t="s">
-        <v>1644</v>
+        <v>45785</v>
+      </c>
+      <c r="D315" s="117" t="s">
+        <v>1629</v>
       </c>
       <c r="E315" s="117" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F315" s="126"/>
       <c r="G315" s="126"/>
       <c r="H315" s="126"/>
       <c r="I315" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J315" s="117" t="s">
-        <v>1675</v>
-      </c>
-      <c r="K315" s="114"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J315" s="117"/>
+      <c r="K315" s="125"/>
     </row>
     <row r="316" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B316" s="141" t="s">
-        <v>1635</v>
+      <c r="B316" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C316" s="154">
-        <v>45788</v>
-      </c>
-      <c r="D316" s="117" t="s">
-        <v>1660</v>
+        <v>45781</v>
+      </c>
+      <c r="D316" s="126" t="s">
+        <v>1644</v>
       </c>
       <c r="E316" s="117" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F316" s="126"/>
       <c r="G316" s="126"/>
       <c r="H316" s="126"/>
       <c r="I316" s="148">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J316" s="117"/>
-      <c r="K316" s="117" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+      <c r="J316" s="117" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K316" s="114"/>
+    </row>
+    <row r="317" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B317" s="118" t="s">
-        <v>1620</v>
+      <c r="B317" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C317" s="154">
-        <v>45795</v>
-      </c>
-      <c r="D317" s="126" t="s">
-        <v>1629</v>
+        <v>45788</v>
+      </c>
+      <c r="D317" s="117" t="s">
+        <v>1660</v>
       </c>
       <c r="E317" s="117" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F317" s="126"/>
       <c r="G317" s="126"/>
       <c r="H317" s="126"/>
       <c r="I317" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J317" s="150" t="s">
-        <v>1969</v>
-      </c>
-      <c r="K317" s="114"/>
-    </row>
-    <row r="318" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J317" s="117"/>
+      <c r="K317" s="117" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B318" s="121" t="s">
-        <v>1615</v>
+      <c r="B318" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C318" s="154">
         <v>45795</v>
       </c>
-      <c r="D318" s="117" t="s">
+      <c r="D318" s="126" t="s">
         <v>1629</v>
       </c>
       <c r="E318" s="117" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F318" s="126"/>
       <c r="G318" s="126"/>
       <c r="H318" s="126"/>
       <c r="I318" s="148">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J318" s="117"/>
-      <c r="K318" s="125"/>
+        <v>0.75</v>
+      </c>
+      <c r="J318" s="150" t="s">
+        <v>1969</v>
+      </c>
+      <c r="K318" s="114"/>
     </row>
     <row r="319" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B319" s="127" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C319" s="159">
-        <v>45800</v>
-      </c>
-      <c r="D319" s="126" t="s">
-        <v>1647</v>
+      <c r="B319" s="121" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C319" s="154">
+        <v>45795</v>
+      </c>
+      <c r="D319" s="117" t="s">
+        <v>1629</v>
       </c>
       <c r="E319" s="117" t="s">
-        <v>1671</v>
+        <v>1678</v>
       </c>
       <c r="F319" s="126"/>
       <c r="G319" s="126"/>
       <c r="H319" s="126"/>
       <c r="I319" s="148">
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J319" s="117"/>
-      <c r="K319" s="114" t="s">
-        <v>1967</v>
-      </c>
+      <c r="K319" s="125"/>
     </row>
     <row r="320" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="113" t="s">
@@ -23230,72 +23867,76 @@
         <v>1648</v>
       </c>
       <c r="C320" s="159">
-        <v>45801</v>
-      </c>
-      <c r="D320" s="117" t="s">
-        <v>1644</v>
+        <v>45800</v>
+      </c>
+      <c r="D320" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E320" s="117" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="F320" s="126"/>
       <c r="G320" s="126"/>
       <c r="H320" s="126"/>
       <c r="I320" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J320" s="117"/>
-      <c r="K320" s="131" t="s">
-        <v>1970</v>
+      <c r="K320" s="114" t="s">
+        <v>1967</v>
       </c>
     </row>
     <row r="321" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B321" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C321" s="154">
-        <v>45807</v>
+      <c r="B321" s="127" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C321" s="159">
+        <v>45801</v>
       </c>
       <c r="D321" s="117" t="s">
-        <v>1679</v>
+        <v>1644</v>
       </c>
       <c r="E321" s="117" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="F321" s="126"/>
       <c r="G321" s="126"/>
       <c r="H321" s="126"/>
       <c r="I321" s="148">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J321" s="117"/>
-      <c r="K321" s="125"/>
+      <c r="K321" s="131" t="s">
+        <v>1970</v>
+      </c>
     </row>
     <row r="322" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B322" s="120" t="s">
-        <v>1689</v>
+      <c r="B322" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C322" s="154">
-        <v>45811</v>
-      </c>
-      <c r="D322" s="136" t="s">
-        <v>1621</v>
+        <v>45807</v>
+      </c>
+      <c r="D322" s="117" t="s">
+        <v>1679</v>
       </c>
       <c r="E322" s="117" t="s">
-        <v>1762</v>
+        <v>1680</v>
       </c>
       <c r="F322" s="126"/>
       <c r="G322" s="126"/>
       <c r="H322" s="126"/>
-      <c r="I322" s="115"/>
+      <c r="I322" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J322" s="117"/>
-      <c r="K322" s="117"/>
+      <c r="K322" s="125"/>
     </row>
     <row r="323" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="113" t="s">
@@ -23305,7 +23946,7 @@
         <v>1689</v>
       </c>
       <c r="C323" s="154">
-        <v>45814</v>
+        <v>45811</v>
       </c>
       <c r="D323" s="136" t="s">
         <v>1621</v>
@@ -23328,13 +23969,13 @@
         <v>1689</v>
       </c>
       <c r="C324" s="154">
-        <v>45816</v>
+        <v>45814</v>
       </c>
       <c r="D324" s="136" t="s">
         <v>1621</v>
       </c>
       <c r="E324" s="117" t="s">
-        <v>1829</v>
+        <v>1762</v>
       </c>
       <c r="F324" s="126"/>
       <c r="G324" s="126"/>
@@ -23347,67 +23988,65 @@
       <c r="A325" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B325" s="121" t="s">
-        <v>1615</v>
+      <c r="B325" s="120" t="s">
+        <v>1689</v>
       </c>
       <c r="C325" s="154">
-        <v>45829</v>
-      </c>
-      <c r="D325" s="117" t="s">
-        <v>1681</v>
+        <v>45816</v>
+      </c>
+      <c r="D325" s="136" t="s">
+        <v>1621</v>
       </c>
       <c r="E325" s="117" t="s">
-        <v>1682</v>
+        <v>1829</v>
       </c>
       <c r="F325" s="126"/>
       <c r="G325" s="126"/>
       <c r="H325" s="126"/>
-      <c r="I325" s="148">
-        <v>0.75</v>
-      </c>
+      <c r="I325" s="115"/>
       <c r="J325" s="117"/>
-      <c r="K325" s="125"/>
+      <c r="K325" s="117"/>
     </row>
     <row r="326" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A326" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B326" s="118" t="s">
-        <v>1620</v>
+      <c r="B326" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C326" s="154">
-        <v>45830</v>
-      </c>
-      <c r="D326" s="126" t="s">
-        <v>1647</v>
+        <v>45829</v>
+      </c>
+      <c r="D326" s="117" t="s">
+        <v>1681</v>
       </c>
       <c r="E326" s="117" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F326" s="126"/>
       <c r="G326" s="126"/>
       <c r="H326" s="126"/>
       <c r="I326" s="148">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="J326" s="117"/>
-      <c r="K326" s="114"/>
+      <c r="K326" s="125"/>
     </row>
     <row r="327" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B327" s="141" t="s">
-        <v>1635</v>
+      <c r="B327" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C327" s="154">
-        <v>45833</v>
-      </c>
-      <c r="D327" s="117" t="s">
-        <v>1636</v>
+        <v>45830</v>
+      </c>
+      <c r="D327" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E327" s="117" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F327" s="126"/>
       <c r="G327" s="126"/>
@@ -23416,32 +24055,34 @@
         <v>0.8125</v>
       </c>
       <c r="J327" s="117"/>
-      <c r="K327" s="147" t="s">
-        <v>1971</v>
-      </c>
+      <c r="K327" s="114"/>
     </row>
     <row r="328" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B328" s="120" t="s">
-        <v>1689</v>
+      <c r="B328" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C328" s="154">
-        <v>45840</v>
-      </c>
-      <c r="D328" s="126" t="s">
-        <v>1660</v>
+        <v>45833</v>
+      </c>
+      <c r="D328" s="117" t="s">
+        <v>1636</v>
       </c>
       <c r="E328" s="117" t="s">
-        <v>1700</v>
+        <v>1684</v>
       </c>
       <c r="F328" s="126"/>
       <c r="G328" s="126"/>
       <c r="H328" s="126"/>
-      <c r="I328" s="146"/>
+      <c r="I328" s="148">
+        <v>0.8125</v>
+      </c>
       <c r="J328" s="117"/>
-      <c r="K328" s="138"/>
+      <c r="K328" s="147" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="329" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="113" t="s">
@@ -23451,20 +24092,20 @@
         <v>1689</v>
       </c>
       <c r="C329" s="154">
-        <v>45844</v>
-      </c>
-      <c r="D329" s="136" t="s">
-        <v>1621</v>
+        <v>45840</v>
+      </c>
+      <c r="D329" s="126" t="s">
+        <v>1660</v>
       </c>
       <c r="E329" s="117" t="s">
-        <v>1914</v>
+        <v>1700</v>
       </c>
       <c r="F329" s="126"/>
       <c r="G329" s="126"/>
       <c r="H329" s="126"/>
-      <c r="I329" s="115"/>
+      <c r="I329" s="146"/>
       <c r="J329" s="117"/>
-      <c r="K329" s="117"/>
+      <c r="K329" s="138"/>
     </row>
     <row r="330" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="113" t="s">
@@ -23474,13 +24115,13 @@
         <v>1689</v>
       </c>
       <c r="C330" s="154">
-        <v>45853</v>
+        <v>45844</v>
       </c>
       <c r="D330" s="136" t="s">
         <v>1621</v>
       </c>
       <c r="E330" s="117" t="s">
-        <v>1842</v>
+        <v>1914</v>
       </c>
       <c r="F330" s="126"/>
       <c r="G330" s="126"/>
@@ -23497,13 +24138,13 @@
         <v>1689</v>
       </c>
       <c r="C331" s="154">
-        <v>45858</v>
+        <v>45853</v>
       </c>
       <c r="D331" s="136" t="s">
         <v>1621</v>
       </c>
       <c r="E331" s="117" t="s">
-        <v>1915</v>
+        <v>1842</v>
       </c>
       <c r="F331" s="126"/>
       <c r="G331" s="126"/>
@@ -23516,54 +24157,77 @@
       <c r="A332" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B332" s="118" t="s">
-        <v>1620</v>
+      <c r="B332" s="120" t="s">
+        <v>1689</v>
       </c>
       <c r="C332" s="154">
-        <v>45862</v>
-      </c>
-      <c r="D332" s="126" t="s">
-        <v>1638</v>
+        <v>45858</v>
+      </c>
+      <c r="D332" s="136" t="s">
+        <v>1621</v>
       </c>
       <c r="E332" s="117" t="s">
-        <v>1685</v>
+        <v>1915</v>
       </c>
       <c r="F332" s="126"/>
       <c r="G332" s="126"/>
       <c r="H332" s="126"/>
-      <c r="I332" s="148">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="I332" s="115"/>
       <c r="J332" s="117"/>
-      <c r="K332" s="114"/>
+      <c r="K332" s="117"/>
     </row>
     <row r="333" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A333" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B333" s="121" t="s">
-        <v>1615</v>
+      <c r="B333" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C333" s="154">
-        <v>45863</v>
-      </c>
-      <c r="D333" s="117" t="s">
-        <v>1686</v>
+        <v>45862</v>
+      </c>
+      <c r="D333" s="126" t="s">
+        <v>1638</v>
       </c>
       <c r="E333" s="117" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F333" s="126"/>
       <c r="G333" s="126"/>
       <c r="H333" s="126"/>
       <c r="I333" s="148">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J333" s="117"/>
+      <c r="K333" s="114"/>
+    </row>
+    <row r="334" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A334" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B334" s="121" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C334" s="154">
+        <v>45863</v>
+      </c>
+      <c r="D334" s="117" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E334" s="117" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F334" s="126"/>
+      <c r="G334" s="126"/>
+      <c r="H334" s="126"/>
+      <c r="I334" s="148">
         <v>0.75</v>
       </c>
-      <c r="J333" s="117"/>
-      <c r="K333" s="125"/>
+      <c r="J334" s="117"/>
+      <c r="K334" s="125"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K333" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
+  <autoFilter ref="A1:K334" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024-2025"/>
@@ -23579,14 +24243,14 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K270" r:id="rId1" display="https://www.staatsoper-hamburg.de/de/spielplan/stueck.php?AuffNr=221440" xr:uid="{ED1E9297-3292-4B3E-BA05-CADD38C0F7DB}"/>
-    <hyperlink ref="K327" r:id="rId2" display="https://www.komische-oper-berlin.de/en/what/a-z/my-friend-bunbury/" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
-    <hyperlink ref="K309" r:id="rId3" display="https://www.komische-oper-berlin.de/en/what/a-z/la-cage-aux-folles/" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
-    <hyperlink ref="K302" r:id="rId4" display="https://www.komische-oper-berlin.de/en/what/a-z/the-magic-flute/" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
-    <hyperlink ref="K307" r:id="rId5" display="https://www.staatsoper.de/stuecke/la-cenerentola/2025-04-04-1900-14886" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
-    <hyperlink ref="K308" r:id="rId6" display="https://www.staatsoper.de/stuecke/madama-butterfly/2025-04-05-1930-14888" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
-    <hyperlink ref="K312" r:id="rId7" display="https://oper-frankfurt.de/de/spielplan/linvisible/?id_datum=4100" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
-    <hyperlink ref="K320" r:id="rId8" display="https://oper-frankfurt.de/de/spielplan/parsifal/?id_datum=4119" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
-    <hyperlink ref="K301" r:id="rId9" xr:uid="{A306D56F-3AD7-4C7D-AF9F-080C76FBE9C9}"/>
+    <hyperlink ref="K328" r:id="rId2" display="https://www.komische-oper-berlin.de/en/what/a-z/my-friend-bunbury/" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
+    <hyperlink ref="K310" r:id="rId3" display="https://www.komische-oper-berlin.de/en/what/a-z/la-cage-aux-folles/" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
+    <hyperlink ref="K303" r:id="rId4" display="https://www.komische-oper-berlin.de/en/what/a-z/the-magic-flute/" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
+    <hyperlink ref="K308" r:id="rId5" display="https://www.staatsoper.de/stuecke/la-cenerentola/2025-04-04-1900-14886" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
+    <hyperlink ref="K309" r:id="rId6" display="https://www.staatsoper.de/stuecke/madama-butterfly/2025-04-05-1930-14888" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
+    <hyperlink ref="K313" r:id="rId7" display="https://oper-frankfurt.de/de/spielplan/linvisible/?id_datum=4100" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
+    <hyperlink ref="K321" r:id="rId8" display="https://oper-frankfurt.de/de/spielplan/parsifal/?id_datum=4119" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
+    <hyperlink ref="K302" r:id="rId9" xr:uid="{A306D56F-3AD7-4C7D-AF9F-080C76FBE9C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -23685,7 +24349,29 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9256" r:id="rId17" name="Check Box 40">
+            <control shapeId="9257" r:id="rId17" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>287</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>287</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9256" r:id="rId18" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -23707,19 +24393,19 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9257" r:id="rId18" name="Check Box 41">
+            <control shapeId="9269" r:id="rId19" name="Check Box 53">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>286</xdr:row>
+                    <xdr:row>283</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>286</xdr:row>
+                    <xdr:row>283</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE445151-E0CA-492A-8BDE-888D4DD06F53}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4940E4C-F483-48EF-9388-75909FC8646A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-27480" yWindow="1005" windowWidth="24255" windowHeight="14370" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$K$334</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$149</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$148</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$83</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -6457,12 +6457,6 @@
     <t>Newsletter for Statistical Programmers and Biostatisticians #56</t>
   </si>
   <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #55</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #54</t>
-  </si>
-  <si>
     <t>Newsletter for Statistical Programmers and Biostatisticians #53</t>
   </si>
   <si>
@@ -6849,6 +6843,12 @@
   </si>
   <si>
     <t>Wonderful Wednesdays 2021.04</t>
+  </si>
+  <si>
+    <t>Week47</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #55, #54</t>
   </si>
 </sst>
 </file>
@@ -8782,14 +8782,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
           <xdr:row>283</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="219075" cy="0"/>
+        <xdr:to>
+          <xdr:col>1</xdr:col>
+          <xdr:colOff>219075</xdr:colOff>
+          <xdr:row>283</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="9269" name="Check Box 53" hidden="1">
@@ -8798,7 +8803,7 @@
                   <a14:compatExt spid="_x0000_s9269"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55EE56E7-99C3-47EE-8FB1-6BEF8AAD7FE3}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0300-000035240000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -8838,7 +8843,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -9559,8 +9564,8 @@
         <v>1998</v>
       </c>
       <c r="B30" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1095, "*Y*")</f>
-        <v>82</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1094, "*Y*")</f>
+        <v>86</v>
       </c>
       <c r="C30" s="169"/>
       <c r="D30" s="169"/>
@@ -9571,8 +9576,8 @@
         <v>1557</v>
       </c>
       <c r="B31" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1095, "N")</f>
-        <v>65</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1094, "N")</f>
+        <v>60</v>
       </c>
       <c r="C31" s="169"/>
       <c r="D31" s="169"/>
@@ -9583,7 +9588,7 @@
         <v>433</v>
       </c>
       <c r="B32" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1095, "*Ongoing*")</f>
+        <f>COUNTIF('Reading Plan'!A$2:A$1094, "*Ongoing*")</f>
         <v>1</v>
       </c>
       <c r="C32" s="169"/>
@@ -11201,7 +11206,7 @@
         <v>247</v>
       </c>
       <c r="F45" s="93" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="G45" s="94" t="s">
         <v>249</v>
@@ -11213,7 +11218,7 @@
         <v>59</v>
       </c>
       <c r="J45" s="93" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="K45" s="93" t="s">
         <v>132</v>
@@ -11234,25 +11239,25 @@
       </c>
       <c r="D46" s="93"/>
       <c r="E46" s="93" t="s">
-        <v>2166</v>
+        <v>2164</v>
       </c>
       <c r="F46" s="93" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="G46" s="94" t="s">
         <v>249</v>
       </c>
       <c r="H46" s="93" t="s">
+        <v>2166</v>
+      </c>
+      <c r="I46" s="94" t="s">
+        <v>2169</v>
+      </c>
+      <c r="J46" s="93" t="s">
         <v>2168</v>
       </c>
-      <c r="I46" s="94" t="s">
-        <v>2171</v>
-      </c>
-      <c r="J46" s="93" t="s">
-        <v>2170</v>
-      </c>
       <c r="K46" s="93" t="s">
-        <v>2169</v>
+        <v>2167</v>
       </c>
       <c r="L46" s="93"/>
     </row>
@@ -12563,11 +12568,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
-  <dimension ref="A1:F215"/>
+  <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A55" sqref="A55"/>
+      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12588,7 +12593,7 @@
         <v>1579</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>317</v>
@@ -12874,7 +12879,7 @@
         <v>2061</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>2052</v>
@@ -12894,7 +12899,7 @@
         <v>2061</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>2052</v>
@@ -12914,7 +12919,7 @@
         <v>2061</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>2052</v>
@@ -12934,7 +12939,7 @@
         <v>2061</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>2052</v>
@@ -12948,13 +12953,13 @@
         <v>2024</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1986</v>
@@ -12968,13 +12973,13 @@
         <v>2024</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1986</v>
@@ -12988,13 +12993,13 @@
         <v>2024</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1986</v>
@@ -13008,13 +13013,13 @@
         <v>2024</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1986</v>
@@ -13028,13 +13033,13 @@
         <v>2024</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1986</v>
@@ -13048,13 +13053,13 @@
         <v>2024</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1986</v>
@@ -13068,13 +13073,13 @@
         <v>2024</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1986</v>
@@ -13088,13 +13093,13 @@
         <v>2024</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1986</v>
@@ -13108,13 +13113,13 @@
         <v>2024</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1986</v>
@@ -13128,13 +13133,13 @@
         <v>2024</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1986</v>
@@ -13148,13 +13153,13 @@
         <v>2024</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1986</v>
@@ -13474,7 +13479,7 @@
         <v>2024</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>355</v>
@@ -13494,7 +13499,7 @@
         <v>2024</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>355</v>
@@ -13516,10 +13521,10 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -13530,16 +13535,16 @@
         <v>2024</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>2072</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -13550,16 +13555,16 @@
         <v>2024</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D50" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>2073</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13570,16 +13575,16 @@
         <v>2024</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>2074</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -13590,16 +13595,16 @@
         <v>2024</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E52" s="3" t="s">
         <v>2075</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -13610,16 +13615,16 @@
         <v>2024</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E53" s="3" t="s">
         <v>2076</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13630,16 +13635,16 @@
         <v>2024</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E54" s="3" t="s">
         <v>2077</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -13650,88 +13655,96 @@
         <v>2024</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>2150</v>
+        <v>2210</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E55" s="3" t="s">
         <v>2078</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A56" s="9" t="s">
-        <v>1575</v>
+      <c r="A56" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B56" s="8">
         <v>2024</v>
       </c>
-      <c r="C56" s="9"/>
+      <c r="C56" s="8" t="s">
+        <v>2210</v>
+      </c>
       <c r="D56" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E56" s="3" t="s">
         <v>2079</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A57" s="9" t="s">
-        <v>1575</v>
+      <c r="A57" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B57" s="8">
         <v>2024</v>
       </c>
-      <c r="C57" s="9"/>
+      <c r="C57" s="8" t="s">
+        <v>2210</v>
+      </c>
       <c r="D57" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E57" s="3" t="s">
         <v>2080</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A58" s="9" t="s">
-        <v>1575</v>
+      <c r="A58" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B58" s="8">
         <v>2024</v>
       </c>
-      <c r="C58" s="9"/>
+      <c r="C58" s="8" t="s">
+        <v>2210</v>
+      </c>
       <c r="D58" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>2081</v>
+        <v>2211</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A59" s="9" t="s">
-        <v>1575</v>
+      <c r="A59" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B59" s="8">
         <v>2024</v>
       </c>
-      <c r="C59" s="9"/>
+      <c r="C59" s="8" t="s">
+        <v>2210</v>
+      </c>
       <c r="D59" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>2082</v>
+        <v>2081</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13743,13 +13756,13 @@
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>2083</v>
+        <v>2082</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13761,13 +13774,13 @@
       </c>
       <c r="C61" s="9"/>
       <c r="D61" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>2084</v>
+        <v>2083</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13779,13 +13792,13 @@
       </c>
       <c r="C62" s="9"/>
       <c r="D62" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E62" s="3" t="s">
         <v>2085</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -13797,31 +13810,31 @@
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="4" t="s">
+        <v>2084</v>
+      </c>
+      <c r="E63" s="3" t="s">
         <v>2086</v>
       </c>
-      <c r="E63" s="3" t="s">
-        <v>2087</v>
-      </c>
       <c r="F63" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B64" s="8">
-        <v>2024</v>
+      <c r="B64" s="9">
+        <v>2025</v>
       </c>
       <c r="C64" s="9"/>
       <c r="D64" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>2088</v>
+        <v>2087</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13833,13 +13846,13 @@
       </c>
       <c r="C65" s="9"/>
       <c r="D65" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>2089</v>
+        <v>2088</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13851,13 +13864,13 @@
       </c>
       <c r="C66" s="9"/>
       <c r="D66" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>2090</v>
+        <v>2089</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13869,13 +13882,13 @@
       </c>
       <c r="C67" s="9"/>
       <c r="D67" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>2091</v>
+        <v>2090</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -13887,13 +13900,13 @@
       </c>
       <c r="C68" s="9"/>
       <c r="D68" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>2092</v>
+        <v>2091</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13905,13 +13918,13 @@
       </c>
       <c r="C69" s="9"/>
       <c r="D69" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>2093</v>
+        <v>2092</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -13923,13 +13936,13 @@
       </c>
       <c r="C70" s="9"/>
       <c r="D70" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>2094</v>
+        <v>2093</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -13941,16 +13954,16 @@
       </c>
       <c r="C71" s="9"/>
       <c r="D71" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>2095</v>
+        <v>2094</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>2163</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2161</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="9" t="s">
         <v>1575</v>
       </c>
@@ -13959,13 +13972,13 @@
       </c>
       <c r="C72" s="9"/>
       <c r="D72" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>2096</v>
+        <v>2095</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13977,13 +13990,13 @@
       </c>
       <c r="C73" s="9"/>
       <c r="D73" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>2097</v>
+        <v>2195</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13995,13 +14008,13 @@
       </c>
       <c r="C74" s="9"/>
       <c r="D74" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>2197</v>
+        <v>2196</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14013,13 +14026,13 @@
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>2198</v>
+        <v>2197</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14031,13 +14044,13 @@
       </c>
       <c r="C76" s="9"/>
       <c r="D76" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>2199</v>
+        <v>2198</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14049,13 +14062,13 @@
       </c>
       <c r="C77" s="9"/>
       <c r="D77" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>2200</v>
+        <v>2199</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14067,13 +14080,13 @@
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="4" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>2201</v>
+        <v>2200</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14084,14 +14097,14 @@
         <v>2025</v>
       </c>
       <c r="C79" s="9"/>
-      <c r="D79" s="4" t="s">
-        <v>2086</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>2202</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>2163</v>
+      <c r="D79" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>2185</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>2049</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14106,7 +14119,7 @@
         <v>326</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>2049</v>
@@ -14124,7 +14137,7 @@
         <v>326</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2188</v>
+        <v>2187</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>2049</v>
@@ -14142,7 +14155,7 @@
         <v>326</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2189</v>
+        <v>2188</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>2049</v>
@@ -14160,7 +14173,7 @@
         <v>326</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2190</v>
+        <v>2189</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>2049</v>
@@ -14178,7 +14191,7 @@
         <v>326</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2191</v>
+        <v>2190</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>2049</v>
@@ -14196,7 +14209,7 @@
         <v>326</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>2192</v>
+        <v>2191</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>2049</v>
@@ -14214,7 +14227,7 @@
         <v>326</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>2193</v>
+        <v>2192</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>2049</v>
@@ -14232,7 +14245,7 @@
         <v>326</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>2194</v>
+        <v>2193</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>2049</v>
@@ -14250,28 +14263,30 @@
         <v>326</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2195</v>
+        <v>2194</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B89" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>2145</v>
+      </c>
       <c r="D89" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E89" s="4" t="s">
-        <v>2196</v>
+      <c r="E89" s="3" t="s">
+        <v>2051</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>2049</v>
+        <v>2052</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -14282,16 +14297,16 @@
         <v>2024</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>2147</v>
+        <v>2146</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E90" s="3" t="s">
-        <v>2051</v>
+      <c r="E90" s="4" t="s">
+        <v>327</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>2052</v>
+        <v>328</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -14302,16 +14317,16 @@
         <v>2024</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>2148</v>
+        <v>2147</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>327</v>
+        <v>2104</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>328</v>
+        <v>2049</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -14322,13 +14337,13 @@
         <v>2024</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>2049</v>
@@ -14342,13 +14357,13 @@
         <v>2024</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>2149</v>
+        <v>2127</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>2107</v>
+        <v>2131</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2049</v>
@@ -14362,13 +14377,13 @@
         <v>2024</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>2133</v>
+        <v>2132</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>2049</v>
@@ -14382,13 +14397,13 @@
         <v>2024</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>2134</v>
+        <v>2133</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>2049</v>
@@ -14402,13 +14417,13 @@
         <v>2024</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>2135</v>
+        <v>2134</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>2049</v>
@@ -14422,13 +14437,13 @@
         <v>2024</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>2136</v>
+        <v>2135</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>2049</v>
@@ -14442,13 +14457,13 @@
         <v>2024</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2137</v>
+        <v>2154</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>2049</v>
@@ -14462,13 +14477,13 @@
         <v>2024</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>2156</v>
+        <v>2136</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>2049</v>
@@ -14482,13 +14497,13 @@
         <v>2024</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>2138</v>
+        <v>2137</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>2049</v>
@@ -14502,13 +14517,13 @@
         <v>2024</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>2139</v>
+        <v>2155</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>2049</v>
@@ -14522,13 +14537,13 @@
         <v>2024</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>2129</v>
+        <v>2148</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>2157</v>
+        <v>2138</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>2049</v>
@@ -14542,13 +14557,13 @@
         <v>2024</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>2140</v>
+        <v>2139</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>2049</v>
@@ -14562,19 +14577,19 @@
         <v>2024</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>2150</v>
+        <v>2127</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>2141</v>
+        <v>2156</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>166</v>
       </c>
@@ -14582,19 +14597,19 @@
         <v>2024</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>2158</v>
+        <v>2140</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="106" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>166</v>
       </c>
@@ -14602,13 +14617,13 @@
         <v>2024</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>2129</v>
+        <v>2148</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>2142</v>
+        <v>2172</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>2049</v>
@@ -14622,33 +14637,31 @@
         <v>2024</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B108" s="8">
+      <c r="A108" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B108" s="9">
         <v>2024</v>
       </c>
-      <c r="C108" s="8" t="s">
-        <v>2150</v>
-      </c>
+      <c r="C108" s="9"/>
       <c r="D108" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>2175</v>
+        <v>2174</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>2049</v>
@@ -14666,7 +14679,7 @@
         <v>326</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>2176</v>
+        <v>2096</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>2049</v>
@@ -14684,7 +14697,7 @@
         <v>326</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>2098</v>
+        <v>2097</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>2049</v>
@@ -14702,7 +14715,7 @@
         <v>326</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>2099</v>
+        <v>2098</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>2049</v>
@@ -14720,7 +14733,7 @@
         <v>326</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>2100</v>
+        <v>2099</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>2049</v>
@@ -14738,7 +14751,7 @@
         <v>326</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2101</v>
+        <v>2100</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>2049</v>
@@ -14756,7 +14769,7 @@
         <v>326</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2102</v>
+        <v>2101</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>2049</v>
@@ -14774,7 +14787,7 @@
         <v>326</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2103</v>
+        <v>2102</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>2049</v>
@@ -14792,7 +14805,7 @@
         <v>326</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2104</v>
+        <v>2201</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>2049</v>
@@ -14810,7 +14823,7 @@
         <v>326</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2203</v>
+        <v>2202</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>2049</v>
@@ -14828,7 +14841,7 @@
         <v>326</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>2204</v>
+        <v>2203</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>2049</v>
@@ -14846,7 +14859,7 @@
         <v>326</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2205</v>
+        <v>2204</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>2049</v>
@@ -14864,7 +14877,7 @@
         <v>326</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>2206</v>
+        <v>2205</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>2049</v>
@@ -14882,7 +14895,7 @@
         <v>326</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>2207</v>
+        <v>2206</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>2049</v>
@@ -14900,7 +14913,7 @@
         <v>326</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>2208</v>
+        <v>2207</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>2049</v>
@@ -14918,7 +14931,7 @@
         <v>326</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>2209</v>
+        <v>2208</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>2049</v>
@@ -14936,31 +14949,33 @@
         <v>326</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>2210</v>
+        <v>2209</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B125" s="9">
+    <row r="125" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A125" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" s="8">
         <v>2024</v>
       </c>
-      <c r="C125" s="9"/>
+      <c r="C125" s="8" t="s">
+        <v>2149</v>
+      </c>
       <c r="D125" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>2211</v>
+        <v>1925</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>2049</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>1924</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>166</v>
       </c>
@@ -14968,19 +14983,19 @@
         <v>2024</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>1925</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>1924</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" ht="90" x14ac:dyDescent="0.25">
+        <v>329</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>166</v>
       </c>
@@ -14988,19 +15003,17 @@
         <v>2024</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>2152</v>
+        <v>2118</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E127" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="E127" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F127" s="4"/>
+    </row>
+    <row r="128" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A128" s="8" t="s">
         <v>166</v>
       </c>
@@ -15008,17 +15021,19 @@
         <v>2024</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>2120</v>
+        <v>2151</v>
       </c>
       <c r="D128" s="3" t="s">
-        <v>326</v>
+        <v>1917</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F128" s="4"/>
-    </row>
-    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="8" t="s">
         <v>166</v>
       </c>
@@ -15026,17 +15041,15 @@
         <v>2024</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>2153</v>
+        <v>2149</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>1917</v>
       </c>
       <c r="E129" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F129" s="3" t="s">
-        <v>368</v>
-      </c>
+        <v>1918</v>
+      </c>
+      <c r="F129" s="3"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="8" t="s">
@@ -15046,17 +15059,17 @@
         <v>2024</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>1917</v>
       </c>
       <c r="E130" s="3" t="s">
-        <v>1918</v>
+        <v>1923</v>
       </c>
       <c r="F130" s="3"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>166</v>
       </c>
@@ -15064,17 +15077,19 @@
         <v>2024</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>2151</v>
+        <v>2152</v>
       </c>
       <c r="D131" s="3" t="s">
-        <v>1917</v>
+        <v>1988</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>1923</v>
-      </c>
-      <c r="F131" s="3"/>
-    </row>
-    <row r="132" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+        <v>332</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>166</v>
       </c>
@@ -15082,36 +15097,34 @@
         <v>2024</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E132" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B133" s="8">
+        <v>334</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B133" s="9">
         <v>2024</v>
       </c>
-      <c r="C133" s="8" t="s">
-        <v>2155</v>
-      </c>
+      <c r="C133" s="9"/>
       <c r="D133" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E133" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F133" s="5" t="s">
-        <v>335</v>
+        <v>336</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>337</v>
       </c>
     </row>
     <row r="134" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -15119,36 +15132,36 @@
         <v>1575</v>
       </c>
       <c r="B134" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C134" s="9"/>
       <c r="D134" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="E134" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F134" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" ht="30" x14ac:dyDescent="0.25">
-      <c r="A135" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B135" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C135" s="9"/>
+      <c r="E134" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B135" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C135" s="8" t="s">
+        <v>2157</v>
+      </c>
       <c r="D135" s="3" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E135" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>339</v>
-      </c>
+        <v>1574</v>
+      </c>
+      <c r="E135" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
@@ -15158,17 +15171,19 @@
         <v>2024</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>1574</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F136" s="4"/>
-    </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>166</v>
       </c>
@@ -15176,16 +15191,16 @@
         <v>2024</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>1574</v>
       </c>
-      <c r="E137" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>344</v>
+      <c r="E137" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>346</v>
       </c>
     </row>
     <row r="138" spans="1:6" ht="45" x14ac:dyDescent="0.25">
@@ -15196,19 +15211,19 @@
         <v>2024</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>1574</v>
-      </c>
-      <c r="E138" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E138" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F138" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A139" s="8" t="s">
         <v>166</v>
       </c>
@@ -15216,19 +15231,19 @@
         <v>2024</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>2160</v>
+        <v>2119</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F139" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" ht="75" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="8" t="s">
         <v>166</v>
       </c>
@@ -15236,19 +15251,19 @@
         <v>2024</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>2121</v>
+        <v>2146</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F140" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A141" s="8" t="s">
         <v>166</v>
       </c>
@@ -15256,19 +15271,19 @@
         <v>2024</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>2148</v>
+        <v>2159</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>365</v>
+        <v>1926</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="105" x14ac:dyDescent="0.25">
+        <v>1927</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="8" t="s">
         <v>166</v>
       </c>
@@ -15276,30 +15291,28 @@
         <v>2024</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>2161</v>
+        <v>2148</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>360</v>
+        <v>2179</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>1926</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>1927</v>
-      </c>
+        <v>2180</v>
+      </c>
+      <c r="F142" s="3"/>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="s">
-        <v>166</v>
+      <c r="A143" s="9" t="s">
+        <v>1575</v>
       </c>
       <c r="B143" s="8">
         <v>2024</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>2150</v>
+        <v>2181</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="E143" s="3" t="s">
         <v>2182</v>
@@ -15314,10 +15327,10 @@
         <v>2024</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>2183</v>
+        <v>2181</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="E144" s="3" t="s">
         <v>2184</v>
@@ -15332,13 +15345,13 @@
         <v>2024</v>
       </c>
       <c r="C145" s="8" t="s">
+        <v>2181</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>2183</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>2186</v>
       </c>
       <c r="F145" s="3"/>
     </row>
@@ -15346,36 +15359,38 @@
       <c r="A146" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B146" s="8">
+      <c r="B146" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C146" s="9"/>
+      <c r="D146" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E146" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F146" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B147" s="8">
         <v>2024</v>
       </c>
-      <c r="C146" s="8" t="s">
-        <v>2183</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>2181</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>2185</v>
-      </c>
-      <c r="F146" s="3"/>
-    </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B147" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C147" s="9"/>
+      <c r="C147" s="8" t="s">
+        <v>2160</v>
+      </c>
       <c r="D147" s="3" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F147" s="3" t="s">
-        <v>371</v>
+        <v>1599</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -15386,37 +15401,25 @@
         <v>2024</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>2162</v>
+        <v>2125</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>372</v>
+        <v>1591</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>373</v>
+        <v>1597</v>
       </c>
       <c r="F148" s="3" t="s">
-        <v>1599</v>
+        <v>1598</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B149" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>2127</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>1591</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>1597</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>1598</v>
-      </c>
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A150" s="3"/>
@@ -15436,15 +15439,15 @@
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A152" s="3"/>
-      <c r="B152" s="3"/>
-      <c r="C152" s="3"/>
+      <c r="B152" s="166"/>
       <c r="D152" s="3"/>
       <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A153" s="3"/>
-      <c r="B153" s="166"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
       <c r="D153" s="3"/>
       <c r="E153" s="3"/>
       <c r="F153" s="3"/>
@@ -15937,22 +15940,14 @@
       <c r="E214" s="3"/>
       <c r="F214" s="3"/>
     </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F149" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
+  <autoFilter ref="A1:F148" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
   <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F127" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
-    <hyperlink ref="F137" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
-    <hyperlink ref="F133" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
-    <hyperlink ref="F147" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
+    <hyperlink ref="F126" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
+    <hyperlink ref="F136" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
+    <hyperlink ref="F132" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
+    <hyperlink ref="F146" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
     <hyperlink ref="F31" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
     <hyperlink ref="F54" r:id="rId6" xr:uid="{6939D5E8-A309-4950-8CD8-704888943397}"/>
   </hyperlinks>
@@ -23231,7 +23226,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J295" s="117" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="K295" s="114"/>
     </row>
@@ -23411,7 +23406,7 @@
       </c>
       <c r="J302" s="117"/>
       <c r="K302" s="131" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="303" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37109,7 +37104,7 @@
         <v>1958</v>
       </c>
       <c r="H39" s="126" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37157,10 +37152,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="126" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="G41" s="126" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="H41" s="126"/>
     </row>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4940E4C-F483-48EF-9388-75909FC8646A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939DA3FF-39BC-4DD7-97E2-C5599C261D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-27480" yWindow="1005" windowWidth="24255" windowHeight="14370" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$K$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$K$335</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$148</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$83</definedName>
   </definedNames>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6175" uniqueCount="2212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6181" uniqueCount="2212">
   <si>
     <t>Phase</t>
   </si>
@@ -8225,9 +8225,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8239,16 +8248,7 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8518,13 +8518,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>280</xdr:row>
+          <xdr:row>281</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>280</xdr:row>
+          <xdr:row>281</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8585,13 +8585,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>281</xdr:row>
+          <xdr:row>282</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>281</xdr:row>
+          <xdr:row>282</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8652,13 +8652,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>282</xdr:row>
+          <xdr:row>283</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>282</xdr:row>
+          <xdr:row>283</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8719,13 +8719,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>287</xdr:row>
+          <xdr:row>288</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>287</xdr:row>
+          <xdr:row>288</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -8786,13 +8786,13 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>0</xdr:colOff>
-          <xdr:row>283</xdr:row>
+          <xdr:row>284</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>283</xdr:row>
+          <xdr:row>284</xdr:row>
           <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -9212,12 +9212,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="173" t="s">
         <v>1582</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9226,35 +9226,35 @@
       <c r="A3" s="67" t="s">
         <v>1576</v>
       </c>
-      <c r="B3" s="172">
+      <c r="B3" s="175">
         <v>45520</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="172" t="s">
         <v>1578</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1579</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="170" t="s">
         <v>1580</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -9322,12 +9322,12 @@
       <c r="A13" s="76" t="s">
         <v>1583</v>
       </c>
-      <c r="B13" s="168">
+      <c r="B13" s="170">
         <f>COUNTA(Study!A$2:A$1004)</f>
         <v>83</v>
       </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9339,12 +9339,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="168">
+      <c r="B14" s="170">
         <f>COUNTIF(Study!D$1:D$1004,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9354,9 +9354,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9368,11 +9368,11 @@
       <c r="A16" s="76" t="s">
         <v>1581</v>
       </c>
-      <c r="B16" s="168" t="s">
+      <c r="B16" s="170" t="s">
         <v>1580</v>
       </c>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9534,12 +9534,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="173" t="s">
+      <c r="A27" s="172" t="s">
         <v>1588</v>
       </c>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9552,11 +9552,11 @@
       <c r="A29" s="76" t="s">
         <v>1589</v>
       </c>
-      <c r="B29" s="168" t="s">
+      <c r="B29" s="170" t="s">
         <v>1580</v>
       </c>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9610,21 +9610,29 @@
       <c r="L34" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="168" t="s">
         <v>1590</v>
       </c>
-      <c r="B36" s="175"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="175"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
+      <c r="A37" s="168"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9641,14 +9649,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -12570,9 +12570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D63" sqref="D63"/>
+      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15958,11 +15958,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:K334"/>
+  <dimension ref="A1:K335"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E342" sqref="E342"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K278" sqref="K278"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22859,16 +22859,20 @@
         <v>1689</v>
       </c>
       <c r="C281" s="154">
-        <v>45636</v>
-      </c>
-      <c r="D281" s="134" t="s">
-        <v>1621</v>
+        <v>45629</v>
+      </c>
+      <c r="D281" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E281" s="117" t="s">
-        <v>2035</v>
-      </c>
-      <c r="F281" s="126"/>
-      <c r="G281" s="126"/>
+        <v>2023</v>
+      </c>
+      <c r="F281" s="125" t="s">
+        <v>1880</v>
+      </c>
+      <c r="G281" s="125" t="s">
+        <v>2025</v>
+      </c>
       <c r="H281" s="126"/>
       <c r="I281" s="148"/>
       <c r="J281" s="117"/>
@@ -22882,20 +22886,16 @@
         <v>1689</v>
       </c>
       <c r="C282" s="154">
-        <v>45640</v>
-      </c>
-      <c r="D282" s="126" t="s">
-        <v>1651</v>
+        <v>45636</v>
+      </c>
+      <c r="D282" s="134" t="s">
+        <v>1621</v>
       </c>
       <c r="E282" s="117" t="s">
-        <v>1652</v>
-      </c>
-      <c r="F282" s="126" t="s">
-        <v>2033</v>
-      </c>
-      <c r="G282" s="126" t="s">
-        <v>2034</v>
-      </c>
+        <v>2035</v>
+      </c>
+      <c r="F282" s="126"/>
+      <c r="G282" s="126"/>
       <c r="H282" s="126"/>
       <c r="I282" s="148"/>
       <c r="J282" s="117"/>
@@ -22909,19 +22909,19 @@
         <v>1689</v>
       </c>
       <c r="C283" s="154">
-        <v>45641</v>
+        <v>45640</v>
       </c>
       <c r="D283" s="126" t="s">
-        <v>1647</v>
+        <v>1651</v>
       </c>
       <c r="E283" s="117" t="s">
-        <v>1861</v>
+        <v>1652</v>
       </c>
       <c r="F283" s="126" t="s">
-        <v>2036</v>
+        <v>2033</v>
       </c>
       <c r="G283" s="126" t="s">
-        <v>2037</v>
+        <v>2034</v>
       </c>
       <c r="H283" s="126"/>
       <c r="I283" s="148"/>
@@ -22936,16 +22936,20 @@
         <v>1689</v>
       </c>
       <c r="C284" s="154">
-        <v>45647</v>
-      </c>
-      <c r="D284" s="117" t="s">
-        <v>1660</v>
+        <v>45641</v>
+      </c>
+      <c r="D284" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E284" s="117" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F284" s="126"/>
-      <c r="G284" s="126"/>
+        <v>1861</v>
+      </c>
+      <c r="F284" s="126" t="s">
+        <v>2036</v>
+      </c>
+      <c r="G284" s="126" t="s">
+        <v>2037</v>
+      </c>
       <c r="H284" s="126"/>
       <c r="I284" s="148"/>
       <c r="J284" s="117"/>
@@ -22955,28 +22959,22 @@
       <c r="A285" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B285" s="118" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C285" s="159">
-        <v>45648</v>
-      </c>
-      <c r="D285" s="126" t="s">
-        <v>1644</v>
+      <c r="B285" s="120" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C285" s="154">
+        <v>45647</v>
+      </c>
+      <c r="D285" s="117" t="s">
+        <v>1660</v>
       </c>
       <c r="E285" s="117" t="s">
-        <v>1653</v>
-      </c>
-      <c r="F285" s="126" t="s">
-        <v>2059</v>
-      </c>
-      <c r="G285" s="126" t="s">
-        <v>1882</v>
-      </c>
+        <v>1663</v>
+      </c>
+      <c r="F285" s="126"/>
+      <c r="G285" s="126"/>
       <c r="H285" s="126"/>
-      <c r="I285" s="148">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="I285" s="148"/>
       <c r="J285" s="117"/>
       <c r="K285" s="114"/>
     </row>
@@ -22984,47 +22982,53 @@
       <c r="A286" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B286" s="121" t="s">
-        <v>1615</v>
+      <c r="B286" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C286" s="159">
-        <v>45649</v>
-      </c>
-      <c r="D286" s="114" t="s">
-        <v>1654</v>
+        <v>45648</v>
+      </c>
+      <c r="D286" s="126" t="s">
+        <v>1644</v>
       </c>
       <c r="E286" s="117" t="s">
-        <v>1655</v>
-      </c>
-      <c r="F286" s="126"/>
-      <c r="G286" s="126"/>
+        <v>1653</v>
+      </c>
+      <c r="F286" s="126" t="s">
+        <v>2059</v>
+      </c>
+      <c r="G286" s="126" t="s">
+        <v>1882</v>
+      </c>
       <c r="H286" s="126"/>
       <c r="I286" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J286" s="117"/>
-      <c r="K286" s="125"/>
+      <c r="K286" s="114"/>
     </row>
     <row r="287" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B287" s="141" t="s">
-        <v>1635</v>
+      <c r="B287" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C287" s="159">
         <v>45649</v>
       </c>
-      <c r="D287" s="117" t="s">
-        <v>1636</v>
+      <c r="D287" s="114" t="s">
+        <v>1654</v>
       </c>
       <c r="E287" s="117" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F287" s="126"/>
       <c r="G287" s="126"/>
       <c r="H287" s="126"/>
-      <c r="I287" s="148"/>
+      <c r="I287" s="148">
+        <v>0.70833333333333337</v>
+      </c>
       <c r="J287" s="117"/>
       <c r="K287" s="125"/>
     </row>
@@ -23032,17 +23036,17 @@
       <c r="A288" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B288" s="120" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C288" s="154">
-        <v>45653</v>
-      </c>
-      <c r="D288" s="134" t="s">
-        <v>1621</v>
+      <c r="B288" s="141" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C288" s="159">
+        <v>45649</v>
+      </c>
+      <c r="D288" s="117" t="s">
+        <v>1636</v>
       </c>
       <c r="E288" s="117" t="s">
-        <v>2038</v>
+        <v>1656</v>
       </c>
       <c r="F288" s="126"/>
       <c r="G288" s="126"/>
@@ -23055,24 +23059,22 @@
       <c r="A289" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B289" s="127" t="s">
-        <v>1648</v>
+      <c r="B289" s="120" t="s">
+        <v>1689</v>
       </c>
       <c r="C289" s="154">
-        <v>45655</v>
-      </c>
-      <c r="D289" s="126" t="s">
-        <v>1629</v>
+        <v>45653</v>
+      </c>
+      <c r="D289" s="134" t="s">
+        <v>1621</v>
       </c>
       <c r="E289" s="117" t="s">
-        <v>1649</v>
+        <v>2038</v>
       </c>
       <c r="F289" s="126"/>
       <c r="G289" s="126"/>
       <c r="H289" s="126"/>
-      <c r="I289" s="148">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="I289" s="148"/>
       <c r="J289" s="117"/>
       <c r="K289" s="125"/>
     </row>
@@ -23081,22 +23083,22 @@
         <v>1614</v>
       </c>
       <c r="B290" s="127" t="s">
-        <v>1928</v>
+        <v>1648</v>
       </c>
       <c r="C290" s="154">
-        <v>45657</v>
-      </c>
-      <c r="D290" s="117" t="s">
-        <v>1719</v>
+        <v>45655</v>
+      </c>
+      <c r="D290" s="126" t="s">
+        <v>1629</v>
       </c>
       <c r="E290" s="117" t="s">
-        <v>1638</v>
+        <v>1649</v>
       </c>
       <c r="F290" s="126"/>
       <c r="G290" s="126"/>
       <c r="H290" s="126"/>
       <c r="I290" s="148">
-        <v>0.8125</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J290" s="117"/>
       <c r="K290" s="125"/>
@@ -23105,26 +23107,24 @@
       <c r="A291" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B291" s="120" t="s">
-        <v>1689</v>
+      <c r="B291" s="127" t="s">
+        <v>1928</v>
       </c>
       <c r="C291" s="154">
-        <v>45661</v>
+        <v>45657</v>
       </c>
       <c r="D291" s="117" t="s">
-        <v>1660</v>
+        <v>1719</v>
       </c>
       <c r="E291" s="117" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F291" s="126" t="s">
-        <v>2039</v>
-      </c>
-      <c r="G291" s="126" t="s">
-        <v>1852</v>
-      </c>
+        <v>1638</v>
+      </c>
+      <c r="F291" s="126"/>
+      <c r="G291" s="126"/>
       <c r="H291" s="126"/>
-      <c r="I291" s="148"/>
+      <c r="I291" s="148">
+        <v>0.8125</v>
+      </c>
       <c r="J291" s="117"/>
       <c r="K291" s="125"/>
     </row>
@@ -23132,24 +23132,26 @@
       <c r="A292" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B292" s="118" t="s">
-        <v>1620</v>
-      </c>
-      <c r="C292" s="159">
-        <v>45662</v>
+      <c r="B292" s="120" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C292" s="154">
+        <v>45661</v>
       </c>
       <c r="D292" s="117" t="s">
-        <v>1616</v>
+        <v>1660</v>
       </c>
       <c r="E292" s="117" t="s">
-        <v>1617</v>
-      </c>
-      <c r="F292" s="126"/>
-      <c r="G292" s="126"/>
+        <v>1663</v>
+      </c>
+      <c r="F292" s="126" t="s">
+        <v>2039</v>
+      </c>
+      <c r="G292" s="126" t="s">
+        <v>1852</v>
+      </c>
       <c r="H292" s="126"/>
-      <c r="I292" s="148">
-        <v>0.75</v>
-      </c>
+      <c r="I292" s="148"/>
       <c r="J292" s="117"/>
       <c r="K292" s="125"/>
     </row>
@@ -23157,26 +23159,24 @@
       <c r="A293" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B293" s="120" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C293" s="154">
-        <v>45669</v>
+      <c r="B293" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C293" s="159">
+        <v>45662</v>
       </c>
       <c r="D293" s="117" t="s">
-        <v>1644</v>
+        <v>1616</v>
       </c>
       <c r="E293" s="117" t="s">
-        <v>1674</v>
-      </c>
-      <c r="F293" s="126" t="s">
-        <v>2040</v>
-      </c>
-      <c r="G293" s="126" t="s">
-        <v>1837</v>
-      </c>
+        <v>1617</v>
+      </c>
+      <c r="F293" s="126"/>
+      <c r="G293" s="126"/>
       <c r="H293" s="126"/>
-      <c r="I293" s="148"/>
+      <c r="I293" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J293" s="117"/>
       <c r="K293" s="125"/>
     </row>
@@ -23188,63 +23188,63 @@
         <v>1689</v>
       </c>
       <c r="C294" s="154">
-        <v>45675</v>
+        <v>45669</v>
       </c>
       <c r="D294" s="117" t="s">
-        <v>1719</v>
+        <v>1644</v>
       </c>
       <c r="E294" s="117" t="s">
-        <v>1912</v>
-      </c>
-      <c r="F294" s="126"/>
-      <c r="G294" s="126"/>
+        <v>1674</v>
+      </c>
+      <c r="F294" s="126" t="s">
+        <v>2040</v>
+      </c>
+      <c r="G294" s="126" t="s">
+        <v>1837</v>
+      </c>
       <c r="H294" s="126"/>
-      <c r="I294" s="115"/>
+      <c r="I294" s="148"/>
       <c r="J294" s="117"/>
-      <c r="K294" s="114"/>
+      <c r="K294" s="125"/>
     </row>
     <row r="295" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B295" s="141" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C295" s="161">
-        <v>45676</v>
-      </c>
-      <c r="D295" s="126" t="s">
-        <v>1651</v>
-      </c>
-      <c r="E295" s="167" t="s">
-        <v>1652</v>
+      <c r="B295" s="120" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C295" s="154">
+        <v>45675</v>
+      </c>
+      <c r="D295" s="117" t="s">
+        <v>1719</v>
+      </c>
+      <c r="E295" s="117" t="s">
+        <v>1912</v>
       </c>
       <c r="F295" s="126"/>
       <c r="G295" s="126"/>
       <c r="H295" s="126"/>
-      <c r="I295" s="148">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J295" s="117" t="s">
-        <v>2162</v>
-      </c>
+      <c r="I295" s="115"/>
+      <c r="J295" s="117"/>
       <c r="K295" s="114"/>
     </row>
     <row r="296" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A296" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B296" s="118" t="s">
-        <v>1620</v>
+      <c r="B296" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C296" s="161">
         <v>45676</v>
       </c>
       <c r="D296" s="126" t="s">
-        <v>1638</v>
+        <v>1651</v>
       </c>
       <c r="E296" s="167" t="s">
-        <v>1657</v>
+        <v>1652</v>
       </c>
       <c r="F296" s="126"/>
       <c r="G296" s="126"/>
@@ -23252,33 +23252,33 @@
       <c r="I296" s="148">
         <v>0.66666666666666663</v>
       </c>
-      <c r="J296" s="117"/>
+      <c r="J296" s="117" t="s">
+        <v>2162</v>
+      </c>
       <c r="K296" s="114"/>
     </row>
     <row r="297" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A297" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B297" s="120" t="s">
-        <v>1689</v>
-      </c>
-      <c r="C297" s="154">
-        <v>45686</v>
+      <c r="B297" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C297" s="161">
+        <v>45676</v>
       </c>
       <c r="D297" s="126" t="s">
         <v>1638</v>
       </c>
-      <c r="E297" s="117" t="s">
-        <v>2041</v>
-      </c>
-      <c r="F297" s="125" t="s">
-        <v>1810</v>
-      </c>
-      <c r="G297" s="126" t="s">
-        <v>1837</v>
-      </c>
+      <c r="E297" s="167" t="s">
+        <v>1657</v>
+      </c>
+      <c r="F297" s="126"/>
+      <c r="G297" s="126"/>
       <c r="H297" s="126"/>
-      <c r="I297" s="148"/>
+      <c r="I297" s="148">
+        <v>0.66666666666666663</v>
+      </c>
       <c r="J297" s="117"/>
       <c r="K297" s="114"/>
     </row>
@@ -23286,33 +23286,35 @@
       <c r="A298" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B298" s="141" t="s">
-        <v>1635</v>
-      </c>
-      <c r="C298" s="159">
-        <v>45690</v>
+      <c r="B298" s="120" t="s">
+        <v>1689</v>
+      </c>
+      <c r="C298" s="154">
+        <v>45686</v>
       </c>
       <c r="D298" s="126" t="s">
-        <v>1647</v>
-      </c>
-      <c r="E298" s="165" t="s">
-        <v>1861</v>
-      </c>
-      <c r="F298" s="126"/>
-      <c r="G298" s="126"/>
+        <v>1638</v>
+      </c>
+      <c r="E298" s="117" t="s">
+        <v>2041</v>
+      </c>
+      <c r="F298" s="125" t="s">
+        <v>1810</v>
+      </c>
+      <c r="G298" s="126" t="s">
+        <v>1837</v>
+      </c>
       <c r="H298" s="126"/>
-      <c r="I298" s="148">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="I298" s="148"/>
       <c r="J298" s="117"/>
-      <c r="K298" s="125"/>
+      <c r="K298" s="114"/>
     </row>
     <row r="299" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A299" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B299" s="118" t="s">
-        <v>1620</v>
+      <c r="B299" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C299" s="159">
         <v>45690</v>
@@ -23321,36 +23323,38 @@
         <v>1647</v>
       </c>
       <c r="E299" s="165" t="s">
-        <v>1659</v>
+        <v>1861</v>
       </c>
       <c r="F299" s="126"/>
       <c r="G299" s="126"/>
       <c r="H299" s="126"/>
       <c r="I299" s="148">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="J299" s="117"/>
-      <c r="K299" s="114"/>
+      <c r="K299" s="125"/>
     </row>
     <row r="300" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A300" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B300" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C300" s="161">
-        <v>45696</v>
-      </c>
-      <c r="D300" s="126"/>
-      <c r="E300" s="167" t="s">
-        <v>1639</v>
+      <c r="B300" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C300" s="159">
+        <v>45690</v>
+      </c>
+      <c r="D300" s="126" t="s">
+        <v>1647</v>
+      </c>
+      <c r="E300" s="165" t="s">
+        <v>1659</v>
       </c>
       <c r="F300" s="126"/>
       <c r="G300" s="126"/>
       <c r="H300" s="126"/>
       <c r="I300" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.75</v>
       </c>
       <c r="J300" s="117"/>
       <c r="K300" s="114"/>
@@ -23359,155 +23363,153 @@
       <c r="A301" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B301" s="118" t="s">
-        <v>1620</v>
+      <c r="B301" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C301" s="161">
         <v>45696</v>
       </c>
-      <c r="D301" s="126" t="s">
-        <v>1660</v>
-      </c>
+      <c r="D301" s="126"/>
       <c r="E301" s="167" t="s">
-        <v>1661</v>
+        <v>1639</v>
       </c>
       <c r="F301" s="126"/>
       <c r="G301" s="126"/>
       <c r="H301" s="126"/>
       <c r="I301" s="148">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J301" s="117" t="s">
-        <v>1662</v>
-      </c>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J301" s="117"/>
       <c r="K301" s="114"/>
     </row>
     <row r="302" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A302" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B302" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C302" s="159">
-        <v>45711</v>
-      </c>
-      <c r="D302" s="134" t="s">
-        <v>1621</v>
-      </c>
-      <c r="E302" s="165" t="s">
-        <v>1815</v>
+      <c r="B302" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C302" s="161">
+        <v>45696</v>
+      </c>
+      <c r="D302" s="126" t="s">
+        <v>1660</v>
+      </c>
+      <c r="E302" s="167" t="s">
+        <v>1661</v>
       </c>
       <c r="F302" s="126"/>
       <c r="G302" s="126"/>
       <c r="H302" s="126"/>
       <c r="I302" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J302" s="117"/>
-      <c r="K302" s="131" t="s">
-        <v>2163</v>
-      </c>
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J302" s="117" t="s">
+        <v>1662</v>
+      </c>
+      <c r="K302" s="114"/>
     </row>
     <row r="303" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B303" s="141" t="s">
-        <v>1635</v>
+      <c r="B303" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C303" s="159">
         <v>45711</v>
       </c>
-      <c r="D303" s="117" t="s">
-        <v>1660</v>
+      <c r="D303" s="134" t="s">
+        <v>1621</v>
       </c>
       <c r="E303" s="165" t="s">
-        <v>1663</v>
-      </c>
-      <c r="F303" s="125"/>
-      <c r="G303" s="125"/>
-      <c r="H303" s="125"/>
+        <v>1815</v>
+      </c>
+      <c r="F303" s="126"/>
+      <c r="G303" s="126"/>
+      <c r="H303" s="126"/>
       <c r="I303" s="148">
         <v>0.75</v>
       </c>
       <c r="J303" s="117"/>
-      <c r="K303" s="147" t="s">
-        <v>1962</v>
+      <c r="K303" s="131" t="s">
+        <v>2163</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B304" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C304" s="154">
-        <v>45738</v>
+      <c r="B304" s="141" t="s">
+        <v>1635</v>
+      </c>
+      <c r="C304" s="159">
+        <v>45711</v>
       </c>
       <c r="D304" s="117" t="s">
-        <v>1638</v>
-      </c>
-      <c r="E304" s="117" t="s">
-        <v>1658</v>
-      </c>
-      <c r="F304" s="126"/>
-      <c r="G304" s="126"/>
-      <c r="H304" s="126"/>
+        <v>1660</v>
+      </c>
+      <c r="E304" s="165" t="s">
+        <v>1663</v>
+      </c>
+      <c r="F304" s="125"/>
+      <c r="G304" s="125"/>
+      <c r="H304" s="125"/>
       <c r="I304" s="148">
         <v>0.75</v>
       </c>
       <c r="J304" s="117"/>
-      <c r="K304" s="125"/>
+      <c r="K304" s="147" t="s">
+        <v>1962</v>
+      </c>
     </row>
     <row r="305" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B305" s="120" t="s">
-        <v>1689</v>
+      <c r="B305" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C305" s="154">
-        <v>45739</v>
+        <v>45738</v>
       </c>
       <c r="D305" s="117" t="s">
-        <v>1719</v>
+        <v>1638</v>
       </c>
       <c r="E305" s="117" t="s">
-        <v>1913</v>
+        <v>1658</v>
       </c>
       <c r="F305" s="126"/>
       <c r="G305" s="126"/>
       <c r="H305" s="126"/>
-      <c r="I305" s="115"/>
+      <c r="I305" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J305" s="117"/>
-      <c r="K305" s="117"/>
+      <c r="K305" s="125"/>
     </row>
     <row r="306" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B306" s="118" t="s">
-        <v>1620</v>
+      <c r="B306" s="120" t="s">
+        <v>1689</v>
       </c>
       <c r="C306" s="154">
-        <v>45745</v>
-      </c>
-      <c r="D306" s="114" t="s">
-        <v>1654</v>
+        <v>45739</v>
+      </c>
+      <c r="D306" s="117" t="s">
+        <v>1719</v>
       </c>
       <c r="E306" s="117" t="s">
-        <v>1664</v>
+        <v>1913</v>
       </c>
       <c r="F306" s="126"/>
       <c r="G306" s="126"/>
       <c r="H306" s="126"/>
-      <c r="I306" s="148">
-        <v>0.8125</v>
-      </c>
+      <c r="I306" s="115"/>
       <c r="J306" s="117"/>
-      <c r="K306" s="114"/>
+      <c r="K306" s="117"/>
     </row>
     <row r="307" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="113" t="s">
@@ -23517,19 +23519,19 @@
         <v>1620</v>
       </c>
       <c r="C307" s="154">
-        <v>45746</v>
-      </c>
-      <c r="D307" s="126" t="s">
-        <v>1629</v>
+        <v>45745</v>
+      </c>
+      <c r="D307" s="114" t="s">
+        <v>1654</v>
       </c>
       <c r="E307" s="117" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="F307" s="126"/>
       <c r="G307" s="126"/>
       <c r="H307" s="126"/>
       <c r="I307" s="148">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="J307" s="117"/>
       <c r="K307" s="114"/>
@@ -23538,30 +23540,26 @@
       <c r="A308" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B308" s="140" t="s">
-        <v>1640</v>
+      <c r="B308" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C308" s="154">
-        <v>45751</v>
+        <v>45746</v>
       </c>
       <c r="D308" s="126" t="s">
-        <v>1627</v>
+        <v>1629</v>
       </c>
       <c r="E308" s="117" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="F308" s="126"/>
       <c r="G308" s="126"/>
       <c r="H308" s="126"/>
       <c r="I308" s="148">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="J308" s="117" t="s">
-        <v>1643</v>
-      </c>
-      <c r="K308" s="131" t="s">
-        <v>1963</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="J308" s="117"/>
+      <c r="K308" s="114"/>
     </row>
     <row r="309" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="113" t="s">
@@ -23571,80 +23569,82 @@
         <v>1640</v>
       </c>
       <c r="C309" s="154">
-        <v>45752</v>
+        <v>45751</v>
       </c>
       <c r="D309" s="126" t="s">
-        <v>1651</v>
+        <v>1627</v>
       </c>
       <c r="E309" s="117" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="F309" s="126"/>
       <c r="G309" s="126"/>
       <c r="H309" s="126"/>
       <c r="I309" s="148">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J309" s="117" t="s">
         <v>1643</v>
       </c>
       <c r="K309" s="131" t="s">
-        <v>1964</v>
+        <v>1963</v>
       </c>
     </row>
     <row r="310" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B310" s="141" t="s">
-        <v>1635</v>
+      <c r="B310" s="140" t="s">
+        <v>1640</v>
       </c>
       <c r="C310" s="154">
-        <v>45753</v>
-      </c>
-      <c r="D310" s="117" t="s">
-        <v>1636</v>
+        <v>45752</v>
+      </c>
+      <c r="D310" s="126" t="s">
+        <v>1651</v>
       </c>
       <c r="E310" s="117" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F310" s="126"/>
       <c r="G310" s="126"/>
       <c r="H310" s="126"/>
       <c r="I310" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J310" s="117"/>
-      <c r="K310" s="147" t="s">
-        <v>1965</v>
+        <v>0.8125</v>
+      </c>
+      <c r="J310" s="117" t="s">
+        <v>1643</v>
+      </c>
+      <c r="K310" s="131" t="s">
+        <v>1964</v>
       </c>
     </row>
     <row r="311" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B311" s="118" t="s">
-        <v>1620</v>
+      <c r="B311" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C311" s="154">
-        <v>45767</v>
-      </c>
-      <c r="D311" s="126" t="s">
-        <v>1644</v>
+        <v>45753</v>
+      </c>
+      <c r="D311" s="117" t="s">
+        <v>1636</v>
       </c>
       <c r="E311" s="117" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F311" s="126"/>
       <c r="G311" s="126"/>
       <c r="H311" s="126"/>
       <c r="I311" s="148">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J311" s="117" t="s">
-        <v>1670</v>
-      </c>
-      <c r="K311" s="114"/>
+        <v>0.75</v>
+      </c>
+      <c r="J311" s="117"/>
+      <c r="K311" s="147" t="s">
+        <v>1965</v>
+      </c>
     </row>
     <row r="312" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="113" t="s">
@@ -23654,47 +23654,49 @@
         <v>1620</v>
       </c>
       <c r="C312" s="154">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="D312" s="126" t="s">
-        <v>1647</v>
+        <v>1644</v>
       </c>
       <c r="E312" s="117" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
       <c r="F312" s="126"/>
       <c r="G312" s="126"/>
       <c r="H312" s="126"/>
       <c r="I312" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J312" s="117"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J312" s="117" t="s">
+        <v>1670</v>
+      </c>
       <c r="K312" s="114"/>
     </row>
     <row r="313" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B313" s="127" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C313" s="159">
-        <v>45773</v>
+      <c r="B313" s="118" t="s">
+        <v>1620</v>
+      </c>
+      <c r="C313" s="154">
+        <v>45768</v>
       </c>
       <c r="D313" s="126" t="s">
         <v>1647</v>
       </c>
       <c r="E313" s="117" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F313" s="126"/>
       <c r="G313" s="126"/>
       <c r="H313" s="126"/>
-      <c r="I313" s="148"/>
+      <c r="I313" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J313" s="117"/>
-      <c r="K313" s="131" t="s">
-        <v>1966</v>
-      </c>
+      <c r="K313" s="114"/>
     </row>
     <row r="314" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="113" t="s">
@@ -23704,182 +23706,180 @@
         <v>1648</v>
       </c>
       <c r="C314" s="159">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="D314" s="126" t="s">
         <v>1647</v>
       </c>
       <c r="E314" s="117" t="s">
-        <v>1671</v>
+        <v>1672</v>
       </c>
       <c r="F314" s="126"/>
       <c r="G314" s="126"/>
       <c r="H314" s="126"/>
-      <c r="I314" s="148">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="I314" s="148"/>
       <c r="J314" s="117"/>
-      <c r="K314" s="114" t="s">
-        <v>1967</v>
+      <c r="K314" s="131" t="s">
+        <v>1966</v>
       </c>
     </row>
     <row r="315" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B315" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C315" s="154">
-        <v>45785</v>
-      </c>
-      <c r="D315" s="117" t="s">
-        <v>1629</v>
+      <c r="B315" s="127" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C315" s="159">
+        <v>45774</v>
+      </c>
+      <c r="D315" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E315" s="117" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="F315" s="126"/>
       <c r="G315" s="126"/>
       <c r="H315" s="126"/>
       <c r="I315" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="J315" s="117"/>
-      <c r="K315" s="125"/>
+      <c r="K315" s="114" t="s">
+        <v>1967</v>
+      </c>
     </row>
     <row r="316" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B316" s="118" t="s">
-        <v>1620</v>
+      <c r="B316" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C316" s="154">
-        <v>45781</v>
-      </c>
-      <c r="D316" s="126" t="s">
-        <v>1644</v>
+        <v>45785</v>
+      </c>
+      <c r="D316" s="117" t="s">
+        <v>1629</v>
       </c>
       <c r="E316" s="117" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F316" s="126"/>
       <c r="G316" s="126"/>
       <c r="H316" s="126"/>
       <c r="I316" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J316" s="117" t="s">
-        <v>1675</v>
-      </c>
-      <c r="K316" s="114"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="J316" s="117"/>
+      <c r="K316" s="125"/>
     </row>
     <row r="317" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B317" s="141" t="s">
-        <v>1635</v>
+      <c r="B317" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C317" s="154">
-        <v>45788</v>
-      </c>
-      <c r="D317" s="117" t="s">
-        <v>1660</v>
+        <v>45781</v>
+      </c>
+      <c r="D317" s="126" t="s">
+        <v>1644</v>
       </c>
       <c r="E317" s="117" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="F317" s="126"/>
       <c r="G317" s="126"/>
       <c r="H317" s="126"/>
       <c r="I317" s="148">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="J317" s="117"/>
-      <c r="K317" s="117" t="s">
-        <v>1968</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+      <c r="J317" s="117" t="s">
+        <v>1675</v>
+      </c>
+      <c r="K317" s="114"/>
+    </row>
+    <row r="318" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B318" s="118" t="s">
-        <v>1620</v>
+      <c r="B318" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C318" s="154">
-        <v>45795</v>
-      </c>
-      <c r="D318" s="126" t="s">
-        <v>1629</v>
+        <v>45788</v>
+      </c>
+      <c r="D318" s="117" t="s">
+        <v>1660</v>
       </c>
       <c r="E318" s="117" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F318" s="126"/>
       <c r="G318" s="126"/>
       <c r="H318" s="126"/>
       <c r="I318" s="148">
-        <v>0.75</v>
-      </c>
-      <c r="J318" s="150" t="s">
-        <v>1969</v>
-      </c>
-      <c r="K318" s="114"/>
-    </row>
-    <row r="319" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="J318" s="117"/>
+      <c r="K318" s="117" t="s">
+        <v>1968</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B319" s="121" t="s">
-        <v>1615</v>
+      <c r="B319" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C319" s="154">
         <v>45795</v>
       </c>
-      <c r="D319" s="117" t="s">
+      <c r="D319" s="126" t="s">
         <v>1629</v>
       </c>
       <c r="E319" s="117" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F319" s="126"/>
       <c r="G319" s="126"/>
       <c r="H319" s="126"/>
       <c r="I319" s="148">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="J319" s="117"/>
-      <c r="K319" s="125"/>
+        <v>0.75</v>
+      </c>
+      <c r="J319" s="150" t="s">
+        <v>1969</v>
+      </c>
+      <c r="K319" s="114"/>
     </row>
     <row r="320" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B320" s="127" t="s">
-        <v>1648</v>
-      </c>
-      <c r="C320" s="159">
-        <v>45800</v>
-      </c>
-      <c r="D320" s="126" t="s">
-        <v>1647</v>
+      <c r="B320" s="121" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C320" s="154">
+        <v>45795</v>
+      </c>
+      <c r="D320" s="117" t="s">
+        <v>1629</v>
       </c>
       <c r="E320" s="117" t="s">
-        <v>1671</v>
+        <v>1678</v>
       </c>
       <c r="F320" s="126"/>
       <c r="G320" s="126"/>
       <c r="H320" s="126"/>
       <c r="I320" s="148">
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J320" s="117"/>
-      <c r="K320" s="114" t="s">
-        <v>1967</v>
-      </c>
+      <c r="K320" s="125"/>
     </row>
     <row r="321" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="113" t="s">
@@ -23889,72 +23889,76 @@
         <v>1648</v>
       </c>
       <c r="C321" s="159">
-        <v>45801</v>
-      </c>
-      <c r="D321" s="117" t="s">
-        <v>1644</v>
+        <v>45800</v>
+      </c>
+      <c r="D321" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E321" s="117" t="s">
-        <v>1669</v>
+        <v>1671</v>
       </c>
       <c r="F321" s="126"/>
       <c r="G321" s="126"/>
       <c r="H321" s="126"/>
       <c r="I321" s="148">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="J321" s="117"/>
-      <c r="K321" s="131" t="s">
-        <v>1970</v>
+      <c r="K321" s="114" t="s">
+        <v>1967</v>
       </c>
     </row>
     <row r="322" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B322" s="121" t="s">
-        <v>1615</v>
-      </c>
-      <c r="C322" s="154">
-        <v>45807</v>
+      <c r="B322" s="127" t="s">
+        <v>1648</v>
+      </c>
+      <c r="C322" s="159">
+        <v>45801</v>
       </c>
       <c r="D322" s="117" t="s">
-        <v>1679</v>
+        <v>1644</v>
       </c>
       <c r="E322" s="117" t="s">
-        <v>1680</v>
+        <v>1669</v>
       </c>
       <c r="F322" s="126"/>
       <c r="G322" s="126"/>
       <c r="H322" s="126"/>
       <c r="I322" s="148">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="J322" s="117"/>
-      <c r="K322" s="125"/>
+      <c r="K322" s="131" t="s">
+        <v>1970</v>
+      </c>
     </row>
     <row r="323" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B323" s="120" t="s">
-        <v>1689</v>
+      <c r="B323" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C323" s="154">
-        <v>45811</v>
-      </c>
-      <c r="D323" s="136" t="s">
-        <v>1621</v>
+        <v>45807</v>
+      </c>
+      <c r="D323" s="117" t="s">
+        <v>1679</v>
       </c>
       <c r="E323" s="117" t="s">
-        <v>1762</v>
+        <v>1680</v>
       </c>
       <c r="F323" s="126"/>
       <c r="G323" s="126"/>
       <c r="H323" s="126"/>
-      <c r="I323" s="115"/>
+      <c r="I323" s="148">
+        <v>0.75</v>
+      </c>
       <c r="J323" s="117"/>
-      <c r="K323" s="117"/>
+      <c r="K323" s="125"/>
     </row>
     <row r="324" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="113" t="s">
@@ -23964,7 +23968,7 @@
         <v>1689</v>
       </c>
       <c r="C324" s="154">
-        <v>45814</v>
+        <v>45811</v>
       </c>
       <c r="D324" s="136" t="s">
         <v>1621</v>
@@ -23987,13 +23991,13 @@
         <v>1689</v>
       </c>
       <c r="C325" s="154">
-        <v>45816</v>
+        <v>45814</v>
       </c>
       <c r="D325" s="136" t="s">
         <v>1621</v>
       </c>
       <c r="E325" s="117" t="s">
-        <v>1829</v>
+        <v>1762</v>
       </c>
       <c r="F325" s="126"/>
       <c r="G325" s="126"/>
@@ -24006,67 +24010,65 @@
       <c r="A326" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B326" s="121" t="s">
-        <v>1615</v>
+      <c r="B326" s="120" t="s">
+        <v>1689</v>
       </c>
       <c r="C326" s="154">
-        <v>45829</v>
-      </c>
-      <c r="D326" s="117" t="s">
-        <v>1681</v>
+        <v>45816</v>
+      </c>
+      <c r="D326" s="136" t="s">
+        <v>1621</v>
       </c>
       <c r="E326" s="117" t="s">
-        <v>1682</v>
+        <v>1829</v>
       </c>
       <c r="F326" s="126"/>
       <c r="G326" s="126"/>
       <c r="H326" s="126"/>
-      <c r="I326" s="148">
-        <v>0.75</v>
-      </c>
+      <c r="I326" s="115"/>
       <c r="J326" s="117"/>
-      <c r="K326" s="125"/>
+      <c r="K326" s="117"/>
     </row>
     <row r="327" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B327" s="118" t="s">
-        <v>1620</v>
+      <c r="B327" s="121" t="s">
+        <v>1615</v>
       </c>
       <c r="C327" s="154">
-        <v>45830</v>
-      </c>
-      <c r="D327" s="126" t="s">
-        <v>1647</v>
+        <v>45829</v>
+      </c>
+      <c r="D327" s="117" t="s">
+        <v>1681</v>
       </c>
       <c r="E327" s="117" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="F327" s="126"/>
       <c r="G327" s="126"/>
       <c r="H327" s="126"/>
       <c r="I327" s="148">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="J327" s="117"/>
-      <c r="K327" s="114"/>
+      <c r="K327" s="125"/>
     </row>
     <row r="328" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B328" s="141" t="s">
-        <v>1635</v>
+      <c r="B328" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C328" s="154">
-        <v>45833</v>
-      </c>
-      <c r="D328" s="117" t="s">
-        <v>1636</v>
+        <v>45830</v>
+      </c>
+      <c r="D328" s="126" t="s">
+        <v>1647</v>
       </c>
       <c r="E328" s="117" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="F328" s="126"/>
       <c r="G328" s="126"/>
@@ -24075,32 +24077,34 @@
         <v>0.8125</v>
       </c>
       <c r="J328" s="117"/>
-      <c r="K328" s="147" t="s">
-        <v>1971</v>
-      </c>
+      <c r="K328" s="114"/>
     </row>
     <row r="329" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B329" s="120" t="s">
-        <v>1689</v>
+      <c r="B329" s="141" t="s">
+        <v>1635</v>
       </c>
       <c r="C329" s="154">
-        <v>45840</v>
-      </c>
-      <c r="D329" s="126" t="s">
-        <v>1660</v>
+        <v>45833</v>
+      </c>
+      <c r="D329" s="117" t="s">
+        <v>1636</v>
       </c>
       <c r="E329" s="117" t="s">
-        <v>1700</v>
+        <v>1684</v>
       </c>
       <c r="F329" s="126"/>
       <c r="G329" s="126"/>
       <c r="H329" s="126"/>
-      <c r="I329" s="146"/>
+      <c r="I329" s="148">
+        <v>0.8125</v>
+      </c>
       <c r="J329" s="117"/>
-      <c r="K329" s="138"/>
+      <c r="K329" s="147" t="s">
+        <v>1971</v>
+      </c>
     </row>
     <row r="330" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="113" t="s">
@@ -24110,20 +24114,20 @@
         <v>1689</v>
       </c>
       <c r="C330" s="154">
-        <v>45844</v>
-      </c>
-      <c r="D330" s="136" t="s">
-        <v>1621</v>
+        <v>45840</v>
+      </c>
+      <c r="D330" s="126" t="s">
+        <v>1660</v>
       </c>
       <c r="E330" s="117" t="s">
-        <v>1914</v>
+        <v>1700</v>
       </c>
       <c r="F330" s="126"/>
       <c r="G330" s="126"/>
       <c r="H330" s="126"/>
-      <c r="I330" s="115"/>
+      <c r="I330" s="146"/>
       <c r="J330" s="117"/>
-      <c r="K330" s="117"/>
+      <c r="K330" s="138"/>
     </row>
     <row r="331" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="113" t="s">
@@ -24133,13 +24137,13 @@
         <v>1689</v>
       </c>
       <c r="C331" s="154">
-        <v>45853</v>
+        <v>45844</v>
       </c>
       <c r="D331" s="136" t="s">
         <v>1621</v>
       </c>
       <c r="E331" s="117" t="s">
-        <v>1842</v>
+        <v>1914</v>
       </c>
       <c r="F331" s="126"/>
       <c r="G331" s="126"/>
@@ -24156,13 +24160,13 @@
         <v>1689</v>
       </c>
       <c r="C332" s="154">
-        <v>45858</v>
+        <v>45853</v>
       </c>
       <c r="D332" s="136" t="s">
         <v>1621</v>
       </c>
       <c r="E332" s="117" t="s">
-        <v>1915</v>
+        <v>1842</v>
       </c>
       <c r="F332" s="126"/>
       <c r="G332" s="126"/>
@@ -24175,54 +24179,77 @@
       <c r="A333" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B333" s="118" t="s">
-        <v>1620</v>
+      <c r="B333" s="120" t="s">
+        <v>1689</v>
       </c>
       <c r="C333" s="154">
-        <v>45862</v>
-      </c>
-      <c r="D333" s="126" t="s">
-        <v>1638</v>
+        <v>45858</v>
+      </c>
+      <c r="D333" s="136" t="s">
+        <v>1621</v>
       </c>
       <c r="E333" s="117" t="s">
-        <v>1685</v>
+        <v>1915</v>
       </c>
       <c r="F333" s="126"/>
       <c r="G333" s="126"/>
       <c r="H333" s="126"/>
-      <c r="I333" s="148">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="I333" s="115"/>
       <c r="J333" s="117"/>
-      <c r="K333" s="114"/>
+      <c r="K333" s="117"/>
     </row>
     <row r="334" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="113" t="s">
         <v>1614</v>
       </c>
-      <c r="B334" s="121" t="s">
-        <v>1615</v>
+      <c r="B334" s="118" t="s">
+        <v>1620</v>
       </c>
       <c r="C334" s="154">
-        <v>45863</v>
-      </c>
-      <c r="D334" s="117" t="s">
-        <v>1686</v>
+        <v>45862</v>
+      </c>
+      <c r="D334" s="126" t="s">
+        <v>1638</v>
       </c>
       <c r="E334" s="117" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="F334" s="126"/>
       <c r="G334" s="126"/>
       <c r="H334" s="126"/>
       <c r="I334" s="148">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="J334" s="117"/>
+      <c r="K334" s="114"/>
+    </row>
+    <row r="335" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="113" t="s">
+        <v>1614</v>
+      </c>
+      <c r="B335" s="121" t="s">
+        <v>1615</v>
+      </c>
+      <c r="C335" s="154">
+        <v>45863</v>
+      </c>
+      <c r="D335" s="117" t="s">
+        <v>1686</v>
+      </c>
+      <c r="E335" s="117" t="s">
+        <v>1687</v>
+      </c>
+      <c r="F335" s="126"/>
+      <c r="G335" s="126"/>
+      <c r="H335" s="126"/>
+      <c r="I335" s="148">
         <v>0.75</v>
       </c>
-      <c r="J334" s="117"/>
-      <c r="K334" s="125"/>
+      <c r="J335" s="117"/>
+      <c r="K335" s="125"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:K334" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
+  <autoFilter ref="A1:K335" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024-2025"/>
@@ -24238,14 +24265,14 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="K270" r:id="rId1" display="https://www.staatsoper-hamburg.de/de/spielplan/stueck.php?AuffNr=221440" xr:uid="{ED1E9297-3292-4B3E-BA05-CADD38C0F7DB}"/>
-    <hyperlink ref="K328" r:id="rId2" display="https://www.komische-oper-berlin.de/en/what/a-z/my-friend-bunbury/" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
-    <hyperlink ref="K310" r:id="rId3" display="https://www.komische-oper-berlin.de/en/what/a-z/la-cage-aux-folles/" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
-    <hyperlink ref="K303" r:id="rId4" display="https://www.komische-oper-berlin.de/en/what/a-z/the-magic-flute/" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
-    <hyperlink ref="K308" r:id="rId5" display="https://www.staatsoper.de/stuecke/la-cenerentola/2025-04-04-1900-14886" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
-    <hyperlink ref="K309" r:id="rId6" display="https://www.staatsoper.de/stuecke/madama-butterfly/2025-04-05-1930-14888" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
-    <hyperlink ref="K313" r:id="rId7" display="https://oper-frankfurt.de/de/spielplan/linvisible/?id_datum=4100" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
-    <hyperlink ref="K321" r:id="rId8" display="https://oper-frankfurt.de/de/spielplan/parsifal/?id_datum=4119" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
-    <hyperlink ref="K302" r:id="rId9" xr:uid="{A306D56F-3AD7-4C7D-AF9F-080C76FBE9C9}"/>
+    <hyperlink ref="K329" r:id="rId2" display="https://www.komische-oper-berlin.de/en/what/a-z/my-friend-bunbury/" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
+    <hyperlink ref="K311" r:id="rId3" display="https://www.komische-oper-berlin.de/en/what/a-z/la-cage-aux-folles/" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
+    <hyperlink ref="K304" r:id="rId4" display="https://www.komische-oper-berlin.de/en/what/a-z/the-magic-flute/" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
+    <hyperlink ref="K309" r:id="rId5" display="https://www.staatsoper.de/stuecke/la-cenerentola/2025-04-04-1900-14886" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
+    <hyperlink ref="K310" r:id="rId6" display="https://www.staatsoper.de/stuecke/madama-butterfly/2025-04-05-1930-14888" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
+    <hyperlink ref="K314" r:id="rId7" display="https://oper-frankfurt.de/de/spielplan/linvisible/?id_datum=4100" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
+    <hyperlink ref="K322" r:id="rId8" display="https://oper-frankfurt.de/de/spielplan/parsifal/?id_datum=4119" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
+    <hyperlink ref="K303" r:id="rId9" xr:uid="{A306D56F-3AD7-4C7D-AF9F-080C76FBE9C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -24306,28 +24333,6 @@
                   <from>
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>280</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>280</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9243" r:id="rId16" name="Check Box 27">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
                     <xdr:row>281</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </from>
@@ -24344,29 +24349,7 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9257" r:id="rId17" name="Check Box 41">
-              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
-                <anchor moveWithCells="1">
-                  <from>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>0</xdr:colOff>
-                    <xdr:row>287</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </from>
-                  <to>
-                    <xdr:col>1</xdr:col>
-                    <xdr:colOff>219075</xdr:colOff>
-                    <xdr:row>287</xdr:row>
-                    <xdr:rowOff>9525</xdr:rowOff>
-                  </to>
-                </anchor>
-              </controlPr>
-            </control>
-          </mc:Choice>
-        </mc:AlternateContent>
-        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-          <mc:Choice Requires="x14">
-            <control shapeId="9256" r:id="rId18" name="Check Box 40">
+            <control shapeId="9243" r:id="rId16" name="Check Box 27">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -24388,7 +24371,29 @@
         </mc:AlternateContent>
         <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
           <mc:Choice Requires="x14">
-            <control shapeId="9269" r:id="rId19" name="Check Box 53">
+            <control shapeId="9257" r:id="rId17" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>288</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>288</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9256" r:id="rId18" name="Check Box 40">
               <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
                 <anchor moveWithCells="1">
                   <from>
@@ -24401,6 +24406,28 @@
                     <xdr:col>1</xdr:col>
                     <xdr:colOff>219075</xdr:colOff>
                     <xdr:row>283</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="9269" r:id="rId19" name="Check Box 53">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>0</xdr:colOff>
+                    <xdr:row>284</xdr:row>
+                    <xdr:rowOff>9525</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>1</xdr:col>
+                    <xdr:colOff>219075</xdr:colOff>
+                    <xdr:row>284</xdr:row>
                     <xdr:rowOff>9525</xdr:rowOff>
                   </to>
                 </anchor>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{939DA3FF-39BC-4DD7-97E2-C5599C261D63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9EED86D-44E3-4ABF-96AC-918B897F92F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="2205" yWindow="3120" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6181" uniqueCount="2212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6195" uniqueCount="2212">
   <si>
     <t>Phase</t>
   </si>
@@ -6502,12 +6502,6 @@
     <t>Newsletter for Statistical Programmers and Biostatisticians #40</t>
   </si>
   <si>
-    <t>Wonderful Wednesdays 2022.07</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays 2022.06</t>
-  </si>
-  <si>
     <t>Wonderful Wednesdays 2022.05</t>
   </si>
   <si>
@@ -6849,6 +6843,12 @@
   </si>
   <si>
     <t>Newsletter for Statistical Programmers and Biostatisticians #55, #54</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.07 - Patient Profile</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.06 - BoxDashboard</t>
   </si>
 </sst>
 </file>
@@ -9565,7 +9565,7 @@
       </c>
       <c r="B30" s="169">
         <f>COUNTIF('Reading Plan'!A$2:A$1094, "*Y*")</f>
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C30" s="169"/>
       <c r="D30" s="169"/>
@@ -9577,7 +9577,7 @@
       </c>
       <c r="B31" s="169">
         <f>COUNTIF('Reading Plan'!A$2:A$1094, "N")</f>
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C31" s="169"/>
       <c r="D31" s="169"/>
@@ -11206,7 +11206,7 @@
         <v>247</v>
       </c>
       <c r="F45" s="93" t="s">
-        <v>2171</v>
+        <v>2169</v>
       </c>
       <c r="G45" s="94" t="s">
         <v>249</v>
@@ -11218,7 +11218,7 @@
         <v>59</v>
       </c>
       <c r="J45" s="93" t="s">
-        <v>2170</v>
+        <v>2168</v>
       </c>
       <c r="K45" s="93" t="s">
         <v>132</v>
@@ -11239,25 +11239,25 @@
       </c>
       <c r="D46" s="93"/>
       <c r="E46" s="93" t="s">
-        <v>2164</v>
+        <v>2162</v>
       </c>
       <c r="F46" s="93" t="s">
-        <v>2165</v>
+        <v>2163</v>
       </c>
       <c r="G46" s="94" t="s">
         <v>249</v>
       </c>
       <c r="H46" s="93" t="s">
+        <v>2164</v>
+      </c>
+      <c r="I46" s="94" t="s">
+        <v>2167</v>
+      </c>
+      <c r="J46" s="93" t="s">
         <v>2166</v>
       </c>
-      <c r="I46" s="94" t="s">
-        <v>2169</v>
-      </c>
-      <c r="J46" s="93" t="s">
-        <v>2168</v>
-      </c>
       <c r="K46" s="93" t="s">
-        <v>2167</v>
+        <v>2165</v>
       </c>
       <c r="L46" s="93"/>
     </row>
@@ -12570,9 +12570,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
   <dimension ref="A1:F214"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A52" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D67" sqref="D67"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A101" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E105" sqref="E105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12593,7 +12593,7 @@
         <v>1579</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>317</v>
@@ -12879,7 +12879,7 @@
         <v>2061</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2176</v>
+        <v>2174</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>2052</v>
@@ -12899,7 +12899,7 @@
         <v>2061</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>2177</v>
+        <v>2175</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>2052</v>
@@ -12919,7 +12919,7 @@
         <v>2061</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2175</v>
+        <v>2173</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>2052</v>
@@ -12939,7 +12939,7 @@
         <v>2061</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2178</v>
+        <v>2176</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>2052</v>
@@ -12953,13 +12953,13 @@
         <v>2024</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>1986</v>
@@ -12973,13 +12973,13 @@
         <v>2024</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>1986</v>
@@ -12993,13 +12993,13 @@
         <v>2024</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="F21" s="3" t="s">
         <v>1986</v>
@@ -13013,13 +13013,13 @@
         <v>2024</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F22" s="3" t="s">
         <v>1986</v>
@@ -13033,13 +13033,13 @@
         <v>2024</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F23" s="3" t="s">
         <v>1986</v>
@@ -13053,13 +13053,13 @@
         <v>2024</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="F24" s="3" t="s">
         <v>1986</v>
@@ -13073,13 +13073,13 @@
         <v>2024</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="D25" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="F25" s="3" t="s">
         <v>1986</v>
@@ -13093,13 +13093,13 @@
         <v>2024</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E26" s="4" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1986</v>
@@ -13113,13 +13113,13 @@
         <v>2024</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E27" s="4" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1986</v>
@@ -13133,13 +13133,13 @@
         <v>2024</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1986</v>
@@ -13153,13 +13153,13 @@
         <v>2024</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>1999</v>
       </c>
       <c r="E29" s="4" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1986</v>
@@ -13479,7 +13479,7 @@
         <v>2024</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="D46" s="4" t="s">
         <v>355</v>
@@ -13499,7 +13499,7 @@
         <v>2024</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>355</v>
@@ -13521,10 +13521,10 @@
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
       <c r="E48" s="9" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="F48" s="4" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -13535,7 +13535,7 @@
         <v>2024</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D49" s="4" t="s">
         <v>2084</v>
@@ -13544,7 +13544,7 @@
         <v>2072</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -13555,7 +13555,7 @@
         <v>2024</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D50" s="4" t="s">
         <v>2084</v>
@@ -13564,7 +13564,7 @@
         <v>2073</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -13575,7 +13575,7 @@
         <v>2024</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D51" s="4" t="s">
         <v>2084</v>
@@ -13584,7 +13584,7 @@
         <v>2074</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -13595,7 +13595,7 @@
         <v>2024</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>2084</v>
@@ -13604,7 +13604,7 @@
         <v>2075</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -13615,7 +13615,7 @@
         <v>2024</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>2084</v>
@@ -13624,7 +13624,7 @@
         <v>2076</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -13635,7 +13635,7 @@
         <v>2024</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>2084</v>
@@ -13644,7 +13644,7 @@
         <v>2077</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -13655,7 +13655,7 @@
         <v>2024</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D55" s="4" t="s">
         <v>2084</v>
@@ -13664,7 +13664,7 @@
         <v>2078</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -13675,7 +13675,7 @@
         <v>2024</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>2084</v>
@@ -13684,7 +13684,7 @@
         <v>2079</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -13695,7 +13695,7 @@
         <v>2024</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>2084</v>
@@ -13704,7 +13704,7 @@
         <v>2080</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -13715,16 +13715,16 @@
         <v>2024</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>2084</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>2211</v>
+        <v>2209</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -13735,7 +13735,7 @@
         <v>2024</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>2210</v>
+        <v>2208</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>2084</v>
@@ -13744,7 +13744,7 @@
         <v>2081</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -13754,7 +13754,9 @@
       <c r="B60" s="8">
         <v>2024</v>
       </c>
-      <c r="C60" s="9"/>
+      <c r="C60" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D60" s="4" t="s">
         <v>2084</v>
       </c>
@@ -13762,7 +13764,7 @@
         <v>2082</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -13772,7 +13774,9 @@
       <c r="B61" s="8">
         <v>2024</v>
       </c>
-      <c r="C61" s="9"/>
+      <c r="C61" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D61" s="4" t="s">
         <v>2084</v>
       </c>
@@ -13780,7 +13784,7 @@
         <v>2083</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -13790,7 +13794,9 @@
       <c r="B62" s="8">
         <v>2024</v>
       </c>
-      <c r="C62" s="9"/>
+      <c r="C62" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D62" s="4" t="s">
         <v>2084</v>
       </c>
@@ -13798,7 +13804,7 @@
         <v>2085</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -13808,7 +13814,9 @@
       <c r="B63" s="8">
         <v>2024</v>
       </c>
-      <c r="C63" s="9"/>
+      <c r="C63" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D63" s="4" t="s">
         <v>2084</v>
       </c>
@@ -13816,17 +13824,19 @@
         <v>2086</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B64" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C64" s="9"/>
+      <c r="B64" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C64" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D64" s="4" t="s">
         <v>2084</v>
       </c>
@@ -13834,7 +13844,7 @@
         <v>2087</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -13852,7 +13862,7 @@
         <v>2088</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -13870,7 +13880,7 @@
         <v>2089</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -13888,7 +13898,7 @@
         <v>2090</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -13906,7 +13916,7 @@
         <v>2091</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -13924,7 +13934,7 @@
         <v>2092</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -13942,7 +13952,7 @@
         <v>2093</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -13960,7 +13970,7 @@
         <v>2094</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13978,7 +13988,7 @@
         <v>2095</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -13993,10 +14003,10 @@
         <v>2084</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>2195</v>
+        <v>2193</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14011,10 +14021,10 @@
         <v>2084</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>2196</v>
+        <v>2194</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14029,10 +14039,10 @@
         <v>2084</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>2197</v>
+        <v>2195</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14047,10 +14057,10 @@
         <v>2084</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>2198</v>
+        <v>2196</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14065,10 +14075,10 @@
         <v>2084</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>2199</v>
+        <v>2197</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14083,10 +14093,10 @@
         <v>2084</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>2200</v>
+        <v>2198</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>2161</v>
+        <v>2159</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -14101,7 +14111,7 @@
         <v>326</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>2185</v>
+        <v>2183</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>2049</v>
@@ -14119,7 +14129,7 @@
         <v>326</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2186</v>
+        <v>2184</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>2049</v>
@@ -14137,7 +14147,7 @@
         <v>326</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2187</v>
+        <v>2185</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>2049</v>
@@ -14155,7 +14165,7 @@
         <v>326</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2188</v>
+        <v>2186</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>2049</v>
@@ -14173,7 +14183,7 @@
         <v>326</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2189</v>
+        <v>2187</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>2049</v>
@@ -14191,7 +14201,7 @@
         <v>326</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2190</v>
+        <v>2188</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>2049</v>
@@ -14209,7 +14219,7 @@
         <v>326</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>2191</v>
+        <v>2189</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>2049</v>
@@ -14227,7 +14237,7 @@
         <v>326</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>2192</v>
+        <v>2190</v>
       </c>
       <c r="F86" s="4" t="s">
         <v>2049</v>
@@ -14245,7 +14255,7 @@
         <v>326</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>2193</v>
+        <v>2191</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>2049</v>
@@ -14263,7 +14273,7 @@
         <v>326</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2194</v>
+        <v>2192</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>2049</v>
@@ -14277,7 +14287,7 @@
         <v>2024</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="D89" s="3" t="s">
         <v>326</v>
@@ -14297,7 +14307,7 @@
         <v>2024</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>326</v>
@@ -14317,13 +14327,13 @@
         <v>2024</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="D91" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>2049</v>
@@ -14337,13 +14347,13 @@
         <v>2024</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>2049</v>
@@ -14357,13 +14367,13 @@
         <v>2024</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2049</v>
@@ -14377,13 +14387,13 @@
         <v>2024</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>2049</v>
@@ -14397,13 +14407,13 @@
         <v>2024</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>2049</v>
@@ -14417,13 +14427,13 @@
         <v>2024</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>2049</v>
@@ -14437,13 +14447,13 @@
         <v>2024</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>2049</v>
@@ -14457,13 +14467,13 @@
         <v>2024</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>2049</v>
@@ -14477,13 +14487,13 @@
         <v>2024</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>2049</v>
@@ -14497,13 +14507,13 @@
         <v>2024</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>2049</v>
@@ -14517,13 +14527,13 @@
         <v>2024</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>2155</v>
+        <v>2153</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>2049</v>
@@ -14537,13 +14547,13 @@
         <v>2024</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>2049</v>
@@ -14557,13 +14567,13 @@
         <v>2024</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>2049</v>
@@ -14577,13 +14587,13 @@
         <v>2024</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>2049</v>
@@ -14597,13 +14607,13 @@
         <v>2024</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>2049</v>
@@ -14617,13 +14627,13 @@
         <v>2024</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>2172</v>
+        <v>2170</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>2049</v>
@@ -14637,67 +14647,73 @@
         <v>2024</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>2173</v>
+        <v>2171</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A108" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B108" s="9">
+      <c r="A108" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B108" s="8">
         <v>2024</v>
       </c>
-      <c r="C108" s="9"/>
+      <c r="C108" s="8" t="s">
+        <v>2208</v>
+      </c>
       <c r="D108" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>2174</v>
+        <v>2172</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B109" s="9">
+      <c r="A109" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B109" s="8">
         <v>2024</v>
       </c>
-      <c r="C109" s="9"/>
+      <c r="C109" s="8" t="s">
+        <v>2208</v>
+      </c>
       <c r="D109" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>2096</v>
+        <v>2210</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>2049</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B110" s="9">
+      <c r="A110" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="8">
         <v>2024</v>
       </c>
-      <c r="C110" s="9"/>
+      <c r="C110" s="8" t="s">
+        <v>2208</v>
+      </c>
       <c r="D110" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>2097</v>
+        <v>2211</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>2049</v>
@@ -14707,15 +14723,17 @@
       <c r="A111" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B111" s="9">
+      <c r="B111" s="8">
         <v>2024</v>
       </c>
-      <c r="C111" s="9"/>
+      <c r="C111" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D111" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>2049</v>
@@ -14725,15 +14743,17 @@
       <c r="A112" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B112" s="9">
+      <c r="B112" s="8">
         <v>2024</v>
       </c>
-      <c r="C112" s="9"/>
+      <c r="C112" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D112" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>2049</v>
@@ -14743,15 +14763,17 @@
       <c r="A113" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B113" s="9">
+      <c r="B113" s="8">
         <v>2024</v>
       </c>
-      <c r="C113" s="9"/>
+      <c r="C113" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D113" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>2049</v>
@@ -14761,15 +14783,17 @@
       <c r="A114" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="8">
         <v>2024</v>
       </c>
-      <c r="C114" s="9"/>
+      <c r="C114" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D114" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>2049</v>
@@ -14779,15 +14803,17 @@
       <c r="A115" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B115" s="9">
+      <c r="B115" s="8">
         <v>2024</v>
       </c>
-      <c r="C115" s="9"/>
+      <c r="C115" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D115" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>2049</v>
@@ -14797,15 +14823,17 @@
       <c r="A116" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B116" s="9">
+      <c r="B116" s="8">
         <v>2024</v>
       </c>
-      <c r="C116" s="9"/>
+      <c r="C116" s="8" t="s">
+        <v>2179</v>
+      </c>
       <c r="D116" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2201</v>
+        <v>2199</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>2049</v>
@@ -14823,7 +14851,7 @@
         <v>326</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2202</v>
+        <v>2200</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>2049</v>
@@ -14841,7 +14869,7 @@
         <v>326</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>2203</v>
+        <v>2201</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>2049</v>
@@ -14859,7 +14887,7 @@
         <v>326</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2204</v>
+        <v>2202</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>2049</v>
@@ -14877,7 +14905,7 @@
         <v>326</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>2205</v>
+        <v>2203</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>2049</v>
@@ -14895,7 +14923,7 @@
         <v>326</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>2206</v>
+        <v>2204</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>2049</v>
@@ -14913,7 +14941,7 @@
         <v>326</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>2207</v>
+        <v>2205</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>2049</v>
@@ -14931,7 +14959,7 @@
         <v>326</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>2208</v>
+        <v>2206</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>2049</v>
@@ -14949,7 +14977,7 @@
         <v>326</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>2209</v>
+        <v>2207</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>2049</v>
@@ -14963,7 +14991,7 @@
         <v>2024</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>326</v>
@@ -14983,7 +15011,7 @@
         <v>2024</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>326</v>
@@ -15003,7 +15031,7 @@
         <v>2024</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>326</v>
@@ -15021,7 +15049,7 @@
         <v>2024</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>1917</v>
@@ -15041,7 +15069,7 @@
         <v>2024</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>1917</v>
@@ -15059,7 +15087,7 @@
         <v>2024</v>
       </c>
       <c r="C130" s="8" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="D130" s="3" t="s">
         <v>1917</v>
@@ -15077,7 +15105,7 @@
         <v>2024</v>
       </c>
       <c r="C131" s="8" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="D131" s="3" t="s">
         <v>1988</v>
@@ -15097,7 +15125,7 @@
         <v>2024</v>
       </c>
       <c r="C132" s="8" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="D132" s="3" t="s">
         <v>1988</v>
@@ -15153,7 +15181,7 @@
         <v>2024</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>1574</v>
@@ -15171,7 +15199,7 @@
         <v>2024</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>1574</v>
@@ -15191,7 +15219,7 @@
         <v>2024</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>2157</v>
+        <v>2155</v>
       </c>
       <c r="D137" s="3" t="s">
         <v>1574</v>
@@ -15211,7 +15239,7 @@
         <v>2024</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>2158</v>
+        <v>2156</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>360</v>
@@ -15231,7 +15259,7 @@
         <v>2024</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="D139" s="3" t="s">
         <v>360</v>
@@ -15251,7 +15279,7 @@
         <v>2024</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>360</v>
@@ -15271,7 +15299,7 @@
         <v>2024</v>
       </c>
       <c r="C141" s="8" t="s">
-        <v>2159</v>
+        <v>2157</v>
       </c>
       <c r="D141" s="3" t="s">
         <v>360</v>
@@ -15291,13 +15319,13 @@
         <v>2024</v>
       </c>
       <c r="C142" s="8" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="D142" s="3" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="E142" s="3" t="s">
-        <v>2180</v>
+        <v>2178</v>
       </c>
       <c r="F142" s="3"/>
     </row>
@@ -15309,13 +15337,13 @@
         <v>2024</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>2182</v>
+        <v>2180</v>
       </c>
       <c r="F143" s="3"/>
     </row>
@@ -15327,13 +15355,13 @@
         <v>2024</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>2181</v>
+        <v>2179</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>2179</v>
+        <v>2177</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>2184</v>
+        <v>2182</v>
       </c>
       <c r="F144" s="3"/>
     </row>
@@ -15345,13 +15373,13 @@
         <v>2024</v>
       </c>
       <c r="C145" s="8" t="s">
+        <v>2179</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>2177</v>
+      </c>
+      <c r="E145" s="3" t="s">
         <v>2181</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>2179</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>2183</v>
       </c>
       <c r="F145" s="3"/>
     </row>
@@ -15381,7 +15409,7 @@
         <v>2024</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>2160</v>
+        <v>2158</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>372</v>
@@ -15401,7 +15429,7 @@
         <v>2024</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>1591</v>
@@ -15960,8 +15988,8 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:K335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A285" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K278" sqref="K278"/>
     </sheetView>
   </sheetViews>
@@ -23253,7 +23281,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J296" s="117" t="s">
-        <v>2162</v>
+        <v>2160</v>
       </c>
       <c r="K296" s="114"/>
     </row>
@@ -23433,7 +23461,7 @@
       </c>
       <c r="J303" s="117"/>
       <c r="K303" s="131" t="s">
-        <v>2163</v>
+        <v>2161</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37131,7 +37159,7 @@
         <v>1958</v>
       </c>
       <c r="H39" s="126" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37179,10 +37207,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="126" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="G41" s="126" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="H41" s="126"/>
     </row>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCA4BC0B-E55D-4471-9290-2AA4C95F9D0F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4E910C-3E6E-4F03-AE68-085190054F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4350" yWindow="690" windowWidth="24480" windowHeight="14745" activeTab="1" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="1995" yWindow="990" windowWidth="24480" windowHeight="14745" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$K$335</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$154</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$157</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6229" uniqueCount="2222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6246" uniqueCount="2227">
   <si>
     <t>Phase</t>
   </si>
@@ -6463,15 +6463,6 @@
     <t>Newsletter for Statistical Programmers and Biostatisticians #40</t>
   </si>
   <si>
-    <t>Wonderful Wednesdays 2022.05</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays 2022.04</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays 2022.03</t>
-  </si>
-  <si>
     <t>Wonderful Wednesdays 2022.02</t>
   </si>
   <si>
@@ -6592,13 +6583,6 @@
     <t>Wonderful Wednesdays 2022.11 - Quality of life outcomes in a cancer trial: dealing with missing data</t>
   </si>
   <si>
-    <t>ChatGPT tools for R programming</t>
-  </si>
-  <si>
-    <t>Leon Lombaard &amp; Megan Carnell
-https://phuse.s3.eu-central-1.amazonaws.com/Archive/2024/SDE/EU/Bloemfontein/PRE_Bloemfontein03.pdf</t>
-  </si>
-  <si>
     <t>Week15</t>
   </si>
   <si>
@@ -6879,6 +6863,37 @@
   </si>
   <si>
     <t>50 Sites</t>
+  </si>
+  <si>
+    <t>Bayesian Linear Regression</t>
+  </si>
+  <si>
+    <t>Online Web</t>
+  </si>
+  <si>
+    <t>Introductory Adaptive Trial Designs: A Practical Guide with R</t>
+  </si>
+  <si>
+    <t>Chang, M. (2015). Introductory adaptive trial designs: a practical guide with R (Vol. 75). CRC Press.</t>
+  </si>
+  <si>
+    <t>Regulatory </t>
+  </si>
+  <si>
+    <t>Presenting Clinical Data for Regulatory Submission: A Stats Perspective
+https://cytel.com/perspectives/presenting-clinical-data-for-regulatory-submission-a-stats-perspective/?utm_medium=social&amp;utm_source=linkedin</t>
+  </si>
+  <si>
+    <t>Regulatory Submission, UCB</t>
+  </si>
+  <si>
+    <t>The Good Data Doctor on Data Submission and Data Integration</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.04 - Clinical Improvement</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.05 - Responder</t>
   </si>
 </sst>
 </file>
@@ -8255,18 +8270,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8278,7 +8284,16 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9222,8 +9237,8 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A12" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A30" sqref="A30:D31"/>
+      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B30" sqref="B30:D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9242,12 +9257,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="170" t="s">
         <v>1581</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9256,35 +9271,35 @@
       <c r="A3" s="67" t="s">
         <v>1575</v>
       </c>
-      <c r="B3" s="175">
+      <c r="B3" s="172">
         <v>45520</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="173" t="s">
         <v>1577</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1578</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="168" t="s">
         <v>1579</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -9352,12 +9367,12 @@
       <c r="A13" s="76" t="s">
         <v>1582</v>
       </c>
-      <c r="B13" s="170">
+      <c r="B13" s="168">
         <f>COUNTA(Study!A$2:A$1005)</f>
         <v>84</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9369,12 +9384,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="170">
+      <c r="B14" s="168">
         <f>COUNTIF(Study!D$1:D$1005,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9384,9 +9399,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9398,11 +9413,11 @@
       <c r="A16" s="76" t="s">
         <v>1580</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="168" t="s">
         <v>1579</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9564,12 +9579,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="172" t="s">
+      <c r="A27" s="173" t="s">
         <v>1587</v>
       </c>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9582,11 +9597,11 @@
       <c r="A29" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="168" t="s">
         <v>1579</v>
       </c>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9594,8 +9609,8 @@
         <v>1987</v>
       </c>
       <c r="B30" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1099, "*Y*")</f>
-        <v>91</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1102, "*Y*")</f>
+        <v>99</v>
       </c>
       <c r="C30" s="169"/>
       <c r="D30" s="169"/>
@@ -9606,7 +9621,7 @@
         <v>1556</v>
       </c>
       <c r="B31" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1099, "N")</f>
+        <f>COUNTIF('Reading Plan'!A$2:A$1102, "N")</f>
         <v>43</v>
       </c>
       <c r="C31" s="169"/>
@@ -9618,8 +9633,8 @@
         <v>432</v>
       </c>
       <c r="B32" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1099, "*Ongoing*")</f>
-        <v>18</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1102, "*Ongoing*")</f>
+        <v>13</v>
       </c>
       <c r="C32" s="169"/>
       <c r="D32" s="169"/>
@@ -9640,29 +9655,21 @@
       <c r="L34" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="175" t="s">
         <v>1589</v>
       </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="168"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
+      <c r="A37" s="175"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9679,6 +9686,14 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -9693,9 +9708,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
   <dimension ref="A1:L85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F5" sqref="F5"/>
+      <selection pane="bottomLeft" activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -10007,7 +10022,7 @@
         <v>166</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>2218</v>
+        <v>2213</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>383</v>
@@ -10041,10 +10056,10 @@
       </c>
       <c r="D10" s="82"/>
       <c r="E10" s="82" t="s">
-        <v>2219</v>
+        <v>2214</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>2217</v>
+        <v>2212</v>
       </c>
       <c r="G10" s="83" t="s">
         <v>384</v>
@@ -10053,12 +10068,12 @@
         <v>77</v>
       </c>
       <c r="I10" s="83" t="s">
-        <v>2220</v>
+        <v>2215</v>
       </c>
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
       <c r="L10" s="82" t="s">
-        <v>2221</v>
+        <v>2216</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -11268,7 +11283,7 @@
         <v>247</v>
       </c>
       <c r="F46" s="93" t="s">
-        <v>2156</v>
+        <v>2151</v>
       </c>
       <c r="G46" s="94" t="s">
         <v>249</v>
@@ -11280,7 +11295,7 @@
         <v>59</v>
       </c>
       <c r="J46" s="93" t="s">
-        <v>2155</v>
+        <v>2150</v>
       </c>
       <c r="K46" s="93" t="s">
         <v>132</v>
@@ -11301,25 +11316,25 @@
       </c>
       <c r="D47" s="93"/>
       <c r="E47" s="93" t="s">
-        <v>2149</v>
+        <v>2144</v>
       </c>
       <c r="F47" s="93" t="s">
-        <v>2150</v>
+        <v>2145</v>
       </c>
       <c r="G47" s="94" t="s">
         <v>249</v>
       </c>
       <c r="H47" s="93" t="s">
-        <v>2151</v>
+        <v>2146</v>
       </c>
       <c r="I47" s="94" t="s">
-        <v>2154</v>
+        <v>2149</v>
       </c>
       <c r="J47" s="93" t="s">
-        <v>2153</v>
+        <v>2148</v>
       </c>
       <c r="K47" s="93" t="s">
-        <v>2152</v>
+        <v>2147</v>
       </c>
       <c r="L47" s="93"/>
     </row>
@@ -12631,11 +12646,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F219"/>
+  <dimension ref="A1:F222"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D155" sqref="D155"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12656,7 +12671,7 @@
         <v>1578</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2088</v>
+        <v>2085</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>317</v>
@@ -12676,13 +12691,13 @@
         <v>2024</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2205</v>
+        <v>2199</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>340</v>
+        <v>360</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>1964</v>
+        <v>1975</v>
       </c>
       <c r="F2" s="3" t="s">
         <v>340</v>
@@ -12696,7 +12711,7 @@
         <v>2024</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>360</v>
@@ -12716,7 +12731,7 @@
         <v>2024</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>2204</v>
+        <v>2199</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>360</v>
@@ -12736,10 +12751,10 @@
         <v>2024</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>2204</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>360</v>
+        <v>2198</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>1975</v>
@@ -12756,7 +12771,7 @@
         <v>2024</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>2203</v>
+        <v>2198</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>355</v>
@@ -12776,13 +12791,13 @@
         <v>2024</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>2203</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>355</v>
+        <v>2200</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>2221</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>1975</v>
+        <v>1964</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>340</v>
@@ -12796,10 +12811,10 @@
         <v>2024</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>340</v>
+        <v>2221</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>1595</v>
@@ -12816,10 +12831,10 @@
         <v>2024</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>340</v>
+        <v>2221</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1595</v>
@@ -12836,10 +12851,10 @@
         <v>2024</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2111</v>
+        <v>2108</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>340</v>
+        <v>2221</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1595</v>
@@ -12848,7 +12863,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>166</v>
       </c>
@@ -12856,19 +12871,19 @@
         <v>2024</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>2202</v>
+        <v>2161</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>340</v>
+        <v>2221</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>341</v>
+        <v>2223</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>166</v>
       </c>
@@ -12876,16 +12891,16 @@
         <v>2024</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>2202</v>
+        <v>2161</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>340</v>
+        <v>2221</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>341</v>
+        <v>2224</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>340</v>
+        <v>2224</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -12896,7 +12911,7 @@
         <v>2024</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>2202</v>
+        <v>2197</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>340</v>
@@ -12916,19 +12931,19 @@
         <v>2024</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>2132</v>
+        <v>2197</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>2049</v>
+        <v>340</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>2048</v>
+        <v>341</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
@@ -12936,19 +12951,19 @@
         <v>2024</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>2132</v>
+        <v>2197</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>2049</v>
+        <v>340</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>2161</v>
+        <v>341</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>166</v>
       </c>
@@ -12956,13 +12971,13 @@
         <v>2024</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2049</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>2162</v>
+        <v>2048</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>2040</v>
@@ -12976,13 +12991,13 @@
         <v>2024</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2049</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2160</v>
+        <v>2156</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>2040</v>
@@ -12996,19 +13011,19 @@
         <v>2024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2132</v>
+        <v>2127</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2049</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2163</v>
+        <v>2157</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>2040</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>166</v>
       </c>
@@ -13016,130 +13031,130 @@
         <v>2024</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2166</v>
+        <v>2127</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>2201</v>
+        <v>2049</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2199</v>
+        <v>2155</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>2200</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="10" t="s">
-        <v>432</v>
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B20" s="8">
         <v>2024</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2166</v>
+        <v>2127</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>2201</v>
+        <v>2049</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2208</v>
+        <v>2158</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>2209</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="10" t="s">
-        <v>432</v>
+      <c r="A21" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B21" s="8">
         <v>2024</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2211</v>
+        <v>2194</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>2212</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8"/>
-      <c r="B22" s="8"/>
-      <c r="C22" s="8"/>
+        <v>2195</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>2161</v>
+      </c>
       <c r="D22" s="3" t="s">
-        <v>2201</v>
+        <v>2196</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2210</v>
+        <v>2217</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>2213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8" t="s">
-        <v>166</v>
+        <v>2218</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="B23" s="8">
         <v>2024</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2103</v>
+        <v>2210</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>1988</v>
+        <v>2196</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2091</v>
+        <v>2203</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="8" t="s">
-        <v>166</v>
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="B24" s="8">
         <v>2024</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2104</v>
+        <v>2161</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>1988</v>
+        <v>2196</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>2092</v>
+        <v>2206</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B25" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>2105</v>
-      </c>
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8"/>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
       <c r="D25" s="3" t="s">
-        <v>1988</v>
+        <v>2196</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>2093</v>
+        <v>2205</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>1976</v>
+        <v>2208</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13150,13 +13165,13 @@
         <v>2024</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2106</v>
+        <v>2100</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>2094</v>
+        <v>2088</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1976</v>
@@ -13170,13 +13185,13 @@
         <v>2024</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2107</v>
+        <v>2101</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>2095</v>
+        <v>2089</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1976</v>
@@ -13196,7 +13211,7 @@
         <v>1988</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>2096</v>
+        <v>2090</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1976</v>
@@ -13210,13 +13225,13 @@
         <v>2024</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>2108</v>
+        <v>2103</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>2097</v>
+        <v>2091</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1976</v>
@@ -13230,13 +13245,13 @@
         <v>2024</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>2109</v>
+        <v>2104</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="E30" s="4" t="s">
-        <v>2098</v>
+      <c r="E30" s="3" t="s">
+        <v>2092</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1976</v>
@@ -13250,13 +13265,13 @@
         <v>2024</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>2110</v>
+        <v>2099</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="E31" s="4" t="s">
-        <v>2099</v>
+      <c r="E31" s="3" t="s">
+        <v>2093</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1976</v>
@@ -13270,13 +13285,13 @@
         <v>2024</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>2111</v>
+        <v>2105</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="E32" s="4" t="s">
-        <v>2100</v>
+      <c r="E32" s="3" t="s">
+        <v>2094</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1976</v>
@@ -13290,13 +13305,13 @@
         <v>2024</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>2112</v>
+        <v>2106</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2101</v>
+        <v>2095</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1976</v>
@@ -13310,19 +13325,19 @@
         <v>2024</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>2130</v>
+        <v>2107</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E34" s="3" t="s">
-        <v>2032</v>
+        <v>1988</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>2096</v>
       </c>
       <c r="F34" s="3" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>166</v>
       </c>
@@ -13330,19 +13345,19 @@
         <v>2024</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>2206</v>
+        <v>2108</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>320</v>
+        <v>1988</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>1598</v>
-      </c>
-      <c r="F35" s="5" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2097</v>
+      </c>
+      <c r="F35" s="3" t="s">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>166</v>
       </c>
@@ -13350,16 +13365,16 @@
         <v>2024</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>2131</v>
+        <v>2109</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>320</v>
+        <v>1988</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F36" s="4" t="s">
-        <v>322</v>
+        <v>2098</v>
+      </c>
+      <c r="F36" s="3" t="s">
+        <v>1976</v>
       </c>
     </row>
     <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13370,49 +13385,53 @@
         <v>2024</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>2131</v>
+        <v>2125</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="F37" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B38" s="9">
+      <c r="E37" s="3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B38" s="8">
         <v>2024</v>
       </c>
-      <c r="C38" s="9"/>
+      <c r="C38" s="8" t="s">
+        <v>2201</v>
+      </c>
       <c r="D38" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>322</v>
+        <v>1598</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B39" s="9">
+      <c r="A39" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B39" s="8">
         <v>2024</v>
       </c>
-      <c r="C39" s="9"/>
+      <c r="C39" s="8" t="s">
+        <v>2126</v>
+      </c>
       <c r="D39" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>322</v>
@@ -13426,56 +13445,52 @@
         <v>2024</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>2110</v>
+        <v>2126</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>1572</v>
+        <v>323</v>
       </c>
       <c r="F40" s="4" t="s">
-        <v>2036</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B41" s="8">
+      <c r="A41" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B41" s="9">
         <v>2024</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>2206</v>
-      </c>
+      <c r="C41" s="9"/>
       <c r="D41" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>2034</v>
+        <v>324</v>
       </c>
       <c r="F41" s="4" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>1574</v>
       </c>
       <c r="B42" s="9">
         <v>2024</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>2207</v>
-      </c>
+      <c r="C42" s="9"/>
       <c r="D42" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>2035</v>
+        <v>325</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>2036</v>
+        <v>322</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13486,70 +13501,76 @@
         <v>2024</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>2203</v>
+        <v>2107</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2038</v>
+        <v>1572</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>2036</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B44" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C44" s="9"/>
+      <c r="A44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C44" s="8" t="s">
+        <v>2201</v>
+      </c>
       <c r="D44" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>347</v>
+        <v>2034</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="9" t="s">
         <v>1574</v>
       </c>
       <c r="B45" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C45" s="9"/>
+        <v>2024</v>
+      </c>
+      <c r="C45" s="8" t="s">
+        <v>2202</v>
+      </c>
       <c r="D45" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>349</v>
+        <v>2035</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>350</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B46" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C46" s="9"/>
+      <c r="A46" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>2198</v>
+      </c>
       <c r="D46" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E46" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F46" s="3" t="s">
-        <v>352</v>
+      <c r="E46" s="4" t="s">
+        <v>2038</v>
+      </c>
+      <c r="F46" s="4" t="s">
+        <v>2036</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13563,128 +13584,126 @@
       <c r="D47" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="F47" s="4" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B48" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C48" s="9"/>
+      <c r="D48" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E48" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B49" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C49" s="9"/>
+      <c r="D49" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F49" s="3" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B50" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C50" s="9"/>
+      <c r="D50" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F50" s="3" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="48" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="8" t="s">
+    <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>2219</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>2220</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>166</v>
-      </c>
-      <c r="B48" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>2128</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B49" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C49" s="10"/>
-      <c r="D49" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E49" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F49" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B50" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C50" s="8" t="s">
-        <v>2128</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E50" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F50" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B51" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C51" s="8" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>2033</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="9" t="s">
-        <v>1574</v>
       </c>
       <c r="B52" s="8">
         <v>2024</v>
       </c>
-      <c r="C52" s="9"/>
-      <c r="D52" s="9"/>
-      <c r="E52" s="9" t="s">
-        <v>2126</v>
-      </c>
-      <c r="F52" s="4" t="s">
-        <v>2127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="8">
+      <c r="C52" s="8" t="s">
+        <v>2123</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>356</v>
+      </c>
+      <c r="F52" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B53" s="10">
         <v>2024</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>2166</v>
+        <v>2202</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>2071</v>
+        <v>355</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>2214</v>
-      </c>
-      <c r="F53" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>356</v>
+      </c>
+      <c r="F53" s="3" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>166</v>
       </c>
@@ -13692,19 +13711,19 @@
         <v>2024</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>2112</v>
+        <v>2123</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>2071</v>
+        <v>355</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>2059</v>
-      </c>
-      <c r="F54" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>166</v>
       </c>
@@ -13712,19 +13731,19 @@
         <v>2024</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>2112</v>
+        <v>2124</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>2071</v>
+        <v>355</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>2060</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>166</v>
       </c>
@@ -13732,16 +13751,16 @@
         <v>2024</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>2112</v>
+        <v>2161</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>2061</v>
+        <v>2209</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13752,16 +13771,16 @@
         <v>2024</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>2133</v>
+        <v>2109</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>2062</v>
+        <v>2059</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13772,16 +13791,16 @@
         <v>2024</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>2133</v>
+        <v>2109</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>2063</v>
+        <v>2060</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13792,16 +13811,16 @@
         <v>2024</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>2133</v>
+        <v>2109</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>2064</v>
+        <v>2061</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13812,16 +13831,16 @@
         <v>2024</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>2195</v>
+        <v>2128</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>2065</v>
+        <v>2062</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13832,16 +13851,16 @@
         <v>2024</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>2195</v>
+        <v>2128</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>2066</v>
+        <v>2063</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13852,16 +13871,16 @@
         <v>2024</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>2195</v>
+        <v>2128</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>2067</v>
+        <v>2064</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13872,16 +13891,16 @@
         <v>2024</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>2196</v>
+        <v>2065</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13892,170 +13911,176 @@
         <v>2024</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>2195</v>
+        <v>2190</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A65" s="10" t="s">
-        <v>432</v>
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B65" s="8">
         <v>2024</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>2166</v>
+        <v>2190</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A66" s="10" t="s">
-        <v>432</v>
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B66" s="8">
         <v>2024</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>2166</v>
+        <v>2190</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>2070</v>
+        <v>2191</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A67" s="10" t="s">
-        <v>432</v>
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B67" s="8">
         <v>2024</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>2166</v>
+        <v>2190</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>2072</v>
+        <v>2068</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A68" s="10" t="s">
-        <v>432</v>
+      <c r="A68" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B68" s="8">
         <v>2024</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>2073</v>
+        <v>2069</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A69" s="10" t="s">
-        <v>432</v>
+      <c r="A69" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B69" s="8">
         <v>2024</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>2074</v>
+        <v>2070</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A70" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B70" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C70" s="9"/>
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B70" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C70" s="8" t="s">
+        <v>2161</v>
+      </c>
       <c r="D70" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>2075</v>
+        <v>2072</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B71" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C71" s="9"/>
+      <c r="A71" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B71" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C71" s="8" t="s">
+        <v>2210</v>
+      </c>
       <c r="D71" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>2076</v>
+        <v>2073</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B72" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C72" s="9"/>
+      <c r="A72" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B72" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C72" s="8" t="s">
+        <v>2210</v>
+      </c>
       <c r="D72" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>2077</v>
+        <v>2074</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14070,10 +14095,10 @@
         <v>2071</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>2078</v>
+        <v>2075</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14088,10 +14113,10 @@
         <v>2071</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>2079</v>
+        <v>2076</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14106,10 +14131,10 @@
         <v>2071</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>2080</v>
+        <v>2077</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14124,13 +14149,13 @@
         <v>2071</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>2081</v>
+        <v>2078</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14142,13 +14167,13 @@
         <v>2071</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>2082</v>
+        <v>2079</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14160,13 +14185,13 @@
         <v>2071</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>2180</v>
+        <v>2080</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>2146</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2141</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14178,10 +14203,10 @@
         <v>2071</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>2181</v>
+        <v>2081</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14196,10 +14221,10 @@
         <v>2071</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>2182</v>
+        <v>2082</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14214,10 +14239,10 @@
         <v>2071</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>2183</v>
+        <v>2175</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14232,10 +14257,10 @@
         <v>2071</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>2184</v>
+        <v>2176</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14250,10 +14275,10 @@
         <v>2071</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>2185</v>
+        <v>2177</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>2146</v>
+        <v>2141</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14264,14 +14289,14 @@
         <v>2025</v>
       </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E84" s="4" t="s">
-        <v>2170</v>
-      </c>
-      <c r="F84" s="4" t="s">
-        <v>2037</v>
+      <c r="D84" s="4" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>2178</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>2141</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14282,14 +14307,14 @@
         <v>2025</v>
       </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E85" s="4" t="s">
-        <v>2171</v>
-      </c>
-      <c r="F85" s="4" t="s">
-        <v>2037</v>
+      <c r="D85" s="4" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>2179</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>2141</v>
       </c>
     </row>
     <row r="86" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14300,14 +14325,14 @@
         <v>2025</v>
       </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>2172</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>2037</v>
+      <c r="D86" s="4" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>2180</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>2141</v>
       </c>
     </row>
     <row r="87" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14322,7 +14347,7 @@
         <v>326</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>2173</v>
+        <v>2165</v>
       </c>
       <c r="F87" s="4" t="s">
         <v>2037</v>
@@ -14340,7 +14365,7 @@
         <v>326</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2174</v>
+        <v>2166</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>2037</v>
@@ -14358,7 +14383,7 @@
         <v>326</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>2175</v>
+        <v>2167</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>2037</v>
@@ -14376,7 +14401,7 @@
         <v>326</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>2176</v>
+        <v>2168</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>2037</v>
@@ -14394,7 +14419,7 @@
         <v>326</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>2177</v>
+        <v>2169</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>2037</v>
@@ -14412,7 +14437,7 @@
         <v>326</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>2178</v>
+        <v>2170</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>2037</v>
@@ -14430,67 +14455,61 @@
         <v>326</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>2179</v>
+        <v>2171</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B94" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>2130</v>
-      </c>
+    <row r="94" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B94" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C94" s="9"/>
       <c r="D94" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E94" s="3" t="s">
-        <v>2039</v>
+      <c r="E94" s="4" t="s">
+        <v>2172</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B95" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C95" s="8" t="s">
-        <v>2131</v>
-      </c>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B95" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C95" s="9"/>
       <c r="D95" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>327</v>
+        <v>2173</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B96" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C96" s="8" t="s">
-        <v>2132</v>
-      </c>
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B96" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C96" s="9"/>
       <c r="D96" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>2089</v>
+        <v>2174</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>2037</v>
@@ -14504,16 +14523,16 @@
         <v>2024</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>2132</v>
+        <v>2125</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E97" s="4" t="s">
-        <v>2090</v>
+      <c r="E97" s="3" t="s">
+        <v>2039</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>2037</v>
+        <v>2040</v>
       </c>
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14524,16 +14543,16 @@
         <v>2024</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>2112</v>
+        <v>2126</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2116</v>
+        <v>327</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>2037</v>
+        <v>328</v>
       </c>
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14544,13 +14563,13 @@
         <v>2024</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>2112</v>
+        <v>2127</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>2117</v>
+        <v>2086</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>2037</v>
@@ -14564,13 +14583,13 @@
         <v>2024</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>2112</v>
+        <v>2127</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>2118</v>
+        <v>2087</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>2037</v>
@@ -14584,13 +14603,13 @@
         <v>2024</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>2119</v>
+        <v>2113</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>2037</v>
@@ -14604,13 +14623,13 @@
         <v>2024</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>2120</v>
+        <v>2114</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>2037</v>
@@ -14624,13 +14643,13 @@
         <v>2024</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>2139</v>
+        <v>2115</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>2037</v>
@@ -14644,13 +14663,13 @@
         <v>2024</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>2121</v>
+        <v>2116</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>2037</v>
@@ -14664,13 +14683,13 @@
         <v>2024</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>2122</v>
+        <v>2117</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>2037</v>
@@ -14684,13 +14703,13 @@
         <v>2024</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>2140</v>
+        <v>2134</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>2037</v>
@@ -14704,13 +14723,13 @@
         <v>2024</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>2133</v>
+        <v>2109</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>2123</v>
+        <v>2118</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>2037</v>
@@ -14724,13 +14743,13 @@
         <v>2024</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>2133</v>
+        <v>2109</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>2124</v>
+        <v>2119</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>2037</v>
@@ -14744,19 +14763,19 @@
         <v>2024</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>2112</v>
+        <v>2109</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>2141</v>
+        <v>2135</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="110" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>166</v>
       </c>
@@ -14764,13 +14783,13 @@
         <v>2024</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>2112</v>
+        <v>2128</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>2125</v>
+        <v>2120</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>2037</v>
@@ -14784,13 +14803,13 @@
         <v>2024</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>2133</v>
+        <v>2128</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>2157</v>
+        <v>2121</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>2037</v>
@@ -14804,19 +14823,19 @@
         <v>2024</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>2133</v>
+        <v>2109</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>2158</v>
+        <v>2136</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A113" s="8" t="s">
         <v>166</v>
       </c>
@@ -14824,13 +14843,13 @@
         <v>2024</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>2195</v>
+        <v>2109</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2159</v>
+        <v>2122</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>2037</v>
@@ -14844,13 +14863,13 @@
         <v>2024</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>2195</v>
+        <v>2128</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2197</v>
+        <v>2152</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>2037</v>
@@ -14864,113 +14883,113 @@
         <v>2024</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>2195</v>
+        <v>2128</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2198</v>
+        <v>2153</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="10" t="s">
-        <v>432</v>
+    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A116" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B116" s="8">
         <v>2024</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>2166</v>
+        <v>2190</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2083</v>
+        <v>2154</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="10" t="s">
-        <v>432</v>
+    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B117" s="8">
         <v>2024</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>2166</v>
+        <v>2190</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2084</v>
+        <v>2192</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="10" t="s">
-        <v>432</v>
+    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B118" s="8">
         <v>2024</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>2166</v>
+        <v>2190</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>2085</v>
+        <v>2193</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="10" t="s">
-        <v>432</v>
+      <c r="A119" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B119" s="8">
         <v>2024</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2086</v>
+        <v>2226</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="10" t="s">
-        <v>432</v>
+      <c r="A120" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B120" s="8">
         <v>2024</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>2166</v>
+        <v>2161</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>2087</v>
+        <v>2225</v>
       </c>
       <c r="F120" s="4" t="s">
         <v>2037</v>
@@ -14984,67 +15003,73 @@
         <v>2024</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>2166</v>
+        <v>2210</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>2186</v>
+        <v>2083</v>
       </c>
       <c r="F121" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B122" s="9">
+      <c r="A122" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B122" s="8">
         <v>2024</v>
       </c>
-      <c r="C122" s="9"/>
+      <c r="C122" s="8" t="s">
+        <v>2210</v>
+      </c>
       <c r="D122" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>2187</v>
+        <v>2083</v>
       </c>
       <c r="F122" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B123" s="9">
+      <c r="A123" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B123" s="8">
         <v>2024</v>
       </c>
-      <c r="C123" s="9"/>
+      <c r="C123" s="8" t="s">
+        <v>2210</v>
+      </c>
       <c r="D123" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>2188</v>
+        <v>2084</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B124" s="9">
+      <c r="A124" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B124" s="8">
         <v>2024</v>
       </c>
-      <c r="C124" s="9"/>
+      <c r="C124" s="8" t="s">
+        <v>2210</v>
+      </c>
       <c r="D124" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>2189</v>
+        <v>2181</v>
       </c>
       <c r="F124" s="4" t="s">
         <v>2037</v>
@@ -15062,7 +15087,7 @@
         <v>326</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>2190</v>
+        <v>2182</v>
       </c>
       <c r="F125" s="4" t="s">
         <v>2037</v>
@@ -15080,7 +15105,7 @@
         <v>326</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>2191</v>
+        <v>2183</v>
       </c>
       <c r="F126" s="4" t="s">
         <v>2037</v>
@@ -15098,7 +15123,7 @@
         <v>326</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>2192</v>
+        <v>2184</v>
       </c>
       <c r="F127" s="4" t="s">
         <v>2037</v>
@@ -15116,7 +15141,7 @@
         <v>326</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>2193</v>
+        <v>2185</v>
       </c>
       <c r="F128" s="4" t="s">
         <v>2037</v>
@@ -15134,69 +15159,65 @@
         <v>326</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>2194</v>
+        <v>2186</v>
       </c>
       <c r="F129" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="130" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B130" s="8">
+    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B130" s="9">
         <v>2024</v>
       </c>
-      <c r="C130" s="8" t="s">
-        <v>2134</v>
-      </c>
+      <c r="C130" s="9"/>
       <c r="D130" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>1917</v>
+        <v>2187</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B131" s="8">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B131" s="9">
         <v>2024</v>
       </c>
-      <c r="C131" s="8" t="s">
-        <v>2135</v>
-      </c>
+      <c r="C131" s="9"/>
       <c r="D131" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>330</v>
+        <v>2188</v>
+      </c>
+      <c r="F131" s="4" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B132" s="8">
+      <c r="A132" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B132" s="9">
         <v>2024</v>
       </c>
-      <c r="C132" s="8" t="s">
-        <v>2103</v>
-      </c>
+      <c r="C132" s="9"/>
       <c r="D132" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E132" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F132" s="4"/>
+      <c r="E132" s="4" t="s">
+        <v>2189</v>
+      </c>
+      <c r="F132" s="4" t="s">
+        <v>2037</v>
+      </c>
     </row>
     <row r="133" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
@@ -15206,19 +15227,19 @@
         <v>2024</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>2136</v>
+        <v>2129</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>1909</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>326</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>1917</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>166</v>
       </c>
@@ -15226,15 +15247,17 @@
         <v>2024</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>2134</v>
+        <v>2130</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>1909</v>
-      </c>
-      <c r="E134" s="3" t="s">
-        <v>1910</v>
-      </c>
-      <c r="F134" s="3"/>
+        <v>326</v>
+      </c>
+      <c r="E134" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F134" s="5" t="s">
+        <v>330</v>
+      </c>
     </row>
     <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
@@ -15244,15 +15267,15 @@
         <v>2024</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>2134</v>
+        <v>2100</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>1909</v>
+        <v>326</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>1915</v>
-      </c>
-      <c r="F135" s="3"/>
+        <v>331</v>
+      </c>
+      <c r="F135" s="4"/>
     </row>
     <row r="136" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
@@ -15262,16 +15285,16 @@
         <v>2024</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>2137</v>
+        <v>2131</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1977</v>
+        <v>1909</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>333</v>
+        <v>367</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15282,52 +15305,52 @@
         <v>2024</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>1977</v>
+        <v>1909</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F137" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B138" s="9">
+        <v>1910</v>
+      </c>
+      <c r="F137" s="3"/>
+    </row>
+    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B138" s="8">
         <v>2024</v>
       </c>
-      <c r="C138" s="9"/>
+      <c r="C138" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D138" s="3" t="s">
-        <v>1977</v>
+        <v>1909</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F138" s="4" t="s">
-        <v>337</v>
-      </c>
+        <v>1915</v>
+      </c>
+      <c r="F138" s="3"/>
     </row>
     <row r="139" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B139" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C139" s="9"/>
+      <c r="A139" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B139" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C139" s="8" t="s">
+        <v>2132</v>
+      </c>
       <c r="D139" s="3" t="s">
         <v>1977</v>
       </c>
-      <c r="E139" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>339</v>
+      <c r="E139" s="3" t="s">
+        <v>332</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>333</v>
       </c>
     </row>
     <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15338,57 +15361,55 @@
         <v>2024</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>2142</v>
+        <v>2133</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1573</v>
+        <v>1977</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F140" s="4"/>
-    </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B141" s="8">
+        <v>334</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B141" s="9">
         <v>2024</v>
       </c>
-      <c r="C141" s="8" t="s">
-        <v>2142</v>
-      </c>
+      <c r="C141" s="9"/>
       <c r="D141" s="3" t="s">
-        <v>1573</v>
+        <v>1977</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F141" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B142" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>2142</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="F141" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B142" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C142" s="9"/>
       <c r="D142" s="3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F142" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>1977</v>
+      </c>
+      <c r="E142" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F142" s="3" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>166</v>
       </c>
@@ -15396,19 +15417,17 @@
         <v>2024</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>2143</v>
+        <v>2137</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>360</v>
+        <v>1573</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F143" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="F143" s="4"/>
+    </row>
+    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A144" s="8" t="s">
         <v>166</v>
       </c>
@@ -15416,19 +15435,19 @@
         <v>2024</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>2104</v>
+        <v>2137</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>360</v>
+        <v>1573</v>
       </c>
       <c r="E144" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F144" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>343</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A145" s="8" t="s">
         <v>166</v>
       </c>
@@ -15436,19 +15455,19 @@
         <v>2024</v>
       </c>
       <c r="C145" s="8" t="s">
-        <v>2131</v>
+        <v>2137</v>
       </c>
       <c r="D145" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E145" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F145" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>1573</v>
+      </c>
+      <c r="E145" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F145" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A146" s="8" t="s">
         <v>166</v>
       </c>
@@ -15456,19 +15475,19 @@
         <v>2024</v>
       </c>
       <c r="C146" s="8" t="s">
-        <v>2144</v>
+        <v>2138</v>
       </c>
       <c r="D146" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>1918</v>
+        <v>361</v>
       </c>
       <c r="F146" s="3" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A147" s="8" t="s">
         <v>166</v>
       </c>
@@ -15476,164 +15495,201 @@
         <v>2024</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>2133</v>
+        <v>2101</v>
       </c>
       <c r="D147" s="3" t="s">
-        <v>2164</v>
+        <v>360</v>
       </c>
       <c r="E147" s="3" t="s">
-        <v>2165</v>
-      </c>
-      <c r="F147" s="3"/>
+        <v>363</v>
+      </c>
+      <c r="F147" s="3" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="10" t="s">
-        <v>432</v>
+      <c r="A148" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B148" s="8">
         <v>2024</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>2215</v>
+        <v>2126</v>
       </c>
       <c r="D148" s="3" t="s">
-        <v>2164</v>
+        <v>360</v>
       </c>
       <c r="E148" s="3" t="s">
-        <v>2167</v>
-      </c>
-      <c r="F148" s="3"/>
-    </row>
-    <row r="149" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="10" t="s">
-        <v>432</v>
+        <v>365</v>
+      </c>
+      <c r="F148" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B149" s="8">
         <v>2024</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>2215</v>
+        <v>2139</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>2216</v>
+        <v>360</v>
       </c>
       <c r="E149" s="3" t="s">
-        <v>2169</v>
-      </c>
-      <c r="F149" s="3"/>
+        <v>1918</v>
+      </c>
+      <c r="F149" s="3" t="s">
+        <v>1919</v>
+      </c>
     </row>
     <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="10" t="s">
-        <v>432</v>
+      <c r="A150" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B150" s="8">
         <v>2024</v>
       </c>
       <c r="C150" s="8" t="s">
-        <v>2215</v>
+        <v>2128</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>2216</v>
+        <v>2159</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>2168</v>
+        <v>2160</v>
       </c>
       <c r="F150" s="3"/>
     </row>
     <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B151" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C151" s="9"/>
+      <c r="A151" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B151" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C151" s="8" t="s">
+        <v>2210</v>
+      </c>
       <c r="D151" s="3" t="s">
-        <v>369</v>
+        <v>2159</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F151" s="3" t="s">
-        <v>371</v>
-      </c>
+        <v>2162</v>
+      </c>
+      <c r="F151" s="3"/>
     </row>
     <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>166</v>
+      <c r="A152" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="B152" s="8">
         <v>2024</v>
       </c>
       <c r="C152" s="8" t="s">
-        <v>2145</v>
+        <v>2210</v>
       </c>
       <c r="D152" s="3" t="s">
-        <v>372</v>
+        <v>2211</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>1594</v>
-      </c>
+        <v>2164</v>
+      </c>
+      <c r="F152" s="3"/>
     </row>
     <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>166</v>
+      <c r="A153" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="B153" s="8">
         <v>2024</v>
       </c>
       <c r="C153" s="8" t="s">
-        <v>2110</v>
+        <v>2210</v>
       </c>
       <c r="D153" s="3" t="s">
+        <v>2211</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F153" s="3"/>
+    </row>
+    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B154" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C154" s="9"/>
+      <c r="D154" s="3" t="s">
+        <v>369</v>
+      </c>
+      <c r="E154" s="3" t="s">
+        <v>370</v>
+      </c>
+      <c r="F154" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B155" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C155" s="8" t="s">
+        <v>2140</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B156" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C156" s="8" t="s">
+        <v>2107</v>
+      </c>
+      <c r="D156" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="E153" s="3" t="s">
+      <c r="E156" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="F153" s="3" t="s">
+      <c r="F156" s="3" t="s">
         <v>1593</v>
       </c>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="10" t="s">
+    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="10" t="s">
         <v>432</v>
       </c>
-      <c r="B154" s="8">
+      <c r="B157" s="8">
         <v>2024</v>
       </c>
-      <c r="C154" s="8" t="s">
-        <v>2215</v>
-      </c>
-      <c r="D154" s="3" t="s">
-        <v>2216</v>
-      </c>
-      <c r="E154" s="3"/>
-      <c r="F154" s="3"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-      <c r="B155" s="3"/>
-      <c r="C155" s="3"/>
-      <c r="D155" s="3"/>
-      <c r="E155" s="3"/>
-      <c r="F155" s="3"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="3"/>
-      <c r="B156" s="3"/>
-      <c r="C156" s="3"/>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
-      <c r="F156" s="3"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-      <c r="B157" s="166"/>
-      <c r="D157" s="3"/>
+      <c r="C157" s="8" t="s">
+        <v>2210</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>2211</v>
+      </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
@@ -15655,8 +15711,7 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
-      <c r="B160" s="3"/>
-      <c r="C160" s="3"/>
+      <c r="B160" s="166"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -16133,8 +16188,32 @@
       <c r="E219" s="3"/>
       <c r="F219" s="3"/>
     </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220" s="3"/>
+      <c r="B220" s="3"/>
+      <c r="C220" s="3"/>
+      <c r="D220" s="3"/>
+      <c r="E220" s="3"/>
+      <c r="F220" s="3"/>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221" s="3"/>
+      <c r="B221" s="3"/>
+      <c r="C221" s="3"/>
+      <c r="D221" s="3"/>
+      <c r="E221" s="3"/>
+      <c r="F221" s="3"/>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222" s="3"/>
+      <c r="B222" s="3"/>
+      <c r="C222" s="3"/>
+      <c r="D222" s="3"/>
+      <c r="E222" s="3"/>
+      <c r="F222" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F154" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
+  <autoFilter ref="A1:F157" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
     <filterColumn colId="2">
       <filters>
         <filter val="Week48"/>
@@ -16143,12 +16222,14 @@
   </autoFilter>
   <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F131" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
-    <hyperlink ref="F141" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
-    <hyperlink ref="F137" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
-    <hyperlink ref="F151" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
-    <hyperlink ref="F35" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
-    <hyperlink ref="F59" r:id="rId6" xr:uid="{6939D5E8-A309-4950-8CD8-704888943397}"/>
+    <hyperlink ref="F134" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
+    <hyperlink ref="F144" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
+    <hyperlink ref="F140" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
+    <hyperlink ref="F154" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
+    <hyperlink ref="F38" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
+    <hyperlink ref="F62" r:id="rId6" xr:uid="{6939D5E8-A309-4950-8CD8-704888943397}"/>
+    <hyperlink ref="F68" r:id="rId7" xr:uid="{662A6303-39B9-4ED1-90EC-0F10CC349E75}"/>
+    <hyperlink ref="F69" r:id="rId8" xr:uid="{C863D711-944D-4130-95B3-8E5863486A1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23452,7 +23533,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J296" s="117" t="s">
-        <v>2147</v>
+        <v>2142</v>
       </c>
       <c r="K296" s="114"/>
     </row>
@@ -23632,7 +23713,7 @@
       </c>
       <c r="J303" s="117"/>
       <c r="K303" s="131" t="s">
-        <v>2148</v>
+        <v>2143</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37330,7 +37411,7 @@
         <v>1950</v>
       </c>
       <c r="H39" s="126" t="s">
-        <v>2115</v>
+        <v>2112</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37378,10 +37459,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="126" t="s">
-        <v>2113</v>
+        <v>2110</v>
       </c>
       <c r="G41" s="126" t="s">
-        <v>2114</v>
+        <v>2111</v>
       </c>
       <c r="H41" s="126"/>
     </row>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A4E910C-3E6E-4F03-AE68-085190054F6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C3656B-31AD-4624-B2A7-87AE114CABE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1995" yWindow="990" windowWidth="24480" windowHeight="14745" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="2325" yWindow="105" windowWidth="24480" windowHeight="14745" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$K$335</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$157</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6246" uniqueCount="2227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6205" uniqueCount="2215">
   <si>
     <t>Phase</t>
   </si>
@@ -6445,30 +6445,6 @@
     <t>Newsletter for Statistical Programmers and Biostatisticians #46</t>
   </si>
   <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #45</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #44</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #43</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #42</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #41</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #40</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays 2022.02</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays 2022.01</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -6739,27 +6715,6 @@
     <t>Wonderful Wednesdays 2025.03</t>
   </si>
   <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #39</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #38</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #37</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #36</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #35</t>
-  </si>
-  <si>
-    <t>Newsletter for Statistical Programmers and Biostatisticians #34</t>
-  </si>
-  <si>
-    <t>Wonderful Wednesdays 2021.12</t>
-  </si>
-  <si>
     <t>Wonderful Wednesdays 2021.11</t>
   </si>
   <si>
@@ -6829,16 +6784,10 @@
     <t>Marin, J., Robert, C. P. (2013). Bayesian Essentials with R. United States: Springer New York.</t>
   </si>
   <si>
-    <t>Bayesian Adaptive Methods for Clinical Trials</t>
-  </si>
-  <si>
     <t>Bayesian Approaches to Clinical Trials and Health-Care Evaluation</t>
   </si>
   <si>
     <t>Spiegelhalter, D. J., Abrams, K. R., Myles, J. P. (2004). Bayesian Approaches to Clinical Trials and Health-Care Evaluation. United Kingdom: Wiley.</t>
-  </si>
-  <si>
-    <t>Berry, S. M., Carlin, B. P., Lee, J. J., Muller, P. (2010). Bayesian Adaptive Methods for Clinical Trials. United Kingdom: CRC Press.</t>
   </si>
   <si>
     <t>Newsletter for Statistical Programmers and Biostatisticians #65</t>
@@ -6894,6 +6843,21 @@
   </si>
   <si>
     <t>Wonderful Wednesdays 2022.05 - Responder</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #40 - #43</t>
+  </si>
+  <si>
+    <t>Newsletter for Statistical Programmers and Biostatisticians #44 - #45</t>
+  </si>
+  <si>
+    <t>Week51</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2021.12 - shiny</t>
+  </si>
+  <si>
+    <t>Wonderful Wednesdays 2022.02 - SSC</t>
   </si>
 </sst>
 </file>
@@ -8270,9 +8234,18 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8284,16 +8257,7 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9237,8 +9201,8 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B30" sqref="B30:D30"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9257,12 +9221,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="170" t="s">
+      <c r="A1" s="173" t="s">
         <v>1581</v>
       </c>
-      <c r="B1" s="171"/>
-      <c r="C1" s="171"/>
-      <c r="D1" s="171"/>
+      <c r="B1" s="174"/>
+      <c r="C1" s="174"/>
+      <c r="D1" s="174"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9271,35 +9235,35 @@
       <c r="A3" s="67" t="s">
         <v>1575</v>
       </c>
-      <c r="B3" s="172">
+      <c r="B3" s="175">
         <v>45520</v>
       </c>
-      <c r="C3" s="172"/>
-      <c r="D3" s="172"/>
+      <c r="C3" s="175"/>
+      <c r="D3" s="175"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="173" t="s">
+      <c r="A5" s="172" t="s">
         <v>1577</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="173"/>
-      <c r="D5" s="173"/>
+      <c r="B5" s="172"/>
+      <c r="C5" s="172"/>
+      <c r="D5" s="172"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="174"/>
-      <c r="B6" s="174"/>
-      <c r="C6" s="174"/>
-      <c r="D6" s="174"/>
+      <c r="A6" s="176"/>
+      <c r="B6" s="176"/>
+      <c r="C6" s="176"/>
+      <c r="D6" s="176"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1578</v>
       </c>
-      <c r="B7" s="168" t="s">
+      <c r="B7" s="170" t="s">
         <v>1579</v>
       </c>
-      <c r="C7" s="168"/>
-      <c r="D7" s="168"/>
+      <c r="C7" s="170"/>
+      <c r="D7" s="170"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -9367,12 +9331,12 @@
       <c r="A13" s="76" t="s">
         <v>1582</v>
       </c>
-      <c r="B13" s="168">
+      <c r="B13" s="170">
         <f>COUNTA(Study!A$2:A$1005)</f>
         <v>84</v>
       </c>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
+      <c r="C13" s="170"/>
+      <c r="D13" s="170"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9384,12 +9348,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="168">
+      <c r="B14" s="170">
         <f>COUNTIF(Study!D$1:D$1005,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
+      <c r="C14" s="170"/>
+      <c r="D14" s="170"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9399,9 +9363,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="176"/>
-      <c r="C15" s="176"/>
-      <c r="D15" s="176"/>
+      <c r="B15" s="171"/>
+      <c r="C15" s="171"/>
+      <c r="D15" s="171"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9413,11 +9377,11 @@
       <c r="A16" s="76" t="s">
         <v>1580</v>
       </c>
-      <c r="B16" s="168" t="s">
+      <c r="B16" s="170" t="s">
         <v>1579</v>
       </c>
-      <c r="C16" s="168"/>
-      <c r="D16" s="168"/>
+      <c r="C16" s="170"/>
+      <c r="D16" s="170"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9579,12 +9543,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="173" t="s">
+      <c r="A27" s="172" t="s">
         <v>1587</v>
       </c>
-      <c r="B27" s="173"/>
-      <c r="C27" s="173"/>
-      <c r="D27" s="173"/>
+      <c r="B27" s="172"/>
+      <c r="C27" s="172"/>
+      <c r="D27" s="172"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9597,11 +9561,11 @@
       <c r="A29" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="B29" s="168" t="s">
+      <c r="B29" s="170" t="s">
         <v>1579</v>
       </c>
-      <c r="C29" s="168"/>
-      <c r="D29" s="168"/>
+      <c r="C29" s="170"/>
+      <c r="D29" s="170"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9609,8 +9573,8 @@
         <v>1987</v>
       </c>
       <c r="B30" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1102, "*Y*")</f>
-        <v>99</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1089, "*Y*")</f>
+        <v>107</v>
       </c>
       <c r="C30" s="169"/>
       <c r="D30" s="169"/>
@@ -9621,8 +9585,8 @@
         <v>1556</v>
       </c>
       <c r="B31" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1102, "N")</f>
-        <v>43</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1089, "N")</f>
+        <v>29</v>
       </c>
       <c r="C31" s="169"/>
       <c r="D31" s="169"/>
@@ -9633,8 +9597,8 @@
         <v>432</v>
       </c>
       <c r="B32" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1102, "*Ongoing*")</f>
-        <v>13</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1089, "*Ongoing*")</f>
+        <v>7</v>
       </c>
       <c r="C32" s="169"/>
       <c r="D32" s="169"/>
@@ -9655,21 +9619,29 @@
       <c r="L34" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="175" t="s">
+      <c r="A36" s="168" t="s">
         <v>1589</v>
       </c>
-      <c r="B36" s="175"/>
-      <c r="C36" s="175"/>
-      <c r="D36" s="175"/>
+      <c r="B36" s="168"/>
+      <c r="C36" s="168"/>
+      <c r="D36" s="168"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="175"/>
-      <c r="B37" s="175"/>
-      <c r="C37" s="175"/>
-      <c r="D37" s="175"/>
+      <c r="A37" s="168"/>
+      <c r="B37" s="168"/>
+      <c r="C37" s="168"/>
+      <c r="D37" s="168"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9686,14 +9658,6 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B32:D32"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -10022,7 +9986,7 @@
         <v>166</v>
       </c>
       <c r="E9" s="82" t="s">
-        <v>2213</v>
+        <v>2196</v>
       </c>
       <c r="F9" s="82" t="s">
         <v>383</v>
@@ -10056,10 +10020,10 @@
       </c>
       <c r="D10" s="82"/>
       <c r="E10" s="82" t="s">
-        <v>2214</v>
+        <v>2197</v>
       </c>
       <c r="F10" s="82" t="s">
-        <v>2212</v>
+        <v>2195</v>
       </c>
       <c r="G10" s="83" t="s">
         <v>384</v>
@@ -10068,12 +10032,12 @@
         <v>77</v>
       </c>
       <c r="I10" s="83" t="s">
-        <v>2215</v>
+        <v>2198</v>
       </c>
       <c r="J10" s="82"/>
       <c r="K10" s="82"/>
       <c r="L10" s="82" t="s">
-        <v>2216</v>
+        <v>2199</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="25.5" x14ac:dyDescent="0.2">
@@ -11283,7 +11247,7 @@
         <v>247</v>
       </c>
       <c r="F46" s="93" t="s">
-        <v>2151</v>
+        <v>2143</v>
       </c>
       <c r="G46" s="94" t="s">
         <v>249</v>
@@ -11295,7 +11259,7 @@
         <v>59</v>
       </c>
       <c r="J46" s="93" t="s">
-        <v>2150</v>
+        <v>2142</v>
       </c>
       <c r="K46" s="93" t="s">
         <v>132</v>
@@ -11316,25 +11280,25 @@
       </c>
       <c r="D47" s="93"/>
       <c r="E47" s="93" t="s">
-        <v>2144</v>
+        <v>2136</v>
       </c>
       <c r="F47" s="93" t="s">
-        <v>2145</v>
+        <v>2137</v>
       </c>
       <c r="G47" s="94" t="s">
         <v>249</v>
       </c>
       <c r="H47" s="93" t="s">
-        <v>2146</v>
+        <v>2138</v>
       </c>
       <c r="I47" s="94" t="s">
-        <v>2149</v>
+        <v>2141</v>
       </c>
       <c r="J47" s="93" t="s">
-        <v>2148</v>
+        <v>2140</v>
       </c>
       <c r="K47" s="93" t="s">
-        <v>2147</v>
+        <v>2139</v>
       </c>
       <c r="L47" s="93"/>
     </row>
@@ -12646,11 +12610,11 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:F222"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D70" sqref="D70"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E144" sqref="E144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12671,7 +12635,7 @@
         <v>1578</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>2085</v>
+        <v>2077</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>317</v>
@@ -12691,7 +12655,7 @@
         <v>2024</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>2199</v>
+        <v>2184</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>360</v>
@@ -12711,7 +12675,7 @@
         <v>2024</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>2199</v>
+        <v>2184</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>360</v>
@@ -12731,7 +12695,7 @@
         <v>2024</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>2199</v>
+        <v>2184</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>360</v>
@@ -12751,7 +12715,7 @@
         <v>2024</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>2198</v>
+        <v>2183</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>355</v>
@@ -12771,7 +12735,7 @@
         <v>2024</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>2198</v>
+        <v>2183</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>355</v>
@@ -12791,10 +12755,10 @@
         <v>2024</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>2200</v>
+        <v>2185</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>2221</v>
+        <v>2204</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>1964</v>
@@ -12811,10 +12775,10 @@
         <v>2024</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>2221</v>
+        <v>2204</v>
       </c>
       <c r="E8" s="3" t="s">
         <v>1595</v>
@@ -12831,10 +12795,10 @@
         <v>2024</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>2221</v>
+        <v>2204</v>
       </c>
       <c r="E9" s="3" t="s">
         <v>1595</v>
@@ -12851,10 +12815,10 @@
         <v>2024</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>2108</v>
+        <v>2100</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>2221</v>
+        <v>2204</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>1595</v>
@@ -12863,7 +12827,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>166</v>
       </c>
@@ -12871,19 +12835,19 @@
         <v>2024</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>2221</v>
+        <v>2204</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>2223</v>
+        <v>2206</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>2222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>166</v>
       </c>
@@ -12891,16 +12855,16 @@
         <v>2024</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>2221</v>
+        <v>2204</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>2224</v>
+        <v>2207</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>2224</v>
+        <v>2207</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -12911,7 +12875,7 @@
         <v>2024</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>2197</v>
+        <v>2182</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>340</v>
@@ -12931,7 +12895,7 @@
         <v>2024</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>2197</v>
+        <v>2182</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>340</v>
@@ -12951,7 +12915,7 @@
         <v>2024</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>2197</v>
+        <v>2182</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>340</v>
@@ -12971,7 +12935,7 @@
         <v>2024</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>2049</v>
@@ -12991,13 +12955,13 @@
         <v>2024</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>2049</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>2156</v>
+        <v>2148</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>2040</v>
@@ -13011,13 +12975,13 @@
         <v>2024</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>2049</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>2157</v>
+        <v>2149</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>2040</v>
@@ -13031,13 +12995,13 @@
         <v>2024</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>2049</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>2155</v>
+        <v>2147</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>2040</v>
@@ -13051,19 +13015,19 @@
         <v>2024</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>2127</v>
+        <v>2119</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>2049</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>2158</v>
+        <v>2150</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>166</v>
       </c>
@@ -13071,19 +13035,19 @@
         <v>2024</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>2196</v>
+        <v>2181</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>2194</v>
+        <v>2179</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>2195</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>166</v>
       </c>
@@ -13091,19 +13055,19 @@
         <v>2024</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>2196</v>
+        <v>2181</v>
       </c>
       <c r="E22" s="3" t="s">
-        <v>2217</v>
+        <v>2200</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>2218</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2201</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>432</v>
       </c>
@@ -13111,16 +13075,16 @@
         <v>2024</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>2210</v>
+        <v>2193</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>2196</v>
+        <v>2181</v>
       </c>
       <c r="E23" s="3" t="s">
-        <v>2203</v>
+        <v>2188</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>2204</v>
+        <v>2189</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -13131,30 +13095,36 @@
         <v>2024</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>2161</v>
+        <v>2193</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>2196</v>
+        <v>2181</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>2206</v>
+        <v>2190</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>2207</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="8"/>
+        <v>2191</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B25" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>2092</v>
+      </c>
       <c r="D25" s="3" t="s">
-        <v>2196</v>
+        <v>1988</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>2205</v>
+        <v>2080</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>2208</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13165,13 +13135,13 @@
         <v>2024</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>2100</v>
+        <v>2093</v>
       </c>
       <c r="D26" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>2088</v>
+        <v>2081</v>
       </c>
       <c r="F26" s="3" t="s">
         <v>1976</v>
@@ -13185,13 +13155,13 @@
         <v>2024</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>2101</v>
+        <v>2094</v>
       </c>
       <c r="D27" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>2089</v>
+        <v>2082</v>
       </c>
       <c r="F27" s="3" t="s">
         <v>1976</v>
@@ -13205,13 +13175,13 @@
         <v>2024</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>2102</v>
+        <v>2095</v>
       </c>
       <c r="D28" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>2090</v>
+        <v>2083</v>
       </c>
       <c r="F28" s="3" t="s">
         <v>1976</v>
@@ -13225,13 +13195,13 @@
         <v>2024</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>2103</v>
+        <v>2096</v>
       </c>
       <c r="D29" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>2091</v>
+        <v>2084</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>1976</v>
@@ -13245,13 +13215,13 @@
         <v>2024</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>2104</v>
+        <v>2091</v>
       </c>
       <c r="D30" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>2092</v>
+        <v>2085</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>1976</v>
@@ -13265,13 +13235,13 @@
         <v>2024</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="D31" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E31" s="3" t="s">
-        <v>2093</v>
+        <v>2086</v>
       </c>
       <c r="F31" s="3" t="s">
         <v>1976</v>
@@ -13285,13 +13255,13 @@
         <v>2024</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>2105</v>
+        <v>2098</v>
       </c>
       <c r="D32" s="3" t="s">
         <v>1988</v>
       </c>
-      <c r="E32" s="3" t="s">
-        <v>2094</v>
+      <c r="E32" s="4" t="s">
+        <v>2087</v>
       </c>
       <c r="F32" s="3" t="s">
         <v>1976</v>
@@ -13305,13 +13275,13 @@
         <v>2024</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>2106</v>
+        <v>2099</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>2095</v>
+        <v>2088</v>
       </c>
       <c r="F33" s="3" t="s">
         <v>1976</v>
@@ -13325,13 +13295,13 @@
         <v>2024</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>2107</v>
+        <v>2100</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E34" s="4" t="s">
-        <v>2096</v>
+        <v>2089</v>
       </c>
       <c r="F34" s="3" t="s">
         <v>1976</v>
@@ -13345,13 +13315,13 @@
         <v>2024</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>2108</v>
+        <v>2101</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>1988</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>2097</v>
+        <v>2090</v>
       </c>
       <c r="F35" s="3" t="s">
         <v>1976</v>
@@ -13365,19 +13335,19 @@
         <v>2024</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>2109</v>
+        <v>2117</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>1988</v>
-      </c>
-      <c r="E36" s="4" t="s">
-        <v>2098</v>
+        <v>320</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2032</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>1976</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>166</v>
       </c>
@@ -13385,16 +13355,16 @@
         <v>2024</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>2125</v>
+        <v>2186</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E37" s="3" t="s">
-        <v>2032</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>2031</v>
+      <c r="E37" s="4" t="s">
+        <v>1598</v>
+      </c>
+      <c r="F37" s="5" t="s">
+        <v>1599</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -13405,19 +13375,19 @@
         <v>2024</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>2201</v>
+        <v>2118</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>1598</v>
-      </c>
-      <c r="F38" s="5" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>321</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>166</v>
       </c>
@@ -13425,39 +13395,37 @@
         <v>2024</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>2126</v>
+        <v>2118</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>322</v>
       </c>
     </row>
     <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B40" s="8">
+      <c r="A40" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B40" s="9">
         <v>2024</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>2126</v>
-      </c>
+      <c r="C40" s="9"/>
       <c r="D40" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>1574</v>
       </c>
@@ -13469,28 +13437,30 @@
         <v>320</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B42" s="9">
+    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B42" s="8">
         <v>2024</v>
       </c>
-      <c r="C42" s="9"/>
+      <c r="C42" s="8" t="s">
+        <v>2099</v>
+      </c>
       <c r="D42" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>325</v>
+        <v>1572</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>322</v>
+        <v>2036</v>
       </c>
     </row>
     <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13501,79 +13471,77 @@
         <v>2024</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>2107</v>
+        <v>2186</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>1572</v>
+        <v>2034</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>2036</v>
       </c>
     </row>
     <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B44" s="8">
+      <c r="A44" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B44" s="9">
         <v>2024</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>2201</v>
+        <v>2187</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2034</v>
+        <v>2035</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>2036</v>
       </c>
     </row>
     <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B45" s="9">
+      <c r="A45" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B45" s="8">
         <v>2024</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>2202</v>
+        <v>2183</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2035</v>
+        <v>2038</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>2036</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B46" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C46" s="8" t="s">
-        <v>2198</v>
-      </c>
+      <c r="A46" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B46" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C46" s="9"/>
       <c r="D46" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>2038</v>
+        <v>347</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>1574</v>
       </c>
@@ -13585,13 +13553,13 @@
         <v>320</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>1574</v>
       </c>
@@ -13602,11 +13570,11 @@
       <c r="D48" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E48" s="4" t="s">
-        <v>349</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>350</v>
+      <c r="E48" s="3" t="s">
+        <v>351</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>352</v>
       </c>
     </row>
     <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13621,13 +13589,13 @@
         <v>320</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>1574</v>
       </c>
@@ -13639,39 +13607,41 @@
         <v>320</v>
       </c>
       <c r="E50" s="3" t="s">
-        <v>353</v>
+        <v>2202</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B51" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C51" s="9"/>
-      <c r="D51" s="3" t="s">
-        <v>320</v>
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B51" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C51" s="8" t="s">
+        <v>2115</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>2219</v>
+        <v>356</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>2220</v>
+        <v>357</v>
       </c>
     </row>
     <row r="52" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B52" s="8">
+      <c r="A52" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B52" s="10">
         <v>2024</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>2123</v>
+        <v>2187</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>355</v>
@@ -13684,23 +13654,23 @@
       </c>
     </row>
     <row r="53" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B53" s="10">
+      <c r="A53" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B53" s="8">
         <v>2024</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>2202</v>
+        <v>2115</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
@@ -13711,19 +13681,19 @@
         <v>2024</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>2123</v>
+        <v>2116</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="F54" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+      <c r="F54" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>166</v>
       </c>
@@ -13731,19 +13701,19 @@
         <v>2024</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>2124</v>
+        <v>2153</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>355</v>
+        <v>2071</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>2033</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2192</v>
+      </c>
+      <c r="F55" s="5" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>166</v>
       </c>
@@ -13751,16 +13721,16 @@
         <v>2024</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>2161</v>
+        <v>2101</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>2209</v>
+        <v>2059</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13771,16 +13741,16 @@
         <v>2024</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>2059</v>
+        <v>2060</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13791,16 +13761,16 @@
         <v>2024</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
       <c r="D58" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>2060</v>
+        <v>2061</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13811,16 +13781,16 @@
         <v>2024</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>2109</v>
+        <v>2120</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>2061</v>
+        <v>2062</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13831,16 +13801,16 @@
         <v>2024</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>2128</v>
+        <v>2120</v>
       </c>
       <c r="D60" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>2062</v>
+        <v>2063</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13851,16 +13821,16 @@
         <v>2024</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>2128</v>
+        <v>2120</v>
       </c>
       <c r="D61" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>2063</v>
+        <v>2064</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13871,16 +13841,16 @@
         <v>2024</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>2128</v>
+        <v>2175</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>2064</v>
+        <v>2065</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13891,16 +13861,16 @@
         <v>2024</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>2190</v>
+        <v>2175</v>
       </c>
       <c r="D63" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>2065</v>
+        <v>2066</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13911,16 +13881,16 @@
         <v>2024</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>2190</v>
+        <v>2175</v>
       </c>
       <c r="D64" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>2066</v>
+        <v>2067</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13931,16 +13901,16 @@
         <v>2024</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>2190</v>
+        <v>2175</v>
       </c>
       <c r="D65" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>2067</v>
+        <v>2176</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13951,16 +13921,16 @@
         <v>2024</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>2190</v>
+        <v>2175</v>
       </c>
       <c r="D66" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>2191</v>
+        <v>2068</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13971,19 +13941,19 @@
         <v>2024</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>2190</v>
+        <v>2153</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>2068</v>
+        <v>2069</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>166</v>
       </c>
@@ -13991,19 +13961,19 @@
         <v>2024</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="D68" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>2069</v>
+        <v>2070</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>166</v>
       </c>
@@ -14011,19 +13981,19 @@
         <v>2024</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="D69" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>2070</v>
+        <v>2072</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>166</v>
       </c>
@@ -14031,218 +14001,236 @@
         <v>2024</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>2161</v>
+        <v>2153</v>
       </c>
       <c r="D70" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>2072</v>
+        <v>2073</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>2141</v>
+        <v>2133</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A71" s="10" t="s">
-        <v>432</v>
+      <c r="A71" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B71" s="8">
         <v>2024</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>2210</v>
+        <v>2153</v>
       </c>
       <c r="D71" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>2073</v>
+        <v>2074</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A72" s="10" t="s">
-        <v>432</v>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B72" s="8">
         <v>2024</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>2210</v>
+        <v>2193</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>2074</v>
+        <v>2075</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B73" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C73" s="9"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B73" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>2193</v>
+      </c>
       <c r="D73" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>2075</v>
+        <v>2076</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A74" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B74" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C74" s="9"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B74" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>2193</v>
+      </c>
       <c r="D74" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>2076</v>
+        <v>2211</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A75" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B75" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C75" s="9"/>
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B75" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>2193</v>
+      </c>
       <c r="D75" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>2077</v>
+        <v>2210</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B76" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="E76" s="3" t="s">
-        <v>2078</v>
-      </c>
-      <c r="F76" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B76" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D76" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>2157</v>
+      </c>
+      <c r="F76" s="4" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B77" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C77" s="9"/>
-      <c r="D77" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="E77" s="3" t="s">
-        <v>2079</v>
-      </c>
-      <c r="F77" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B77" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D77" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>2158</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B78" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C78" s="9"/>
-      <c r="D78" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>2080</v>
-      </c>
-      <c r="F78" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="B78" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C78" s="8" t="s">
+        <v>2187</v>
+      </c>
+      <c r="D78" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>2159</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B79" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C79" s="9"/>
-      <c r="D79" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="E79" s="3" t="s">
-        <v>2081</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>2141</v>
+      <c r="B79" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D79" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B80" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C80" s="9"/>
-      <c r="D80" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="E80" s="3" t="s">
-        <v>2082</v>
-      </c>
-      <c r="F80" s="5" t="s">
-        <v>2141</v>
+      <c r="B80" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D80" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>2161</v>
+      </c>
+      <c r="F80" s="4" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B81" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C81" s="9"/>
-      <c r="D81" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>2175</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>2141</v>
+      <c r="B81" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>2212</v>
+      </c>
+      <c r="D81" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>2162</v>
+      </c>
+      <c r="F81" s="4" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="82" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14253,14 +14241,14 @@
         <v>2025</v>
       </c>
       <c r="C82" s="9"/>
-      <c r="D82" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="E82" s="3" t="s">
-        <v>2176</v>
-      </c>
-      <c r="F82" s="5" t="s">
-        <v>2141</v>
+      <c r="D82" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>2163</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="83" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14271,14 +14259,14 @@
         <v>2025</v>
       </c>
       <c r="C83" s="9"/>
-      <c r="D83" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="E83" s="3" t="s">
-        <v>2177</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>2141</v>
+      <c r="D83" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>2164</v>
+      </c>
+      <c r="F83" s="4" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="84" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14289,14 +14277,14 @@
         <v>2025</v>
       </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="E84" s="3" t="s">
-        <v>2178</v>
-      </c>
-      <c r="F84" s="5" t="s">
-        <v>2141</v>
+      <c r="D84" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>2165</v>
+      </c>
+      <c r="F84" s="4" t="s">
+        <v>2037</v>
       </c>
     </row>
     <row r="85" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14307,209 +14295,231 @@
         <v>2025</v>
       </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="4" t="s">
-        <v>2071</v>
-      </c>
-      <c r="E85" s="3" t="s">
-        <v>2179</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B86" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C86" s="9"/>
-      <c r="D86" s="4" t="s">
-        <v>2071</v>
+      <c r="D85" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>2166</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B86" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C86" s="8" t="s">
+        <v>2117</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>326</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>2180</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>2141</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B87" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C87" s="9"/>
+        <v>2039</v>
+      </c>
+      <c r="F86" s="4" t="s">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B87" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C87" s="8" t="s">
+        <v>2118</v>
+      </c>
       <c r="D87" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>2165</v>
+        <v>327</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B88" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C88" s="9"/>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B88" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C88" s="8" t="s">
+        <v>2119</v>
+      </c>
       <c r="D88" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2166</v>
+        <v>2078</v>
       </c>
       <c r="F88" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="89" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B89" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C89" s="9"/>
+    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B89" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C89" s="8" t="s">
+        <v>2119</v>
+      </c>
       <c r="D89" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>2167</v>
+        <v>2079</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="90" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B90" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C90" s="9"/>
+    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B90" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C90" s="8" t="s">
+        <v>2101</v>
+      </c>
       <c r="D90" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>2168</v>
+        <v>2105</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="91" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B91" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C91" s="9"/>
+    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>2101</v>
+      </c>
       <c r="D91" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>2169</v>
+        <v>2106</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="92" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B92" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C92" s="9"/>
+    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B92" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C92" s="8" t="s">
+        <v>2101</v>
+      </c>
       <c r="D92" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>2170</v>
+        <v>2107</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="93" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B93" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C93" s="9"/>
+    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B93" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>2101</v>
+      </c>
       <c r="D93" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>2171</v>
+        <v>2108</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="94" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B94" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C94" s="9"/>
+    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B94" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>2101</v>
+      </c>
       <c r="D94" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>2172</v>
+        <v>2109</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="95" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B95" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C95" s="9"/>
+    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B95" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C95" s="8" t="s">
+        <v>2101</v>
+      </c>
       <c r="D95" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>2173</v>
+        <v>2126</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="96" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B96" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C96" s="9"/>
+    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B96" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C96" s="8" t="s">
+        <v>2101</v>
+      </c>
       <c r="D96" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>2174</v>
+        <v>2110</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>2037</v>
@@ -14523,16 +14533,16 @@
         <v>2024</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>2125</v>
+        <v>2101</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E97" s="3" t="s">
-        <v>2039</v>
+      <c r="E97" s="4" t="s">
+        <v>2111</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>2040</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14543,16 +14553,16 @@
         <v>2024</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>2126</v>
+        <v>2101</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>327</v>
+        <v>2127</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>328</v>
+        <v>2037</v>
       </c>
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14563,13 +14573,13 @@
         <v>2024</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>2086</v>
+        <v>2112</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>2037</v>
@@ -14583,13 +14593,13 @@
         <v>2024</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>2127</v>
+        <v>2120</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>2087</v>
+        <v>2113</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>2037</v>
@@ -14603,19 +14613,19 @@
         <v>2024</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>2113</v>
+        <v>2128</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>166</v>
       </c>
@@ -14623,7 +14633,7 @@
         <v>2024</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>2109</v>
+        <v>2101</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>326</v>
@@ -14643,13 +14653,13 @@
         <v>2024</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2109</v>
+        <v>2120</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>2115</v>
+        <v>2144</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>2037</v>
@@ -14663,13 +14673,13 @@
         <v>2024</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>2109</v>
+        <v>2120</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>2116</v>
+        <v>2145</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>2037</v>
@@ -14683,13 +14693,13 @@
         <v>2024</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>2109</v>
+        <v>2175</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>2117</v>
+        <v>2146</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>2037</v>
@@ -14703,13 +14713,13 @@
         <v>2024</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>2109</v>
+        <v>2175</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>2134</v>
+        <v>2177</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>2037</v>
@@ -14723,13 +14733,13 @@
         <v>2024</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>2109</v>
+        <v>2175</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>2118</v>
+        <v>2178</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>2037</v>
@@ -14743,13 +14753,13 @@
         <v>2024</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>2109</v>
+        <v>2153</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>2119</v>
+        <v>2209</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>2037</v>
@@ -14763,19 +14773,19 @@
         <v>2024</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>2109</v>
+        <v>2153</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>2135</v>
+        <v>2208</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A110" s="8" t="s">
         <v>166</v>
       </c>
@@ -14783,19 +14793,19 @@
         <v>2024</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>2128</v>
+        <v>2193</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>2120</v>
+        <v>2214</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A111" s="8" t="s">
         <v>166</v>
       </c>
@@ -14803,179 +14813,167 @@
         <v>2024</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>2128</v>
+        <v>2193</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>2121</v>
+        <v>2213</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A112" s="8" t="s">
-        <v>166</v>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>1574</v>
       </c>
       <c r="B112" s="8">
         <v>2024</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>2109</v>
+        <v>2193</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>2136</v>
+        <v>2167</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="113" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="s">
-        <v>166</v>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>1574</v>
       </c>
       <c r="B113" s="8">
         <v>2024</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>2109</v>
+        <v>2193</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2122</v>
+        <v>2168</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A114" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B114" s="8">
+      <c r="A114" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B114" s="9">
         <v>2024</v>
       </c>
-      <c r="C114" s="8" t="s">
-        <v>2128</v>
-      </c>
+      <c r="C114" s="9"/>
       <c r="D114" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2152</v>
+        <v>2169</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B115" s="8">
+      <c r="A115" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B115" s="9">
         <v>2024</v>
       </c>
-      <c r="C115" s="8" t="s">
-        <v>2128</v>
-      </c>
+      <c r="C115" s="9"/>
       <c r="D115" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2153</v>
+        <v>2170</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A116" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B116" s="8">
+      <c r="A116" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B116" s="9">
         <v>2024</v>
       </c>
-      <c r="C116" s="8" t="s">
-        <v>2190</v>
-      </c>
+      <c r="C116" s="9"/>
       <c r="D116" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2154</v>
+        <v>2171</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B117" s="8">
+      <c r="A117" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B117" s="9">
         <v>2024</v>
       </c>
-      <c r="C117" s="8" t="s">
-        <v>2190</v>
-      </c>
+      <c r="C117" s="9"/>
       <c r="D117" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2192</v>
+        <v>2172</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A118" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B118" s="8">
+      <c r="A118" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B118" s="9">
         <v>2024</v>
       </c>
-      <c r="C118" s="8" t="s">
-        <v>2190</v>
-      </c>
+      <c r="C118" s="9"/>
       <c r="D118" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>2193</v>
+        <v>2173</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B119" s="8">
+    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B119" s="9">
         <v>2024</v>
       </c>
-      <c r="C119" s="8" t="s">
-        <v>2161</v>
-      </c>
+      <c r="C119" s="9"/>
       <c r="D119" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2226</v>
+        <v>2174</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A120" s="8" t="s">
         <v>166</v>
       </c>
@@ -14983,153 +14981,153 @@
         <v>2024</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>2161</v>
+        <v>2121</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>2225</v>
+        <v>1917</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="10" t="s">
-        <v>432</v>
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B121" s="8">
         <v>2024</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>2210</v>
+        <v>2122</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F121" s="4" t="s">
-        <v>2037</v>
+        <v>329</v>
+      </c>
+      <c r="F121" s="5" t="s">
+        <v>330</v>
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A122" s="10" t="s">
-        <v>432</v>
+      <c r="A122" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B122" s="8">
         <v>2024</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>2210</v>
+        <v>2092</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E122" s="4" t="s">
-        <v>2083</v>
-      </c>
-      <c r="F122" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A123" s="10" t="s">
-        <v>432</v>
+      <c r="E122" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="F122" s="4"/>
+    </row>
+    <row r="123" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B123" s="8">
         <v>2024</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>2210</v>
+        <v>2123</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>2084</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>2037</v>
+        <v>1909</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>367</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>368</v>
       </c>
     </row>
     <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A124" s="10" t="s">
-        <v>432</v>
+      <c r="A124" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B124" s="8">
         <v>2024</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>2210</v>
+        <v>2121</v>
       </c>
       <c r="D124" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E124" s="4" t="s">
-        <v>2181</v>
-      </c>
-      <c r="F124" s="4" t="s">
-        <v>2037</v>
-      </c>
+        <v>1909</v>
+      </c>
+      <c r="E124" s="3" t="s">
+        <v>1910</v>
+      </c>
+      <c r="F124" s="3"/>
     </row>
     <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A125" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B125" s="9">
+      <c r="A125" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B125" s="8">
         <v>2024</v>
       </c>
-      <c r="C125" s="9"/>
+      <c r="C125" s="8" t="s">
+        <v>2121</v>
+      </c>
       <c r="D125" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E125" s="4" t="s">
-        <v>2182</v>
-      </c>
-      <c r="F125" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A126" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B126" s="9">
+        <v>1909</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>1915</v>
+      </c>
+      <c r="F125" s="3"/>
+    </row>
+    <row r="126" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B126" s="8">
         <v>2024</v>
       </c>
-      <c r="C126" s="9"/>
+      <c r="C126" s="8" t="s">
+        <v>2124</v>
+      </c>
       <c r="D126" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E126" s="4" t="s">
-        <v>2183</v>
+        <v>1977</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>332</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>2037</v>
+        <v>333</v>
       </c>
     </row>
     <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A127" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B127" s="9">
+      <c r="A127" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B127" s="8">
         <v>2024</v>
       </c>
-      <c r="C127" s="9"/>
+      <c r="C127" s="8" t="s">
+        <v>2125</v>
+      </c>
       <c r="D127" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E127" s="4" t="s">
-        <v>2184</v>
-      </c>
-      <c r="F127" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1977</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>334</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A128" s="9" t="s">
         <v>1574</v>
       </c>
@@ -15138,88 +15136,92 @@
       </c>
       <c r="C128" s="9"/>
       <c r="D128" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>2185</v>
+        <v>1977</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>336</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>1574</v>
       </c>
       <c r="B129" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E129" s="4" t="s">
-        <v>2186</v>
-      </c>
-      <c r="F129" s="4" t="s">
-        <v>2037</v>
+        <v>1977</v>
+      </c>
+      <c r="E129" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="F129" s="3" t="s">
+        <v>339</v>
       </c>
     </row>
     <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B130" s="9">
+      <c r="A130" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B130" s="8">
         <v>2024</v>
       </c>
-      <c r="C130" s="9"/>
+      <c r="C130" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D130" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E130" s="4" t="s">
-        <v>2187</v>
-      </c>
-      <c r="F130" s="4" t="s">
-        <v>2037</v>
-      </c>
+        <v>1573</v>
+      </c>
+      <c r="E130" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F130" s="4"/>
     </row>
     <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A131" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B131" s="9">
+      <c r="A131" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B131" s="8">
         <v>2024</v>
       </c>
-      <c r="C131" s="9"/>
+      <c r="C131" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D131" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E131" s="4" t="s">
-        <v>2188</v>
-      </c>
-      <c r="F131" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A132" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B132" s="9">
+        <v>1573</v>
+      </c>
+      <c r="E131" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F131" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B132" s="8">
         <v>2024</v>
       </c>
-      <c r="C132" s="9"/>
+      <c r="C132" s="8" t="s">
+        <v>2129</v>
+      </c>
       <c r="D132" s="3" t="s">
-        <v>326</v>
+        <v>1573</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>2189</v>
+        <v>345</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>166</v>
       </c>
@@ -15227,19 +15229,19 @@
         <v>2024</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>2129</v>
+        <v>2130</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E133" s="4" t="s">
-        <v>1917</v>
-      </c>
-      <c r="F133" s="4" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>360</v>
+      </c>
+      <c r="E133" s="3" t="s">
+        <v>361</v>
+      </c>
+      <c r="F133" s="3" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>166</v>
       </c>
@@ -15247,16 +15249,16 @@
         <v>2024</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>2130</v>
+        <v>2093</v>
       </c>
       <c r="D134" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E134" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F134" s="5" t="s">
-        <v>330</v>
+        <v>360</v>
+      </c>
+      <c r="E134" s="3" t="s">
+        <v>363</v>
+      </c>
+      <c r="F134" s="3" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15267,17 +15269,19 @@
         <v>2024</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>2100</v>
+        <v>2118</v>
       </c>
       <c r="D135" s="3" t="s">
-        <v>326</v>
+        <v>360</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F135" s="4"/>
-    </row>
-    <row r="136" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>365</v>
+      </c>
+      <c r="F135" s="3" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>166</v>
       </c>
@@ -15288,13 +15292,13 @@
         <v>2131</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>1909</v>
+        <v>360</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>367</v>
+        <v>1918</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>368</v>
+        <v>1919</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15305,108 +15309,106 @@
         <v>2024</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>2129</v>
+        <v>2120</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>1909</v>
+        <v>2151</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>1910</v>
+        <v>2152</v>
       </c>
       <c r="F137" s="3"/>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A138" s="8" t="s">
-        <v>166</v>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="B138" s="8">
         <v>2024</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>2129</v>
+        <v>2193</v>
       </c>
       <c r="D138" s="3" t="s">
-        <v>1909</v>
+        <v>2151</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>1915</v>
+        <v>2154</v>
       </c>
       <c r="F138" s="3"/>
     </row>
-    <row r="139" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="s">
-        <v>166</v>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="B139" s="8">
         <v>2024</v>
       </c>
       <c r="C139" s="8" t="s">
-        <v>2132</v>
+        <v>2193</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>1977</v>
+        <v>2194</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A140" s="8" t="s">
-        <v>166</v>
+        <v>2156</v>
+      </c>
+      <c r="F139" s="3"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="B140" s="8">
         <v>2024</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>2133</v>
+        <v>2193</v>
       </c>
       <c r="D140" s="3" t="s">
-        <v>1977</v>
+        <v>2194</v>
       </c>
       <c r="E140" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F140" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2155</v>
+      </c>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>1574</v>
       </c>
       <c r="B141" s="9">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C141" s="9"/>
       <c r="D141" s="3" t="s">
-        <v>1977</v>
+        <v>369</v>
       </c>
       <c r="E141" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F141" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B142" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C142" s="9"/>
+        <v>370</v>
+      </c>
+      <c r="F141" s="3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B142" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C142" s="8" t="s">
+        <v>2132</v>
+      </c>
       <c r="D142" s="3" t="s">
-        <v>1977</v>
-      </c>
-      <c r="E142" s="6" t="s">
-        <v>338</v>
+        <v>372</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>373</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>339</v>
+        <v>1594</v>
       </c>
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15417,279 +15419,134 @@
         <v>2024</v>
       </c>
       <c r="C143" s="8" t="s">
-        <v>2137</v>
+        <v>2099</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>1573</v>
+        <v>1590</v>
       </c>
       <c r="E143" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F143" s="4"/>
-    </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A144" s="8" t="s">
-        <v>166</v>
+        <v>1592</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>1593</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="10" t="s">
+        <v>432</v>
       </c>
       <c r="B144" s="8">
         <v>2024</v>
       </c>
       <c r="C144" s="8" t="s">
-        <v>2137</v>
+        <v>2193</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E144" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F144" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B145" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C145" s="8" t="s">
-        <v>2137</v>
-      </c>
-      <c r="D145" s="3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E145" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A146" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B146" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C146" s="8" t="s">
-        <v>2138</v>
-      </c>
-      <c r="D146" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E146" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F146" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B147" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C147" s="8" t="s">
-        <v>2101</v>
-      </c>
-      <c r="D147" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E147" s="3" t="s">
-        <v>363</v>
-      </c>
-      <c r="F147" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A148" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B148" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C148" s="8" t="s">
-        <v>2126</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B149" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C149" s="8" t="s">
-        <v>2139</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>1918</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A150" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B150" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C150" s="8" t="s">
-        <v>2128</v>
-      </c>
-      <c r="D150" s="3" t="s">
-        <v>2159</v>
-      </c>
-      <c r="E150" s="3" t="s">
-        <v>2160</v>
-      </c>
+        <v>2194</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+      <c r="E146" s="3"/>
+      <c r="F146" s="3"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+      <c r="B147" s="166"/>
+      <c r="D147" s="3"/>
+      <c r="E147" s="3"/>
+      <c r="F147" s="3"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+      <c r="E148" s="3"/>
+      <c r="F148" s="3"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
+      <c r="F149" s="3"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+      <c r="E150" s="3"/>
       <c r="F150" s="3"/>
     </row>
-    <row r="151" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A151" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B151" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C151" s="8" t="s">
-        <v>2210</v>
-      </c>
-      <c r="D151" s="3" t="s">
-        <v>2159</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>2162</v>
-      </c>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+      <c r="E151" s="3"/>
       <c r="F151" s="3"/>
     </row>
-    <row r="152" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A152" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B152" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C152" s="8" t="s">
-        <v>2210</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>2211</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>2164</v>
-      </c>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+      <c r="E152" s="3"/>
       <c r="F152" s="3"/>
     </row>
-    <row r="153" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A153" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B153" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C153" s="8" t="s">
-        <v>2210</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>2211</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>2163</v>
-      </c>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+      <c r="E153" s="3"/>
       <c r="F153" s="3"/>
     </row>
-    <row r="154" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A154" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B154" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C154" s="9"/>
-      <c r="D154" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="E154" s="3" t="s">
-        <v>370</v>
-      </c>
-      <c r="F154" s="3" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B155" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C155" s="8" t="s">
-        <v>2140</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B156" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C156" s="8" t="s">
-        <v>2107</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>1590</v>
-      </c>
-      <c r="E156" s="3" t="s">
-        <v>1592</v>
-      </c>
-      <c r="F156" s="3" t="s">
-        <v>1593</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A157" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B157" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C157" s="8" t="s">
-        <v>2210</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>2211</v>
-      </c>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+      <c r="E154" s="3"/>
+      <c r="F154" s="3"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+      <c r="E155" s="3"/>
+      <c r="F155" s="3"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
     </row>
@@ -15711,7 +15568,8 @@
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A160" s="3"/>
-      <c r="B160" s="166"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
       <c r="D160" s="3"/>
       <c r="E160" s="3"/>
       <c r="F160" s="3"/>
@@ -16108,128 +15966,24 @@
       <c r="E209" s="3"/>
       <c r="F209" s="3"/>
     </row>
-    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A210" s="3"/>
-      <c r="B210" s="3"/>
-      <c r="C210" s="3"/>
-      <c r="D210" s="3"/>
-      <c r="E210" s="3"/>
-      <c r="F210" s="3"/>
-    </row>
-    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
-      <c r="B211" s="3"/>
-      <c r="C211" s="3"/>
-      <c r="D211" s="3"/>
-      <c r="E211" s="3"/>
-      <c r="F211" s="3"/>
-    </row>
-    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
-      <c r="B212" s="3"/>
-      <c r="C212" s="3"/>
-      <c r="D212" s="3"/>
-      <c r="E212" s="3"/>
-      <c r="F212" s="3"/>
-    </row>
-    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
-      <c r="B213" s="3"/>
-      <c r="C213" s="3"/>
-      <c r="D213" s="3"/>
-      <c r="E213" s="3"/>
-      <c r="F213" s="3"/>
-    </row>
-    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-      <c r="B214" s="3"/>
-      <c r="C214" s="3"/>
-      <c r="D214" s="3"/>
-      <c r="E214" s="3"/>
-      <c r="F214" s="3"/>
-    </row>
-    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A215" s="3"/>
-      <c r="B215" s="3"/>
-      <c r="C215" s="3"/>
-      <c r="D215" s="3"/>
-      <c r="E215" s="3"/>
-      <c r="F215" s="3"/>
-    </row>
-    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-      <c r="B216" s="3"/>
-      <c r="C216" s="3"/>
-      <c r="D216" s="3"/>
-      <c r="E216" s="3"/>
-      <c r="F216" s="3"/>
-    </row>
-    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-      <c r="B217" s="3"/>
-      <c r="C217" s="3"/>
-      <c r="D217" s="3"/>
-      <c r="E217" s="3"/>
-      <c r="F217" s="3"/>
-    </row>
-    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-      <c r="B218" s="3"/>
-      <c r="C218" s="3"/>
-      <c r="D218" s="3"/>
-      <c r="E218" s="3"/>
-      <c r="F218" s="3"/>
-    </row>
-    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
-      <c r="B219" s="3"/>
-      <c r="C219" s="3"/>
-      <c r="D219" s="3"/>
-      <c r="E219" s="3"/>
-      <c r="F219" s="3"/>
-    </row>
-    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
-      <c r="B220" s="3"/>
-      <c r="C220" s="3"/>
-      <c r="D220" s="3"/>
-      <c r="E220" s="3"/>
-      <c r="F220" s="3"/>
-    </row>
-    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-      <c r="B221" s="3"/>
-      <c r="C221" s="3"/>
-      <c r="D221" s="3"/>
-      <c r="E221" s="3"/>
-      <c r="F221" s="3"/>
-    </row>
-    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-      <c r="B222" s="3"/>
-      <c r="C222" s="3"/>
-      <c r="D222" s="3"/>
-      <c r="E222" s="3"/>
-      <c r="F222" s="3"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:F157" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
+  <autoFilter ref="A1:F144" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
     <filterColumn colId="2">
       <filters>
-        <filter val="Week48"/>
+        <filter val="Week49"/>
       </filters>
     </filterColumn>
   </autoFilter>
   <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F134" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
-    <hyperlink ref="F144" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
-    <hyperlink ref="F140" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
-    <hyperlink ref="F154" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
-    <hyperlink ref="F38" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
-    <hyperlink ref="F62" r:id="rId6" xr:uid="{6939D5E8-A309-4950-8CD8-704888943397}"/>
-    <hyperlink ref="F68" r:id="rId7" xr:uid="{662A6303-39B9-4ED1-90EC-0F10CC349E75}"/>
-    <hyperlink ref="F69" r:id="rId8" xr:uid="{C863D711-944D-4130-95B3-8E5863486A1C}"/>
+    <hyperlink ref="F121" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
+    <hyperlink ref="F131" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
+    <hyperlink ref="F127" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
+    <hyperlink ref="F141" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
+    <hyperlink ref="F37" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
+    <hyperlink ref="F61" r:id="rId6" xr:uid="{6939D5E8-A309-4950-8CD8-704888943397}"/>
+    <hyperlink ref="F67" r:id="rId7" xr:uid="{662A6303-39B9-4ED1-90EC-0F10CC349E75}"/>
+    <hyperlink ref="F68" r:id="rId8" xr:uid="{C863D711-944D-4130-95B3-8E5863486A1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -23533,7 +23287,7 @@
         <v>0.66666666666666663</v>
       </c>
       <c r="J296" s="117" t="s">
-        <v>2142</v>
+        <v>2134</v>
       </c>
       <c r="K296" s="114"/>
     </row>
@@ -23713,7 +23467,7 @@
       </c>
       <c r="J303" s="117"/>
       <c r="K303" s="131" t="s">
-        <v>2143</v>
+        <v>2135</v>
       </c>
     </row>
     <row r="304" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37411,7 +37165,7 @@
         <v>1950</v>
       </c>
       <c r="H39" s="126" t="s">
-        <v>2112</v>
+        <v>2104</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -37459,10 +37213,10 @@
         <v>2</v>
       </c>
       <c r="F41" s="126" t="s">
-        <v>2110</v>
+        <v>2102</v>
       </c>
       <c r="G41" s="126" t="s">
-        <v>2111</v>
+        <v>2103</v>
       </c>
       <c r="H41" s="126"/>
     </row>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3D97EFA-3A13-4EA3-B585-ED5F9659A4C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B930838B-FB64-4936-A645-0DD2719D00DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="3" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -25,7 +25,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'B&amp;P Active Studies'!$A$1:$F$550</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$M$335</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$143</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$144</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Study!$A$1:$L$84</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -140,7 +140,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6204" uniqueCount="2216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6209" uniqueCount="2217">
   <si>
     <t>Phase</t>
   </si>
@@ -6861,6 +6861,9 @@
   </si>
   <si>
     <t>Weekday</t>
+  </si>
+  <si>
+    <t>2024.12_Clinical Trial Design | 2024's most popular topics</t>
   </si>
 </sst>
 </file>
@@ -8237,18 +8240,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -8260,7 +8254,16 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -9204,8 +9207,8 @@
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F8" sqref="F8"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9224,12 +9227,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="173" t="s">
+      <c r="A1" s="170" t="s">
         <v>1581</v>
       </c>
-      <c r="B1" s="174"/>
-      <c r="C1" s="174"/>
-      <c r="D1" s="174"/>
+      <c r="B1" s="171"/>
+      <c r="C1" s="171"/>
+      <c r="D1" s="171"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="65"/>
@@ -9238,35 +9241,35 @@
       <c r="A3" s="67" t="s">
         <v>1575</v>
       </c>
-      <c r="B3" s="175">
+      <c r="B3" s="172">
         <v>45520</v>
       </c>
-      <c r="C3" s="175"/>
-      <c r="D3" s="175"/>
+      <c r="C3" s="172"/>
+      <c r="D3" s="172"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="172" t="s">
+      <c r="A5" s="173" t="s">
         <v>1577</v>
       </c>
-      <c r="B5" s="172"/>
-      <c r="C5" s="172"/>
-      <c r="D5" s="172"/>
+      <c r="B5" s="173"/>
+      <c r="C5" s="173"/>
+      <c r="D5" s="173"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
+      <c r="A6" s="174"/>
+      <c r="B6" s="174"/>
+      <c r="C6" s="174"/>
+      <c r="D6" s="174"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="76" t="s">
         <v>1578</v>
       </c>
-      <c r="B7" s="170" t="s">
+      <c r="B7" s="168" t="s">
         <v>1579</v>
       </c>
-      <c r="C7" s="170"/>
-      <c r="D7" s="170"/>
+      <c r="C7" s="168"/>
+      <c r="D7" s="168"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="78">
@@ -9334,12 +9337,12 @@
       <c r="A13" s="76" t="s">
         <v>1582</v>
       </c>
-      <c r="B13" s="170">
+      <c r="B13" s="168">
         <f>COUNTA(Study!A$2:A$1005)</f>
         <v>84</v>
       </c>
-      <c r="C13" s="170"/>
-      <c r="D13" s="170"/>
+      <c r="C13" s="168"/>
+      <c r="D13" s="168"/>
       <c r="G13" s="69"/>
       <c r="H13" s="69"/>
       <c r="I13" s="70"/>
@@ -9351,12 +9354,12 @@
       <c r="A14" s="76" t="s">
         <v>165</v>
       </c>
-      <c r="B14" s="170">
+      <c r="B14" s="168">
         <f>COUNTIF(Study!D$1:D$1005,"Y")</f>
         <v>35</v>
       </c>
-      <c r="C14" s="170"/>
-      <c r="D14" s="170"/>
+      <c r="C14" s="168"/>
+      <c r="D14" s="168"/>
       <c r="G14" s="69"/>
       <c r="H14" s="69"/>
       <c r="I14" s="70"/>
@@ -9366,9 +9369,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="75"/>
-      <c r="B15" s="171"/>
-      <c r="C15" s="171"/>
-      <c r="D15" s="171"/>
+      <c r="B15" s="176"/>
+      <c r="C15" s="176"/>
+      <c r="D15" s="176"/>
       <c r="G15" s="69"/>
       <c r="H15" s="69"/>
       <c r="I15" s="70"/>
@@ -9380,11 +9383,11 @@
       <c r="A16" s="76" t="s">
         <v>1580</v>
       </c>
-      <c r="B16" s="170" t="s">
+      <c r="B16" s="168" t="s">
         <v>1579</v>
       </c>
-      <c r="C16" s="170"/>
-      <c r="D16" s="170"/>
+      <c r="C16" s="168"/>
+      <c r="D16" s="168"/>
       <c r="G16" s="69"/>
       <c r="H16" s="69"/>
       <c r="I16" s="70"/>
@@ -9546,12 +9549,12 @@
       <c r="L26" s="70"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="172" t="s">
+      <c r="A27" s="173" t="s">
         <v>1587</v>
       </c>
-      <c r="B27" s="172"/>
-      <c r="C27" s="172"/>
-      <c r="D27" s="172"/>
+      <c r="B27" s="173"/>
+      <c r="C27" s="173"/>
+      <c r="D27" s="173"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="72"/>
@@ -9564,11 +9567,11 @@
       <c r="A29" s="76" t="s">
         <v>1588</v>
       </c>
-      <c r="B29" s="170" t="s">
+      <c r="B29" s="168" t="s">
         <v>1579</v>
       </c>
-      <c r="C29" s="170"/>
-      <c r="D29" s="170"/>
+      <c r="C29" s="168"/>
+      <c r="D29" s="168"/>
       <c r="L29" s="70"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -9576,8 +9579,8 @@
         <v>1987</v>
       </c>
       <c r="B30" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1088, "*Y*")</f>
-        <v>107</v>
+        <f>COUNTIF('Reading Plan'!A$2:A$1089, "*Y*")</f>
+        <v>108</v>
       </c>
       <c r="C30" s="169"/>
       <c r="D30" s="169"/>
@@ -9588,7 +9591,7 @@
         <v>1556</v>
       </c>
       <c r="B31" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1088, "N")</f>
+        <f>COUNTIF('Reading Plan'!A$2:A$1089, "N")</f>
         <v>29</v>
       </c>
       <c r="C31" s="169"/>
@@ -9600,7 +9603,7 @@
         <v>432</v>
       </c>
       <c r="B32" s="169">
-        <f>COUNTIF('Reading Plan'!A$2:A$1088, "*Ongoing*")</f>
+        <f>COUNTIF('Reading Plan'!A$2:A$1089, "*Ongoing*")</f>
         <v>6</v>
       </c>
       <c r="C32" s="169"/>
@@ -9622,29 +9625,21 @@
       <c r="L34" s="70"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="168" t="s">
+      <c r="A36" s="175" t="s">
         <v>1589</v>
       </c>
-      <c r="B36" s="168"/>
-      <c r="C36" s="168"/>
-      <c r="D36" s="168"/>
+      <c r="B36" s="175"/>
+      <c r="C36" s="175"/>
+      <c r="D36" s="175"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="168"/>
-      <c r="B37" s="168"/>
-      <c r="C37" s="168"/>
-      <c r="D37" s="168"/>
+      <c r="A37" s="175"/>
+      <c r="B37" s="175"/>
+      <c r="C37" s="175"/>
+      <c r="D37" s="175"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -9661,6 +9656,14 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -12612,12 +12615,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:F208"/>
+  <dimension ref="A1:F209"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A144" sqref="A144:XFD144"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A21" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12650,7 +12652,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="2" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>166</v>
       </c>
@@ -12670,7 +12672,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>166</v>
       </c>
@@ -12690,7 +12692,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
         <v>166</v>
       </c>
@@ -12710,7 +12712,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="5" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>166</v>
       </c>
@@ -12730,7 +12732,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>166</v>
       </c>
@@ -12750,7 +12752,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="7" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
         <v>166</v>
       </c>
@@ -12770,7 +12772,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="8" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>166</v>
       </c>
@@ -12790,7 +12792,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="9" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
         <v>166</v>
       </c>
@@ -12810,7 +12812,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>166</v>
       </c>
@@ -12830,7 +12832,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
         <v>166</v>
       </c>
@@ -12850,7 +12852,7 @@
         <v>2205</v>
       </c>
     </row>
-    <row r="12" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
         <v>166</v>
       </c>
@@ -12870,7 +12872,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>166</v>
       </c>
@@ -12890,7 +12892,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>166</v>
       </c>
@@ -12910,7 +12912,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>166</v>
       </c>
@@ -12930,7 +12932,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>166</v>
       </c>
@@ -12950,7 +12952,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>166</v>
       </c>
@@ -12970,7 +12972,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>166</v>
       </c>
@@ -12990,7 +12992,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>166</v>
       </c>
@@ -13010,7 +13012,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>166</v>
       </c>
@@ -13030,7 +13032,7 @@
         <v>2040</v>
       </c>
     </row>
-    <row r="21" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>166</v>
       </c>
@@ -13050,7 +13052,7 @@
         <v>2180</v>
       </c>
     </row>
-    <row r="22" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>166</v>
       </c>
@@ -13110,7 +13112,7 @@
         <v>2191</v>
       </c>
     </row>
-    <row r="25" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>166</v>
       </c>
@@ -13130,7 +13132,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="26" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>166</v>
       </c>
@@ -13150,7 +13152,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="27" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>166</v>
       </c>
@@ -13170,7 +13172,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="28" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>166</v>
       </c>
@@ -13190,7 +13192,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="29" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>166</v>
       </c>
@@ -13210,7 +13212,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="30" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>166</v>
       </c>
@@ -13230,7 +13232,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="31" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>166</v>
       </c>
@@ -13250,7 +13252,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="32" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>166</v>
       </c>
@@ -13270,7 +13272,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="33" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>166</v>
       </c>
@@ -13290,7 +13292,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>166</v>
       </c>
@@ -13310,7 +13312,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="35" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>166</v>
       </c>
@@ -13330,7 +13332,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="36" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>166</v>
       </c>
@@ -13338,19 +13340,19 @@
         <v>2024</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>2117</v>
+        <v>2193</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>320</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>2032</v>
+        <v>1988</v>
+      </c>
+      <c r="E36" s="4" t="s">
+        <v>2216</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>2031</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>166</v>
       </c>
@@ -13358,19 +13360,19 @@
         <v>2024</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>2186</v>
+        <v>2117</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E37" s="4" t="s">
-        <v>1598</v>
-      </c>
-      <c r="F37" s="5" t="s">
-        <v>1599</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E37" s="3" t="s">
+        <v>2032</v>
+      </c>
+      <c r="F37" s="3" t="s">
+        <v>2031</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>166</v>
       </c>
@@ -13378,19 +13380,19 @@
         <v>2024</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>2118</v>
+        <v>2186</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E38" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1598</v>
+      </c>
+      <c r="F38" s="5" t="s">
+        <v>1599</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>166</v>
       </c>
@@ -13404,31 +13406,33 @@
         <v>320</v>
       </c>
       <c r="E39" s="4" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F39" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="40" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B40" s="9">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B40" s="8">
         <v>2024</v>
       </c>
-      <c r="C40" s="9"/>
+      <c r="C40" s="8" t="s">
+        <v>2118</v>
+      </c>
       <c r="D40" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E40" s="4" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="F40" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="41" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>1574</v>
       </c>
@@ -13440,33 +13444,31 @@
         <v>320</v>
       </c>
       <c r="E41" s="4" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="F41" s="4" t="s">
         <v>322</v>
       </c>
     </row>
-    <row r="42" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B42" s="8">
+    <row r="42" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B42" s="9">
         <v>2024</v>
       </c>
-      <c r="C42" s="8" t="s">
-        <v>2099</v>
-      </c>
+      <c r="C42" s="9"/>
       <c r="D42" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>1572</v>
+        <v>325</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>2036</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>166</v>
       </c>
@@ -13474,77 +13476,79 @@
         <v>2024</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>2186</v>
+        <v>2099</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E43" s="4" t="s">
-        <v>2034</v>
+        <v>1572</v>
       </c>
       <c r="F43" s="4" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="44" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B44" s="9">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B44" s="8">
         <v>2024</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>2187</v>
+        <v>2186</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>2035</v>
+        <v>2034</v>
       </c>
       <c r="F44" s="4" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="45" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B45" s="8">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B45" s="9">
         <v>2024</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>2183</v>
+        <v>2187</v>
       </c>
       <c r="D45" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>2038</v>
+        <v>2035</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>2036</v>
       </c>
     </row>
-    <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B46" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C46" s="9"/>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B46" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C46" s="8" t="s">
+        <v>2183</v>
+      </c>
       <c r="D46" s="3" t="s">
         <v>320</v>
       </c>
       <c r="E46" s="4" t="s">
-        <v>347</v>
+        <v>2038</v>
       </c>
       <c r="F46" s="4" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>2036</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" s="9" t="s">
         <v>1574</v>
       </c>
@@ -13556,13 +13560,13 @@
         <v>320</v>
       </c>
       <c r="E47" s="4" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="F47" s="4" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="9" t="s">
         <v>1574</v>
       </c>
@@ -13573,14 +13577,14 @@
       <c r="D48" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="E48" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="F48" s="3" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E48" s="4" t="s">
+        <v>349</v>
+      </c>
+      <c r="F48" s="4" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" s="9" t="s">
         <v>1574</v>
       </c>
@@ -13592,13 +13596,13 @@
         <v>320</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" s="9" t="s">
         <v>1574</v>
       </c>
@@ -13610,41 +13614,39 @@
         <v>320</v>
       </c>
       <c r="E50" s="3" t="s">
+        <v>353</v>
+      </c>
+      <c r="F50" s="3" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B51" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C51" s="9"/>
+      <c r="D51" s="3" t="s">
+        <v>320</v>
+      </c>
+      <c r="E51" s="3" t="s">
         <v>2202</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F51" s="3" t="s">
         <v>2203</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="8" t="s">
+    <row r="52" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A52" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="B51" s="8">
+      <c r="B52" s="8">
         <v>2024</v>
       </c>
-      <c r="C51" s="8" t="s">
+      <c r="C52" s="8" t="s">
         <v>2115</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="E51" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="F51" s="3" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="B52" s="10">
-        <v>2024</v>
-      </c>
-      <c r="C52" s="8" t="s">
-        <v>2187</v>
       </c>
       <c r="D52" s="4" t="s">
         <v>355</v>
@@ -13656,27 +13658,27 @@
         <v>357</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B53" s="8">
+    <row r="53" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A53" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B53" s="10">
         <v>2024</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>2115</v>
+        <v>2187</v>
       </c>
       <c r="D53" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>166</v>
       </c>
@@ -13684,19 +13686,19 @@
         <v>2024</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>2116</v>
+        <v>2115</v>
       </c>
       <c r="D54" s="4" t="s">
         <v>355</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>2033</v>
-      </c>
-      <c r="F54" s="4" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>358</v>
+      </c>
+      <c r="F54" s="3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>166</v>
       </c>
@@ -13704,19 +13706,19 @@
         <v>2024</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>2153</v>
+        <v>2116</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>2071</v>
+        <v>355</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>2192</v>
-      </c>
-      <c r="F55" s="5" t="s">
-        <v>2133</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>2033</v>
+      </c>
+      <c r="F55" s="4" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>166</v>
       </c>
@@ -13724,19 +13726,19 @@
         <v>2024</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>2101</v>
+        <v>2153</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>2059</v>
+        <v>2192</v>
       </c>
       <c r="F56" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="57" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>166</v>
       </c>
@@ -13750,13 +13752,13 @@
         <v>2071</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>2060</v>
+        <v>2059</v>
       </c>
       <c r="F57" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="58" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>166</v>
       </c>
@@ -13770,13 +13772,13 @@
         <v>2071</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>2061</v>
+        <v>2060</v>
       </c>
       <c r="F58" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="59" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>166</v>
       </c>
@@ -13784,19 +13786,19 @@
         <v>2024</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>2120</v>
+        <v>2101</v>
       </c>
       <c r="D59" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>2062</v>
+        <v>2061</v>
       </c>
       <c r="F59" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="60" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>166</v>
       </c>
@@ -13810,13 +13812,13 @@
         <v>2071</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>2063</v>
+        <v>2062</v>
       </c>
       <c r="F60" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="61" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>166</v>
       </c>
@@ -13830,13 +13832,13 @@
         <v>2071</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>2064</v>
+        <v>2063</v>
       </c>
       <c r="F61" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="62" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>166</v>
       </c>
@@ -13844,19 +13846,19 @@
         <v>2024</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>2175</v>
+        <v>2120</v>
       </c>
       <c r="D62" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>2065</v>
+        <v>2064</v>
       </c>
       <c r="F62" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="63" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>166</v>
       </c>
@@ -13870,13 +13872,13 @@
         <v>2071</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>2066</v>
+        <v>2065</v>
       </c>
       <c r="F63" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="64" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>166</v>
       </c>
@@ -13890,13 +13892,13 @@
         <v>2071</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>2067</v>
+        <v>2066</v>
       </c>
       <c r="F64" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="65" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>166</v>
       </c>
@@ -13910,13 +13912,13 @@
         <v>2071</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>2176</v>
+        <v>2067</v>
       </c>
       <c r="F65" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="66" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>166</v>
       </c>
@@ -13930,13 +13932,13 @@
         <v>2071</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>2068</v>
+        <v>2176</v>
       </c>
       <c r="F66" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>166</v>
       </c>
@@ -13944,19 +13946,19 @@
         <v>2024</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>2153</v>
+        <v>2175</v>
       </c>
       <c r="D67" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>2069</v>
+        <v>2068</v>
       </c>
       <c r="F67" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>166</v>
       </c>
@@ -13970,13 +13972,13 @@
         <v>2071</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>2070</v>
+        <v>2069</v>
       </c>
       <c r="F68" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="69" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>166</v>
       </c>
@@ -13990,13 +13992,13 @@
         <v>2071</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="F69" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>166</v>
       </c>
@@ -14010,13 +14012,13 @@
         <v>2071</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>2073</v>
+        <v>2072</v>
       </c>
       <c r="F70" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>166</v>
       </c>
@@ -14030,7 +14032,7 @@
         <v>2071</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>2074</v>
+        <v>2073</v>
       </c>
       <c r="F71" s="5" t="s">
         <v>2133</v>
@@ -14044,13 +14046,13 @@
         <v>2024</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>2193</v>
+        <v>2153</v>
       </c>
       <c r="D72" s="4" t="s">
         <v>2071</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>2075</v>
+        <v>2074</v>
       </c>
       <c r="F72" s="5" t="s">
         <v>2133</v>
@@ -14070,7 +14072,7 @@
         <v>2071</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>2076</v>
+        <v>2075</v>
       </c>
       <c r="F73" s="5" t="s">
         <v>2133</v>
@@ -14090,7 +14092,7 @@
         <v>2071</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>2211</v>
+        <v>2076</v>
       </c>
       <c r="F74" s="5" t="s">
         <v>2133</v>
@@ -14110,33 +14112,33 @@
         <v>2071</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>2210</v>
+        <v>2211</v>
       </c>
       <c r="F75" s="5" t="s">
         <v>2133</v>
       </c>
     </row>
-    <row r="76" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="9" t="s">
-        <v>1574</v>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B76" s="8">
         <v>2024</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>2187</v>
-      </c>
-      <c r="D76" s="3" t="s">
-        <v>326</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>2157</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+        <v>2193</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>2071</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>2210</v>
+      </c>
+      <c r="F76" s="5" t="s">
+        <v>2133</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14150,13 +14152,13 @@
         <v>326</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="F77" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="78" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14170,13 +14172,13 @@
         <v>326</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="F78" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="79" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14184,19 +14186,19 @@
         <v>2024</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>2212</v>
+        <v>2187</v>
       </c>
       <c r="D79" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="F79" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="80" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14210,13 +14212,13 @@
         <v>326</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F80" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="81" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14230,31 +14232,33 @@
         <v>326</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>2162</v>
+        <v>2161</v>
       </c>
       <c r="F81" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="82" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B82" s="9">
-        <v>2025</v>
-      </c>
-      <c r="C82" s="9"/>
+      <c r="B82" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C82" s="8" t="s">
+        <v>2212</v>
+      </c>
       <c r="D82" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>2163</v>
+        <v>2162</v>
       </c>
       <c r="F82" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="83" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14266,13 +14270,13 @@
         <v>326</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>2164</v>
+        <v>2163</v>
       </c>
       <c r="F83" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="84" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14284,13 +14288,13 @@
         <v>326</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>2165</v>
+        <v>2164</v>
       </c>
       <c r="F84" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="85" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14302,33 +14306,31 @@
         <v>326</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>2166</v>
+        <v>2165</v>
       </c>
       <c r="F85" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B86" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C86" s="8" t="s">
-        <v>2117</v>
-      </c>
+    <row r="86" spans="1:6" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B86" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C86" s="9"/>
       <c r="D86" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E86" s="3" t="s">
-        <v>2039</v>
+      <c r="E86" s="4" t="s">
+        <v>2166</v>
       </c>
       <c r="F86" s="4" t="s">
-        <v>2040</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" s="8" t="s">
         <v>166</v>
       </c>
@@ -14336,19 +14338,19 @@
         <v>2024</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>2118</v>
+        <v>2117</v>
       </c>
       <c r="D87" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E87" s="4" t="s">
-        <v>327</v>
+      <c r="E87" s="3" t="s">
+        <v>2039</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>2040</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" s="8" t="s">
         <v>166</v>
       </c>
@@ -14356,19 +14358,19 @@
         <v>2024</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>2119</v>
+        <v>2118</v>
       </c>
       <c r="D88" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>2078</v>
+        <v>327</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>2037</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="8" t="s">
         <v>166</v>
       </c>
@@ -14382,13 +14384,13 @@
         <v>326</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>2079</v>
+        <v>2078</v>
       </c>
       <c r="F89" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="8" t="s">
         <v>166</v>
       </c>
@@ -14396,19 +14398,19 @@
         <v>2024</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>2101</v>
+        <v>2119</v>
       </c>
       <c r="D90" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>2105</v>
+        <v>2079</v>
       </c>
       <c r="F90" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="8" t="s">
         <v>166</v>
       </c>
@@ -14422,13 +14424,13 @@
         <v>326</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>2106</v>
+        <v>2105</v>
       </c>
       <c r="F91" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="8" t="s">
         <v>166</v>
       </c>
@@ -14442,13 +14444,13 @@
         <v>326</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>2107</v>
+        <v>2106</v>
       </c>
       <c r="F92" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="8" t="s">
         <v>166</v>
       </c>
@@ -14462,13 +14464,13 @@
         <v>326</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>2108</v>
+        <v>2107</v>
       </c>
       <c r="F93" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="8" t="s">
         <v>166</v>
       </c>
@@ -14482,13 +14484,13 @@
         <v>326</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>2109</v>
+        <v>2108</v>
       </c>
       <c r="F94" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="8" t="s">
         <v>166</v>
       </c>
@@ -14502,13 +14504,13 @@
         <v>326</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>2126</v>
+        <v>2109</v>
       </c>
       <c r="F95" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="8" t="s">
         <v>166</v>
       </c>
@@ -14522,13 +14524,13 @@
         <v>326</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>2110</v>
+        <v>2126</v>
       </c>
       <c r="F96" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="8" t="s">
         <v>166</v>
       </c>
@@ -14542,13 +14544,13 @@
         <v>326</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>2111</v>
+        <v>2110</v>
       </c>
       <c r="F97" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="8" t="s">
         <v>166</v>
       </c>
@@ -14562,13 +14564,13 @@
         <v>326</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>2127</v>
+        <v>2111</v>
       </c>
       <c r="F98" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="8" t="s">
         <v>166</v>
       </c>
@@ -14576,19 +14578,19 @@
         <v>2024</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>2120</v>
+        <v>2101</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>2112</v>
+        <v>2127</v>
       </c>
       <c r="F99" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="8" t="s">
         <v>166</v>
       </c>
@@ -14602,13 +14604,13 @@
         <v>326</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>2113</v>
+        <v>2112</v>
       </c>
       <c r="F100" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" s="8" t="s">
         <v>166</v>
       </c>
@@ -14616,19 +14618,19 @@
         <v>2024</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>2101</v>
+        <v>2120</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>2128</v>
+        <v>2113</v>
       </c>
       <c r="F101" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="102" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" s="8" t="s">
         <v>166</v>
       </c>
@@ -14642,13 +14644,13 @@
         <v>326</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>2114</v>
+        <v>2128</v>
       </c>
       <c r="F102" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="8" t="s">
         <v>166</v>
       </c>
@@ -14656,19 +14658,19 @@
         <v>2024</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>2120</v>
+        <v>2101</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>2144</v>
+        <v>2114</v>
       </c>
       <c r="F103" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" s="8" t="s">
         <v>166</v>
       </c>
@@ -14682,13 +14684,13 @@
         <v>326</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>2145</v>
+        <v>2144</v>
       </c>
       <c r="F104" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="8" t="s">
         <v>166</v>
       </c>
@@ -14696,19 +14698,19 @@
         <v>2024</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>2175</v>
+        <v>2120</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>2146</v>
+        <v>2145</v>
       </c>
       <c r="F105" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="8" t="s">
         <v>166</v>
       </c>
@@ -14722,13 +14724,13 @@
         <v>326</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>2177</v>
+        <v>2146</v>
       </c>
       <c r="F106" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="8" t="s">
         <v>166</v>
       </c>
@@ -14742,13 +14744,13 @@
         <v>326</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>2178</v>
+        <v>2177</v>
       </c>
       <c r="F107" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="8" t="s">
         <v>166</v>
       </c>
@@ -14756,19 +14758,19 @@
         <v>2024</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>2153</v>
+        <v>2175</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>2209</v>
+        <v>2178</v>
       </c>
       <c r="F108" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" s="8" t="s">
         <v>166</v>
       </c>
@@ -14782,7 +14784,7 @@
         <v>326</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>2208</v>
+        <v>2209</v>
       </c>
       <c r="F109" s="4" t="s">
         <v>2037</v>
@@ -14796,13 +14798,13 @@
         <v>2024</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>2193</v>
+        <v>2153</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>2214</v>
+        <v>2208</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>2037</v>
@@ -14822,15 +14824,15 @@
         <v>326</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>2213</v>
+        <v>2214</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="9" t="s">
-        <v>1574</v>
+      <c r="A112" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B112" s="8">
         <v>2024</v>
@@ -14842,7 +14844,7 @@
         <v>326</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>2167</v>
+        <v>2213</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>2037</v>
@@ -14862,31 +14864,33 @@
         <v>326</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>2168</v>
+        <v>2167</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A114" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B114" s="9">
+      <c r="B114" s="8">
         <v>2024</v>
       </c>
-      <c r="C114" s="9"/>
+      <c r="C114" s="8" t="s">
+        <v>2193</v>
+      </c>
       <c r="D114" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>2169</v>
+        <v>2168</v>
       </c>
       <c r="F114" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A115" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14898,13 +14902,13 @@
         <v>326</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>2170</v>
+        <v>2169</v>
       </c>
       <c r="F115" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="116" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A116" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14916,13 +14920,13 @@
         <v>326</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>2171</v>
+        <v>2170</v>
       </c>
       <c r="F116" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A117" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14934,13 +14938,13 @@
         <v>326</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>2172</v>
+        <v>2171</v>
       </c>
       <c r="F117" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A118" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14952,13 +14956,13 @@
         <v>326</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>2173</v>
+        <v>2172</v>
       </c>
       <c r="F118" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A119" s="9" t="s">
         <v>1574</v>
       </c>
@@ -14970,33 +14974,31 @@
         <v>326</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>2174</v>
+        <v>2173</v>
       </c>
       <c r="F119" s="4" t="s">
         <v>2037</v>
       </c>
     </row>
-    <row r="120" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A120" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B120" s="8">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B120" s="9">
         <v>2024</v>
       </c>
-      <c r="C120" s="8" t="s">
-        <v>2121</v>
-      </c>
+      <c r="C120" s="9"/>
       <c r="D120" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>1917</v>
+        <v>2174</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1916</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" ht="90" hidden="1" x14ac:dyDescent="0.25">
+        <v>2037</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="8" t="s">
         <v>166</v>
       </c>
@@ -15004,19 +15006,19 @@
         <v>2024</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>2122</v>
+        <v>2121</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>326</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F121" s="5" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1917</v>
+      </c>
+      <c r="F121" s="4" t="s">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="90" x14ac:dyDescent="0.25">
       <c r="A122" s="8" t="s">
         <v>166</v>
       </c>
@@ -15024,17 +15026,19 @@
         <v>2024</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>2092</v>
+        <v>2122</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>326</v>
       </c>
-      <c r="E122" s="3" t="s">
-        <v>331</v>
-      </c>
-      <c r="F122" s="4"/>
-    </row>
-    <row r="123" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E122" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A123" s="8" t="s">
         <v>166</v>
       </c>
@@ -15042,19 +15046,17 @@
         <v>2024</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>2123</v>
+        <v>2092</v>
       </c>
       <c r="D123" s="3" t="s">
-        <v>1909</v>
+        <v>326</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="F123" s="3" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>331</v>
+      </c>
+      <c r="F123" s="4"/>
+    </row>
+    <row r="124" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A124" s="8" t="s">
         <v>166</v>
       </c>
@@ -15062,17 +15064,19 @@
         <v>2024</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>2121</v>
+        <v>2123</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>1909</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>1910</v>
-      </c>
-      <c r="F124" s="3"/>
-    </row>
-    <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>367</v>
+      </c>
+      <c r="F124" s="3" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A125" s="8" t="s">
         <v>166</v>
       </c>
@@ -15086,11 +15090,11 @@
         <v>1909</v>
       </c>
       <c r="E125" s="3" t="s">
-        <v>1915</v>
+        <v>1910</v>
       </c>
       <c r="F125" s="3"/>
     </row>
-    <row r="126" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A126" s="8" t="s">
         <v>166</v>
       </c>
@@ -15098,19 +15102,17 @@
         <v>2024</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>2124</v>
+        <v>2121</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>1977</v>
+        <v>1909</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>332</v>
-      </c>
-      <c r="F126" s="4" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>1915</v>
+      </c>
+      <c r="F126" s="3"/>
+    </row>
+    <row r="127" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="8" t="s">
         <v>166</v>
       </c>
@@ -15118,73 +15120,75 @@
         <v>2024</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>2125</v>
+        <v>2124</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>1977</v>
       </c>
       <c r="E127" s="3" t="s">
-        <v>334</v>
-      </c>
-      <c r="F127" s="5" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A128" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B128" s="9">
+        <v>332</v>
+      </c>
+      <c r="F127" s="4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B128" s="8">
         <v>2024</v>
       </c>
-      <c r="C128" s="9"/>
+      <c r="C128" s="8" t="s">
+        <v>2125</v>
+      </c>
       <c r="D128" s="3" t="s">
         <v>1977</v>
       </c>
       <c r="E128" s="3" t="s">
-        <v>336</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+        <v>334</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>1574</v>
       </c>
       <c r="B129" s="9">
-        <v>2025</v>
+        <v>2024</v>
       </c>
       <c r="C129" s="9"/>
       <c r="D129" s="3" t="s">
         <v>1977</v>
       </c>
-      <c r="E129" s="6" t="s">
+      <c r="E129" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="F129" s="4" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B130" s="9">
+        <v>2025</v>
+      </c>
+      <c r="C130" s="9"/>
+      <c r="D130" s="3" t="s">
+        <v>1977</v>
+      </c>
+      <c r="E130" s="6" t="s">
         <v>338</v>
       </c>
-      <c r="F129" s="3" t="s">
+      <c r="F130" s="3" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A130" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B130" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C130" s="8" t="s">
-        <v>2129</v>
-      </c>
-      <c r="D130" s="3" t="s">
-        <v>1573</v>
-      </c>
-      <c r="E130" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F130" s="4"/>
-    </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="8" t="s">
         <v>166</v>
       </c>
@@ -15198,13 +15202,11 @@
         <v>1573</v>
       </c>
       <c r="E131" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="F131" s="5" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+        <v>342</v>
+      </c>
+      <c r="F131" s="4"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="8" t="s">
         <v>166</v>
       </c>
@@ -15217,14 +15219,14 @@
       <c r="D132" s="3" t="s">
         <v>1573</v>
       </c>
-      <c r="E132" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="F132" s="4" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E132" s="3" t="s">
+        <v>343</v>
+      </c>
+      <c r="F132" s="5" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A133" s="8" t="s">
         <v>166</v>
       </c>
@@ -15232,19 +15234,19 @@
         <v>2024</v>
       </c>
       <c r="C133" s="8" t="s">
-        <v>2130</v>
+        <v>2129</v>
       </c>
       <c r="D133" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="E133" s="3" t="s">
-        <v>361</v>
-      </c>
-      <c r="F133" s="3" t="s">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6" ht="75" hidden="1" x14ac:dyDescent="0.25">
+        <v>1573</v>
+      </c>
+      <c r="E133" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="F133" s="4" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A134" s="8" t="s">
         <v>166</v>
       </c>
@@ -15252,19 +15254,19 @@
         <v>2024</v>
       </c>
       <c r="C134" s="8" t="s">
-        <v>2093</v>
+        <v>2130</v>
       </c>
       <c r="D134" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E134" s="3" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="F134" s="3" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="75" x14ac:dyDescent="0.25">
       <c r="A135" s="8" t="s">
         <v>166</v>
       </c>
@@ -15272,19 +15274,19 @@
         <v>2024</v>
       </c>
       <c r="C135" s="8" t="s">
-        <v>2118</v>
+        <v>2093</v>
       </c>
       <c r="D135" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="F135" s="3" t="s">
-        <v>366</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6" ht="105" hidden="1" x14ac:dyDescent="0.25">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="8" t="s">
         <v>166</v>
       </c>
@@ -15292,19 +15294,19 @@
         <v>2024</v>
       </c>
       <c r="C136" s="8" t="s">
-        <v>2131</v>
+        <v>2118</v>
       </c>
       <c r="D136" s="3" t="s">
         <v>360</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>1918</v>
+        <v>365</v>
       </c>
       <c r="F136" s="3" t="s">
-        <v>1919</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="105" x14ac:dyDescent="0.25">
       <c r="A137" s="8" t="s">
         <v>166</v>
       </c>
@@ -15312,31 +15314,33 @@
         <v>2024</v>
       </c>
       <c r="C137" s="8" t="s">
-        <v>2120</v>
+        <v>2131</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>2151</v>
+        <v>360</v>
       </c>
       <c r="E137" s="3" t="s">
-        <v>2152</v>
-      </c>
-      <c r="F137" s="3"/>
+        <v>1918</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>1919</v>
+      </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="10" t="s">
-        <v>432</v>
+      <c r="A138" s="8" t="s">
+        <v>166</v>
       </c>
       <c r="B138" s="8">
         <v>2024</v>
       </c>
       <c r="C138" s="8" t="s">
-        <v>2193</v>
+        <v>2120</v>
       </c>
       <c r="D138" s="3" t="s">
         <v>2151</v>
       </c>
       <c r="E138" s="3" t="s">
-        <v>2154</v>
+        <v>2152</v>
       </c>
       <c r="F138" s="3"/>
     </row>
@@ -15351,10 +15355,10 @@
         <v>2193</v>
       </c>
       <c r="D139" s="3" t="s">
-        <v>2194</v>
+        <v>2151</v>
       </c>
       <c r="E139" s="3" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="F139" s="3"/>
     </row>
@@ -15372,49 +15376,47 @@
         <v>2194</v>
       </c>
       <c r="E140" s="3" t="s">
+        <v>2156</v>
+      </c>
+      <c r="F140" s="3"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="B141" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C141" s="8" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D141" s="3" t="s">
+        <v>2194</v>
+      </c>
+      <c r="E141" s="3" t="s">
         <v>2155</v>
       </c>
-      <c r="F140" s="3"/>
-    </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A141" s="9" t="s">
+      <c r="F141" s="3"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B141" s="9">
+      <c r="B142" s="9">
         <v>2025</v>
       </c>
-      <c r="C141" s="9"/>
-      <c r="D141" s="3" t="s">
+      <c r="C142" s="9"/>
+      <c r="D142" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="E141" s="3" t="s">
+      <c r="E142" s="3" t="s">
         <v>370</v>
       </c>
-      <c r="F141" s="3" t="s">
+      <c r="F142" s="3" t="s">
         <v>371</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A142" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="B142" s="8">
-        <v>2024</v>
-      </c>
-      <c r="C142" s="8" t="s">
-        <v>2132</v>
-      </c>
-      <c r="D142" s="3" t="s">
-        <v>372</v>
-      </c>
-      <c r="E142" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="F142" s="3" t="s">
-        <v>1594</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="8" t="s">
         <v>166</v>
       </c>
@@ -15422,25 +15424,37 @@
         <v>2024</v>
       </c>
       <c r="C143" s="8" t="s">
+        <v>2132</v>
+      </c>
+      <c r="D143" s="3" t="s">
+        <v>372</v>
+      </c>
+      <c r="E143" s="3" t="s">
+        <v>373</v>
+      </c>
+      <c r="F143" s="3" t="s">
+        <v>1594</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144" s="8" t="s">
+        <v>166</v>
+      </c>
+      <c r="B144" s="8">
+        <v>2024</v>
+      </c>
+      <c r="C144" s="8" t="s">
         <v>2099</v>
       </c>
-      <c r="D143" s="3" t="s">
+      <c r="D144" s="3" t="s">
         <v>1590</v>
       </c>
-      <c r="E143" s="3" t="s">
+      <c r="E144" s="3" t="s">
         <v>1592</v>
       </c>
-      <c r="F143" s="3" t="s">
+      <c r="F144" s="3" t="s">
         <v>1593</v>
       </c>
-    </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A144" s="3"/>
-      <c r="B144" s="3"/>
-      <c r="C144" s="3"/>
-      <c r="D144" s="3"/>
-      <c r="E144" s="3"/>
-      <c r="F144" s="3"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="3"/>
@@ -15452,15 +15466,15 @@
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A146" s="3"/>
-      <c r="B146" s="166"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
       <c r="F146" s="3"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A147" s="3"/>
-      <c r="B147" s="3"/>
-      <c r="C147" s="3"/>
+      <c r="B147" s="166"/>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
       <c r="F147" s="3"/>
@@ -15953,24 +15967,26 @@
       <c r="E208" s="3"/>
       <c r="F208" s="3"/>
     </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209" s="3"/>
+      <c r="B209" s="3"/>
+      <c r="C209" s="3"/>
+      <c r="D209" s="3"/>
+      <c r="E209" s="3"/>
+      <c r="F209" s="3"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:F143" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Week49"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F144" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
   <phoneticPr fontId="29" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="F121" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
-    <hyperlink ref="F131" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
-    <hyperlink ref="F127" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
-    <hyperlink ref="F141" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
-    <hyperlink ref="F37" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
-    <hyperlink ref="F61" r:id="rId6" xr:uid="{6939D5E8-A309-4950-8CD8-704888943397}"/>
-    <hyperlink ref="F67" r:id="rId7" xr:uid="{662A6303-39B9-4ED1-90EC-0F10CC349E75}"/>
-    <hyperlink ref="F68" r:id="rId8" xr:uid="{C863D711-944D-4130-95B3-8E5863486A1C}"/>
+    <hyperlink ref="F122" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
+    <hyperlink ref="F132" r:id="rId2" xr:uid="{3D4616EE-BD11-4136-9EFF-E9A1542BCA05}"/>
+    <hyperlink ref="F128" r:id="rId3" xr:uid="{3882BF68-74A4-45D6-AB3B-DD97CCFEF710}"/>
+    <hyperlink ref="F142" r:id="rId4" xr:uid="{C4E46FCC-F7A8-4B7C-AE62-808154F6DB39}"/>
+    <hyperlink ref="F38" r:id="rId5" xr:uid="{72A87728-04DA-44B5-979E-29E7DABBE32F}"/>
+    <hyperlink ref="F62" r:id="rId6" xr:uid="{6939D5E8-A309-4950-8CD8-704888943397}"/>
+    <hyperlink ref="F68" r:id="rId7" xr:uid="{662A6303-39B9-4ED1-90EC-0F10CC349E75}"/>
+    <hyperlink ref="F69" r:id="rId8" xr:uid="{C863D711-944D-4130-95B3-8E5863486A1C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -15981,7 +15997,7 @@
   <sheetPr filterMode="1"/>
   <dimension ref="A1:M335"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A259" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B175" sqref="B175"/>
     </sheetView>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9B6CE8D-0CC1-4D0E-BA29-E71ECF5E8A52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C0679E-1525-45CF-8167-D6A2A1957B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-26685" yWindow="1080" windowWidth="25275" windowHeight="13410" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-30180" yWindow="645" windowWidth="25275" windowHeight="14445" activeTab="1" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$M$334</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$148</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Study Plan'!$A$1:$R$93</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Study Plan'!$A$1:$R$94</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5202" uniqueCount="1869">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="1874">
   <si>
     <t>Phase</t>
   </si>
@@ -5793,6 +5793,21 @@
   </si>
   <si>
     <t>Phase 2b/3</t>
+  </si>
+  <si>
+    <t>Endocrinology-Diabetes II-PII-IVP37016-337016</t>
+  </si>
+  <si>
+    <t>[Type 2 diabetes mellitus](https://clinicaltrials.gov/study/NCT05232071)</t>
+  </si>
+  <si>
+    <t>NCT05232071</t>
+  </si>
+  <si>
+    <t>2021-005057-87</t>
+  </si>
+  <si>
+    <t>42 Sites</t>
   </si>
 </sst>
 </file>
@@ -6669,7 +6684,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="235">
+  <cellXfs count="234">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -7257,6 +7272,16 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -7351,17 +7376,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -8225,7 +8239,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A3D120C-0F09-41ED-BABE-551FC4351CA4}">
   <dimension ref="A1:L37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A18" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B31" sqref="B31:D31"/>
     </sheetView>
@@ -8246,12 +8260,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="203" t="s">
+      <c r="A1" s="207" t="s">
         <v>1181</v>
       </c>
-      <c r="B1" s="204"/>
-      <c r="C1" s="204"/>
-      <c r="D1" s="204"/>
+      <c r="B1" s="208"/>
+      <c r="C1" s="208"/>
+      <c r="D1" s="208"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
@@ -8260,79 +8274,79 @@
       <c r="A3" s="62" t="s">
         <v>1175</v>
       </c>
-      <c r="B3" s="205">
+      <c r="B3" s="209">
         <v>45520</v>
       </c>
-      <c r="C3" s="205"/>
-      <c r="D3" s="205"/>
+      <c r="C3" s="209"/>
+      <c r="D3" s="209"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="202" t="s">
+      <c r="A5" s="206" t="s">
         <v>1177</v>
       </c>
-      <c r="B5" s="202"/>
-      <c r="C5" s="202"/>
-      <c r="D5" s="202"/>
+      <c r="B5" s="206"/>
+      <c r="C5" s="206"/>
+      <c r="D5" s="206"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="206"/>
-      <c r="B6" s="206"/>
-      <c r="C6" s="206"/>
-      <c r="D6" s="206"/>
+      <c r="A6" s="210"/>
+      <c r="B6" s="210"/>
+      <c r="C6" s="210"/>
+      <c r="D6" s="210"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>1178</v>
       </c>
-      <c r="B7" s="200" t="s">
+      <c r="B7" s="204" t="s">
         <v>1179</v>
       </c>
-      <c r="C7" s="200"/>
-      <c r="D7" s="200"/>
+      <c r="C7" s="204"/>
+      <c r="D7" s="204"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
         <v>2021</v>
       </c>
-      <c r="B8" s="199">
-        <f>COUNTIF('Study Plan'!B$1:B$1010,"2021")</f>
+      <c r="B8" s="203">
+        <f>COUNTIF('Study Plan'!B$1:B$1011,"2021")</f>
         <v>39</v>
       </c>
-      <c r="C8" s="199"/>
-      <c r="D8" s="199"/>
+      <c r="C8" s="203"/>
+      <c r="D8" s="203"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="74">
         <v>2022</v>
       </c>
-      <c r="B9" s="199">
-        <f>COUNTIF('Study Plan'!B$1:B$1010,"2022")</f>
+      <c r="B9" s="203">
+        <f>COUNTIF('Study Plan'!B$1:B$1011,"2022")</f>
         <v>3</v>
       </c>
-      <c r="C9" s="199"/>
-      <c r="D9" s="199"/>
+      <c r="C9" s="203"/>
+      <c r="D9" s="203"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="74">
         <v>2023</v>
       </c>
-      <c r="B10" s="199">
-        <f>COUNTIF('Study Plan'!B$1:B$1010,"2023")</f>
+      <c r="B10" s="203">
+        <f>COUNTIF('Study Plan'!B$1:B$1011,"2023")</f>
         <v>16</v>
       </c>
-      <c r="C10" s="199"/>
-      <c r="D10" s="199"/>
+      <c r="C10" s="203"/>
+      <c r="D10" s="203"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="74">
         <v>2024</v>
       </c>
-      <c r="B11" s="199">
-        <f>COUNTIF('Study Plan'!B$1:B$1010,"2024")</f>
-        <v>34</v>
-      </c>
-      <c r="C11" s="199"/>
-      <c r="D11" s="199"/>
+      <c r="B11" s="203">
+        <f>COUNTIF('Study Plan'!B$1:B$1011,"2024")</f>
+        <v>35</v>
+      </c>
+      <c r="C11" s="203"/>
+      <c r="D11" s="203"/>
       <c r="G11" s="64"/>
       <c r="H11" s="64"/>
       <c r="I11" s="65"/>
@@ -8356,12 +8370,12 @@
       <c r="A13" s="71" t="s">
         <v>1182</v>
       </c>
-      <c r="B13" s="200">
-        <f>COUNTA('Study Plan'!A$2:A$1010)</f>
-        <v>92</v>
-      </c>
-      <c r="C13" s="200"/>
-      <c r="D13" s="200"/>
+      <c r="B13" s="204">
+        <f>COUNTA('Study Plan'!A$2:A$1011)</f>
+        <v>93</v>
+      </c>
+      <c r="C13" s="204"/>
+      <c r="D13" s="204"/>
       <c r="G13" s="64"/>
       <c r="H13" s="64"/>
       <c r="I13" s="65"/>
@@ -8373,12 +8387,12 @@
       <c r="A14" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="200">
-        <f>COUNTIF('Study Plan'!D$1:D$1010,"Y")</f>
+      <c r="B14" s="204">
+        <f>COUNTIF('Study Plan'!D$1:D$1011,"Y")</f>
         <v>42</v>
       </c>
-      <c r="C14" s="200"/>
-      <c r="D14" s="200"/>
+      <c r="C14" s="204"/>
+      <c r="D14" s="204"/>
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
       <c r="I14" s="65"/>
@@ -8388,9 +8402,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
-      <c r="B15" s="201"/>
-      <c r="C15" s="201"/>
-      <c r="D15" s="201"/>
+      <c r="B15" s="205"/>
+      <c r="C15" s="205"/>
+      <c r="D15" s="205"/>
       <c r="G15" s="64"/>
       <c r="H15" s="64"/>
       <c r="I15" s="65"/>
@@ -8402,11 +8416,11 @@
       <c r="A16" s="71" t="s">
         <v>1180</v>
       </c>
-      <c r="B16" s="200" t="s">
+      <c r="B16" s="204" t="s">
         <v>1179</v>
       </c>
-      <c r="C16" s="200"/>
-      <c r="D16" s="200"/>
+      <c r="C16" s="204"/>
+      <c r="D16" s="204"/>
       <c r="G16" s="64"/>
       <c r="H16" s="64"/>
       <c r="I16" s="65"/>
@@ -8418,12 +8432,12 @@
       <c r="A17" s="73" t="s">
         <v>193</v>
       </c>
-      <c r="B17" s="199">
-        <f>COUNTIF('Study Plan'!C$1:C$1010,"GCP")</f>
+      <c r="B17" s="203">
+        <f>COUNTIF('Study Plan'!C$1:C$1011,"GCP")</f>
         <v>39</v>
       </c>
-      <c r="C17" s="199"/>
-      <c r="D17" s="199"/>
+      <c r="C17" s="203"/>
+      <c r="D17" s="203"/>
       <c r="G17" s="64"/>
       <c r="H17" s="64"/>
       <c r="I17" s="65"/>
@@ -8435,12 +8449,12 @@
       <c r="A18" s="74" t="s">
         <v>91</v>
       </c>
-      <c r="B18" s="199">
-        <f>COUNTIF('Study Plan'!C$1:C$1010,"GBG")</f>
+      <c r="B18" s="203">
+        <f>COUNTIF('Study Plan'!C$1:C$1011,"GBG")</f>
         <v>3</v>
       </c>
-      <c r="C18" s="199"/>
-      <c r="D18" s="199"/>
+      <c r="C18" s="203"/>
+      <c r="D18" s="203"/>
       <c r="G18" s="64"/>
       <c r="H18" s="64"/>
       <c r="I18" s="65"/>
@@ -8452,12 +8466,12 @@
       <c r="A19" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="B19" s="199">
-        <f>COUNTIF('Study Plan'!C$1:C$1010,"ICON")</f>
-        <v>34</v>
-      </c>
-      <c r="C19" s="199"/>
-      <c r="D19" s="199"/>
+      <c r="B19" s="203">
+        <f>COUNTIF('Study Plan'!C$1:C$1011,"ICON")</f>
+        <v>35</v>
+      </c>
+      <c r="C19" s="203"/>
+      <c r="D19" s="203"/>
       <c r="G19" s="64"/>
       <c r="H19" s="64"/>
       <c r="I19" s="65"/>
@@ -8469,12 +8483,12 @@
       <c r="A20" s="74" t="s">
         <v>81</v>
       </c>
-      <c r="B20" s="199">
-        <f>COUNTIF('Study Plan'!C$1:C$1010,"Upwork")</f>
+      <c r="B20" s="203">
+        <f>COUNTIF('Study Plan'!C$1:C$1011,"Upwork")</f>
         <v>13</v>
       </c>
-      <c r="C20" s="199"/>
-      <c r="D20" s="199"/>
+      <c r="C20" s="203"/>
+      <c r="D20" s="203"/>
       <c r="G20" s="64"/>
       <c r="H20" s="64"/>
       <c r="I20" s="65"/>
@@ -8486,12 +8500,12 @@
       <c r="A21" s="74" t="s">
         <v>206</v>
       </c>
-      <c r="B21" s="199">
-        <f>COUNTIF('Study Plan'!C$1:C$1010,"Learning")</f>
+      <c r="B21" s="203">
+        <f>COUNTIF('Study Plan'!C$1:C$1011,"Learning")</f>
         <v>3</v>
       </c>
-      <c r="C21" s="199"/>
-      <c r="D21" s="199"/>
+      <c r="C21" s="203"/>
+      <c r="D21" s="203"/>
       <c r="G21" s="64"/>
       <c r="H21" s="64"/>
       <c r="I21" s="65"/>
@@ -8531,15 +8545,15 @@
         <v>1182</v>
       </c>
       <c r="B24" s="75">
-        <f>COUNTA('Study Plan'!A$2:A$1011)</f>
-        <v>92</v>
+        <f>COUNTA('Study Plan'!A$2:A$1012)</f>
+        <v>93</v>
       </c>
       <c r="C24" s="68">
         <v>100</v>
       </c>
       <c r="D24" s="140">
         <f>B24-C24</f>
-        <v>-8</v>
+        <v>-7</v>
       </c>
       <c r="L24" s="65"/>
     </row>
@@ -8548,7 +8562,7 @@
         <v>164</v>
       </c>
       <c r="B25" s="75">
-        <f>COUNTIF('Study Plan'!D$1:D$1011,"Y")</f>
+        <f>COUNTIF('Study Plan'!D$1:D$1012,"Y")</f>
         <v>42</v>
       </c>
       <c r="C25" s="68">
@@ -8568,12 +8582,12 @@
       <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="202" t="s">
+      <c r="A27" s="206" t="s">
         <v>1187</v>
       </c>
-      <c r="B27" s="202"/>
-      <c r="C27" s="202"/>
-      <c r="D27" s="202"/>
+      <c r="B27" s="206"/>
+      <c r="C27" s="206"/>
+      <c r="D27" s="206"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="67"/>
@@ -8586,47 +8600,47 @@
       <c r="A29" s="71" t="s">
         <v>1188</v>
       </c>
-      <c r="B29" s="200" t="s">
+      <c r="B29" s="204" t="s">
         <v>1179</v>
       </c>
-      <c r="C29" s="200"/>
-      <c r="D29" s="200"/>
+      <c r="C29" s="204"/>
+      <c r="D29" s="204"/>
       <c r="L29" s="65"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="74" t="s">
         <v>1587</v>
       </c>
-      <c r="B30" s="199">
+      <c r="B30" s="203">
         <f>COUNTIF('Reading Plan'!A$2:A$1093, "*Y*")</f>
         <v>109</v>
       </c>
-      <c r="C30" s="199"/>
-      <c r="D30" s="199"/>
+      <c r="C30" s="203"/>
+      <c r="D30" s="203"/>
       <c r="L30" s="65"/>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="74" t="s">
         <v>1156</v>
       </c>
-      <c r="B31" s="199">
+      <c r="B31" s="203">
         <f>COUNTIF('Reading Plan'!A$2:A$1093, "N")</f>
         <v>35</v>
       </c>
-      <c r="C31" s="199"/>
-      <c r="D31" s="199"/>
+      <c r="C31" s="203"/>
+      <c r="D31" s="203"/>
       <c r="L31" s="65"/>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="74" t="s">
         <v>429</v>
       </c>
-      <c r="B32" s="199">
+      <c r="B32" s="203">
         <f>COUNTIF('Reading Plan'!A$2:A$1093, "*Ongoing*")</f>
         <v>3</v>
       </c>
-      <c r="C32" s="199"/>
-      <c r="D32" s="199"/>
+      <c r="C32" s="203"/>
+      <c r="D32" s="203"/>
       <c r="L32" s="65"/>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.25">
@@ -8644,18 +8658,18 @@
       <c r="L34" s="65"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="198" t="s">
+      <c r="A36" s="202" t="s">
         <v>1189</v>
       </c>
-      <c r="B36" s="198"/>
-      <c r="C36" s="198"/>
-      <c r="D36" s="198"/>
+      <c r="B36" s="202"/>
+      <c r="C36" s="202"/>
+      <c r="D36" s="202"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="198"/>
-      <c r="B37" s="198"/>
-      <c r="C37" s="198"/>
-      <c r="D37" s="198"/>
+      <c r="A37" s="202"/>
+      <c r="B37" s="202"/>
+      <c r="C37" s="202"/>
+      <c r="D37" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -8695,38 +8709,38 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
-  <dimension ref="A1:R93"/>
+  <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I30" sqref="I30"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.5703125" style="232" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" style="233" customWidth="1"/>
-    <col min="3" max="3" width="12.42578125" style="234" customWidth="1"/>
-    <col min="4" max="4" width="4.28515625" style="234" customWidth="1"/>
-    <col min="5" max="5" width="5.85546875" style="234" customWidth="1"/>
-    <col min="6" max="9" width="6.7109375" style="234" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="234" customWidth="1"/>
-    <col min="11" max="11" width="47" style="232" customWidth="1"/>
-    <col min="12" max="12" width="19.85546875" style="232" customWidth="1"/>
-    <col min="13" max="13" width="32.5703125" style="232" customWidth="1"/>
-    <col min="14" max="14" width="9.7109375" style="232" customWidth="1"/>
-    <col min="15" max="15" width="78.42578125" style="232" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" style="232" customWidth="1"/>
-    <col min="17" max="17" width="14.85546875" style="232" customWidth="1"/>
-    <col min="18" max="18" width="14.7109375" style="232" customWidth="1"/>
-    <col min="19" max="16384" width="9.140625" style="232"/>
+    <col min="1" max="1" width="13.5703125" style="199" customWidth="1"/>
+    <col min="2" max="2" width="7.42578125" style="200" customWidth="1"/>
+    <col min="3" max="3" width="12.42578125" style="201" customWidth="1"/>
+    <col min="4" max="4" width="4.28515625" style="201" customWidth="1"/>
+    <col min="5" max="5" width="5.85546875" style="201" customWidth="1"/>
+    <col min="6" max="9" width="6.7109375" style="201" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="201" customWidth="1"/>
+    <col min="11" max="11" width="47" style="199" customWidth="1"/>
+    <col min="12" max="12" width="19.85546875" style="199" customWidth="1"/>
+    <col min="13" max="13" width="32.5703125" style="199" customWidth="1"/>
+    <col min="14" max="14" width="9.7109375" style="199" customWidth="1"/>
+    <col min="15" max="15" width="78.42578125" style="199" customWidth="1"/>
+    <col min="16" max="16" width="13.85546875" style="199" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" style="199" customWidth="1"/>
+    <col min="18" max="18" width="14.7109375" style="199" customWidth="1"/>
+    <col min="19" max="16384" width="9.140625" style="199"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" s="231" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="230" t="s">
+    <row r="1" spans="1:18" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="198" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="230" t="s">
+      <c r="B1" s="198" t="s">
         <v>1178</v>
       </c>
       <c r="C1" s="71" t="s">
@@ -8753,28 +8767,28 @@
       <c r="J1" s="71" t="s">
         <v>1835</v>
       </c>
-      <c r="K1" s="230" t="s">
+      <c r="K1" s="198" t="s">
         <v>192</v>
       </c>
-      <c r="L1" s="230" t="s">
+      <c r="L1" s="198" t="s">
         <v>68</v>
       </c>
-      <c r="M1" s="230" t="s">
+      <c r="M1" s="198" t="s">
         <v>202</v>
       </c>
-      <c r="N1" s="230" t="s">
+      <c r="N1" s="198" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="230" t="s">
+      <c r="O1" s="198" t="s">
         <v>23</v>
       </c>
-      <c r="P1" s="230" t="s">
+      <c r="P1" s="198" t="s">
         <v>1514</v>
       </c>
-      <c r="Q1" s="230" t="s">
+      <c r="Q1" s="198" t="s">
         <v>1513</v>
       </c>
-      <c r="R1" s="230" t="s">
+      <c r="R1" s="198" t="s">
         <v>1</v>
       </c>
     </row>
@@ -9691,48 +9705,60 @@
       </c>
     </row>
     <row r="21" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="81" t="s">
-        <v>155</v>
-      </c>
-      <c r="B21" s="81">
-        <v>2021</v>
-      </c>
-      <c r="C21" s="158" t="s">
-        <v>193</v>
-      </c>
-      <c r="D21" s="158"/>
-      <c r="E21" s="158" t="s">
+      <c r="A21" s="171" t="s">
+        <v>55</v>
+      </c>
+      <c r="B21" s="171">
+        <v>2024</v>
+      </c>
+      <c r="C21" s="172" t="s">
+        <v>72</v>
+      </c>
+      <c r="D21" s="172"/>
+      <c r="E21" s="172" t="s">
         <v>165</v>
       </c>
-      <c r="F21" s="158"/>
-      <c r="G21" s="158"/>
-      <c r="H21" s="158"/>
-      <c r="I21" s="158"/>
-      <c r="J21" s="158"/>
-      <c r="K21" s="81" t="s">
-        <v>194</v>
-      </c>
-      <c r="L21" s="81" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="82" t="s">
-        <v>409</v>
-      </c>
-      <c r="N21" s="81" t="s">
-        <v>3</v>
-      </c>
-      <c r="O21" s="82" t="s">
-        <v>177</v>
-      </c>
-      <c r="P21" s="81" t="s">
-        <v>106</v>
-      </c>
-      <c r="Q21" s="81"/>
-      <c r="R21" s="81" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="F21" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="G21" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="H21" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="I21" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="J21" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="K21" s="171" t="s">
+        <v>1869</v>
+      </c>
+      <c r="L21" s="171" t="s">
+        <v>519</v>
+      </c>
+      <c r="M21" s="171" t="s">
+        <v>449</v>
+      </c>
+      <c r="N21" s="171" t="s">
+        <v>9</v>
+      </c>
+      <c r="O21" s="171" t="s">
+        <v>1870</v>
+      </c>
+      <c r="P21" s="171" t="s">
+        <v>1871</v>
+      </c>
+      <c r="Q21" s="171" t="s">
+        <v>1872</v>
+      </c>
+      <c r="R21" s="171" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
         <v>155</v>
       </c>
@@ -9742,9 +9768,7 @@
       <c r="C22" s="158" t="s">
         <v>193</v>
       </c>
-      <c r="D22" s="158" t="s">
-        <v>165</v>
-      </c>
+      <c r="D22" s="158"/>
       <c r="E22" s="158" t="s">
         <v>165</v>
       </c>
@@ -9754,81 +9778,73 @@
       <c r="I22" s="158"/>
       <c r="J22" s="158"/>
       <c r="K22" s="81" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="L22" s="81" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="M22" s="82" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="N22" s="81" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O22" s="82" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="P22" s="81" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="Q22" s="81"/>
       <c r="R22" s="81" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A23" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B23" s="81">
+        <v>2021</v>
+      </c>
+      <c r="C23" s="158" t="s">
+        <v>193</v>
+      </c>
+      <c r="D23" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="158" t="s">
+        <v>165</v>
+      </c>
+      <c r="F23" s="158"/>
+      <c r="G23" s="158"/>
+      <c r="H23" s="158"/>
+      <c r="I23" s="158"/>
+      <c r="J23" s="158"/>
+      <c r="K23" s="81" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" s="81" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" s="82" t="s">
+        <v>410</v>
+      </c>
+      <c r="N23" s="81" t="s">
+        <v>9</v>
+      </c>
+      <c r="O23" s="82" t="s">
+        <v>178</v>
+      </c>
+      <c r="P23" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23" s="81"/>
+      <c r="R23" s="81" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="173" t="s">
-        <v>155</v>
-      </c>
-      <c r="B23" s="173">
-        <v>2023</v>
-      </c>
-      <c r="C23" s="174" t="s">
-        <v>72</v>
-      </c>
-      <c r="D23" s="174"/>
-      <c r="E23" s="174" t="s">
-        <v>165</v>
-      </c>
-      <c r="F23" s="174" t="s">
-        <v>165</v>
-      </c>
-      <c r="G23" s="174" t="s">
-        <v>165</v>
-      </c>
-      <c r="H23" s="174" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I23" s="174" t="s">
-        <v>165</v>
-      </c>
-      <c r="J23" s="174" t="s">
-        <v>1174</v>
-      </c>
-      <c r="K23" s="173" t="s">
-        <v>196</v>
-      </c>
-      <c r="L23" s="173" t="s">
-        <v>197</v>
-      </c>
-      <c r="M23" s="175" t="s">
-        <v>157</v>
-      </c>
-      <c r="N23" s="173" t="s">
-        <v>9</v>
-      </c>
-      <c r="O23" s="175" t="s">
-        <v>179</v>
-      </c>
-      <c r="P23" s="173" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q23" s="173"/>
-      <c r="R23" s="173" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="173" t="s">
         <v>155</v>
       </c>
@@ -9849,134 +9865,142 @@
         <v>165</v>
       </c>
       <c r="H24" s="174" t="s">
-        <v>165</v>
+        <v>1174</v>
       </c>
       <c r="I24" s="174" t="s">
         <v>165</v>
       </c>
       <c r="J24" s="174" t="s">
-        <v>165</v>
+        <v>1174</v>
       </c>
       <c r="K24" s="173" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="L24" s="173" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="M24" s="175" t="s">
-        <v>190</v>
+        <v>157</v>
       </c>
       <c r="N24" s="173" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O24" s="175" t="s">
-        <v>189</v>
-      </c>
-      <c r="P24" s="173"/>
+        <v>179</v>
+      </c>
+      <c r="P24" s="173" t="s">
+        <v>156</v>
+      </c>
       <c r="Q24" s="173"/>
       <c r="R24" s="173" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="81" t="s">
+    <row r="25" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A25" s="173" t="s">
         <v>155</v>
       </c>
-      <c r="B25" s="81">
+      <c r="B25" s="173">
+        <v>2023</v>
+      </c>
+      <c r="C25" s="174" t="s">
+        <v>72</v>
+      </c>
+      <c r="D25" s="174"/>
+      <c r="E25" s="174" t="s">
+        <v>165</v>
+      </c>
+      <c r="F25" s="174" t="s">
+        <v>165</v>
+      </c>
+      <c r="G25" s="174" t="s">
+        <v>165</v>
+      </c>
+      <c r="H25" s="174" t="s">
+        <v>165</v>
+      </c>
+      <c r="I25" s="174" t="s">
+        <v>165</v>
+      </c>
+      <c r="J25" s="174" t="s">
+        <v>165</v>
+      </c>
+      <c r="K25" s="173" t="s">
+        <v>198</v>
+      </c>
+      <c r="L25" s="173" t="s">
+        <v>199</v>
+      </c>
+      <c r="M25" s="175" t="s">
+        <v>190</v>
+      </c>
+      <c r="N25" s="173" t="s">
+        <v>11</v>
+      </c>
+      <c r="O25" s="175" t="s">
+        <v>189</v>
+      </c>
+      <c r="P25" s="173"/>
+      <c r="Q25" s="173"/>
+      <c r="R25" s="173" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="81" t="s">
+        <v>155</v>
+      </c>
+      <c r="B26" s="81">
         <v>2024</v>
       </c>
-      <c r="C25" s="158" t="s">
+      <c r="C26" s="158" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="158"/>
-      <c r="E25" s="158" t="s">
+      <c r="D26" s="158"/>
+      <c r="E26" s="158" t="s">
         <v>1174</v>
       </c>
-      <c r="F25" s="158"/>
-      <c r="G25" s="158"/>
-      <c r="H25" s="158"/>
-      <c r="I25" s="158"/>
-      <c r="J25" s="158"/>
-      <c r="K25" s="81" t="s">
+      <c r="F26" s="158"/>
+      <c r="G26" s="158"/>
+      <c r="H26" s="158"/>
+      <c r="I26" s="158"/>
+      <c r="J26" s="158"/>
+      <c r="K26" s="81" t="s">
         <v>200</v>
       </c>
-      <c r="L25" s="81" t="s">
+      <c r="L26" s="81" t="s">
         <v>201</v>
       </c>
-      <c r="M25" s="82" t="s">
+      <c r="M26" s="82" t="s">
         <v>203</v>
       </c>
-      <c r="N25" s="81" t="s">
+      <c r="N26" s="81" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="82" t="s">
+      <c r="O26" s="82" t="s">
         <v>204</v>
       </c>
-      <c r="P25" s="81" t="s">
+      <c r="P26" s="81" t="s">
         <v>205</v>
       </c>
-      <c r="Q25" s="81"/>
-      <c r="R25" s="81" t="s">
+      <c r="Q26" s="81"/>
+      <c r="R26" s="81" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A26" s="176" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="176">
-        <v>2023</v>
-      </c>
-      <c r="C26" s="177" t="s">
-        <v>72</v>
-      </c>
-      <c r="D26" s="177" t="s">
-        <v>165</v>
-      </c>
-      <c r="E26" s="177" t="s">
-        <v>165</v>
-      </c>
-      <c r="F26" s="177"/>
-      <c r="G26" s="177"/>
-      <c r="H26" s="177"/>
-      <c r="I26" s="177"/>
-      <c r="J26" s="177"/>
-      <c r="K26" s="176" t="s">
-        <v>207</v>
-      </c>
-      <c r="L26" s="176" t="s">
-        <v>208</v>
-      </c>
-      <c r="M26" s="178" t="s">
-        <v>73</v>
-      </c>
-      <c r="N26" s="176" t="s">
-        <v>1868</v>
-      </c>
-      <c r="O26" s="178" t="s">
-        <v>180</v>
-      </c>
-      <c r="P26" s="176" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q26" s="176" t="s">
-        <v>1512</v>
-      </c>
-      <c r="R26" s="176" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A27" s="176" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="176">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C27" s="177" t="s">
         <v>72</v>
       </c>
-      <c r="D27" s="177"/>
+      <c r="D27" s="177" t="s">
+        <v>165</v>
+      </c>
       <c r="E27" s="177" t="s">
         <v>165</v>
       </c>
@@ -9986,83 +10010,85 @@
       <c r="I27" s="177"/>
       <c r="J27" s="177"/>
       <c r="K27" s="176" t="s">
+        <v>207</v>
+      </c>
+      <c r="L27" s="176" t="s">
+        <v>208</v>
+      </c>
+      <c r="M27" s="178" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27" s="176" t="s">
+        <v>1868</v>
+      </c>
+      <c r="O27" s="178" t="s">
+        <v>180</v>
+      </c>
+      <c r="P27" s="176" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q27" s="176" t="s">
+        <v>1512</v>
+      </c>
+      <c r="R27" s="176" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="176" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28" s="176">
+        <v>2024</v>
+      </c>
+      <c r="C28" s="177" t="s">
+        <v>72</v>
+      </c>
+      <c r="D28" s="177"/>
+      <c r="E28" s="177" t="s">
+        <v>165</v>
+      </c>
+      <c r="F28" s="177"/>
+      <c r="G28" s="177"/>
+      <c r="H28" s="177"/>
+      <c r="I28" s="177"/>
+      <c r="J28" s="177"/>
+      <c r="K28" s="176" t="s">
         <v>209</v>
       </c>
-      <c r="L27" s="176" t="s">
+      <c r="L28" s="176" t="s">
         <v>210</v>
       </c>
-      <c r="M27" s="178" t="s">
+      <c r="M28" s="178" t="s">
         <v>211</v>
       </c>
-      <c r="N27" s="176" t="s">
+      <c r="N28" s="176" t="s">
         <v>76</v>
       </c>
-      <c r="O27" s="178" t="s">
+      <c r="O28" s="178" t="s">
         <v>215</v>
       </c>
-      <c r="P27" s="176" t="s">
+      <c r="P28" s="176" t="s">
         <v>214</v>
       </c>
-      <c r="Q27" s="176"/>
-      <c r="R27" s="176" t="s">
+      <c r="Q28" s="176"/>
+      <c r="R28" s="176" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A28" s="83" t="s">
-        <v>49</v>
-      </c>
-      <c r="B28" s="83">
-        <v>2024</v>
-      </c>
-      <c r="C28" s="159" t="s">
-        <v>81</v>
-      </c>
-      <c r="D28" s="159"/>
-      <c r="E28" s="159" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F28" s="159"/>
-      <c r="G28" s="159"/>
-      <c r="H28" s="159"/>
-      <c r="I28" s="159"/>
-      <c r="J28" s="159"/>
-      <c r="K28" s="83" t="s">
-        <v>216</v>
-      </c>
-      <c r="L28" s="83" t="s">
-        <v>218</v>
-      </c>
-      <c r="M28" s="83" t="s">
-        <v>411</v>
-      </c>
-      <c r="N28" s="83" t="s">
-        <v>3</v>
-      </c>
-      <c r="O28" s="83" t="s">
-        <v>217</v>
-      </c>
-      <c r="P28" s="83"/>
-      <c r="Q28" s="83"/>
-      <c r="R28" s="83" t="s">
-        <v>1186</v>
-      </c>
-    </row>
-    <row r="29" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A29" s="83" t="s">
         <v>49</v>
       </c>
       <c r="B29" s="83">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C29" s="159" t="s">
-        <v>193</v>
-      </c>
-      <c r="D29" s="159" t="s">
-        <v>165</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="D29" s="159"/>
       <c r="E29" s="159" t="s">
-        <v>165</v>
+        <v>1174</v>
       </c>
       <c r="F29" s="159"/>
       <c r="G29" s="159"/>
@@ -10070,27 +10096,27 @@
       <c r="I29" s="159"/>
       <c r="J29" s="159"/>
       <c r="K29" s="83" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="L29" s="83" t="s">
-        <v>100</v>
-      </c>
-      <c r="M29" s="84" t="s">
-        <v>412</v>
+        <v>218</v>
+      </c>
+      <c r="M29" s="83" t="s">
+        <v>411</v>
       </c>
       <c r="N29" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="O29" s="84" t="s">
-        <v>51</v>
+      <c r="O29" s="83" t="s">
+        <v>217</v>
       </c>
       <c r="P29" s="83"/>
       <c r="Q29" s="83"/>
       <c r="R29" s="83" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="30" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="30" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A30" s="83" t="s">
         <v>49</v>
       </c>
@@ -10100,9 +10126,11 @@
       <c r="C30" s="159" t="s">
         <v>193</v>
       </c>
-      <c r="D30" s="159"/>
+      <c r="D30" s="159" t="s">
+        <v>165</v>
+      </c>
       <c r="E30" s="159" t="s">
-        <v>1174</v>
+        <v>165</v>
       </c>
       <c r="F30" s="159"/>
       <c r="G30" s="159"/>
@@ -10110,26 +10138,24 @@
       <c r="I30" s="159"/>
       <c r="J30" s="159"/>
       <c r="K30" s="83" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="L30" s="83" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="M30" s="84" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="N30" s="83" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="O30" s="84" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="P30" s="83"/>
-      <c r="Q30" s="83" t="s">
-        <v>413</v>
-      </c>
+      <c r="Q30" s="83"/>
       <c r="R30" s="83" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="31" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -10142,11 +10168,9 @@
       <c r="C31" s="159" t="s">
         <v>193</v>
       </c>
-      <c r="D31" s="159" t="s">
-        <v>165</v>
-      </c>
+      <c r="D31" s="159"/>
       <c r="E31" s="159" t="s">
-        <v>165</v>
+        <v>1174</v>
       </c>
       <c r="F31" s="159"/>
       <c r="G31" s="159"/>
@@ -10154,73 +10178,73 @@
       <c r="I31" s="159"/>
       <c r="J31" s="159"/>
       <c r="K31" s="83" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="L31" s="83" t="s">
-        <v>70</v>
+        <v>99</v>
       </c>
       <c r="M31" s="84" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="N31" s="83" t="s">
         <v>9</v>
       </c>
       <c r="O31" s="84" t="s">
-        <v>181</v>
+        <v>41</v>
       </c>
       <c r="P31" s="83"/>
       <c r="Q31" s="83" t="s">
+        <v>413</v>
+      </c>
+      <c r="R31" s="83" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A32" s="83" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" s="83">
+        <v>2021</v>
+      </c>
+      <c r="C32" s="159" t="s">
+        <v>193</v>
+      </c>
+      <c r="D32" s="159" t="s">
+        <v>165</v>
+      </c>
+      <c r="E32" s="159" t="s">
+        <v>165</v>
+      </c>
+      <c r="F32" s="159"/>
+      <c r="G32" s="159"/>
+      <c r="H32" s="159"/>
+      <c r="I32" s="159"/>
+      <c r="J32" s="159"/>
+      <c r="K32" s="83" t="s">
+        <v>221</v>
+      </c>
+      <c r="L32" s="83" t="s">
+        <v>70</v>
+      </c>
+      <c r="M32" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="N32" s="83" t="s">
+        <v>9</v>
+      </c>
+      <c r="O32" s="84" t="s">
+        <v>181</v>
+      </c>
+      <c r="P32" s="83"/>
+      <c r="Q32" s="83" t="s">
         <v>414</v>
       </c>
-      <c r="R31" s="83" t="s">
+      <c r="R32" s="83" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A32" s="179" t="s">
-        <v>49</v>
-      </c>
-      <c r="B32" s="179">
-        <v>2023</v>
-      </c>
-      <c r="C32" s="180" t="s">
-        <v>72</v>
-      </c>
-      <c r="D32" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="E32" s="180" t="s">
-        <v>165</v>
-      </c>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="179" t="s">
-        <v>224</v>
-      </c>
-      <c r="L32" s="179" t="s">
-        <v>225</v>
-      </c>
-      <c r="M32" s="181" t="s">
-        <v>226</v>
-      </c>
-      <c r="N32" s="179" t="s">
-        <v>11</v>
-      </c>
-      <c r="O32" s="181" t="s">
-        <v>182</v>
-      </c>
-      <c r="P32" s="179" t="s">
-        <v>127</v>
-      </c>
-      <c r="Q32" s="179"/>
-      <c r="R32" s="179" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="179" t="s">
         <v>49</v>
       </c>
@@ -10242,23 +10266,27 @@
       <c r="I33" s="180"/>
       <c r="J33" s="180"/>
       <c r="K33" s="179" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="L33" s="179" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="M33" s="181" t="s">
         <v>226</v>
       </c>
       <c r="N33" s="179" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="O33" s="181" t="s">
-        <v>231</v>
-      </c>
-      <c r="P33" s="179"/>
+        <v>182</v>
+      </c>
+      <c r="P33" s="179" t="s">
+        <v>127</v>
+      </c>
       <c r="Q33" s="179"/>
-      <c r="R33" s="179"/>
+      <c r="R33" s="179" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="34" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A34" s="179" t="s">
@@ -10282,10 +10310,10 @@
       <c r="I34" s="180"/>
       <c r="J34" s="180"/>
       <c r="K34" s="179" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="L34" s="179" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="M34" s="181" t="s">
         <v>226</v>
@@ -10294,20 +10322,18 @@
         <v>53</v>
       </c>
       <c r="O34" s="181" t="s">
-        <v>52</v>
+        <v>231</v>
       </c>
       <c r="P34" s="179"/>
       <c r="Q34" s="179"/>
-      <c r="R34" s="179" t="s">
-        <v>10</v>
-      </c>
+      <c r="R34" s="179"/>
     </row>
     <row r="35" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A35" s="179" t="s">
         <v>49</v>
       </c>
       <c r="B35" s="179">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C35" s="180" t="s">
         <v>72</v>
@@ -10324,19 +10350,19 @@
       <c r="I35" s="180"/>
       <c r="J35" s="180"/>
       <c r="K35" s="179" t="s">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="L35" s="179" t="s">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="M35" s="181" t="s">
-        <v>69</v>
+        <v>226</v>
       </c>
       <c r="N35" s="179" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="O35" s="181" t="s">
-        <v>163</v>
+        <v>52</v>
       </c>
       <c r="P35" s="179"/>
       <c r="Q35" s="179"/>
@@ -10354,9 +10380,11 @@
       <c r="C36" s="180" t="s">
         <v>72</v>
       </c>
-      <c r="D36" s="180"/>
+      <c r="D36" s="180" t="s">
+        <v>165</v>
+      </c>
       <c r="E36" s="180" t="s">
-        <v>1174</v>
+        <v>165</v>
       </c>
       <c r="F36" s="180"/>
       <c r="G36" s="180"/>
@@ -10364,64 +10392,66 @@
       <c r="I36" s="180"/>
       <c r="J36" s="180"/>
       <c r="K36" s="179" t="s">
-        <v>1815</v>
+        <v>222</v>
       </c>
       <c r="L36" s="179" t="s">
-        <v>1816</v>
+        <v>223</v>
       </c>
       <c r="M36" s="181" t="s">
-        <v>1817</v>
+        <v>69</v>
       </c>
       <c r="N36" s="179" t="s">
-        <v>47</v>
+        <v>11</v>
       </c>
       <c r="O36" s="181" t="s">
-        <v>1818</v>
-      </c>
-      <c r="P36" s="179" t="s">
-        <v>1819</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="P36" s="179"/>
       <c r="Q36" s="179"/>
       <c r="R36" s="179" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="179" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="179">
+        <v>2024</v>
+      </c>
+      <c r="C37" s="180" t="s">
+        <v>72</v>
+      </c>
+      <c r="D37" s="180"/>
+      <c r="E37" s="180" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F37" s="180"/>
+      <c r="G37" s="180"/>
+      <c r="H37" s="180"/>
+      <c r="I37" s="180"/>
+      <c r="J37" s="180"/>
+      <c r="K37" s="179" t="s">
+        <v>1815</v>
+      </c>
+      <c r="L37" s="179" t="s">
+        <v>1816</v>
+      </c>
+      <c r="M37" s="181" t="s">
+        <v>1817</v>
+      </c>
+      <c r="N37" s="179" t="s">
+        <v>47</v>
+      </c>
+      <c r="O37" s="181" t="s">
+        <v>1818</v>
+      </c>
+      <c r="P37" s="179" t="s">
+        <v>1819</v>
+      </c>
+      <c r="Q37" s="179"/>
+      <c r="R37" s="179" t="s">
         <v>1820</v>
-      </c>
-    </row>
-    <row r="37" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="79" t="s">
-        <v>48</v>
-      </c>
-      <c r="B37" s="79">
-        <v>2021</v>
-      </c>
-      <c r="C37" s="157" t="s">
-        <v>193</v>
-      </c>
-      <c r="D37" s="157"/>
-      <c r="E37" s="157" t="s">
-        <v>165</v>
-      </c>
-      <c r="F37" s="157"/>
-      <c r="G37" s="157"/>
-      <c r="H37" s="157"/>
-      <c r="I37" s="157"/>
-      <c r="J37" s="157"/>
-      <c r="K37" s="79"/>
-      <c r="L37" s="79" t="s">
-        <v>141</v>
-      </c>
-      <c r="M37" s="80" t="s">
-        <v>417</v>
-      </c>
-      <c r="N37" s="79" t="s">
-        <v>47</v>
-      </c>
-      <c r="O37" s="80" t="s">
-        <v>45</v>
-      </c>
-      <c r="P37" s="79"/>
-      <c r="Q37" s="79"/>
-      <c r="R37" s="79" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="38" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -10436,7 +10466,7 @@
       </c>
       <c r="D38" s="157"/>
       <c r="E38" s="157" t="s">
-        <v>1174</v>
+        <v>165</v>
       </c>
       <c r="F38" s="157"/>
       <c r="G38" s="157"/>
@@ -10445,23 +10475,21 @@
       <c r="J38" s="157"/>
       <c r="K38" s="79"/>
       <c r="L38" s="79" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="M38" s="80" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N38" s="79" t="s">
-        <v>9</v>
+        <v>47</v>
       </c>
       <c r="O38" s="80" t="s">
-        <v>42</v>
-      </c>
-      <c r="P38" s="79" t="s">
-        <v>123</v>
-      </c>
+        <v>45</v>
+      </c>
+      <c r="P38" s="79"/>
       <c r="Q38" s="79"/>
       <c r="R38" s="79" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -10485,23 +10513,23 @@
       <c r="J39" s="157"/>
       <c r="K39" s="79"/>
       <c r="L39" s="79" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="M39" s="80" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="N39" s="79" t="s">
         <v>9</v>
       </c>
       <c r="O39" s="80" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="P39" s="79" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="Q39" s="79"/>
       <c r="R39" s="79" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
     </row>
     <row r="40" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -10514,11 +10542,9 @@
       <c r="C40" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="D40" s="157" t="s">
-        <v>165</v>
-      </c>
+      <c r="D40" s="157"/>
       <c r="E40" s="157" t="s">
-        <v>165</v>
+        <v>1174</v>
       </c>
       <c r="F40" s="157"/>
       <c r="G40" s="157"/>
@@ -10527,21 +10553,23 @@
       <c r="J40" s="157"/>
       <c r="K40" s="79"/>
       <c r="L40" s="79" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="M40" s="80" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="N40" s="79" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="O40" s="80" t="s">
-        <v>44</v>
-      </c>
-      <c r="P40" s="79"/>
+        <v>43</v>
+      </c>
+      <c r="P40" s="79" t="s">
+        <v>124</v>
+      </c>
       <c r="Q40" s="79"/>
       <c r="R40" s="79" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -10554,7 +10582,9 @@
       <c r="C41" s="157" t="s">
         <v>193</v>
       </c>
-      <c r="D41" s="157"/>
+      <c r="D41" s="157" t="s">
+        <v>165</v>
+      </c>
       <c r="E41" s="157" t="s">
         <v>165</v>
       </c>
@@ -10565,23 +10595,21 @@
       <c r="J41" s="157"/>
       <c r="K41" s="79"/>
       <c r="L41" s="79" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M41" s="80" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="N41" s="79" t="s">
         <v>24</v>
       </c>
       <c r="O41" s="80" t="s">
-        <v>151</v>
-      </c>
-      <c r="P41" s="79" t="s">
-        <v>152</v>
-      </c>
+        <v>44</v>
+      </c>
+      <c r="P41" s="79"/>
       <c r="Q41" s="79"/>
       <c r="R41" s="79" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -10589,37 +10617,35 @@
         <v>48</v>
       </c>
       <c r="B42" s="79">
-        <v>2024</v>
+        <v>2021</v>
       </c>
       <c r="C42" s="157" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="D42" s="157"/>
       <c r="E42" s="157" t="s">
-        <v>1174</v>
+        <v>165</v>
       </c>
       <c r="F42" s="157"/>
       <c r="G42" s="157"/>
       <c r="H42" s="157"/>
       <c r="I42" s="157"/>
       <c r="J42" s="157"/>
-      <c r="K42" s="79" t="s">
-        <v>232</v>
-      </c>
+      <c r="K42" s="79"/>
       <c r="L42" s="79" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
       <c r="M42" s="80" t="s">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="N42" s="79" t="s">
-        <v>11</v>
+        <v>24</v>
       </c>
       <c r="O42" s="80" t="s">
-        <v>395</v>
+        <v>151</v>
       </c>
       <c r="P42" s="79" t="s">
-        <v>239</v>
+        <v>152</v>
       </c>
       <c r="Q42" s="79"/>
       <c r="R42" s="79" t="s">
@@ -10627,44 +10653,44 @@
       </c>
     </row>
     <row r="43" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="171" t="s">
+      <c r="A43" s="79" t="s">
         <v>48</v>
       </c>
-      <c r="B43" s="171">
+      <c r="B43" s="79">
         <v>2024</v>
       </c>
-      <c r="C43" s="172" t="s">
-        <v>72</v>
-      </c>
-      <c r="D43" s="172"/>
-      <c r="E43" s="172" t="s">
+      <c r="C43" s="157" t="s">
+        <v>206</v>
+      </c>
+      <c r="D43" s="157"/>
+      <c r="E43" s="157" t="s">
         <v>1174</v>
       </c>
-      <c r="F43" s="172"/>
-      <c r="G43" s="172"/>
-      <c r="H43" s="172"/>
-      <c r="I43" s="172"/>
-      <c r="J43" s="172"/>
-      <c r="K43" s="171" t="s">
-        <v>235</v>
-      </c>
-      <c r="L43" s="171" t="s">
-        <v>236</v>
-      </c>
-      <c r="M43" s="182" t="s">
-        <v>237</v>
-      </c>
-      <c r="N43" s="171" t="s">
+      <c r="F43" s="157"/>
+      <c r="G43" s="157"/>
+      <c r="H43" s="157"/>
+      <c r="I43" s="157"/>
+      <c r="J43" s="157"/>
+      <c r="K43" s="79" t="s">
+        <v>232</v>
+      </c>
+      <c r="L43" s="79" t="s">
+        <v>233</v>
+      </c>
+      <c r="M43" s="80" t="s">
+        <v>234</v>
+      </c>
+      <c r="N43" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="O43" s="182" t="s">
-        <v>393</v>
-      </c>
-      <c r="P43" s="171" t="s">
-        <v>238</v>
-      </c>
-      <c r="Q43" s="171"/>
-      <c r="R43" s="171" t="s">
+      <c r="O43" s="80" t="s">
+        <v>395</v>
+      </c>
+      <c r="P43" s="79" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q43" s="79"/>
+      <c r="R43" s="79" t="s">
         <v>10</v>
       </c>
     </row>
@@ -10688,75 +10714,83 @@
       <c r="I44" s="172"/>
       <c r="J44" s="172"/>
       <c r="K44" s="171" t="s">
+        <v>235</v>
+      </c>
+      <c r="L44" s="171" t="s">
+        <v>236</v>
+      </c>
+      <c r="M44" s="182" t="s">
+        <v>237</v>
+      </c>
+      <c r="N44" s="171" t="s">
+        <v>11</v>
+      </c>
+      <c r="O44" s="182" t="s">
+        <v>393</v>
+      </c>
+      <c r="P44" s="171" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q44" s="171"/>
+      <c r="R44" s="171" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="171" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" s="171">
+        <v>2024</v>
+      </c>
+      <c r="C45" s="172" t="s">
+        <v>72</v>
+      </c>
+      <c r="D45" s="172"/>
+      <c r="E45" s="172" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F45" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="G45" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="H45" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="I45" s="172" t="s">
+        <v>165</v>
+      </c>
+      <c r="J45" s="172" t="s">
+        <v>1174</v>
+      </c>
+      <c r="K45" s="171" t="s">
         <v>1606</v>
       </c>
-      <c r="L44" s="171" t="s">
+      <c r="L45" s="171" t="s">
         <v>508</v>
       </c>
-      <c r="M44" s="182" t="s">
+      <c r="M45" s="182" t="s">
         <v>1607</v>
       </c>
-      <c r="N44" s="171" t="s">
+      <c r="N45" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="O44" s="182" t="s">
+      <c r="O45" s="182" t="s">
         <v>1608</v>
       </c>
-      <c r="P44" s="171" t="s">
+      <c r="P45" s="171" t="s">
         <v>1609</v>
       </c>
-      <c r="Q44" s="171" t="s">
+      <c r="Q45" s="171" t="s">
         <v>1610</v>
       </c>
-      <c r="R44" s="171" t="s">
+      <c r="R45" s="171" t="s">
         <v>1611</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A45" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="B45" s="85">
-        <v>2021</v>
-      </c>
-      <c r="C45" s="160" t="s">
-        <v>193</v>
-      </c>
-      <c r="D45" s="160" t="s">
-        <v>165</v>
-      </c>
-      <c r="E45" s="160" t="s">
-        <v>165</v>
-      </c>
-      <c r="F45" s="160"/>
-      <c r="G45" s="160"/>
-      <c r="H45" s="160"/>
-      <c r="I45" s="160"/>
-      <c r="J45" s="160"/>
-      <c r="K45" s="85" t="s">
-        <v>240</v>
-      </c>
-      <c r="L45" s="85" t="s">
-        <v>242</v>
-      </c>
-      <c r="M45" s="86" t="s">
-        <v>241</v>
-      </c>
-      <c r="N45" s="85" t="s">
-        <v>3</v>
-      </c>
-      <c r="O45" s="86" t="s">
-        <v>243</v>
-      </c>
-      <c r="P45" s="85" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q45" s="85"/>
-      <c r="R45" s="85" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="46" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85" t="s">
         <v>57</v>
       </c>
@@ -10778,74 +10812,76 @@
       <c r="I46" s="160"/>
       <c r="J46" s="160"/>
       <c r="K46" s="85" t="s">
-        <v>423</v>
+        <v>240</v>
       </c>
       <c r="L46" s="85" t="s">
-        <v>78</v>
+        <v>242</v>
       </c>
       <c r="M46" s="86" t="s">
-        <v>422</v>
+        <v>241</v>
       </c>
       <c r="N46" s="85" t="s">
-        <v>24</v>
+        <v>3</v>
       </c>
       <c r="O46" s="86" t="s">
-        <v>79</v>
-      </c>
-      <c r="P46" s="85"/>
+        <v>243</v>
+      </c>
+      <c r="P46" s="85" t="s">
+        <v>137</v>
+      </c>
       <c r="Q46" s="85"/>
       <c r="R46" s="85" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A47" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="B47" s="85">
+        <v>2021</v>
+      </c>
+      <c r="C47" s="160" t="s">
+        <v>193</v>
+      </c>
+      <c r="D47" s="160" t="s">
+        <v>165</v>
+      </c>
+      <c r="E47" s="160" t="s">
+        <v>165</v>
+      </c>
+      <c r="F47" s="160"/>
+      <c r="G47" s="160"/>
+      <c r="H47" s="160"/>
+      <c r="I47" s="160"/>
+      <c r="J47" s="160"/>
+      <c r="K47" s="85" t="s">
+        <v>423</v>
+      </c>
+      <c r="L47" s="85" t="s">
+        <v>78</v>
+      </c>
+      <c r="M47" s="86" t="s">
+        <v>422</v>
+      </c>
+      <c r="N47" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="86" t="s">
+        <v>79</v>
+      </c>
+      <c r="P47" s="85"/>
+      <c r="Q47" s="85"/>
+      <c r="R47" s="85" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A47" s="183" t="s">
-        <v>57</v>
-      </c>
-      <c r="B47" s="183">
-        <v>2024</v>
-      </c>
-      <c r="C47" s="184" t="s">
-        <v>72</v>
-      </c>
-      <c r="D47" s="184" t="s">
-        <v>165</v>
-      </c>
-      <c r="E47" s="184" t="s">
-        <v>165</v>
-      </c>
-      <c r="F47" s="184"/>
-      <c r="G47" s="184"/>
-      <c r="H47" s="184"/>
-      <c r="I47" s="184"/>
-      <c r="J47" s="184"/>
-      <c r="K47" s="183" t="s">
-        <v>244</v>
-      </c>
-      <c r="L47" s="183" t="s">
-        <v>265</v>
-      </c>
-      <c r="M47" s="185" t="s">
-        <v>75</v>
-      </c>
-      <c r="N47" s="183" t="s">
-        <v>76</v>
-      </c>
-      <c r="O47" s="185" t="s">
-        <v>74</v>
-      </c>
-      <c r="P47" s="183"/>
-      <c r="Q47" s="183"/>
-      <c r="R47" s="183" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="48" spans="1:18" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A48" s="183" t="s">
         <v>57</v>
       </c>
       <c r="B48" s="183">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C48" s="184" t="s">
         <v>72</v>
@@ -10862,28 +10898,24 @@
       <c r="I48" s="184"/>
       <c r="J48" s="184"/>
       <c r="K48" s="183" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="L48" s="183" t="s">
-        <v>1742</v>
+        <v>265</v>
       </c>
       <c r="M48" s="185" t="s">
-        <v>247</v>
+        <v>75</v>
       </c>
       <c r="N48" s="183" t="s">
-        <v>11</v>
+        <v>76</v>
       </c>
       <c r="O48" s="185" t="s">
-        <v>58</v>
-      </c>
-      <c r="P48" s="183" t="s">
-        <v>131</v>
-      </c>
-      <c r="Q48" s="183" t="s">
-        <v>1741</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="P48" s="183"/>
+      <c r="Q48" s="183"/>
       <c r="R48" s="183" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:18" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -10891,7 +10923,7 @@
         <v>57</v>
       </c>
       <c r="B49" s="183">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C49" s="184" t="s">
         <v>72</v>
@@ -10902,82 +10934,106 @@
       <c r="E49" s="184" t="s">
         <v>165</v>
       </c>
-      <c r="F49" s="184"/>
-      <c r="G49" s="184"/>
-      <c r="H49" s="184"/>
-      <c r="I49" s="184"/>
-      <c r="J49" s="184"/>
+      <c r="F49" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="G49" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="H49" s="184" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I49" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="J49" s="184" t="s">
+        <v>1174</v>
+      </c>
       <c r="K49" s="183" t="s">
-        <v>1735</v>
+        <v>245</v>
       </c>
       <c r="L49" s="183" t="s">
-        <v>1736</v>
+        <v>1742</v>
       </c>
       <c r="M49" s="185" t="s">
         <v>247</v>
       </c>
       <c r="N49" s="183" t="s">
-        <v>1737</v>
+        <v>11</v>
       </c>
       <c r="O49" s="185" t="s">
-        <v>1740</v>
+        <v>58</v>
       </c>
       <c r="P49" s="183" t="s">
-        <v>1738</v>
+        <v>131</v>
       </c>
       <c r="Q49" s="183" t="s">
-        <v>1739</v>
-      </c>
-      <c r="R49" s="183"/>
-    </row>
-    <row r="50" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+        <v>1741</v>
+      </c>
+      <c r="R49" s="183" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="50" spans="1:18" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="183" t="s">
         <v>57</v>
       </c>
       <c r="B50" s="183">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C50" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="D50" s="184"/>
+      <c r="D50" s="184" t="s">
+        <v>165</v>
+      </c>
       <c r="E50" s="184" t="s">
         <v>165</v>
       </c>
-      <c r="F50" s="184"/>
-      <c r="G50" s="184"/>
-      <c r="H50" s="184"/>
-      <c r="I50" s="184"/>
-      <c r="J50" s="184"/>
+      <c r="F50" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="G50" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="H50" s="184" t="s">
+        <v>1174</v>
+      </c>
+      <c r="I50" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="J50" s="184" t="s">
+        <v>1174</v>
+      </c>
       <c r="K50" s="183" t="s">
-        <v>248</v>
+        <v>1735</v>
       </c>
       <c r="L50" s="183" t="s">
-        <v>249</v>
+        <v>1736</v>
       </c>
       <c r="M50" s="185" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="N50" s="183" t="s">
-        <v>11</v>
+        <v>1737</v>
       </c>
       <c r="O50" s="185" t="s">
-        <v>255</v>
+        <v>1740</v>
       </c>
       <c r="P50" s="183" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q50" s="183"/>
-      <c r="R50" s="183" t="s">
-        <v>10</v>
-      </c>
+        <v>1738</v>
+      </c>
+      <c r="Q50" s="183" t="s">
+        <v>1739</v>
+      </c>
+      <c r="R50" s="183"/>
     </row>
     <row r="51" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A51" s="183" t="s">
         <v>57</v>
       </c>
       <c r="B51" s="183">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C51" s="184" t="s">
         <v>72</v>
@@ -10992,22 +11048,22 @@
       <c r="I51" s="184"/>
       <c r="J51" s="184"/>
       <c r="K51" s="183" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="L51" s="183" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="M51" s="185" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
       <c r="N51" s="183" t="s">
         <v>11</v>
       </c>
       <c r="O51" s="185" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="P51" s="183" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="Q51" s="183"/>
       <c r="R51" s="183" t="s">
@@ -11019,14 +11075,12 @@
         <v>57</v>
       </c>
       <c r="B52" s="183">
-        <v>2023</v>
+        <v>2024</v>
       </c>
       <c r="C52" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="D52" s="184" t="s">
-        <v>165</v>
-      </c>
+      <c r="D52" s="184"/>
       <c r="E52" s="184" t="s">
         <v>165</v>
       </c>
@@ -11036,24 +11090,26 @@
       <c r="I52" s="184"/>
       <c r="J52" s="184"/>
       <c r="K52" s="183" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L52" s="183" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M52" s="185" t="s">
-        <v>60</v>
+        <v>263</v>
       </c>
       <c r="N52" s="183" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="O52" s="185" t="s">
-        <v>61</v>
-      </c>
-      <c r="P52" s="183"/>
+        <v>257</v>
+      </c>
+      <c r="P52" s="183" t="s">
+        <v>258</v>
+      </c>
       <c r="Q52" s="183"/>
       <c r="R52" s="183" t="s">
-        <v>25</v>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -11061,83 +11117,93 @@
         <v>57</v>
       </c>
       <c r="B53" s="183">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C53" s="184" t="s">
         <v>72</v>
       </c>
-      <c r="D53" s="184"/>
+      <c r="D53" s="184" t="s">
+        <v>165</v>
+      </c>
       <c r="E53" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="G53" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="H53" s="184" t="s">
         <v>1174</v>
       </c>
-      <c r="F53" s="184"/>
-      <c r="G53" s="184"/>
-      <c r="H53" s="184"/>
-      <c r="I53" s="184"/>
-      <c r="J53" s="184"/>
+      <c r="I53" s="184" t="s">
+        <v>165</v>
+      </c>
+      <c r="J53" s="184" t="s">
+        <v>1174</v>
+      </c>
       <c r="K53" s="183" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="L53" s="183" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="M53" s="185" t="s">
-        <v>262</v>
+        <v>60</v>
       </c>
       <c r="N53" s="183" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="O53" s="185" t="s">
-        <v>259</v>
-      </c>
-      <c r="P53" s="183" t="s">
-        <v>260</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P53" s="183"/>
       <c r="Q53" s="183"/>
       <c r="R53" s="183" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="54" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="183" t="s">
+        <v>57</v>
+      </c>
+      <c r="B54" s="183">
+        <v>2024</v>
+      </c>
+      <c r="C54" s="184" t="s">
+        <v>72</v>
+      </c>
+      <c r="D54" s="184"/>
+      <c r="E54" s="184" t="s">
+        <v>1174</v>
+      </c>
+      <c r="F54" s="184"/>
+      <c r="G54" s="184"/>
+      <c r="H54" s="184"/>
+      <c r="I54" s="184"/>
+      <c r="J54" s="184"/>
+      <c r="K54" s="183" t="s">
+        <v>254</v>
+      </c>
+      <c r="L54" s="183" t="s">
+        <v>261</v>
+      </c>
+      <c r="M54" s="185" t="s">
+        <v>262</v>
+      </c>
+      <c r="N54" s="183" t="s">
+        <v>9</v>
+      </c>
+      <c r="O54" s="185" t="s">
+        <v>259</v>
+      </c>
+      <c r="P54" s="183" t="s">
+        <v>260</v>
+      </c>
+      <c r="Q54" s="183"/>
+      <c r="R54" s="183" t="s">
         <v>10</v>
-      </c>
-    </row>
-    <row r="54" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A54" s="87" t="s">
-        <v>2</v>
-      </c>
-      <c r="B54" s="87">
-        <v>2023</v>
-      </c>
-      <c r="C54" s="161" t="s">
-        <v>81</v>
-      </c>
-      <c r="D54" s="161"/>
-      <c r="E54" s="161" t="s">
-        <v>1174</v>
-      </c>
-      <c r="F54" s="161"/>
-      <c r="G54" s="161"/>
-      <c r="H54" s="161"/>
-      <c r="I54" s="161"/>
-      <c r="J54" s="161"/>
-      <c r="K54" s="87" t="s">
-        <v>266</v>
-      </c>
-      <c r="L54" s="87" t="s">
-        <v>87</v>
-      </c>
-      <c r="M54" s="87" t="s">
-        <v>267</v>
-      </c>
-      <c r="N54" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="O54" s="87" t="s">
-        <v>82</v>
-      </c>
-      <c r="P54" s="87" t="s">
-        <v>113</v>
-      </c>
-      <c r="Q54" s="87"/>
-      <c r="R54" s="87" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:18" x14ac:dyDescent="0.2">
@@ -11145,16 +11211,14 @@
         <v>2</v>
       </c>
       <c r="B55" s="87">
-        <v>2024</v>
+        <v>2023</v>
       </c>
       <c r="C55" s="161" t="s">
         <v>81</v>
       </c>
-      <c r="D55" s="161" t="s">
-        <v>165</v>
-      </c>
+      <c r="D55" s="161"/>
       <c r="E55" s="161" t="s">
-        <v>165</v>
+        <v>1174</v>
       </c>
       <c r="F55" s="161"/>
       <c r="G55" s="161"/>
@@ -11162,37 +11226,41 @@
       <c r="I55" s="161"/>
       <c r="J55" s="161"/>
       <c r="K55" s="87" t="s">
-        <v>1861</v>
+        <v>266</v>
       </c>
       <c r="L55" s="87" t="s">
-        <v>1860</v>
+        <v>87</v>
       </c>
       <c r="M55" s="87" t="s">
-        <v>1860</v>
+        <v>267</v>
       </c>
       <c r="N55" s="87" t="s">
-        <v>1862</v>
+        <v>3</v>
       </c>
       <c r="O55" s="87" t="s">
-        <v>1863</v>
-      </c>
-      <c r="P55" s="87"/>
+        <v>82</v>
+      </c>
+      <c r="P55" s="87" t="s">
+        <v>113</v>
+      </c>
       <c r="Q55" s="87"/>
       <c r="R55" s="87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="56" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A56" s="87" t="s">
         <v>2</v>
       </c>
       <c r="B56" s="87">
-        <v>2021</v>
+        <v>2024</v>
       </c>
       <c r="C56" s="161" t="s">
-        <v>193</v>
-      </c>
-      <c r="D56" s="161"/>
+        <v>81</v>
+      </c>
+      <c r="D56" s="161" t="s">
+        <v>165</v>
+      </c>
       <c r="E56" s="161" t="s">
         <v>165</v>
       </c>
@@ -11202,29 +11270,27 @@
       <c r="I56" s="161"/>
       <c r="J56" s="161"/>
       <c r="K56" s="87" t="s">
-        <v>283</v>
+        <v>1861</v>
       </c>
       <c r="L56" s="87" t="s">
-        <v>84</v>
-      </c>
-      <c r="M56" s="88" t="s">
-        <v>84</v>
+        <v>1860</v>
+      </c>
+      <c r="M56" s="87" t="s">
+        <v>1860</v>
       </c>
       <c r="N56" s="87" t="s">
-        <v>3</v>
-      </c>
-      <c r="O56" s="88" t="s">
-        <v>14</v>
-      </c>
-      <c r="P56" s="87" t="s">
-        <v>105</v>
-      </c>
+        <v>1862</v>
+      </c>
+      <c r="O56" s="87" t="s">
+        <v>1863</v>
+      </c>
+      <c r="P56" s="87"/>
       <c r="Q56" s="87"/>
       <c r="R56" s="87" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="57" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="87" t="s">
         <v>2</v>
       </c>
@@ -11244,26 +11310,26 @@
       <c r="I57" s="161"/>
       <c r="J57" s="161"/>
       <c r="K57" s="87" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="L57" s="87" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M57" s="88" t="s">
-        <v>424</v>
+        <v>84</v>
       </c>
       <c r="N57" s="87" t="s">
         <v>3</v>
       </c>
       <c r="O57" s="88" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="P57" s="87" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q57" s="87"/>
       <c r="R57" s="87" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="58" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
@@ -11286,29 +11352,29 @@
       <c r="I58" s="161"/>
       <c r="J58" s="161"/>
       <c r="K58" s="87" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L58" s="87" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="M58" s="88" t="s">
-        <v>409</v>
+        <v>424</v>
       </c>
       <c r="N58" s="87" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="O58" s="88" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="P58" s="87" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q58" s="87"/>
       <c r="R58" s="87" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A59" s="87" t="s">
         <v>2</v>
       </c>
@@ -11318,9 +11384,7 @@
       <c r="C59" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="D59" s="161" t="s">
-        <v>165</v>
-      </c>
+      <c r="D59" s="161"/>
       <c r="E59" s="161" t="s">
         <v>165</v>
       </c>
@@ -11330,24 +11394,26 @@
       <c r="I59" s="161"/>
       <c r="J59" s="161"/>
       <c r="K59" s="87" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="L59" s="87" t="s">
-        <v>161</v>
+        <v>88</v>
       </c>
       <c r="M59" s="88" t="s">
-        <v>425</v>
+        <v>409</v>
       </c>
       <c r="N59" s="87" t="s">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="O59" s="88" t="s">
-        <v>17</v>
-      </c>
-      <c r="P59" s="87"/>
+        <v>15</v>
+      </c>
+      <c r="P59" s="87" t="s">
+        <v>107</v>
+      </c>
       <c r="Q59" s="87"/>
       <c r="R59" s="87" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -11372,10 +11438,10 @@
       <c r="I60" s="161"/>
       <c r="J60" s="161"/>
       <c r="K60" s="87" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="L60" s="87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="M60" s="88" t="s">
         <v>425</v>
@@ -11384,7 +11450,7 @@
         <v>11</v>
       </c>
       <c r="O60" s="88" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="P60" s="87"/>
       <c r="Q60" s="87"/>
@@ -11392,7 +11458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="87" t="s">
         <v>2</v>
       </c>
@@ -11402,7 +11468,9 @@
       <c r="C61" s="161" t="s">
         <v>193</v>
       </c>
-      <c r="D61" s="161"/>
+      <c r="D61" s="161" t="s">
+        <v>165</v>
+      </c>
       <c r="E61" s="161" t="s">
         <v>165</v>
       </c>
@@ -11412,41 +11480,37 @@
       <c r="I61" s="161"/>
       <c r="J61" s="161"/>
       <c r="K61" s="87" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="L61" s="87" t="s">
-        <v>93</v>
+        <v>162</v>
       </c>
       <c r="M61" s="88" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="N61" s="87" t="s">
         <v>11</v>
       </c>
       <c r="O61" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="P61" s="87" t="s">
-        <v>110</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="P61" s="87"/>
       <c r="Q61" s="87"/>
       <c r="R61" s="87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A62" s="87" t="s">
         <v>2</v>
       </c>
       <c r="B62" s="87">
-        <v>2022</v>
+        <v>2021</v>
       </c>
       <c r="C62" s="161" t="s">
-        <v>91</v>
-      </c>
-      <c r="D62" s="161" t="s">
-        <v>165</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="D62" s="161"/>
       <c r="E62" s="161" t="s">
         <v>165</v>
       </c>
@@ -11456,22 +11520,22 @@
       <c r="I62" s="161"/>
       <c r="J62" s="161"/>
       <c r="K62" s="87" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="L62" s="87" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="M62" s="88" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N62" s="87" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O62" s="88" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="P62" s="87" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="Q62" s="87"/>
       <c r="R62" s="87" t="s">
@@ -11488,7 +11552,9 @@
       <c r="C63" s="161" t="s">
         <v>91</v>
       </c>
-      <c r="D63" s="161"/>
+      <c r="D63" s="161" t="s">
+        <v>165</v>
+      </c>
       <c r="E63" s="161" t="s">
         <v>165</v>
       </c>
@@ -11498,22 +11564,22 @@
       <c r="I63" s="161"/>
       <c r="J63" s="161"/>
       <c r="K63" s="87" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="L63" s="87" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M63" s="88" t="s">
         <v>427</v>
       </c>
       <c r="N63" s="87" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O63" s="88" t="s">
-        <v>20</v>
+        <v>126</v>
       </c>
       <c r="P63" s="87" t="s">
-        <v>111</v>
+        <v>125</v>
       </c>
       <c r="Q63" s="87"/>
       <c r="R63" s="87" t="s">
@@ -11540,71 +11606,67 @@
       <c r="I64" s="161"/>
       <c r="J64" s="161"/>
       <c r="K64" s="87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="L64" s="87" t="s">
-        <v>279</v>
+        <v>92</v>
       </c>
       <c r="M64" s="88" t="s">
         <v>427</v>
       </c>
-      <c r="N64" s="87"/>
+      <c r="N64" s="87" t="s">
+        <v>11</v>
+      </c>
       <c r="O64" s="88" t="s">
-        <v>278</v>
-      </c>
-      <c r="P64" s="87"/>
+        <v>20</v>
+      </c>
+      <c r="P64" s="87" t="s">
+        <v>111</v>
+      </c>
       <c r="Q64" s="87"/>
       <c r="R64" s="87" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
-      <c r="A65" s="186" t="s">
+    <row r="65" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B65" s="186">
-        <v>2023</v>
-      </c>
-      <c r="C65" s="187" t="s">
-        <v>72</v>
-      </c>
-      <c r="D65" s="187" t="s">
+      <c r="B65" s="87">
+        <v>2022</v>
+      </c>
+      <c r="C65" s="161" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="161"/>
+      <c r="E65" s="161" t="s">
         <v>165</v>
       </c>
-      <c r="E65" s="187" t="s">
-        <v>165</v>
-      </c>
-      <c r="F65" s="187"/>
-      <c r="G65" s="187"/>
-      <c r="H65" s="187"/>
-      <c r="I65" s="187"/>
-      <c r="J65" s="187"/>
-      <c r="K65" s="186" t="s">
-        <v>268</v>
-      </c>
-      <c r="L65" s="186" t="s">
-        <v>269</v>
-      </c>
-      <c r="M65" s="188" t="s">
-        <v>73</v>
-      </c>
-      <c r="N65" s="186" t="s">
-        <v>9</v>
-      </c>
-      <c r="O65" s="188" t="s">
-        <v>159</v>
-      </c>
-      <c r="P65" s="186" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q65" s="186" t="s">
-        <v>1511</v>
-      </c>
-      <c r="R65" s="186" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="66" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F65" s="161"/>
+      <c r="G65" s="161"/>
+      <c r="H65" s="161"/>
+      <c r="I65" s="161"/>
+      <c r="J65" s="161"/>
+      <c r="K65" s="87" t="s">
+        <v>277</v>
+      </c>
+      <c r="L65" s="87" t="s">
+        <v>279</v>
+      </c>
+      <c r="M65" s="88" t="s">
+        <v>427</v>
+      </c>
+      <c r="N65" s="87"/>
+      <c r="O65" s="88" t="s">
+        <v>278</v>
+      </c>
+      <c r="P65" s="87"/>
+      <c r="Q65" s="87"/>
+      <c r="R65" s="87" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A66" s="186" t="s">
         <v>2</v>
       </c>
@@ -11614,7 +11676,9 @@
       <c r="C66" s="187" t="s">
         <v>72</v>
       </c>
-      <c r="D66" s="187"/>
+      <c r="D66" s="187" t="s">
+        <v>165</v>
+      </c>
       <c r="E66" s="187" t="s">
         <v>165</v>
       </c>
@@ -11624,109 +11688,111 @@
       <c r="I66" s="187"/>
       <c r="J66" s="187"/>
       <c r="K66" s="186" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="L66" s="186" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="M66" s="188" t="s">
-        <v>94</v>
+        <v>73</v>
       </c>
       <c r="N66" s="186" t="s">
         <v>9</v>
       </c>
       <c r="O66" s="188" t="s">
+        <v>159</v>
+      </c>
+      <c r="P66" s="186" t="s">
+        <v>160</v>
+      </c>
+      <c r="Q66" s="186" t="s">
+        <v>1511</v>
+      </c>
+      <c r="R66" s="186" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="67" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="B67" s="186">
+        <v>2023</v>
+      </c>
+      <c r="C67" s="187" t="s">
+        <v>72</v>
+      </c>
+      <c r="D67" s="187"/>
+      <c r="E67" s="187" t="s">
+        <v>165</v>
+      </c>
+      <c r="F67" s="187"/>
+      <c r="G67" s="187"/>
+      <c r="H67" s="187"/>
+      <c r="I67" s="187"/>
+      <c r="J67" s="187"/>
+      <c r="K67" s="186" t="s">
+        <v>270</v>
+      </c>
+      <c r="L67" s="186" t="s">
+        <v>271</v>
+      </c>
+      <c r="M67" s="188" t="s">
+        <v>94</v>
+      </c>
+      <c r="N67" s="186" t="s">
+        <v>9</v>
+      </c>
+      <c r="O67" s="188" t="s">
         <v>21</v>
       </c>
-      <c r="P66" s="186" t="s">
+      <c r="P67" s="186" t="s">
         <v>112</v>
       </c>
-      <c r="Q66" s="186"/>
-      <c r="R66" s="186" t="s">
+      <c r="Q67" s="186"/>
+      <c r="R67" s="186" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A67" s="87" t="s">
+    <row r="68" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="87" t="s">
         <v>2</v>
       </c>
-      <c r="B67" s="87">
+      <c r="B68" s="87">
         <v>2024</v>
       </c>
-      <c r="C67" s="161" t="s">
+      <c r="C68" s="161" t="s">
         <v>206</v>
       </c>
-      <c r="D67" s="161"/>
-      <c r="E67" s="161" t="s">
+      <c r="D68" s="161"/>
+      <c r="E68" s="161" t="s">
         <v>1174</v>
       </c>
-      <c r="F67" s="161"/>
-      <c r="G67" s="161"/>
-      <c r="H67" s="161"/>
-      <c r="I67" s="161"/>
-      <c r="J67" s="161"/>
-      <c r="K67" s="87" t="s">
+      <c r="F68" s="161"/>
+      <c r="G68" s="161"/>
+      <c r="H68" s="161"/>
+      <c r="I68" s="161"/>
+      <c r="J68" s="161"/>
+      <c r="K68" s="87" t="s">
         <v>272</v>
       </c>
-      <c r="L67" s="87" t="s">
+      <c r="L68" s="87" t="s">
         <v>273</v>
       </c>
-      <c r="M67" s="88" t="s">
+      <c r="M68" s="88" t="s">
         <v>241</v>
       </c>
-      <c r="N67" s="87" t="s">
+      <c r="N68" s="87" t="s">
         <v>11</v>
       </c>
-      <c r="O67" s="88" t="s">
+      <c r="O68" s="88" t="s">
         <v>274</v>
       </c>
-      <c r="P67" s="87" t="s">
+      <c r="P68" s="87" t="s">
         <v>1569</v>
       </c>
-      <c r="Q67" s="87"/>
-      <c r="R67" s="87" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="68" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A68" s="186" t="s">
-        <v>2</v>
-      </c>
-      <c r="B68" s="186">
-        <v>2024</v>
-      </c>
-      <c r="C68" s="187" t="s">
-        <v>72</v>
-      </c>
-      <c r="D68" s="187"/>
-      <c r="E68" s="187" t="s">
-        <v>165</v>
-      </c>
-      <c r="F68" s="187"/>
-      <c r="G68" s="187"/>
-      <c r="H68" s="187"/>
-      <c r="I68" s="187"/>
-      <c r="J68" s="187"/>
-      <c r="K68" s="186" t="s">
-        <v>1565</v>
-      </c>
-      <c r="L68" s="186" t="s">
-        <v>1566</v>
-      </c>
-      <c r="M68" s="188" t="s">
-        <v>241</v>
-      </c>
-      <c r="N68" s="186" t="s">
-        <v>11</v>
-      </c>
-      <c r="O68" s="188" t="s">
-        <v>1567</v>
-      </c>
-      <c r="P68" s="186" t="s">
-        <v>1568</v>
-      </c>
-      <c r="Q68" s="186"/>
-      <c r="R68" s="186" t="s">
+      <c r="Q68" s="87"/>
+      <c r="R68" s="87" t="s">
         <v>10</v>
       </c>
     </row>
@@ -11744,87 +11810,87 @@
       <c r="E69" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="F69" s="187" t="s">
-        <v>165</v>
-      </c>
-      <c r="G69" s="187" t="s">
-        <v>165</v>
-      </c>
+      <c r="F69" s="187"/>
+      <c r="G69" s="187"/>
       <c r="H69" s="187"/>
-      <c r="I69" s="187" t="s">
-        <v>165</v>
-      </c>
-      <c r="J69" s="187" t="s">
-        <v>165</v>
-      </c>
+      <c r="I69" s="187"/>
+      <c r="J69" s="187"/>
       <c r="K69" s="186" t="s">
-        <v>1856</v>
+        <v>1565</v>
       </c>
       <c r="L69" s="186" t="s">
-        <v>883</v>
+        <v>1566</v>
       </c>
       <c r="M69" s="188" t="s">
-        <v>509</v>
+        <v>241</v>
       </c>
       <c r="N69" s="186" t="s">
-        <v>1868</v>
+        <v>11</v>
       </c>
       <c r="O69" s="188" t="s">
-        <v>1857</v>
+        <v>1567</v>
       </c>
       <c r="P69" s="186" t="s">
-        <v>1858</v>
-      </c>
-      <c r="Q69" s="186" t="s">
-        <v>1859</v>
-      </c>
+        <v>1568</v>
+      </c>
+      <c r="Q69" s="186"/>
       <c r="R69" s="186" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="70" spans="1:18" s="78" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A70" s="89" t="s">
-        <v>40</v>
-      </c>
-      <c r="B70" s="89">
-        <v>2021</v>
-      </c>
-      <c r="C70" s="162" t="s">
-        <v>193</v>
-      </c>
-      <c r="D70" s="162" t="s">
+    <row r="70" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="186" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="186">
+        <v>2024</v>
+      </c>
+      <c r="C70" s="187" t="s">
+        <v>72</v>
+      </c>
+      <c r="D70" s="187"/>
+      <c r="E70" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="E70" s="162" t="s">
+      <c r="F70" s="187" t="s">
         <v>165</v>
       </c>
-      <c r="F70" s="162"/>
-      <c r="G70" s="162"/>
-      <c r="H70" s="162"/>
-      <c r="I70" s="162"/>
-      <c r="J70" s="162"/>
-      <c r="K70" s="89" t="s">
-        <v>286</v>
-      </c>
-      <c r="L70" s="89" t="s">
-        <v>153</v>
-      </c>
-      <c r="M70" s="90" t="s">
-        <v>396</v>
-      </c>
-      <c r="N70" s="89" t="s">
-        <v>26</v>
-      </c>
-      <c r="O70" s="90" t="s">
-        <v>191</v>
-      </c>
-      <c r="P70" s="89"/>
-      <c r="Q70" s="89"/>
-      <c r="R70" s="89" t="s">
+      <c r="G70" s="187" t="s">
+        <v>165</v>
+      </c>
+      <c r="H70" s="187"/>
+      <c r="I70" s="187" t="s">
+        <v>165</v>
+      </c>
+      <c r="J70" s="187" t="s">
+        <v>165</v>
+      </c>
+      <c r="K70" s="186" t="s">
+        <v>1856</v>
+      </c>
+      <c r="L70" s="186" t="s">
+        <v>883</v>
+      </c>
+      <c r="M70" s="188" t="s">
+        <v>509</v>
+      </c>
+      <c r="N70" s="186" t="s">
+        <v>1868</v>
+      </c>
+      <c r="O70" s="188" t="s">
+        <v>1857</v>
+      </c>
+      <c r="P70" s="186" t="s">
+        <v>1858</v>
+      </c>
+      <c r="Q70" s="186" t="s">
+        <v>1859</v>
+      </c>
+      <c r="R70" s="186" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" s="78" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="89" t="s">
         <v>40</v>
       </c>
@@ -11846,10 +11912,10 @@
       <c r="I71" s="162"/>
       <c r="J71" s="162"/>
       <c r="K71" s="89" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="L71" s="89" t="s">
-        <v>97</v>
+        <v>153</v>
       </c>
       <c r="M71" s="90" t="s">
         <v>396</v>
@@ -11857,16 +11923,16 @@
       <c r="N71" s="89" t="s">
         <v>26</v>
       </c>
-      <c r="O71" s="91" t="s">
-        <v>38</v>
+      <c r="O71" s="90" t="s">
+        <v>191</v>
       </c>
       <c r="P71" s="89"/>
-      <c r="Q71" s="96"/>
+      <c r="Q71" s="89"/>
       <c r="R71" s="89" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A72" s="89" t="s">
         <v>40</v>
       </c>
@@ -11876,7 +11942,9 @@
       <c r="C72" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="162"/>
+      <c r="D72" s="162" t="s">
+        <v>165</v>
+      </c>
       <c r="E72" s="162" t="s">
         <v>165</v>
       </c>
@@ -11886,29 +11954,27 @@
       <c r="I72" s="162"/>
       <c r="J72" s="162"/>
       <c r="K72" s="89" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="L72" s="89" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="M72" s="90" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="N72" s="89" t="s">
-        <v>24</v>
-      </c>
-      <c r="O72" s="90" t="s">
-        <v>28</v>
-      </c>
-      <c r="P72" s="89" t="s">
-        <v>114</v>
-      </c>
-      <c r="Q72" s="89"/>
+        <v>26</v>
+      </c>
+      <c r="O72" s="91" t="s">
+        <v>38</v>
+      </c>
+      <c r="P72" s="89"/>
+      <c r="Q72" s="96"/>
       <c r="R72" s="89" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A73" s="89" t="s">
         <v>40</v>
       </c>
@@ -11918,9 +11984,7 @@
       <c r="C73" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="D73" s="162" t="s">
-        <v>165</v>
-      </c>
+      <c r="D73" s="162"/>
       <c r="E73" s="162" t="s">
         <v>165</v>
       </c>
@@ -11930,26 +11994,26 @@
       <c r="I73" s="162"/>
       <c r="J73" s="162"/>
       <c r="K73" s="89" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="L73" s="89" t="s">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="M73" s="90" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="N73" s="89" t="s">
         <v>24</v>
       </c>
       <c r="O73" s="90" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="P73" s="89" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="Q73" s="89"/>
       <c r="R73" s="89" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="74" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -11974,10 +12038,10 @@
       <c r="I74" s="162"/>
       <c r="J74" s="162"/>
       <c r="K74" s="89" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="L74" s="89" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="M74" s="90" t="s">
         <v>396</v>
@@ -11986,10 +12050,10 @@
         <v>24</v>
       </c>
       <c r="O74" s="90" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="P74" s="89" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="Q74" s="89"/>
       <c r="R74" s="89" t="s">
@@ -12018,10 +12082,10 @@
       <c r="I75" s="162"/>
       <c r="J75" s="162"/>
       <c r="K75" s="89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="L75" s="89" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="M75" s="90" t="s">
         <v>396</v>
@@ -12030,10 +12094,10 @@
         <v>24</v>
       </c>
       <c r="O75" s="90" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="P75" s="89" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="Q75" s="89"/>
       <c r="R75" s="89" t="s">
@@ -12062,10 +12126,10 @@
       <c r="I76" s="162"/>
       <c r="J76" s="162"/>
       <c r="K76" s="89" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="L76" s="89" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M76" s="90" t="s">
         <v>396</v>
@@ -12074,10 +12138,10 @@
         <v>24</v>
       </c>
       <c r="O76" s="90" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P76" s="89" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="Q76" s="89"/>
       <c r="R76" s="89" t="s">
@@ -12106,10 +12170,10 @@
       <c r="I77" s="162"/>
       <c r="J77" s="162"/>
       <c r="K77" s="89" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="L77" s="89" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="M77" s="90" t="s">
         <v>396</v>
@@ -12118,10 +12182,10 @@
         <v>24</v>
       </c>
       <c r="O77" s="90" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="P77" s="89" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="Q77" s="89"/>
       <c r="R77" s="89" t="s">
@@ -12150,10 +12214,10 @@
       <c r="I78" s="162"/>
       <c r="J78" s="162"/>
       <c r="K78" s="89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="L78" s="89" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M78" s="90" t="s">
         <v>396</v>
@@ -12162,10 +12226,10 @@
         <v>24</v>
       </c>
       <c r="O78" s="90" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="P78" s="89" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="Q78" s="89"/>
       <c r="R78" s="89" t="s">
@@ -12194,10 +12258,10 @@
       <c r="I79" s="162"/>
       <c r="J79" s="162"/>
       <c r="K79" s="89" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="L79" s="89" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="M79" s="90" t="s">
         <v>396</v>
@@ -12206,10 +12270,10 @@
         <v>24</v>
       </c>
       <c r="O79" s="90" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="P79" s="89" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="Q79" s="89"/>
       <c r="R79" s="89" t="s">
@@ -12226,7 +12290,9 @@
       <c r="C80" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="D80" s="162"/>
+      <c r="D80" s="162" t="s">
+        <v>165</v>
+      </c>
       <c r="E80" s="162" t="s">
         <v>165</v>
       </c>
@@ -12236,10 +12302,10 @@
       <c r="I80" s="162"/>
       <c r="J80" s="162"/>
       <c r="K80" s="89" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="L80" s="89" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="M80" s="90" t="s">
         <v>396</v>
@@ -12248,10 +12314,10 @@
         <v>24</v>
       </c>
       <c r="O80" s="90" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="P80" s="89" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="Q80" s="89"/>
       <c r="R80" s="89" t="s">
@@ -12268,9 +12334,7 @@
       <c r="C81" s="162" t="s">
         <v>193</v>
       </c>
-      <c r="D81" s="162" t="s">
-        <v>165</v>
-      </c>
+      <c r="D81" s="162"/>
       <c r="E81" s="162" t="s">
         <v>165</v>
       </c>
@@ -12280,10 +12344,10 @@
       <c r="I81" s="162"/>
       <c r="J81" s="162"/>
       <c r="K81" s="89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="L81" s="89" t="s">
-        <v>96</v>
+        <v>147</v>
       </c>
       <c r="M81" s="90" t="s">
         <v>396</v>
@@ -12292,9 +12356,11 @@
         <v>24</v>
       </c>
       <c r="O81" s="90" t="s">
-        <v>37</v>
-      </c>
-      <c r="P81" s="89"/>
+        <v>36</v>
+      </c>
+      <c r="P81" s="89" t="s">
+        <v>122</v>
+      </c>
       <c r="Q81" s="89"/>
       <c r="R81" s="89" t="s">
         <v>10</v>
@@ -12322,10 +12388,10 @@
       <c r="I82" s="162"/>
       <c r="J82" s="162"/>
       <c r="K82" s="89" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="L82" s="89" t="s">
-        <v>290</v>
+        <v>96</v>
       </c>
       <c r="M82" s="90" t="s">
         <v>396</v>
@@ -12334,7 +12400,7 @@
         <v>24</v>
       </c>
       <c r="O82" s="90" t="s">
-        <v>291</v>
+        <v>37</v>
       </c>
       <c r="P82" s="89"/>
       <c r="Q82" s="89"/>
@@ -12364,19 +12430,19 @@
       <c r="I83" s="162"/>
       <c r="J83" s="162"/>
       <c r="K83" s="89" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="L83" s="89" t="s">
-        <v>98</v>
+        <v>290</v>
       </c>
       <c r="M83" s="90" t="s">
         <v>396</v>
       </c>
       <c r="N83" s="89" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="O83" s="90" t="s">
-        <v>39</v>
+        <v>291</v>
       </c>
       <c r="P83" s="89"/>
       <c r="Q83" s="89"/>
@@ -12385,128 +12451,128 @@
       </c>
     </row>
     <row r="84" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A84" s="93" t="s">
+      <c r="A84" s="89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B84" s="89">
+        <v>2021</v>
+      </c>
+      <c r="C84" s="162" t="s">
+        <v>193</v>
+      </c>
+      <c r="D84" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="E84" s="162" t="s">
+        <v>165</v>
+      </c>
+      <c r="F84" s="162"/>
+      <c r="G84" s="162"/>
+      <c r="H84" s="162"/>
+      <c r="I84" s="162"/>
+      <c r="J84" s="162"/>
+      <c r="K84" s="89" t="s">
+        <v>288</v>
+      </c>
+      <c r="L84" s="89" t="s">
+        <v>98</v>
+      </c>
+      <c r="M84" s="90" t="s">
+        <v>396</v>
+      </c>
+      <c r="N84" s="89" t="s">
+        <v>27</v>
+      </c>
+      <c r="O84" s="90" t="s">
+        <v>39</v>
+      </c>
+      <c r="P84" s="89"/>
+      <c r="Q84" s="89"/>
+      <c r="R84" s="89" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="85" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="93" t="s">
         <v>77</v>
       </c>
-      <c r="B84" s="93">
+      <c r="B85" s="93">
         <v>2021</v>
       </c>
-      <c r="C84" s="163" t="s">
+      <c r="C85" s="163" t="s">
         <v>193</v>
       </c>
-      <c r="D84" s="163" t="s">
+      <c r="D85" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="E84" s="163" t="s">
+      <c r="E85" s="163" t="s">
         <v>165</v>
       </c>
-      <c r="F84" s="163"/>
-      <c r="G84" s="163"/>
-      <c r="H84" s="163"/>
-      <c r="I84" s="163"/>
-      <c r="J84" s="163"/>
-      <c r="K84" s="93" t="s">
+      <c r="F85" s="163"/>
+      <c r="G85" s="163"/>
+      <c r="H85" s="163"/>
+      <c r="I85" s="163"/>
+      <c r="J85" s="163"/>
+      <c r="K85" s="93" t="s">
         <v>309</v>
       </c>
-      <c r="L84" s="93" t="s">
+      <c r="L85" s="93" t="s">
         <v>1197</v>
       </c>
-      <c r="M84" s="94" t="s">
+      <c r="M85" s="94" t="s">
         <v>428</v>
       </c>
-      <c r="N84" s="93" t="s">
+      <c r="N85" s="93" t="s">
         <v>24</v>
       </c>
-      <c r="O84" s="94" t="s">
+      <c r="O85" s="94" t="s">
         <v>66</v>
       </c>
-      <c r="P84" s="93"/>
-      <c r="Q84" s="93"/>
-      <c r="R84" s="93" t="s">
+      <c r="P85" s="93"/>
+      <c r="Q85" s="93"/>
+      <c r="R85" s="93" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A85" s="189" t="s">
+    <row r="86" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="189" t="s">
         <v>77</v>
       </c>
-      <c r="B85" s="189">
+      <c r="B86" s="189">
         <v>2023</v>
       </c>
-      <c r="C85" s="190" t="s">
+      <c r="C86" s="190" t="s">
         <v>72</v>
       </c>
-      <c r="D85" s="190"/>
-      <c r="E85" s="190" t="s">
+      <c r="D86" s="190"/>
+      <c r="E86" s="190" t="s">
         <v>1174</v>
       </c>
-      <c r="F85" s="190"/>
-      <c r="G85" s="190"/>
-      <c r="H85" s="190"/>
-      <c r="I85" s="190"/>
-      <c r="J85" s="190"/>
-      <c r="K85" s="189" t="s">
+      <c r="F86" s="190"/>
+      <c r="G86" s="190"/>
+      <c r="H86" s="190"/>
+      <c r="I86" s="190"/>
+      <c r="J86" s="190"/>
+      <c r="K86" s="189" t="s">
         <v>306</v>
       </c>
-      <c r="L85" s="189" t="s">
+      <c r="L86" s="189" t="s">
         <v>307</v>
       </c>
-      <c r="M85" s="191" t="s">
+      <c r="M86" s="191" t="s">
         <v>308</v>
       </c>
-      <c r="N85" s="189" t="s">
+      <c r="N86" s="189" t="s">
         <v>9</v>
       </c>
-      <c r="O85" s="191" t="s">
+      <c r="O86" s="191" t="s">
         <v>394</v>
       </c>
-      <c r="P85" s="189" t="s">
+      <c r="P86" s="189" t="s">
         <v>310</v>
       </c>
-      <c r="Q85" s="189"/>
-      <c r="R85" s="189" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="86" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A86" s="92" t="s">
-        <v>80</v>
-      </c>
-      <c r="B86" s="92">
-        <v>2024</v>
-      </c>
-      <c r="C86" s="164" t="s">
-        <v>81</v>
-      </c>
-      <c r="D86" s="164" t="s">
-        <v>165</v>
-      </c>
-      <c r="E86" s="164" t="s">
-        <v>165</v>
-      </c>
-      <c r="F86" s="164"/>
-      <c r="G86" s="164"/>
-      <c r="H86" s="164"/>
-      <c r="I86" s="164"/>
-      <c r="J86" s="164"/>
-      <c r="K86" s="92" t="s">
-        <v>302</v>
-      </c>
-      <c r="L86" s="92" t="s">
-        <v>1596</v>
-      </c>
-      <c r="M86" s="92" t="s">
-        <v>1196</v>
-      </c>
-      <c r="N86" s="92" t="s">
-        <v>26</v>
-      </c>
-      <c r="O86" s="92" t="s">
-        <v>313</v>
-      </c>
-      <c r="P86" s="92"/>
-      <c r="Q86" s="92"/>
-      <c r="R86" s="92" t="s">
+      <c r="Q86" s="189"/>
+      <c r="R86" s="189" t="s">
         <v>10</v>
       </c>
     </row>
@@ -12520,9 +12586,11 @@
       <c r="C87" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="D87" s="164"/>
+      <c r="D87" s="164" t="s">
+        <v>165</v>
+      </c>
       <c r="E87" s="164" t="s">
-        <v>1174</v>
+        <v>165</v>
       </c>
       <c r="F87" s="164"/>
       <c r="G87" s="164"/>
@@ -12530,10 +12598,10 @@
       <c r="I87" s="164"/>
       <c r="J87" s="164"/>
       <c r="K87" s="92" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="L87" s="92" t="s">
-        <v>1597</v>
+        <v>1596</v>
       </c>
       <c r="M87" s="92" t="s">
         <v>1196</v>
@@ -12542,7 +12610,7 @@
         <v>26</v>
       </c>
       <c r="O87" s="92" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="P87" s="92"/>
       <c r="Q87" s="92"/>
@@ -12551,46 +12619,48 @@
       </c>
     </row>
     <row r="88" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A88" s="95" t="s">
-        <v>304</v>
-      </c>
-      <c r="B88" s="95">
+      <c r="A88" s="92" t="s">
+        <v>80</v>
+      </c>
+      <c r="B88" s="92">
         <v>2024</v>
       </c>
-      <c r="C88" s="165" t="s">
+      <c r="C88" s="164" t="s">
         <v>81</v>
       </c>
-      <c r="D88" s="165"/>
-      <c r="E88" s="165" t="s">
+      <c r="D88" s="164"/>
+      <c r="E88" s="164" t="s">
         <v>1174</v>
       </c>
-      <c r="F88" s="165"/>
-      <c r="G88" s="165"/>
-      <c r="H88" s="165"/>
-      <c r="I88" s="165"/>
-      <c r="J88" s="165"/>
-      <c r="K88" s="95" t="s">
-        <v>305</v>
-      </c>
-      <c r="L88" s="95" t="s">
-        <v>1595</v>
-      </c>
-      <c r="M88" s="95"/>
-      <c r="N88" s="95" t="s">
+      <c r="F88" s="164"/>
+      <c r="G88" s="164"/>
+      <c r="H88" s="164"/>
+      <c r="I88" s="164"/>
+      <c r="J88" s="164"/>
+      <c r="K88" s="92" t="s">
+        <v>303</v>
+      </c>
+      <c r="L88" s="92" t="s">
+        <v>1597</v>
+      </c>
+      <c r="M88" s="92" t="s">
+        <v>1196</v>
+      </c>
+      <c r="N88" s="92" t="s">
         <v>26</v>
       </c>
-      <c r="O88" s="95" t="s">
-        <v>311</v>
-      </c>
-      <c r="P88" s="95"/>
-      <c r="Q88" s="95"/>
-      <c r="R88" s="95" t="s">
+      <c r="O88" s="92" t="s">
+        <v>312</v>
+      </c>
+      <c r="P88" s="92"/>
+      <c r="Q88" s="92"/>
+      <c r="R88" s="92" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A89" s="95" t="s">
-        <v>1589</v>
+        <v>304</v>
       </c>
       <c r="B89" s="95">
         <v>2024</v>
@@ -12598,11 +12668,9 @@
       <c r="C89" s="165" t="s">
         <v>81</v>
       </c>
-      <c r="D89" s="165" t="s">
-        <v>165</v>
-      </c>
+      <c r="D89" s="165"/>
       <c r="E89" s="165" t="s">
-        <v>165</v>
+        <v>1174</v>
       </c>
       <c r="F89" s="165"/>
       <c r="G89" s="165"/>
@@ -12610,168 +12678,208 @@
       <c r="I89" s="165"/>
       <c r="J89" s="165"/>
       <c r="K89" s="95" t="s">
-        <v>1590</v>
+        <v>305</v>
       </c>
       <c r="L89" s="95" t="s">
-        <v>1594</v>
-      </c>
-      <c r="M89" s="95" t="s">
-        <v>1592</v>
-      </c>
+        <v>1595</v>
+      </c>
+      <c r="M89" s="95"/>
       <c r="N89" s="95" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="O89" s="95" t="s">
-        <v>1593</v>
+        <v>311</v>
       </c>
       <c r="P89" s="95"/>
       <c r="Q89" s="95"/>
       <c r="R89" s="95" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A90" s="95" t="s">
+        <v>1589</v>
+      </c>
+      <c r="B90" s="95">
+        <v>2024</v>
+      </c>
+      <c r="C90" s="165" t="s">
+        <v>81</v>
+      </c>
+      <c r="D90" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="E90" s="165" t="s">
+        <v>165</v>
+      </c>
+      <c r="F90" s="165"/>
+      <c r="G90" s="165"/>
+      <c r="H90" s="165"/>
+      <c r="I90" s="165"/>
+      <c r="J90" s="165"/>
+      <c r="K90" s="95" t="s">
+        <v>1590</v>
+      </c>
+      <c r="L90" s="95" t="s">
+        <v>1594</v>
+      </c>
+      <c r="M90" s="95" t="s">
+        <v>1592</v>
+      </c>
+      <c r="N90" s="95" t="s">
+        <v>9</v>
+      </c>
+      <c r="O90" s="95" t="s">
+        <v>1593</v>
+      </c>
+      <c r="P90" s="95"/>
+      <c r="Q90" s="95"/>
+      <c r="R90" s="95" t="s">
         <v>1591</v>
       </c>
     </row>
-    <row r="90" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="166" t="s">
+    <row r="91" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="166" t="s">
         <v>1829</v>
       </c>
-      <c r="B90" s="166">
+      <c r="B91" s="166">
         <v>2021</v>
       </c>
-      <c r="C90" s="167" t="s">
+      <c r="C91" s="167" t="s">
         <v>193</v>
       </c>
-      <c r="D90" s="167" t="s">
+      <c r="D91" s="167" t="s">
         <v>165</v>
       </c>
-      <c r="E90" s="167" t="s">
+      <c r="E91" s="167" t="s">
         <v>165</v>
       </c>
-      <c r="F90" s="167"/>
-      <c r="G90" s="167"/>
-      <c r="H90" s="167"/>
-      <c r="I90" s="167"/>
-      <c r="J90" s="167"/>
-      <c r="K90" s="166" t="s">
+      <c r="F91" s="167"/>
+      <c r="G91" s="167"/>
+      <c r="H91" s="167"/>
+      <c r="I91" s="167"/>
+      <c r="J91" s="167"/>
+      <c r="K91" s="166" t="s">
         <v>372</v>
       </c>
-      <c r="L90" s="166" t="s">
+      <c r="L91" s="166" t="s">
         <v>406</v>
       </c>
-      <c r="M90" s="166" t="s">
+      <c r="M91" s="166" t="s">
         <v>407</v>
       </c>
-      <c r="N90" s="166" t="s">
+      <c r="N91" s="166" t="s">
         <v>9</v>
       </c>
-      <c r="O90" s="166" t="s">
+      <c r="O91" s="166" t="s">
         <v>392</v>
       </c>
-      <c r="P90" s="166"/>
-      <c r="Q90" s="166"/>
-      <c r="R90" s="166" t="s">
+      <c r="P91" s="166"/>
+      <c r="Q91" s="166"/>
+      <c r="R91" s="166" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="192" t="s">
+    <row r="92" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="192" t="s">
         <v>1829</v>
       </c>
-      <c r="B91" s="192">
+      <c r="B92" s="192">
         <v>2024</v>
       </c>
-      <c r="C91" s="193" t="s">
+      <c r="C92" s="193" t="s">
         <v>72</v>
       </c>
-      <c r="D91" s="193"/>
-      <c r="E91" s="193" t="s">
+      <c r="D92" s="193"/>
+      <c r="E92" s="193" t="s">
         <v>1174</v>
       </c>
-      <c r="F91" s="193" t="s">
+      <c r="F92" s="193" t="s">
         <v>165</v>
       </c>
-      <c r="G91" s="193" t="s">
+      <c r="G92" s="193" t="s">
         <v>165</v>
       </c>
-      <c r="H91" s="193" t="s">
+      <c r="H92" s="193" t="s">
         <v>1174</v>
       </c>
-      <c r="I91" s="193" t="s">
+      <c r="I92" s="193" t="s">
         <v>165</v>
       </c>
-      <c r="J91" s="193" t="s">
+      <c r="J92" s="193" t="s">
         <v>1174</v>
       </c>
-      <c r="K91" s="192" t="s">
+      <c r="K92" s="192" t="s">
         <v>1826</v>
       </c>
-      <c r="L91" s="192" t="s">
+      <c r="L92" s="192" t="s">
         <v>1827</v>
       </c>
-      <c r="M91" s="192" t="s">
+      <c r="M92" s="192" t="s">
         <v>1828</v>
       </c>
-      <c r="N91" s="192" t="s">
+      <c r="N92" s="192" t="s">
         <v>3</v>
       </c>
-      <c r="O91" s="192" t="s">
+      <c r="O92" s="192" t="s">
         <v>1831</v>
       </c>
-      <c r="P91" s="192" t="s">
+      <c r="P92" s="192" t="s">
         <v>1830</v>
       </c>
-      <c r="Q91" s="192"/>
-      <c r="R91" s="192" t="s">
+      <c r="Q92" s="192"/>
+      <c r="R92" s="192" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A92" s="232" t="s">
+    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A93" s="199" t="s">
         <v>703</v>
       </c>
-      <c r="B92" s="233">
+      <c r="B93" s="200">
         <v>2024</v>
       </c>
-      <c r="C92" s="234" t="s">
+      <c r="C93" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="E92" s="234" t="s">
+      <c r="E93" s="201" t="s">
         <v>1174</v>
       </c>
-      <c r="L92" s="232" t="s">
+      <c r="L93" s="199" t="s">
         <v>1867</v>
       </c>
-      <c r="M92" s="232" t="s">
+      <c r="M93" s="199" t="s">
         <v>1865</v>
       </c>
-      <c r="N92" s="232" t="s">
+      <c r="N93" s="199" t="s">
         <v>1862</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
-      <c r="A93" s="232" t="s">
+    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A94" s="199" t="s">
         <v>703</v>
       </c>
-      <c r="B93" s="233">
+      <c r="B94" s="200">
         <v>2024</v>
       </c>
-      <c r="C93" s="234" t="s">
+      <c r="C94" s="201" t="s">
         <v>81</v>
       </c>
-      <c r="E93" s="234" t="s">
+      <c r="E94" s="201" t="s">
         <v>1864</v>
       </c>
-      <c r="L93" s="232" t="s">
+      <c r="L94" s="199" t="s">
         <v>1866</v>
       </c>
-      <c r="M93" s="232" t="s">
+      <c r="M94" s="199" t="s">
         <v>1866</v>
       </c>
-      <c r="N93" s="232" t="s">
+      <c r="N94" s="199" t="s">
         <v>465</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R93" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
+  <autoFilter ref="A1:R94" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -20855,13 +20963,13 @@
       <c r="M142" s="102"/>
     </row>
     <row r="143" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A143" s="207" t="s">
+      <c r="A143" s="211" t="s">
         <v>1367</v>
       </c>
-      <c r="B143" s="209" t="s">
+      <c r="B143" s="213" t="s">
         <v>1240</v>
       </c>
-      <c r="C143" s="210">
+      <c r="C143" s="214">
         <v>45050</v>
       </c>
       <c r="D143" s="142" t="str">
@@ -20882,13 +20990,13 @@
       <c r="I143" s="104"/>
       <c r="J143" s="104"/>
       <c r="K143" s="132"/>
-      <c r="L143" s="212"/>
-      <c r="M143" s="207"/>
+      <c r="L143" s="216"/>
+      <c r="M143" s="211"/>
     </row>
     <row r="144" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A144" s="208"/>
-      <c r="B144" s="208"/>
-      <c r="C144" s="211"/>
+      <c r="A144" s="212"/>
+      <c r="B144" s="212"/>
+      <c r="C144" s="215"/>
       <c r="D144" s="142" t="str">
         <f t="shared" si="4"/>
         <v>Week 00</v>
@@ -20905,8 +21013,8 @@
       <c r="I144" s="102"/>
       <c r="J144" s="102"/>
       <c r="K144" s="103"/>
-      <c r="L144" s="213"/>
-      <c r="M144" s="208"/>
+      <c r="L144" s="217"/>
+      <c r="M144" s="212"/>
     </row>
     <row r="145" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A145" s="101" t="s">
@@ -34471,7 +34579,7 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A2" s="217" t="s">
+      <c r="A2" s="221" t="s">
         <v>978</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -34500,7 +34608,7 @@
       </c>
     </row>
     <row r="3" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="218"/>
+      <c r="A3" s="222"/>
       <c r="B3" s="39" t="s">
         <v>981</v>
       </c>
@@ -34527,7 +34635,7 @@
       </c>
     </row>
     <row r="4" spans="1:11" ht="105" x14ac:dyDescent="0.25">
-      <c r="A4" s="219"/>
+      <c r="A4" s="223"/>
       <c r="B4" s="40" t="s">
         <v>983</v>
       </c>
@@ -34554,7 +34662,7 @@
       </c>
     </row>
     <row r="5" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A5" s="219"/>
+      <c r="A5" s="223"/>
       <c r="B5" s="40" t="s">
         <v>985</v>
       </c>
@@ -34581,7 +34689,7 @@
       </c>
     </row>
     <row r="6" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="219"/>
+      <c r="A6" s="223"/>
       <c r="B6" s="40" t="s">
         <v>987</v>
       </c>
@@ -34608,7 +34716,7 @@
       </c>
     </row>
     <row r="7" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A7" s="219"/>
+      <c r="A7" s="223"/>
       <c r="B7" s="40" t="s">
         <v>989</v>
       </c>
@@ -34617,7 +34725,7 @@
       </c>
     </row>
     <row r="8" spans="1:11" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="220"/>
+      <c r="A8" s="224"/>
       <c r="B8" s="41" t="s">
         <v>991</v>
       </c>
@@ -34626,7 +34734,7 @@
       </c>
     </row>
     <row r="9" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="221" t="s">
+      <c r="A9" s="225" t="s">
         <v>993</v>
       </c>
       <c r="B9" s="42" t="s">
@@ -34637,7 +34745,7 @@
       </c>
     </row>
     <row r="10" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A10" s="221"/>
+      <c r="A10" s="225"/>
       <c r="B10" s="42" t="s">
         <v>996</v>
       </c>
@@ -34646,7 +34754,7 @@
       </c>
     </row>
     <row r="11" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="221"/>
+      <c r="A11" s="225"/>
       <c r="B11" s="42" t="s">
         <v>998</v>
       </c>
@@ -34655,7 +34763,7 @@
       </c>
     </row>
     <row r="12" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A12" s="222"/>
+      <c r="A12" s="226"/>
       <c r="B12" s="39" t="s">
         <v>1000</v>
       </c>
@@ -34664,7 +34772,7 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="75" x14ac:dyDescent="0.25">
-      <c r="A13" s="222"/>
+      <c r="A13" s="226"/>
       <c r="B13" s="39" t="s">
         <v>1002</v>
       </c>
@@ -34673,7 +34781,7 @@
       </c>
     </row>
     <row r="14" spans="1:11" ht="90" x14ac:dyDescent="0.25">
-      <c r="A14" s="222"/>
+      <c r="A14" s="226"/>
       <c r="B14" s="39" t="s">
         <v>1004</v>
       </c>
@@ -34682,7 +34790,7 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="60" x14ac:dyDescent="0.25">
-      <c r="A15" s="222"/>
+      <c r="A15" s="226"/>
       <c r="B15" s="39" t="s">
         <v>1006</v>
       </c>
@@ -34691,7 +34799,7 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="222"/>
+      <c r="A16" s="226"/>
       <c r="B16" s="39" t="s">
         <v>1008</v>
       </c>
@@ -34700,7 +34808,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A17" s="222"/>
+      <c r="A17" s="226"/>
       <c r="B17" s="39" t="s">
         <v>1010</v>
       </c>
@@ -34709,7 +34817,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" ht="90" x14ac:dyDescent="0.25">
-      <c r="A18" s="222"/>
+      <c r="A18" s="226"/>
       <c r="B18" s="39" t="s">
         <v>1012</v>
       </c>
@@ -34718,7 +34826,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="223"/>
+      <c r="A19" s="227"/>
       <c r="B19" s="43" t="s">
         <v>1014</v>
       </c>
@@ -34727,7 +34835,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A20" s="223"/>
+      <c r="A20" s="227"/>
       <c r="B20" s="43" t="s">
         <v>1016</v>
       </c>
@@ -34736,7 +34844,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A21" s="223"/>
+      <c r="A21" s="227"/>
       <c r="B21" s="43" t="s">
         <v>1018</v>
       </c>
@@ -34745,7 +34853,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="224"/>
+      <c r="A22" s="228"/>
       <c r="B22" s="44" t="s">
         <v>1020</v>
       </c>
@@ -34754,7 +34862,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A23" s="225" t="s">
+      <c r="A23" s="229" t="s">
         <v>1022</v>
       </c>
       <c r="B23" s="45" t="s">
@@ -34765,7 +34873,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A24" s="222"/>
+      <c r="A24" s="226"/>
       <c r="B24" s="42" t="s">
         <v>1025</v>
       </c>
@@ -34774,7 +34882,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A25" s="222"/>
+      <c r="A25" s="226"/>
       <c r="B25" s="39" t="s">
         <v>1026</v>
       </c>
@@ -34783,7 +34891,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="222"/>
+      <c r="A26" s="226"/>
       <c r="B26" s="39" t="s">
         <v>1027</v>
       </c>
@@ -34792,7 +34900,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A27" s="222"/>
+      <c r="A27" s="226"/>
       <c r="B27" s="39" t="s">
         <v>1028</v>
       </c>
@@ -34801,7 +34909,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A28" s="222"/>
+      <c r="A28" s="226"/>
       <c r="B28" s="39" t="s">
         <v>1029</v>
       </c>
@@ -34810,7 +34918,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A29" s="222"/>
+      <c r="A29" s="226"/>
       <c r="B29" s="46" t="s">
         <v>1030</v>
       </c>
@@ -34819,7 +34927,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A30" s="222"/>
+      <c r="A30" s="226"/>
       <c r="B30" s="39" t="s">
         <v>1031</v>
       </c>
@@ -34828,7 +34936,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A31" s="222"/>
+      <c r="A31" s="226"/>
       <c r="B31" s="39" t="s">
         <v>1032</v>
       </c>
@@ -34837,7 +34945,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="222"/>
+      <c r="A32" s="226"/>
       <c r="B32" s="39" t="s">
         <v>1033</v>
       </c>
@@ -34846,7 +34954,7 @@
       </c>
     </row>
     <row r="33" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="222"/>
+      <c r="A33" s="226"/>
       <c r="B33" s="39" t="s">
         <v>1034</v>
       </c>
@@ -34855,7 +34963,7 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A34" s="222"/>
+      <c r="A34" s="226"/>
       <c r="B34" s="39" t="s">
         <v>1035</v>
       </c>
@@ -34864,7 +34972,7 @@
       </c>
     </row>
     <row r="35" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A35" s="222"/>
+      <c r="A35" s="226"/>
       <c r="B35" s="39" t="s">
         <v>1036</v>
       </c>
@@ -34873,7 +34981,7 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A36" s="222"/>
+      <c r="A36" s="226"/>
       <c r="B36" s="39" t="s">
         <v>1037</v>
       </c>
@@ -34882,7 +34990,7 @@
       </c>
     </row>
     <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="222"/>
+      <c r="A37" s="226"/>
       <c r="B37" s="39" t="s">
         <v>1038</v>
       </c>
@@ -34891,7 +34999,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="222"/>
+      <c r="A38" s="226"/>
       <c r="B38" s="39" t="s">
         <v>1039</v>
       </c>
@@ -34900,7 +35008,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A39" s="222"/>
+      <c r="A39" s="226"/>
       <c r="B39" s="39" t="s">
         <v>1040</v>
       </c>
@@ -34909,7 +35017,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A40" s="222"/>
+      <c r="A40" s="226"/>
       <c r="B40" s="39" t="s">
         <v>1041</v>
       </c>
@@ -34918,7 +35026,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A41" s="222"/>
+      <c r="A41" s="226"/>
       <c r="B41" s="39" t="s">
         <v>1042</v>
       </c>
@@ -34927,7 +35035,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A42" s="222"/>
+      <c r="A42" s="226"/>
       <c r="B42" s="39" t="s">
         <v>1043</v>
       </c>
@@ -34936,7 +35044,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A43" s="222"/>
+      <c r="A43" s="226"/>
       <c r="B43" s="39" t="s">
         <v>1045</v>
       </c>
@@ -34945,7 +35053,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A44" s="222"/>
+      <c r="A44" s="226"/>
       <c r="B44" s="39" t="s">
         <v>1046</v>
       </c>
@@ -34954,7 +35062,7 @@
       </c>
     </row>
     <row r="45" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A45" s="222"/>
+      <c r="A45" s="226"/>
       <c r="B45" s="39" t="s">
         <v>1048</v>
       </c>
@@ -34963,7 +35071,7 @@
       </c>
     </row>
     <row r="46" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A46" s="222"/>
+      <c r="A46" s="226"/>
       <c r="B46" s="39" t="s">
         <v>1050</v>
       </c>
@@ -34972,7 +35080,7 @@
       </c>
     </row>
     <row r="47" spans="1:3" ht="26.25" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="224"/>
+      <c r="A47" s="228"/>
       <c r="B47" s="44" t="s">
         <v>1052</v>
       </c>
@@ -34981,7 +35089,7 @@
       </c>
     </row>
     <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A48" s="226" t="s">
+      <c r="A48" s="230" t="s">
         <v>1054</v>
       </c>
       <c r="B48" s="42" t="s">
@@ -34992,7 +35100,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A49" s="214"/>
+      <c r="A49" s="218"/>
       <c r="B49" s="42" t="s">
         <v>1057</v>
       </c>
@@ -35001,7 +35109,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A50" s="214"/>
+      <c r="A50" s="218"/>
       <c r="B50" s="42" t="s">
         <v>1058</v>
       </c>
@@ -35010,7 +35118,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A51" s="214"/>
+      <c r="A51" s="218"/>
       <c r="B51" s="39" t="s">
         <v>1059</v>
       </c>
@@ -35019,7 +35127,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A52" s="214"/>
+      <c r="A52" s="218"/>
       <c r="B52" s="39" t="s">
         <v>1060</v>
       </c>
@@ -35028,7 +35136,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A53" s="214"/>
+      <c r="A53" s="218"/>
       <c r="B53" s="39" t="s">
         <v>1061</v>
       </c>
@@ -35037,7 +35145,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A54" s="214"/>
+      <c r="A54" s="218"/>
       <c r="B54" s="39" t="s">
         <v>1062</v>
       </c>
@@ -35046,7 +35154,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A55" s="214"/>
+      <c r="A55" s="218"/>
       <c r="B55" s="39" t="s">
         <v>1063</v>
       </c>
@@ -35055,7 +35163,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A56" s="214"/>
+      <c r="A56" s="218"/>
       <c r="B56" s="43" t="s">
         <v>1064</v>
       </c>
@@ -35064,7 +35172,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A57" s="214"/>
+      <c r="A57" s="218"/>
       <c r="B57" s="43" t="s">
         <v>1065</v>
       </c>
@@ -35073,7 +35181,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A58" s="214"/>
+      <c r="A58" s="218"/>
       <c r="B58" s="43" t="s">
         <v>1066</v>
       </c>
@@ -35082,7 +35190,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A59" s="214"/>
+      <c r="A59" s="218"/>
       <c r="B59" s="43" t="s">
         <v>1068</v>
       </c>
@@ -35091,7 +35199,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A60" s="214"/>
+      <c r="A60" s="218"/>
       <c r="B60" s="43" t="s">
         <v>1069</v>
       </c>
@@ -35100,7 +35208,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A61" s="214"/>
+      <c r="A61" s="218"/>
       <c r="B61" s="43" t="s">
         <v>1070</v>
       </c>
@@ -35109,7 +35217,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A62" s="214"/>
+      <c r="A62" s="218"/>
       <c r="B62" s="43" t="s">
         <v>1071</v>
       </c>
@@ -35118,7 +35226,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A63" s="226" t="s">
+      <c r="A63" s="230" t="s">
         <v>1073</v>
       </c>
       <c r="B63" s="47" t="s">
@@ -35129,7 +35237,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A64" s="214"/>
+      <c r="A64" s="218"/>
       <c r="B64" s="43" t="s">
         <v>1076</v>
       </c>
@@ -35138,7 +35246,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A65" s="214"/>
+      <c r="A65" s="218"/>
       <c r="B65" s="43" t="s">
         <v>1077</v>
       </c>
@@ -35147,7 +35255,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A66" s="214"/>
+      <c r="A66" s="218"/>
       <c r="B66" s="43" t="s">
         <v>1079</v>
       </c>
@@ -35156,7 +35264,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A67" s="214"/>
+      <c r="A67" s="218"/>
       <c r="B67" s="43" t="s">
         <v>1080</v>
       </c>
@@ -35165,7 +35273,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A68" s="214"/>
+      <c r="A68" s="218"/>
       <c r="B68" s="43" t="s">
         <v>1081</v>
       </c>
@@ -35174,7 +35282,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A69" s="214"/>
+      <c r="A69" s="218"/>
       <c r="B69" s="43" t="s">
         <v>1082</v>
       </c>
@@ -35183,7 +35291,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A70" s="214"/>
+      <c r="A70" s="218"/>
       <c r="B70" s="43" t="s">
         <v>1083</v>
       </c>
@@ -35192,7 +35300,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A71" s="214"/>
+      <c r="A71" s="218"/>
       <c r="B71" s="43" t="s">
         <v>1084</v>
       </c>
@@ -35201,7 +35309,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A72" s="214"/>
+      <c r="A72" s="218"/>
       <c r="B72" s="48" t="s">
         <v>1085</v>
       </c>
@@ -35210,7 +35318,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A73" s="214"/>
+      <c r="A73" s="218"/>
       <c r="B73" s="43" t="s">
         <v>1087</v>
       </c>
@@ -35219,7 +35327,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A74" s="214"/>
+      <c r="A74" s="218"/>
       <c r="B74" s="43" t="s">
         <v>1088</v>
       </c>
@@ -35228,7 +35336,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A75" s="214"/>
+      <c r="A75" s="218"/>
       <c r="B75" s="43" t="s">
         <v>1089</v>
       </c>
@@ -35237,7 +35345,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A76" s="214"/>
+      <c r="A76" s="218"/>
       <c r="B76" s="43" t="s">
         <v>1090</v>
       </c>
@@ -35246,7 +35354,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A77" s="214"/>
+      <c r="A77" s="218"/>
       <c r="B77" s="43" t="s">
         <v>1092</v>
       </c>
@@ -35255,7 +35363,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A78" s="214"/>
+      <c r="A78" s="218"/>
       <c r="B78" s="43" t="s">
         <v>1094</v>
       </c>
@@ -35264,7 +35372,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A79" s="214"/>
+      <c r="A79" s="218"/>
       <c r="B79" s="43" t="s">
         <v>1095</v>
       </c>
@@ -35273,7 +35381,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="214"/>
+      <c r="A80" s="218"/>
       <c r="B80" s="43" t="s">
         <v>1097</v>
       </c>
@@ -35282,7 +35390,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A81" s="227" t="s">
+      <c r="A81" s="231" t="s">
         <v>1099</v>
       </c>
       <c r="B81" s="49" t="s">
@@ -35293,7 +35401,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A82" s="228"/>
+      <c r="A82" s="232"/>
       <c r="B82" s="50" t="s">
         <v>1102</v>
       </c>
@@ -35302,7 +35410,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A83" s="228"/>
+      <c r="A83" s="232"/>
       <c r="B83" s="50" t="s">
         <v>1104</v>
       </c>
@@ -35311,7 +35419,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A84" s="228"/>
+      <c r="A84" s="232"/>
       <c r="B84" s="50" t="s">
         <v>1106</v>
       </c>
@@ -35320,7 +35428,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A85" s="228"/>
+      <c r="A85" s="232"/>
       <c r="B85" s="50" t="s">
         <v>1108</v>
       </c>
@@ -35329,7 +35437,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A86" s="228"/>
+      <c r="A86" s="232"/>
       <c r="B86" s="50" t="s">
         <v>1110</v>
       </c>
@@ -35338,7 +35446,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" ht="150" x14ac:dyDescent="0.25">
-      <c r="A87" s="228"/>
+      <c r="A87" s="232"/>
       <c r="B87" s="50" t="s">
         <v>1112</v>
       </c>
@@ -35347,7 +35455,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A88" s="228"/>
+      <c r="A88" s="232"/>
       <c r="B88" s="50" t="s">
         <v>1114</v>
       </c>
@@ -35356,7 +35464,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A89" s="228"/>
+      <c r="A89" s="232"/>
       <c r="B89" s="50" t="s">
         <v>1116</v>
       </c>
@@ -35365,7 +35473,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A90" s="228"/>
+      <c r="A90" s="232"/>
       <c r="B90" s="50" t="s">
         <v>1118</v>
       </c>
@@ -35374,7 +35482,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A91" s="228"/>
+      <c r="A91" s="232"/>
       <c r="B91" s="50" t="s">
         <v>1120</v>
       </c>
@@ -35383,7 +35491,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A92" s="228"/>
+      <c r="A92" s="232"/>
       <c r="B92" s="50" t="s">
         <v>1122</v>
       </c>
@@ -35392,7 +35500,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A93" s="229"/>
+      <c r="A93" s="233"/>
       <c r="B93" s="51" t="s">
         <v>1124</v>
       </c>
@@ -35401,7 +35509,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A94" s="214" t="s">
+      <c r="A94" s="218" t="s">
         <v>1126</v>
       </c>
       <c r="B94" s="39" t="s">
@@ -35412,7 +35520,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A95" s="214"/>
+      <c r="A95" s="218"/>
       <c r="B95" s="39" t="s">
         <v>1129</v>
       </c>
@@ -35421,7 +35529,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" ht="60" x14ac:dyDescent="0.25">
-      <c r="A96" s="214"/>
+      <c r="A96" s="218"/>
       <c r="B96" s="39" t="s">
         <v>1131</v>
       </c>
@@ -35430,7 +35538,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" ht="75" x14ac:dyDescent="0.25">
-      <c r="A97" s="214"/>
+      <c r="A97" s="218"/>
       <c r="B97" s="39" t="s">
         <v>1133</v>
       </c>
@@ -35439,7 +35547,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A98" s="214"/>
+      <c r="A98" s="218"/>
       <c r="B98" s="43" t="s">
         <v>1135</v>
       </c>
@@ -35448,7 +35556,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" ht="30" x14ac:dyDescent="0.25">
-      <c r="A99" s="215"/>
+      <c r="A99" s="219"/>
       <c r="B99" s="52" t="s">
         <v>1137</v>
       </c>
@@ -35457,7 +35565,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" ht="45" x14ac:dyDescent="0.25">
-      <c r="A100" s="215"/>
+      <c r="A100" s="219"/>
       <c r="B100" s="52" t="s">
         <v>1139</v>
       </c>
@@ -35466,7 +35574,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A101" s="216"/>
+      <c r="A101" s="220"/>
       <c r="B101" s="54" t="s">
         <v>1141</v>
       </c>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C0679E-1525-45CF-8167-D6A2A1957B78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{982FD061-0AD8-4B59-8698-8C34C7E26042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30180" yWindow="645" windowWidth="25275" windowHeight="14445" activeTab="1" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="1860" yWindow="420" windowWidth="25275" windowHeight="14445" activeTab="1" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'B&amp;P Active Studies'!$A$1:$F$312</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$M$334</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$M$335</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$148</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Study Plan'!$A$1:$R$94</definedName>
   </definedNames>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5238" uniqueCount="1874">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5243" uniqueCount="1876">
   <si>
     <t>Phase</t>
   </si>
@@ -5808,6 +5808,12 @@
   </si>
   <si>
     <t>42 Sites</t>
+  </si>
+  <si>
+    <t>Deutsche Symphonie Orchester</t>
+  </si>
+  <si>
+    <t>Komponistengipfel in Wien</t>
   </si>
 </sst>
 </file>
@@ -7282,18 +7288,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -7305,7 +7302,16 @@
     <xf numFmtId="166" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="167" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -8260,12 +8266,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="204" t="s">
         <v>1181</v>
       </c>
-      <c r="B1" s="208"/>
-      <c r="C1" s="208"/>
-      <c r="D1" s="208"/>
+      <c r="B1" s="205"/>
+      <c r="C1" s="205"/>
+      <c r="D1" s="205"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="60"/>
@@ -8274,35 +8280,35 @@
       <c r="A3" s="62" t="s">
         <v>1175</v>
       </c>
-      <c r="B3" s="209">
+      <c r="B3" s="206">
         <v>45520</v>
       </c>
-      <c r="C3" s="209"/>
-      <c r="D3" s="209"/>
+      <c r="C3" s="206"/>
+      <c r="D3" s="206"/>
     </row>
     <row r="5" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="206" t="s">
+      <c r="A5" s="207" t="s">
         <v>1177</v>
       </c>
-      <c r="B5" s="206"/>
-      <c r="C5" s="206"/>
-      <c r="D5" s="206"/>
+      <c r="B5" s="207"/>
+      <c r="C5" s="207"/>
+      <c r="D5" s="207"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A6" s="210"/>
-      <c r="B6" s="210"/>
-      <c r="C6" s="210"/>
-      <c r="D6" s="210"/>
+      <c r="A6" s="208"/>
+      <c r="B6" s="208"/>
+      <c r="C6" s="208"/>
+      <c r="D6" s="208"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="71" t="s">
         <v>1178</v>
       </c>
-      <c r="B7" s="204" t="s">
+      <c r="B7" s="202" t="s">
         <v>1179</v>
       </c>
-      <c r="C7" s="204"/>
-      <c r="D7" s="204"/>
+      <c r="C7" s="202"/>
+      <c r="D7" s="202"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="73">
@@ -8370,12 +8376,12 @@
       <c r="A13" s="71" t="s">
         <v>1182</v>
       </c>
-      <c r="B13" s="204">
+      <c r="B13" s="202">
         <f>COUNTA('Study Plan'!A$2:A$1011)</f>
         <v>93</v>
       </c>
-      <c r="C13" s="204"/>
-      <c r="D13" s="204"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
       <c r="G13" s="64"/>
       <c r="H13" s="64"/>
       <c r="I13" s="65"/>
@@ -8387,12 +8393,12 @@
       <c r="A14" s="71" t="s">
         <v>164</v>
       </c>
-      <c r="B14" s="204">
+      <c r="B14" s="202">
         <f>COUNTIF('Study Plan'!D$1:D$1011,"Y")</f>
         <v>42</v>
       </c>
-      <c r="C14" s="204"/>
-      <c r="D14" s="204"/>
+      <c r="C14" s="202"/>
+      <c r="D14" s="202"/>
       <c r="G14" s="64"/>
       <c r="H14" s="64"/>
       <c r="I14" s="65"/>
@@ -8402,9 +8408,9 @@
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="70"/>
-      <c r="B15" s="205"/>
-      <c r="C15" s="205"/>
-      <c r="D15" s="205"/>
+      <c r="B15" s="210"/>
+      <c r="C15" s="210"/>
+      <c r="D15" s="210"/>
       <c r="G15" s="64"/>
       <c r="H15" s="64"/>
       <c r="I15" s="65"/>
@@ -8416,11 +8422,11 @@
       <c r="A16" s="71" t="s">
         <v>1180</v>
       </c>
-      <c r="B16" s="204" t="s">
+      <c r="B16" s="202" t="s">
         <v>1179</v>
       </c>
-      <c r="C16" s="204"/>
-      <c r="D16" s="204"/>
+      <c r="C16" s="202"/>
+      <c r="D16" s="202"/>
       <c r="G16" s="64"/>
       <c r="H16" s="64"/>
       <c r="I16" s="65"/>
@@ -8582,12 +8588,12 @@
       <c r="L26" s="65"/>
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="206" t="s">
+      <c r="A27" s="207" t="s">
         <v>1187</v>
       </c>
-      <c r="B27" s="206"/>
-      <c r="C27" s="206"/>
-      <c r="D27" s="206"/>
+      <c r="B27" s="207"/>
+      <c r="C27" s="207"/>
+      <c r="D27" s="207"/>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="67"/>
@@ -8600,11 +8606,11 @@
       <c r="A29" s="71" t="s">
         <v>1188</v>
       </c>
-      <c r="B29" s="204" t="s">
+      <c r="B29" s="202" t="s">
         <v>1179</v>
       </c>
-      <c r="C29" s="204"/>
-      <c r="D29" s="204"/>
+      <c r="C29" s="202"/>
+      <c r="D29" s="202"/>
       <c r="L29" s="65"/>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
@@ -8613,7 +8619,7 @@
       </c>
       <c r="B30" s="203">
         <f>COUNTIF('Reading Plan'!A$2:A$1093, "*Y*")</f>
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C30" s="203"/>
       <c r="D30" s="203"/>
@@ -8625,7 +8631,7 @@
       </c>
       <c r="B31" s="203">
         <f>COUNTIF('Reading Plan'!A$2:A$1093, "N")</f>
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C31" s="203"/>
       <c r="D31" s="203"/>
@@ -8658,29 +8664,21 @@
       <c r="L34" s="65"/>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A36" s="202" t="s">
+      <c r="A36" s="209" t="s">
         <v>1189</v>
       </c>
-      <c r="B36" s="202"/>
-      <c r="C36" s="202"/>
-      <c r="D36" s="202"/>
+      <c r="B36" s="209"/>
+      <c r="C36" s="209"/>
+      <c r="D36" s="209"/>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A37" s="202"/>
-      <c r="B37" s="202"/>
-      <c r="C37" s="202"/>
-      <c r="D37" s="202"/>
+      <c r="A37" s="209"/>
+      <c r="B37" s="209"/>
+      <c r="C37" s="209"/>
+      <c r="D37" s="209"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="B8:D8"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="B7:D7"/>
     <mergeCell ref="A36:D37"/>
     <mergeCell ref="B9:D9"/>
     <mergeCell ref="B10:D10"/>
@@ -8697,6 +8695,14 @@
     <mergeCell ref="B30:D30"/>
     <mergeCell ref="B29:D29"/>
     <mergeCell ref="B32:D32"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="B8:D8"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="B7:D7"/>
   </mergeCells>
   <conditionalFormatting sqref="D24:D25">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="greaterThan">
@@ -8709,11 +8715,12 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:R94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J5" sqref="J5"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M27" sqref="M27:M70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8792,7 +8799,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:18" s="78" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:18" s="78" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
         <v>62</v>
       </c>
@@ -8836,7 +8843,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
         <v>62</v>
       </c>
@@ -8878,7 +8885,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="76" t="s">
         <v>62</v>
       </c>
@@ -8920,7 +8927,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
         <v>62</v>
       </c>
@@ -8962,7 +8969,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="76" t="s">
         <v>62</v>
       </c>
@@ -9004,7 +9011,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="168" t="s">
         <v>62</v>
       </c>
@@ -9056,7 +9063,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="168" t="s">
         <v>62</v>
       </c>
@@ -9108,7 +9115,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="168" t="s">
         <v>62</v>
       </c>
@@ -9162,7 +9169,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="168" t="s">
         <v>62</v>
       </c>
@@ -9212,7 +9219,7 @@
         <v>1792</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="168" t="s">
         <v>62</v>
       </c>
@@ -9264,7 +9271,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="168" t="s">
         <v>62</v>
       </c>
@@ -9318,7 +9325,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="79" t="s">
         <v>55</v>
       </c>
@@ -9360,7 +9367,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="79" t="s">
         <v>55</v>
       </c>
@@ -9402,7 +9409,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="79" t="s">
         <v>55</v>
       </c>
@@ -9446,7 +9453,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="79" t="s">
         <v>55</v>
       </c>
@@ -9490,7 +9497,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="171" t="s">
         <v>55</v>
       </c>
@@ -9544,7 +9551,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="18" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="171" t="s">
         <v>55</v>
       </c>
@@ -9596,7 +9603,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="171" t="s">
         <v>55</v>
       </c>
@@ -9650,7 +9657,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="20" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="171" t="s">
         <v>55</v>
       </c>
@@ -9704,7 +9711,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="21" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="171" t="s">
         <v>55</v>
       </c>
@@ -9758,7 +9765,7 @@
         <v>1873</v>
       </c>
     </row>
-    <row r="22" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="81" t="s">
         <v>155</v>
       </c>
@@ -9800,7 +9807,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
         <v>155</v>
       </c>
@@ -9844,7 +9851,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="173" t="s">
         <v>155</v>
       </c>
@@ -9896,7 +9903,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="25" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="173" t="s">
         <v>155</v>
       </c>
@@ -9946,7 +9953,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="26" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="81" t="s">
         <v>155</v>
       </c>
@@ -10034,7 +10041,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="176" t="s">
         <v>56</v>
       </c>
@@ -10076,7 +10083,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="83" t="s">
         <v>49</v>
       </c>
@@ -10116,7 +10123,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="30" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="83" t="s">
         <v>49</v>
       </c>
@@ -10158,7 +10165,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="31" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="83" t="s">
         <v>49</v>
       </c>
@@ -10200,7 +10207,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="83" t="s">
         <v>49</v>
       </c>
@@ -10244,7 +10251,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="33" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="179" t="s">
         <v>49</v>
       </c>
@@ -10288,7 +10295,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="179" t="s">
         <v>49</v>
       </c>
@@ -10328,7 +10335,7 @@
       <c r="Q34" s="179"/>
       <c r="R34" s="179"/>
     </row>
-    <row r="35" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="179" t="s">
         <v>49</v>
       </c>
@@ -10370,7 +10377,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="36" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="179" t="s">
         <v>49</v>
       </c>
@@ -10412,7 +10419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="37" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="179" t="s">
         <v>49</v>
       </c>
@@ -10454,7 +10461,7 @@
         <v>1820</v>
       </c>
     </row>
-    <row r="38" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="79" t="s">
         <v>48</v>
       </c>
@@ -10492,7 +10499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="39" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="79" t="s">
         <v>48</v>
       </c>
@@ -10532,7 +10539,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="40" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="79" t="s">
         <v>48</v>
       </c>
@@ -10572,7 +10579,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="79" t="s">
         <v>48</v>
       </c>
@@ -10612,7 +10619,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="79" t="s">
         <v>48</v>
       </c>
@@ -10652,7 +10659,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="79" t="s">
         <v>48</v>
       </c>
@@ -10694,7 +10701,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="44" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="171" t="s">
         <v>48</v>
       </c>
@@ -10736,7 +10743,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="171" t="s">
         <v>48</v>
       </c>
@@ -10790,7 +10797,7 @@
         <v>1611</v>
       </c>
     </row>
-    <row r="46" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85" t="s">
         <v>57</v>
       </c>
@@ -10834,7 +10841,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="47" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="85" t="s">
         <v>57</v>
       </c>
@@ -10876,7 +10883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="183" t="s">
         <v>57</v>
       </c>
@@ -10918,7 +10925,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="49" spans="1:18" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:18" s="78" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="183" t="s">
         <v>57</v>
       </c>
@@ -10974,7 +10981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="78" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:18" s="78" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="183" t="s">
         <v>57</v>
       </c>
@@ -11028,7 +11035,7 @@
       </c>
       <c r="R50" s="183"/>
     </row>
-    <row r="51" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="183" t="s">
         <v>57</v>
       </c>
@@ -11070,7 +11077,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="52" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="183" t="s">
         <v>57</v>
       </c>
@@ -11112,7 +11119,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="53" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="183" t="s">
         <v>57</v>
       </c>
@@ -11164,7 +11171,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="54" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="183" t="s">
         <v>57</v>
       </c>
@@ -11206,7 +11213,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="87" t="s">
         <v>2</v>
       </c>
@@ -11248,7 +11255,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="87" t="s">
         <v>2</v>
       </c>
@@ -11290,7 +11297,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="87" t="s">
         <v>2</v>
       </c>
@@ -11332,7 +11339,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="58" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="87" t="s">
         <v>2</v>
       </c>
@@ -11374,7 +11381,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="59" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="87" t="s">
         <v>2</v>
       </c>
@@ -11416,7 +11423,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="60" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="87" t="s">
         <v>2</v>
       </c>
@@ -11458,7 +11465,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="87" t="s">
         <v>2</v>
       </c>
@@ -11500,7 +11507,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="87" t="s">
         <v>2</v>
       </c>
@@ -11542,7 +11549,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="87" t="s">
         <v>2</v>
       </c>
@@ -11586,7 +11593,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="87" t="s">
         <v>2</v>
       </c>
@@ -11628,7 +11635,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="87" t="s">
         <v>2</v>
       </c>
@@ -11666,7 +11673,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="186" t="s">
         <v>2</v>
       </c>
@@ -11712,7 +11719,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="67" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="186" t="s">
         <v>2</v>
       </c>
@@ -11754,7 +11761,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="68" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="87" t="s">
         <v>2</v>
       </c>
@@ -11796,7 +11803,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="69" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="186" t="s">
         <v>2</v>
       </c>
@@ -11890,7 +11897,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="71" spans="1:18" s="78" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:18" s="78" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="89" t="s">
         <v>40</v>
       </c>
@@ -11932,7 +11939,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="72" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="89" t="s">
         <v>40</v>
       </c>
@@ -11974,7 +11981,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="73" spans="1:18" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:18" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="89" t="s">
         <v>40</v>
       </c>
@@ -12016,7 +12023,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="74" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="89" t="s">
         <v>40</v>
       </c>
@@ -12060,7 +12067,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="75" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="89" t="s">
         <v>40</v>
       </c>
@@ -12104,7 +12111,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="89" t="s">
         <v>40</v>
       </c>
@@ -12148,7 +12155,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="89" t="s">
         <v>40</v>
       </c>
@@ -12192,7 +12199,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="89" t="s">
         <v>40</v>
       </c>
@@ -12236,7 +12243,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="79" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="89" t="s">
         <v>40</v>
       </c>
@@ -12280,7 +12287,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="89" t="s">
         <v>40</v>
       </c>
@@ -12324,7 +12331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="89" t="s">
         <v>40</v>
       </c>
@@ -12366,7 +12373,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="89" t="s">
         <v>40</v>
       </c>
@@ -12408,7 +12415,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="89" t="s">
         <v>40</v>
       </c>
@@ -12450,7 +12457,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="89" t="s">
         <v>40</v>
       </c>
@@ -12492,7 +12499,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="93" t="s">
         <v>77</v>
       </c>
@@ -12534,7 +12541,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="86" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="189" t="s">
         <v>77</v>
       </c>
@@ -12576,7 +12583,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="92" t="s">
         <v>80</v>
       </c>
@@ -12618,7 +12625,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="92" t="s">
         <v>80</v>
       </c>
@@ -12658,7 +12665,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="95" t="s">
         <v>304</v>
       </c>
@@ -12696,7 +12703,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="95" t="s">
         <v>1589</v>
       </c>
@@ -12738,7 +12745,7 @@
         <v>1591</v>
       </c>
     </row>
-    <row r="91" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="166" t="s">
         <v>1829</v>
       </c>
@@ -12780,7 +12787,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:18" s="78" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:18" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="192" t="s">
         <v>1829</v>
       </c>
@@ -12832,7 +12839,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="199" t="s">
         <v>703</v>
       </c>
@@ -12855,7 +12862,7 @@
         <v>1862</v>
       </c>
     </row>
-    <row r="94" spans="1:18" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:18" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="199" t="s">
         <v>703</v>
       </c>
@@ -12879,7 +12886,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:R94" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
+  <autoFilter ref="A1:R94" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
+    <filterColumn colId="2">
+      <filters>
+        <filter val="ICON"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="13">
+      <filters>
+        <filter val="Phase 2b/3"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -12887,12 +12905,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:F213"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A104" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C18" sqref="C18"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12965,7 +12982,7 @@
         <v>1794</v>
       </c>
     </row>
-    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>429</v>
       </c>
@@ -12985,7 +13002,7 @@
         <v>1783</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="10" t="s">
         <v>429</v>
       </c>
@@ -13085,14 +13102,16 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="9" t="s">
-        <v>1174</v>
-      </c>
-      <c r="B10" s="9">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="B10" s="8">
         <v>2024</v>
       </c>
-      <c r="C10" s="9"/>
+      <c r="C10" s="8" t="s">
+        <v>1805</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>318</v>
       </c>
@@ -13103,7 +13122,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>1174</v>
       </c>
@@ -13201,7 +13220,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>1174</v>
       </c>
@@ -13219,7 +13238,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>1174</v>
       </c>
@@ -13237,7 +13256,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>1174</v>
       </c>
@@ -13255,7 +13274,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="19" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>1174</v>
       </c>
@@ -13273,7 +13292,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="20" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9" t="s">
         <v>1174</v>
       </c>
@@ -13351,7 +13370,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A24" s="9" t="s">
         <v>1174</v>
       </c>
@@ -13369,7 +13388,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6" ht="30" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>1174</v>
       </c>
@@ -13427,7 +13446,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="28" spans="1:6" ht="45" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6" ht="45" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>429</v>
       </c>
@@ -13545,7 +13564,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="34" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="9" t="s">
         <v>1174</v>
       </c>
@@ -14717,7 +14736,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="93" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" s="9" t="s">
         <v>1174</v>
       </c>
@@ -14735,7 +14754,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" s="9" t="s">
         <v>1174</v>
       </c>
@@ -14755,7 +14774,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="95" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" s="9" t="s">
         <v>1174</v>
       </c>
@@ -14775,7 +14794,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="96" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" s="9" t="s">
         <v>1174</v>
       </c>
@@ -14795,7 +14814,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="97" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="9" t="s">
         <v>1174</v>
       </c>
@@ -14815,7 +14834,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="98" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" s="9" t="s">
         <v>1174</v>
       </c>
@@ -14835,7 +14854,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="9" t="s">
         <v>1174</v>
       </c>
@@ -14855,7 +14874,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15395,7 +15414,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A127" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15435,7 +15454,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A129" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15453,7 +15472,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A130" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15471,7 +15490,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A131" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15489,7 +15508,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A132" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15507,7 +15526,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15525,7 +15544,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A134" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15543,7 +15562,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15561,7 +15580,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A136" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15579,7 +15598,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A137" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15597,7 +15616,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A138" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15635,7 +15654,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A140" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15653,7 +15672,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15671,7 +15690,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15689,7 +15708,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15707,7 +15726,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A144" s="9" t="s">
         <v>1174</v>
       </c>
@@ -15725,7 +15744,7 @@
         <v>1636</v>
       </c>
     </row>
-    <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A145" s="9" t="s">
         <v>1174</v>
       </c>
@@ -16321,47 +16340,7 @@
       <c r="F213" s="3"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F148" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="Week01"/>
-        <filter val="Week02"/>
-        <filter val="Week04"/>
-        <filter val="Week05"/>
-        <filter val="Week06"/>
-        <filter val="Week07"/>
-        <filter val="Week09"/>
-        <filter val="Week11"/>
-        <filter val="Week13"/>
-        <filter val="Week14"/>
-        <filter val="Week15"/>
-        <filter val="Week17"/>
-        <filter val="Week20"/>
-        <filter val="Week21"/>
-        <filter val="Week25"/>
-        <filter val="Week27"/>
-        <filter val="Week29"/>
-        <filter val="Week32"/>
-        <filter val="Week33"/>
-        <filter val="Week34"/>
-        <filter val="Week35"/>
-        <filter val="Week36"/>
-        <filter val="Week37"/>
-        <filter val="Week38"/>
-        <filter val="Week39"/>
-        <filter val="Week40"/>
-        <filter val="Week42"/>
-        <filter val="Week43"/>
-        <filter val="Week44"/>
-        <filter val="Week45"/>
-        <filter val="Week46"/>
-        <filter val="Week47"/>
-        <filter val="Week48"/>
-        <filter val="Week49"/>
-        <filter val="Week50"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:F148" xr:uid="{C37E4E63-AD2E-43C1-8225-C5A880FB5A11}"/>
   <phoneticPr fontId="27" type="noConversion"/>
   <hyperlinks>
     <hyperlink ref="F147" r:id="rId1" display="https://www.psiweb.org/sigs-special-interest-groups/visualisation/welcome-to-wonderful-wednesdays" xr:uid="{4A728282-80F2-4BD0-8470-EF602CDA17B3}"/>
@@ -16380,11 +16359,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M334"/>
+  <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A287" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H302" sqref="H302"/>
+      <selection pane="bottomLeft" activeCell="H306" sqref="H306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24717,7 +24696,7 @@
         <v>45564</v>
       </c>
       <c r="D259" s="142" t="str">
-        <f t="shared" ref="D259:D321" si="8">"Week " &amp; TEXT(WEEKNUM(C259, 1), "00")</f>
+        <f t="shared" ref="D259:D322" si="8">"Week " &amp; TEXT(WEEKNUM(C259, 1), "00")</f>
         <v>Week 40</v>
       </c>
       <c r="E259" s="142" t="str">
@@ -25659,7 +25638,7 @@
         <v>Week 52</v>
       </c>
       <c r="E285" s="142" t="str">
-        <f t="shared" ref="E285:E334" si="10">TEXT(C285, "dddd")</f>
+        <f t="shared" ref="E285:E335" si="10">TEXT(C285, "dddd")</f>
         <v>Sunday</v>
       </c>
       <c r="F285" s="114" t="s">
@@ -26215,43 +26194,39 @@
       <c r="A302" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B302" s="109" t="s">
-        <v>1207</v>
+      <c r="B302" s="115" t="s">
+        <v>1874</v>
       </c>
       <c r="C302" s="147">
         <v>45711</v>
       </c>
       <c r="D302" s="142" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" ref="D302" si="11">"Week " &amp; TEXT(WEEKNUM(C302, 1), "00")</f>
         <v>Week 09</v>
       </c>
       <c r="E302" s="142" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" ref="E302" si="12">TEXT(C302, "dddd")</f>
         <v>Sunday</v>
       </c>
-      <c r="F302" s="122" t="s">
-        <v>1213</v>
+      <c r="F302" s="114" t="s">
+        <v>1311</v>
       </c>
       <c r="G302" s="153" t="s">
-        <v>1407</v>
+        <v>1875</v>
       </c>
       <c r="H302" s="114"/>
       <c r="I302" s="114"/>
       <c r="J302" s="114"/>
-      <c r="K302" s="136">
-        <v>0.66666666666666663</v>
-      </c>
+      <c r="K302" s="136"/>
       <c r="L302" s="105"/>
-      <c r="M302" s="119" t="s">
-        <v>1734</v>
-      </c>
+      <c r="M302" s="102"/>
     </row>
     <row r="303" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A303" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B303" s="129" t="s">
-        <v>1227</v>
+      <c r="B303" s="109" t="s">
+        <v>1207</v>
       </c>
       <c r="C303" s="147">
         <v>45711</v>
@@ -26264,96 +26239,100 @@
         <f t="shared" si="10"/>
         <v>Sunday</v>
       </c>
-      <c r="F303" s="105" t="s">
-        <v>1252</v>
+      <c r="F303" s="122" t="s">
+        <v>1213</v>
       </c>
       <c r="G303" s="153" t="s">
-        <v>1259</v>
-      </c>
-      <c r="H303" s="113"/>
-      <c r="I303" s="113"/>
-      <c r="J303" s="113"/>
+        <v>1407</v>
+      </c>
+      <c r="H303" s="114"/>
+      <c r="I303" s="114"/>
+      <c r="J303" s="114"/>
       <c r="K303" s="136">
-        <v>0.75</v>
+        <v>0.66666666666666663</v>
       </c>
       <c r="L303" s="105"/>
-      <c r="M303" s="135" t="s">
-        <v>1554</v>
+      <c r="M303" s="119" t="s">
+        <v>1734</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A304" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B304" s="109" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C304" s="142">
-        <v>45738</v>
+      <c r="B304" s="129" t="s">
+        <v>1227</v>
+      </c>
+      <c r="C304" s="147">
+        <v>45711</v>
       </c>
       <c r="D304" s="142" t="str">
         <f t="shared" si="8"/>
-        <v>Week 12</v>
+        <v>Week 09</v>
       </c>
       <c r="E304" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Saturday</v>
+        <v>Sunday</v>
       </c>
       <c r="F304" s="105" t="s">
-        <v>1230</v>
-      </c>
-      <c r="G304" s="105" t="s">
-        <v>1250</v>
-      </c>
-      <c r="H304" s="114"/>
-      <c r="I304" s="114"/>
-      <c r="J304" s="114"/>
+        <v>1252</v>
+      </c>
+      <c r="G304" s="153" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H304" s="113"/>
+      <c r="I304" s="113"/>
+      <c r="J304" s="113"/>
       <c r="K304" s="136">
         <v>0.75</v>
       </c>
       <c r="L304" s="105"/>
-      <c r="M304" s="113"/>
+      <c r="M304" s="135" t="s">
+        <v>1554</v>
+      </c>
     </row>
     <row r="305" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A305" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B305" s="108" t="s">
-        <v>1281</v>
+      <c r="B305" s="109" t="s">
+        <v>1207</v>
       </c>
       <c r="C305" s="142">
-        <v>45739</v>
+        <v>45738</v>
       </c>
       <c r="D305" s="142" t="str">
         <f t="shared" si="8"/>
-        <v>Week 13</v>
+        <v>Week 12</v>
       </c>
       <c r="E305" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="F305" s="105" t="s">
-        <v>1311</v>
+        <v>1230</v>
       </c>
       <c r="G305" s="105" t="s">
-        <v>1505</v>
+        <v>1250</v>
       </c>
       <c r="H305" s="114"/>
       <c r="I305" s="114"/>
       <c r="J305" s="114"/>
-      <c r="K305" s="103"/>
+      <c r="K305" s="136">
+        <v>0.75</v>
+      </c>
       <c r="L305" s="105"/>
-      <c r="M305" s="105"/>
+      <c r="M305" s="113"/>
     </row>
     <row r="306" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A306" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B306" s="106" t="s">
-        <v>1212</v>
+      <c r="B306" s="108" t="s">
+        <v>1281</v>
       </c>
       <c r="C306" s="142">
-        <v>45745</v>
+        <v>45739</v>
       </c>
       <c r="D306" s="142" t="str">
         <f t="shared" si="8"/>
@@ -26361,22 +26340,20 @@
       </c>
       <c r="E306" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Saturday</v>
-      </c>
-      <c r="F306" s="102" t="s">
-        <v>1246</v>
+        <v>Sunday</v>
+      </c>
+      <c r="F306" s="105" t="s">
+        <v>1311</v>
       </c>
       <c r="G306" s="105" t="s">
-        <v>1256</v>
+        <v>1505</v>
       </c>
       <c r="H306" s="114"/>
       <c r="I306" s="114"/>
       <c r="J306" s="114"/>
-      <c r="K306" s="136">
-        <v>0.8125</v>
-      </c>
+      <c r="K306" s="103"/>
       <c r="L306" s="105"/>
-      <c r="M306" s="102"/>
+      <c r="M306" s="105"/>
     </row>
     <row r="307" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A307" s="101" t="s">
@@ -26386,27 +26363,27 @@
         <v>1212</v>
       </c>
       <c r="C307" s="142">
-        <v>45746</v>
+        <v>45745</v>
       </c>
       <c r="D307" s="142" t="str">
         <f t="shared" si="8"/>
-        <v>Week 14</v>
+        <v>Week 13</v>
       </c>
       <c r="E307" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Sunday</v>
-      </c>
-      <c r="F307" s="114" t="s">
-        <v>1221</v>
+        <v>Saturday</v>
+      </c>
+      <c r="F307" s="102" t="s">
+        <v>1246</v>
       </c>
       <c r="G307" s="105" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="H307" s="114"/>
       <c r="I307" s="114"/>
       <c r="J307" s="114"/>
       <c r="K307" s="136">
-        <v>0.75</v>
+        <v>0.8125</v>
       </c>
       <c r="L307" s="105"/>
       <c r="M307" s="102"/>
@@ -26415,11 +26392,11 @@
       <c r="A308" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B308" s="128" t="s">
-        <v>1232</v>
+      <c r="B308" s="106" t="s">
+        <v>1212</v>
       </c>
       <c r="C308" s="142">
-        <v>45751</v>
+        <v>45746</v>
       </c>
       <c r="D308" s="142" t="str">
         <f t="shared" si="8"/>
@@ -26427,26 +26404,22 @@
       </c>
       <c r="E308" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Friday</v>
+        <v>Sunday</v>
       </c>
       <c r="F308" s="114" t="s">
-        <v>1219</v>
+        <v>1221</v>
       </c>
       <c r="G308" s="105" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="H308" s="114"/>
       <c r="I308" s="114"/>
       <c r="J308" s="114"/>
       <c r="K308" s="136">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="L308" s="105" t="s">
-        <v>1235</v>
-      </c>
-      <c r="M308" s="119" t="s">
-        <v>1555</v>
-      </c>
+        <v>0.75</v>
+      </c>
+      <c r="L308" s="105"/>
+      <c r="M308" s="102"/>
     </row>
     <row r="309" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A309" s="101" t="s">
@@ -26456,7 +26429,7 @@
         <v>1232</v>
       </c>
       <c r="C309" s="142">
-        <v>45752</v>
+        <v>45751</v>
       </c>
       <c r="D309" s="142" t="str">
         <f t="shared" si="8"/>
@@ -26464,96 +26437,98 @@
       </c>
       <c r="E309" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Saturday</v>
+        <v>Friday</v>
       </c>
       <c r="F309" s="114" t="s">
-        <v>1243</v>
+        <v>1219</v>
       </c>
       <c r="G309" s="105" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="H309" s="114"/>
       <c r="I309" s="114"/>
       <c r="J309" s="114"/>
       <c r="K309" s="136">
-        <v>0.8125</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="L309" s="105" t="s">
         <v>1235</v>
       </c>
       <c r="M309" s="119" t="s">
-        <v>1556</v>
+        <v>1555</v>
       </c>
     </row>
     <row r="310" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A310" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B310" s="129" t="s">
-        <v>1227</v>
+      <c r="B310" s="128" t="s">
+        <v>1232</v>
       </c>
       <c r="C310" s="142">
-        <v>45753</v>
+        <v>45752</v>
       </c>
       <c r="D310" s="142" t="str">
         <f t="shared" si="8"/>
-        <v>Week 15</v>
+        <v>Week 14</v>
       </c>
       <c r="E310" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Sunday</v>
-      </c>
-      <c r="F310" s="105" t="s">
-        <v>1228</v>
+        <v>Saturday</v>
+      </c>
+      <c r="F310" s="114" t="s">
+        <v>1243</v>
       </c>
       <c r="G310" s="105" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="H310" s="114"/>
       <c r="I310" s="114"/>
       <c r="J310" s="114"/>
       <c r="K310" s="136">
-        <v>0.75</v>
-      </c>
-      <c r="L310" s="105"/>
-      <c r="M310" s="135" t="s">
-        <v>1557</v>
+        <v>0.8125</v>
+      </c>
+      <c r="L310" s="105" t="s">
+        <v>1235</v>
+      </c>
+      <c r="M310" s="119" t="s">
+        <v>1556</v>
       </c>
     </row>
     <row r="311" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A311" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B311" s="106" t="s">
-        <v>1212</v>
+      <c r="B311" s="129" t="s">
+        <v>1227</v>
       </c>
       <c r="C311" s="142">
-        <v>45767</v>
+        <v>45753</v>
       </c>
       <c r="D311" s="142" t="str">
         <f t="shared" si="8"/>
-        <v>Week 17</v>
+        <v>Week 15</v>
       </c>
       <c r="E311" s="142" t="str">
         <f t="shared" si="10"/>
         <v>Sunday</v>
       </c>
-      <c r="F311" s="114" t="s">
-        <v>1236</v>
+      <c r="F311" s="105" t="s">
+        <v>1228</v>
       </c>
       <c r="G311" s="105" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="H311" s="114"/>
       <c r="I311" s="114"/>
       <c r="J311" s="114"/>
       <c r="K311" s="136">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L311" s="105" t="s">
-        <v>1262</v>
-      </c>
-      <c r="M311" s="102"/>
+        <v>0.75</v>
+      </c>
+      <c r="L311" s="105"/>
+      <c r="M311" s="135" t="s">
+        <v>1557</v>
+      </c>
     </row>
     <row r="312" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A312" s="101" t="s">
@@ -26563,7 +26538,7 @@
         <v>1212</v>
       </c>
       <c r="C312" s="142">
-        <v>45768</v>
+        <v>45767</v>
       </c>
       <c r="D312" s="142" t="str">
         <f t="shared" si="8"/>
@@ -26571,32 +26546,34 @@
       </c>
       <c r="E312" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Monday</v>
+        <v>Sunday</v>
       </c>
       <c r="F312" s="114" t="s">
-        <v>1239</v>
+        <v>1236</v>
       </c>
       <c r="G312" s="105" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="H312" s="114"/>
       <c r="I312" s="114"/>
       <c r="J312" s="114"/>
       <c r="K312" s="136">
-        <v>0.75</v>
-      </c>
-      <c r="L312" s="105"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L312" s="105" t="s">
+        <v>1262</v>
+      </c>
       <c r="M312" s="102"/>
     </row>
     <row r="313" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A313" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B313" s="115" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C313" s="147">
-        <v>45773</v>
+      <c r="B313" s="106" t="s">
+        <v>1212</v>
+      </c>
+      <c r="C313" s="142">
+        <v>45768</v>
       </c>
       <c r="D313" s="142" t="str">
         <f t="shared" si="8"/>
@@ -26604,22 +26581,22 @@
       </c>
       <c r="E313" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Saturday</v>
+        <v>Monday</v>
       </c>
       <c r="F313" s="114" t="s">
         <v>1239</v>
       </c>
       <c r="G313" s="105" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="H313" s="114"/>
       <c r="I313" s="114"/>
       <c r="J313" s="114"/>
-      <c r="K313" s="136"/>
+      <c r="K313" s="136">
+        <v>0.75</v>
+      </c>
       <c r="L313" s="105"/>
-      <c r="M313" s="119" t="s">
-        <v>1558</v>
-      </c>
+      <c r="M313" s="102"/>
     </row>
     <row r="314" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A314" s="101" t="s">
@@ -26629,75 +26606,75 @@
         <v>1240</v>
       </c>
       <c r="C314" s="147">
-        <v>45774</v>
+        <v>45773</v>
       </c>
       <c r="D314" s="142" t="str">
         <f t="shared" si="8"/>
-        <v>Week 18</v>
+        <v>Week 17</v>
       </c>
       <c r="E314" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Sunday</v>
+        <v>Saturday</v>
       </c>
       <c r="F314" s="114" t="s">
         <v>1239</v>
       </c>
       <c r="G314" s="105" t="s">
-        <v>1263</v>
+        <v>1264</v>
       </c>
       <c r="H314" s="114"/>
       <c r="I314" s="114"/>
       <c r="J314" s="114"/>
-      <c r="K314" s="136">
-        <v>0.64583333333333337</v>
-      </c>
+      <c r="K314" s="136"/>
       <c r="L314" s="105"/>
-      <c r="M314" s="102" t="s">
-        <v>1559</v>
+      <c r="M314" s="119" t="s">
+        <v>1558</v>
       </c>
     </row>
     <row r="315" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A315" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B315" s="109" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C315" s="142">
-        <v>45785</v>
+      <c r="B315" s="115" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C315" s="147">
+        <v>45774</v>
       </c>
       <c r="D315" s="142" t="str">
         <f t="shared" si="8"/>
-        <v>Week 19</v>
+        <v>Week 18</v>
       </c>
       <c r="E315" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Thursday</v>
-      </c>
-      <c r="F315" s="105" t="s">
-        <v>1221</v>
+        <v>Sunday</v>
+      </c>
+      <c r="F315" s="114" t="s">
+        <v>1239</v>
       </c>
       <c r="G315" s="105" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="H315" s="114"/>
       <c r="I315" s="114"/>
       <c r="J315" s="114"/>
       <c r="K315" s="136">
-        <v>0.70833333333333337</v>
+        <v>0.64583333333333337</v>
       </c>
       <c r="L315" s="105"/>
-      <c r="M315" s="113"/>
+      <c r="M315" s="102" t="s">
+        <v>1559</v>
+      </c>
     </row>
     <row r="316" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A316" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B316" s="106" t="s">
-        <v>1212</v>
+      <c r="B316" s="109" t="s">
+        <v>1207</v>
       </c>
       <c r="C316" s="142">
-        <v>45781</v>
+        <v>45785</v>
       </c>
       <c r="D316" s="142" t="str">
         <f t="shared" si="8"/>
@@ -26705,101 +26682,99 @@
       </c>
       <c r="E316" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Sunday</v>
-      </c>
-      <c r="F316" s="114" t="s">
-        <v>1236</v>
+        <v>Thursday</v>
+      </c>
+      <c r="F316" s="105" t="s">
+        <v>1221</v>
       </c>
       <c r="G316" s="105" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="H316" s="114"/>
       <c r="I316" s="114"/>
       <c r="J316" s="114"/>
       <c r="K316" s="136">
-        <v>0.75</v>
-      </c>
-      <c r="L316" s="105" t="s">
-        <v>1267</v>
-      </c>
-      <c r="M316" s="102"/>
+        <v>0.70833333333333337</v>
+      </c>
+      <c r="L316" s="105"/>
+      <c r="M316" s="113"/>
     </row>
     <row r="317" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A317" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B317" s="129" t="s">
-        <v>1227</v>
+      <c r="B317" s="106" t="s">
+        <v>1212</v>
       </c>
       <c r="C317" s="142">
-        <v>45788</v>
+        <v>45781</v>
       </c>
       <c r="D317" s="142" t="str">
         <f t="shared" si="8"/>
-        <v>Week 20</v>
+        <v>Week 19</v>
       </c>
       <c r="E317" s="142" t="str">
         <f t="shared" si="10"/>
         <v>Sunday</v>
       </c>
-      <c r="F317" s="105" t="s">
-        <v>1252</v>
+      <c r="F317" s="114" t="s">
+        <v>1236</v>
       </c>
       <c r="G317" s="105" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="H317" s="114"/>
       <c r="I317" s="114"/>
       <c r="J317" s="114"/>
       <c r="K317" s="136">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="L317" s="105"/>
-      <c r="M317" s="105" t="s">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="318" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.75</v>
+      </c>
+      <c r="L317" s="105" t="s">
+        <v>1267</v>
+      </c>
+      <c r="M317" s="102"/>
+    </row>
+    <row r="318" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A318" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B318" s="106" t="s">
-        <v>1212</v>
+      <c r="B318" s="129" t="s">
+        <v>1227</v>
       </c>
       <c r="C318" s="142">
-        <v>45795</v>
+        <v>45788</v>
       </c>
       <c r="D318" s="142" t="str">
         <f t="shared" si="8"/>
-        <v>Week 21</v>
+        <v>Week 20</v>
       </c>
       <c r="E318" s="142" t="str">
         <f t="shared" si="10"/>
         <v>Sunday</v>
       </c>
-      <c r="F318" s="114" t="s">
-        <v>1221</v>
+      <c r="F318" s="105" t="s">
+        <v>1252</v>
       </c>
       <c r="G318" s="105" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="H318" s="114"/>
       <c r="I318" s="114"/>
       <c r="J318" s="114"/>
       <c r="K318" s="136">
-        <v>0.75</v>
-      </c>
-      <c r="L318" s="138" t="s">
-        <v>1561</v>
-      </c>
-      <c r="M318" s="102"/>
-    </row>
-    <row r="319" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="L318" s="105"/>
+      <c r="M318" s="105" t="s">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="319" spans="1:13" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A319" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B319" s="109" t="s">
-        <v>1207</v>
+      <c r="B319" s="106" t="s">
+        <v>1212</v>
       </c>
       <c r="C319" s="142">
         <v>45795</v>
@@ -26812,30 +26787,32 @@
         <f t="shared" si="10"/>
         <v>Sunday</v>
       </c>
-      <c r="F319" s="105" t="s">
+      <c r="F319" s="114" t="s">
         <v>1221</v>
       </c>
       <c r="G319" s="105" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="H319" s="114"/>
       <c r="I319" s="114"/>
       <c r="J319" s="114"/>
       <c r="K319" s="136">
-        <v>0.70833333333333337</v>
-      </c>
-      <c r="L319" s="105"/>
-      <c r="M319" s="113"/>
+        <v>0.75</v>
+      </c>
+      <c r="L319" s="138" t="s">
+        <v>1561</v>
+      </c>
+      <c r="M319" s="102"/>
     </row>
     <row r="320" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A320" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B320" s="115" t="s">
-        <v>1240</v>
-      </c>
-      <c r="C320" s="147">
-        <v>45800</v>
+      <c r="B320" s="109" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C320" s="142">
+        <v>45795</v>
       </c>
       <c r="D320" s="142" t="str">
         <f t="shared" si="8"/>
@@ -26843,24 +26820,22 @@
       </c>
       <c r="E320" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Friday</v>
-      </c>
-      <c r="F320" s="114" t="s">
-        <v>1239</v>
+        <v>Sunday</v>
+      </c>
+      <c r="F320" s="105" t="s">
+        <v>1221</v>
       </c>
       <c r="G320" s="105" t="s">
-        <v>1263</v>
+        <v>1270</v>
       </c>
       <c r="H320" s="114"/>
       <c r="I320" s="114"/>
       <c r="J320" s="114"/>
       <c r="K320" s="136">
-        <v>0.79166666666666663</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="L320" s="105"/>
-      <c r="M320" s="102" t="s">
-        <v>1559</v>
-      </c>
+      <c r="M320" s="113"/>
     </row>
     <row r="321" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A321" s="101" t="s">
@@ -26870,7 +26845,7 @@
         <v>1240</v>
       </c>
       <c r="C321" s="147">
-        <v>45801</v>
+        <v>45800</v>
       </c>
       <c r="D321" s="142" t="str">
         <f t="shared" si="8"/>
@@ -26878,88 +26853,92 @@
       </c>
       <c r="E321" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Saturday</v>
-      </c>
-      <c r="F321" s="105" t="s">
-        <v>1236</v>
+        <v>Friday</v>
+      </c>
+      <c r="F321" s="114" t="s">
+        <v>1239</v>
       </c>
       <c r="G321" s="105" t="s">
-        <v>1261</v>
+        <v>1263</v>
       </c>
       <c r="H321" s="114"/>
       <c r="I321" s="114"/>
       <c r="J321" s="114"/>
       <c r="K321" s="136">
-        <v>0.70833333333333337</v>
+        <v>0.79166666666666663</v>
       </c>
       <c r="L321" s="105"/>
-      <c r="M321" s="119" t="s">
-        <v>1562</v>
+      <c r="M321" s="102" t="s">
+        <v>1559</v>
       </c>
     </row>
     <row r="322" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A322" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B322" s="109" t="s">
-        <v>1207</v>
-      </c>
-      <c r="C322" s="142">
-        <v>45807</v>
+      <c r="B322" s="115" t="s">
+        <v>1240</v>
+      </c>
+      <c r="C322" s="147">
+        <v>45801</v>
       </c>
       <c r="D322" s="142" t="str">
-        <f t="shared" ref="D322:D334" si="11">"Week " &amp; TEXT(WEEKNUM(C322, 1), "00")</f>
-        <v>Week 22</v>
+        <f t="shared" si="8"/>
+        <v>Week 21</v>
       </c>
       <c r="E322" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Friday</v>
+        <v>Saturday</v>
       </c>
       <c r="F322" s="105" t="s">
-        <v>1271</v>
+        <v>1236</v>
       </c>
       <c r="G322" s="105" t="s">
-        <v>1272</v>
+        <v>1261</v>
       </c>
       <c r="H322" s="114"/>
       <c r="I322" s="114"/>
       <c r="J322" s="114"/>
       <c r="K322" s="136">
-        <v>0.75</v>
+        <v>0.70833333333333337</v>
       </c>
       <c r="L322" s="105"/>
-      <c r="M322" s="113"/>
+      <c r="M322" s="119" t="s">
+        <v>1562</v>
+      </c>
     </row>
     <row r="323" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A323" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B323" s="108" t="s">
-        <v>1281</v>
+      <c r="B323" s="109" t="s">
+        <v>1207</v>
       </c>
       <c r="C323" s="142">
-        <v>45811</v>
+        <v>45807</v>
       </c>
       <c r="D323" s="142" t="str">
-        <f t="shared" si="11"/>
-        <v>Week 23</v>
+        <f t="shared" ref="D323:D335" si="13">"Week " &amp; TEXT(WEEKNUM(C323, 1), "00")</f>
+        <v>Week 22</v>
       </c>
       <c r="E323" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Tuesday</v>
-      </c>
-      <c r="F323" s="124" t="s">
-        <v>1213</v>
+        <v>Friday</v>
+      </c>
+      <c r="F323" s="105" t="s">
+        <v>1271</v>
       </c>
       <c r="G323" s="105" t="s">
-        <v>1354</v>
+        <v>1272</v>
       </c>
       <c r="H323" s="114"/>
       <c r="I323" s="114"/>
       <c r="J323" s="114"/>
-      <c r="K323" s="103"/>
+      <c r="K323" s="136">
+        <v>0.75</v>
+      </c>
       <c r="L323" s="105"/>
-      <c r="M323" s="105"/>
+      <c r="M323" s="113"/>
     </row>
     <row r="324" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A324" s="101" t="s">
@@ -26969,15 +26948,15 @@
         <v>1281</v>
       </c>
       <c r="C324" s="142">
-        <v>45814</v>
+        <v>45811</v>
       </c>
       <c r="D324" s="142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Week 23</v>
       </c>
       <c r="E324" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Friday</v>
+        <v>Tuesday</v>
       </c>
       <c r="F324" s="124" t="s">
         <v>1213</v>
@@ -27000,21 +26979,21 @@
         <v>1281</v>
       </c>
       <c r="C325" s="142">
-        <v>45816</v>
+        <v>45814</v>
       </c>
       <c r="D325" s="142" t="str">
-        <f t="shared" si="11"/>
-        <v>Week 24</v>
+        <f t="shared" si="13"/>
+        <v>Week 23</v>
       </c>
       <c r="E325" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Sunday</v>
+        <v>Friday</v>
       </c>
       <c r="F325" s="124" t="s">
         <v>1213</v>
       </c>
       <c r="G325" s="105" t="s">
-        <v>1421</v>
+        <v>1354</v>
       </c>
       <c r="H325" s="114"/>
       <c r="I325" s="114"/>
@@ -27027,91 +27006,89 @@
       <c r="A326" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B326" s="109" t="s">
-        <v>1207</v>
+      <c r="B326" s="108" t="s">
+        <v>1281</v>
       </c>
       <c r="C326" s="142">
-        <v>45829</v>
+        <v>45816</v>
       </c>
       <c r="D326" s="142" t="str">
-        <f t="shared" si="11"/>
-        <v>Week 25</v>
+        <f t="shared" si="13"/>
+        <v>Week 24</v>
       </c>
       <c r="E326" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Saturday</v>
-      </c>
-      <c r="F326" s="105" t="s">
-        <v>1273</v>
+        <v>Sunday</v>
+      </c>
+      <c r="F326" s="124" t="s">
+        <v>1213</v>
       </c>
       <c r="G326" s="105" t="s">
-        <v>1274</v>
+        <v>1421</v>
       </c>
       <c r="H326" s="114"/>
       <c r="I326" s="114"/>
       <c r="J326" s="114"/>
-      <c r="K326" s="136">
-        <v>0.75</v>
-      </c>
+      <c r="K326" s="103"/>
       <c r="L326" s="105"/>
-      <c r="M326" s="113"/>
+      <c r="M326" s="105"/>
     </row>
     <row r="327" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A327" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B327" s="106" t="s">
-        <v>1212</v>
+      <c r="B327" s="109" t="s">
+        <v>1207</v>
       </c>
       <c r="C327" s="142">
-        <v>45830</v>
+        <v>45829</v>
       </c>
       <c r="D327" s="142" t="str">
-        <f t="shared" si="11"/>
-        <v>Week 26</v>
+        <f t="shared" si="13"/>
+        <v>Week 25</v>
       </c>
       <c r="E327" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Sunday</v>
-      </c>
-      <c r="F327" s="114" t="s">
-        <v>1239</v>
+        <v>Saturday</v>
+      </c>
+      <c r="F327" s="105" t="s">
+        <v>1273</v>
       </c>
       <c r="G327" s="105" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="H327" s="114"/>
       <c r="I327" s="114"/>
       <c r="J327" s="114"/>
       <c r="K327" s="136">
-        <v>0.8125</v>
+        <v>0.75</v>
       </c>
       <c r="L327" s="105"/>
-      <c r="M327" s="102"/>
+      <c r="M327" s="113"/>
     </row>
     <row r="328" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A328" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B328" s="129" t="s">
-        <v>1227</v>
+      <c r="B328" s="106" t="s">
+        <v>1212</v>
       </c>
       <c r="C328" s="142">
-        <v>45833</v>
+        <v>45830</v>
       </c>
       <c r="D328" s="142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Week 26</v>
       </c>
       <c r="E328" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Wednesday</v>
-      </c>
-      <c r="F328" s="105" t="s">
-        <v>1228</v>
+        <v>Sunday</v>
+      </c>
+      <c r="F328" s="114" t="s">
+        <v>1239</v>
       </c>
       <c r="G328" s="105" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="H328" s="114"/>
       <c r="I328" s="114"/>
@@ -27120,40 +27097,42 @@
         <v>0.8125</v>
       </c>
       <c r="L328" s="105"/>
-      <c r="M328" s="135" t="s">
-        <v>1563</v>
-      </c>
+      <c r="M328" s="102"/>
     </row>
     <row r="329" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A329" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B329" s="108" t="s">
-        <v>1281</v>
+      <c r="B329" s="129" t="s">
+        <v>1227</v>
       </c>
       <c r="C329" s="142">
-        <v>45840</v>
+        <v>45833</v>
       </c>
       <c r="D329" s="142" t="str">
-        <f t="shared" si="11"/>
-        <v>Week 27</v>
+        <f t="shared" si="13"/>
+        <v>Week 26</v>
       </c>
       <c r="E329" s="142" t="str">
         <f t="shared" si="10"/>
         <v>Wednesday</v>
       </c>
-      <c r="F329" s="114" t="s">
-        <v>1252</v>
+      <c r="F329" s="105" t="s">
+        <v>1228</v>
       </c>
       <c r="G329" s="105" t="s">
-        <v>1292</v>
+        <v>1276</v>
       </c>
       <c r="H329" s="114"/>
       <c r="I329" s="114"/>
       <c r="J329" s="114"/>
-      <c r="K329" s="134"/>
+      <c r="K329" s="136">
+        <v>0.8125</v>
+      </c>
       <c r="L329" s="105"/>
-      <c r="M329" s="126"/>
+      <c r="M329" s="135" t="s">
+        <v>1563</v>
+      </c>
     </row>
     <row r="330" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A330" s="101" t="s">
@@ -27163,28 +27142,28 @@
         <v>1281</v>
       </c>
       <c r="C330" s="142">
-        <v>45844</v>
+        <v>45840</v>
       </c>
       <c r="D330" s="142" t="str">
-        <f t="shared" si="11"/>
-        <v>Week 28</v>
+        <f t="shared" si="13"/>
+        <v>Week 27</v>
       </c>
       <c r="E330" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Sunday</v>
-      </c>
-      <c r="F330" s="124" t="s">
-        <v>1213</v>
+        <v>Wednesday</v>
+      </c>
+      <c r="F330" s="114" t="s">
+        <v>1252</v>
       </c>
       <c r="G330" s="105" t="s">
-        <v>1506</v>
+        <v>1292</v>
       </c>
       <c r="H330" s="114"/>
       <c r="I330" s="114"/>
       <c r="J330" s="114"/>
-      <c r="K330" s="103"/>
+      <c r="K330" s="134"/>
       <c r="L330" s="105"/>
-      <c r="M330" s="105"/>
+      <c r="M330" s="126"/>
     </row>
     <row r="331" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A331" s="101" t="s">
@@ -27194,21 +27173,21 @@
         <v>1281</v>
       </c>
       <c r="C331" s="142">
-        <v>45853</v>
+        <v>45844</v>
       </c>
       <c r="D331" s="142" t="str">
-        <f t="shared" si="11"/>
-        <v>Week 29</v>
+        <f t="shared" si="13"/>
+        <v>Week 28</v>
       </c>
       <c r="E331" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Tuesday</v>
+        <v>Sunday</v>
       </c>
       <c r="F331" s="124" t="s">
         <v>1213</v>
       </c>
       <c r="G331" s="105" t="s">
-        <v>1434</v>
+        <v>1506</v>
       </c>
       <c r="H331" s="114"/>
       <c r="I331" s="114"/>
@@ -27225,21 +27204,21 @@
         <v>1281</v>
       </c>
       <c r="C332" s="142">
-        <v>45858</v>
+        <v>45853</v>
       </c>
       <c r="D332" s="142" t="str">
-        <f t="shared" si="11"/>
-        <v>Week 30</v>
+        <f t="shared" si="13"/>
+        <v>Week 29</v>
       </c>
       <c r="E332" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Sunday</v>
+        <v>Tuesday</v>
       </c>
       <c r="F332" s="124" t="s">
         <v>1213</v>
       </c>
       <c r="G332" s="105" t="s">
-        <v>1507</v>
+        <v>1434</v>
       </c>
       <c r="H332" s="114"/>
       <c r="I332" s="114"/>
@@ -27252,70 +27231,101 @@
       <c r="A333" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B333" s="106" t="s">
-        <v>1212</v>
+      <c r="B333" s="108" t="s">
+        <v>1281</v>
       </c>
       <c r="C333" s="142">
-        <v>45862</v>
+        <v>45858</v>
       </c>
       <c r="D333" s="142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Week 30</v>
       </c>
       <c r="E333" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Thursday</v>
-      </c>
-      <c r="F333" s="114" t="s">
-        <v>1230</v>
+        <v>Sunday</v>
+      </c>
+      <c r="F333" s="124" t="s">
+        <v>1213</v>
       </c>
       <c r="G333" s="105" t="s">
-        <v>1277</v>
+        <v>1507</v>
       </c>
       <c r="H333" s="114"/>
       <c r="I333" s="114"/>
       <c r="J333" s="114"/>
-      <c r="K333" s="136">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="K333" s="103"/>
       <c r="L333" s="105"/>
-      <c r="M333" s="102"/>
+      <c r="M333" s="105"/>
     </row>
     <row r="334" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A334" s="101" t="s">
         <v>1206</v>
       </c>
-      <c r="B334" s="109" t="s">
-        <v>1207</v>
+      <c r="B334" s="106" t="s">
+        <v>1212</v>
       </c>
       <c r="C334" s="142">
-        <v>45863</v>
+        <v>45862</v>
       </c>
       <c r="D334" s="142" t="str">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>Week 30</v>
       </c>
       <c r="E334" s="142" t="str">
         <f t="shared" si="10"/>
-        <v>Friday</v>
-      </c>
-      <c r="F334" s="105" t="s">
-        <v>1278</v>
+        <v>Thursday</v>
+      </c>
+      <c r="F334" s="114" t="s">
+        <v>1230</v>
       </c>
       <c r="G334" s="105" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="H334" s="114"/>
       <c r="I334" s="114"/>
       <c r="J334" s="114"/>
       <c r="K334" s="136">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="L334" s="105"/>
+      <c r="M334" s="102"/>
+    </row>
+    <row r="335" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A335" s="101" t="s">
+        <v>1206</v>
+      </c>
+      <c r="B335" s="109" t="s">
+        <v>1207</v>
+      </c>
+      <c r="C335" s="142">
+        <v>45863</v>
+      </c>
+      <c r="D335" s="142" t="str">
+        <f t="shared" si="13"/>
+        <v>Week 30</v>
+      </c>
+      <c r="E335" s="142" t="str">
+        <f t="shared" si="10"/>
+        <v>Friday</v>
+      </c>
+      <c r="F335" s="105" t="s">
+        <v>1278</v>
+      </c>
+      <c r="G335" s="105" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H335" s="114"/>
+      <c r="I335" s="114"/>
+      <c r="J335" s="114"/>
+      <c r="K335" s="136">
         <v>0.75</v>
       </c>
-      <c r="L334" s="105"/>
-      <c r="M334" s="113"/>
+      <c r="L335" s="105"/>
+      <c r="M335" s="113"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:M334" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
+  <autoFilter ref="A1:M335" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
     <filterColumn colId="0">
       <filters>
         <filter val="2024-2025"/>
@@ -27331,14 +27341,14 @@
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="M270" r:id="rId1" display="https://www.staatsoper-hamburg.de/de/spielplan/stueck.php?AuffNr=221440" xr:uid="{ED1E9297-3292-4B3E-BA05-CADD38C0F7DB}"/>
-    <hyperlink ref="M328" r:id="rId2" display="https://www.komische-oper-berlin.de/en/what/a-z/my-friend-bunbury/" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
-    <hyperlink ref="M310" r:id="rId3" display="https://www.komische-oper-berlin.de/en/what/a-z/la-cage-aux-folles/" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
-    <hyperlink ref="M303" r:id="rId4" display="https://www.komische-oper-berlin.de/en/what/a-z/the-magic-flute/" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
-    <hyperlink ref="M308" r:id="rId5" display="https://www.staatsoper.de/stuecke/la-cenerentola/2025-04-04-1900-14886" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
-    <hyperlink ref="M309" r:id="rId6" display="https://www.staatsoper.de/stuecke/madama-butterfly/2025-04-05-1930-14888" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
-    <hyperlink ref="M313" r:id="rId7" display="https://oper-frankfurt.de/de/spielplan/linvisible/?id_datum=4100" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
-    <hyperlink ref="M321" r:id="rId8" display="https://oper-frankfurt.de/de/spielplan/parsifal/?id_datum=4119" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
-    <hyperlink ref="M302" r:id="rId9" xr:uid="{A306D56F-3AD7-4C7D-AF9F-080C76FBE9C9}"/>
+    <hyperlink ref="M329" r:id="rId2" display="https://www.komische-oper-berlin.de/en/what/a-z/my-friend-bunbury/" xr:uid="{7BC2869F-AEE2-4781-B030-6A15FB8C31C3}"/>
+    <hyperlink ref="M311" r:id="rId3" display="https://www.komische-oper-berlin.de/en/what/a-z/la-cage-aux-folles/" xr:uid="{1407DE8C-A604-4951-B511-435717A59C5E}"/>
+    <hyperlink ref="M304" r:id="rId4" display="https://www.komische-oper-berlin.de/en/what/a-z/the-magic-flute/" xr:uid="{C6657D15-22F0-4AD7-97A2-72FFDC95F545}"/>
+    <hyperlink ref="M309" r:id="rId5" display="https://www.staatsoper.de/stuecke/la-cenerentola/2025-04-04-1900-14886" xr:uid="{759B6F82-4C96-4856-9D69-469BA5DE199B}"/>
+    <hyperlink ref="M310" r:id="rId6" display="https://www.staatsoper.de/stuecke/madama-butterfly/2025-04-05-1930-14888" xr:uid="{74DC117A-29DD-47C4-84E5-CB402E8D0E7B}"/>
+    <hyperlink ref="M314" r:id="rId7" display="https://oper-frankfurt.de/de/spielplan/linvisible/?id_datum=4100" xr:uid="{D6932E23-2718-42CE-B6CB-1E9D8A3EAE97}"/>
+    <hyperlink ref="M322" r:id="rId8" display="https://oper-frankfurt.de/de/spielplan/parsifal/?id_datum=4119" xr:uid="{6F99221E-0922-4298-9844-F3DADF127F5C}"/>
+    <hyperlink ref="M303" r:id="rId9" xr:uid="{A306D56F-3AD7-4C7D-AF9F-080C76FBE9C9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId10"/>
@@ -27512,8 +27522,8 @@
   <dimension ref="A1:F312"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J6" sqref="J6"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01_ClinicalTrials/ClinicalTrial.xlsx
+++ b/01_ClinicalTrials/ClinicalTrial.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\baiz\Downloads\Zehuibai.github.io\01_ClinicalTrials\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{270E4D07-F893-44BA-89E2-2A92B382BDEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{452D0799-5C3A-49B4-8C3D-2F36414FBC84}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{616A0CF6-5BE0-4768-9F42-4BEA5A170CFF}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="6" r:id="rId1"/>
@@ -24,7 +24,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'B&amp;P Active Studies'!$A$1:$F$312</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Chill 2023-2025'!$A$1:$H$41</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$M$339</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Oper Plan'!$A$1:$M$338</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Reading Plan'!$A$1:$F$149</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Study Plan'!$A$1:$S$101</definedName>
   </definedNames>
@@ -113,7 +113,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5415" uniqueCount="1917">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5457" uniqueCount="1920">
   <si>
     <t>Phase</t>
   </si>
@@ -5041,9 +5041,6 @@
     <t>The Nutcracker</t>
   </si>
   <si>
-    <t>Jette Steckel</t>
-  </si>
-  <si>
     <t>Michael Thalheimer</t>
   </si>
   <si>
@@ -5732,9 +5729,6 @@
     <t>Cancer Prognosis</t>
   </si>
   <si>
-    <t>M</t>
-  </si>
-  <si>
     <t>Talal</t>
   </si>
   <si>
@@ -5937,6 +5931,21 @@
   </si>
   <si>
     <t>UCB/Zogenix, Inc</t>
+  </si>
+  <si>
+    <t>Gastroenterology-Irritable Bowel Syndrome-PI-GSK3352589</t>
+  </si>
+  <si>
+    <t>PI-GSK3352589</t>
+  </si>
+  <si>
+    <t>NCT03154086</t>
+  </si>
+  <si>
+    <t>GlaxoSmithKline</t>
+  </si>
+  <si>
+    <t>[Irritable Bowel Syndrome](https://clinicaltrials.gov/study/NCT03154086)</t>
   </si>
 </sst>
 </file>
@@ -7595,8 +7604,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>339</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>269</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7662,8 +7671,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>339</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>270</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7729,8 +7738,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>339</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>281</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7796,7 +7805,7 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>339</xdr:row>
+          <xdr:row>282</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
@@ -7863,8 +7872,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>339</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>282</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7930,8 +7939,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>339</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>290</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -7997,8 +8006,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>339</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>283</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8064,8 +8073,8 @@
         <xdr:to>
           <xdr:col>1</xdr:col>
           <xdr:colOff>219075</xdr:colOff>
-          <xdr:row>339</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
+          <xdr:row>287</xdr:row>
+          <xdr:rowOff>9525</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
@@ -8558,7 +8567,7 @@
       </c>
       <c r="B11" s="208">
         <f>COUNTIF('Study Plan'!B$1:B$1016,"2024")</f>
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C11" s="208"/>
       <c r="D11" s="208"/>
@@ -8587,7 +8596,7 @@
       </c>
       <c r="B13" s="207">
         <f>COUNTA('Study Plan'!A$2:A$1016)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C13" s="207"/>
       <c r="D13" s="207"/>
@@ -8717,7 +8726,7 @@
       </c>
       <c r="B21" s="208">
         <f>COUNTIF('Study Plan'!C$1:C$1016,"Learning")</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C21" s="208"/>
       <c r="D21" s="208"/>
@@ -8748,7 +8757,7 @@
         <v>1177</v>
       </c>
       <c r="C23" s="66" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="D23" s="66" t="s">
         <v>1169</v>
@@ -8761,14 +8770,14 @@
       </c>
       <c r="B24" s="75">
         <f>COUNTA('Study Plan'!A$2:A$1017)</f>
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C24" s="68">
         <v>150</v>
       </c>
       <c r="D24" s="140">
         <f>B24-C24</f>
-        <v>-50</v>
+        <v>-49</v>
       </c>
       <c r="L24" s="65"/>
     </row>
@@ -8798,7 +8807,7 @@
     </row>
     <row r="27" spans="1:12" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="212" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="B27" s="212"/>
       <c r="C27" s="212"/>
@@ -8917,12 +8926,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:S101"/>
+  <dimension ref="A1:S102"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J52" sqref="J52"/>
+      <pane ySplit="1" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J49" sqref="J49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8962,25 +8970,25 @@
         <v>160</v>
       </c>
       <c r="E1" s="201" t="s">
-        <v>1799</v>
+        <v>1798</v>
       </c>
       <c r="F1" s="201" t="s">
+        <v>1805</v>
+      </c>
+      <c r="G1" s="201" t="s">
         <v>1806</v>
       </c>
-      <c r="G1" s="201" t="s">
-        <v>1807</v>
-      </c>
       <c r="H1" s="201" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="I1" s="201" t="s">
-        <v>1809</v>
+        <v>1808</v>
       </c>
       <c r="J1" s="201" t="s">
-        <v>1819</v>
+        <v>1818</v>
       </c>
       <c r="K1" s="201" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="L1" s="202" t="s">
         <v>188</v>
@@ -9007,7 +9015,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:19" s="78" customFormat="1" ht="30.75" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:19" s="78" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="76" t="s">
         <v>61</v>
       </c>
@@ -9052,7 +9060,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="3" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="76" t="s">
         <v>61</v>
       </c>
@@ -9095,7 +9103,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="76" t="s">
         <v>61</v>
       </c>
@@ -9138,7 +9146,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:19" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:19" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
         <v>61</v>
       </c>
@@ -9181,7 +9189,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="76" t="s">
         <v>61</v>
       </c>
@@ -9308,7 +9316,7 @@
       </c>
       <c r="K8" s="169"/>
       <c r="L8" s="168" t="s">
-        <v>1808</v>
+        <v>1807</v>
       </c>
       <c r="M8" s="168" t="s">
         <v>378</v>
@@ -9363,7 +9371,7 @@
       </c>
       <c r="K9" s="169"/>
       <c r="L9" s="168" t="s">
-        <v>1774</v>
+        <v>1773</v>
       </c>
       <c r="M9" s="168" t="s">
         <v>376</v>
@@ -9416,10 +9424,10 @@
       </c>
       <c r="K10" s="169"/>
       <c r="L10" s="168" t="s">
-        <v>1775</v>
+        <v>1774</v>
       </c>
       <c r="M10" s="168" t="s">
-        <v>1773</v>
+        <v>1772</v>
       </c>
       <c r="N10" s="170" t="s">
         <v>377</v>
@@ -9428,12 +9436,12 @@
         <v>75</v>
       </c>
       <c r="P10" s="170" t="s">
-        <v>1776</v>
+        <v>1775</v>
       </c>
       <c r="Q10" s="168"/>
       <c r="R10" s="168"/>
       <c r="S10" s="168" t="s">
-        <v>1777</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="11" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -9469,7 +9477,7 @@
       </c>
       <c r="K11" s="169"/>
       <c r="L11" s="168" t="s">
-        <v>1836</v>
+        <v>1835</v>
       </c>
       <c r="M11" s="168" t="s">
         <v>207</v>
@@ -9520,25 +9528,25 @@
       </c>
       <c r="K12" s="169"/>
       <c r="L12" s="168" t="s">
-        <v>1835</v>
+        <v>1834</v>
       </c>
       <c r="M12" s="168" t="s">
         <v>435</v>
       </c>
       <c r="N12" s="170" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="O12" s="168" t="s">
         <v>11</v>
       </c>
       <c r="P12" s="170" t="s">
+        <v>1836</v>
+      </c>
+      <c r="Q12" s="168" t="s">
         <v>1837</v>
       </c>
-      <c r="Q12" s="168" t="s">
+      <c r="R12" s="168" t="s">
         <v>1838</v>
-      </c>
-      <c r="R12" s="168" t="s">
-        <v>1839</v>
       </c>
       <c r="S12" s="168" t="s">
         <v>10</v>
@@ -9558,34 +9566,44 @@
       <c r="E13" s="169" t="s">
         <v>1167</v>
       </c>
-      <c r="F13" s="169"/>
-      <c r="G13" s="169"/>
-      <c r="H13" s="169"/>
+      <c r="F13" s="169" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G13" s="169" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H13" s="169" t="s">
+        <v>1167</v>
+      </c>
       <c r="I13" s="169" t="s">
         <v>161</v>
       </c>
-      <c r="J13" s="169"/>
-      <c r="K13" s="169"/>
+      <c r="J13" s="169" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K13" s="169" t="s">
+        <v>1167</v>
+      </c>
       <c r="L13" s="168" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
       <c r="M13" s="168" t="s">
+        <v>1898</v>
+      </c>
+      <c r="N13" s="170" t="s">
         <v>1900</v>
-      </c>
-      <c r="N13" s="170" t="s">
-        <v>1902</v>
       </c>
       <c r="O13" s="76" t="s">
         <v>3</v>
       </c>
       <c r="P13" s="170" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
       <c r="Q13" s="168"/>
       <c r="R13" s="168"/>
       <c r="S13" s="168"/>
     </row>
-    <row r="14" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A14" s="79" t="s">
         <v>54</v>
       </c>
@@ -9609,7 +9627,7 @@
         <v>373</v>
       </c>
       <c r="M14" s="79" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="N14" s="79" t="s">
         <v>398</v>
@@ -9628,7 +9646,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A15" s="79" t="s">
         <v>54</v>
       </c>
@@ -9671,7 +9689,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A16" s="79" t="s">
         <v>54</v>
       </c>
@@ -9697,7 +9715,7 @@
         <v>371</v>
       </c>
       <c r="M16" s="79" t="s">
-        <v>1816</v>
+        <v>1815</v>
       </c>
       <c r="N16" s="79" t="s">
         <v>400</v>
@@ -9706,17 +9724,17 @@
         <v>11</v>
       </c>
       <c r="P16" s="79" t="s">
-        <v>1818</v>
+        <v>1817</v>
       </c>
       <c r="Q16" s="79" t="s">
-        <v>1817</v>
+        <v>1816</v>
       </c>
       <c r="R16" s="79"/>
       <c r="S16" s="79" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A17" s="79" t="s">
         <v>54</v>
       </c>
@@ -10014,7 +10032,7 @@
         <v>161</v>
       </c>
       <c r="L22" s="171" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="M22" s="171" t="s">
         <v>512</v>
@@ -10026,19 +10044,19 @@
         <v>9</v>
       </c>
       <c r="P22" s="171" t="s">
+        <v>1852</v>
+      </c>
+      <c r="Q22" s="171" t="s">
+        <v>1853</v>
+      </c>
+      <c r="R22" s="171" t="s">
         <v>1854</v>
       </c>
-      <c r="Q22" s="171" t="s">
+      <c r="S22" s="171" t="s">
         <v>1855</v>
       </c>
-      <c r="R22" s="171" t="s">
-        <v>1856</v>
-      </c>
-      <c r="S22" s="171" t="s">
-        <v>1857</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="81" t="s">
         <v>151</v>
       </c>
@@ -10081,7 +10099,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:19" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:19" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A24" s="81" t="s">
         <v>151</v>
       </c>
@@ -10230,7 +10248,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="27" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A27" s="81" t="s">
         <v>151</v>
       </c>
@@ -10317,7 +10335,7 @@
         <v>72</v>
       </c>
       <c r="O28" s="176" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="P28" s="178" t="s">
         <v>176</v>
@@ -10365,7 +10383,7 @@
         <v>161</v>
       </c>
       <c r="L29" s="176" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="M29" s="176" t="s">
         <v>205</v>
@@ -10387,7 +10405,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A30" s="83" t="s">
         <v>48</v>
       </c>
@@ -10428,7 +10446,7 @@
         <v>1178</v>
       </c>
     </row>
-    <row r="31" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A31" s="83" t="s">
         <v>48</v>
       </c>
@@ -10471,7 +10489,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="32" spans="1:19" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:19" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A32" s="83" t="s">
         <v>48</v>
       </c>
@@ -10514,7 +10532,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="33" spans="1:19" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:19" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A33" s="83" t="s">
         <v>48</v>
       </c>
@@ -10575,12 +10593,24 @@
       <c r="E34" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="180"/>
+      <c r="F34" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="G34" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="H34" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="I34" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="J34" s="180" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K34" s="180" t="s">
+        <v>1167</v>
+      </c>
       <c r="L34" s="179" t="s">
         <v>219</v>
       </c>
@@ -10620,12 +10650,24 @@
       <c r="E35" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
+      <c r="F35" s="180" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G35" s="180" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H35" s="180" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I35" s="180" t="s">
+        <v>1167</v>
+      </c>
+      <c r="J35" s="180" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K35" s="180" t="s">
+        <v>1167</v>
+      </c>
       <c r="L35" s="179" t="s">
         <v>222</v>
       </c>
@@ -10661,12 +10703,24 @@
       <c r="E36" s="180" t="s">
         <v>161</v>
       </c>
-      <c r="F36" s="180"/>
-      <c r="G36" s="180"/>
-      <c r="H36" s="180"/>
-      <c r="I36" s="180"/>
-      <c r="J36" s="180"/>
-      <c r="K36" s="180"/>
+      <c r="F36" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="G36" s="180" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H36" s="180" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I36" s="180" t="s">
+        <v>161</v>
+      </c>
+      <c r="J36" s="180" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K36" s="180" t="s">
+        <v>1167</v>
+      </c>
       <c r="L36" s="179" t="s">
         <v>223</v>
       </c>
@@ -10707,7 +10761,9 @@
       <c r="F37" s="180"/>
       <c r="G37" s="180"/>
       <c r="H37" s="180"/>
-      <c r="I37" s="180"/>
+      <c r="I37" s="180" t="s">
+        <v>161</v>
+      </c>
       <c r="J37" s="180"/>
       <c r="K37" s="180"/>
       <c r="L37" s="179" t="s">
@@ -10764,29 +10820,29 @@
         <v>1167</v>
       </c>
       <c r="L38" s="179" t="s">
+        <v>1799</v>
+      </c>
+      <c r="M38" s="179" t="s">
         <v>1800</v>
       </c>
-      <c r="M38" s="179" t="s">
+      <c r="N38" s="181" t="s">
         <v>1801</v>
-      </c>
-      <c r="N38" s="181" t="s">
-        <v>1802</v>
       </c>
       <c r="O38" s="179" t="s">
         <v>46</v>
       </c>
       <c r="P38" s="181" t="s">
+        <v>1802</v>
+      </c>
+      <c r="Q38" s="179" t="s">
         <v>1803</v>
-      </c>
-      <c r="Q38" s="179" t="s">
-        <v>1804</v>
       </c>
       <c r="R38" s="179"/>
       <c r="S38" s="179" t="s">
-        <v>1805</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A39" s="79" t="s">
         <v>47</v>
       </c>
@@ -10825,7 +10881,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="40" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A40" s="79" t="s">
         <v>47</v>
       </c>
@@ -10866,7 +10922,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="41" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A41" s="79" t="s">
         <v>47</v>
       </c>
@@ -10907,7 +10963,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="42" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A42" s="79" t="s">
         <v>47</v>
       </c>
@@ -10948,7 +11004,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A43" s="79" t="s">
         <v>47</v>
       </c>
@@ -11089,7 +11145,7 @@
         <v>1601</v>
       </c>
     </row>
-    <row r="46" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A46" s="85" t="s">
         <v>56</v>
       </c>
@@ -11208,12 +11264,14 @@
       <c r="J48" s="184" t="s">
         <v>1167</v>
       </c>
-      <c r="K48" s="184"/>
+      <c r="K48" s="184" t="s">
+        <v>1167</v>
+      </c>
       <c r="L48" s="183" t="s">
         <v>240</v>
       </c>
       <c r="M48" s="183" t="s">
-        <v>1732</v>
+        <v>1731</v>
       </c>
       <c r="N48" s="185" t="s">
         <v>242</v>
@@ -11228,7 +11286,7 @@
         <v>128</v>
       </c>
       <c r="R48" s="183" t="s">
-        <v>1731</v>
+        <v>1730</v>
       </c>
       <c r="S48" s="183" t="s">
         <v>58</v>
@@ -11265,27 +11323,29 @@
       <c r="J49" s="184" t="s">
         <v>1167</v>
       </c>
-      <c r="K49" s="184"/>
+      <c r="K49" s="184" t="s">
+        <v>1167</v>
+      </c>
       <c r="L49" s="183" t="s">
+        <v>1724</v>
+      </c>
+      <c r="M49" s="183" t="s">
         <v>1725</v>
-      </c>
-      <c r="M49" s="183" t="s">
-        <v>1726</v>
       </c>
       <c r="N49" s="185" t="s">
         <v>242</v>
       </c>
       <c r="O49" s="183" t="s">
+        <v>1726</v>
+      </c>
+      <c r="P49" s="185" t="s">
+        <v>1729</v>
+      </c>
+      <c r="Q49" s="183" t="s">
         <v>1727</v>
       </c>
-      <c r="P49" s="185" t="s">
-        <v>1730</v>
-      </c>
-      <c r="Q49" s="183" t="s">
+      <c r="R49" s="183" t="s">
         <v>1728</v>
-      </c>
-      <c r="R49" s="183" t="s">
-        <v>1729</v>
       </c>
       <c r="S49" s="183"/>
     </row>
@@ -11320,28 +11380,28 @@
       </c>
       <c r="K50" s="184"/>
       <c r="L50" s="183" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="M50" s="183" t="s">
         <v>642</v>
       </c>
       <c r="N50" s="185" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="O50" s="183" t="s">
         <v>11</v>
       </c>
       <c r="P50" s="185" t="s">
+        <v>1910</v>
+      </c>
+      <c r="Q50" s="183" t="s">
+        <v>1911</v>
+      </c>
+      <c r="R50" s="183" t="s">
         <v>1912</v>
       </c>
-      <c r="Q50" s="183" t="s">
+      <c r="S50" s="183" t="s">
         <v>1913</v>
-      </c>
-      <c r="R50" s="183" t="s">
-        <v>1914</v>
-      </c>
-      <c r="S50" s="183" t="s">
-        <v>1915</v>
       </c>
     </row>
     <row r="51" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -11495,14 +11555,26 @@
       </c>
       <c r="D54" s="184"/>
       <c r="E54" s="184" t="s">
-        <v>1167</v>
-      </c>
-      <c r="F54" s="184"/>
-      <c r="G54" s="184"/>
-      <c r="H54" s="184"/>
-      <c r="I54" s="184"/>
-      <c r="J54" s="184"/>
-      <c r="K54" s="184"/>
+        <v>161</v>
+      </c>
+      <c r="F54" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="G54" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="H54" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="I54" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="J54" s="184" t="s">
+        <v>161</v>
+      </c>
+      <c r="K54" s="184" t="s">
+        <v>161</v>
+      </c>
       <c r="L54" s="183" t="s">
         <v>249</v>
       </c>
@@ -11526,7 +11598,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="55" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A55" s="87" t="s">
         <v>2</v>
       </c>
@@ -11569,7 +11641,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="56" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A56" s="87" t="s">
         <v>2</v>
       </c>
@@ -11592,19 +11664,19 @@
       <c r="J56" s="161"/>
       <c r="K56" s="161"/>
       <c r="L56" s="87" t="s">
+        <v>1844</v>
+      </c>
+      <c r="M56" s="87" t="s">
+        <v>1843</v>
+      </c>
+      <c r="N56" s="87" t="s">
+        <v>1843</v>
+      </c>
+      <c r="O56" s="87" t="s">
         <v>1845</v>
       </c>
-      <c r="M56" s="87" t="s">
-        <v>1844</v>
-      </c>
-      <c r="N56" s="87" t="s">
-        <v>1844</v>
-      </c>
-      <c r="O56" s="87" t="s">
+      <c r="P56" s="87" t="s">
         <v>1846</v>
-      </c>
-      <c r="P56" s="87" t="s">
-        <v>1847</v>
       </c>
       <c r="Q56" s="87"/>
       <c r="R56" s="87"/>
@@ -11612,7 +11684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="57" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A57" s="87" t="s">
         <v>2</v>
       </c>
@@ -11635,19 +11707,19 @@
       <c r="J57" s="161"/>
       <c r="K57" s="161"/>
       <c r="L57" s="87" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="M57" s="87" t="s">
+        <v>1866</v>
+      </c>
+      <c r="N57" s="87" t="s">
         <v>1868</v>
-      </c>
-      <c r="N57" s="87" t="s">
-        <v>1870</v>
       </c>
       <c r="O57" s="87" t="s">
         <v>9</v>
       </c>
       <c r="P57" s="87" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="Q57" s="87"/>
       <c r="R57" s="87"/>
@@ -11678,7 +11750,7 @@
       <c r="J58" s="161"/>
       <c r="K58" s="161"/>
       <c r="L58" s="87" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
       <c r="M58" s="87" t="s">
         <v>641</v>
@@ -11688,17 +11760,17 @@
         <v>6</v>
       </c>
       <c r="P58" s="87" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="Q58" s="87" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
       <c r="R58" s="87"/>
       <c r="S58" s="87" t="s">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="59" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A59" s="87" t="s">
         <v>2</v>
       </c>
@@ -11741,7 +11813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="60" spans="1:19" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:19" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A60" s="87" t="s">
         <v>2</v>
       </c>
@@ -11784,7 +11856,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="61" spans="1:19" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:19" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A61" s="87" t="s">
         <v>2</v>
       </c>
@@ -11827,7 +11899,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="62" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="87" t="s">
         <v>2</v>
       </c>
@@ -11870,7 +11942,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="63" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="87" t="s">
         <v>2</v>
       </c>
@@ -11913,7 +11985,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="64" spans="1:19" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:19" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A64" s="87" t="s">
         <v>2</v>
       </c>
@@ -11956,7 +12028,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="65" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A65" s="87" t="s">
         <v>2</v>
       </c>
@@ -12001,7 +12073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="66" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="87" t="s">
         <v>2</v>
       </c>
@@ -12044,7 +12116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="67" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="87" t="s">
         <v>2</v>
       </c>
@@ -12197,7 +12269,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="70" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A70" s="87" t="s">
         <v>2</v>
       </c>
@@ -12316,22 +12388,22 @@
         <v>1167</v>
       </c>
       <c r="L72" s="186" t="s">
+        <v>1878</v>
+      </c>
+      <c r="M72" s="186" t="s">
+        <v>1879</v>
+      </c>
+      <c r="N72" s="188" t="s">
         <v>1880</v>
-      </c>
-      <c r="M72" s="186" t="s">
-        <v>1881</v>
-      </c>
-      <c r="N72" s="188" t="s">
-        <v>1882</v>
       </c>
       <c r="O72" s="186" t="s">
         <v>6</v>
       </c>
       <c r="P72" s="188" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="Q72" s="186" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="R72" s="186"/>
       <c r="S72" s="186" t="s">
@@ -12371,28 +12443,28 @@
         <v>1167</v>
       </c>
       <c r="L73" s="186" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="M73" s="186" t="s">
         <v>432</v>
       </c>
       <c r="N73" s="188" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="O73" s="186" t="s">
         <v>11</v>
       </c>
       <c r="P73" s="188" t="s">
+        <v>1886</v>
+      </c>
+      <c r="Q73" s="186" t="s">
+        <v>1887</v>
+      </c>
+      <c r="R73" s="186" t="s">
+        <v>1889</v>
+      </c>
+      <c r="S73" s="186" t="s">
         <v>1888</v>
-      </c>
-      <c r="Q73" s="186" t="s">
-        <v>1889</v>
-      </c>
-      <c r="R73" s="186" t="s">
-        <v>1891</v>
-      </c>
-      <c r="S73" s="186" t="s">
-        <v>1890</v>
       </c>
     </row>
     <row r="74" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
@@ -12428,7 +12500,7 @@
         <v>161</v>
       </c>
       <c r="L74" s="186" t="s">
-        <v>1840</v>
+        <v>1839</v>
       </c>
       <c r="M74" s="186" t="s">
         <v>876</v>
@@ -12437,16 +12509,16 @@
         <v>502</v>
       </c>
       <c r="O74" s="186" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="P74" s="188" t="s">
+        <v>1840</v>
+      </c>
+      <c r="Q74" s="186" t="s">
         <v>1841</v>
       </c>
-      <c r="Q74" s="186" t="s">
+      <c r="R74" s="186" t="s">
         <v>1842</v>
-      </c>
-      <c r="R74" s="186" t="s">
-        <v>1843</v>
       </c>
       <c r="S74" s="186" t="s">
         <v>10</v>
@@ -12473,27 +12545,27 @@
       <c r="J75" s="187"/>
       <c r="K75" s="187"/>
       <c r="L75" s="186" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="M75" s="186" t="s">
         <v>534</v>
       </c>
       <c r="N75" s="188" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="O75" s="186" t="s">
         <v>9</v>
       </c>
       <c r="P75" s="188" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="Q75" s="186" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="R75" s="186"/>
       <c r="S75" s="186"/>
     </row>
-    <row r="76" spans="1:19" s="78" customFormat="1" ht="44.25" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:19" s="78" customFormat="1" ht="44.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="89" t="s">
         <v>40</v>
       </c>
@@ -12536,7 +12608,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="77" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A77" s="89" t="s">
         <v>40</v>
       </c>
@@ -12579,7 +12651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="78" spans="1:19" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:19" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A78" s="89" t="s">
         <v>40</v>
       </c>
@@ -12622,7 +12694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A79" s="89" t="s">
         <v>40</v>
       </c>
@@ -12667,7 +12739,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="80" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A80" s="89" t="s">
         <v>40</v>
       </c>
@@ -12712,7 +12784,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A81" s="89" t="s">
         <v>40</v>
       </c>
@@ -12757,7 +12829,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="82" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A82" s="89" t="s">
         <v>40</v>
       </c>
@@ -12802,7 +12874,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="83" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A83" s="89" t="s">
         <v>40</v>
       </c>
@@ -12847,7 +12919,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="84" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A84" s="89" t="s">
         <v>40</v>
       </c>
@@ -12892,7 +12964,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="85" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A85" s="89" t="s">
         <v>40</v>
       </c>
@@ -12937,7 +13009,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="86" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A86" s="89" t="s">
         <v>40</v>
       </c>
@@ -12980,7 +13052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="87" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A87" s="89" t="s">
         <v>40</v>
       </c>
@@ -13023,7 +13095,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="88" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A88" s="89" t="s">
         <v>40</v>
       </c>
@@ -13066,7 +13138,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="89" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A89" s="89" t="s">
         <v>40</v>
       </c>
@@ -13109,7 +13181,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="90" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A90" s="93" t="s">
         <v>76</v>
       </c>
@@ -13195,7 +13267,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="92" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A92" s="92" t="s">
         <v>79</v>
       </c>
@@ -13221,7 +13293,7 @@
         <v>297</v>
       </c>
       <c r="M92" s="92" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="N92" s="92" t="s">
         <v>1187</v>
@@ -13238,7 +13310,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="93" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A93" s="92" t="s">
         <v>79</v>
       </c>
@@ -13279,7 +13351,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A94" s="95" t="s">
         <v>299</v>
       </c>
@@ -13320,7 +13392,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="95" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A95" s="95" t="s">
         <v>1580</v>
       </c>
@@ -13363,9 +13435,9 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="96" spans="1:19" s="78" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A96" s="166" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B96" s="166">
         <v>2021</v>
@@ -13408,7 +13480,7 @@
     </row>
     <row r="97" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A97" s="192" t="s">
-        <v>1813</v>
+        <v>1812</v>
       </c>
       <c r="B97" s="192">
         <v>2024</v>
@@ -13437,29 +13509,29 @@
       </c>
       <c r="K97" s="193"/>
       <c r="L97" s="192" t="s">
+        <v>1809</v>
+      </c>
+      <c r="M97" s="192" t="s">
         <v>1810</v>
       </c>
-      <c r="M97" s="192" t="s">
+      <c r="N97" s="192" t="s">
         <v>1811</v>
-      </c>
-      <c r="N97" s="192" t="s">
-        <v>1812</v>
       </c>
       <c r="O97" s="192" t="s">
         <v>3</v>
       </c>
       <c r="P97" s="192" t="s">
-        <v>1815</v>
+        <v>1814</v>
       </c>
       <c r="Q97" s="192" t="s">
-        <v>1814</v>
+        <v>1813</v>
       </c>
       <c r="R97" s="192"/>
       <c r="S97" s="192" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="98" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A98" s="198" t="s">
         <v>696</v>
       </c>
@@ -13473,16 +13545,16 @@
         <v>1167</v>
       </c>
       <c r="M98" s="198" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="N98" s="198" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="O98" s="198" t="s">
-        <v>1846</v>
-      </c>
-    </row>
-    <row r="99" spans="1:19" hidden="1" x14ac:dyDescent="0.2">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="99" spans="1:19" x14ac:dyDescent="0.2">
       <c r="A99" s="198" t="s">
         <v>696</v>
       </c>
@@ -13493,24 +13565,24 @@
         <v>80</v>
       </c>
       <c r="E99" s="200" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F99" s="200" t="s">
+        <v>161</v>
+      </c>
+      <c r="M99" s="198" t="s">
         <v>1848</v>
       </c>
-      <c r="F99" s="200" t="s">
-        <v>161</v>
-      </c>
-      <c r="M99" s="198" t="s">
-        <v>1850</v>
-      </c>
       <c r="N99" s="198" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="O99" s="198" t="s">
         <v>458</v>
       </c>
     </row>
-    <row r="100" spans="1:19" s="78" customFormat="1" ht="25.5" hidden="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:19" s="78" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="87" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B100" s="87">
         <v>2021</v>
@@ -13543,7 +13615,7 @@
         <v>1167</v>
       </c>
       <c r="L100" s="87" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="M100" s="87" t="s">
         <v>77</v>
@@ -13565,7 +13637,7 @@
     </row>
     <row r="101" spans="1:19" s="78" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A101" s="87" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="B101" s="87">
         <v>2024</v>
@@ -13596,36 +13668,85 @@
         <v>1167</v>
       </c>
       <c r="L101" s="87" t="s">
+        <v>1892</v>
+      </c>
+      <c r="M101" s="87" t="s">
+        <v>1893</v>
+      </c>
+      <c r="N101" s="88" t="s">
         <v>1894</v>
-      </c>
-      <c r="M101" s="87" t="s">
-        <v>1895</v>
-      </c>
-      <c r="N101" s="88" t="s">
-        <v>1896</v>
       </c>
       <c r="O101" s="87" t="s">
         <v>3</v>
       </c>
       <c r="P101" s="88" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="Q101" s="87" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="R101" s="87"/>
       <c r="S101" s="87" t="s">
         <v>8</v>
       </c>
     </row>
+    <row r="102" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="A102" s="87" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B102" s="87">
+        <v>2024</v>
+      </c>
+      <c r="C102" s="161" t="s">
+        <v>202</v>
+      </c>
+      <c r="D102" s="161"/>
+      <c r="E102" s="161" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F102" s="161" t="s">
+        <v>1167</v>
+      </c>
+      <c r="G102" s="161" t="s">
+        <v>1167</v>
+      </c>
+      <c r="H102" s="161" t="s">
+        <v>1167</v>
+      </c>
+      <c r="I102" s="161" t="s">
+        <v>161</v>
+      </c>
+      <c r="J102" s="161" t="s">
+        <v>1167</v>
+      </c>
+      <c r="K102" s="161" t="s">
+        <v>1167</v>
+      </c>
+      <c r="L102" s="87" t="s">
+        <v>1915</v>
+      </c>
+      <c r="M102" s="87" t="s">
+        <v>1916</v>
+      </c>
+      <c r="N102" s="87" t="s">
+        <v>1918</v>
+      </c>
+      <c r="O102" s="87" t="s">
+        <v>3</v>
+      </c>
+      <c r="P102" s="87" t="s">
+        <v>1919</v>
+      </c>
+      <c r="Q102" s="87" t="s">
+        <v>1917</v>
+      </c>
+      <c r="R102" s="87"/>
+      <c r="S102" s="87" t="s">
+        <v>25</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:S101" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="ICON"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:S101" xr:uid="{DEA4ED07-F52A-4D67-BBCB-EE5BE2CA8027}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -13637,7 +13758,7 @@
   <dimension ref="A1:F214"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -13659,7 +13780,7 @@
         <v>1171</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>310</v>
@@ -13679,16 +13800,16 @@
         <v>2024</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E2" s="3" t="s">
+        <v>1757</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>1758</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>1759</v>
       </c>
     </row>
     <row r="3" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13699,36 +13820,36 @@
         <v>2024</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E3" s="3" t="s">
+        <v>1777</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>1778</v>
       </c>
-      <c r="F3" s="3" t="s">
-        <v>1779</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
         <v>422</v>
       </c>
       <c r="B4" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>1834</v>
+        <v>1680</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E4" s="3" t="s">
+        <v>1766</v>
+      </c>
+      <c r="F4" s="3" t="s">
         <v>1767</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>1768</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="30" x14ac:dyDescent="0.25">
@@ -13739,16 +13860,16 @@
         <v>2024</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>1760</v>
+        <v>1759</v>
       </c>
       <c r="E5" s="3" t="s">
+        <v>1768</v>
+      </c>
+      <c r="F5" s="3" t="s">
         <v>1769</v>
-      </c>
-      <c r="F5" s="3" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="6" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13759,16 +13880,16 @@
         <v>2024</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>1622</v>
+        <v>1621</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>1621</v>
+        <v>1620</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -13779,7 +13900,7 @@
         <v>2024</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>313</v>
@@ -13799,7 +13920,7 @@
         <v>2024</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>313</v>
@@ -13819,7 +13940,7 @@
         <v>2024</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>313</v>
@@ -13839,7 +13960,7 @@
         <v>2024</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>313</v>
@@ -13877,7 +13998,7 @@
         <v>2024</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>313</v>
@@ -13886,7 +14007,7 @@
         <v>1165</v>
       </c>
       <c r="F12" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="13" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13897,16 +14018,16 @@
         <v>2024</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>1765</v>
+        <v>1764</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E13" s="4" t="s">
+        <v>1623</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>1624</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>1625</v>
       </c>
     </row>
     <row r="14" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13917,16 +14038,16 @@
         <v>2024</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>1820</v>
+        <v>1819</v>
       </c>
       <c r="F14" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="15" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -13937,16 +14058,16 @@
         <v>2024</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>313</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>1627</v>
+        <v>1626</v>
       </c>
       <c r="F15" s="4" t="s">
-        <v>1625</v>
+        <v>1624</v>
       </c>
     </row>
     <row r="16" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14033,10 +14154,10 @@
         <v>313</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>1779</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>1780</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>1781</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="23.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -14047,7 +14168,7 @@
         <v>2024</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>1761</v>
+        <v>1760</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>1568</v>
@@ -14067,7 +14188,7 @@
         <v>2024</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="D22" s="3" t="s">
         <v>1568</v>
@@ -14087,7 +14208,7 @@
         <v>2024</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="D23" s="3" t="s">
         <v>1568</v>
@@ -14099,15 +14220,15 @@
         <v>328</v>
       </c>
     </row>
-    <row r="24" spans="1:6" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>422</v>
       </c>
       <c r="B24" s="8">
-        <v>2024</v>
+        <v>2025</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>1834</v>
+        <v>1680</v>
       </c>
       <c r="D24" s="3" t="s">
         <v>1568</v>
@@ -14145,7 +14266,7 @@
         <v>2024</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>1762</v>
+        <v>1761</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>348</v>
@@ -14165,7 +14286,7 @@
         <v>2024</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>348</v>
@@ -14185,7 +14306,7 @@
         <v>2024</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>348</v>
@@ -14205,13 +14326,13 @@
         <v>2024</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>348</v>
       </c>
       <c r="E29" s="3" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="F29" s="3" t="s">
         <v>350</v>
@@ -14225,13 +14346,13 @@
         <v>2024</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>348</v>
       </c>
       <c r="E30" s="3" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="F30" s="3" t="s">
         <v>350</v>
@@ -14245,7 +14366,7 @@
         <v>2024</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>1704</v>
+        <v>1703</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>348</v>
@@ -14265,13 +14386,13 @@
         <v>2024</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>1705</v>
+        <v>1704</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>348</v>
       </c>
       <c r="E32" s="3" t="s">
-        <v>1623</v>
+        <v>1622</v>
       </c>
       <c r="F32" s="4" t="s">
         <v>315</v>
@@ -14285,7 +14406,7 @@
         <v>2024</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D33" s="3" t="s">
         <v>1166</v>
@@ -14303,7 +14424,7 @@
         <v>2024</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D34" s="3" t="s">
         <v>1166</v>
@@ -14323,7 +14444,7 @@
         <v>2024</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>1718</v>
+        <v>1717</v>
       </c>
       <c r="D35" s="3" t="s">
         <v>1166</v>
@@ -14361,7 +14482,7 @@
         <v>2024</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
       <c r="D37" s="3" t="s">
         <v>1500</v>
@@ -14381,7 +14502,7 @@
         <v>2024</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D38" s="3" t="s">
         <v>1500</v>
@@ -14399,7 +14520,7 @@
         <v>2024</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D39" s="3" t="s">
         <v>1500</v>
@@ -14417,7 +14538,7 @@
         <v>2024</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>1763</v>
+        <v>1762</v>
       </c>
       <c r="D40" s="3" t="s">
         <v>353</v>
@@ -14437,7 +14558,7 @@
         <v>2024</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>1719</v>
+        <v>1718</v>
       </c>
       <c r="D41" s="3" t="s">
         <v>353</v>
@@ -14457,7 +14578,7 @@
         <v>2024</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>353</v>
@@ -14477,7 +14598,7 @@
         <v>2024</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D43" s="3" t="s">
         <v>353</v>
@@ -14497,7 +14618,7 @@
         <v>2024</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>1720</v>
+        <v>1719</v>
       </c>
       <c r="D44" s="3" t="s">
         <v>353</v>
@@ -14517,16 +14638,16 @@
         <v>2024</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E45" s="3" t="s">
-        <v>1745</v>
+        <v>1744</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="46" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14537,16 +14658,16 @@
         <v>2024</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>1798</v>
+        <v>1797</v>
       </c>
       <c r="E46" s="3" t="s">
-        <v>1744</v>
+        <v>1743</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="47" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14557,7 +14678,7 @@
         <v>2024</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>1181</v>
@@ -14577,13 +14698,13 @@
         <v>2024</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D48" s="3" t="s">
+        <v>1739</v>
+      </c>
+      <c r="E48" s="3" t="s">
         <v>1740</v>
-      </c>
-      <c r="E48" s="3" t="s">
-        <v>1741</v>
       </c>
       <c r="F48" s="3"/>
     </row>
@@ -14595,16 +14716,16 @@
         <v>2024</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1740</v>
+        <v>1739</v>
       </c>
       <c r="E49" s="3" t="s">
-        <v>1743</v>
+        <v>1742</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1797</v>
+        <v>1796</v>
       </c>
     </row>
     <row r="50" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14615,10 +14736,10 @@
         <v>2024</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>1764</v>
+        <v>1763</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E50" s="3" t="s">
         <v>1555</v>
@@ -14635,10 +14756,10 @@
         <v>2024</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E51" s="3" t="s">
         <v>1186</v>
@@ -14655,16 +14776,16 @@
         <v>2024</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D52" s="3" t="s">
+        <v>1781</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>1783</v>
+      </c>
+      <c r="F52" s="3" t="s">
         <v>1782</v>
-      </c>
-      <c r="E52" s="3" t="s">
-        <v>1784</v>
-      </c>
-      <c r="F52" s="3" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="53" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14675,16 +14796,16 @@
         <v>2024</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D53" s="3" t="s">
-        <v>1782</v>
+        <v>1781</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
       <c r="F53" s="3" t="s">
-        <v>1785</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="54" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14695,13 +14816,13 @@
         <v>2024</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D54" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E54" s="3" t="s">
-        <v>1669</v>
+        <v>1668</v>
       </c>
       <c r="F54" s="3" t="s">
         <v>1567</v>
@@ -14715,13 +14836,13 @@
         <v>2024</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>1682</v>
+        <v>1681</v>
       </c>
       <c r="D55" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>1670</v>
+        <v>1669</v>
       </c>
       <c r="F55" s="3" t="s">
         <v>1567</v>
@@ -14735,13 +14856,13 @@
         <v>2024</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>1683</v>
+        <v>1682</v>
       </c>
       <c r="D56" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>1671</v>
+        <v>1670</v>
       </c>
       <c r="F56" s="3" t="s">
         <v>1567</v>
@@ -14755,13 +14876,13 @@
         <v>2024</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>1684</v>
+        <v>1683</v>
       </c>
       <c r="D57" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>1672</v>
+        <v>1671</v>
       </c>
       <c r="F57" s="3" t="s">
         <v>1567</v>
@@ -14775,13 +14896,13 @@
         <v>2024</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>1685</v>
+        <v>1684</v>
       </c>
       <c r="D58" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>1673</v>
+        <v>1672</v>
       </c>
       <c r="F58" s="3" t="s">
         <v>1567</v>
@@ -14795,13 +14916,13 @@
         <v>2024</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>1680</v>
+        <v>1679</v>
       </c>
       <c r="D59" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>1674</v>
+        <v>1673</v>
       </c>
       <c r="F59" s="3" t="s">
         <v>1567</v>
@@ -14815,13 +14936,13 @@
         <v>2024</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>1686</v>
+        <v>1685</v>
       </c>
       <c r="D60" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>1675</v>
+        <v>1674</v>
       </c>
       <c r="F60" s="3" t="s">
         <v>1567</v>
@@ -14835,13 +14956,13 @@
         <v>2024</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>1687</v>
+        <v>1686</v>
       </c>
       <c r="D61" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E61" s="4" t="s">
-        <v>1676</v>
+        <v>1675</v>
       </c>
       <c r="F61" s="3" t="s">
         <v>1567</v>
@@ -14855,13 +14976,13 @@
         <v>2024</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>1688</v>
+        <v>1687</v>
       </c>
       <c r="D62" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E62" s="4" t="s">
-        <v>1677</v>
+        <v>1676</v>
       </c>
       <c r="F62" s="3" t="s">
         <v>1567</v>
@@ -14875,13 +14996,13 @@
         <v>2024</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>1689</v>
+        <v>1688</v>
       </c>
       <c r="D63" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>1678</v>
+        <v>1677</v>
       </c>
       <c r="F63" s="3" t="s">
         <v>1567</v>
@@ -14895,13 +15016,13 @@
         <v>2024</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D64" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>1679</v>
+        <v>1678</v>
       </c>
       <c r="F64" s="3" t="s">
         <v>1567</v>
@@ -14915,13 +15036,13 @@
         <v>2024</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D65" s="3" t="s">
         <v>1579</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>1794</v>
+        <v>1793</v>
       </c>
       <c r="F65" s="3" t="s">
         <v>1567</v>
@@ -14935,16 +15056,16 @@
         <v>2024</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D66" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>1637</v>
+        <v>1636</v>
       </c>
       <c r="F66" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="67" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14955,16 +15076,16 @@
         <v>2024</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D67" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>1737</v>
+        <v>1736</v>
       </c>
       <c r="F67" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="68" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -14975,16 +15096,16 @@
         <v>2024</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D68" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>1738</v>
+        <v>1737</v>
       </c>
       <c r="F68" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="69" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -14995,16 +15116,16 @@
         <v>2024</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E69" s="3" t="s">
-        <v>1736</v>
+        <v>1735</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="70" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15015,16 +15136,16 @@
         <v>2024</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D70" s="3" t="s">
-        <v>1638</v>
+        <v>1637</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>1739</v>
+        <v>1738</v>
       </c>
       <c r="F70" s="3" t="s">
-        <v>1629</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="71" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15035,16 +15156,16 @@
         <v>2024</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D71" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>1771</v>
+        <v>1770</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="72" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15055,16 +15176,16 @@
         <v>2024</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>1648</v>
+        <v>1647</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="73" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15075,16 +15196,16 @@
         <v>2024</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>1649</v>
+        <v>1648</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="74" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15095,16 +15216,16 @@
         <v>2024</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>1650</v>
+        <v>1649</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="75" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15115,16 +15236,16 @@
         <v>2024</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E75" s="3" t="s">
-        <v>1651</v>
+        <v>1650</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="76" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15135,16 +15256,16 @@
         <v>2024</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>1652</v>
+        <v>1651</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="77" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15155,16 +15276,16 @@
         <v>2024</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D77" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>1653</v>
+        <v>1652</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="78" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15175,16 +15296,16 @@
         <v>2024</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>1654</v>
+        <v>1653</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="79" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15195,16 +15316,16 @@
         <v>2024</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D79" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>1655</v>
+        <v>1654</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="80" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15215,16 +15336,16 @@
         <v>2024</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D80" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>1656</v>
+        <v>1655</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="81" spans="1:6" ht="13.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
@@ -15235,16 +15356,16 @@
         <v>2024</v>
       </c>
       <c r="C81" s="8" t="s">
+        <v>1753</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E81" s="3" t="s">
         <v>1754</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>1660</v>
-      </c>
-      <c r="E81" s="3" t="s">
-        <v>1755</v>
-      </c>
       <c r="F81" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="82" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15255,16 +15376,16 @@
         <v>2024</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D82" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>1657</v>
+        <v>1656</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="83" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15275,16 +15396,16 @@
         <v>2024</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>1658</v>
+        <v>1657</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="84" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15295,16 +15416,16 @@
         <v>2024</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E84" s="3" t="s">
-        <v>1659</v>
+        <v>1658</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="85" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15315,16 +15436,16 @@
         <v>2024</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D85" s="4" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E85" s="3" t="s">
         <v>1660</v>
       </c>
-      <c r="E85" s="3" t="s">
-        <v>1661</v>
-      </c>
       <c r="F85" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="86" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15335,16 +15456,16 @@
         <v>2024</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D86" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E86" s="3" t="s">
-        <v>1662</v>
+        <v>1661</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="87" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15355,16 +15476,16 @@
         <v>2024</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E87" s="3" t="s">
-        <v>1663</v>
+        <v>1662</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="88" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15375,16 +15496,16 @@
         <v>2024</v>
       </c>
       <c r="C88" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>1664</v>
+        <v>1663</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="89" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15395,16 +15516,16 @@
         <v>2024</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>1665</v>
+        <v>1664</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="90" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15415,16 +15536,16 @@
         <v>2024</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>1789</v>
+        <v>1788</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="91" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15435,16 +15556,16 @@
         <v>2024</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>1660</v>
+        <v>1659</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>1788</v>
+        <v>1787</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>1722</v>
+        <v>1721</v>
       </c>
     </row>
     <row r="92" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15455,7 +15576,7 @@
         <v>2024</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>1721</v>
+        <v>1720</v>
       </c>
       <c r="D92" s="3" t="s">
         <v>365</v>
@@ -15475,16 +15596,16 @@
         <v>2024</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>1706</v>
+        <v>1705</v>
       </c>
       <c r="D93" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E93" s="3" t="s">
+        <v>1627</v>
+      </c>
+      <c r="F93" s="4" t="s">
         <v>1628</v>
-      </c>
-      <c r="F93" s="4" t="s">
-        <v>1629</v>
       </c>
     </row>
     <row r="94" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15495,7 +15616,7 @@
         <v>2024</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>1707</v>
+        <v>1706</v>
       </c>
       <c r="D94" s="3" t="s">
         <v>319</v>
@@ -15515,16 +15636,16 @@
         <v>2024</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D95" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>1747</v>
+        <v>1746</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -15535,16 +15656,16 @@
         <v>2024</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D96" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="F96" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -15555,16 +15676,16 @@
         <v>2024</v>
       </c>
       <c r="C97" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D97" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="F97" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -15575,16 +15696,16 @@
         <v>2024</v>
       </c>
       <c r="C98" s="8" t="s">
-        <v>1834</v>
+        <v>1833</v>
       </c>
       <c r="D98" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E98" s="4" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="F98" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="99" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15595,16 +15716,16 @@
         <v>2024</v>
       </c>
       <c r="C99" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D99" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>1746</v>
+        <v>1745</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="100" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15615,16 +15736,16 @@
         <v>2024</v>
       </c>
       <c r="C100" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D100" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="F100" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="101" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15635,16 +15756,16 @@
         <v>2024</v>
       </c>
       <c r="C101" s="8" t="s">
-        <v>1790</v>
+        <v>1789</v>
       </c>
       <c r="D101" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="F101" s="4" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
     </row>
     <row r="102" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15655,16 +15776,16 @@
         <v>2024</v>
       </c>
       <c r="C102" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D102" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>1667</v>
+        <v>1666</v>
       </c>
       <c r="F102" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="103" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15675,16 +15796,16 @@
         <v>2024</v>
       </c>
       <c r="C103" s="8" t="s">
-        <v>1708</v>
+        <v>1707</v>
       </c>
       <c r="D103" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>1668</v>
+        <v>1667</v>
       </c>
       <c r="F103" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="104" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15695,16 +15816,16 @@
         <v>2024</v>
       </c>
       <c r="C104" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D104" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>1694</v>
+        <v>1693</v>
       </c>
       <c r="F104" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="105" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15715,16 +15836,16 @@
         <v>2024</v>
       </c>
       <c r="C105" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D105" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>1695</v>
+        <v>1694</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="106" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15735,16 +15856,16 @@
         <v>2024</v>
       </c>
       <c r="C106" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D106" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>1696</v>
+        <v>1695</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="107" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15755,16 +15876,16 @@
         <v>2024</v>
       </c>
       <c r="C107" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D107" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>1697</v>
+        <v>1696</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="108" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15775,16 +15896,16 @@
         <v>2024</v>
       </c>
       <c r="C108" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D108" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>1698</v>
+        <v>1697</v>
       </c>
       <c r="F108" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="109" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15795,16 +15916,16 @@
         <v>2024</v>
       </c>
       <c r="C109" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D109" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>1715</v>
+        <v>1714</v>
       </c>
       <c r="F109" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="110" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15815,16 +15936,16 @@
         <v>2024</v>
       </c>
       <c r="C110" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D110" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>1699</v>
+        <v>1698</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="111" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15835,16 +15956,16 @@
         <v>2024</v>
       </c>
       <c r="C111" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D111" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>1700</v>
+        <v>1699</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="112" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15855,16 +15976,16 @@
         <v>2024</v>
       </c>
       <c r="C112" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D112" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>1716</v>
+        <v>1715</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="113" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15875,16 +15996,16 @@
         <v>2024</v>
       </c>
       <c r="C113" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D113" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>1701</v>
+        <v>1700</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="114" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15895,16 +16016,16 @@
         <v>2024</v>
       </c>
       <c r="C114" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D114" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E114" s="4" t="s">
-        <v>1702</v>
+        <v>1701</v>
       </c>
       <c r="F114" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="115" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15915,16 +16036,16 @@
         <v>2024</v>
       </c>
       <c r="C115" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D115" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E115" s="4" t="s">
-        <v>1717</v>
+        <v>1716</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="116" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -15935,16 +16056,16 @@
         <v>2024</v>
       </c>
       <c r="C116" s="8" t="s">
-        <v>1690</v>
+        <v>1689</v>
       </c>
       <c r="D116" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E116" s="4" t="s">
-        <v>1703</v>
+        <v>1702</v>
       </c>
       <c r="F116" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="117" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15955,16 +16076,16 @@
         <v>2024</v>
       </c>
       <c r="C117" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D117" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E117" s="4" t="s">
-        <v>1733</v>
+        <v>1732</v>
       </c>
       <c r="F117" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="118" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15975,16 +16096,16 @@
         <v>2024</v>
       </c>
       <c r="C118" s="8" t="s">
-        <v>1709</v>
+        <v>1708</v>
       </c>
       <c r="D118" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E118" s="4" t="s">
-        <v>1734</v>
+        <v>1733</v>
       </c>
       <c r="F118" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="119" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -15995,16 +16116,16 @@
         <v>2024</v>
       </c>
       <c r="C119" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D119" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E119" s="4" t="s">
-        <v>1735</v>
+        <v>1734</v>
       </c>
       <c r="F119" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="120" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16015,16 +16136,16 @@
         <v>2024</v>
       </c>
       <c r="C120" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D120" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E120" s="4" t="s">
-        <v>1756</v>
+        <v>1755</v>
       </c>
       <c r="F120" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="121" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16035,16 +16156,16 @@
         <v>2024</v>
       </c>
       <c r="C121" s="8" t="s">
-        <v>1754</v>
+        <v>1753</v>
       </c>
       <c r="D121" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E121" s="4" t="s">
-        <v>1757</v>
+        <v>1756</v>
       </c>
       <c r="F121" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="122" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16055,16 +16176,16 @@
         <v>2024</v>
       </c>
       <c r="C122" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D122" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E122" s="4" t="s">
-        <v>1787</v>
+        <v>1786</v>
       </c>
       <c r="F122" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="123" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16075,16 +16196,16 @@
         <v>2024</v>
       </c>
       <c r="C123" s="8" t="s">
-        <v>1742</v>
+        <v>1741</v>
       </c>
       <c r="D123" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>1786</v>
+        <v>1785</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="124" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16095,16 +16216,16 @@
         <v>2024</v>
       </c>
       <c r="C124" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D124" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>1792</v>
+        <v>1791</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="125" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16115,16 +16236,16 @@
         <v>2024</v>
       </c>
       <c r="C125" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D125" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E125" s="4" t="s">
-        <v>1791</v>
+        <v>1790</v>
       </c>
       <c r="F125" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="126" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16135,16 +16256,16 @@
         <v>2024</v>
       </c>
       <c r="C126" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D126" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E126" s="4" t="s">
-        <v>1795</v>
+        <v>1794</v>
       </c>
       <c r="F126" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="127" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16155,16 +16276,16 @@
         <v>2024</v>
       </c>
       <c r="C127" s="8" t="s">
-        <v>1772</v>
+        <v>1771</v>
       </c>
       <c r="D127" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E127" s="4" t="s">
-        <v>1796</v>
+        <v>1795</v>
       </c>
       <c r="F127" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="128" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16175,16 +16296,16 @@
         <v>2025</v>
       </c>
       <c r="C128" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D128" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E128" s="4" t="s">
-        <v>1748</v>
+        <v>1747</v>
       </c>
       <c r="F128" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="129" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16195,16 +16316,16 @@
         <v>2024</v>
       </c>
       <c r="C129" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D129" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E129" s="4" t="s">
-        <v>1749</v>
+        <v>1748</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="130" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16219,10 +16340,10 @@
         <v>319</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>1750</v>
+        <v>1749</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="131" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16237,10 +16358,10 @@
         <v>319</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>1751</v>
+        <v>1750</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="132" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16255,10 +16376,10 @@
         <v>319</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>1752</v>
+        <v>1751</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="133" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16273,10 +16394,10 @@
         <v>319</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>1753</v>
+        <v>1752</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="134" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16291,10 +16412,10 @@
         <v>319</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>1821</v>
+        <v>1820</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="135" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16309,10 +16430,10 @@
         <v>319</v>
       </c>
       <c r="E135" s="4" t="s">
-        <v>1822</v>
+        <v>1821</v>
       </c>
       <c r="F135" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="136" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16327,10 +16448,10 @@
         <v>319</v>
       </c>
       <c r="E136" s="4" t="s">
-        <v>1823</v>
+        <v>1822</v>
       </c>
       <c r="F136" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="137" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16345,10 +16466,10 @@
         <v>319</v>
       </c>
       <c r="E137" s="4" t="s">
-        <v>1824</v>
+        <v>1823</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="138" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16363,10 +16484,10 @@
         <v>319</v>
       </c>
       <c r="E138" s="4" t="s">
-        <v>1825</v>
+        <v>1824</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="139" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16381,10 +16502,10 @@
         <v>319</v>
       </c>
       <c r="E139" s="4" t="s">
-        <v>1826</v>
+        <v>1825</v>
       </c>
       <c r="F139" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="140" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16395,16 +16516,16 @@
         <v>2024</v>
       </c>
       <c r="C140" s="8" t="s">
-        <v>1766</v>
+        <v>1765</v>
       </c>
       <c r="D140" s="3" t="s">
         <v>319</v>
       </c>
       <c r="E140" s="4" t="s">
-        <v>1833</v>
+        <v>1832</v>
       </c>
       <c r="F140" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="141" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16419,10 +16540,10 @@
         <v>319</v>
       </c>
       <c r="E141" s="4" t="s">
-        <v>1827</v>
+        <v>1826</v>
       </c>
       <c r="F141" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="142" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16437,10 +16558,10 @@
         <v>319</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>1828</v>
+        <v>1827</v>
       </c>
       <c r="F142" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="143" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16455,10 +16576,10 @@
         <v>319</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>1829</v>
+        <v>1828</v>
       </c>
       <c r="F143" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="144" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16473,10 +16594,10 @@
         <v>319</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>1830</v>
+        <v>1829</v>
       </c>
       <c r="F144" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="145" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16491,10 +16612,10 @@
         <v>319</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>1831</v>
+        <v>1830</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="146" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
@@ -16509,10 +16630,10 @@
         <v>319</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>1832</v>
+        <v>1831</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>1626</v>
+        <v>1625</v>
       </c>
     </row>
     <row r="147" spans="1:6" ht="30" hidden="1" x14ac:dyDescent="0.25">
@@ -16523,7 +16644,7 @@
         <v>2024</v>
       </c>
       <c r="C147" s="8" t="s">
-        <v>1710</v>
+        <v>1709</v>
       </c>
       <c r="D147" s="3" t="s">
         <v>319</v>
@@ -16543,7 +16664,7 @@
         <v>2024</v>
       </c>
       <c r="C148" s="8" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
       <c r="D148" s="3" t="s">
         <v>319</v>
@@ -16563,7 +16684,7 @@
         <v>2024</v>
       </c>
       <c r="C149" s="8" t="s">
-        <v>1681</v>
+        <v>1680</v>
       </c>
       <c r="D149" s="3" t="s">
         <v>319</v>
@@ -17118,11 +17239,11 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D69843AC-53B4-48CA-B617-D00BDAB9537A}">
   <sheetPr filterMode="1"/>
-  <dimension ref="A1:M339"/>
+  <dimension ref="A1:M338"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J18" sqref="J18"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I316" sqref="I316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17151,10 +17272,10 @@
         <v>1182</v>
       </c>
       <c r="D1" s="141" t="s">
-        <v>1666</v>
+        <v>1665</v>
       </c>
       <c r="E1" s="141" t="s">
-        <v>1793</v>
+        <v>1792</v>
       </c>
       <c r="F1" s="111" t="s">
         <v>310</v>
@@ -17592,7 +17713,7 @@
       <c r="L14" s="101"/>
       <c r="M14" s="101"/>
     </row>
-    <row r="15" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="101" t="s">
         <v>1279</v>
       </c>
@@ -17623,7 +17744,7 @@
       <c r="L15" s="101"/>
       <c r="M15" s="101"/>
     </row>
-    <row r="16" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17654,7 +17775,7 @@
       <c r="L16" s="101"/>
       <c r="M16" s="101"/>
     </row>
-    <row r="17" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17689,7 +17810,7 @@
       <c r="L17" s="101"/>
       <c r="M17" s="101"/>
     </row>
-    <row r="18" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17720,7 +17841,7 @@
       <c r="L18" s="101"/>
       <c r="M18" s="101"/>
     </row>
-    <row r="19" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17755,7 +17876,7 @@
       <c r="L19" s="101"/>
       <c r="M19" s="101"/>
     </row>
-    <row r="20" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17786,7 +17907,7 @@
       <c r="L20" s="101"/>
       <c r="M20" s="101"/>
     </row>
-    <row r="21" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17817,7 +17938,7 @@
       <c r="L21" s="101"/>
       <c r="M21" s="101"/>
     </row>
-    <row r="22" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17848,7 +17969,7 @@
       <c r="L22" s="101"/>
       <c r="M22" s="101"/>
     </row>
-    <row r="23" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17879,7 +18000,7 @@
       <c r="L23" s="101"/>
       <c r="M23" s="101"/>
     </row>
-    <row r="24" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17910,7 +18031,7 @@
       <c r="L24" s="101"/>
       <c r="M24" s="101"/>
     </row>
-    <row r="25" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17941,7 +18062,7 @@
       <c r="L25" s="101"/>
       <c r="M25" s="101"/>
     </row>
-    <row r="26" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="101" t="s">
         <v>1289</v>
       </c>
@@ -17972,7 +18093,7 @@
       <c r="L26" s="101"/>
       <c r="M26" s="101"/>
     </row>
-    <row r="27" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18003,7 +18124,7 @@
       <c r="L27" s="101"/>
       <c r="M27" s="101"/>
     </row>
-    <row r="28" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18034,7 +18155,7 @@
       <c r="L28" s="101"/>
       <c r="M28" s="101"/>
     </row>
-    <row r="29" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18065,7 +18186,7 @@
       <c r="L29" s="101"/>
       <c r="M29" s="101"/>
     </row>
-    <row r="30" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18098,7 +18219,7 @@
       </c>
       <c r="M30" s="102"/>
     </row>
-    <row r="31" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18129,7 +18250,7 @@
       <c r="L31" s="103"/>
       <c r="M31" s="102"/>
     </row>
-    <row r="32" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18162,7 +18283,7 @@
       </c>
       <c r="M32" s="102"/>
     </row>
-    <row r="33" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18193,7 +18314,7 @@
       <c r="L33" s="103"/>
       <c r="M33" s="102"/>
     </row>
-    <row r="34" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18224,7 +18345,7 @@
       <c r="L34" s="103"/>
       <c r="M34" s="102"/>
     </row>
-    <row r="35" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18255,7 +18376,7 @@
       <c r="L35" s="103"/>
       <c r="M35" s="102"/>
     </row>
-    <row r="36" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18286,7 +18407,7 @@
       <c r="L36" s="103"/>
       <c r="M36" s="102"/>
     </row>
-    <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18314,14 +18435,14 @@
         <v>1610</v>
       </c>
       <c r="I37" s="102" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="J37" s="102"/>
       <c r="K37" s="103"/>
       <c r="L37" s="103"/>
       <c r="M37" s="102"/>
     </row>
-    <row r="38" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18356,7 +18477,7 @@
       <c r="L38" s="103"/>
       <c r="M38" s="102"/>
     </row>
-    <row r="39" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18387,7 +18508,7 @@
       <c r="L39" s="103"/>
       <c r="M39" s="102"/>
     </row>
-    <row r="40" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18422,7 +18543,7 @@
       <c r="L40" s="103"/>
       <c r="M40" s="102"/>
     </row>
-    <row r="41" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18455,7 +18576,7 @@
       </c>
       <c r="M41" s="102"/>
     </row>
-    <row r="42" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18488,7 +18609,7 @@
       </c>
       <c r="M42" s="102"/>
     </row>
-    <row r="43" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18672,10 +18793,10 @@
         <v>1246</v>
       </c>
       <c r="H48" s="102" t="s">
-        <v>1647</v>
+        <v>1646</v>
       </c>
       <c r="I48" s="102" t="s">
-        <v>1644</v>
+        <v>1643</v>
       </c>
       <c r="J48" s="102"/>
       <c r="K48" s="103"/>
@@ -18779,7 +18900,7 @@
       <c r="L51" s="103"/>
       <c r="M51" s="102"/>
     </row>
-    <row r="52" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18810,7 +18931,7 @@
       <c r="L52" s="103"/>
       <c r="M52" s="102"/>
     </row>
-    <row r="53" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18845,7 +18966,7 @@
       <c r="L53" s="103"/>
       <c r="M53" s="102"/>
     </row>
-    <row r="54" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="101" t="s">
         <v>1289</v>
       </c>
@@ -18876,7 +18997,7 @@
       <c r="L54" s="103"/>
       <c r="M54" s="102"/>
     </row>
-    <row r="55" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="101" t="s">
         <v>1289</v>
       </c>
@@ -19795,10 +19916,10 @@
         <v>1291</v>
       </c>
       <c r="H83" s="102" t="s">
+        <v>1644</v>
+      </c>
+      <c r="I83" s="102" t="s">
         <v>1645</v>
-      </c>
-      <c r="I83" s="102" t="s">
-        <v>1646</v>
       </c>
       <c r="J83" s="102"/>
       <c r="K83" s="103"/>
@@ -20445,7 +20566,7 @@
         <v>1365</v>
       </c>
       <c r="H103" s="102" t="s">
-        <v>1639</v>
+        <v>1638</v>
       </c>
       <c r="I103" s="102" t="s">
         <v>1486</v>
@@ -21971,7 +22092,7 @@
         <v>1405</v>
       </c>
       <c r="H151" s="105" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I151" s="102" t="s">
         <v>1335</v>
@@ -23388,10 +23509,10 @@
         <v>1225</v>
       </c>
       <c r="H194" s="105" t="s">
-        <v>1643</v>
+        <v>1642</v>
       </c>
       <c r="I194" s="105" t="s">
-        <v>1642</v>
+        <v>1641</v>
       </c>
       <c r="J194" s="105"/>
       <c r="K194" s="103"/>
@@ -23516,10 +23637,10 @@
         <v>1447</v>
       </c>
       <c r="H198" s="105" t="s">
+        <v>1639</v>
+      </c>
+      <c r="I198" s="105" t="s">
         <v>1640</v>
-      </c>
-      <c r="I198" s="105" t="s">
-        <v>1641</v>
       </c>
       <c r="J198" s="105"/>
       <c r="K198" s="103"/>
@@ -25407,7 +25528,7 @@
       <c r="L257" s="103"/>
       <c r="M257" s="113"/>
     </row>
-    <row r="258" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A258" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25444,7 +25565,7 @@
       <c r="L258" s="103"/>
       <c r="M258" s="113"/>
     </row>
-    <row r="259" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A259" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25455,7 +25576,7 @@
         <v>45564</v>
       </c>
       <c r="D259" s="142" t="str">
-        <f t="shared" ref="D259:D326" si="8">"Week " &amp; TEXT(WEEKNUM(C259, 1), "00")</f>
+        <f t="shared" ref="D259:D325" si="8">"Week " &amp; TEXT(WEEKNUM(C259, 1), "00")</f>
         <v>Week 40</v>
       </c>
       <c r="E259" s="142" t="str">
@@ -25479,7 +25600,7 @@
       <c r="L259" s="105"/>
       <c r="M259" s="102"/>
     </row>
-    <row r="260" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A260" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25518,7 +25639,7 @@
       <c r="L260" s="105"/>
       <c r="M260" s="113"/>
     </row>
-    <row r="261" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A261" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25555,7 +25676,7 @@
       <c r="L261" s="105"/>
       <c r="M261" s="105"/>
     </row>
-    <row r="262" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A262" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25592,7 +25713,7 @@
       <c r="L262" s="105"/>
       <c r="M262" s="119"/>
     </row>
-    <row r="263" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A263" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25629,7 +25750,7 @@
       <c r="L263" s="105"/>
       <c r="M263" s="119"/>
     </row>
-    <row r="264" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A264" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25666,7 +25787,7 @@
       <c r="L264" s="105"/>
       <c r="M264" s="102"/>
     </row>
-    <row r="265" spans="1:13" ht="45.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:13" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A265" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25694,7 +25815,7 @@
         <v>458</v>
       </c>
       <c r="I265" s="114" t="s">
-        <v>1632</v>
+        <v>1631</v>
       </c>
       <c r="J265" s="138" t="s">
         <v>1609</v>
@@ -25703,7 +25824,7 @@
       <c r="L265" s="102"/>
       <c r="M265" s="102"/>
     </row>
-    <row r="266" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A266" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25740,7 +25861,7 @@
       <c r="L266" s="103"/>
       <c r="M266" s="103"/>
     </row>
-    <row r="267" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A267" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25777,7 +25898,7 @@
       <c r="L267" s="103"/>
       <c r="M267" s="103"/>
     </row>
-    <row r="268" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A268" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25802,10 +25923,10 @@
         <v>1213</v>
       </c>
       <c r="H268" s="114" t="s">
-        <v>1634</v>
+        <v>1633</v>
       </c>
       <c r="I268" s="139" t="s">
-        <v>1633</v>
+        <v>1632</v>
       </c>
       <c r="J268" s="114" t="s">
         <v>458</v>
@@ -25814,7 +25935,7 @@
       <c r="L268" s="103"/>
       <c r="M268" s="103"/>
     </row>
-    <row r="269" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A269" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25851,7 +25972,7 @@
       <c r="L269" s="103"/>
       <c r="M269" s="103"/>
     </row>
-    <row r="270" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A270" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25888,7 +26009,7 @@
       <c r="L270" s="105"/>
       <c r="M270" s="102"/>
     </row>
-    <row r="271" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A271" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25919,13 +26040,13 @@
         <v>1439</v>
       </c>
       <c r="J271" s="113" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="K271" s="103"/>
       <c r="L271" s="105"/>
       <c r="M271" s="102"/>
     </row>
-    <row r="272" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A272" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25956,13 +26077,13 @@
         <v>458</v>
       </c>
       <c r="J272" s="113" t="s">
-        <v>1631</v>
+        <v>1630</v>
       </c>
       <c r="K272" s="103"/>
       <c r="L272" s="105"/>
       <c r="M272" s="102"/>
     </row>
-    <row r="273" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A273" s="101" t="s">
         <v>1197</v>
       </c>
@@ -25999,7 +26120,7 @@
       <c r="L273" s="105"/>
       <c r="M273" s="102"/>
     </row>
-    <row r="274" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A274" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26030,13 +26151,13 @@
         <v>1439</v>
       </c>
       <c r="J274" s="113" t="s">
-        <v>1630</v>
+        <v>1629</v>
       </c>
       <c r="K274" s="103"/>
       <c r="L274" s="105"/>
       <c r="M274" s="102"/>
     </row>
-    <row r="275" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A275" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26073,7 +26194,7 @@
       <c r="L275" s="105"/>
       <c r="M275" s="102"/>
     </row>
-    <row r="276" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A276" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26108,7 +26229,7 @@
       <c r="L276" s="105"/>
       <c r="M276" s="102"/>
     </row>
-    <row r="277" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A277" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26143,7 +26264,7 @@
       <c r="L277" s="105"/>
       <c r="M277" s="102"/>
     </row>
-    <row r="278" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A278" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26168,7 +26289,7 @@
         <v>1229</v>
       </c>
       <c r="H278" s="114" t="s">
-        <v>1635</v>
+        <v>1634</v>
       </c>
       <c r="I278" s="114" t="s">
         <v>1569</v>
@@ -26180,7 +26301,7 @@
       <c r="L278" s="105"/>
       <c r="M278" s="102"/>
     </row>
-    <row r="279" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A279" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26215,7 +26336,7 @@
       <c r="L279" s="105"/>
       <c r="M279" s="102"/>
     </row>
-    <row r="280" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A280" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26250,7 +26371,7 @@
       <c r="L280" s="105"/>
       <c r="M280" s="102"/>
     </row>
-    <row r="281" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A281" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26285,7 +26406,7 @@
       <c r="L281" s="105"/>
       <c r="M281" s="102"/>
     </row>
-    <row r="282" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A282" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26316,7 +26437,7 @@
       <c r="L282" s="105"/>
       <c r="M282" s="102"/>
     </row>
-    <row r="283" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A283" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26351,7 +26472,7 @@
       <c r="L283" s="105"/>
       <c r="M283" s="102"/>
     </row>
-    <row r="284" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A284" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26382,7 +26503,7 @@
       <c r="L284" s="105"/>
       <c r="M284" s="102"/>
     </row>
-    <row r="285" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A285" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26397,7 +26518,7 @@
         <v>Week 52</v>
       </c>
       <c r="E285" s="142" t="str">
-        <f t="shared" ref="E285:E339" si="10">TEXT(C285, "dddd")</f>
+        <f t="shared" ref="E285:E338" si="10">TEXT(C285, "dddd")</f>
         <v>Sunday</v>
       </c>
       <c r="F285" s="114" t="s">
@@ -26407,7 +26528,7 @@
         <v>1236</v>
       </c>
       <c r="H285" s="114" t="s">
-        <v>1636</v>
+        <v>1635</v>
       </c>
       <c r="I285" s="114" t="s">
         <v>1465</v>
@@ -26419,7 +26540,7 @@
       <c r="L285" s="105"/>
       <c r="M285" s="102"/>
     </row>
-    <row r="286" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A286" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26452,7 +26573,7 @@
       <c r="L286" s="105"/>
       <c r="M286" s="113"/>
     </row>
-    <row r="287" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A287" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26483,7 +26604,7 @@
       <c r="L287" s="105"/>
       <c r="M287" s="113"/>
     </row>
-    <row r="288" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A288" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26514,7 +26635,7 @@
       <c r="L288" s="105"/>
       <c r="M288" s="113"/>
     </row>
-    <row r="289" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A289" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26547,7 +26668,7 @@
       <c r="L289" s="105"/>
       <c r="M289" s="113"/>
     </row>
-    <row r="290" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A290" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26580,7 +26701,7 @@
       <c r="L290" s="105"/>
       <c r="M290" s="113"/>
     </row>
-    <row r="291" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A291" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26611,106 +26732,106 @@
       <c r="L291" s="105"/>
       <c r="M291" s="113"/>
     </row>
-    <row r="292" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A292" s="101" t="s">
         <v>1197</v>
       </c>
-      <c r="B292" s="108" t="s">
-        <v>1272</v>
-      </c>
-      <c r="C292" s="142">
-        <v>45661</v>
+      <c r="B292" s="129" t="s">
+        <v>1218</v>
+      </c>
+      <c r="C292" s="147">
+        <v>45662</v>
       </c>
       <c r="D292" s="142" t="str">
-        <f t="shared" si="8"/>
-        <v>Week 01</v>
+        <f t="shared" ref="D292" si="11">"Week " &amp; TEXT(WEEKNUM(C292, 1), "00")</f>
+        <v>Week 02</v>
       </c>
       <c r="E292" s="142" t="str">
-        <f t="shared" si="10"/>
-        <v>Saturday</v>
+        <f t="shared" ref="E292" si="12">TEXT(C292, "dddd")</f>
+        <v>Sunday</v>
       </c>
       <c r="F292" s="105" t="s">
-        <v>1243</v>
+        <v>1230</v>
       </c>
       <c r="G292" s="105" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H292" s="114" t="s">
-        <v>1618</v>
-      </c>
-      <c r="I292" s="114" t="s">
-        <v>1435</v>
-      </c>
+        <v>1871</v>
+      </c>
+      <c r="H292" s="114"/>
+      <c r="I292" s="114"/>
       <c r="J292" s="114"/>
       <c r="K292" s="136"/>
       <c r="L292" s="105"/>
       <c r="M292" s="113"/>
     </row>
-    <row r="293" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A293" s="101" t="s">
         <v>1197</v>
       </c>
-      <c r="B293" s="129" t="s">
-        <v>1218</v>
+      <c r="B293" s="106" t="s">
+        <v>1203</v>
       </c>
       <c r="C293" s="147">
         <v>45662</v>
       </c>
       <c r="D293" s="142" t="str">
-        <f t="shared" ref="D293" si="11">"Week " &amp; TEXT(WEEKNUM(C293, 1), "00")</f>
+        <f t="shared" si="8"/>
         <v>Week 02</v>
       </c>
       <c r="E293" s="142" t="str">
-        <f t="shared" ref="E293" si="12">TEXT(C293, "dddd")</f>
+        <f t="shared" si="10"/>
         <v>Sunday</v>
       </c>
       <c r="F293" s="105" t="s">
-        <v>1230</v>
+        <v>1199</v>
       </c>
       <c r="G293" s="105" t="s">
-        <v>1873</v>
+        <v>1200</v>
       </c>
       <c r="H293" s="114"/>
       <c r="I293" s="114"/>
       <c r="J293" s="114"/>
-      <c r="K293" s="136"/>
+      <c r="K293" s="136">
+        <v>0.75</v>
+      </c>
       <c r="L293" s="105"/>
       <c r="M293" s="113"/>
     </row>
-    <row r="294" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A294" s="101" t="s">
         <v>1197</v>
       </c>
-      <c r="B294" s="106" t="s">
-        <v>1203</v>
-      </c>
-      <c r="C294" s="147">
-        <v>45662</v>
+      <c r="B294" s="108" t="s">
+        <v>1272</v>
+      </c>
+      <c r="C294" s="142">
+        <v>45669</v>
       </c>
       <c r="D294" s="142" t="str">
         <f t="shared" si="8"/>
-        <v>Week 02</v>
+        <v>Week 03</v>
       </c>
       <c r="E294" s="142" t="str">
         <f t="shared" si="10"/>
         <v>Sunday</v>
       </c>
       <c r="F294" s="105" t="s">
-        <v>1199</v>
+        <v>1227</v>
       </c>
       <c r="G294" s="105" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H294" s="114"/>
-      <c r="I294" s="114"/>
+        <v>1257</v>
+      </c>
+      <c r="H294" s="114" t="s">
+        <v>1618</v>
+      </c>
+      <c r="I294" s="114" t="s">
+        <v>1420</v>
+      </c>
       <c r="J294" s="114"/>
-      <c r="K294" s="136">
-        <v>0.75</v>
-      </c>
+      <c r="K294" s="136"/>
       <c r="L294" s="105"/>
       <c r="M294" s="113"/>
     </row>
-    <row r="295" spans="1:13" ht="15.75" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A295" s="101" t="s">
         <v>1197</v>
       </c>
@@ -26718,7 +26839,7 @@
         <v>1272</v>
       </c>
       <c r="C295" s="142">
-        <v>45669</v>
+        <v>45675</v>
       </c>
       <c r="D295" s="142" t="str">
         <f t="shared" si="8"/>
@@ -26726,62 +26847,62 